--- a/templates/entry_list_template.xlsx
+++ b/templates/entry_list_template.xlsx
@@ -5,26 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brendanwoo/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brendanwoo/projects/sro_sign_in/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCAE645-9AAD-144E-A9F2-7817306FFB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E5828F-E824-6242-8124-964AFFF64DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{542D648B-9180-43EF-9053-182057C63D4C}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{542D648B-9180-43EF-9053-182057C63D4C}"/>
   </bookViews>
   <sheets>
     <sheet name="GTWCA" sheetId="10" r:id="rId1"/>
-    <sheet name="GTA" sheetId="5" r:id="rId2"/>
-    <sheet name="GT4A" sheetId="6" r:id="rId3"/>
+    <sheet name="GTAM" sheetId="5" r:id="rId2"/>
+    <sheet name="PGT4A" sheetId="6" r:id="rId3"/>
     <sheet name="TCAM" sheetId="11" r:id="rId4"/>
     <sheet name="GR Cup" sheetId="8" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'GR Cup'!$A$1:$H$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">GT4A!$A$1:$N$41</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">GTA!$A$2:$J$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">GTAM!$A$2:$J$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">GTWCA!$A$2:$N$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">PGT4A!$A$1:$N$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">TCAM!$A$1:$H$37</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -1739,7 +1738,7 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="56" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="494">
+  <cellXfs count="490">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2407,21 +2406,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2480,7 +2464,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2489,22 +2473,12 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="46" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2565,9 +2539,6 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="39" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2585,9 +2556,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -3105,10 +3073,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="31" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3148,6 +3116,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3448,6 +3437,13 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color indexed="64"/>
@@ -3460,6 +3456,16 @@
         </top>
         <bottom style="medium">
           <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -3495,576 +3501,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thick">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thick">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thick">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thick">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thick">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thick">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thick">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -4580,6 +4016,13 @@
         </top>
         <bottom style="thick">
           <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thick">
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
@@ -5013,6 +4456,552 @@
         <sz val="14"/>
         <name val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thick">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thick">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thick">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thick">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -5644,84 +5633,80 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{006C041B-C32A-5442-9D54-6FB0F2E1703A}" name="Table22" displayName="Table22" ref="A7:N28" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30" headerRowBorderDxfId="28" tableBorderDxfId="29" totalsRowBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{006C041B-C32A-5442-9D54-6FB0F2E1703A}" name="Table22" displayName="Table22" ref="A7:N28" totalsRowShown="0" headerRowDxfId="64" dataDxfId="62" headerRowBorderDxfId="63" tableBorderDxfId="61" totalsRowBorderDxfId="60">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:N29">
     <sortCondition ref="B29"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="2" xr3:uid="{8EAC187A-4BC7-044D-A24C-EE683FF40EDC}" name="Series" dataDxfId="26" dataCellStyle="Neutral"/>
-    <tableColumn id="10" xr3:uid="{6761E48F-7432-8E4D-983D-FD8CF12204ED}" name="Car #" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{0DF6B8D7-FC4D-5845-A1AC-0C19350700B1}" name="Team " dataDxfId="24" dataCellStyle="Neutral"/>
-    <tableColumn id="4" xr3:uid="{D7958FE6-C778-2340-A370-BF9B62951BE2}" name="Driver 1" dataDxfId="23" dataCellStyle="Neutral"/>
-    <tableColumn id="5" xr3:uid="{A1C4CE74-0FBD-A249-A28E-1AA4F0E32E24}" name="NAT" dataDxfId="22" dataCellStyle="Neutral"/>
-    <tableColumn id="13" xr3:uid="{06D828EC-E323-DA4F-B814-30D97E8751E7}" name="LIC " dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{5C59EF6B-E503-B449-BD81-31D0C127B158}" name="CAT" dataDxfId="20"/>
-    <tableColumn id="12" xr3:uid="{FCCDF9C0-43DB-3343-8312-4E0B4B75956D}" name="Driver 2" dataDxfId="19"/>
-    <tableColumn id="11" xr3:uid="{48BAF24C-A19D-1B40-8E87-E8ABF82E4431}" name="  NAT " dataDxfId="18"/>
-    <tableColumn id="14" xr3:uid="{CF8EB17E-A9FE-5E4E-B068-F6226C82985D}" name=" LIC " dataDxfId="17"/>
-    <tableColumn id="1" xr3:uid="{4E58BAAF-4A36-2443-BB6E-FB2F3CD6C045}" name="CAT " dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{B01B38E0-90B8-DA4E-A115-23024964F22B}" name="Car Sponsors" dataDxfId="15" dataCellStyle="Neutral"/>
-    <tableColumn id="7" xr3:uid="{A8339886-62FE-D648-99E5-4129118A9D24}" name="Car Make/Model" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{FAA5AA03-0CBD-CD44-B4EA-32A19F875C8B}" name="Championship" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{8EAC187A-4BC7-044D-A24C-EE683FF40EDC}" name="Series" dataDxfId="59" dataCellStyle="Neutral"/>
+    <tableColumn id="10" xr3:uid="{6761E48F-7432-8E4D-983D-FD8CF12204ED}" name="Car #" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{0DF6B8D7-FC4D-5845-A1AC-0C19350700B1}" name="Team " dataDxfId="57" dataCellStyle="Neutral"/>
+    <tableColumn id="4" xr3:uid="{D7958FE6-C778-2340-A370-BF9B62951BE2}" name="Driver 1" dataDxfId="56" dataCellStyle="Neutral"/>
+    <tableColumn id="5" xr3:uid="{A1C4CE74-0FBD-A249-A28E-1AA4F0E32E24}" name="NAT" dataDxfId="55" dataCellStyle="Neutral"/>
+    <tableColumn id="13" xr3:uid="{06D828EC-E323-DA4F-B814-30D97E8751E7}" name="LIC " dataDxfId="54"/>
+    <tableColumn id="6" xr3:uid="{5C59EF6B-E503-B449-BD81-31D0C127B158}" name="CAT" dataDxfId="53"/>
+    <tableColumn id="12" xr3:uid="{FCCDF9C0-43DB-3343-8312-4E0B4B75956D}" name="Driver 2" dataDxfId="52"/>
+    <tableColumn id="11" xr3:uid="{48BAF24C-A19D-1B40-8E87-E8ABF82E4431}" name="  NAT " dataDxfId="51"/>
+    <tableColumn id="14" xr3:uid="{CF8EB17E-A9FE-5E4E-B068-F6226C82985D}" name=" LIC " dataDxfId="50"/>
+    <tableColumn id="1" xr3:uid="{4E58BAAF-4A36-2443-BB6E-FB2F3CD6C045}" name="CAT " dataDxfId="49"/>
+    <tableColumn id="8" xr3:uid="{B01B38E0-90B8-DA4E-A115-23024964F22B}" name="Car Sponsors" dataDxfId="48" dataCellStyle="Neutral"/>
+    <tableColumn id="7" xr3:uid="{A8339886-62FE-D648-99E5-4129118A9D24}" name="Car Make/Model" dataDxfId="47"/>
+    <tableColumn id="9" xr3:uid="{FAA5AA03-0CBD-CD44-B4EA-32A19F875C8B}" name="Championship" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EEF14E4E-087A-46C7-831D-A668229E00D6}" name="Table226" displayName="Table226" ref="A6:J28" totalsRowShown="0" headerRowDxfId="64" dataDxfId="62" headerRowBorderDxfId="63" tableBorderDxfId="61" totalsRowBorderDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EEF14E4E-087A-46C7-831D-A668229E00D6}" name="Table226" displayName="Table226" ref="A6:J28" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42" totalsRowBorderDxfId="41">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:J31">
     <sortCondition descending="1" ref="J8:J31"/>
     <sortCondition ref="B8:B31"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="2" xr3:uid="{29DF6422-9DDA-4F8F-8BEE-5184D2457B57}" name="Series" dataDxfId="59" dataCellStyle="Neutral"/>
-    <tableColumn id="10" xr3:uid="{1486B7A1-2318-4A69-93B1-14B85F40C988}" name="Car #" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{9FCCBAF6-EB7D-44F1-ADEC-A2DF74A549AE}" name="Team " dataDxfId="57" dataCellStyle="Neutral"/>
-    <tableColumn id="4" xr3:uid="{5972D2A1-6086-4595-9053-F6AB4ABD85A7}" name="Driver 1" dataDxfId="56" dataCellStyle="Neutral"/>
-    <tableColumn id="5" xr3:uid="{0273D45B-C8FF-4DBF-A963-B72D55D93954}" name="NAT" dataDxfId="55" dataCellStyle="Neutral"/>
-    <tableColumn id="13" xr3:uid="{26D97A36-D7BA-4D93-9A44-CC528D4BDC4F}" name="LIC " dataDxfId="54"/>
-    <tableColumn id="6" xr3:uid="{AC25B573-C8BF-40ED-8E09-71D35117CA3A}" name="CAT" dataDxfId="53"/>
-    <tableColumn id="8" xr3:uid="{C3A46578-AA4D-4C94-B592-5AC371A17E14}" name="Car Sponsors" dataDxfId="52" dataCellStyle="Neutral"/>
-    <tableColumn id="7" xr3:uid="{7B3018A6-2A70-4C3E-BE5C-CCFFCABD4796}" name="Car Make/Model" dataDxfId="51"/>
-    <tableColumn id="9" xr3:uid="{C0209330-55B6-42D3-AB23-D1C37AFC6FDA}" name="Class" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{29DF6422-9DDA-4F8F-8BEE-5184D2457B57}" name="Series" dataDxfId="40" dataCellStyle="Neutral"/>
+    <tableColumn id="10" xr3:uid="{1486B7A1-2318-4A69-93B1-14B85F40C988}" name="Car #" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{9FCCBAF6-EB7D-44F1-ADEC-A2DF74A549AE}" name="Team " dataDxfId="38" dataCellStyle="Neutral"/>
+    <tableColumn id="4" xr3:uid="{5972D2A1-6086-4595-9053-F6AB4ABD85A7}" name="Driver 1" dataDxfId="37" dataCellStyle="Neutral"/>
+    <tableColumn id="5" xr3:uid="{0273D45B-C8FF-4DBF-A963-B72D55D93954}" name="NAT" dataDxfId="36" dataCellStyle="Neutral"/>
+    <tableColumn id="13" xr3:uid="{26D97A36-D7BA-4D93-9A44-CC528D4BDC4F}" name="LIC " dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{AC25B573-C8BF-40ED-8E09-71D35117CA3A}" name="CAT" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{C3A46578-AA4D-4C94-B592-5AC371A17E14}" name="Car Sponsors" dataDxfId="33" dataCellStyle="Neutral"/>
+    <tableColumn id="7" xr3:uid="{7B3018A6-2A70-4C3E-BE5C-CCFFCABD4796}" name="Car Make/Model" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{C0209330-55B6-42D3-AB23-D1C37AFC6FDA}" name="Class" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{56F25BC1-6701-4669-AC0F-E1673995674A}" name="Table2267" displayName="Table2267" ref="A6:N38" totalsRowShown="0" headerRowDxfId="49" headerRowBorderDxfId="32" tableBorderDxfId="48" totalsRowBorderDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{56F25BC1-6701-4669-AC0F-E1673995674A}" name="Table2267" displayName="Table2267" ref="A6:N38" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" tableBorderDxfId="28" totalsRowBorderDxfId="27">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:N39">
     <sortCondition ref="B9:B39"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="2" xr3:uid="{86C7766F-C815-4642-A792-C792E5CD9B1D}" name="Series" dataDxfId="46" dataCellStyle="Neutral"/>
-    <tableColumn id="10" xr3:uid="{B0849F24-6597-4E76-94D7-2D7E93B5B7E1}" name="Car #" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{C0375D1B-A6A9-4878-94F1-144B367DBFAE}" name="Team " dataDxfId="44" dataCellStyle="Neutral"/>
-    <tableColumn id="4" xr3:uid="{731AF936-9BBC-4114-AF94-6737C2C799AD}" name="Driver 1" dataDxfId="43" dataCellStyle="Neutral"/>
-    <tableColumn id="5" xr3:uid="{4AAAC599-A742-4343-8BE4-F0207EAEB236}" name="NAT" dataDxfId="42" dataCellStyle="Neutral"/>
-    <tableColumn id="13" xr3:uid="{46C8C08D-7690-4908-8D68-9031FA1AAB13}" name="LIC " dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{0B42790F-CF16-4A79-97F6-02353851B814}" name="CAT" dataDxfId="40"/>
-    <tableColumn id="12" xr3:uid="{4393EDC9-8099-4851-8BA5-F88B5093FA18}" name="Driver 2" dataDxfId="39"/>
-    <tableColumn id="11" xr3:uid="{022A346F-1EFC-477E-B3FF-234F17FB995D}" name="  NAT " dataDxfId="38"/>
-    <tableColumn id="14" xr3:uid="{4A5DA010-C6D1-49CE-8487-00AC7C736274}" name=" LIC " dataDxfId="37"/>
-    <tableColumn id="1" xr3:uid="{15D47E2B-7108-41F5-BB6D-FABBD704C2C8}" name="CAT " dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{5F578104-8A47-4C21-AE4F-A41AFD51CA17}" name="Car Sponsors" dataDxfId="35" dataCellStyle="Neutral"/>
-    <tableColumn id="7" xr3:uid="{37BFAE36-6B5E-4D59-B805-2A4B37B829ED}" name="Car Make/Model" dataDxfId="34"/>
-    <tableColumn id="9" xr3:uid="{C4134C49-64E4-4B01-865E-C1B755B7D04A}" name="Championship" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{86C7766F-C815-4642-A792-C792E5CD9B1D}" name="Series" dataDxfId="26" dataCellStyle="Neutral"/>
+    <tableColumn id="10" xr3:uid="{B0849F24-6597-4E76-94D7-2D7E93B5B7E1}" name="Car #" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{C0375D1B-A6A9-4878-94F1-144B367DBFAE}" name="Team " dataDxfId="24" dataCellStyle="Neutral"/>
+    <tableColumn id="4" xr3:uid="{731AF936-9BBC-4114-AF94-6737C2C799AD}" name="Driver 1" dataDxfId="23" dataCellStyle="Neutral"/>
+    <tableColumn id="5" xr3:uid="{4AAAC599-A742-4343-8BE4-F0207EAEB236}" name="NAT" dataDxfId="22" dataCellStyle="Neutral"/>
+    <tableColumn id="13" xr3:uid="{46C8C08D-7690-4908-8D68-9031FA1AAB13}" name="LIC " dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{0B42790F-CF16-4A79-97F6-02353851B814}" name="CAT" dataDxfId="20"/>
+    <tableColumn id="12" xr3:uid="{4393EDC9-8099-4851-8BA5-F88B5093FA18}" name="Driver 2" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{022A346F-1EFC-477E-B3FF-234F17FB995D}" name="  NAT " dataDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{4A5DA010-C6D1-49CE-8487-00AC7C736274}" name=" LIC " dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{15D47E2B-7108-41F5-BB6D-FABBD704C2C8}" name="CAT " dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{5F578104-8A47-4C21-AE4F-A41AFD51CA17}" name="Car Sponsors" dataDxfId="15" dataCellStyle="Neutral"/>
+    <tableColumn id="7" xr3:uid="{37BFAE36-6B5E-4D59-B805-2A4B37B829ED}" name="Car Make/Model" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{C4134C49-64E4-4B01-865E-C1B755B7D04A}" name="Championship" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{11330F46-3971-7D44-8FE5-B039A90EF352}" name="Table22683" displayName="Table22683" ref="A6:H34" totalsRowShown="0" headerRowDxfId="9" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{11330F46-3971-7D44-8FE5-B039A90EF352}" name="Table22683" displayName="Table22683" ref="A6:H34" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:H35">
     <sortCondition descending="1" ref="H12:H35"/>
   </sortState>
@@ -6047,686 +6032,686 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="295" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="296" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" style="295" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="295" customWidth="1"/>
-    <col min="5" max="7" width="8.6640625" style="295" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="295" customWidth="1"/>
-    <col min="9" max="11" width="8.6640625" style="295" customWidth="1"/>
-    <col min="12" max="13" width="35.6640625" style="295" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" style="295" customWidth="1"/>
-    <col min="15" max="17" width="4.5" style="295"/>
-    <col min="18" max="19" width="8.6640625" style="295" customWidth="1"/>
-    <col min="20" max="20" width="10.6640625" style="295" customWidth="1"/>
-    <col min="21" max="24" width="8.6640625" style="295" customWidth="1"/>
-    <col min="25" max="16384" width="4.5" style="295"/>
+    <col min="1" max="1" width="10.6640625" style="284" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="285" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" style="284" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" style="284" customWidth="1"/>
+    <col min="5" max="7" width="8.6640625" style="284" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" style="284" customWidth="1"/>
+    <col min="9" max="11" width="8.6640625" style="284" customWidth="1"/>
+    <col min="12" max="13" width="35.6640625" style="284" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" style="284" customWidth="1"/>
+    <col min="15" max="17" width="4.5" style="284"/>
+    <col min="18" max="19" width="8.6640625" style="284" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" style="284" customWidth="1"/>
+    <col min="21" max="24" width="8.6640625" style="284" customWidth="1"/>
+    <col min="25" max="16384" width="4.5" style="284"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="294"/>
-      <c r="B2" s="294"/>
-      <c r="C2" s="294"/>
-      <c r="F2" s="240"/>
-      <c r="G2" s="240"/>
+      <c r="A2" s="483"/>
+      <c r="B2" s="483"/>
+      <c r="C2" s="483"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
       <c r="H2" s="227"/>
-      <c r="I2" s="240"/>
-      <c r="J2" s="240"/>
-      <c r="M2" s="294"/>
-      <c r="N2" s="294"/>
+      <c r="I2" s="235"/>
+      <c r="J2" s="235"/>
+      <c r="M2" s="483"/>
+      <c r="N2" s="483"/>
     </row>
     <row r="3" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="294"/>
-      <c r="B3" s="294"/>
-      <c r="C3" s="294"/>
-      <c r="F3" s="240"/>
-      <c r="G3" s="240"/>
+      <c r="A3" s="483"/>
+      <c r="B3" s="483"/>
+      <c r="C3" s="483"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
       <c r="H3" s="227" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="240"/>
-      <c r="J3" s="240"/>
-      <c r="M3" s="294"/>
-      <c r="N3" s="294"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="M3" s="483"/>
+      <c r="N3" s="483"/>
     </row>
     <row r="4" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="294"/>
-      <c r="B4" s="294"/>
-      <c r="C4" s="294"/>
-      <c r="F4" s="240"/>
-      <c r="G4" s="240"/>
+      <c r="A4" s="483"/>
+      <c r="B4" s="483"/>
+      <c r="C4" s="483"/>
+      <c r="F4" s="235"/>
+      <c r="G4" s="235"/>
       <c r="H4" s="227"/>
-      <c r="I4" s="240"/>
-      <c r="J4" s="240"/>
-      <c r="M4" s="294"/>
-      <c r="N4" s="294"/>
+      <c r="I4" s="235"/>
+      <c r="J4" s="235"/>
+      <c r="M4" s="483"/>
+      <c r="N4" s="483"/>
     </row>
     <row r="6" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="R6" s="294" t="s">
+      <c r="R6" s="483" t="s">
         <v>0</v>
       </c>
-      <c r="S6" s="294"/>
-      <c r="T6" s="294"/>
-      <c r="U6" s="294"/>
-      <c r="V6" s="294"/>
-      <c r="W6" s="294"/>
-      <c r="X6" s="294"/>
+      <c r="S6" s="483"/>
+      <c r="T6" s="483"/>
+      <c r="U6" s="483"/>
+      <c r="V6" s="483"/>
+      <c r="W6" s="483"/>
+      <c r="X6" s="483"/>
     </row>
     <row r="7" spans="1:24" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="297" t="s">
+      <c r="A7" s="286" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="297" t="s">
+      <c r="B7" s="286" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="297" t="s">
+      <c r="C7" s="286" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="297" t="s">
+      <c r="D7" s="286" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="297" t="s">
+      <c r="E7" s="286" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="297" t="s">
+      <c r="F7" s="286" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="297" t="s">
+      <c r="G7" s="286" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="297" t="s">
+      <c r="H7" s="286" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="297" t="s">
+      <c r="I7" s="286" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="297" t="s">
+      <c r="J7" s="286" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="297" t="s">
+      <c r="K7" s="286" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="298" t="s">
+      <c r="L7" s="287" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="297" t="s">
+      <c r="M7" s="286" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="299" t="s">
+      <c r="N7" s="288" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="295" t="s">
+      <c r="Q7" s="284" t="s">
         <v>11</v>
       </c>
-      <c r="R7" s="300" t="s">
+      <c r="R7" s="289" t="s">
         <v>12</v>
       </c>
-      <c r="S7" s="301" t="s">
+      <c r="S7" s="290" t="s">
         <v>13</v>
       </c>
-      <c r="T7" s="302" t="s">
+      <c r="T7" s="291" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="302" t="s">
+      <c r="U7" s="291" t="s">
         <v>15</v>
       </c>
-      <c r="V7" s="302" t="s">
+      <c r="V7" s="291" t="s">
         <v>16</v>
       </c>
-      <c r="W7" s="302" t="s">
+      <c r="W7" s="291" t="s">
         <v>23</v>
       </c>
-      <c r="X7" s="302" t="s">
+      <c r="X7" s="291" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="309" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="303"/>
-      <c r="B8" s="304"/>
-      <c r="C8" s="303"/>
-      <c r="D8" s="303"/>
-      <c r="E8" s="303"/>
-      <c r="F8" s="303"/>
-      <c r="G8" s="303"/>
-      <c r="H8" s="303"/>
-      <c r="I8" s="303"/>
-      <c r="J8" s="303"/>
-      <c r="K8" s="303"/>
-      <c r="L8" s="303"/>
-      <c r="M8" s="303"/>
-      <c r="N8" s="305"/>
-      <c r="O8" s="306"/>
-      <c r="P8" s="306"/>
-      <c r="Q8" s="306"/>
-      <c r="R8" s="307"/>
-      <c r="S8" s="303"/>
-      <c r="T8" s="303"/>
-      <c r="U8" s="303"/>
-      <c r="V8" s="303"/>
-      <c r="W8" s="303"/>
-      <c r="X8" s="308"/>
-    </row>
-    <row r="9" spans="1:24" s="309" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="310"/>
-      <c r="B9" s="311"/>
-      <c r="C9" s="312"/>
-      <c r="D9" s="312"/>
-      <c r="E9" s="312"/>
-      <c r="F9" s="313"/>
-      <c r="G9" s="313"/>
-      <c r="H9" s="313"/>
-      <c r="I9" s="313"/>
-      <c r="J9" s="314"/>
-      <c r="K9" s="313"/>
-      <c r="L9" s="315"/>
-      <c r="M9" s="316"/>
-      <c r="N9" s="317"/>
-      <c r="O9" s="306"/>
-      <c r="P9" s="306"/>
-      <c r="Q9" s="306"/>
-      <c r="R9" s="318"/>
-      <c r="S9" s="319"/>
-      <c r="T9" s="319"/>
-      <c r="U9" s="319"/>
-      <c r="V9" s="319"/>
-      <c r="W9" s="319"/>
-      <c r="X9" s="320"/>
-    </row>
-    <row r="10" spans="1:24" s="309" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="310"/>
-      <c r="B10" s="311"/>
-      <c r="C10" s="313"/>
-      <c r="D10" s="313"/>
-      <c r="E10" s="313"/>
-      <c r="F10" s="313"/>
-      <c r="G10" s="313"/>
-      <c r="H10" s="313"/>
-      <c r="I10" s="313"/>
-      <c r="J10" s="313"/>
-      <c r="K10" s="321"/>
-      <c r="L10" s="322"/>
-      <c r="M10" s="316"/>
-      <c r="N10" s="317"/>
-      <c r="O10" s="306"/>
-      <c r="P10" s="306"/>
-      <c r="Q10" s="306"/>
-      <c r="R10" s="318"/>
-      <c r="S10" s="319"/>
-      <c r="T10" s="319"/>
-      <c r="U10" s="319"/>
-      <c r="V10" s="319"/>
-      <c r="W10" s="319"/>
-      <c r="X10" s="320"/>
-    </row>
-    <row r="11" spans="1:24" s="333" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="323"/>
-      <c r="B11" s="324"/>
-      <c r="C11" s="325"/>
-      <c r="D11" s="326"/>
-      <c r="E11" s="326"/>
-      <c r="F11" s="327"/>
-      <c r="G11" s="328"/>
-      <c r="H11" s="328"/>
-      <c r="I11" s="328"/>
-      <c r="J11" s="327"/>
-      <c r="K11" s="329"/>
-      <c r="L11" s="330"/>
-      <c r="M11" s="331"/>
-      <c r="N11" s="332"/>
-      <c r="R11" s="334"/>
-      <c r="S11" s="335"/>
-      <c r="T11" s="335"/>
-      <c r="U11" s="335"/>
-      <c r="V11" s="335"/>
-      <c r="W11" s="335"/>
-      <c r="X11" s="336"/>
-    </row>
-    <row r="12" spans="1:24" s="309" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="337"/>
-      <c r="B12" s="338"/>
+    <row r="8" spans="1:24" s="298" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="292"/>
+      <c r="B8" s="293"/>
+      <c r="C8" s="292"/>
+      <c r="D8" s="292"/>
+      <c r="E8" s="292"/>
+      <c r="F8" s="292"/>
+      <c r="G8" s="292"/>
+      <c r="H8" s="292"/>
+      <c r="I8" s="292"/>
+      <c r="J8" s="292"/>
+      <c r="K8" s="292"/>
+      <c r="L8" s="292"/>
+      <c r="M8" s="292"/>
+      <c r="N8" s="294"/>
+      <c r="O8" s="295"/>
+      <c r="P8" s="295"/>
+      <c r="Q8" s="295"/>
+      <c r="R8" s="296"/>
+      <c r="S8" s="292"/>
+      <c r="T8" s="292"/>
+      <c r="U8" s="292"/>
+      <c r="V8" s="292"/>
+      <c r="W8" s="292"/>
+      <c r="X8" s="297"/>
+    </row>
+    <row r="9" spans="1:24" s="298" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="299"/>
+      <c r="B9" s="300"/>
+      <c r="C9" s="301"/>
+      <c r="D9" s="301"/>
+      <c r="E9" s="301"/>
+      <c r="F9" s="302"/>
+      <c r="G9" s="302"/>
+      <c r="H9" s="302"/>
+      <c r="I9" s="302"/>
+      <c r="J9" s="303"/>
+      <c r="K9" s="302"/>
+      <c r="L9" s="304"/>
+      <c r="M9" s="305"/>
+      <c r="N9" s="306"/>
+      <c r="O9" s="295"/>
+      <c r="P9" s="295"/>
+      <c r="Q9" s="295"/>
+      <c r="R9" s="307"/>
+      <c r="S9" s="308"/>
+      <c r="T9" s="308"/>
+      <c r="U9" s="308"/>
+      <c r="V9" s="308"/>
+      <c r="W9" s="308"/>
+      <c r="X9" s="309"/>
+    </row>
+    <row r="10" spans="1:24" s="298" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="299"/>
+      <c r="B10" s="300"/>
+      <c r="C10" s="302"/>
+      <c r="D10" s="302"/>
+      <c r="E10" s="302"/>
+      <c r="F10" s="302"/>
+      <c r="G10" s="302"/>
+      <c r="H10" s="302"/>
+      <c r="I10" s="302"/>
+      <c r="J10" s="302"/>
+      <c r="K10" s="310"/>
+      <c r="L10" s="311"/>
+      <c r="M10" s="305"/>
+      <c r="N10" s="306"/>
+      <c r="O10" s="295"/>
+      <c r="P10" s="295"/>
+      <c r="Q10" s="295"/>
+      <c r="R10" s="307"/>
+      <c r="S10" s="308"/>
+      <c r="T10" s="308"/>
+      <c r="U10" s="308"/>
+      <c r="V10" s="308"/>
+      <c r="W10" s="308"/>
+      <c r="X10" s="309"/>
+    </row>
+    <row r="11" spans="1:24" s="322" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="312"/>
+      <c r="B11" s="313"/>
+      <c r="C11" s="314"/>
+      <c r="D11" s="315"/>
+      <c r="E11" s="315"/>
+      <c r="F11" s="316"/>
+      <c r="G11" s="317"/>
+      <c r="H11" s="317"/>
+      <c r="I11" s="317"/>
+      <c r="J11" s="316"/>
+      <c r="K11" s="318"/>
+      <c r="L11" s="319"/>
+      <c r="M11" s="320"/>
+      <c r="N11" s="321"/>
+      <c r="R11" s="323"/>
+      <c r="S11" s="324"/>
+      <c r="T11" s="324"/>
+      <c r="U11" s="324"/>
+      <c r="V11" s="324"/>
+      <c r="W11" s="324"/>
+      <c r="X11" s="325"/>
+    </row>
+    <row r="12" spans="1:24" s="298" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="326"/>
+      <c r="B12" s="327"/>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
-      <c r="F12" s="339"/>
-      <c r="G12" s="339"/>
-      <c r="H12" s="339"/>
-      <c r="I12" s="339"/>
-      <c r="J12" s="339"/>
-      <c r="K12" s="339"/>
+      <c r="F12" s="328"/>
+      <c r="G12" s="328"/>
+      <c r="H12" s="328"/>
+      <c r="I12" s="328"/>
+      <c r="J12" s="328"/>
+      <c r="K12" s="328"/>
       <c r="L12" s="31"/>
-      <c r="M12" s="340"/>
-      <c r="N12" s="341"/>
-      <c r="R12" s="342"/>
-      <c r="S12" s="343"/>
-      <c r="T12" s="343"/>
-      <c r="U12" s="343"/>
-      <c r="V12" s="343"/>
-      <c r="W12" s="343"/>
-      <c r="X12" s="344"/>
-    </row>
-    <row r="13" spans="1:24" s="309" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="303"/>
-      <c r="B13" s="303"/>
-      <c r="C13" s="303"/>
-      <c r="D13" s="303"/>
-      <c r="E13" s="303"/>
-      <c r="F13" s="303"/>
-      <c r="G13" s="303"/>
-      <c r="H13" s="303"/>
-      <c r="I13" s="303"/>
-      <c r="J13" s="303"/>
-      <c r="K13" s="303"/>
-      <c r="L13" s="303"/>
-      <c r="M13" s="303"/>
-      <c r="N13" s="303"/>
-      <c r="R13" s="342"/>
-      <c r="S13" s="343"/>
-      <c r="T13" s="343"/>
-      <c r="U13" s="343"/>
-      <c r="V13" s="343"/>
-      <c r="W13" s="343"/>
-      <c r="X13" s="344"/>
-    </row>
-    <row r="14" spans="1:24" s="309" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="345"/>
-      <c r="B14" s="346"/>
-      <c r="C14" s="347"/>
-      <c r="D14" s="347"/>
-      <c r="E14" s="347"/>
-      <c r="F14" s="314"/>
-      <c r="G14" s="314"/>
-      <c r="H14" s="314"/>
-      <c r="I14" s="314"/>
-      <c r="J14" s="314"/>
-      <c r="K14" s="348"/>
+      <c r="M12" s="329"/>
+      <c r="N12" s="330"/>
+      <c r="R12" s="331"/>
+      <c r="S12" s="332"/>
+      <c r="T12" s="332"/>
+      <c r="U12" s="332"/>
+      <c r="V12" s="332"/>
+      <c r="W12" s="332"/>
+      <c r="X12" s="333"/>
+    </row>
+    <row r="13" spans="1:24" s="298" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="292"/>
+      <c r="B13" s="292"/>
+      <c r="C13" s="292"/>
+      <c r="D13" s="292"/>
+      <c r="E13" s="292"/>
+      <c r="F13" s="292"/>
+      <c r="G13" s="292"/>
+      <c r="H13" s="292"/>
+      <c r="I13" s="292"/>
+      <c r="J13" s="292"/>
+      <c r="K13" s="292"/>
+      <c r="L13" s="292"/>
+      <c r="M13" s="292"/>
+      <c r="N13" s="292"/>
+      <c r="R13" s="331"/>
+      <c r="S13" s="332"/>
+      <c r="T13" s="332"/>
+      <c r="U13" s="332"/>
+      <c r="V13" s="332"/>
+      <c r="W13" s="332"/>
+      <c r="X13" s="333"/>
+    </row>
+    <row r="14" spans="1:24" s="298" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="334"/>
+      <c r="B14" s="335"/>
+      <c r="C14" s="336"/>
+      <c r="D14" s="336"/>
+      <c r="E14" s="336"/>
+      <c r="F14" s="303"/>
+      <c r="G14" s="303"/>
+      <c r="H14" s="303"/>
+      <c r="I14" s="303"/>
+      <c r="J14" s="303"/>
+      <c r="K14" s="337"/>
       <c r="L14" s="14"/>
-      <c r="M14" s="349"/>
-      <c r="N14" s="350"/>
-      <c r="R14" s="351"/>
-      <c r="S14" s="352"/>
-      <c r="T14" s="352"/>
-      <c r="U14" s="352"/>
-      <c r="V14" s="352"/>
-      <c r="W14" s="352"/>
-      <c r="X14" s="353"/>
-    </row>
-    <row r="15" spans="1:24" s="309" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="303"/>
-      <c r="B15" s="303"/>
-      <c r="C15" s="303"/>
-      <c r="D15" s="303"/>
-      <c r="E15" s="303"/>
-      <c r="F15" s="303"/>
-      <c r="G15" s="303"/>
-      <c r="H15" s="303"/>
-      <c r="I15" s="303"/>
-      <c r="J15" s="303"/>
-      <c r="K15" s="303"/>
-      <c r="L15" s="303"/>
-      <c r="M15" s="303"/>
-      <c r="N15" s="303"/>
-      <c r="R15" s="351"/>
-      <c r="S15" s="352"/>
-      <c r="T15" s="352"/>
-      <c r="U15" s="352"/>
-      <c r="V15" s="352"/>
-      <c r="W15" s="352"/>
-      <c r="X15" s="353"/>
-    </row>
-    <row r="16" spans="1:24" s="333" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="310"/>
+      <c r="M14" s="338"/>
+      <c r="N14" s="339"/>
+      <c r="R14" s="340"/>
+      <c r="S14" s="341"/>
+      <c r="T14" s="341"/>
+      <c r="U14" s="341"/>
+      <c r="V14" s="341"/>
+      <c r="W14" s="341"/>
+      <c r="X14" s="342"/>
+    </row>
+    <row r="15" spans="1:24" s="298" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="292"/>
+      <c r="B15" s="292"/>
+      <c r="C15" s="292"/>
+      <c r="D15" s="292"/>
+      <c r="E15" s="292"/>
+      <c r="F15" s="292"/>
+      <c r="G15" s="292"/>
+      <c r="H15" s="292"/>
+      <c r="I15" s="292"/>
+      <c r="J15" s="292"/>
+      <c r="K15" s="292"/>
+      <c r="L15" s="292"/>
+      <c r="M15" s="292"/>
+      <c r="N15" s="292"/>
+      <c r="R15" s="340"/>
+      <c r="S15" s="341"/>
+      <c r="T15" s="341"/>
+      <c r="U15" s="341"/>
+      <c r="V15" s="341"/>
+      <c r="W15" s="341"/>
+      <c r="X15" s="342"/>
+    </row>
+    <row r="16" spans="1:24" s="322" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="299"/>
       <c r="B16" s="162"/>
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
-      <c r="F16" s="339"/>
-      <c r="G16" s="314"/>
+      <c r="F16" s="328"/>
+      <c r="G16" s="303"/>
       <c r="H16" s="162"/>
-      <c r="I16" s="339"/>
-      <c r="J16" s="339"/>
-      <c r="K16" s="339"/>
+      <c r="I16" s="328"/>
+      <c r="J16" s="328"/>
+      <c r="K16" s="328"/>
       <c r="L16" s="12"/>
       <c r="M16" s="162"/>
-      <c r="N16" s="354"/>
-      <c r="R16" s="355"/>
-      <c r="S16" s="356"/>
-      <c r="T16" s="356"/>
-      <c r="U16" s="356"/>
-      <c r="V16" s="356"/>
-      <c r="W16" s="356"/>
-      <c r="X16" s="357"/>
-    </row>
-    <row r="17" spans="1:24" s="362" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="358"/>
-      <c r="B17" s="346"/>
-      <c r="C17" s="347"/>
-      <c r="D17" s="359"/>
-      <c r="E17" s="314"/>
-      <c r="F17" s="314"/>
-      <c r="G17" s="360"/>
-      <c r="H17" s="359"/>
-      <c r="I17" s="347"/>
-      <c r="J17" s="314"/>
-      <c r="K17" s="348"/>
+      <c r="N16" s="343"/>
+      <c r="R16" s="344"/>
+      <c r="S16" s="345"/>
+      <c r="T16" s="345"/>
+      <c r="U16" s="345"/>
+      <c r="V16" s="345"/>
+      <c r="W16" s="345"/>
+      <c r="X16" s="346"/>
+    </row>
+    <row r="17" spans="1:24" s="351" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="347"/>
+      <c r="B17" s="335"/>
+      <c r="C17" s="336"/>
+      <c r="D17" s="348"/>
+      <c r="E17" s="303"/>
+      <c r="F17" s="303"/>
+      <c r="G17" s="349"/>
+      <c r="H17" s="348"/>
+      <c r="I17" s="336"/>
+      <c r="J17" s="303"/>
+      <c r="K17" s="337"/>
       <c r="L17" s="14"/>
-      <c r="M17" s="361"/>
-      <c r="N17" s="332"/>
-      <c r="R17" s="363"/>
-      <c r="S17" s="364"/>
-      <c r="T17" s="364"/>
-      <c r="U17" s="364"/>
-      <c r="V17" s="364"/>
-      <c r="W17" s="364"/>
-      <c r="X17" s="365"/>
+      <c r="M17" s="350"/>
+      <c r="N17" s="321"/>
+      <c r="R17" s="352"/>
+      <c r="S17" s="353"/>
+      <c r="T17" s="353"/>
+      <c r="U17" s="353"/>
+      <c r="V17" s="353"/>
+      <c r="W17" s="353"/>
+      <c r="X17" s="354"/>
     </row>
     <row r="18" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="366"/>
-      <c r="B18" s="303"/>
-      <c r="C18" s="303"/>
-      <c r="D18" s="303"/>
-      <c r="E18" s="303"/>
-      <c r="F18" s="303"/>
-      <c r="G18" s="303"/>
-      <c r="H18" s="303"/>
-      <c r="I18" s="303"/>
-      <c r="J18" s="303"/>
-      <c r="K18" s="303"/>
-      <c r="L18" s="303"/>
-      <c r="M18" s="303"/>
-      <c r="N18" s="303"/>
-      <c r="R18" s="367"/>
-      <c r="S18" s="368"/>
-      <c r="T18" s="368"/>
-      <c r="U18" s="368"/>
-      <c r="V18" s="368"/>
-      <c r="W18" s="368"/>
-      <c r="X18" s="369"/>
-    </row>
-    <row r="19" spans="1:24" s="376" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="345"/>
-      <c r="B19" s="346"/>
-      <c r="C19" s="370"/>
-      <c r="D19" s="371"/>
-      <c r="E19" s="347"/>
-      <c r="F19" s="314"/>
-      <c r="G19" s="314"/>
-      <c r="H19" s="372"/>
-      <c r="I19" s="314"/>
-      <c r="J19" s="314"/>
-      <c r="K19" s="314"/>
-      <c r="L19" s="373"/>
-      <c r="M19" s="374"/>
-      <c r="N19" s="375"/>
-      <c r="R19" s="377"/>
-      <c r="S19" s="378"/>
-      <c r="T19" s="378"/>
-      <c r="U19" s="378"/>
-      <c r="V19" s="378"/>
-      <c r="W19" s="378"/>
-      <c r="X19" s="379"/>
+      <c r="A18" s="355"/>
+      <c r="B18" s="292"/>
+      <c r="C18" s="292"/>
+      <c r="D18" s="292"/>
+      <c r="E18" s="292"/>
+      <c r="F18" s="292"/>
+      <c r="G18" s="292"/>
+      <c r="H18" s="292"/>
+      <c r="I18" s="292"/>
+      <c r="J18" s="292"/>
+      <c r="K18" s="292"/>
+      <c r="L18" s="292"/>
+      <c r="M18" s="292"/>
+      <c r="N18" s="292"/>
+      <c r="R18" s="356"/>
+      <c r="S18" s="357"/>
+      <c r="T18" s="357"/>
+      <c r="U18" s="357"/>
+      <c r="V18" s="357"/>
+      <c r="W18" s="357"/>
+      <c r="X18" s="358"/>
+    </row>
+    <row r="19" spans="1:24" s="365" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="334"/>
+      <c r="B19" s="335"/>
+      <c r="C19" s="359"/>
+      <c r="D19" s="360"/>
+      <c r="E19" s="336"/>
+      <c r="F19" s="303"/>
+      <c r="G19" s="303"/>
+      <c r="H19" s="361"/>
+      <c r="I19" s="303"/>
+      <c r="J19" s="303"/>
+      <c r="K19" s="303"/>
+      <c r="L19" s="362"/>
+      <c r="M19" s="363"/>
+      <c r="N19" s="364"/>
+      <c r="R19" s="366"/>
+      <c r="S19" s="367"/>
+      <c r="T19" s="367"/>
+      <c r="U19" s="367"/>
+      <c r="V19" s="367"/>
+      <c r="W19" s="367"/>
+      <c r="X19" s="368"/>
     </row>
     <row r="20" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="310"/>
-      <c r="B20" s="311"/>
-      <c r="C20" s="380"/>
-      <c r="D20" s="312"/>
-      <c r="E20" s="312"/>
-      <c r="F20" s="313"/>
-      <c r="G20" s="381"/>
-      <c r="H20" s="313"/>
-      <c r="I20" s="313"/>
-      <c r="J20" s="313"/>
-      <c r="K20" s="321"/>
-      <c r="L20" s="315"/>
-      <c r="M20" s="382"/>
-      <c r="N20" s="383"/>
-      <c r="R20" s="367"/>
-      <c r="S20" s="368"/>
-      <c r="T20" s="368"/>
-      <c r="U20" s="368"/>
-      <c r="V20" s="368"/>
-      <c r="W20" s="368"/>
-      <c r="X20" s="369"/>
+      <c r="A20" s="299"/>
+      <c r="B20" s="300"/>
+      <c r="C20" s="369"/>
+      <c r="D20" s="301"/>
+      <c r="E20" s="301"/>
+      <c r="F20" s="302"/>
+      <c r="G20" s="370"/>
+      <c r="H20" s="302"/>
+      <c r="I20" s="302"/>
+      <c r="J20" s="302"/>
+      <c r="K20" s="310"/>
+      <c r="L20" s="304"/>
+      <c r="M20" s="371"/>
+      <c r="N20" s="372"/>
+      <c r="R20" s="356"/>
+      <c r="S20" s="357"/>
+      <c r="T20" s="357"/>
+      <c r="U20" s="357"/>
+      <c r="V20" s="357"/>
+      <c r="W20" s="357"/>
+      <c r="X20" s="358"/>
     </row>
     <row r="21" spans="1:24" s="150" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="337"/>
-      <c r="B21" s="339"/>
+      <c r="A21" s="326"/>
+      <c r="B21" s="328"/>
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
-      <c r="F21" s="339"/>
-      <c r="G21" s="339"/>
-      <c r="H21" s="339"/>
-      <c r="I21" s="339"/>
-      <c r="J21" s="339"/>
-      <c r="K21" s="339"/>
+      <c r="F21" s="328"/>
+      <c r="G21" s="328"/>
+      <c r="H21" s="328"/>
+      <c r="I21" s="328"/>
+      <c r="J21" s="328"/>
+      <c r="K21" s="328"/>
       <c r="L21" s="31"/>
-      <c r="M21" s="339"/>
-      <c r="N21" s="341"/>
-      <c r="R21" s="384"/>
+      <c r="M21" s="328"/>
+      <c r="N21" s="330"/>
+      <c r="R21" s="373"/>
       <c r="S21" s="122"/>
       <c r="T21" s="122"/>
       <c r="U21" s="122"/>
       <c r="V21" s="122"/>
       <c r="W21" s="122"/>
-      <c r="X21" s="385"/>
+      <c r="X21" s="374"/>
     </row>
     <row r="22" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="386"/>
-      <c r="B22" s="340"/>
-      <c r="C22" s="340"/>
-      <c r="D22" s="340"/>
-      <c r="E22" s="340"/>
-      <c r="F22" s="340"/>
-      <c r="G22" s="340"/>
-      <c r="H22" s="340"/>
-      <c r="I22" s="340"/>
-      <c r="J22" s="340"/>
-      <c r="K22" s="340"/>
-      <c r="L22" s="387"/>
-      <c r="M22" s="340"/>
-      <c r="N22" s="340"/>
-      <c r="R22" s="367"/>
-      <c r="S22" s="368"/>
-      <c r="T22" s="368"/>
-      <c r="U22" s="368"/>
-      <c r="V22" s="368"/>
-      <c r="W22" s="368"/>
-      <c r="X22" s="369"/>
+      <c r="A22" s="375"/>
+      <c r="B22" s="329"/>
+      <c r="C22" s="329"/>
+      <c r="D22" s="329"/>
+      <c r="E22" s="329"/>
+      <c r="F22" s="329"/>
+      <c r="G22" s="329"/>
+      <c r="H22" s="329"/>
+      <c r="I22" s="329"/>
+      <c r="J22" s="329"/>
+      <c r="K22" s="329"/>
+      <c r="L22" s="376"/>
+      <c r="M22" s="329"/>
+      <c r="N22" s="329"/>
+      <c r="R22" s="356"/>
+      <c r="S22" s="357"/>
+      <c r="T22" s="357"/>
+      <c r="U22" s="357"/>
+      <c r="V22" s="357"/>
+      <c r="W22" s="357"/>
+      <c r="X22" s="358"/>
     </row>
     <row r="23" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="386"/>
-      <c r="B23" s="388"/>
-      <c r="C23" s="389"/>
-      <c r="D23" s="389"/>
-      <c r="E23" s="389"/>
-      <c r="F23" s="389"/>
-      <c r="G23" s="389"/>
-      <c r="H23" s="389"/>
-      <c r="I23" s="389"/>
-      <c r="J23" s="389"/>
-      <c r="K23" s="340"/>
-      <c r="L23" s="387"/>
-      <c r="M23" s="340"/>
-      <c r="N23" s="389"/>
-      <c r="R23" s="367"/>
-      <c r="S23" s="368"/>
-      <c r="T23" s="368"/>
-      <c r="U23" s="368"/>
-      <c r="V23" s="368"/>
-      <c r="W23" s="368"/>
-      <c r="X23" s="369"/>
+      <c r="A23" s="375"/>
+      <c r="B23" s="377"/>
+      <c r="C23" s="378"/>
+      <c r="D23" s="378"/>
+      <c r="E23" s="378"/>
+      <c r="F23" s="378"/>
+      <c r="G23" s="378"/>
+      <c r="H23" s="378"/>
+      <c r="I23" s="378"/>
+      <c r="J23" s="378"/>
+      <c r="K23" s="329"/>
+      <c r="L23" s="376"/>
+      <c r="M23" s="329"/>
+      <c r="N23" s="378"/>
+      <c r="R23" s="356"/>
+      <c r="S23" s="357"/>
+      <c r="T23" s="357"/>
+      <c r="U23" s="357"/>
+      <c r="V23" s="357"/>
+      <c r="W23" s="357"/>
+      <c r="X23" s="358"/>
     </row>
     <row r="24" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="386"/>
-      <c r="B24" s="388"/>
-      <c r="C24" s="389"/>
-      <c r="D24" s="389"/>
-      <c r="E24" s="389"/>
-      <c r="F24" s="389"/>
-      <c r="G24" s="389"/>
-      <c r="H24" s="389"/>
-      <c r="I24" s="389"/>
-      <c r="J24" s="389"/>
-      <c r="K24" s="340"/>
-      <c r="L24" s="387"/>
-      <c r="M24" s="340"/>
-      <c r="N24" s="389"/>
-      <c r="R24" s="367"/>
-      <c r="S24" s="368"/>
-      <c r="T24" s="368"/>
-      <c r="U24" s="368"/>
-      <c r="V24" s="368"/>
-      <c r="W24" s="368"/>
-      <c r="X24" s="369"/>
+      <c r="A24" s="375"/>
+      <c r="B24" s="377"/>
+      <c r="C24" s="378"/>
+      <c r="D24" s="378"/>
+      <c r="E24" s="378"/>
+      <c r="F24" s="378"/>
+      <c r="G24" s="378"/>
+      <c r="H24" s="378"/>
+      <c r="I24" s="378"/>
+      <c r="J24" s="378"/>
+      <c r="K24" s="329"/>
+      <c r="L24" s="376"/>
+      <c r="M24" s="329"/>
+      <c r="N24" s="378"/>
+      <c r="R24" s="356"/>
+      <c r="S24" s="357"/>
+      <c r="T24" s="357"/>
+      <c r="U24" s="357"/>
+      <c r="V24" s="357"/>
+      <c r="W24" s="357"/>
+      <c r="X24" s="358"/>
     </row>
     <row r="25" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="386"/>
-      <c r="B25" s="388"/>
-      <c r="C25" s="389"/>
-      <c r="D25" s="389"/>
-      <c r="E25" s="389"/>
-      <c r="F25" s="389"/>
-      <c r="G25" s="389"/>
-      <c r="H25" s="389"/>
-      <c r="I25" s="389"/>
-      <c r="J25" s="389"/>
-      <c r="K25" s="340"/>
-      <c r="L25" s="387"/>
-      <c r="M25" s="340"/>
-      <c r="N25" s="389"/>
-      <c r="R25" s="367"/>
-      <c r="S25" s="368"/>
-      <c r="T25" s="368"/>
-      <c r="U25" s="368"/>
-      <c r="V25" s="368"/>
-      <c r="W25" s="368"/>
-      <c r="X25" s="369"/>
+      <c r="A25" s="375"/>
+      <c r="B25" s="377"/>
+      <c r="C25" s="378"/>
+      <c r="D25" s="378"/>
+      <c r="E25" s="378"/>
+      <c r="F25" s="378"/>
+      <c r="G25" s="378"/>
+      <c r="H25" s="378"/>
+      <c r="I25" s="378"/>
+      <c r="J25" s="378"/>
+      <c r="K25" s="329"/>
+      <c r="L25" s="376"/>
+      <c r="M25" s="329"/>
+      <c r="N25" s="378"/>
+      <c r="R25" s="356"/>
+      <c r="S25" s="357"/>
+      <c r="T25" s="357"/>
+      <c r="U25" s="357"/>
+      <c r="V25" s="357"/>
+      <c r="W25" s="357"/>
+      <c r="X25" s="358"/>
     </row>
     <row r="26" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="386"/>
-      <c r="B26" s="388"/>
-      <c r="C26" s="389"/>
-      <c r="D26" s="389"/>
-      <c r="E26" s="389"/>
-      <c r="F26" s="389"/>
-      <c r="G26" s="389"/>
-      <c r="H26" s="389"/>
-      <c r="I26" s="389"/>
-      <c r="J26" s="389"/>
-      <c r="K26" s="340"/>
-      <c r="L26" s="387"/>
-      <c r="M26" s="340"/>
-      <c r="N26" s="389"/>
-      <c r="R26" s="367"/>
-      <c r="S26" s="368"/>
-      <c r="T26" s="368"/>
-      <c r="U26" s="368"/>
-      <c r="V26" s="368"/>
-      <c r="W26" s="368"/>
-      <c r="X26" s="369"/>
+      <c r="A26" s="375"/>
+      <c r="B26" s="377"/>
+      <c r="C26" s="378"/>
+      <c r="D26" s="378"/>
+      <c r="E26" s="378"/>
+      <c r="F26" s="378"/>
+      <c r="G26" s="378"/>
+      <c r="H26" s="378"/>
+      <c r="I26" s="378"/>
+      <c r="J26" s="378"/>
+      <c r="K26" s="329"/>
+      <c r="L26" s="376"/>
+      <c r="M26" s="329"/>
+      <c r="N26" s="378"/>
+      <c r="R26" s="356"/>
+      <c r="S26" s="357"/>
+      <c r="T26" s="357"/>
+      <c r="U26" s="357"/>
+      <c r="V26" s="357"/>
+      <c r="W26" s="357"/>
+      <c r="X26" s="358"/>
     </row>
     <row r="27" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="386"/>
-      <c r="B27" s="390"/>
-      <c r="C27" s="391"/>
-      <c r="D27" s="391"/>
-      <c r="E27" s="391"/>
-      <c r="F27" s="391"/>
-      <c r="G27" s="391"/>
-      <c r="H27" s="391"/>
-      <c r="I27" s="391"/>
-      <c r="J27" s="391"/>
-      <c r="K27" s="392"/>
-      <c r="L27" s="392"/>
-      <c r="M27" s="340"/>
-      <c r="N27" s="391"/>
-      <c r="R27" s="367"/>
-      <c r="S27" s="368"/>
-      <c r="T27" s="368"/>
-      <c r="U27" s="368"/>
-      <c r="V27" s="368"/>
-      <c r="W27" s="368"/>
-      <c r="X27" s="369"/>
+      <c r="A27" s="375"/>
+      <c r="B27" s="379"/>
+      <c r="C27" s="380"/>
+      <c r="D27" s="380"/>
+      <c r="E27" s="380"/>
+      <c r="F27" s="380"/>
+      <c r="G27" s="380"/>
+      <c r="H27" s="380"/>
+      <c r="I27" s="380"/>
+      <c r="J27" s="380"/>
+      <c r="K27" s="381"/>
+      <c r="L27" s="381"/>
+      <c r="M27" s="329"/>
+      <c r="N27" s="380"/>
+      <c r="R27" s="356"/>
+      <c r="S27" s="357"/>
+      <c r="T27" s="357"/>
+      <c r="U27" s="357"/>
+      <c r="V27" s="357"/>
+      <c r="W27" s="357"/>
+      <c r="X27" s="358"/>
     </row>
     <row r="28" spans="1:24" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="386"/>
-      <c r="B28" s="340"/>
-      <c r="C28" s="340"/>
-      <c r="D28" s="340"/>
-      <c r="E28" s="340"/>
-      <c r="F28" s="340"/>
-      <c r="G28" s="340"/>
-      <c r="H28" s="340"/>
-      <c r="I28" s="340"/>
-      <c r="J28" s="340"/>
-      <c r="K28" s="340"/>
-      <c r="L28" s="340"/>
-      <c r="M28" s="340"/>
-      <c r="N28" s="340"/>
-      <c r="R28" s="393"/>
-      <c r="S28" s="394"/>
-      <c r="T28" s="394"/>
-      <c r="U28" s="394"/>
-      <c r="V28" s="394"/>
-      <c r="W28" s="394"/>
-      <c r="X28" s="395"/>
+      <c r="A28" s="375"/>
+      <c r="B28" s="329"/>
+      <c r="C28" s="329"/>
+      <c r="D28" s="329"/>
+      <c r="E28" s="329"/>
+      <c r="F28" s="329"/>
+      <c r="G28" s="329"/>
+      <c r="H28" s="329"/>
+      <c r="I28" s="329"/>
+      <c r="J28" s="329"/>
+      <c r="K28" s="329"/>
+      <c r="L28" s="329"/>
+      <c r="M28" s="329"/>
+      <c r="N28" s="329"/>
+      <c r="R28" s="382"/>
+      <c r="S28" s="383"/>
+      <c r="T28" s="383"/>
+      <c r="U28" s="383"/>
+      <c r="V28" s="383"/>
+      <c r="W28" s="383"/>
+      <c r="X28" s="384"/>
     </row>
     <row r="29" spans="1:24" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="396"/>
-      <c r="B29" s="397"/>
-      <c r="C29" s="396"/>
-      <c r="D29" s="396"/>
-      <c r="E29" s="396"/>
-      <c r="F29" s="396"/>
-      <c r="G29" s="398"/>
-      <c r="H29" s="398"/>
-      <c r="I29" s="398"/>
-      <c r="J29" s="398"/>
-      <c r="K29" s="398"/>
-      <c r="L29" s="399"/>
-      <c r="M29" s="400"/>
-      <c r="N29" s="398"/>
+      <c r="A29" s="385"/>
+      <c r="B29" s="386"/>
+      <c r="C29" s="385"/>
+      <c r="D29" s="385"/>
+      <c r="E29" s="385"/>
+      <c r="F29" s="385"/>
+      <c r="G29" s="387"/>
+      <c r="H29" s="387"/>
+      <c r="I29" s="387"/>
+      <c r="J29" s="387"/>
+      <c r="K29" s="387"/>
+      <c r="L29" s="388"/>
+      <c r="M29" s="389"/>
+      <c r="N29" s="387"/>
     </row>
     <row r="30" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="401" t="s">
+      <c r="A30" s="390" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="258">
+      <c r="B30" s="252">
         <f>COUNTA(B8:B28)</f>
         <v>0</v>
       </c>
-      <c r="C30" s="380"/>
-      <c r="D30" s="380"/>
-      <c r="E30" s="380"/>
-      <c r="F30" s="402"/>
-      <c r="G30" s="380"/>
-      <c r="H30" s="403"/>
-      <c r="I30" s="402"/>
-      <c r="J30" s="402"/>
-      <c r="K30" s="404"/>
-      <c r="L30" s="405"/>
-      <c r="M30" s="402"/>
-      <c r="N30" s="402"/>
+      <c r="C30" s="369"/>
+      <c r="D30" s="369"/>
+      <c r="E30" s="369"/>
+      <c r="F30" s="391"/>
+      <c r="G30" s="369"/>
+      <c r="H30" s="392"/>
+      <c r="I30" s="391"/>
+      <c r="J30" s="391"/>
+      <c r="K30" s="393"/>
+      <c r="L30" s="394"/>
+      <c r="M30" s="391"/>
+      <c r="N30" s="391"/>
     </row>
     <row r="31" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="406"/>
-      <c r="B31" s="402"/>
-      <c r="C31" s="406"/>
-      <c r="D31" s="407"/>
-      <c r="E31" s="406"/>
-      <c r="F31" s="406"/>
-      <c r="G31" s="408"/>
-      <c r="H31" s="407"/>
-      <c r="I31" s="406"/>
-      <c r="J31" s="406"/>
-      <c r="K31" s="408"/>
-      <c r="L31" s="409"/>
+      <c r="A31" s="395"/>
+      <c r="B31" s="391"/>
+      <c r="C31" s="395"/>
+      <c r="D31" s="396"/>
+      <c r="E31" s="395"/>
+      <c r="F31" s="395"/>
+      <c r="G31" s="397"/>
+      <c r="H31" s="396"/>
+      <c r="I31" s="395"/>
+      <c r="J31" s="395"/>
+      <c r="K31" s="397"/>
+      <c r="L31" s="398"/>
       <c r="M31" s="17"/>
-      <c r="N31" s="406"/>
+      <c r="N31" s="395"/>
     </row>
     <row r="35" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H35" s="295" t="s">
+      <c r="H35" s="284" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6778,51 +6763,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="229"/>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
-      <c r="D2" s="230"/>
-      <c r="E2" s="230"/>
-      <c r="F2" s="230"/>
-      <c r="G2" s="230"/>
-      <c r="H2" s="230"/>
-      <c r="I2" s="229"/>
-      <c r="J2" s="229"/>
+      <c r="A2" s="484"/>
+      <c r="B2" s="484"/>
+      <c r="C2" s="484"/>
+      <c r="D2" s="485"/>
+      <c r="E2" s="485"/>
+      <c r="F2" s="485"/>
+      <c r="G2" s="485"/>
+      <c r="H2" s="485"/>
+      <c r="I2" s="484"/>
+      <c r="J2" s="484"/>
     </row>
     <row r="3" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="229"/>
-      <c r="B3" s="229"/>
-      <c r="C3" s="229"/>
-      <c r="D3" s="230" t="s">
+      <c r="A3" s="484"/>
+      <c r="B3" s="484"/>
+      <c r="C3" s="484"/>
+      <c r="D3" s="485" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="230"/>
-      <c r="F3" s="230"/>
-      <c r="G3" s="230"/>
-      <c r="H3" s="230"/>
-      <c r="I3" s="229"/>
-      <c r="J3" s="229"/>
+      <c r="E3" s="485"/>
+      <c r="F3" s="485"/>
+      <c r="G3" s="485"/>
+      <c r="H3" s="485"/>
+      <c r="I3" s="484"/>
+      <c r="J3" s="484"/>
     </row>
     <row r="4" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="229"/>
-      <c r="B4" s="229"/>
-      <c r="C4" s="229"/>
-      <c r="D4" s="230"/>
-      <c r="E4" s="230"/>
-      <c r="F4" s="230"/>
-      <c r="G4" s="230"/>
-      <c r="H4" s="230"/>
-      <c r="I4" s="229"/>
-      <c r="J4" s="229"/>
+      <c r="A4" s="484"/>
+      <c r="B4" s="484"/>
+      <c r="C4" s="484"/>
+      <c r="D4" s="485"/>
+      <c r="E4" s="485"/>
+      <c r="F4" s="485"/>
+      <c r="G4" s="485"/>
+      <c r="H4" s="485"/>
+      <c r="I4" s="484"/>
+      <c r="J4" s="484"/>
     </row>
     <row r="5" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N5" s="229" t="s">
+      <c r="N5" s="484" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="229"/>
-      <c r="P5" s="229"/>
-      <c r="Q5" s="229"/>
-      <c r="R5" s="229"/>
+      <c r="O5" s="484"/>
+      <c r="P5" s="484"/>
+      <c r="Q5" s="484"/>
+      <c r="R5" s="484"/>
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -6858,7 +6843,7 @@
       <c r="M6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="263" t="s">
+      <c r="N6" s="254" t="s">
         <v>12</v>
       </c>
       <c r="O6" s="212" t="s">
@@ -6885,11 +6870,11 @@
       <c r="H7" s="73"/>
       <c r="I7" s="74"/>
       <c r="J7" s="71"/>
-      <c r="N7" s="264"/>
+      <c r="N7" s="255"/>
       <c r="O7" s="53"/>
       <c r="P7" s="55"/>
       <c r="Q7" s="55"/>
-      <c r="R7" s="265"/>
+      <c r="R7" s="256"/>
     </row>
     <row r="8" spans="1:18" s="52" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="48"/>
@@ -6902,11 +6887,11 @@
       <c r="H8" s="50"/>
       <c r="I8" s="50"/>
       <c r="J8" s="50"/>
-      <c r="N8" s="264"/>
+      <c r="N8" s="255"/>
       <c r="O8" s="53"/>
       <c r="P8" s="54"/>
       <c r="Q8" s="54"/>
-      <c r="R8" s="266"/>
+      <c r="R8" s="257"/>
     </row>
     <row r="9" spans="1:18" s="32" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="115"/>
@@ -6919,11 +6904,11 @@
       <c r="H9" s="148"/>
       <c r="I9" s="147"/>
       <c r="J9" s="174"/>
-      <c r="N9" s="267"/>
+      <c r="N9" s="258"/>
       <c r="O9" s="53"/>
       <c r="P9" s="33"/>
       <c r="Q9" s="33"/>
-      <c r="R9" s="268"/>
+      <c r="R9" s="259"/>
     </row>
     <row r="10" spans="1:18" s="32" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="114"/>
@@ -6936,11 +6921,11 @@
       <c r="H10" s="196"/>
       <c r="I10" s="162"/>
       <c r="J10" s="40"/>
-      <c r="N10" s="267"/>
+      <c r="N10" s="258"/>
       <c r="O10" s="53"/>
       <c r="P10" s="33"/>
       <c r="Q10" s="33"/>
-      <c r="R10" s="268"/>
+      <c r="R10" s="259"/>
     </row>
     <row r="11" spans="1:18" s="46" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="62"/>
@@ -6953,11 +6938,11 @@
       <c r="H11" s="65"/>
       <c r="I11" s="66"/>
       <c r="J11" s="61"/>
-      <c r="N11" s="267"/>
+      <c r="N11" s="258"/>
       <c r="O11" s="53"/>
       <c r="P11" s="47"/>
       <c r="Q11" s="47"/>
-      <c r="R11" s="269"/>
+      <c r="R11" s="260"/>
     </row>
     <row r="12" spans="1:18" s="46" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="62"/>
@@ -6970,11 +6955,11 @@
       <c r="H12" s="31"/>
       <c r="I12" s="41"/>
       <c r="J12" s="40"/>
-      <c r="N12" s="267"/>
+      <c r="N12" s="258"/>
       <c r="O12" s="53"/>
       <c r="P12" s="47"/>
       <c r="Q12" s="47"/>
-      <c r="R12" s="269"/>
+      <c r="R12" s="260"/>
     </row>
     <row r="13" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="48"/>
@@ -6987,11 +6972,11 @@
       <c r="H13" s="50"/>
       <c r="I13" s="50"/>
       <c r="J13" s="50"/>
-      <c r="N13" s="270"/>
+      <c r="N13" s="261"/>
       <c r="O13" s="53"/>
       <c r="P13" s="145"/>
       <c r="Q13" s="146"/>
-      <c r="R13" s="271"/>
+      <c r="R13" s="262"/>
     </row>
     <row r="14" spans="1:18" s="150" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="115"/>
@@ -7004,11 +6989,11 @@
       <c r="H14" s="118"/>
       <c r="I14" s="116"/>
       <c r="J14" s="119"/>
-      <c r="N14" s="272"/>
+      <c r="N14" s="263"/>
       <c r="O14" s="53"/>
       <c r="P14" s="151"/>
       <c r="Q14" s="151"/>
-      <c r="R14" s="273"/>
+      <c r="R14" s="264"/>
     </row>
     <row r="15" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="48"/>
@@ -7021,11 +7006,11 @@
       <c r="H15" s="57"/>
       <c r="I15" s="57"/>
       <c r="J15" s="57"/>
-      <c r="N15" s="264"/>
+      <c r="N15" s="255"/>
       <c r="O15" s="53"/>
       <c r="P15" s="55"/>
       <c r="Q15" s="55"/>
-      <c r="R15" s="265"/>
+      <c r="R15" s="256"/>
     </row>
     <row r="16" spans="1:18" s="120" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="48"/>
@@ -7038,11 +7023,11 @@
       <c r="H16" s="50"/>
       <c r="I16" s="61"/>
       <c r="J16" s="50"/>
-      <c r="N16" s="274"/>
+      <c r="N16" s="265"/>
       <c r="O16" s="53"/>
       <c r="P16" s="121"/>
       <c r="Q16" s="121"/>
-      <c r="R16" s="275"/>
+      <c r="R16" s="266"/>
     </row>
     <row r="17" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="48"/>
@@ -7055,11 +7040,11 @@
       <c r="H17" s="69"/>
       <c r="I17" s="69"/>
       <c r="J17" s="50"/>
-      <c r="N17" s="264"/>
+      <c r="N17" s="255"/>
       <c r="O17" s="53"/>
       <c r="P17" s="58"/>
       <c r="Q17" s="58"/>
-      <c r="R17" s="276"/>
+      <c r="R17" s="267"/>
     </row>
     <row r="18" spans="1:18" s="52" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="48"/>
@@ -7072,11 +7057,11 @@
       <c r="H18" s="31"/>
       <c r="I18" s="41"/>
       <c r="J18" s="40"/>
-      <c r="N18" s="264"/>
+      <c r="N18" s="255"/>
       <c r="O18" s="53"/>
       <c r="P18" s="54"/>
       <c r="Q18" s="54"/>
-      <c r="R18" s="266"/>
+      <c r="R18" s="257"/>
     </row>
     <row r="19" spans="1:18" s="52" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="161"/>
@@ -7089,11 +7074,11 @@
       <c r="H19" s="31"/>
       <c r="I19" s="41"/>
       <c r="J19" s="40"/>
-      <c r="N19" s="277"/>
+      <c r="N19" s="268"/>
       <c r="O19" s="53"/>
       <c r="P19" s="220"/>
       <c r="Q19" s="220"/>
-      <c r="R19" s="278"/>
+      <c r="R19" s="269"/>
     </row>
     <row r="20" spans="1:18" s="52" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="111"/>
@@ -7106,11 +7091,11 @@
       <c r="H20" s="44"/>
       <c r="I20" s="41"/>
       <c r="J20" s="40"/>
-      <c r="N20" s="264"/>
+      <c r="N20" s="255"/>
       <c r="O20" s="53"/>
       <c r="P20" s="53"/>
       <c r="Q20" s="53"/>
-      <c r="R20" s="279"/>
+      <c r="R20" s="270"/>
     </row>
     <row r="21" spans="1:18" s="52" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="48"/>
@@ -7123,11 +7108,11 @@
       <c r="H21" s="79"/>
       <c r="I21" s="50"/>
       <c r="J21" s="56"/>
-      <c r="N21" s="270"/>
+      <c r="N21" s="261"/>
       <c r="O21" s="53"/>
       <c r="P21" s="221"/>
       <c r="Q21" s="221"/>
-      <c r="R21" s="280"/>
+      <c r="R21" s="271"/>
     </row>
     <row r="22" spans="1:18" s="34" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="115"/>
@@ -7140,11 +7125,11 @@
       <c r="H22" s="138"/>
       <c r="I22" s="124"/>
       <c r="J22" s="134"/>
-      <c r="N22" s="267"/>
+      <c r="N22" s="258"/>
       <c r="O22" s="53"/>
       <c r="P22" s="35"/>
       <c r="Q22" s="35"/>
-      <c r="R22" s="281"/>
+      <c r="R22" s="272"/>
     </row>
     <row r="23" spans="1:18" s="139" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="48"/>
@@ -7157,11 +7142,11 @@
       <c r="H23" s="86"/>
       <c r="I23" s="71"/>
       <c r="J23" s="40"/>
-      <c r="N23" s="264"/>
+      <c r="N23" s="255"/>
       <c r="O23" s="53"/>
       <c r="P23" s="140"/>
       <c r="Q23" s="140"/>
-      <c r="R23" s="282"/>
+      <c r="R23" s="273"/>
     </row>
     <row r="24" spans="1:18" s="34" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="115"/>
@@ -7174,11 +7159,11 @@
       <c r="H24" s="31"/>
       <c r="I24" s="41"/>
       <c r="J24" s="40"/>
-      <c r="N24" s="267"/>
+      <c r="N24" s="258"/>
       <c r="O24" s="53"/>
       <c r="P24" s="35"/>
       <c r="Q24" s="35"/>
-      <c r="R24" s="281"/>
+      <c r="R24" s="272"/>
     </row>
     <row r="25" spans="1:18" s="139" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="115"/>
@@ -7191,11 +7176,11 @@
       <c r="H25" s="143"/>
       <c r="I25" s="129"/>
       <c r="J25" s="222"/>
-      <c r="N25" s="264"/>
+      <c r="N25" s="255"/>
       <c r="O25" s="53"/>
       <c r="P25" s="140"/>
       <c r="Q25" s="140"/>
-      <c r="R25" s="282"/>
+      <c r="R25" s="273"/>
     </row>
     <row r="26" spans="1:18" s="52" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="48"/>
@@ -7208,11 +7193,11 @@
       <c r="H26" s="83"/>
       <c r="I26" s="84"/>
       <c r="J26" s="40"/>
-      <c r="N26" s="264"/>
+      <c r="N26" s="255"/>
       <c r="O26" s="53"/>
       <c r="P26" s="53"/>
       <c r="Q26" s="54"/>
-      <c r="R26" s="266"/>
+      <c r="R26" s="257"/>
     </row>
     <row r="27" spans="1:18" s="52" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="48"/>
@@ -7225,74 +7210,71 @@
       <c r="H27" s="59"/>
       <c r="I27" s="85"/>
       <c r="J27" s="77"/>
-      <c r="N27" s="264"/>
+      <c r="N27" s="255"/>
       <c r="O27" s="53"/>
       <c r="P27" s="54"/>
       <c r="Q27" s="54"/>
-      <c r="R27" s="266"/>
+      <c r="R27" s="257"/>
     </row>
     <row r="28" spans="1:18" s="135" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="242"/>
-      <c r="B28" s="243"/>
-      <c r="C28" s="244"/>
-      <c r="D28" s="245"/>
-      <c r="E28" s="246"/>
-      <c r="F28" s="247"/>
-      <c r="G28" s="248"/>
+      <c r="A28" s="237"/>
+      <c r="B28" s="238"/>
+      <c r="C28" s="239"/>
+      <c r="D28" s="240"/>
+      <c r="E28" s="241"/>
+      <c r="F28" s="242"/>
+      <c r="G28" s="243"/>
       <c r="H28" s="133"/>
-      <c r="I28" s="249"/>
-      <c r="J28" s="250"/>
-      <c r="N28" s="283"/>
-      <c r="O28" s="284"/>
-      <c r="P28" s="285"/>
-      <c r="Q28" s="285"/>
-      <c r="R28" s="286"/>
+      <c r="I28" s="244"/>
+      <c r="J28" s="245"/>
+      <c r="N28" s="274"/>
+      <c r="O28" s="275"/>
+      <c r="P28" s="276"/>
+      <c r="Q28" s="276"/>
+      <c r="R28" s="277"/>
     </row>
     <row r="29" spans="1:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="251"/>
-      <c r="B29" s="252"/>
-      <c r="C29" s="253"/>
-      <c r="D29" s="253"/>
-      <c r="E29" s="253"/>
-      <c r="F29" s="239"/>
-      <c r="G29" s="253"/>
-      <c r="H29" s="253"/>
-      <c r="I29" s="253"/>
-      <c r="J29" s="253"/>
-      <c r="N29" s="260"/>
-      <c r="O29" s="261"/>
-      <c r="P29" s="262"/>
-      <c r="Q29" s="262"/>
-      <c r="R29" s="262"/>
+      <c r="A29" s="246"/>
+      <c r="B29" s="247"/>
+      <c r="C29" s="248"/>
+      <c r="D29" s="248"/>
+      <c r="E29" s="248"/>
+      <c r="F29" s="234"/>
+      <c r="G29" s="248"/>
+      <c r="H29" s="248"/>
+      <c r="I29" s="248"/>
+      <c r="J29" s="248"/>
+      <c r="N29" s="139"/>
+      <c r="O29" s="52"/>
     </row>
     <row r="30" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="259" t="s">
+      <c r="A30" s="253" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="258">
+      <c r="B30" s="252">
         <f>COUNTA(B7:B28)</f>
         <v>0</v>
       </c>
-      <c r="C30" s="255"/>
-      <c r="D30" s="255"/>
-      <c r="E30" s="255"/>
-      <c r="F30" s="254"/>
-      <c r="G30" s="254"/>
-      <c r="H30" s="256"/>
-      <c r="I30" s="254"/>
-      <c r="J30" s="254"/>
+      <c r="C30" s="250"/>
+      <c r="D30" s="250"/>
+      <c r="E30" s="250"/>
+      <c r="F30" s="249"/>
+      <c r="G30" s="249"/>
+      <c r="H30" s="251"/>
+      <c r="I30" s="249"/>
+      <c r="J30" s="249"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="257"/>
-      <c r="B31" s="257"/>
-      <c r="C31" s="257"/>
-      <c r="D31" s="257"/>
-      <c r="E31" s="257"/>
-      <c r="F31" s="257"/>
-      <c r="G31" s="257"/>
-      <c r="H31" s="257"/>
-      <c r="I31" s="257"/>
-      <c r="J31" s="257"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
@@ -7358,107 +7340,107 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="229"/>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
-      <c r="D2" s="229"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229"/>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="229"/>
-      <c r="J2" s="229"/>
-      <c r="K2" s="229"/>
-      <c r="L2" s="229"/>
-      <c r="M2" s="229"/>
-      <c r="N2" s="229"/>
+      <c r="A2" s="484"/>
+      <c r="B2" s="484"/>
+      <c r="C2" s="484"/>
+      <c r="D2" s="484"/>
+      <c r="E2" s="484"/>
+      <c r="F2" s="484"/>
+      <c r="G2" s="484"/>
+      <c r="H2" s="484"/>
+      <c r="I2" s="484"/>
+      <c r="J2" s="484"/>
+      <c r="K2" s="484"/>
+      <c r="L2" s="484"/>
+      <c r="M2" s="484"/>
+      <c r="N2" s="484"/>
     </row>
     <row r="3" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="229"/>
-      <c r="B3" s="229"/>
-      <c r="C3" s="229"/>
-      <c r="D3" s="287" t="s">
+      <c r="A3" s="484"/>
+      <c r="B3" s="484"/>
+      <c r="C3" s="484"/>
+      <c r="D3" s="487" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="287"/>
-      <c r="F3" s="287"/>
-      <c r="G3" s="287"/>
-      <c r="H3" s="287"/>
-      <c r="I3" s="287"/>
-      <c r="J3" s="287"/>
-      <c r="K3" s="287"/>
-      <c r="L3" s="287"/>
-      <c r="M3" s="229"/>
-      <c r="N3" s="229"/>
+      <c r="E3" s="487"/>
+      <c r="F3" s="487"/>
+      <c r="G3" s="487"/>
+      <c r="H3" s="487"/>
+      <c r="I3" s="487"/>
+      <c r="J3" s="487"/>
+      <c r="K3" s="487"/>
+      <c r="L3" s="487"/>
+      <c r="M3" s="484"/>
+      <c r="N3" s="484"/>
     </row>
     <row r="4" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="229"/>
-      <c r="B4" s="229"/>
-      <c r="C4" s="229"/>
-      <c r="D4" s="229"/>
-      <c r="E4" s="229"/>
-      <c r="F4" s="229"/>
-      <c r="G4" s="229"/>
-      <c r="H4" s="229"/>
-      <c r="I4" s="229"/>
-      <c r="J4" s="229"/>
-      <c r="K4" s="229"/>
-      <c r="L4" s="229"/>
-      <c r="M4" s="229"/>
-      <c r="N4" s="229"/>
+      <c r="A4" s="484"/>
+      <c r="B4" s="484"/>
+      <c r="C4" s="484"/>
+      <c r="D4" s="484"/>
+      <c r="E4" s="484"/>
+      <c r="F4" s="484"/>
+      <c r="G4" s="484"/>
+      <c r="H4" s="484"/>
+      <c r="I4" s="484"/>
+      <c r="J4" s="484"/>
+      <c r="K4" s="484"/>
+      <c r="L4" s="484"/>
+      <c r="M4" s="484"/>
+      <c r="N4" s="484"/>
     </row>
     <row r="5" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="R5" s="231" t="s">
+      <c r="R5" s="486" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="231"/>
-      <c r="T5" s="231"/>
-      <c r="U5" s="231"/>
-      <c r="V5" s="231"/>
-      <c r="W5" s="231"/>
-      <c r="X5" s="231"/>
+      <c r="S5" s="486"/>
+      <c r="T5" s="486"/>
+      <c r="U5" s="486"/>
+      <c r="V5" s="486"/>
+      <c r="W5" s="486"/>
+      <c r="X5" s="486"/>
     </row>
     <row r="6" spans="1:24" s="2" customFormat="1" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="291" t="s">
+      <c r="A6" s="281" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="291" t="s">
+      <c r="B6" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="291" t="s">
+      <c r="C6" s="281" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="291" t="s">
+      <c r="D6" s="281" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="291" t="s">
+      <c r="E6" s="281" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="291" t="s">
+      <c r="F6" s="281" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="291" t="s">
+      <c r="G6" s="281" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="291" t="s">
+      <c r="H6" s="281" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="291" t="s">
+      <c r="I6" s="281" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="291" t="s">
+      <c r="J6" s="281" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="291" t="s">
+      <c r="K6" s="281" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="292" t="s">
+      <c r="L6" s="282" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="291" t="s">
+      <c r="M6" s="281" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="293" t="s">
+      <c r="N6" s="283" t="s">
         <v>22</v>
       </c>
       <c r="Q6" s="2" t="s">
@@ -7487,20 +7469,20 @@
       </c>
     </row>
     <row r="7" spans="1:24" s="209" customFormat="1" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="288"/>
-      <c r="B7" s="289"/>
-      <c r="C7" s="290"/>
-      <c r="D7" s="290"/>
-      <c r="E7" s="290"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
-      <c r="H7" s="289"/>
-      <c r="I7" s="289"/>
-      <c r="J7" s="289"/>
-      <c r="K7" s="289"/>
-      <c r="L7" s="288"/>
-      <c r="M7" s="289"/>
-      <c r="N7" s="289"/>
+      <c r="A7" s="278"/>
+      <c r="B7" s="279"/>
+      <c r="C7" s="280"/>
+      <c r="D7" s="280"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="279"/>
+      <c r="G7" s="279"/>
+      <c r="H7" s="279"/>
+      <c r="I7" s="279"/>
+      <c r="J7" s="279"/>
+      <c r="K7" s="279"/>
+      <c r="L7" s="278"/>
+      <c r="M7" s="279"/>
+      <c r="N7" s="279"/>
       <c r="R7" s="29"/>
       <c r="S7" s="216"/>
       <c r="T7" s="29"/>
@@ -8200,7 +8182,7 @@
       <c r="X37" s="67"/>
     </row>
     <row r="38" spans="1:25" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="234"/>
+      <c r="A38" s="229"/>
       <c r="B38" s="86"/>
       <c r="C38" s="86"/>
       <c r="D38" s="86"/>
@@ -8208,7 +8190,7 @@
       <c r="F38" s="86"/>
       <c r="G38" s="86"/>
       <c r="H38" s="86"/>
-      <c r="I38" s="235"/>
+      <c r="I38" s="230"/>
       <c r="J38" s="86"/>
       <c r="K38" s="86"/>
       <c r="L38" s="86"/>
@@ -8224,23 +8206,23 @@
       <c r="Y38" s="141"/>
     </row>
     <row r="39" spans="1:25" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="236"/>
-      <c r="B39" s="237"/>
-      <c r="C39" s="236"/>
-      <c r="D39" s="238"/>
-      <c r="E39" s="238"/>
-      <c r="F39" s="238"/>
-      <c r="G39" s="238"/>
-      <c r="H39" s="239"/>
-      <c r="I39" s="239"/>
-      <c r="J39" s="239"/>
-      <c r="K39" s="239"/>
-      <c r="L39" s="236"/>
-      <c r="M39" s="239"/>
-      <c r="N39" s="239"/>
+      <c r="A39" s="231"/>
+      <c r="B39" s="232"/>
+      <c r="C39" s="231"/>
+      <c r="D39" s="233"/>
+      <c r="E39" s="233"/>
+      <c r="F39" s="233"/>
+      <c r="G39" s="233"/>
+      <c r="H39" s="234"/>
+      <c r="I39" s="234"/>
+      <c r="J39" s="234"/>
+      <c r="K39" s="234"/>
+      <c r="L39" s="231"/>
+      <c r="M39" s="234"/>
+      <c r="N39" s="234"/>
     </row>
     <row r="40" spans="1:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="241" t="s">
+      <c r="A40" s="236" t="s">
         <v>17</v>
       </c>
       <c r="B40" s="23">
@@ -8301,71 +8283,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:68" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="229"/>
-      <c r="B1" s="229"/>
-      <c r="C1" s="229"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="229"/>
+      <c r="A1" s="484"/>
+      <c r="B1" s="484"/>
+      <c r="C1" s="484"/>
+      <c r="D1" s="485"/>
+      <c r="E1" s="485"/>
+      <c r="F1" s="485"/>
+      <c r="G1" s="484"/>
+      <c r="H1" s="484"/>
     </row>
     <row r="2" spans="1:68" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="229"/>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
-      <c r="D2" s="230" t="s">
+      <c r="A2" s="484"/>
+      <c r="B2" s="484"/>
+      <c r="C2" s="484"/>
+      <c r="D2" s="485" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="230"/>
-      <c r="F2" s="230"/>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
+      <c r="E2" s="485"/>
+      <c r="F2" s="485"/>
+      <c r="G2" s="484"/>
+      <c r="H2" s="484"/>
     </row>
     <row r="3" spans="1:68" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="229"/>
-      <c r="B3" s="229"/>
-      <c r="C3" s="229"/>
-      <c r="D3" s="230"/>
-      <c r="E3" s="230"/>
-      <c r="F3" s="230"/>
-      <c r="G3" s="229"/>
-      <c r="H3" s="229"/>
+      <c r="A3" s="484"/>
+      <c r="B3" s="484"/>
+      <c r="C3" s="484"/>
+      <c r="D3" s="485"/>
+      <c r="E3" s="485"/>
+      <c r="F3" s="485"/>
+      <c r="G3" s="484"/>
+      <c r="H3" s="484"/>
     </row>
     <row r="5" spans="1:68" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L5" s="229" t="s">
+      <c r="L5" s="484" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="229"/>
-      <c r="N5" s="229"/>
-      <c r="O5" s="229"/>
-      <c r="P5" s="229"/>
-      <c r="Q5" s="229"/>
-      <c r="R5" s="229"/>
+      <c r="M5" s="484"/>
+      <c r="N5" s="484"/>
+      <c r="O5" s="484"/>
+      <c r="P5" s="484"/>
+      <c r="Q5" s="484"/>
+      <c r="R5" s="484"/>
     </row>
     <row r="6" spans="1:68" s="10" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="481" t="s">
+      <c r="A6" s="470" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="482" t="s">
+      <c r="B6" s="471" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="482" t="s">
+      <c r="C6" s="471" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="482" t="s">
+      <c r="D6" s="471" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="482" t="s">
+      <c r="E6" s="471" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="482" t="s">
+      <c r="F6" s="471" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="482" t="s">
+      <c r="G6" s="471" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="483" t="s">
+      <c r="H6" s="472" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="25"/>
@@ -8373,19 +8355,19 @@
       <c r="K6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="410" t="s">
+      <c r="L6" s="399" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="411" t="s">
+      <c r="M6" s="400" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="411" t="s">
+      <c r="N6" s="400" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="411" t="s">
+      <c r="O6" s="400" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="412" t="s">
+      <c r="P6" s="401" t="s">
         <v>16</v>
       </c>
       <c r="Q6" s="3"/>
@@ -8442,39 +8424,39 @@
       <c r="BP6" s="26"/>
     </row>
     <row r="7" spans="1:68" s="25" customFormat="1" ht="46.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="484"/>
-      <c r="B7" s="475"/>
-      <c r="C7" s="476"/>
-      <c r="D7" s="477"/>
-      <c r="E7" s="476"/>
-      <c r="F7" s="476"/>
-      <c r="G7" s="476"/>
-      <c r="H7" s="478"/>
-      <c r="L7" s="413"/>
-      <c r="M7" s="414"/>
-      <c r="N7" s="415"/>
-      <c r="O7" s="415"/>
-      <c r="P7" s="416"/>
+      <c r="A7" s="473"/>
+      <c r="B7" s="464"/>
+      <c r="C7" s="465"/>
+      <c r="D7" s="466"/>
+      <c r="E7" s="465"/>
+      <c r="F7" s="465"/>
+      <c r="G7" s="465"/>
+      <c r="H7" s="467"/>
+      <c r="L7" s="402"/>
+      <c r="M7" s="403"/>
+      <c r="N7" s="404"/>
+      <c r="O7" s="404"/>
+      <c r="P7" s="405"/>
       <c r="Q7" s="110"/>
       <c r="R7" s="110"/>
     </row>
     <row r="8" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="485"/>
-      <c r="B8" s="417"/>
-      <c r="C8" s="417"/>
-      <c r="D8" s="417"/>
-      <c r="E8" s="417"/>
-      <c r="F8" s="417"/>
-      <c r="G8" s="417"/>
-      <c r="H8" s="418"/>
+      <c r="A8" s="474"/>
+      <c r="B8" s="406"/>
+      <c r="C8" s="406"/>
+      <c r="D8" s="406"/>
+      <c r="E8" s="406"/>
+      <c r="F8" s="406"/>
+      <c r="G8" s="406"/>
+      <c r="H8" s="407"/>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
-      <c r="L8" s="419"/>
+      <c r="L8" s="408"/>
       <c r="M8" s="140"/>
       <c r="N8" s="67"/>
       <c r="O8" s="67"/>
-      <c r="P8" s="420"/>
+      <c r="P8" s="409"/>
       <c r="Q8" s="110"/>
       <c r="R8" s="110"/>
       <c r="S8" s="25"/>
@@ -8529,24 +8511,24 @@
       <c r="BP8" s="26"/>
     </row>
     <row r="9" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="486"/>
-      <c r="B9" s="421"/>
-      <c r="C9" s="422"/>
-      <c r="D9" s="423"/>
-      <c r="E9" s="422"/>
-      <c r="F9" s="422"/>
-      <c r="G9" s="422"/>
-      <c r="H9" s="424"/>
-      <c r="I9" s="425"/>
-      <c r="J9" s="426"/>
-      <c r="K9" s="425"/>
-      <c r="L9" s="427"/>
-      <c r="M9" s="422"/>
-      <c r="N9" s="422"/>
-      <c r="O9" s="422"/>
-      <c r="P9" s="428"/>
-      <c r="Q9" s="425"/>
-      <c r="R9" s="426"/>
+      <c r="A9" s="475"/>
+      <c r="B9" s="410"/>
+      <c r="C9" s="411"/>
+      <c r="D9" s="412"/>
+      <c r="E9" s="411"/>
+      <c r="F9" s="411"/>
+      <c r="G9" s="411"/>
+      <c r="H9" s="413"/>
+      <c r="I9" s="414"/>
+      <c r="J9" s="415"/>
+      <c r="K9" s="414"/>
+      <c r="L9" s="416"/>
+      <c r="M9" s="411"/>
+      <c r="N9" s="411"/>
+      <c r="O9" s="411"/>
+      <c r="P9" s="417"/>
+      <c r="Q9" s="414"/>
+      <c r="R9" s="415"/>
       <c r="S9" s="25"/>
       <c r="T9" s="25"/>
       <c r="U9" s="25"/>
@@ -8599,22 +8581,22 @@
       <c r="BP9" s="26"/>
     </row>
     <row r="10" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="486"/>
-      <c r="B10" s="421"/>
-      <c r="C10" s="422"/>
-      <c r="D10" s="423"/>
-      <c r="E10" s="423"/>
+      <c r="A10" s="475"/>
+      <c r="B10" s="410"/>
+      <c r="C10" s="411"/>
+      <c r="D10" s="412"/>
+      <c r="E10" s="412"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
-      <c r="H10" s="424"/>
+      <c r="H10" s="413"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
-      <c r="L10" s="419"/>
+      <c r="L10" s="408"/>
       <c r="M10" s="140"/>
       <c r="N10" s="67"/>
       <c r="O10" s="67"/>
-      <c r="P10" s="420"/>
+      <c r="P10" s="409"/>
       <c r="Q10" s="110"/>
       <c r="R10" s="110"/>
       <c r="S10" s="25"/>
@@ -8669,22 +8651,22 @@
       <c r="BP10" s="26"/>
     </row>
     <row r="11" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="486"/>
-      <c r="B11" s="429"/>
-      <c r="C11" s="422"/>
-      <c r="D11" s="423"/>
-      <c r="E11" s="422"/>
-      <c r="F11" s="422"/>
+      <c r="A11" s="475"/>
+      <c r="B11" s="418"/>
+      <c r="C11" s="411"/>
+      <c r="D11" s="412"/>
+      <c r="E11" s="411"/>
+      <c r="F11" s="411"/>
       <c r="G11" s="28"/>
-      <c r="H11" s="424"/>
+      <c r="H11" s="413"/>
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
-      <c r="L11" s="419"/>
+      <c r="L11" s="408"/>
       <c r="M11" s="140"/>
       <c r="N11" s="67"/>
       <c r="O11" s="67"/>
-      <c r="P11" s="420"/>
+      <c r="P11" s="409"/>
       <c r="Q11" s="110"/>
       <c r="R11" s="110"/>
       <c r="S11" s="25"/>
@@ -8739,22 +8721,22 @@
       <c r="BP11" s="26"/>
     </row>
     <row r="12" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="485"/>
-      <c r="B12" s="387"/>
-      <c r="C12" s="387"/>
-      <c r="D12" s="387"/>
-      <c r="E12" s="387"/>
-      <c r="F12" s="387"/>
-      <c r="G12" s="387"/>
-      <c r="H12" s="430"/>
+      <c r="A12" s="474"/>
+      <c r="B12" s="376"/>
+      <c r="C12" s="376"/>
+      <c r="D12" s="376"/>
+      <c r="E12" s="376"/>
+      <c r="F12" s="376"/>
+      <c r="G12" s="376"/>
+      <c r="H12" s="419"/>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
-      <c r="L12" s="419"/>
+      <c r="L12" s="408"/>
       <c r="M12" s="140"/>
       <c r="N12" s="67"/>
       <c r="O12" s="67"/>
-      <c r="P12" s="420"/>
+      <c r="P12" s="409"/>
       <c r="Q12" s="25"/>
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
@@ -8809,22 +8791,22 @@
       <c r="BP12" s="26"/>
     </row>
     <row r="13" spans="1:68" s="170" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="487"/>
-      <c r="B13" s="431"/>
-      <c r="C13" s="432"/>
-      <c r="D13" s="432"/>
-      <c r="E13" s="432"/>
-      <c r="F13" s="432"/>
-      <c r="G13" s="432"/>
-      <c r="H13" s="433"/>
+      <c r="A13" s="476"/>
+      <c r="B13" s="420"/>
+      <c r="C13" s="421"/>
+      <c r="D13" s="421"/>
+      <c r="E13" s="421"/>
+      <c r="F13" s="421"/>
+      <c r="G13" s="421"/>
+      <c r="H13" s="422"/>
       <c r="I13" s="167"/>
       <c r="J13" s="167"/>
       <c r="K13" s="167"/>
-      <c r="L13" s="419"/>
+      <c r="L13" s="408"/>
       <c r="M13" s="140"/>
       <c r="N13" s="168"/>
       <c r="O13" s="168"/>
-      <c r="P13" s="434"/>
+      <c r="P13" s="423"/>
       <c r="Q13" s="167"/>
       <c r="R13" s="167"/>
       <c r="S13" s="167"/>
@@ -8879,22 +8861,22 @@
       <c r="BP13" s="169"/>
     </row>
     <row r="14" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="485"/>
-      <c r="B14" s="339"/>
+      <c r="A14" s="474"/>
+      <c r="B14" s="328"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
       <c r="F14" s="31"/>
-      <c r="G14" s="339"/>
-      <c r="H14" s="341"/>
+      <c r="G14" s="328"/>
+      <c r="H14" s="330"/>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
       <c r="K14" s="25"/>
-      <c r="L14" s="419"/>
+      <c r="L14" s="408"/>
       <c r="M14" s="140"/>
       <c r="N14" s="67"/>
       <c r="O14" s="67"/>
-      <c r="P14" s="420"/>
+      <c r="P14" s="409"/>
       <c r="Q14" s="25"/>
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
@@ -8949,22 +8931,22 @@
       <c r="BP14" s="26"/>
     </row>
     <row r="15" spans="1:68" s="170" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="487"/>
+      <c r="A15" s="476"/>
       <c r="B15" s="162"/>
       <c r="C15" s="163"/>
       <c r="D15" s="163"/>
       <c r="E15" s="163"/>
       <c r="F15" s="183"/>
       <c r="G15" s="162"/>
-      <c r="H15" s="435"/>
+      <c r="H15" s="424"/>
       <c r="I15" s="167"/>
       <c r="J15" s="167"/>
       <c r="K15" s="167"/>
-      <c r="L15" s="419"/>
+      <c r="L15" s="408"/>
       <c r="M15" s="140"/>
       <c r="N15" s="168"/>
       <c r="O15" s="168"/>
-      <c r="P15" s="434"/>
+      <c r="P15" s="423"/>
       <c r="Q15" s="167"/>
       <c r="R15" s="167"/>
       <c r="S15" s="167"/>
@@ -9019,19 +9001,19 @@
       <c r="BP15" s="169"/>
     </row>
     <row r="16" spans="1:68" s="170" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="488"/>
-      <c r="B16" s="436"/>
-      <c r="C16" s="436"/>
-      <c r="D16" s="436"/>
-      <c r="E16" s="436"/>
-      <c r="F16" s="436"/>
-      <c r="G16" s="436"/>
-      <c r="H16" s="437"/>
+      <c r="A16" s="477"/>
+      <c r="B16" s="425"/>
+      <c r="C16" s="425"/>
+      <c r="D16" s="425"/>
+      <c r="E16" s="425"/>
+      <c r="F16" s="425"/>
+      <c r="G16" s="425"/>
+      <c r="H16" s="426"/>
       <c r="I16" s="167"/>
       <c r="J16" s="167"/>
       <c r="K16" s="167"/>
-      <c r="L16" s="438"/>
-      <c r="P16" s="439"/>
+      <c r="L16" s="427"/>
+      <c r="P16" s="428"/>
       <c r="Q16" s="167"/>
       <c r="R16" s="167"/>
       <c r="S16" s="167"/>
@@ -9086,19 +9068,19 @@
       <c r="BP16" s="169"/>
     </row>
     <row r="17" spans="1:68" s="170" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="489"/>
+      <c r="A17" s="478"/>
       <c r="B17" s="162"/>
       <c r="C17" s="163"/>
       <c r="D17" s="163"/>
       <c r="E17" s="163"/>
       <c r="F17" s="183"/>
       <c r="G17" s="162"/>
-      <c r="H17" s="435"/>
+      <c r="H17" s="424"/>
       <c r="I17" s="167"/>
       <c r="J17" s="167"/>
       <c r="K17" s="167"/>
-      <c r="L17" s="438"/>
-      <c r="P17" s="439"/>
+      <c r="L17" s="427"/>
+      <c r="P17" s="428"/>
       <c r="Q17" s="167"/>
       <c r="R17" s="167"/>
       <c r="S17" s="167"/>
@@ -9153,19 +9135,19 @@
       <c r="BP17" s="169"/>
     </row>
     <row r="18" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="485"/>
-      <c r="B18" s="387"/>
-      <c r="C18" s="387"/>
-      <c r="D18" s="387"/>
-      <c r="E18" s="387"/>
-      <c r="F18" s="387"/>
-      <c r="G18" s="387"/>
-      <c r="H18" s="430"/>
+      <c r="A18" s="474"/>
+      <c r="B18" s="376"/>
+      <c r="C18" s="376"/>
+      <c r="D18" s="376"/>
+      <c r="E18" s="376"/>
+      <c r="F18" s="376"/>
+      <c r="G18" s="376"/>
+      <c r="H18" s="419"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
-      <c r="L18" s="440"/>
-      <c r="P18" s="441"/>
+      <c r="L18" s="429"/>
+      <c r="P18" s="430"/>
       <c r="Q18" s="25"/>
       <c r="R18" s="25"/>
       <c r="S18" s="25"/>
@@ -9220,19 +9202,19 @@
       <c r="BP18" s="26"/>
     </row>
     <row r="19" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="485"/>
-      <c r="B19" s="387"/>
-      <c r="C19" s="387"/>
-      <c r="D19" s="387"/>
-      <c r="E19" s="387"/>
-      <c r="F19" s="387"/>
-      <c r="G19" s="387"/>
-      <c r="H19" s="430"/>
+      <c r="A19" s="474"/>
+      <c r="B19" s="376"/>
+      <c r="C19" s="376"/>
+      <c r="D19" s="376"/>
+      <c r="E19" s="376"/>
+      <c r="F19" s="376"/>
+      <c r="G19" s="376"/>
+      <c r="H19" s="419"/>
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
-      <c r="L19" s="440"/>
-      <c r="P19" s="441"/>
+      <c r="L19" s="429"/>
+      <c r="P19" s="430"/>
       <c r="Q19" s="25"/>
       <c r="R19" s="25"/>
       <c r="S19" s="25"/>
@@ -9287,19 +9269,19 @@
       <c r="BP19" s="26"/>
     </row>
     <row r="20" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="485"/>
-      <c r="B20" s="387"/>
-      <c r="C20" s="387"/>
-      <c r="D20" s="387"/>
-      <c r="E20" s="387"/>
-      <c r="F20" s="387"/>
-      <c r="G20" s="387"/>
-      <c r="H20" s="430"/>
+      <c r="A20" s="474"/>
+      <c r="B20" s="376"/>
+      <c r="C20" s="376"/>
+      <c r="D20" s="376"/>
+      <c r="E20" s="376"/>
+      <c r="F20" s="376"/>
+      <c r="G20" s="376"/>
+      <c r="H20" s="419"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
-      <c r="L20" s="440"/>
-      <c r="P20" s="441"/>
+      <c r="L20" s="429"/>
+      <c r="P20" s="430"/>
       <c r="Q20" s="25"/>
       <c r="R20" s="25"/>
       <c r="S20" s="25"/>
@@ -9354,19 +9336,19 @@
       <c r="BP20" s="26"/>
     </row>
     <row r="21" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="487"/>
+      <c r="A21" s="476"/>
       <c r="B21" s="187"/>
       <c r="C21" s="181"/>
       <c r="D21" s="186"/>
       <c r="E21" s="186"/>
       <c r="F21" s="181"/>
       <c r="G21" s="187"/>
-      <c r="H21" s="442"/>
+      <c r="H21" s="431"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
-      <c r="L21" s="440"/>
-      <c r="P21" s="441"/>
+      <c r="L21" s="429"/>
+      <c r="P21" s="430"/>
       <c r="Q21" s="25"/>
       <c r="R21" s="25"/>
       <c r="S21" s="25"/>
@@ -9421,19 +9403,19 @@
       <c r="BP21" s="26"/>
     </row>
     <row r="22" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="487"/>
-      <c r="B22" s="387"/>
-      <c r="C22" s="387"/>
-      <c r="D22" s="387"/>
-      <c r="E22" s="387"/>
-      <c r="F22" s="387"/>
-      <c r="G22" s="387"/>
-      <c r="H22" s="430"/>
+      <c r="A22" s="476"/>
+      <c r="B22" s="376"/>
+      <c r="C22" s="376"/>
+      <c r="D22" s="376"/>
+      <c r="E22" s="376"/>
+      <c r="F22" s="376"/>
+      <c r="G22" s="376"/>
+      <c r="H22" s="419"/>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
-      <c r="L22" s="440"/>
-      <c r="P22" s="441"/>
+      <c r="L22" s="429"/>
+      <c r="P22" s="430"/>
       <c r="Q22" s="25"/>
       <c r="R22" s="25"/>
       <c r="S22" s="25"/>
@@ -9488,19 +9470,19 @@
       <c r="BP22" s="26"/>
     </row>
     <row r="23" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="485"/>
-      <c r="B23" s="339"/>
+      <c r="A23" s="474"/>
+      <c r="B23" s="328"/>
       <c r="C23" s="31"/>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
       <c r="F23" s="31"/>
-      <c r="G23" s="339"/>
-      <c r="H23" s="341"/>
+      <c r="G23" s="328"/>
+      <c r="H23" s="330"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
-      <c r="L23" s="440"/>
-      <c r="P23" s="441"/>
+      <c r="L23" s="429"/>
+      <c r="P23" s="430"/>
       <c r="Q23" s="25"/>
       <c r="R23" s="25"/>
       <c r="S23" s="25"/>
@@ -9555,19 +9537,19 @@
       <c r="BP23" s="26"/>
     </row>
     <row r="24" spans="1:68" s="170" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="487"/>
+      <c r="A24" s="476"/>
       <c r="B24" s="191"/>
       <c r="C24" s="191"/>
       <c r="D24" s="191"/>
       <c r="E24" s="191"/>
       <c r="F24" s="191"/>
       <c r="G24" s="191"/>
-      <c r="H24" s="443"/>
+      <c r="H24" s="432"/>
       <c r="I24" s="167"/>
       <c r="J24" s="167"/>
       <c r="K24" s="167"/>
-      <c r="L24" s="438"/>
-      <c r="P24" s="439"/>
+      <c r="L24" s="427"/>
+      <c r="P24" s="428"/>
       <c r="Q24" s="167"/>
       <c r="R24" s="167"/>
       <c r="S24" s="167"/>
@@ -9622,19 +9604,19 @@
       <c r="BP24" s="169"/>
     </row>
     <row r="25" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="485"/>
-      <c r="B25" s="387"/>
-      <c r="C25" s="387"/>
-      <c r="D25" s="387"/>
-      <c r="E25" s="387"/>
-      <c r="F25" s="387"/>
-      <c r="G25" s="387"/>
-      <c r="H25" s="430"/>
+      <c r="A25" s="474"/>
+      <c r="B25" s="376"/>
+      <c r="C25" s="376"/>
+      <c r="D25" s="376"/>
+      <c r="E25" s="376"/>
+      <c r="F25" s="376"/>
+      <c r="G25" s="376"/>
+      <c r="H25" s="419"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
-      <c r="L25" s="440"/>
-      <c r="P25" s="441"/>
+      <c r="L25" s="429"/>
+      <c r="P25" s="430"/>
       <c r="Q25" s="25"/>
       <c r="R25" s="25"/>
       <c r="S25" s="25"/>
@@ -9688,422 +9670,422 @@
       <c r="BO25" s="25"/>
       <c r="BP25" s="26"/>
     </row>
-    <row r="26" spans="1:68" s="446" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="485"/>
-      <c r="B26" s="387"/>
-      <c r="C26" s="387"/>
-      <c r="D26" s="387"/>
-      <c r="E26" s="387"/>
-      <c r="F26" s="387"/>
-      <c r="G26" s="387"/>
-      <c r="H26" s="430"/>
-      <c r="I26" s="444"/>
-      <c r="J26" s="444"/>
-      <c r="K26" s="444"/>
-      <c r="L26" s="445"/>
-      <c r="P26" s="447"/>
-      <c r="Q26" s="444"/>
-      <c r="R26" s="444"/>
-      <c r="S26" s="444"/>
-      <c r="T26" s="444"/>
-      <c r="U26" s="444"/>
-      <c r="V26" s="444"/>
-      <c r="W26" s="444"/>
-      <c r="X26" s="444"/>
-      <c r="Y26" s="444"/>
-      <c r="Z26" s="444"/>
-      <c r="AA26" s="444"/>
-      <c r="AB26" s="444"/>
-      <c r="AC26" s="444"/>
-      <c r="AD26" s="444"/>
-      <c r="AE26" s="444"/>
-      <c r="AF26" s="444"/>
-      <c r="AG26" s="444"/>
-      <c r="AH26" s="444"/>
-      <c r="AI26" s="444"/>
-      <c r="AJ26" s="444"/>
-      <c r="AK26" s="444"/>
-      <c r="AL26" s="444"/>
-      <c r="AM26" s="444"/>
-      <c r="AN26" s="444"/>
-      <c r="AO26" s="444"/>
-      <c r="AP26" s="444"/>
-      <c r="AQ26" s="444"/>
-      <c r="AR26" s="444"/>
-      <c r="AS26" s="444"/>
-      <c r="AT26" s="444"/>
-      <c r="AU26" s="444"/>
-      <c r="AV26" s="444"/>
-      <c r="AW26" s="444"/>
-      <c r="AX26" s="444"/>
-      <c r="AY26" s="444"/>
-      <c r="AZ26" s="444"/>
-      <c r="BA26" s="444"/>
-      <c r="BB26" s="444"/>
-      <c r="BC26" s="444"/>
-      <c r="BD26" s="444"/>
-      <c r="BE26" s="444"/>
-      <c r="BF26" s="444"/>
-      <c r="BG26" s="444"/>
-      <c r="BH26" s="444"/>
-      <c r="BI26" s="444"/>
-      <c r="BJ26" s="444"/>
-      <c r="BK26" s="444"/>
-      <c r="BL26" s="444"/>
-      <c r="BM26" s="444"/>
-      <c r="BN26" s="444"/>
-      <c r="BO26" s="444"/>
-      <c r="BP26" s="448"/>
-    </row>
-    <row r="27" spans="1:68" s="446" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="490"/>
-      <c r="B27" s="339"/>
+    <row r="26" spans="1:68" s="435" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="474"/>
+      <c r="B26" s="376"/>
+      <c r="C26" s="376"/>
+      <c r="D26" s="376"/>
+      <c r="E26" s="376"/>
+      <c r="F26" s="376"/>
+      <c r="G26" s="376"/>
+      <c r="H26" s="419"/>
+      <c r="I26" s="433"/>
+      <c r="J26" s="433"/>
+      <c r="K26" s="433"/>
+      <c r="L26" s="434"/>
+      <c r="P26" s="436"/>
+      <c r="Q26" s="433"/>
+      <c r="R26" s="433"/>
+      <c r="S26" s="433"/>
+      <c r="T26" s="433"/>
+      <c r="U26" s="433"/>
+      <c r="V26" s="433"/>
+      <c r="W26" s="433"/>
+      <c r="X26" s="433"/>
+      <c r="Y26" s="433"/>
+      <c r="Z26" s="433"/>
+      <c r="AA26" s="433"/>
+      <c r="AB26" s="433"/>
+      <c r="AC26" s="433"/>
+      <c r="AD26" s="433"/>
+      <c r="AE26" s="433"/>
+      <c r="AF26" s="433"/>
+      <c r="AG26" s="433"/>
+      <c r="AH26" s="433"/>
+      <c r="AI26" s="433"/>
+      <c r="AJ26" s="433"/>
+      <c r="AK26" s="433"/>
+      <c r="AL26" s="433"/>
+      <c r="AM26" s="433"/>
+      <c r="AN26" s="433"/>
+      <c r="AO26" s="433"/>
+      <c r="AP26" s="433"/>
+      <c r="AQ26" s="433"/>
+      <c r="AR26" s="433"/>
+      <c r="AS26" s="433"/>
+      <c r="AT26" s="433"/>
+      <c r="AU26" s="433"/>
+      <c r="AV26" s="433"/>
+      <c r="AW26" s="433"/>
+      <c r="AX26" s="433"/>
+      <c r="AY26" s="433"/>
+      <c r="AZ26" s="433"/>
+      <c r="BA26" s="433"/>
+      <c r="BB26" s="433"/>
+      <c r="BC26" s="433"/>
+      <c r="BD26" s="433"/>
+      <c r="BE26" s="433"/>
+      <c r="BF26" s="433"/>
+      <c r="BG26" s="433"/>
+      <c r="BH26" s="433"/>
+      <c r="BI26" s="433"/>
+      <c r="BJ26" s="433"/>
+      <c r="BK26" s="433"/>
+      <c r="BL26" s="433"/>
+      <c r="BM26" s="433"/>
+      <c r="BN26" s="433"/>
+      <c r="BO26" s="433"/>
+      <c r="BP26" s="437"/>
+    </row>
+    <row r="27" spans="1:68" s="435" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="479"/>
+      <c r="B27" s="328"/>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
       <c r="F27" s="31"/>
-      <c r="G27" s="339"/>
-      <c r="H27" s="341"/>
-      <c r="I27" s="444"/>
-      <c r="J27" s="444"/>
-      <c r="K27" s="444"/>
-      <c r="L27" s="445"/>
-      <c r="P27" s="447"/>
-      <c r="Q27" s="444"/>
-      <c r="R27" s="444"/>
-      <c r="S27" s="444"/>
-      <c r="T27" s="444"/>
-      <c r="U27" s="444"/>
-      <c r="V27" s="444"/>
-      <c r="W27" s="444"/>
-      <c r="X27" s="444"/>
-      <c r="Y27" s="444"/>
-      <c r="Z27" s="444"/>
-      <c r="AA27" s="444"/>
-      <c r="AB27" s="444"/>
-      <c r="AC27" s="444"/>
-      <c r="AD27" s="444"/>
-      <c r="AE27" s="444"/>
-      <c r="AF27" s="444"/>
-      <c r="AG27" s="444"/>
-      <c r="AH27" s="444"/>
-      <c r="AI27" s="444"/>
-      <c r="AJ27" s="444"/>
-      <c r="AK27" s="444"/>
-      <c r="AL27" s="444"/>
-      <c r="AM27" s="444"/>
-      <c r="AN27" s="444"/>
-      <c r="AO27" s="444"/>
-      <c r="AP27" s="444"/>
-      <c r="AQ27" s="444"/>
-      <c r="AR27" s="444"/>
-      <c r="AS27" s="444"/>
-      <c r="AT27" s="444"/>
-      <c r="AU27" s="444"/>
-      <c r="AV27" s="444"/>
-      <c r="AW27" s="444"/>
-      <c r="AX27" s="444"/>
-      <c r="AY27" s="444"/>
-      <c r="AZ27" s="444"/>
-      <c r="BA27" s="444"/>
-      <c r="BB27" s="444"/>
-      <c r="BC27" s="444"/>
-      <c r="BD27" s="444"/>
-      <c r="BE27" s="444"/>
-      <c r="BF27" s="444"/>
-      <c r="BG27" s="444"/>
-      <c r="BH27" s="444"/>
-      <c r="BI27" s="444"/>
-      <c r="BJ27" s="444"/>
-      <c r="BK27" s="444"/>
-      <c r="BL27" s="444"/>
-      <c r="BM27" s="444"/>
-      <c r="BN27" s="444"/>
-      <c r="BO27" s="444"/>
-      <c r="BP27" s="448"/>
-    </row>
-    <row r="28" spans="1:68" s="446" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="491"/>
-      <c r="B28" s="339"/>
+      <c r="G27" s="328"/>
+      <c r="H27" s="330"/>
+      <c r="I27" s="433"/>
+      <c r="J27" s="433"/>
+      <c r="K27" s="433"/>
+      <c r="L27" s="434"/>
+      <c r="P27" s="436"/>
+      <c r="Q27" s="433"/>
+      <c r="R27" s="433"/>
+      <c r="S27" s="433"/>
+      <c r="T27" s="433"/>
+      <c r="U27" s="433"/>
+      <c r="V27" s="433"/>
+      <c r="W27" s="433"/>
+      <c r="X27" s="433"/>
+      <c r="Y27" s="433"/>
+      <c r="Z27" s="433"/>
+      <c r="AA27" s="433"/>
+      <c r="AB27" s="433"/>
+      <c r="AC27" s="433"/>
+      <c r="AD27" s="433"/>
+      <c r="AE27" s="433"/>
+      <c r="AF27" s="433"/>
+      <c r="AG27" s="433"/>
+      <c r="AH27" s="433"/>
+      <c r="AI27" s="433"/>
+      <c r="AJ27" s="433"/>
+      <c r="AK27" s="433"/>
+      <c r="AL27" s="433"/>
+      <c r="AM27" s="433"/>
+      <c r="AN27" s="433"/>
+      <c r="AO27" s="433"/>
+      <c r="AP27" s="433"/>
+      <c r="AQ27" s="433"/>
+      <c r="AR27" s="433"/>
+      <c r="AS27" s="433"/>
+      <c r="AT27" s="433"/>
+      <c r="AU27" s="433"/>
+      <c r="AV27" s="433"/>
+      <c r="AW27" s="433"/>
+      <c r="AX27" s="433"/>
+      <c r="AY27" s="433"/>
+      <c r="AZ27" s="433"/>
+      <c r="BA27" s="433"/>
+      <c r="BB27" s="433"/>
+      <c r="BC27" s="433"/>
+      <c r="BD27" s="433"/>
+      <c r="BE27" s="433"/>
+      <c r="BF27" s="433"/>
+      <c r="BG27" s="433"/>
+      <c r="BH27" s="433"/>
+      <c r="BI27" s="433"/>
+      <c r="BJ27" s="433"/>
+      <c r="BK27" s="433"/>
+      <c r="BL27" s="433"/>
+      <c r="BM27" s="433"/>
+      <c r="BN27" s="433"/>
+      <c r="BO27" s="433"/>
+      <c r="BP27" s="437"/>
+    </row>
+    <row r="28" spans="1:68" s="435" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="480"/>
+      <c r="B28" s="328"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
       <c r="F28" s="31"/>
-      <c r="G28" s="339"/>
-      <c r="H28" s="341"/>
-      <c r="I28" s="444"/>
-      <c r="J28" s="444"/>
-      <c r="K28" s="444"/>
-      <c r="L28" s="445"/>
-      <c r="P28" s="447"/>
-      <c r="Q28" s="444"/>
-      <c r="R28" s="444"/>
-      <c r="S28" s="444"/>
-      <c r="T28" s="444"/>
-      <c r="U28" s="444"/>
-      <c r="V28" s="444"/>
-      <c r="W28" s="444"/>
-      <c r="X28" s="444"/>
-      <c r="Y28" s="444"/>
-      <c r="Z28" s="444"/>
-      <c r="AA28" s="444"/>
-      <c r="AB28" s="444"/>
-      <c r="AC28" s="444"/>
-      <c r="AD28" s="444"/>
-      <c r="AE28" s="444"/>
-      <c r="AF28" s="444"/>
-      <c r="AG28" s="444"/>
-      <c r="AH28" s="444"/>
-      <c r="AI28" s="444"/>
-      <c r="AJ28" s="444"/>
-      <c r="AK28" s="444"/>
-      <c r="AL28" s="444"/>
-      <c r="AM28" s="444"/>
-      <c r="AN28" s="444"/>
-      <c r="AO28" s="444"/>
-      <c r="AP28" s="444"/>
-      <c r="AQ28" s="444"/>
-      <c r="AR28" s="444"/>
-      <c r="AS28" s="444"/>
-      <c r="AT28" s="444"/>
-      <c r="AU28" s="444"/>
-      <c r="AV28" s="444"/>
-      <c r="AW28" s="444"/>
-      <c r="AX28" s="444"/>
-      <c r="AY28" s="444"/>
-      <c r="AZ28" s="444"/>
-      <c r="BA28" s="444"/>
-      <c r="BB28" s="444"/>
-      <c r="BC28" s="444"/>
-      <c r="BD28" s="444"/>
-      <c r="BE28" s="444"/>
-      <c r="BF28" s="444"/>
-      <c r="BG28" s="444"/>
-      <c r="BH28" s="444"/>
-      <c r="BI28" s="444"/>
-      <c r="BJ28" s="444"/>
-      <c r="BK28" s="444"/>
-      <c r="BL28" s="444"/>
-      <c r="BM28" s="444"/>
-      <c r="BN28" s="444"/>
-      <c r="BO28" s="444"/>
-      <c r="BP28" s="448"/>
-    </row>
-    <row r="29" spans="1:68" s="446" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="491"/>
-      <c r="B29" s="339"/>
+      <c r="G28" s="328"/>
+      <c r="H28" s="330"/>
+      <c r="I28" s="433"/>
+      <c r="J28" s="433"/>
+      <c r="K28" s="433"/>
+      <c r="L28" s="434"/>
+      <c r="P28" s="436"/>
+      <c r="Q28" s="433"/>
+      <c r="R28" s="433"/>
+      <c r="S28" s="433"/>
+      <c r="T28" s="433"/>
+      <c r="U28" s="433"/>
+      <c r="V28" s="433"/>
+      <c r="W28" s="433"/>
+      <c r="X28" s="433"/>
+      <c r="Y28" s="433"/>
+      <c r="Z28" s="433"/>
+      <c r="AA28" s="433"/>
+      <c r="AB28" s="433"/>
+      <c r="AC28" s="433"/>
+      <c r="AD28" s="433"/>
+      <c r="AE28" s="433"/>
+      <c r="AF28" s="433"/>
+      <c r="AG28" s="433"/>
+      <c r="AH28" s="433"/>
+      <c r="AI28" s="433"/>
+      <c r="AJ28" s="433"/>
+      <c r="AK28" s="433"/>
+      <c r="AL28" s="433"/>
+      <c r="AM28" s="433"/>
+      <c r="AN28" s="433"/>
+      <c r="AO28" s="433"/>
+      <c r="AP28" s="433"/>
+      <c r="AQ28" s="433"/>
+      <c r="AR28" s="433"/>
+      <c r="AS28" s="433"/>
+      <c r="AT28" s="433"/>
+      <c r="AU28" s="433"/>
+      <c r="AV28" s="433"/>
+      <c r="AW28" s="433"/>
+      <c r="AX28" s="433"/>
+      <c r="AY28" s="433"/>
+      <c r="AZ28" s="433"/>
+      <c r="BA28" s="433"/>
+      <c r="BB28" s="433"/>
+      <c r="BC28" s="433"/>
+      <c r="BD28" s="433"/>
+      <c r="BE28" s="433"/>
+      <c r="BF28" s="433"/>
+      <c r="BG28" s="433"/>
+      <c r="BH28" s="433"/>
+      <c r="BI28" s="433"/>
+      <c r="BJ28" s="433"/>
+      <c r="BK28" s="433"/>
+      <c r="BL28" s="433"/>
+      <c r="BM28" s="433"/>
+      <c r="BN28" s="433"/>
+      <c r="BO28" s="433"/>
+      <c r="BP28" s="437"/>
+    </row>
+    <row r="29" spans="1:68" s="435" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="480"/>
+      <c r="B29" s="328"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="F29" s="31"/>
-      <c r="G29" s="339"/>
-      <c r="H29" s="341"/>
-      <c r="I29" s="444"/>
-      <c r="J29" s="444"/>
-      <c r="K29" s="444"/>
-      <c r="L29" s="445"/>
-      <c r="P29" s="447"/>
-      <c r="Q29" s="444"/>
-      <c r="R29" s="444"/>
-      <c r="S29" s="444"/>
-      <c r="T29" s="444"/>
-      <c r="U29" s="444"/>
-      <c r="V29" s="444"/>
-      <c r="W29" s="444"/>
-      <c r="X29" s="444"/>
-      <c r="Y29" s="444"/>
-      <c r="Z29" s="444"/>
-      <c r="AA29" s="444"/>
-      <c r="AB29" s="444"/>
-      <c r="AC29" s="444"/>
-      <c r="AD29" s="444"/>
-      <c r="AE29" s="444"/>
-      <c r="AF29" s="444"/>
-      <c r="AG29" s="444"/>
-      <c r="AH29" s="444"/>
-      <c r="AI29" s="444"/>
-      <c r="AJ29" s="444"/>
-      <c r="AK29" s="444"/>
-      <c r="AL29" s="444"/>
-      <c r="AM29" s="444"/>
-      <c r="AN29" s="444"/>
-      <c r="AO29" s="444"/>
-      <c r="AP29" s="444"/>
-      <c r="AQ29" s="444"/>
-      <c r="AR29" s="444"/>
-      <c r="AS29" s="444"/>
-      <c r="AT29" s="444"/>
-      <c r="AU29" s="444"/>
-      <c r="AV29" s="444"/>
-      <c r="AW29" s="444"/>
-      <c r="AX29" s="444"/>
-      <c r="AY29" s="444"/>
-      <c r="AZ29" s="444"/>
-      <c r="BA29" s="444"/>
-      <c r="BB29" s="444"/>
-      <c r="BC29" s="444"/>
-      <c r="BD29" s="444"/>
-      <c r="BE29" s="444"/>
-      <c r="BF29" s="444"/>
-      <c r="BG29" s="444"/>
-      <c r="BH29" s="444"/>
-      <c r="BI29" s="444"/>
-      <c r="BJ29" s="444"/>
-      <c r="BK29" s="444"/>
-      <c r="BL29" s="444"/>
-      <c r="BM29" s="444"/>
-      <c r="BN29" s="444"/>
-      <c r="BO29" s="444"/>
-      <c r="BP29" s="448"/>
-    </row>
-    <row r="30" spans="1:68" s="446" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="491"/>
-      <c r="B30" s="339"/>
+      <c r="G29" s="328"/>
+      <c r="H29" s="330"/>
+      <c r="I29" s="433"/>
+      <c r="J29" s="433"/>
+      <c r="K29" s="433"/>
+      <c r="L29" s="434"/>
+      <c r="P29" s="436"/>
+      <c r="Q29" s="433"/>
+      <c r="R29" s="433"/>
+      <c r="S29" s="433"/>
+      <c r="T29" s="433"/>
+      <c r="U29" s="433"/>
+      <c r="V29" s="433"/>
+      <c r="W29" s="433"/>
+      <c r="X29" s="433"/>
+      <c r="Y29" s="433"/>
+      <c r="Z29" s="433"/>
+      <c r="AA29" s="433"/>
+      <c r="AB29" s="433"/>
+      <c r="AC29" s="433"/>
+      <c r="AD29" s="433"/>
+      <c r="AE29" s="433"/>
+      <c r="AF29" s="433"/>
+      <c r="AG29" s="433"/>
+      <c r="AH29" s="433"/>
+      <c r="AI29" s="433"/>
+      <c r="AJ29" s="433"/>
+      <c r="AK29" s="433"/>
+      <c r="AL29" s="433"/>
+      <c r="AM29" s="433"/>
+      <c r="AN29" s="433"/>
+      <c r="AO29" s="433"/>
+      <c r="AP29" s="433"/>
+      <c r="AQ29" s="433"/>
+      <c r="AR29" s="433"/>
+      <c r="AS29" s="433"/>
+      <c r="AT29" s="433"/>
+      <c r="AU29" s="433"/>
+      <c r="AV29" s="433"/>
+      <c r="AW29" s="433"/>
+      <c r="AX29" s="433"/>
+      <c r="AY29" s="433"/>
+      <c r="AZ29" s="433"/>
+      <c r="BA29" s="433"/>
+      <c r="BB29" s="433"/>
+      <c r="BC29" s="433"/>
+      <c r="BD29" s="433"/>
+      <c r="BE29" s="433"/>
+      <c r="BF29" s="433"/>
+      <c r="BG29" s="433"/>
+      <c r="BH29" s="433"/>
+      <c r="BI29" s="433"/>
+      <c r="BJ29" s="433"/>
+      <c r="BK29" s="433"/>
+      <c r="BL29" s="433"/>
+      <c r="BM29" s="433"/>
+      <c r="BN29" s="433"/>
+      <c r="BO29" s="433"/>
+      <c r="BP29" s="437"/>
+    </row>
+    <row r="30" spans="1:68" s="435" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="480"/>
+      <c r="B30" s="328"/>
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="F30" s="31"/>
-      <c r="G30" s="339"/>
-      <c r="H30" s="341"/>
-      <c r="I30" s="444"/>
-      <c r="J30" s="444"/>
-      <c r="K30" s="444"/>
-      <c r="L30" s="445"/>
-      <c r="P30" s="447"/>
-      <c r="Q30" s="444"/>
-      <c r="R30" s="444"/>
-      <c r="S30" s="444"/>
-      <c r="T30" s="444"/>
-      <c r="U30" s="444"/>
-      <c r="V30" s="444"/>
-      <c r="W30" s="444"/>
-      <c r="X30" s="444"/>
-      <c r="Y30" s="444"/>
-      <c r="Z30" s="444"/>
-      <c r="AA30" s="444"/>
-      <c r="AB30" s="444"/>
-      <c r="AC30" s="444"/>
-      <c r="AD30" s="444"/>
-      <c r="AE30" s="444"/>
-      <c r="AF30" s="444"/>
-      <c r="AG30" s="444"/>
-      <c r="AH30" s="444"/>
-      <c r="AI30" s="444"/>
-      <c r="AJ30" s="444"/>
-      <c r="AK30" s="444"/>
-      <c r="AL30" s="444"/>
-      <c r="AM30" s="444"/>
-      <c r="AN30" s="444"/>
-      <c r="AO30" s="444"/>
-      <c r="AP30" s="444"/>
-      <c r="AQ30" s="444"/>
-      <c r="AR30" s="444"/>
-      <c r="AS30" s="444"/>
-      <c r="AT30" s="444"/>
-      <c r="AU30" s="444"/>
-      <c r="AV30" s="444"/>
-      <c r="AW30" s="444"/>
-      <c r="AX30" s="444"/>
-      <c r="AY30" s="444"/>
-      <c r="AZ30" s="444"/>
-      <c r="BA30" s="444"/>
-      <c r="BB30" s="444"/>
-      <c r="BC30" s="444"/>
-      <c r="BD30" s="444"/>
-      <c r="BE30" s="444"/>
-      <c r="BF30" s="444"/>
-      <c r="BG30" s="444"/>
-      <c r="BH30" s="444"/>
-      <c r="BI30" s="444"/>
-      <c r="BJ30" s="444"/>
-      <c r="BK30" s="444"/>
-      <c r="BL30" s="444"/>
-      <c r="BM30" s="444"/>
-      <c r="BN30" s="444"/>
-      <c r="BO30" s="444"/>
-      <c r="BP30" s="448"/>
-    </row>
-    <row r="31" spans="1:68" s="446" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="491"/>
-      <c r="B31" s="339"/>
+      <c r="G30" s="328"/>
+      <c r="H30" s="330"/>
+      <c r="I30" s="433"/>
+      <c r="J30" s="433"/>
+      <c r="K30" s="433"/>
+      <c r="L30" s="434"/>
+      <c r="P30" s="436"/>
+      <c r="Q30" s="433"/>
+      <c r="R30" s="433"/>
+      <c r="S30" s="433"/>
+      <c r="T30" s="433"/>
+      <c r="U30" s="433"/>
+      <c r="V30" s="433"/>
+      <c r="W30" s="433"/>
+      <c r="X30" s="433"/>
+      <c r="Y30" s="433"/>
+      <c r="Z30" s="433"/>
+      <c r="AA30" s="433"/>
+      <c r="AB30" s="433"/>
+      <c r="AC30" s="433"/>
+      <c r="AD30" s="433"/>
+      <c r="AE30" s="433"/>
+      <c r="AF30" s="433"/>
+      <c r="AG30" s="433"/>
+      <c r="AH30" s="433"/>
+      <c r="AI30" s="433"/>
+      <c r="AJ30" s="433"/>
+      <c r="AK30" s="433"/>
+      <c r="AL30" s="433"/>
+      <c r="AM30" s="433"/>
+      <c r="AN30" s="433"/>
+      <c r="AO30" s="433"/>
+      <c r="AP30" s="433"/>
+      <c r="AQ30" s="433"/>
+      <c r="AR30" s="433"/>
+      <c r="AS30" s="433"/>
+      <c r="AT30" s="433"/>
+      <c r="AU30" s="433"/>
+      <c r="AV30" s="433"/>
+      <c r="AW30" s="433"/>
+      <c r="AX30" s="433"/>
+      <c r="AY30" s="433"/>
+      <c r="AZ30" s="433"/>
+      <c r="BA30" s="433"/>
+      <c r="BB30" s="433"/>
+      <c r="BC30" s="433"/>
+      <c r="BD30" s="433"/>
+      <c r="BE30" s="433"/>
+      <c r="BF30" s="433"/>
+      <c r="BG30" s="433"/>
+      <c r="BH30" s="433"/>
+      <c r="BI30" s="433"/>
+      <c r="BJ30" s="433"/>
+      <c r="BK30" s="433"/>
+      <c r="BL30" s="433"/>
+      <c r="BM30" s="433"/>
+      <c r="BN30" s="433"/>
+      <c r="BO30" s="433"/>
+      <c r="BP30" s="437"/>
+    </row>
+    <row r="31" spans="1:68" s="435" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="480"/>
+      <c r="B31" s="328"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="F31" s="31"/>
-      <c r="G31" s="339"/>
-      <c r="H31" s="341"/>
-      <c r="I31" s="444"/>
-      <c r="J31" s="444"/>
-      <c r="K31" s="444"/>
-      <c r="L31" s="445"/>
-      <c r="P31" s="447"/>
-      <c r="Q31" s="444"/>
-      <c r="R31" s="444"/>
-      <c r="S31" s="444"/>
-      <c r="T31" s="444"/>
-      <c r="U31" s="444"/>
-      <c r="V31" s="444"/>
-      <c r="W31" s="444"/>
-      <c r="X31" s="444"/>
-      <c r="Y31" s="444"/>
-      <c r="Z31" s="444"/>
-      <c r="AA31" s="444"/>
-      <c r="AB31" s="444"/>
-      <c r="AC31" s="444"/>
-      <c r="AD31" s="444"/>
-      <c r="AE31" s="444"/>
-      <c r="AF31" s="444"/>
-      <c r="AG31" s="444"/>
-      <c r="AH31" s="444"/>
-      <c r="AI31" s="444"/>
-      <c r="AJ31" s="444"/>
-      <c r="AK31" s="444"/>
-      <c r="AL31" s="444"/>
-      <c r="AM31" s="444"/>
-      <c r="AN31" s="444"/>
-      <c r="AO31" s="444"/>
-      <c r="AP31" s="444"/>
-      <c r="AQ31" s="444"/>
-      <c r="AR31" s="444"/>
-      <c r="AS31" s="444"/>
-      <c r="AT31" s="444"/>
-      <c r="AU31" s="444"/>
-      <c r="AV31" s="444"/>
-      <c r="AW31" s="444"/>
-      <c r="AX31" s="444"/>
-      <c r="AY31" s="444"/>
-      <c r="AZ31" s="444"/>
-      <c r="BA31" s="444"/>
-      <c r="BB31" s="444"/>
-      <c r="BC31" s="444"/>
-      <c r="BD31" s="444"/>
-      <c r="BE31" s="444"/>
-      <c r="BF31" s="444"/>
-      <c r="BG31" s="444"/>
-      <c r="BH31" s="444"/>
-      <c r="BI31" s="444"/>
-      <c r="BJ31" s="444"/>
-      <c r="BK31" s="444"/>
-      <c r="BL31" s="444"/>
-      <c r="BM31" s="444"/>
-      <c r="BN31" s="444"/>
-      <c r="BO31" s="444"/>
-      <c r="BP31" s="448"/>
+      <c r="G31" s="328"/>
+      <c r="H31" s="330"/>
+      <c r="I31" s="433"/>
+      <c r="J31" s="433"/>
+      <c r="K31" s="433"/>
+      <c r="L31" s="434"/>
+      <c r="P31" s="436"/>
+      <c r="Q31" s="433"/>
+      <c r="R31" s="433"/>
+      <c r="S31" s="433"/>
+      <c r="T31" s="433"/>
+      <c r="U31" s="433"/>
+      <c r="V31" s="433"/>
+      <c r="W31" s="433"/>
+      <c r="X31" s="433"/>
+      <c r="Y31" s="433"/>
+      <c r="Z31" s="433"/>
+      <c r="AA31" s="433"/>
+      <c r="AB31" s="433"/>
+      <c r="AC31" s="433"/>
+      <c r="AD31" s="433"/>
+      <c r="AE31" s="433"/>
+      <c r="AF31" s="433"/>
+      <c r="AG31" s="433"/>
+      <c r="AH31" s="433"/>
+      <c r="AI31" s="433"/>
+      <c r="AJ31" s="433"/>
+      <c r="AK31" s="433"/>
+      <c r="AL31" s="433"/>
+      <c r="AM31" s="433"/>
+      <c r="AN31" s="433"/>
+      <c r="AO31" s="433"/>
+      <c r="AP31" s="433"/>
+      <c r="AQ31" s="433"/>
+      <c r="AR31" s="433"/>
+      <c r="AS31" s="433"/>
+      <c r="AT31" s="433"/>
+      <c r="AU31" s="433"/>
+      <c r="AV31" s="433"/>
+      <c r="AW31" s="433"/>
+      <c r="AX31" s="433"/>
+      <c r="AY31" s="433"/>
+      <c r="AZ31" s="433"/>
+      <c r="BA31" s="433"/>
+      <c r="BB31" s="433"/>
+      <c r="BC31" s="433"/>
+      <c r="BD31" s="433"/>
+      <c r="BE31" s="433"/>
+      <c r="BF31" s="433"/>
+      <c r="BG31" s="433"/>
+      <c r="BH31" s="433"/>
+      <c r="BI31" s="433"/>
+      <c r="BJ31" s="433"/>
+      <c r="BK31" s="433"/>
+      <c r="BL31" s="433"/>
+      <c r="BM31" s="433"/>
+      <c r="BN31" s="433"/>
+      <c r="BO31" s="433"/>
+      <c r="BP31" s="437"/>
     </row>
     <row r="32" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="485"/>
-      <c r="B32" s="387"/>
-      <c r="C32" s="387"/>
-      <c r="D32" s="387"/>
-      <c r="E32" s="387"/>
-      <c r="F32" s="387"/>
-      <c r="G32" s="387"/>
-      <c r="H32" s="430"/>
+      <c r="A32" s="474"/>
+      <c r="B32" s="376"/>
+      <c r="C32" s="376"/>
+      <c r="D32" s="376"/>
+      <c r="E32" s="376"/>
+      <c r="F32" s="376"/>
+      <c r="G32" s="376"/>
+      <c r="H32" s="419"/>
       <c r="I32" s="25"/>
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
-      <c r="L32" s="440"/>
-      <c r="P32" s="441"/>
+      <c r="L32" s="429"/>
+      <c r="P32" s="430"/>
       <c r="Q32" s="25"/>
       <c r="R32" s="25"/>
       <c r="S32" s="25"/>
@@ -10158,19 +10140,19 @@
       <c r="BP32" s="26"/>
     </row>
     <row r="33" spans="1:68" s="170" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="492"/>
+      <c r="A33" s="481"/>
       <c r="B33" s="191"/>
       <c r="C33" s="191"/>
       <c r="D33" s="181"/>
       <c r="E33" s="181"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="443"/>
+      <c r="H33" s="432"/>
       <c r="I33" s="167"/>
       <c r="J33" s="167"/>
       <c r="K33" s="167"/>
-      <c r="L33" s="438"/>
-      <c r="P33" s="439"/>
+      <c r="L33" s="427"/>
+      <c r="P33" s="428"/>
       <c r="Q33" s="167"/>
       <c r="R33" s="167"/>
       <c r="S33" s="167"/>
@@ -10225,22 +10207,22 @@
       <c r="BP33" s="169"/>
     </row>
     <row r="34" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="493"/>
-      <c r="B34" s="449"/>
-      <c r="C34" s="450"/>
-      <c r="D34" s="450"/>
-      <c r="E34" s="450"/>
-      <c r="F34" s="450"/>
-      <c r="G34" s="449"/>
-      <c r="H34" s="451"/>
+      <c r="A34" s="482"/>
+      <c r="B34" s="438"/>
+      <c r="C34" s="439"/>
+      <c r="D34" s="439"/>
+      <c r="E34" s="439"/>
+      <c r="F34" s="439"/>
+      <c r="G34" s="438"/>
+      <c r="H34" s="440"/>
       <c r="I34" s="25"/>
       <c r="J34" s="25"/>
       <c r="K34" s="25"/>
-      <c r="L34" s="452"/>
-      <c r="M34" s="453"/>
-      <c r="N34" s="453"/>
-      <c r="O34" s="453"/>
-      <c r="P34" s="454"/>
+      <c r="L34" s="441"/>
+      <c r="M34" s="442"/>
+      <c r="N34" s="442"/>
+      <c r="O34" s="442"/>
+      <c r="P34" s="443"/>
       <c r="Q34" s="25"/>
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
@@ -10295,32 +10277,32 @@
       <c r="BP34" s="26"/>
     </row>
     <row r="35" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="255"/>
-      <c r="B35" s="479"/>
-      <c r="C35" s="255"/>
-      <c r="D35" s="255"/>
-      <c r="E35" s="255"/>
-      <c r="F35" s="256"/>
-      <c r="G35" s="480"/>
-      <c r="H35" s="480"/>
+      <c r="A35" s="250"/>
+      <c r="B35" s="468"/>
+      <c r="C35" s="250"/>
+      <c r="D35" s="250"/>
+      <c r="E35" s="250"/>
+      <c r="F35" s="251"/>
+      <c r="G35" s="469"/>
+      <c r="H35" s="469"/>
     </row>
     <row r="36" spans="1:68" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="255" t="s">
+      <c r="A36" s="250" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="455">
+      <c r="B36" s="444">
         <f>COUNTA(B7:B34)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="L5:R5"/>
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:H3"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="L5:R5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10383,14 +10365,14 @@
       <c r="N1" s="12"/>
     </row>
     <row r="2" spans="1:20" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="232"/>
-      <c r="B2" s="232"/>
-      <c r="C2" s="232"/>
-      <c r="D2" s="233"/>
-      <c r="E2" s="233"/>
-      <c r="F2" s="233"/>
-      <c r="G2" s="232"/>
-      <c r="H2" s="232"/>
+      <c r="A2" s="488"/>
+      <c r="B2" s="488"/>
+      <c r="C2" s="488"/>
+      <c r="D2" s="489"/>
+      <c r="E2" s="489"/>
+      <c r="F2" s="489"/>
+      <c r="G2" s="488"/>
+      <c r="H2" s="488"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
@@ -10405,16 +10387,16 @@
       <c r="T2" s="12"/>
     </row>
     <row r="3" spans="1:20" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="232"/>
-      <c r="B3" s="232"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="233" t="s">
+      <c r="A3" s="488"/>
+      <c r="B3" s="488"/>
+      <c r="C3" s="488"/>
+      <c r="D3" s="489" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="233"/>
-      <c r="F3" s="233"/>
-      <c r="G3" s="232"/>
-      <c r="H3" s="232"/>
+      <c r="E3" s="489"/>
+      <c r="F3" s="489"/>
+      <c r="G3" s="488"/>
+      <c r="H3" s="488"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
@@ -10429,14 +10411,14 @@
       <c r="T3" s="12"/>
     </row>
     <row r="4" spans="1:20" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="232"/>
-      <c r="B4" s="232"/>
-      <c r="C4" s="232"/>
-      <c r="D4" s="233"/>
-      <c r="E4" s="233"/>
-      <c r="F4" s="233"/>
-      <c r="G4" s="232"/>
-      <c r="H4" s="232"/>
+      <c r="A4" s="488"/>
+      <c r="B4" s="488"/>
+      <c r="C4" s="488"/>
+      <c r="D4" s="489"/>
+      <c r="E4" s="489"/>
+      <c r="F4" s="489"/>
+      <c r="G4" s="488"/>
+      <c r="H4" s="488"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
@@ -10495,28 +10477,28 @@
       <c r="T6" s="12"/>
     </row>
     <row r="7" spans="1:20" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="469" t="s">
+      <c r="A7" s="458" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="470" t="s">
+      <c r="B7" s="459" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="471" t="s">
+      <c r="C7" s="460" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="470" t="s">
+      <c r="D7" s="459" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="470" t="s">
+      <c r="E7" s="459" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="472" t="s">
+      <c r="F7" s="461" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="473" t="s">
+      <c r="G7" s="462" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="474" t="s">
+      <c r="H7" s="463" t="s">
         <v>22</v>
       </c>
       <c r="I7" s="20"/>
@@ -10543,14 +10525,14 @@
       <c r="T7" s="12"/>
     </row>
     <row r="8" spans="1:20" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="464"/>
+      <c r="A8" s="453"/>
       <c r="B8" s="154"/>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
-      <c r="H8" s="458"/>
+      <c r="H8" s="447"/>
       <c r="I8" s="20"/>
       <c r="J8" s="21"/>
       <c r="K8" s="13"/>
@@ -10565,14 +10547,14 @@
       <c r="T8" s="12"/>
     </row>
     <row r="9" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="456"/>
+      <c r="A9" s="445"/>
       <c r="B9" s="171"/>
       <c r="C9" s="56"/>
       <c r="D9" s="172"/>
       <c r="E9" s="172"/>
       <c r="F9" s="172"/>
       <c r="G9" s="172"/>
-      <c r="H9" s="457"/>
+      <c r="H9" s="446"/>
       <c r="I9" s="20"/>
       <c r="J9" s="21"/>
       <c r="K9" s="13"/>
@@ -10593,14 +10575,14 @@
       <c r="T9" s="12"/>
     </row>
     <row r="10" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="456"/>
+      <c r="A10" s="445"/>
       <c r="B10" s="27"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
-      <c r="H10" s="458"/>
+      <c r="H10" s="447"/>
       <c r="I10" s="20"/>
       <c r="J10" s="21"/>
       <c r="K10" s="13"/>
@@ -10615,14 +10597,14 @@
       <c r="T10" s="12"/>
     </row>
     <row r="11" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="456"/>
+      <c r="A11" s="445"/>
       <c r="B11" s="27"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
-      <c r="H11" s="458"/>
+      <c r="H11" s="447"/>
       <c r="I11" s="20"/>
       <c r="J11" s="179"/>
       <c r="K11" s="11"/>
@@ -10637,14 +10619,14 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="456"/>
+      <c r="A12" s="445"/>
       <c r="B12" s="27"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
-      <c r="H12" s="458"/>
+      <c r="H12" s="447"/>
       <c r="I12" s="20"/>
       <c r="J12" s="21"/>
       <c r="K12" s="13"/>
@@ -10659,14 +10641,14 @@
       <c r="T12" s="12"/>
     </row>
     <row r="13" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="456"/>
+      <c r="A13" s="445"/>
       <c r="B13" s="27"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
       <c r="E13" s="156"/>
       <c r="F13" s="156"/>
       <c r="G13" s="28"/>
-      <c r="H13" s="458"/>
+      <c r="H13" s="447"/>
       <c r="I13" s="20"/>
       <c r="J13" s="21"/>
       <c r="K13" s="13"/>
@@ -10681,14 +10663,14 @@
       <c r="T13" s="12"/>
     </row>
     <row r="14" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="456"/>
+      <c r="A14" s="445"/>
       <c r="B14" s="27"/>
       <c r="C14" s="28"/>
       <c r="D14" s="152"/>
       <c r="E14" s="9"/>
       <c r="F14" s="211"/>
       <c r="G14" s="171"/>
-      <c r="H14" s="458"/>
+      <c r="H14" s="447"/>
       <c r="I14" s="20"/>
       <c r="J14" s="21"/>
       <c r="K14" s="13"/>
@@ -10703,14 +10685,14 @@
       <c r="T14" s="12"/>
     </row>
     <row r="15" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="456"/>
+      <c r="A15" s="445"/>
       <c r="B15" s="27"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
       <c r="E15" s="152"/>
       <c r="F15" s="153"/>
       <c r="G15" s="28"/>
-      <c r="H15" s="458"/>
+      <c r="H15" s="447"/>
       <c r="I15" s="20"/>
       <c r="J15" s="21"/>
       <c r="K15" s="13"/>
@@ -10725,14 +10707,14 @@
       <c r="T15" s="12"/>
     </row>
     <row r="16" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="456"/>
+      <c r="A16" s="445"/>
       <c r="B16" s="27"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
-      <c r="H16" s="458"/>
+      <c r="H16" s="447"/>
       <c r="I16" s="20"/>
       <c r="J16" s="21"/>
       <c r="K16" s="13"/>
@@ -10747,14 +10729,14 @@
       <c r="T16" s="12"/>
     </row>
     <row r="17" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="456"/>
+      <c r="A17" s="445"/>
       <c r="B17" s="27"/>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
-      <c r="H17" s="458"/>
+      <c r="H17" s="447"/>
       <c r="J17" s="155"/>
       <c r="K17" s="155"/>
       <c r="L17" s="155"/>
@@ -10762,14 +10744,14 @@
       <c r="N17" s="155"/>
     </row>
     <row r="18" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="456"/>
+      <c r="A18" s="445"/>
       <c r="B18" s="27"/>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
-      <c r="H18" s="458"/>
+      <c r="H18" s="447"/>
       <c r="I18" s="20"/>
       <c r="J18" s="21"/>
       <c r="K18" s="13"/>
@@ -10784,14 +10766,14 @@
       <c r="T18" s="12"/>
     </row>
     <row r="19" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="456"/>
+      <c r="A19" s="445"/>
       <c r="B19" s="27"/>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
-      <c r="H19" s="458"/>
+      <c r="H19" s="447"/>
       <c r="J19" s="155"/>
       <c r="K19" s="155"/>
       <c r="L19" s="155"/>
@@ -10799,14 +10781,14 @@
       <c r="N19" s="155"/>
     </row>
     <row r="20" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="456"/>
+      <c r="A20" s="445"/>
       <c r="B20" s="27"/>
       <c r="C20" s="28"/>
       <c r="D20" s="156"/>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
-      <c r="H20" s="458"/>
+      <c r="H20" s="447"/>
       <c r="I20" s="20"/>
       <c r="J20" s="21"/>
       <c r="K20" s="13"/>
@@ -10821,14 +10803,14 @@
       <c r="T20" s="12"/>
     </row>
     <row r="21" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="456"/>
+      <c r="A21" s="445"/>
       <c r="B21" s="203"/>
       <c r="C21" s="204"/>
       <c r="D21" s="205"/>
       <c r="E21" s="179"/>
       <c r="F21" s="206"/>
       <c r="G21" s="207"/>
-      <c r="H21" s="460"/>
+      <c r="H21" s="449"/>
       <c r="I21" s="20"/>
       <c r="J21" s="21"/>
       <c r="K21" s="13"/>
@@ -10843,14 +10825,14 @@
       <c r="T21" s="12"/>
     </row>
     <row r="22" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="456"/>
+      <c r="A22" s="445"/>
       <c r="B22" s="27"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
-      <c r="H22" s="458"/>
+      <c r="H22" s="447"/>
       <c r="I22" s="20"/>
       <c r="J22" s="21"/>
       <c r="K22" s="13"/>
@@ -10865,14 +10847,14 @@
       <c r="T22" s="12"/>
     </row>
     <row r="23" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="456"/>
+      <c r="A23" s="445"/>
       <c r="B23" s="27"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="458"/>
+      <c r="H23" s="447"/>
       <c r="I23" s="20"/>
       <c r="J23" s="21"/>
       <c r="K23" s="13"/>
@@ -10887,14 +10869,14 @@
       <c r="T23" s="12"/>
     </row>
     <row r="24" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="456"/>
+      <c r="A24" s="445"/>
       <c r="B24" s="27"/>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
-      <c r="H24" s="458"/>
+      <c r="H24" s="447"/>
       <c r="I24" s="20"/>
       <c r="J24" s="21"/>
       <c r="K24" s="13"/>
@@ -10909,14 +10891,14 @@
       <c r="T24" s="12"/>
     </row>
     <row r="25" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="456"/>
+      <c r="A25" s="445"/>
       <c r="B25" s="27"/>
       <c r="C25" s="28"/>
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
-      <c r="H25" s="458"/>
+      <c r="H25" s="447"/>
       <c r="I25" s="20"/>
       <c r="J25" s="21"/>
       <c r="K25" s="13"/>
@@ -10931,14 +10913,14 @@
       <c r="T25" s="12"/>
     </row>
     <row r="26" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="456"/>
+      <c r="A26" s="445"/>
       <c r="B26" s="11"/>
       <c r="C26" s="14"/>
       <c r="D26" s="208"/>
       <c r="E26" s="11"/>
       <c r="F26" s="15"/>
       <c r="G26" s="24"/>
-      <c r="H26" s="461"/>
+      <c r="H26" s="450"/>
       <c r="I26" s="20"/>
       <c r="J26" s="21"/>
       <c r="K26" s="13"/>
@@ -10947,14 +10929,14 @@
       <c r="N26" s="13"/>
     </row>
     <row r="27" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="456"/>
+      <c r="A27" s="445"/>
       <c r="B27" s="27"/>
       <c r="C27" s="28"/>
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
-      <c r="H27" s="458"/>
+      <c r="H27" s="447"/>
       <c r="I27" s="20"/>
       <c r="J27" s="21"/>
       <c r="K27" s="13"/>
@@ -10969,14 +10951,14 @@
       <c r="T27" s="12"/>
     </row>
     <row r="28" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="456"/>
+      <c r="A28" s="445"/>
       <c r="B28" s="27"/>
       <c r="C28" s="28"/>
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
-      <c r="H28" s="458"/>
+      <c r="H28" s="447"/>
       <c r="I28" s="20"/>
       <c r="J28" s="21"/>
       <c r="K28" s="13"/>
@@ -10991,14 +10973,14 @@
       <c r="T28" s="12"/>
     </row>
     <row r="29" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="456"/>
+      <c r="A29" s="445"/>
       <c r="B29" s="27"/>
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
-      <c r="H29" s="458"/>
+      <c r="H29" s="447"/>
       <c r="I29" s="20"/>
       <c r="J29" s="21"/>
       <c r="K29" s="13"/>
@@ -11013,14 +10995,14 @@
       <c r="T29" s="12"/>
     </row>
     <row r="30" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="456"/>
+      <c r="A30" s="445"/>
       <c r="B30" s="27"/>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
       <c r="G30" s="28"/>
-      <c r="H30" s="458"/>
+      <c r="H30" s="447"/>
       <c r="I30" s="20"/>
       <c r="J30" s="21"/>
       <c r="K30" s="13"/>
@@ -11035,14 +11017,14 @@
       <c r="T30" s="12"/>
     </row>
     <row r="31" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="456"/>
+      <c r="A31" s="445"/>
       <c r="B31" s="27"/>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
-      <c r="H31" s="458"/>
+      <c r="H31" s="447"/>
       <c r="I31" s="20"/>
       <c r="J31" s="21"/>
       <c r="K31" s="13"/>
@@ -11057,14 +11039,14 @@
       <c r="T31" s="12"/>
     </row>
     <row r="32" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="456"/>
+      <c r="A32" s="445"/>
       <c r="B32" s="27"/>
       <c r="C32" s="28"/>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
       <c r="G32" s="28"/>
-      <c r="H32" s="458"/>
+      <c r="H32" s="447"/>
       <c r="I32" s="20"/>
       <c r="J32" s="21"/>
       <c r="K32" s="13"/>
@@ -11079,14 +11061,14 @@
       <c r="T32" s="12"/>
     </row>
     <row r="33" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="456"/>
+      <c r="A33" s="445"/>
       <c r="B33" s="27"/>
       <c r="C33" s="28"/>
       <c r="D33" s="28"/>
       <c r="E33" s="28"/>
       <c r="F33" s="9"/>
       <c r="G33" s="28"/>
-      <c r="H33" s="458"/>
+      <c r="H33" s="447"/>
       <c r="I33" s="20"/>
       <c r="J33" s="21"/>
       <c r="K33" s="13"/>
@@ -11101,14 +11083,14 @@
       <c r="T33" s="12"/>
     </row>
     <row r="34" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="462"/>
+      <c r="A34" s="451"/>
       <c r="B34" s="177"/>
       <c r="C34" s="156"/>
       <c r="D34" s="156"/>
       <c r="E34" s="156"/>
       <c r="F34" s="156"/>
       <c r="G34" s="156"/>
-      <c r="H34" s="463"/>
+      <c r="H34" s="452"/>
       <c r="I34" s="20"/>
       <c r="J34" s="21"/>
       <c r="K34" s="13"/>
@@ -11123,14 +11105,14 @@
       <c r="T34" s="12"/>
     </row>
     <row r="35" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="456"/>
+      <c r="A35" s="445"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
-      <c r="H35" s="459"/>
+      <c r="H35" s="448"/>
       <c r="I35" s="20"/>
       <c r="J35" s="21"/>
       <c r="K35" s="13"/>
@@ -11145,14 +11127,14 @@
       <c r="T35" s="12"/>
     </row>
     <row r="36" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="464"/>
+      <c r="A36" s="453"/>
       <c r="B36" s="178"/>
       <c r="C36" s="178"/>
       <c r="D36" s="178"/>
       <c r="E36" s="178"/>
       <c r="F36" s="178"/>
       <c r="G36" s="178"/>
-      <c r="H36" s="465"/>
+      <c r="H36" s="454"/>
       <c r="I36" s="20"/>
       <c r="J36" s="21"/>
       <c r="K36" s="13"/>
@@ -11167,14 +11149,14 @@
       <c r="T36" s="12"/>
     </row>
     <row r="37" spans="1:20" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="466"/>
-      <c r="B37" s="467"/>
-      <c r="C37" s="467"/>
-      <c r="D37" s="467"/>
-      <c r="E37" s="467"/>
-      <c r="F37" s="467"/>
-      <c r="G37" s="467"/>
-      <c r="H37" s="468"/>
+      <c r="A37" s="455"/>
+      <c r="B37" s="456"/>
+      <c r="C37" s="456"/>
+      <c r="D37" s="456"/>
+      <c r="E37" s="456"/>
+      <c r="F37" s="456"/>
+      <c r="G37" s="456"/>
+      <c r="H37" s="457"/>
       <c r="I37" s="20"/>
       <c r="J37" s="21"/>
       <c r="K37" s="13"/>
@@ -11268,30 +11250,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A83256-4C1F-40DF-BB6A-D98B6714B83E}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c298f69c-7e32-4d69-8a4f-44b776bc75e5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="27d18e64-52d1-4030-b5cf-9c691bb829da" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11538,21 +11503,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c298f69c-7e32-4d69-8a4f-44b776bc75e5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="27d18e64-52d1-4030-b5cf-9c691bb829da" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B37A3888-C326-48DF-AE4A-829BED1A658A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18B17227-D4F1-4BA2-A533-34BDC1F9C7F0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c298f69c-7e32-4d69-8a4f-44b776bc75e5"/>
-    <ds:schemaRef ds:uri="27d18e64-52d1-4030-b5cf-9c691bb829da"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11577,9 +11541,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18B17227-D4F1-4BA2-A533-34BDC1F9C7F0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B37A3888-C326-48DF-AE4A-829BED1A658A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c298f69c-7e32-4d69-8a4f-44b776bc75e5"/>
+    <ds:schemaRef ds:uri="27d18e64-52d1-4030-b5cf-9c691bb829da"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/templates/entry_list_template.xlsx
+++ b/templates/entry_list_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brendanwoo/projects/sro_sign_in/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E5828F-E824-6242-8124-964AFFF64DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CF7972-DCD8-074F-9318-D763C905B913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{542D648B-9180-43EF-9053-182057C63D4C}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{542D648B-9180-43EF-9053-182057C63D4C}"/>
   </bookViews>
   <sheets>
     <sheet name="GTWCA" sheetId="10" r:id="rId1"/>
@@ -20,11 +20,11 @@
     <sheet name="GR Cup" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'GR Cup'!$A$1:$H$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'GR Cup'!$A$1:$H$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">GTAM!$A$2:$J$33</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GTWCA!$A$2:$N$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GTWCA!$A$2:$N$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">PGT4A!$A$1:$N$41</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">TCAM!$A$1:$H$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">TCAM!$A$2:$H$37</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -1738,7 +1738,7 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="56" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="490">
+  <cellXfs count="489">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2401,9 +2401,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5407,14 +5404,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>234678</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>7677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>267225</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>277090</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>277089</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5457,14 +5454,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>308972</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>332773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>854364</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>461817</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>461816</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5634,9 +5631,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{006C041B-C32A-5442-9D54-6FB0F2E1703A}" name="Table22" displayName="Table22" ref="A7:N28" totalsRowShown="0" headerRowDxfId="64" dataDxfId="62" headerRowBorderDxfId="63" tableBorderDxfId="61" totalsRowBorderDxfId="60">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:N29">
-    <sortCondition ref="B29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{006C041B-C32A-5442-9D54-6FB0F2E1703A}" name="Table22" displayName="Table22" ref="A6:N27" totalsRowShown="0" headerRowDxfId="64" dataDxfId="62" headerRowBorderDxfId="63" tableBorderDxfId="61" totalsRowBorderDxfId="60">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:N28">
+    <sortCondition ref="B28"/>
   </sortState>
   <tableColumns count="14">
     <tableColumn id="2" xr3:uid="{8EAC187A-4BC7-044D-A24C-EE683FF40EDC}" name="Series" dataDxfId="59" dataCellStyle="Neutral"/>
@@ -6024,694 +6021,694 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:X35"/>
+  <dimension ref="A2:X34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="90" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView view="pageLayout" zoomScale="80" zoomScaleNormal="90" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="284" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="285" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" style="284" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="284" customWidth="1"/>
-    <col min="5" max="7" width="8.6640625" style="284" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="284" customWidth="1"/>
-    <col min="9" max="11" width="8.6640625" style="284" customWidth="1"/>
-    <col min="12" max="13" width="35.6640625" style="284" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" style="284" customWidth="1"/>
-    <col min="15" max="17" width="4.5" style="284"/>
-    <col min="18" max="19" width="8.6640625" style="284" customWidth="1"/>
-    <col min="20" max="20" width="10.6640625" style="284" customWidth="1"/>
-    <col min="21" max="24" width="8.6640625" style="284" customWidth="1"/>
-    <col min="25" max="16384" width="4.5" style="284"/>
+    <col min="1" max="1" width="10.6640625" style="283" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="284" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" style="283" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" style="283" customWidth="1"/>
+    <col min="5" max="7" width="8.6640625" style="283" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" style="283" customWidth="1"/>
+    <col min="9" max="11" width="8.6640625" style="283" customWidth="1"/>
+    <col min="12" max="13" width="35.6640625" style="283" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" style="283" customWidth="1"/>
+    <col min="15" max="17" width="4.5" style="283"/>
+    <col min="18" max="19" width="8.6640625" style="283" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" style="283" customWidth="1"/>
+    <col min="21" max="24" width="8.6640625" style="283" customWidth="1"/>
+    <col min="25" max="16384" width="4.5" style="283"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="483"/>
-      <c r="B2" s="483"/>
-      <c r="C2" s="483"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
+      <c r="A2" s="482"/>
+      <c r="B2" s="482"/>
+      <c r="C2" s="482"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="234"/>
       <c r="H2" s="227"/>
-      <c r="I2" s="235"/>
-      <c r="J2" s="235"/>
-      <c r="M2" s="483"/>
-      <c r="N2" s="483"/>
+      <c r="I2" s="234"/>
+      <c r="J2" s="234"/>
+      <c r="M2" s="482"/>
+      <c r="N2" s="482"/>
     </row>
     <row r="3" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="483"/>
-      <c r="B3" s="483"/>
-      <c r="C3" s="483"/>
-      <c r="F3" s="235"/>
-      <c r="G3" s="235"/>
+      <c r="A3" s="482"/>
+      <c r="B3" s="482"/>
+      <c r="C3" s="482"/>
+      <c r="F3" s="234"/>
+      <c r="G3" s="234"/>
       <c r="H3" s="227" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="235"/>
-      <c r="J3" s="235"/>
-      <c r="M3" s="483"/>
-      <c r="N3" s="483"/>
+      <c r="I3" s="234"/>
+      <c r="J3" s="234"/>
+      <c r="M3" s="482"/>
+      <c r="N3" s="482"/>
     </row>
     <row r="4" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="483"/>
-      <c r="B4" s="483"/>
-      <c r="C4" s="483"/>
-      <c r="F4" s="235"/>
-      <c r="G4" s="235"/>
+      <c r="A4" s="482"/>
+      <c r="B4" s="482"/>
+      <c r="C4" s="482"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="234"/>
       <c r="H4" s="227"/>
-      <c r="I4" s="235"/>
-      <c r="J4" s="235"/>
-      <c r="M4" s="483"/>
-      <c r="N4" s="483"/>
-    </row>
-    <row r="6" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="R6" s="483" t="s">
+      <c r="I4" s="234"/>
+      <c r="J4" s="234"/>
+      <c r="M4" s="482"/>
+      <c r="N4" s="482"/>
+    </row>
+    <row r="5" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R5" s="482" t="s">
         <v>0</v>
       </c>
-      <c r="S6" s="483"/>
-      <c r="T6" s="483"/>
-      <c r="U6" s="483"/>
-      <c r="V6" s="483"/>
-      <c r="W6" s="483"/>
-      <c r="X6" s="483"/>
-    </row>
-    <row r="7" spans="1:24" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="286" t="s">
+      <c r="S5" s="482"/>
+      <c r="T5" s="482"/>
+      <c r="U5" s="482"/>
+      <c r="V5" s="482"/>
+      <c r="W5" s="482"/>
+      <c r="X5" s="482"/>
+    </row>
+    <row r="6" spans="1:24" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="285" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="286" t="s">
+      <c r="B6" s="285" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="286" t="s">
+      <c r="C6" s="285" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="286" t="s">
+      <c r="D6" s="285" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="286" t="s">
+      <c r="E6" s="285" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="286" t="s">
+      <c r="F6" s="285" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="286" t="s">
+      <c r="G6" s="285" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="286" t="s">
+      <c r="H6" s="285" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="286" t="s">
+      <c r="I6" s="285" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="286" t="s">
+      <c r="J6" s="285" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="286" t="s">
+      <c r="K6" s="285" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="287" t="s">
+      <c r="L6" s="286" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="286" t="s">
+      <c r="M6" s="285" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="288" t="s">
+      <c r="N6" s="287" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="284" t="s">
+      <c r="Q6" s="283" t="s">
         <v>11</v>
       </c>
-      <c r="R7" s="289" t="s">
+      <c r="R6" s="288" t="s">
         <v>12</v>
       </c>
-      <c r="S7" s="290" t="s">
+      <c r="S6" s="289" t="s">
         <v>13</v>
       </c>
-      <c r="T7" s="291" t="s">
+      <c r="T6" s="290" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="291" t="s">
+      <c r="U6" s="290" t="s">
         <v>15</v>
       </c>
-      <c r="V7" s="291" t="s">
+      <c r="V6" s="290" t="s">
         <v>16</v>
       </c>
-      <c r="W7" s="291" t="s">
+      <c r="W6" s="290" t="s">
         <v>23</v>
       </c>
-      <c r="X7" s="291" t="s">
+      <c r="X6" s="290" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="298" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="292"/>
-      <c r="B8" s="293"/>
-      <c r="C8" s="292"/>
-      <c r="D8" s="292"/>
-      <c r="E8" s="292"/>
-      <c r="F8" s="292"/>
-      <c r="G8" s="292"/>
-      <c r="H8" s="292"/>
-      <c r="I8" s="292"/>
-      <c r="J8" s="292"/>
-      <c r="K8" s="292"/>
-      <c r="L8" s="292"/>
-      <c r="M8" s="292"/>
-      <c r="N8" s="294"/>
-      <c r="O8" s="295"/>
-      <c r="P8" s="295"/>
-      <c r="Q8" s="295"/>
-      <c r="R8" s="296"/>
-      <c r="S8" s="292"/>
-      <c r="T8" s="292"/>
-      <c r="U8" s="292"/>
-      <c r="V8" s="292"/>
-      <c r="W8" s="292"/>
-      <c r="X8" s="297"/>
-    </row>
-    <row r="9" spans="1:24" s="298" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="299"/>
-      <c r="B9" s="300"/>
+    <row r="7" spans="1:24" s="297" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="291"/>
+      <c r="B7" s="292"/>
+      <c r="C7" s="291"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
+      <c r="G7" s="291"/>
+      <c r="H7" s="291"/>
+      <c r="I7" s="291"/>
+      <c r="J7" s="291"/>
+      <c r="K7" s="291"/>
+      <c r="L7" s="291"/>
+      <c r="M7" s="291"/>
+      <c r="N7" s="293"/>
+      <c r="O7" s="294"/>
+      <c r="P7" s="294"/>
+      <c r="Q7" s="294"/>
+      <c r="R7" s="295"/>
+      <c r="S7" s="291"/>
+      <c r="T7" s="291"/>
+      <c r="U7" s="291"/>
+      <c r="V7" s="291"/>
+      <c r="W7" s="291"/>
+      <c r="X7" s="296"/>
+    </row>
+    <row r="8" spans="1:24" s="297" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="298"/>
+      <c r="B8" s="299"/>
+      <c r="C8" s="300"/>
+      <c r="D8" s="300"/>
+      <c r="E8" s="300"/>
+      <c r="F8" s="301"/>
+      <c r="G8" s="301"/>
+      <c r="H8" s="301"/>
+      <c r="I8" s="301"/>
+      <c r="J8" s="302"/>
+      <c r="K8" s="301"/>
+      <c r="L8" s="303"/>
+      <c r="M8" s="304"/>
+      <c r="N8" s="305"/>
+      <c r="O8" s="294"/>
+      <c r="P8" s="294"/>
+      <c r="Q8" s="294"/>
+      <c r="R8" s="306"/>
+      <c r="S8" s="307"/>
+      <c r="T8" s="307"/>
+      <c r="U8" s="307"/>
+      <c r="V8" s="307"/>
+      <c r="W8" s="307"/>
+      <c r="X8" s="308"/>
+    </row>
+    <row r="9" spans="1:24" s="297" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="298"/>
+      <c r="B9" s="299"/>
       <c r="C9" s="301"/>
       <c r="D9" s="301"/>
       <c r="E9" s="301"/>
-      <c r="F9" s="302"/>
-      <c r="G9" s="302"/>
-      <c r="H9" s="302"/>
-      <c r="I9" s="302"/>
-      <c r="J9" s="303"/>
-      <c r="K9" s="302"/>
-      <c r="L9" s="304"/>
-      <c r="M9" s="305"/>
-      <c r="N9" s="306"/>
-      <c r="O9" s="295"/>
-      <c r="P9" s="295"/>
-      <c r="Q9" s="295"/>
-      <c r="R9" s="307"/>
-      <c r="S9" s="308"/>
-      <c r="T9" s="308"/>
-      <c r="U9" s="308"/>
-      <c r="V9" s="308"/>
-      <c r="W9" s="308"/>
-      <c r="X9" s="309"/>
-    </row>
-    <row r="10" spans="1:24" s="298" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="299"/>
-      <c r="B10" s="300"/>
-      <c r="C10" s="302"/>
-      <c r="D10" s="302"/>
-      <c r="E10" s="302"/>
-      <c r="F10" s="302"/>
-      <c r="G10" s="302"/>
-      <c r="H10" s="302"/>
-      <c r="I10" s="302"/>
-      <c r="J10" s="302"/>
-      <c r="K10" s="310"/>
-      <c r="L10" s="311"/>
-      <c r="M10" s="305"/>
-      <c r="N10" s="306"/>
-      <c r="O10" s="295"/>
-      <c r="P10" s="295"/>
-      <c r="Q10" s="295"/>
-      <c r="R10" s="307"/>
-      <c r="S10" s="308"/>
-      <c r="T10" s="308"/>
-      <c r="U10" s="308"/>
-      <c r="V10" s="308"/>
-      <c r="W10" s="308"/>
-      <c r="X10" s="309"/>
-    </row>
-    <row r="11" spans="1:24" s="322" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="312"/>
-      <c r="B11" s="313"/>
-      <c r="C11" s="314"/>
-      <c r="D11" s="315"/>
-      <c r="E11" s="315"/>
-      <c r="F11" s="316"/>
-      <c r="G11" s="317"/>
-      <c r="H11" s="317"/>
-      <c r="I11" s="317"/>
-      <c r="J11" s="316"/>
-      <c r="K11" s="318"/>
-      <c r="L11" s="319"/>
-      <c r="M11" s="320"/>
-      <c r="N11" s="321"/>
-      <c r="R11" s="323"/>
-      <c r="S11" s="324"/>
-      <c r="T11" s="324"/>
-      <c r="U11" s="324"/>
-      <c r="V11" s="324"/>
-      <c r="W11" s="324"/>
-      <c r="X11" s="325"/>
-    </row>
-    <row r="12" spans="1:24" s="298" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="326"/>
-      <c r="B12" s="327"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="328"/>
-      <c r="G12" s="328"/>
-      <c r="H12" s="328"/>
-      <c r="I12" s="328"/>
-      <c r="J12" s="328"/>
-      <c r="K12" s="328"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="329"/>
-      <c r="N12" s="330"/>
-      <c r="R12" s="331"/>
-      <c r="S12" s="332"/>
-      <c r="T12" s="332"/>
-      <c r="U12" s="332"/>
-      <c r="V12" s="332"/>
-      <c r="W12" s="332"/>
-      <c r="X12" s="333"/>
-    </row>
-    <row r="13" spans="1:24" s="298" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="292"/>
-      <c r="B13" s="292"/>
-      <c r="C13" s="292"/>
-      <c r="D13" s="292"/>
-      <c r="E13" s="292"/>
-      <c r="F13" s="292"/>
-      <c r="G13" s="292"/>
-      <c r="H13" s="292"/>
-      <c r="I13" s="292"/>
-      <c r="J13" s="292"/>
-      <c r="K13" s="292"/>
-      <c r="L13" s="292"/>
-      <c r="M13" s="292"/>
-      <c r="N13" s="292"/>
-      <c r="R13" s="331"/>
-      <c r="S13" s="332"/>
-      <c r="T13" s="332"/>
-      <c r="U13" s="332"/>
-      <c r="V13" s="332"/>
-      <c r="W13" s="332"/>
-      <c r="X13" s="333"/>
-    </row>
-    <row r="14" spans="1:24" s="298" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="334"/>
-      <c r="B14" s="335"/>
-      <c r="C14" s="336"/>
-      <c r="D14" s="336"/>
-      <c r="E14" s="336"/>
-      <c r="F14" s="303"/>
-      <c r="G14" s="303"/>
-      <c r="H14" s="303"/>
-      <c r="I14" s="303"/>
-      <c r="J14" s="303"/>
-      <c r="K14" s="337"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="338"/>
-      <c r="N14" s="339"/>
-      <c r="R14" s="340"/>
-      <c r="S14" s="341"/>
-      <c r="T14" s="341"/>
-      <c r="U14" s="341"/>
-      <c r="V14" s="341"/>
-      <c r="W14" s="341"/>
-      <c r="X14" s="342"/>
-    </row>
-    <row r="15" spans="1:24" s="298" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="292"/>
-      <c r="B15" s="292"/>
-      <c r="C15" s="292"/>
-      <c r="D15" s="292"/>
-      <c r="E15" s="292"/>
-      <c r="F15" s="292"/>
-      <c r="G15" s="292"/>
-      <c r="H15" s="292"/>
-      <c r="I15" s="292"/>
-      <c r="J15" s="292"/>
-      <c r="K15" s="292"/>
-      <c r="L15" s="292"/>
-      <c r="M15" s="292"/>
-      <c r="N15" s="292"/>
-      <c r="R15" s="340"/>
-      <c r="S15" s="341"/>
-      <c r="T15" s="341"/>
-      <c r="U15" s="341"/>
-      <c r="V15" s="341"/>
-      <c r="W15" s="341"/>
-      <c r="X15" s="342"/>
-    </row>
-    <row r="16" spans="1:24" s="322" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="299"/>
-      <c r="B16" s="162"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="328"/>
-      <c r="G16" s="303"/>
-      <c r="H16" s="162"/>
-      <c r="I16" s="328"/>
-      <c r="J16" s="328"/>
-      <c r="K16" s="328"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="162"/>
-      <c r="N16" s="343"/>
-      <c r="R16" s="344"/>
-      <c r="S16" s="345"/>
-      <c r="T16" s="345"/>
-      <c r="U16" s="345"/>
-      <c r="V16" s="345"/>
-      <c r="W16" s="345"/>
-      <c r="X16" s="346"/>
-    </row>
-    <row r="17" spans="1:24" s="351" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="347"/>
-      <c r="B17" s="335"/>
-      <c r="C17" s="336"/>
-      <c r="D17" s="348"/>
-      <c r="E17" s="303"/>
-      <c r="F17" s="303"/>
-      <c r="G17" s="349"/>
-      <c r="H17" s="348"/>
-      <c r="I17" s="336"/>
-      <c r="J17" s="303"/>
-      <c r="K17" s="337"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="350"/>
-      <c r="N17" s="321"/>
-      <c r="R17" s="352"/>
-      <c r="S17" s="353"/>
-      <c r="T17" s="353"/>
-      <c r="U17" s="353"/>
-      <c r="V17" s="353"/>
-      <c r="W17" s="353"/>
-      <c r="X17" s="354"/>
-    </row>
-    <row r="18" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="355"/>
-      <c r="B18" s="292"/>
-      <c r="C18" s="292"/>
-      <c r="D18" s="292"/>
-      <c r="E18" s="292"/>
-      <c r="F18" s="292"/>
-      <c r="G18" s="292"/>
-      <c r="H18" s="292"/>
-      <c r="I18" s="292"/>
-      <c r="J18" s="292"/>
-      <c r="K18" s="292"/>
-      <c r="L18" s="292"/>
-      <c r="M18" s="292"/>
-      <c r="N18" s="292"/>
-      <c r="R18" s="356"/>
-      <c r="S18" s="357"/>
-      <c r="T18" s="357"/>
-      <c r="U18" s="357"/>
-      <c r="V18" s="357"/>
-      <c r="W18" s="357"/>
-      <c r="X18" s="358"/>
-    </row>
-    <row r="19" spans="1:24" s="365" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="334"/>
-      <c r="B19" s="335"/>
-      <c r="C19" s="359"/>
-      <c r="D19" s="360"/>
-      <c r="E19" s="336"/>
-      <c r="F19" s="303"/>
-      <c r="G19" s="303"/>
-      <c r="H19" s="361"/>
-      <c r="I19" s="303"/>
-      <c r="J19" s="303"/>
-      <c r="K19" s="303"/>
-      <c r="L19" s="362"/>
-      <c r="M19" s="363"/>
-      <c r="N19" s="364"/>
-      <c r="R19" s="366"/>
-      <c r="S19" s="367"/>
-      <c r="T19" s="367"/>
-      <c r="U19" s="367"/>
-      <c r="V19" s="367"/>
-      <c r="W19" s="367"/>
-      <c r="X19" s="368"/>
-    </row>
-    <row r="20" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="299"/>
-      <c r="B20" s="300"/>
-      <c r="C20" s="369"/>
-      <c r="D20" s="301"/>
-      <c r="E20" s="301"/>
-      <c r="F20" s="302"/>
-      <c r="G20" s="370"/>
-      <c r="H20" s="302"/>
-      <c r="I20" s="302"/>
-      <c r="J20" s="302"/>
-      <c r="K20" s="310"/>
-      <c r="L20" s="304"/>
-      <c r="M20" s="371"/>
-      <c r="N20" s="372"/>
-      <c r="R20" s="356"/>
-      <c r="S20" s="357"/>
-      <c r="T20" s="357"/>
-      <c r="U20" s="357"/>
-      <c r="V20" s="357"/>
-      <c r="W20" s="357"/>
-      <c r="X20" s="358"/>
-    </row>
-    <row r="21" spans="1:24" s="150" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="326"/>
+      <c r="F9" s="301"/>
+      <c r="G9" s="301"/>
+      <c r="H9" s="301"/>
+      <c r="I9" s="301"/>
+      <c r="J9" s="301"/>
+      <c r="K9" s="309"/>
+      <c r="L9" s="310"/>
+      <c r="M9" s="304"/>
+      <c r="N9" s="305"/>
+      <c r="O9" s="294"/>
+      <c r="P9" s="294"/>
+      <c r="Q9" s="294"/>
+      <c r="R9" s="306"/>
+      <c r="S9" s="307"/>
+      <c r="T9" s="307"/>
+      <c r="U9" s="307"/>
+      <c r="V9" s="307"/>
+      <c r="W9" s="307"/>
+      <c r="X9" s="308"/>
+    </row>
+    <row r="10" spans="1:24" s="321" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="311"/>
+      <c r="B10" s="312"/>
+      <c r="C10" s="313"/>
+      <c r="D10" s="314"/>
+      <c r="E10" s="314"/>
+      <c r="F10" s="315"/>
+      <c r="G10" s="316"/>
+      <c r="H10" s="316"/>
+      <c r="I10" s="316"/>
+      <c r="J10" s="315"/>
+      <c r="K10" s="317"/>
+      <c r="L10" s="318"/>
+      <c r="M10" s="319"/>
+      <c r="N10" s="320"/>
+      <c r="R10" s="322"/>
+      <c r="S10" s="323"/>
+      <c r="T10" s="323"/>
+      <c r="U10" s="323"/>
+      <c r="V10" s="323"/>
+      <c r="W10" s="323"/>
+      <c r="X10" s="324"/>
+    </row>
+    <row r="11" spans="1:24" s="297" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="325"/>
+      <c r="B11" s="326"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="327"/>
+      <c r="G11" s="327"/>
+      <c r="H11" s="327"/>
+      <c r="I11" s="327"/>
+      <c r="J11" s="327"/>
+      <c r="K11" s="327"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="328"/>
+      <c r="N11" s="329"/>
+      <c r="R11" s="330"/>
+      <c r="S11" s="331"/>
+      <c r="T11" s="331"/>
+      <c r="U11" s="331"/>
+      <c r="V11" s="331"/>
+      <c r="W11" s="331"/>
+      <c r="X11" s="332"/>
+    </row>
+    <row r="12" spans="1:24" s="297" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="291"/>
+      <c r="B12" s="291"/>
+      <c r="C12" s="291"/>
+      <c r="D12" s="291"/>
+      <c r="E12" s="291"/>
+      <c r="F12" s="291"/>
+      <c r="G12" s="291"/>
+      <c r="H12" s="291"/>
+      <c r="I12" s="291"/>
+      <c r="J12" s="291"/>
+      <c r="K12" s="291"/>
+      <c r="L12" s="291"/>
+      <c r="M12" s="291"/>
+      <c r="N12" s="291"/>
+      <c r="R12" s="330"/>
+      <c r="S12" s="331"/>
+      <c r="T12" s="331"/>
+      <c r="U12" s="331"/>
+      <c r="V12" s="331"/>
+      <c r="W12" s="331"/>
+      <c r="X12" s="332"/>
+    </row>
+    <row r="13" spans="1:24" s="297" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="333"/>
+      <c r="B13" s="334"/>
+      <c r="C13" s="335"/>
+      <c r="D13" s="335"/>
+      <c r="E13" s="335"/>
+      <c r="F13" s="302"/>
+      <c r="G13" s="302"/>
+      <c r="H13" s="302"/>
+      <c r="I13" s="302"/>
+      <c r="J13" s="302"/>
+      <c r="K13" s="336"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="337"/>
+      <c r="N13" s="338"/>
+      <c r="R13" s="339"/>
+      <c r="S13" s="340"/>
+      <c r="T13" s="340"/>
+      <c r="U13" s="340"/>
+      <c r="V13" s="340"/>
+      <c r="W13" s="340"/>
+      <c r="X13" s="341"/>
+    </row>
+    <row r="14" spans="1:24" s="297" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="291"/>
+      <c r="B14" s="291"/>
+      <c r="C14" s="291"/>
+      <c r="D14" s="291"/>
+      <c r="E14" s="291"/>
+      <c r="F14" s="291"/>
+      <c r="G14" s="291"/>
+      <c r="H14" s="291"/>
+      <c r="I14" s="291"/>
+      <c r="J14" s="291"/>
+      <c r="K14" s="291"/>
+      <c r="L14" s="291"/>
+      <c r="M14" s="291"/>
+      <c r="N14" s="291"/>
+      <c r="R14" s="339"/>
+      <c r="S14" s="340"/>
+      <c r="T14" s="340"/>
+      <c r="U14" s="340"/>
+      <c r="V14" s="340"/>
+      <c r="W14" s="340"/>
+      <c r="X14" s="341"/>
+    </row>
+    <row r="15" spans="1:24" s="321" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="298"/>
+      <c r="B15" s="162"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="327"/>
+      <c r="G15" s="302"/>
+      <c r="H15" s="162"/>
+      <c r="I15" s="327"/>
+      <c r="J15" s="327"/>
+      <c r="K15" s="327"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="162"/>
+      <c r="N15" s="342"/>
+      <c r="R15" s="343"/>
+      <c r="S15" s="344"/>
+      <c r="T15" s="344"/>
+      <c r="U15" s="344"/>
+      <c r="V15" s="344"/>
+      <c r="W15" s="344"/>
+      <c r="X15" s="345"/>
+    </row>
+    <row r="16" spans="1:24" s="350" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="346"/>
+      <c r="B16" s="334"/>
+      <c r="C16" s="335"/>
+      <c r="D16" s="347"/>
+      <c r="E16" s="302"/>
+      <c r="F16" s="302"/>
+      <c r="G16" s="348"/>
+      <c r="H16" s="347"/>
+      <c r="I16" s="335"/>
+      <c r="J16" s="302"/>
+      <c r="K16" s="336"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="349"/>
+      <c r="N16" s="320"/>
+      <c r="R16" s="351"/>
+      <c r="S16" s="352"/>
+      <c r="T16" s="352"/>
+      <c r="U16" s="352"/>
+      <c r="V16" s="352"/>
+      <c r="W16" s="352"/>
+      <c r="X16" s="353"/>
+    </row>
+    <row r="17" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="354"/>
+      <c r="B17" s="291"/>
+      <c r="C17" s="291"/>
+      <c r="D17" s="291"/>
+      <c r="E17" s="291"/>
+      <c r="F17" s="291"/>
+      <c r="G17" s="291"/>
+      <c r="H17" s="291"/>
+      <c r="I17" s="291"/>
+      <c r="J17" s="291"/>
+      <c r="K17" s="291"/>
+      <c r="L17" s="291"/>
+      <c r="M17" s="291"/>
+      <c r="N17" s="291"/>
+      <c r="R17" s="355"/>
+      <c r="S17" s="356"/>
+      <c r="T17" s="356"/>
+      <c r="U17" s="356"/>
+      <c r="V17" s="356"/>
+      <c r="W17" s="356"/>
+      <c r="X17" s="357"/>
+    </row>
+    <row r="18" spans="1:24" s="364" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="333"/>
+      <c r="B18" s="334"/>
+      <c r="C18" s="358"/>
+      <c r="D18" s="359"/>
+      <c r="E18" s="335"/>
+      <c r="F18" s="302"/>
+      <c r="G18" s="302"/>
+      <c r="H18" s="360"/>
+      <c r="I18" s="302"/>
+      <c r="J18" s="302"/>
+      <c r="K18" s="302"/>
+      <c r="L18" s="361"/>
+      <c r="M18" s="362"/>
+      <c r="N18" s="363"/>
+      <c r="R18" s="365"/>
+      <c r="S18" s="366"/>
+      <c r="T18" s="366"/>
+      <c r="U18" s="366"/>
+      <c r="V18" s="366"/>
+      <c r="W18" s="366"/>
+      <c r="X18" s="367"/>
+    </row>
+    <row r="19" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="298"/>
+      <c r="B19" s="299"/>
+      <c r="C19" s="368"/>
+      <c r="D19" s="300"/>
+      <c r="E19" s="300"/>
+      <c r="F19" s="301"/>
+      <c r="G19" s="369"/>
+      <c r="H19" s="301"/>
+      <c r="I19" s="301"/>
+      <c r="J19" s="301"/>
+      <c r="K19" s="309"/>
+      <c r="L19" s="303"/>
+      <c r="M19" s="370"/>
+      <c r="N19" s="371"/>
+      <c r="R19" s="355"/>
+      <c r="S19" s="356"/>
+      <c r="T19" s="356"/>
+      <c r="U19" s="356"/>
+      <c r="V19" s="356"/>
+      <c r="W19" s="356"/>
+      <c r="X19" s="357"/>
+    </row>
+    <row r="20" spans="1:24" s="150" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="325"/>
+      <c r="B20" s="327"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="327"/>
+      <c r="G20" s="327"/>
+      <c r="H20" s="327"/>
+      <c r="I20" s="327"/>
+      <c r="J20" s="327"/>
+      <c r="K20" s="327"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="327"/>
+      <c r="N20" s="329"/>
+      <c r="R20" s="372"/>
+      <c r="S20" s="122"/>
+      <c r="T20" s="122"/>
+      <c r="U20" s="122"/>
+      <c r="V20" s="122"/>
+      <c r="W20" s="122"/>
+      <c r="X20" s="373"/>
+    </row>
+    <row r="21" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="374"/>
       <c r="B21" s="328"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
+      <c r="C21" s="328"/>
+      <c r="D21" s="328"/>
+      <c r="E21" s="328"/>
       <c r="F21" s="328"/>
       <c r="G21" s="328"/>
       <c r="H21" s="328"/>
       <c r="I21" s="328"/>
       <c r="J21" s="328"/>
       <c r="K21" s="328"/>
-      <c r="L21" s="31"/>
+      <c r="L21" s="375"/>
       <c r="M21" s="328"/>
-      <c r="N21" s="330"/>
-      <c r="R21" s="373"/>
-      <c r="S21" s="122"/>
-      <c r="T21" s="122"/>
-      <c r="U21" s="122"/>
-      <c r="V21" s="122"/>
-      <c r="W21" s="122"/>
-      <c r="X21" s="374"/>
+      <c r="N21" s="328"/>
+      <c r="R21" s="355"/>
+      <c r="S21" s="356"/>
+      <c r="T21" s="356"/>
+      <c r="U21" s="356"/>
+      <c r="V21" s="356"/>
+      <c r="W21" s="356"/>
+      <c r="X21" s="357"/>
     </row>
     <row r="22" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="375"/>
-      <c r="B22" s="329"/>
-      <c r="C22" s="329"/>
-      <c r="D22" s="329"/>
-      <c r="E22" s="329"/>
-      <c r="F22" s="329"/>
-      <c r="G22" s="329"/>
-      <c r="H22" s="329"/>
-      <c r="I22" s="329"/>
-      <c r="J22" s="329"/>
-      <c r="K22" s="329"/>
-      <c r="L22" s="376"/>
-      <c r="M22" s="329"/>
-      <c r="N22" s="329"/>
-      <c r="R22" s="356"/>
-      <c r="S22" s="357"/>
-      <c r="T22" s="357"/>
-      <c r="U22" s="357"/>
-      <c r="V22" s="357"/>
-      <c r="W22" s="357"/>
-      <c r="X22" s="358"/>
+      <c r="A22" s="374"/>
+      <c r="B22" s="376"/>
+      <c r="C22" s="377"/>
+      <c r="D22" s="377"/>
+      <c r="E22" s="377"/>
+      <c r="F22" s="377"/>
+      <c r="G22" s="377"/>
+      <c r="H22" s="377"/>
+      <c r="I22" s="377"/>
+      <c r="J22" s="377"/>
+      <c r="K22" s="328"/>
+      <c r="L22" s="375"/>
+      <c r="M22" s="328"/>
+      <c r="N22" s="377"/>
+      <c r="R22" s="355"/>
+      <c r="S22" s="356"/>
+      <c r="T22" s="356"/>
+      <c r="U22" s="356"/>
+      <c r="V22" s="356"/>
+      <c r="W22" s="356"/>
+      <c r="X22" s="357"/>
     </row>
     <row r="23" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="375"/>
-      <c r="B23" s="377"/>
-      <c r="C23" s="378"/>
-      <c r="D23" s="378"/>
-      <c r="E23" s="378"/>
-      <c r="F23" s="378"/>
-      <c r="G23" s="378"/>
-      <c r="H23" s="378"/>
-      <c r="I23" s="378"/>
-      <c r="J23" s="378"/>
-      <c r="K23" s="329"/>
-      <c r="L23" s="376"/>
-      <c r="M23" s="329"/>
-      <c r="N23" s="378"/>
-      <c r="R23" s="356"/>
-      <c r="S23" s="357"/>
-      <c r="T23" s="357"/>
-      <c r="U23" s="357"/>
-      <c r="V23" s="357"/>
-      <c r="W23" s="357"/>
-      <c r="X23" s="358"/>
+      <c r="A23" s="374"/>
+      <c r="B23" s="376"/>
+      <c r="C23" s="377"/>
+      <c r="D23" s="377"/>
+      <c r="E23" s="377"/>
+      <c r="F23" s="377"/>
+      <c r="G23" s="377"/>
+      <c r="H23" s="377"/>
+      <c r="I23" s="377"/>
+      <c r="J23" s="377"/>
+      <c r="K23" s="328"/>
+      <c r="L23" s="375"/>
+      <c r="M23" s="328"/>
+      <c r="N23" s="377"/>
+      <c r="R23" s="355"/>
+      <c r="S23" s="356"/>
+      <c r="T23" s="356"/>
+      <c r="U23" s="356"/>
+      <c r="V23" s="356"/>
+      <c r="W23" s="356"/>
+      <c r="X23" s="357"/>
     </row>
     <row r="24" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="375"/>
-      <c r="B24" s="377"/>
-      <c r="C24" s="378"/>
-      <c r="D24" s="378"/>
-      <c r="E24" s="378"/>
-      <c r="F24" s="378"/>
-      <c r="G24" s="378"/>
-      <c r="H24" s="378"/>
-      <c r="I24" s="378"/>
-      <c r="J24" s="378"/>
-      <c r="K24" s="329"/>
-      <c r="L24" s="376"/>
-      <c r="M24" s="329"/>
-      <c r="N24" s="378"/>
-      <c r="R24" s="356"/>
-      <c r="S24" s="357"/>
-      <c r="T24" s="357"/>
-      <c r="U24" s="357"/>
-      <c r="V24" s="357"/>
-      <c r="W24" s="357"/>
-      <c r="X24" s="358"/>
+      <c r="A24" s="374"/>
+      <c r="B24" s="376"/>
+      <c r="C24" s="377"/>
+      <c r="D24" s="377"/>
+      <c r="E24" s="377"/>
+      <c r="F24" s="377"/>
+      <c r="G24" s="377"/>
+      <c r="H24" s="377"/>
+      <c r="I24" s="377"/>
+      <c r="J24" s="377"/>
+      <c r="K24" s="328"/>
+      <c r="L24" s="375"/>
+      <c r="M24" s="328"/>
+      <c r="N24" s="377"/>
+      <c r="R24" s="355"/>
+      <c r="S24" s="356"/>
+      <c r="T24" s="356"/>
+      <c r="U24" s="356"/>
+      <c r="V24" s="356"/>
+      <c r="W24" s="356"/>
+      <c r="X24" s="357"/>
     </row>
     <row r="25" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="375"/>
-      <c r="B25" s="377"/>
-      <c r="C25" s="378"/>
-      <c r="D25" s="378"/>
-      <c r="E25" s="378"/>
-      <c r="F25" s="378"/>
-      <c r="G25" s="378"/>
-      <c r="H25" s="378"/>
-      <c r="I25" s="378"/>
-      <c r="J25" s="378"/>
-      <c r="K25" s="329"/>
-      <c r="L25" s="376"/>
-      <c r="M25" s="329"/>
-      <c r="N25" s="378"/>
-      <c r="R25" s="356"/>
-      <c r="S25" s="357"/>
-      <c r="T25" s="357"/>
-      <c r="U25" s="357"/>
-      <c r="V25" s="357"/>
-      <c r="W25" s="357"/>
-      <c r="X25" s="358"/>
+      <c r="A25" s="374"/>
+      <c r="B25" s="376"/>
+      <c r="C25" s="377"/>
+      <c r="D25" s="377"/>
+      <c r="E25" s="377"/>
+      <c r="F25" s="377"/>
+      <c r="G25" s="377"/>
+      <c r="H25" s="377"/>
+      <c r="I25" s="377"/>
+      <c r="J25" s="377"/>
+      <c r="K25" s="328"/>
+      <c r="L25" s="375"/>
+      <c r="M25" s="328"/>
+      <c r="N25" s="377"/>
+      <c r="R25" s="355"/>
+      <c r="S25" s="356"/>
+      <c r="T25" s="356"/>
+      <c r="U25" s="356"/>
+      <c r="V25" s="356"/>
+      <c r="W25" s="356"/>
+      <c r="X25" s="357"/>
     </row>
     <row r="26" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="375"/>
-      <c r="B26" s="377"/>
-      <c r="C26" s="378"/>
-      <c r="D26" s="378"/>
-      <c r="E26" s="378"/>
-      <c r="F26" s="378"/>
-      <c r="G26" s="378"/>
-      <c r="H26" s="378"/>
-      <c r="I26" s="378"/>
-      <c r="J26" s="378"/>
-      <c r="K26" s="329"/>
-      <c r="L26" s="376"/>
-      <c r="M26" s="329"/>
-      <c r="N26" s="378"/>
-      <c r="R26" s="356"/>
-      <c r="S26" s="357"/>
-      <c r="T26" s="357"/>
-      <c r="U26" s="357"/>
-      <c r="V26" s="357"/>
-      <c r="W26" s="357"/>
-      <c r="X26" s="358"/>
-    </row>
-    <row r="27" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="375"/>
-      <c r="B27" s="379"/>
-      <c r="C27" s="380"/>
-      <c r="D27" s="380"/>
-      <c r="E27" s="380"/>
-      <c r="F27" s="380"/>
-      <c r="G27" s="380"/>
-      <c r="H27" s="380"/>
-      <c r="I27" s="380"/>
-      <c r="J27" s="380"/>
-      <c r="K27" s="381"/>
-      <c r="L27" s="381"/>
-      <c r="M27" s="329"/>
-      <c r="N27" s="380"/>
-      <c r="R27" s="356"/>
-      <c r="S27" s="357"/>
-      <c r="T27" s="357"/>
-      <c r="U27" s="357"/>
-      <c r="V27" s="357"/>
-      <c r="W27" s="357"/>
-      <c r="X27" s="358"/>
-    </row>
-    <row r="28" spans="1:24" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="375"/>
-      <c r="B28" s="329"/>
-      <c r="C28" s="329"/>
-      <c r="D28" s="329"/>
-      <c r="E28" s="329"/>
-      <c r="F28" s="329"/>
-      <c r="G28" s="329"/>
-      <c r="H28" s="329"/>
-      <c r="I28" s="329"/>
-      <c r="J28" s="329"/>
-      <c r="K28" s="329"/>
-      <c r="L28" s="329"/>
-      <c r="M28" s="329"/>
-      <c r="N28" s="329"/>
-      <c r="R28" s="382"/>
-      <c r="S28" s="383"/>
-      <c r="T28" s="383"/>
-      <c r="U28" s="383"/>
-      <c r="V28" s="383"/>
-      <c r="W28" s="383"/>
-      <c r="X28" s="384"/>
-    </row>
-    <row r="29" spans="1:24" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="385"/>
-      <c r="B29" s="386"/>
-      <c r="C29" s="385"/>
-      <c r="D29" s="385"/>
-      <c r="E29" s="385"/>
-      <c r="F29" s="385"/>
-      <c r="G29" s="387"/>
-      <c r="H29" s="387"/>
-      <c r="I29" s="387"/>
-      <c r="J29" s="387"/>
-      <c r="K29" s="387"/>
-      <c r="L29" s="388"/>
-      <c r="M29" s="389"/>
-      <c r="N29" s="387"/>
-    </row>
-    <row r="30" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="390" t="s">
+      <c r="A26" s="374"/>
+      <c r="B26" s="378"/>
+      <c r="C26" s="379"/>
+      <c r="D26" s="379"/>
+      <c r="E26" s="379"/>
+      <c r="F26" s="379"/>
+      <c r="G26" s="379"/>
+      <c r="H26" s="379"/>
+      <c r="I26" s="379"/>
+      <c r="J26" s="379"/>
+      <c r="K26" s="380"/>
+      <c r="L26" s="380"/>
+      <c r="M26" s="328"/>
+      <c r="N26" s="379"/>
+      <c r="R26" s="355"/>
+      <c r="S26" s="356"/>
+      <c r="T26" s="356"/>
+      <c r="U26" s="356"/>
+      <c r="V26" s="356"/>
+      <c r="W26" s="356"/>
+      <c r="X26" s="357"/>
+    </row>
+    <row r="27" spans="1:24" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="374"/>
+      <c r="B27" s="328"/>
+      <c r="C27" s="328"/>
+      <c r="D27" s="328"/>
+      <c r="E27" s="328"/>
+      <c r="F27" s="328"/>
+      <c r="G27" s="328"/>
+      <c r="H27" s="328"/>
+      <c r="I27" s="328"/>
+      <c r="J27" s="328"/>
+      <c r="K27" s="328"/>
+      <c r="L27" s="328"/>
+      <c r="M27" s="328"/>
+      <c r="N27" s="328"/>
+      <c r="R27" s="381"/>
+      <c r="S27" s="382"/>
+      <c r="T27" s="382"/>
+      <c r="U27" s="382"/>
+      <c r="V27" s="382"/>
+      <c r="W27" s="382"/>
+      <c r="X27" s="383"/>
+    </row>
+    <row r="28" spans="1:24" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="384"/>
+      <c r="B28" s="385"/>
+      <c r="C28" s="384"/>
+      <c r="D28" s="384"/>
+      <c r="E28" s="384"/>
+      <c r="F28" s="384"/>
+      <c r="G28" s="386"/>
+      <c r="H28" s="386"/>
+      <c r="I28" s="386"/>
+      <c r="J28" s="386"/>
+      <c r="K28" s="386"/>
+      <c r="L28" s="387"/>
+      <c r="M28" s="388"/>
+      <c r="N28" s="386"/>
+    </row>
+    <row r="29" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="389" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="252">
-        <f>COUNTA(B8:B28)</f>
+      <c r="B29" s="251">
+        <f>COUNTA(B7:B27)</f>
         <v>0</v>
       </c>
-      <c r="C30" s="369"/>
-      <c r="D30" s="369"/>
-      <c r="E30" s="369"/>
-      <c r="F30" s="391"/>
-      <c r="G30" s="369"/>
-      <c r="H30" s="392"/>
-      <c r="I30" s="391"/>
-      <c r="J30" s="391"/>
-      <c r="K30" s="393"/>
-      <c r="L30" s="394"/>
-      <c r="M30" s="391"/>
-      <c r="N30" s="391"/>
-    </row>
-    <row r="31" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="395"/>
-      <c r="B31" s="391"/>
-      <c r="C31" s="395"/>
-      <c r="D31" s="396"/>
-      <c r="E31" s="395"/>
-      <c r="F31" s="395"/>
-      <c r="G31" s="397"/>
-      <c r="H31" s="396"/>
-      <c r="I31" s="395"/>
-      <c r="J31" s="395"/>
-      <c r="K31" s="397"/>
-      <c r="L31" s="398"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="395"/>
-    </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H35" s="284" t="s">
+      <c r="C29" s="368"/>
+      <c r="D29" s="368"/>
+      <c r="E29" s="368"/>
+      <c r="F29" s="390"/>
+      <c r="G29" s="368"/>
+      <c r="H29" s="391"/>
+      <c r="I29" s="390"/>
+      <c r="J29" s="390"/>
+      <c r="K29" s="392"/>
+      <c r="L29" s="393"/>
+      <c r="M29" s="390"/>
+      <c r="N29" s="390"/>
+    </row>
+    <row r="30" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="394"/>
+      <c r="B30" s="390"/>
+      <c r="C30" s="394"/>
+      <c r="D30" s="395"/>
+      <c r="E30" s="394"/>
+      <c r="F30" s="394"/>
+      <c r="G30" s="396"/>
+      <c r="H30" s="395"/>
+      <c r="I30" s="394"/>
+      <c r="J30" s="394"/>
+      <c r="K30" s="396"/>
+      <c r="L30" s="397"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="394"/>
+    </row>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H34" s="283" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6719,11 +6716,11 @@
   <mergeCells count="3">
     <mergeCell ref="A2:C4"/>
     <mergeCell ref="M2:N4"/>
-    <mergeCell ref="R6:X6"/>
+    <mergeCell ref="R5:X5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.8"/>
-  <pageSetup scale="46" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="35" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;G</oddFooter>
   </headerFooter>
@@ -6743,7 +6740,7 @@
   <dimension ref="A2:R32"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6763,51 +6760,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="484"/>
-      <c r="B2" s="484"/>
-      <c r="C2" s="484"/>
-      <c r="D2" s="485"/>
-      <c r="E2" s="485"/>
-      <c r="F2" s="485"/>
-      <c r="G2" s="485"/>
-      <c r="H2" s="485"/>
-      <c r="I2" s="484"/>
-      <c r="J2" s="484"/>
+      <c r="A2" s="483"/>
+      <c r="B2" s="483"/>
+      <c r="C2" s="483"/>
+      <c r="D2" s="484"/>
+      <c r="E2" s="484"/>
+      <c r="F2" s="484"/>
+      <c r="G2" s="484"/>
+      <c r="H2" s="484"/>
+      <c r="I2" s="483"/>
+      <c r="J2" s="483"/>
     </row>
     <row r="3" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="484"/>
-      <c r="B3" s="484"/>
-      <c r="C3" s="484"/>
-      <c r="D3" s="485" t="s">
+      <c r="A3" s="483"/>
+      <c r="B3" s="483"/>
+      <c r="C3" s="483"/>
+      <c r="D3" s="484" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="485"/>
-      <c r="F3" s="485"/>
-      <c r="G3" s="485"/>
-      <c r="H3" s="485"/>
-      <c r="I3" s="484"/>
-      <c r="J3" s="484"/>
+      <c r="E3" s="484"/>
+      <c r="F3" s="484"/>
+      <c r="G3" s="484"/>
+      <c r="H3" s="484"/>
+      <c r="I3" s="483"/>
+      <c r="J3" s="483"/>
     </row>
     <row r="4" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="484"/>
-      <c r="B4" s="484"/>
-      <c r="C4" s="484"/>
-      <c r="D4" s="485"/>
-      <c r="E4" s="485"/>
-      <c r="F4" s="485"/>
-      <c r="G4" s="485"/>
-      <c r="H4" s="485"/>
-      <c r="I4" s="484"/>
-      <c r="J4" s="484"/>
+      <c r="A4" s="483"/>
+      <c r="B4" s="483"/>
+      <c r="C4" s="483"/>
+      <c r="D4" s="484"/>
+      <c r="E4" s="484"/>
+      <c r="F4" s="484"/>
+      <c r="G4" s="484"/>
+      <c r="H4" s="484"/>
+      <c r="I4" s="483"/>
+      <c r="J4" s="483"/>
     </row>
     <row r="5" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N5" s="484" t="s">
+      <c r="N5" s="483" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="484"/>
-      <c r="P5" s="484"/>
-      <c r="Q5" s="484"/>
-      <c r="R5" s="484"/>
+      <c r="O5" s="483"/>
+      <c r="P5" s="483"/>
+      <c r="Q5" s="483"/>
+      <c r="R5" s="483"/>
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -6843,7 +6840,7 @@
       <c r="M6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="254" t="s">
+      <c r="N6" s="253" t="s">
         <v>12</v>
       </c>
       <c r="O6" s="212" t="s">
@@ -6870,11 +6867,11 @@
       <c r="H7" s="73"/>
       <c r="I7" s="74"/>
       <c r="J7" s="71"/>
-      <c r="N7" s="255"/>
+      <c r="N7" s="254"/>
       <c r="O7" s="53"/>
       <c r="P7" s="55"/>
       <c r="Q7" s="55"/>
-      <c r="R7" s="256"/>
+      <c r="R7" s="255"/>
     </row>
     <row r="8" spans="1:18" s="52" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="48"/>
@@ -6887,11 +6884,11 @@
       <c r="H8" s="50"/>
       <c r="I8" s="50"/>
       <c r="J8" s="50"/>
-      <c r="N8" s="255"/>
+      <c r="N8" s="254"/>
       <c r="O8" s="53"/>
       <c r="P8" s="54"/>
       <c r="Q8" s="54"/>
-      <c r="R8" s="257"/>
+      <c r="R8" s="256"/>
     </row>
     <row r="9" spans="1:18" s="32" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="115"/>
@@ -6904,11 +6901,11 @@
       <c r="H9" s="148"/>
       <c r="I9" s="147"/>
       <c r="J9" s="174"/>
-      <c r="N9" s="258"/>
+      <c r="N9" s="257"/>
       <c r="O9" s="53"/>
       <c r="P9" s="33"/>
       <c r="Q9" s="33"/>
-      <c r="R9" s="259"/>
+      <c r="R9" s="258"/>
     </row>
     <row r="10" spans="1:18" s="32" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="114"/>
@@ -6921,11 +6918,11 @@
       <c r="H10" s="196"/>
       <c r="I10" s="162"/>
       <c r="J10" s="40"/>
-      <c r="N10" s="258"/>
+      <c r="N10" s="257"/>
       <c r="O10" s="53"/>
       <c r="P10" s="33"/>
       <c r="Q10" s="33"/>
-      <c r="R10" s="259"/>
+      <c r="R10" s="258"/>
     </row>
     <row r="11" spans="1:18" s="46" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="62"/>
@@ -6938,11 +6935,11 @@
       <c r="H11" s="65"/>
       <c r="I11" s="66"/>
       <c r="J11" s="61"/>
-      <c r="N11" s="258"/>
+      <c r="N11" s="257"/>
       <c r="O11" s="53"/>
       <c r="P11" s="47"/>
       <c r="Q11" s="47"/>
-      <c r="R11" s="260"/>
+      <c r="R11" s="259"/>
     </row>
     <row r="12" spans="1:18" s="46" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="62"/>
@@ -6955,11 +6952,11 @@
       <c r="H12" s="31"/>
       <c r="I12" s="41"/>
       <c r="J12" s="40"/>
-      <c r="N12" s="258"/>
+      <c r="N12" s="257"/>
       <c r="O12" s="53"/>
       <c r="P12" s="47"/>
       <c r="Q12" s="47"/>
-      <c r="R12" s="260"/>
+      <c r="R12" s="259"/>
     </row>
     <row r="13" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="48"/>
@@ -6972,11 +6969,11 @@
       <c r="H13" s="50"/>
       <c r="I13" s="50"/>
       <c r="J13" s="50"/>
-      <c r="N13" s="261"/>
+      <c r="N13" s="260"/>
       <c r="O13" s="53"/>
       <c r="P13" s="145"/>
       <c r="Q13" s="146"/>
-      <c r="R13" s="262"/>
+      <c r="R13" s="261"/>
     </row>
     <row r="14" spans="1:18" s="150" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="115"/>
@@ -6989,11 +6986,11 @@
       <c r="H14" s="118"/>
       <c r="I14" s="116"/>
       <c r="J14" s="119"/>
-      <c r="N14" s="263"/>
+      <c r="N14" s="262"/>
       <c r="O14" s="53"/>
       <c r="P14" s="151"/>
       <c r="Q14" s="151"/>
-      <c r="R14" s="264"/>
+      <c r="R14" s="263"/>
     </row>
     <row r="15" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="48"/>
@@ -7006,11 +7003,11 @@
       <c r="H15" s="57"/>
       <c r="I15" s="57"/>
       <c r="J15" s="57"/>
-      <c r="N15" s="255"/>
+      <c r="N15" s="254"/>
       <c r="O15" s="53"/>
       <c r="P15" s="55"/>
       <c r="Q15" s="55"/>
-      <c r="R15" s="256"/>
+      <c r="R15" s="255"/>
     </row>
     <row r="16" spans="1:18" s="120" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="48"/>
@@ -7023,11 +7020,11 @@
       <c r="H16" s="50"/>
       <c r="I16" s="61"/>
       <c r="J16" s="50"/>
-      <c r="N16" s="265"/>
+      <c r="N16" s="264"/>
       <c r="O16" s="53"/>
       <c r="P16" s="121"/>
       <c r="Q16" s="121"/>
-      <c r="R16" s="266"/>
+      <c r="R16" s="265"/>
     </row>
     <row r="17" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="48"/>
@@ -7040,11 +7037,11 @@
       <c r="H17" s="69"/>
       <c r="I17" s="69"/>
       <c r="J17" s="50"/>
-      <c r="N17" s="255"/>
+      <c r="N17" s="254"/>
       <c r="O17" s="53"/>
       <c r="P17" s="58"/>
       <c r="Q17" s="58"/>
-      <c r="R17" s="267"/>
+      <c r="R17" s="266"/>
     </row>
     <row r="18" spans="1:18" s="52" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="48"/>
@@ -7057,11 +7054,11 @@
       <c r="H18" s="31"/>
       <c r="I18" s="41"/>
       <c r="J18" s="40"/>
-      <c r="N18" s="255"/>
+      <c r="N18" s="254"/>
       <c r="O18" s="53"/>
       <c r="P18" s="54"/>
       <c r="Q18" s="54"/>
-      <c r="R18" s="257"/>
+      <c r="R18" s="256"/>
     </row>
     <row r="19" spans="1:18" s="52" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="161"/>
@@ -7074,11 +7071,11 @@
       <c r="H19" s="31"/>
       <c r="I19" s="41"/>
       <c r="J19" s="40"/>
-      <c r="N19" s="268"/>
+      <c r="N19" s="267"/>
       <c r="O19" s="53"/>
       <c r="P19" s="220"/>
       <c r="Q19" s="220"/>
-      <c r="R19" s="269"/>
+      <c r="R19" s="268"/>
     </row>
     <row r="20" spans="1:18" s="52" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="111"/>
@@ -7091,11 +7088,11 @@
       <c r="H20" s="44"/>
       <c r="I20" s="41"/>
       <c r="J20" s="40"/>
-      <c r="N20" s="255"/>
+      <c r="N20" s="254"/>
       <c r="O20" s="53"/>
       <c r="P20" s="53"/>
       <c r="Q20" s="53"/>
-      <c r="R20" s="270"/>
+      <c r="R20" s="269"/>
     </row>
     <row r="21" spans="1:18" s="52" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="48"/>
@@ -7108,11 +7105,11 @@
       <c r="H21" s="79"/>
       <c r="I21" s="50"/>
       <c r="J21" s="56"/>
-      <c r="N21" s="261"/>
+      <c r="N21" s="260"/>
       <c r="O21" s="53"/>
       <c r="P21" s="221"/>
       <c r="Q21" s="221"/>
-      <c r="R21" s="271"/>
+      <c r="R21" s="270"/>
     </row>
     <row r="22" spans="1:18" s="34" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="115"/>
@@ -7125,11 +7122,11 @@
       <c r="H22" s="138"/>
       <c r="I22" s="124"/>
       <c r="J22" s="134"/>
-      <c r="N22" s="258"/>
+      <c r="N22" s="257"/>
       <c r="O22" s="53"/>
       <c r="P22" s="35"/>
       <c r="Q22" s="35"/>
-      <c r="R22" s="272"/>
+      <c r="R22" s="271"/>
     </row>
     <row r="23" spans="1:18" s="139" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="48"/>
@@ -7142,11 +7139,11 @@
       <c r="H23" s="86"/>
       <c r="I23" s="71"/>
       <c r="J23" s="40"/>
-      <c r="N23" s="255"/>
+      <c r="N23" s="254"/>
       <c r="O23" s="53"/>
       <c r="P23" s="140"/>
       <c r="Q23" s="140"/>
-      <c r="R23" s="273"/>
+      <c r="R23" s="272"/>
     </row>
     <row r="24" spans="1:18" s="34" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="115"/>
@@ -7159,11 +7156,11 @@
       <c r="H24" s="31"/>
       <c r="I24" s="41"/>
       <c r="J24" s="40"/>
-      <c r="N24" s="258"/>
+      <c r="N24" s="257"/>
       <c r="O24" s="53"/>
       <c r="P24" s="35"/>
       <c r="Q24" s="35"/>
-      <c r="R24" s="272"/>
+      <c r="R24" s="271"/>
     </row>
     <row r="25" spans="1:18" s="139" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="115"/>
@@ -7176,11 +7173,11 @@
       <c r="H25" s="143"/>
       <c r="I25" s="129"/>
       <c r="J25" s="222"/>
-      <c r="N25" s="255"/>
+      <c r="N25" s="254"/>
       <c r="O25" s="53"/>
       <c r="P25" s="140"/>
       <c r="Q25" s="140"/>
-      <c r="R25" s="273"/>
+      <c r="R25" s="272"/>
     </row>
     <row r="26" spans="1:18" s="52" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="48"/>
@@ -7193,11 +7190,11 @@
       <c r="H26" s="83"/>
       <c r="I26" s="84"/>
       <c r="J26" s="40"/>
-      <c r="N26" s="255"/>
+      <c r="N26" s="254"/>
       <c r="O26" s="53"/>
       <c r="P26" s="53"/>
       <c r="Q26" s="54"/>
-      <c r="R26" s="257"/>
+      <c r="R26" s="256"/>
     </row>
     <row r="27" spans="1:18" s="52" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="48"/>
@@ -7210,59 +7207,59 @@
       <c r="H27" s="59"/>
       <c r="I27" s="85"/>
       <c r="J27" s="77"/>
-      <c r="N27" s="255"/>
+      <c r="N27" s="254"/>
       <c r="O27" s="53"/>
       <c r="P27" s="54"/>
       <c r="Q27" s="54"/>
-      <c r="R27" s="257"/>
+      <c r="R27" s="256"/>
     </row>
     <row r="28" spans="1:18" s="135" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="237"/>
-      <c r="B28" s="238"/>
-      <c r="C28" s="239"/>
-      <c r="D28" s="240"/>
-      <c r="E28" s="241"/>
-      <c r="F28" s="242"/>
-      <c r="G28" s="243"/>
+      <c r="A28" s="236"/>
+      <c r="B28" s="237"/>
+      <c r="C28" s="238"/>
+      <c r="D28" s="239"/>
+      <c r="E28" s="240"/>
+      <c r="F28" s="241"/>
+      <c r="G28" s="242"/>
       <c r="H28" s="133"/>
-      <c r="I28" s="244"/>
-      <c r="J28" s="245"/>
-      <c r="N28" s="274"/>
-      <c r="O28" s="275"/>
-      <c r="P28" s="276"/>
-      <c r="Q28" s="276"/>
-      <c r="R28" s="277"/>
+      <c r="I28" s="243"/>
+      <c r="J28" s="244"/>
+      <c r="N28" s="273"/>
+      <c r="O28" s="274"/>
+      <c r="P28" s="275"/>
+      <c r="Q28" s="275"/>
+      <c r="R28" s="276"/>
     </row>
     <row r="29" spans="1:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="246"/>
-      <c r="B29" s="247"/>
-      <c r="C29" s="248"/>
-      <c r="D29" s="248"/>
-      <c r="E29" s="248"/>
-      <c r="F29" s="234"/>
-      <c r="G29" s="248"/>
-      <c r="H29" s="248"/>
-      <c r="I29" s="248"/>
-      <c r="J29" s="248"/>
+      <c r="A29" s="245"/>
+      <c r="B29" s="246"/>
+      <c r="C29" s="247"/>
+      <c r="D29" s="247"/>
+      <c r="E29" s="247"/>
+      <c r="F29" s="233"/>
+      <c r="G29" s="247"/>
+      <c r="H29" s="247"/>
+      <c r="I29" s="247"/>
+      <c r="J29" s="247"/>
       <c r="N29" s="139"/>
       <c r="O29" s="52"/>
     </row>
     <row r="30" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="253" t="s">
+      <c r="A30" s="252" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="252">
+      <c r="B30" s="251">
         <f>COUNTA(B7:B28)</f>
         <v>0</v>
       </c>
-      <c r="C30" s="250"/>
-      <c r="D30" s="250"/>
-      <c r="E30" s="250"/>
-      <c r="F30" s="249"/>
-      <c r="G30" s="249"/>
-      <c r="H30" s="251"/>
-      <c r="I30" s="249"/>
-      <c r="J30" s="249"/>
+      <c r="C30" s="249"/>
+      <c r="D30" s="249"/>
+      <c r="E30" s="249"/>
+      <c r="F30" s="248"/>
+      <c r="G30" s="248"/>
+      <c r="H30" s="250"/>
+      <c r="I30" s="248"/>
+      <c r="J30" s="248"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
@@ -7318,7 +7315,7 @@
   </sheetPr>
   <dimension ref="A2:Y40"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A4" zoomScale="80" zoomScaleNormal="115" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A2" zoomScale="80" zoomScaleNormal="115" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -7340,107 +7337,107 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="484"/>
-      <c r="B2" s="484"/>
-      <c r="C2" s="484"/>
-      <c r="D2" s="484"/>
-      <c r="E2" s="484"/>
-      <c r="F2" s="484"/>
-      <c r="G2" s="484"/>
-      <c r="H2" s="484"/>
-      <c r="I2" s="484"/>
-      <c r="J2" s="484"/>
-      <c r="K2" s="484"/>
-      <c r="L2" s="484"/>
-      <c r="M2" s="484"/>
-      <c r="N2" s="484"/>
+      <c r="A2" s="483"/>
+      <c r="B2" s="483"/>
+      <c r="C2" s="483"/>
+      <c r="D2" s="483"/>
+      <c r="E2" s="483"/>
+      <c r="F2" s="483"/>
+      <c r="G2" s="483"/>
+      <c r="H2" s="483"/>
+      <c r="I2" s="483"/>
+      <c r="J2" s="483"/>
+      <c r="K2" s="483"/>
+      <c r="L2" s="483"/>
+      <c r="M2" s="483"/>
+      <c r="N2" s="483"/>
     </row>
     <row r="3" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="484"/>
-      <c r="B3" s="484"/>
-      <c r="C3" s="484"/>
-      <c r="D3" s="487" t="s">
+      <c r="A3" s="483"/>
+      <c r="B3" s="483"/>
+      <c r="C3" s="483"/>
+      <c r="D3" s="486" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="487"/>
-      <c r="F3" s="487"/>
-      <c r="G3" s="487"/>
-      <c r="H3" s="487"/>
-      <c r="I3" s="487"/>
-      <c r="J3" s="487"/>
-      <c r="K3" s="487"/>
-      <c r="L3" s="487"/>
-      <c r="M3" s="484"/>
-      <c r="N3" s="484"/>
+      <c r="E3" s="486"/>
+      <c r="F3" s="486"/>
+      <c r="G3" s="486"/>
+      <c r="H3" s="486"/>
+      <c r="I3" s="486"/>
+      <c r="J3" s="486"/>
+      <c r="K3" s="486"/>
+      <c r="L3" s="486"/>
+      <c r="M3" s="483"/>
+      <c r="N3" s="483"/>
     </row>
     <row r="4" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="484"/>
-      <c r="B4" s="484"/>
-      <c r="C4" s="484"/>
-      <c r="D4" s="484"/>
-      <c r="E4" s="484"/>
-      <c r="F4" s="484"/>
-      <c r="G4" s="484"/>
-      <c r="H4" s="484"/>
-      <c r="I4" s="484"/>
-      <c r="J4" s="484"/>
-      <c r="K4" s="484"/>
-      <c r="L4" s="484"/>
-      <c r="M4" s="484"/>
-      <c r="N4" s="484"/>
+      <c r="A4" s="483"/>
+      <c r="B4" s="483"/>
+      <c r="C4" s="483"/>
+      <c r="D4" s="483"/>
+      <c r="E4" s="483"/>
+      <c r="F4" s="483"/>
+      <c r="G4" s="483"/>
+      <c r="H4" s="483"/>
+      <c r="I4" s="483"/>
+      <c r="J4" s="483"/>
+      <c r="K4" s="483"/>
+      <c r="L4" s="483"/>
+      <c r="M4" s="483"/>
+      <c r="N4" s="483"/>
     </row>
     <row r="5" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="R5" s="486" t="s">
+      <c r="R5" s="485" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="486"/>
-      <c r="T5" s="486"/>
-      <c r="U5" s="486"/>
-      <c r="V5" s="486"/>
-      <c r="W5" s="486"/>
-      <c r="X5" s="486"/>
+      <c r="S5" s="485"/>
+      <c r="T5" s="485"/>
+      <c r="U5" s="485"/>
+      <c r="V5" s="485"/>
+      <c r="W5" s="485"/>
+      <c r="X5" s="485"/>
     </row>
     <row r="6" spans="1:24" s="2" customFormat="1" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="281" t="s">
+      <c r="A6" s="280" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="281" t="s">
+      <c r="B6" s="280" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="281" t="s">
+      <c r="C6" s="280" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="281" t="s">
+      <c r="D6" s="280" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="281" t="s">
+      <c r="E6" s="280" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="281" t="s">
+      <c r="F6" s="280" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="281" t="s">
+      <c r="G6" s="280" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="281" t="s">
+      <c r="H6" s="280" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="281" t="s">
+      <c r="I6" s="280" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="281" t="s">
+      <c r="J6" s="280" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="281" t="s">
+      <c r="K6" s="280" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="282" t="s">
+      <c r="L6" s="281" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="281" t="s">
+      <c r="M6" s="280" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="283" t="s">
+      <c r="N6" s="282" t="s">
         <v>22</v>
       </c>
       <c r="Q6" s="2" t="s">
@@ -7469,20 +7466,20 @@
       </c>
     </row>
     <row r="7" spans="1:24" s="209" customFormat="1" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="278"/>
-      <c r="B7" s="279"/>
-      <c r="C7" s="280"/>
-      <c r="D7" s="280"/>
-      <c r="E7" s="280"/>
-      <c r="F7" s="279"/>
-      <c r="G7" s="279"/>
-      <c r="H7" s="279"/>
-      <c r="I7" s="279"/>
-      <c r="J7" s="279"/>
-      <c r="K7" s="279"/>
-      <c r="L7" s="278"/>
-      <c r="M7" s="279"/>
-      <c r="N7" s="279"/>
+      <c r="A7" s="277"/>
+      <c r="B7" s="278"/>
+      <c r="C7" s="279"/>
+      <c r="D7" s="279"/>
+      <c r="E7" s="279"/>
+      <c r="F7" s="278"/>
+      <c r="G7" s="278"/>
+      <c r="H7" s="278"/>
+      <c r="I7" s="278"/>
+      <c r="J7" s="278"/>
+      <c r="K7" s="278"/>
+      <c r="L7" s="277"/>
+      <c r="M7" s="278"/>
+      <c r="N7" s="278"/>
       <c r="R7" s="29"/>
       <c r="S7" s="216"/>
       <c r="T7" s="29"/>
@@ -8182,7 +8179,7 @@
       <c r="X37" s="67"/>
     </row>
     <row r="38" spans="1:25" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="229"/>
+      <c r="A38" s="228"/>
       <c r="B38" s="86"/>
       <c r="C38" s="86"/>
       <c r="D38" s="86"/>
@@ -8190,7 +8187,7 @@
       <c r="F38" s="86"/>
       <c r="G38" s="86"/>
       <c r="H38" s="86"/>
-      <c r="I38" s="230"/>
+      <c r="I38" s="229"/>
       <c r="J38" s="86"/>
       <c r="K38" s="86"/>
       <c r="L38" s="86"/>
@@ -8206,23 +8203,23 @@
       <c r="Y38" s="141"/>
     </row>
     <row r="39" spans="1:25" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="231"/>
-      <c r="B39" s="232"/>
-      <c r="C39" s="231"/>
-      <c r="D39" s="233"/>
-      <c r="E39" s="233"/>
-      <c r="F39" s="233"/>
-      <c r="G39" s="233"/>
-      <c r="H39" s="234"/>
-      <c r="I39" s="234"/>
-      <c r="J39" s="234"/>
-      <c r="K39" s="234"/>
-      <c r="L39" s="231"/>
-      <c r="M39" s="234"/>
-      <c r="N39" s="234"/>
+      <c r="A39" s="230"/>
+      <c r="B39" s="231"/>
+      <c r="C39" s="230"/>
+      <c r="D39" s="232"/>
+      <c r="E39" s="232"/>
+      <c r="F39" s="232"/>
+      <c r="G39" s="232"/>
+      <c r="H39" s="233"/>
+      <c r="I39" s="233"/>
+      <c r="J39" s="233"/>
+      <c r="K39" s="233"/>
+      <c r="L39" s="230"/>
+      <c r="M39" s="233"/>
+      <c r="N39" s="233"/>
     </row>
     <row r="40" spans="1:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="236" t="s">
+      <c r="A40" s="235" t="s">
         <v>17</v>
       </c>
       <c r="B40" s="23">
@@ -8261,10 +8258,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BP36"/>
+  <dimension ref="A2:BP36"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="55" zoomScaleNormal="70" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8282,72 +8279,72 @@
     <col min="15" max="18" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="484"/>
-      <c r="B1" s="484"/>
-      <c r="C1" s="484"/>
-      <c r="D1" s="485"/>
-      <c r="E1" s="485"/>
-      <c r="F1" s="485"/>
-      <c r="G1" s="484"/>
-      <c r="H1" s="484"/>
-    </row>
     <row r="2" spans="1:68" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="484"/>
-      <c r="B2" s="484"/>
-      <c r="C2" s="484"/>
-      <c r="D2" s="485" t="s">
+      <c r="A2" s="483"/>
+      <c r="B2" s="483"/>
+      <c r="C2" s="483"/>
+      <c r="D2" s="484"/>
+      <c r="E2" s="484"/>
+      <c r="F2" s="484"/>
+      <c r="G2" s="483"/>
+      <c r="H2" s="483"/>
+    </row>
+    <row r="3" spans="1:68" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="483"/>
+      <c r="B3" s="483"/>
+      <c r="C3" s="483"/>
+      <c r="D3" s="484" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="485"/>
-      <c r="F2" s="485"/>
-      <c r="G2" s="484"/>
-      <c r="H2" s="484"/>
-    </row>
-    <row r="3" spans="1:68" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="484"/>
-      <c r="B3" s="484"/>
-      <c r="C3" s="484"/>
-      <c r="D3" s="485"/>
-      <c r="E3" s="485"/>
-      <c r="F3" s="485"/>
-      <c r="G3" s="484"/>
-      <c r="H3" s="484"/>
+      <c r="E3" s="484"/>
+      <c r="F3" s="484"/>
+      <c r="G3" s="483"/>
+      <c r="H3" s="483"/>
+    </row>
+    <row r="4" spans="1:68" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="483"/>
+      <c r="B4" s="483"/>
+      <c r="C4" s="483"/>
+      <c r="D4" s="484"/>
+      <c r="E4" s="484"/>
+      <c r="F4" s="484"/>
+      <c r="G4" s="483"/>
+      <c r="H4" s="483"/>
     </row>
     <row r="5" spans="1:68" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L5" s="484" t="s">
+      <c r="L5" s="483" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="484"/>
-      <c r="N5" s="484"/>
-      <c r="O5" s="484"/>
-      <c r="P5" s="484"/>
-      <c r="Q5" s="484"/>
-      <c r="R5" s="484"/>
+      <c r="M5" s="483"/>
+      <c r="N5" s="483"/>
+      <c r="O5" s="483"/>
+      <c r="P5" s="483"/>
+      <c r="Q5" s="483"/>
+      <c r="R5" s="483"/>
     </row>
     <row r="6" spans="1:68" s="10" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="470" t="s">
+      <c r="A6" s="469" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="471" t="s">
+      <c r="B6" s="470" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="471" t="s">
+      <c r="C6" s="470" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="471" t="s">
+      <c r="D6" s="470" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="471" t="s">
+      <c r="E6" s="470" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="471" t="s">
+      <c r="F6" s="470" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="471" t="s">
+      <c r="G6" s="470" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="472" t="s">
+      <c r="H6" s="471" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="25"/>
@@ -8355,19 +8352,19 @@
       <c r="K6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="399" t="s">
+      <c r="L6" s="398" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="400" t="s">
+      <c r="M6" s="399" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="400" t="s">
+      <c r="N6" s="399" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="400" t="s">
+      <c r="O6" s="399" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="401" t="s">
+      <c r="P6" s="400" t="s">
         <v>16</v>
       </c>
       <c r="Q6" s="3"/>
@@ -8424,39 +8421,39 @@
       <c r="BP6" s="26"/>
     </row>
     <row r="7" spans="1:68" s="25" customFormat="1" ht="46.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="473"/>
-      <c r="B7" s="464"/>
-      <c r="C7" s="465"/>
-      <c r="D7" s="466"/>
-      <c r="E7" s="465"/>
-      <c r="F7" s="465"/>
-      <c r="G7" s="465"/>
-      <c r="H7" s="467"/>
-      <c r="L7" s="402"/>
-      <c r="M7" s="403"/>
-      <c r="N7" s="404"/>
-      <c r="O7" s="404"/>
-      <c r="P7" s="405"/>
+      <c r="A7" s="472"/>
+      <c r="B7" s="463"/>
+      <c r="C7" s="464"/>
+      <c r="D7" s="465"/>
+      <c r="E7" s="464"/>
+      <c r="F7" s="464"/>
+      <c r="G7" s="464"/>
+      <c r="H7" s="466"/>
+      <c r="L7" s="401"/>
+      <c r="M7" s="402"/>
+      <c r="N7" s="403"/>
+      <c r="O7" s="403"/>
+      <c r="P7" s="404"/>
       <c r="Q7" s="110"/>
       <c r="R7" s="110"/>
     </row>
     <row r="8" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="474"/>
-      <c r="B8" s="406"/>
-      <c r="C8" s="406"/>
-      <c r="D8" s="406"/>
-      <c r="E8" s="406"/>
-      <c r="F8" s="406"/>
-      <c r="G8" s="406"/>
-      <c r="H8" s="407"/>
+      <c r="A8" s="473"/>
+      <c r="B8" s="405"/>
+      <c r="C8" s="405"/>
+      <c r="D8" s="405"/>
+      <c r="E8" s="405"/>
+      <c r="F8" s="405"/>
+      <c r="G8" s="405"/>
+      <c r="H8" s="406"/>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
-      <c r="L8" s="408"/>
+      <c r="L8" s="407"/>
       <c r="M8" s="140"/>
       <c r="N8" s="67"/>
       <c r="O8" s="67"/>
-      <c r="P8" s="409"/>
+      <c r="P8" s="408"/>
       <c r="Q8" s="110"/>
       <c r="R8" s="110"/>
       <c r="S8" s="25"/>
@@ -8511,24 +8508,24 @@
       <c r="BP8" s="26"/>
     </row>
     <row r="9" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="475"/>
-      <c r="B9" s="410"/>
-      <c r="C9" s="411"/>
-      <c r="D9" s="412"/>
-      <c r="E9" s="411"/>
-      <c r="F9" s="411"/>
-      <c r="G9" s="411"/>
-      <c r="H9" s="413"/>
-      <c r="I9" s="414"/>
-      <c r="J9" s="415"/>
-      <c r="K9" s="414"/>
-      <c r="L9" s="416"/>
-      <c r="M9" s="411"/>
-      <c r="N9" s="411"/>
-      <c r="O9" s="411"/>
-      <c r="P9" s="417"/>
-      <c r="Q9" s="414"/>
-      <c r="R9" s="415"/>
+      <c r="A9" s="474"/>
+      <c r="B9" s="409"/>
+      <c r="C9" s="410"/>
+      <c r="D9" s="411"/>
+      <c r="E9" s="410"/>
+      <c r="F9" s="410"/>
+      <c r="G9" s="410"/>
+      <c r="H9" s="412"/>
+      <c r="I9" s="413"/>
+      <c r="J9" s="414"/>
+      <c r="K9" s="413"/>
+      <c r="L9" s="415"/>
+      <c r="M9" s="410"/>
+      <c r="N9" s="410"/>
+      <c r="O9" s="410"/>
+      <c r="P9" s="416"/>
+      <c r="Q9" s="413"/>
+      <c r="R9" s="414"/>
       <c r="S9" s="25"/>
       <c r="T9" s="25"/>
       <c r="U9" s="25"/>
@@ -8581,22 +8578,22 @@
       <c r="BP9" s="26"/>
     </row>
     <row r="10" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="475"/>
-      <c r="B10" s="410"/>
-      <c r="C10" s="411"/>
-      <c r="D10" s="412"/>
-      <c r="E10" s="412"/>
+      <c r="A10" s="474"/>
+      <c r="B10" s="409"/>
+      <c r="C10" s="410"/>
+      <c r="D10" s="411"/>
+      <c r="E10" s="411"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
-      <c r="H10" s="413"/>
+      <c r="H10" s="412"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
-      <c r="L10" s="408"/>
+      <c r="L10" s="407"/>
       <c r="M10" s="140"/>
       <c r="N10" s="67"/>
       <c r="O10" s="67"/>
-      <c r="P10" s="409"/>
+      <c r="P10" s="408"/>
       <c r="Q10" s="110"/>
       <c r="R10" s="110"/>
       <c r="S10" s="25"/>
@@ -8651,22 +8648,22 @@
       <c r="BP10" s="26"/>
     </row>
     <row r="11" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="475"/>
-      <c r="B11" s="418"/>
-      <c r="C11" s="411"/>
-      <c r="D11" s="412"/>
-      <c r="E11" s="411"/>
-      <c r="F11" s="411"/>
+      <c r="A11" s="474"/>
+      <c r="B11" s="417"/>
+      <c r="C11" s="410"/>
+      <c r="D11" s="411"/>
+      <c r="E11" s="410"/>
+      <c r="F11" s="410"/>
       <c r="G11" s="28"/>
-      <c r="H11" s="413"/>
+      <c r="H11" s="412"/>
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
-      <c r="L11" s="408"/>
+      <c r="L11" s="407"/>
       <c r="M11" s="140"/>
       <c r="N11" s="67"/>
       <c r="O11" s="67"/>
-      <c r="P11" s="409"/>
+      <c r="P11" s="408"/>
       <c r="Q11" s="110"/>
       <c r="R11" s="110"/>
       <c r="S11" s="25"/>
@@ -8721,22 +8718,22 @@
       <c r="BP11" s="26"/>
     </row>
     <row r="12" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="474"/>
-      <c r="B12" s="376"/>
-      <c r="C12" s="376"/>
-      <c r="D12" s="376"/>
-      <c r="E12" s="376"/>
-      <c r="F12" s="376"/>
-      <c r="G12" s="376"/>
-      <c r="H12" s="419"/>
+      <c r="A12" s="473"/>
+      <c r="B12" s="375"/>
+      <c r="C12" s="375"/>
+      <c r="D12" s="375"/>
+      <c r="E12" s="375"/>
+      <c r="F12" s="375"/>
+      <c r="G12" s="375"/>
+      <c r="H12" s="418"/>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
-      <c r="L12" s="408"/>
+      <c r="L12" s="407"/>
       <c r="M12" s="140"/>
       <c r="N12" s="67"/>
       <c r="O12" s="67"/>
-      <c r="P12" s="409"/>
+      <c r="P12" s="408"/>
       <c r="Q12" s="25"/>
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
@@ -8791,22 +8788,22 @@
       <c r="BP12" s="26"/>
     </row>
     <row r="13" spans="1:68" s="170" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="476"/>
-      <c r="B13" s="420"/>
-      <c r="C13" s="421"/>
-      <c r="D13" s="421"/>
-      <c r="E13" s="421"/>
-      <c r="F13" s="421"/>
-      <c r="G13" s="421"/>
-      <c r="H13" s="422"/>
+      <c r="A13" s="475"/>
+      <c r="B13" s="419"/>
+      <c r="C13" s="420"/>
+      <c r="D13" s="420"/>
+      <c r="E13" s="420"/>
+      <c r="F13" s="420"/>
+      <c r="G13" s="420"/>
+      <c r="H13" s="421"/>
       <c r="I13" s="167"/>
       <c r="J13" s="167"/>
       <c r="K13" s="167"/>
-      <c r="L13" s="408"/>
+      <c r="L13" s="407"/>
       <c r="M13" s="140"/>
       <c r="N13" s="168"/>
       <c r="O13" s="168"/>
-      <c r="P13" s="423"/>
+      <c r="P13" s="422"/>
       <c r="Q13" s="167"/>
       <c r="R13" s="167"/>
       <c r="S13" s="167"/>
@@ -8861,22 +8858,22 @@
       <c r="BP13" s="169"/>
     </row>
     <row r="14" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="474"/>
-      <c r="B14" s="328"/>
+      <c r="A14" s="473"/>
+      <c r="B14" s="327"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
       <c r="F14" s="31"/>
-      <c r="G14" s="328"/>
-      <c r="H14" s="330"/>
+      <c r="G14" s="327"/>
+      <c r="H14" s="329"/>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
       <c r="K14" s="25"/>
-      <c r="L14" s="408"/>
+      <c r="L14" s="407"/>
       <c r="M14" s="140"/>
       <c r="N14" s="67"/>
       <c r="O14" s="67"/>
-      <c r="P14" s="409"/>
+      <c r="P14" s="408"/>
       <c r="Q14" s="25"/>
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
@@ -8931,22 +8928,22 @@
       <c r="BP14" s="26"/>
     </row>
     <row r="15" spans="1:68" s="170" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="476"/>
+      <c r="A15" s="475"/>
       <c r="B15" s="162"/>
       <c r="C15" s="163"/>
       <c r="D15" s="163"/>
       <c r="E15" s="163"/>
       <c r="F15" s="183"/>
       <c r="G15" s="162"/>
-      <c r="H15" s="424"/>
+      <c r="H15" s="423"/>
       <c r="I15" s="167"/>
       <c r="J15" s="167"/>
       <c r="K15" s="167"/>
-      <c r="L15" s="408"/>
+      <c r="L15" s="407"/>
       <c r="M15" s="140"/>
       <c r="N15" s="168"/>
       <c r="O15" s="168"/>
-      <c r="P15" s="423"/>
+      <c r="P15" s="422"/>
       <c r="Q15" s="167"/>
       <c r="R15" s="167"/>
       <c r="S15" s="167"/>
@@ -9001,19 +8998,19 @@
       <c r="BP15" s="169"/>
     </row>
     <row r="16" spans="1:68" s="170" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="477"/>
-      <c r="B16" s="425"/>
-      <c r="C16" s="425"/>
-      <c r="D16" s="425"/>
-      <c r="E16" s="425"/>
-      <c r="F16" s="425"/>
-      <c r="G16" s="425"/>
-      <c r="H16" s="426"/>
+      <c r="A16" s="476"/>
+      <c r="B16" s="424"/>
+      <c r="C16" s="424"/>
+      <c r="D16" s="424"/>
+      <c r="E16" s="424"/>
+      <c r="F16" s="424"/>
+      <c r="G16" s="424"/>
+      <c r="H16" s="425"/>
       <c r="I16" s="167"/>
       <c r="J16" s="167"/>
       <c r="K16" s="167"/>
-      <c r="L16" s="427"/>
-      <c r="P16" s="428"/>
+      <c r="L16" s="426"/>
+      <c r="P16" s="427"/>
       <c r="Q16" s="167"/>
       <c r="R16" s="167"/>
       <c r="S16" s="167"/>
@@ -9068,19 +9065,19 @@
       <c r="BP16" s="169"/>
     </row>
     <row r="17" spans="1:68" s="170" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="478"/>
+      <c r="A17" s="477"/>
       <c r="B17" s="162"/>
       <c r="C17" s="163"/>
       <c r="D17" s="163"/>
       <c r="E17" s="163"/>
       <c r="F17" s="183"/>
       <c r="G17" s="162"/>
-      <c r="H17" s="424"/>
+      <c r="H17" s="423"/>
       <c r="I17" s="167"/>
       <c r="J17" s="167"/>
       <c r="K17" s="167"/>
-      <c r="L17" s="427"/>
-      <c r="P17" s="428"/>
+      <c r="L17" s="426"/>
+      <c r="P17" s="427"/>
       <c r="Q17" s="167"/>
       <c r="R17" s="167"/>
       <c r="S17" s="167"/>
@@ -9135,19 +9132,19 @@
       <c r="BP17" s="169"/>
     </row>
     <row r="18" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="474"/>
-      <c r="B18" s="376"/>
-      <c r="C18" s="376"/>
-      <c r="D18" s="376"/>
-      <c r="E18" s="376"/>
-      <c r="F18" s="376"/>
-      <c r="G18" s="376"/>
-      <c r="H18" s="419"/>
+      <c r="A18" s="473"/>
+      <c r="B18" s="375"/>
+      <c r="C18" s="375"/>
+      <c r="D18" s="375"/>
+      <c r="E18" s="375"/>
+      <c r="F18" s="375"/>
+      <c r="G18" s="375"/>
+      <c r="H18" s="418"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
-      <c r="L18" s="429"/>
-      <c r="P18" s="430"/>
+      <c r="L18" s="428"/>
+      <c r="P18" s="429"/>
       <c r="Q18" s="25"/>
       <c r="R18" s="25"/>
       <c r="S18" s="25"/>
@@ -9202,19 +9199,19 @@
       <c r="BP18" s="26"/>
     </row>
     <row r="19" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="474"/>
-      <c r="B19" s="376"/>
-      <c r="C19" s="376"/>
-      <c r="D19" s="376"/>
-      <c r="E19" s="376"/>
-      <c r="F19" s="376"/>
-      <c r="G19" s="376"/>
-      <c r="H19" s="419"/>
+      <c r="A19" s="473"/>
+      <c r="B19" s="375"/>
+      <c r="C19" s="375"/>
+      <c r="D19" s="375"/>
+      <c r="E19" s="375"/>
+      <c r="F19" s="375"/>
+      <c r="G19" s="375"/>
+      <c r="H19" s="418"/>
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
-      <c r="L19" s="429"/>
-      <c r="P19" s="430"/>
+      <c r="L19" s="428"/>
+      <c r="P19" s="429"/>
       <c r="Q19" s="25"/>
       <c r="R19" s="25"/>
       <c r="S19" s="25"/>
@@ -9269,19 +9266,19 @@
       <c r="BP19" s="26"/>
     </row>
     <row r="20" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="474"/>
-      <c r="B20" s="376"/>
-      <c r="C20" s="376"/>
-      <c r="D20" s="376"/>
-      <c r="E20" s="376"/>
-      <c r="F20" s="376"/>
-      <c r="G20" s="376"/>
-      <c r="H20" s="419"/>
+      <c r="A20" s="473"/>
+      <c r="B20" s="375"/>
+      <c r="C20" s="375"/>
+      <c r="D20" s="375"/>
+      <c r="E20" s="375"/>
+      <c r="F20" s="375"/>
+      <c r="G20" s="375"/>
+      <c r="H20" s="418"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
-      <c r="L20" s="429"/>
-      <c r="P20" s="430"/>
+      <c r="L20" s="428"/>
+      <c r="P20" s="429"/>
       <c r="Q20" s="25"/>
       <c r="R20" s="25"/>
       <c r="S20" s="25"/>
@@ -9336,19 +9333,19 @@
       <c r="BP20" s="26"/>
     </row>
     <row r="21" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="476"/>
+      <c r="A21" s="475"/>
       <c r="B21" s="187"/>
       <c r="C21" s="181"/>
       <c r="D21" s="186"/>
       <c r="E21" s="186"/>
       <c r="F21" s="181"/>
       <c r="G21" s="187"/>
-      <c r="H21" s="431"/>
+      <c r="H21" s="430"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
-      <c r="L21" s="429"/>
-      <c r="P21" s="430"/>
+      <c r="L21" s="428"/>
+      <c r="P21" s="429"/>
       <c r="Q21" s="25"/>
       <c r="R21" s="25"/>
       <c r="S21" s="25"/>
@@ -9403,19 +9400,19 @@
       <c r="BP21" s="26"/>
     </row>
     <row r="22" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="476"/>
-      <c r="B22" s="376"/>
-      <c r="C22" s="376"/>
-      <c r="D22" s="376"/>
-      <c r="E22" s="376"/>
-      <c r="F22" s="376"/>
-      <c r="G22" s="376"/>
-      <c r="H22" s="419"/>
+      <c r="A22" s="475"/>
+      <c r="B22" s="375"/>
+      <c r="C22" s="375"/>
+      <c r="D22" s="375"/>
+      <c r="E22" s="375"/>
+      <c r="F22" s="375"/>
+      <c r="G22" s="375"/>
+      <c r="H22" s="418"/>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
-      <c r="L22" s="429"/>
-      <c r="P22" s="430"/>
+      <c r="L22" s="428"/>
+      <c r="P22" s="429"/>
       <c r="Q22" s="25"/>
       <c r="R22" s="25"/>
       <c r="S22" s="25"/>
@@ -9470,19 +9467,19 @@
       <c r="BP22" s="26"/>
     </row>
     <row r="23" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="474"/>
-      <c r="B23" s="328"/>
+      <c r="A23" s="473"/>
+      <c r="B23" s="327"/>
       <c r="C23" s="31"/>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
       <c r="F23" s="31"/>
-      <c r="G23" s="328"/>
-      <c r="H23" s="330"/>
+      <c r="G23" s="327"/>
+      <c r="H23" s="329"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
-      <c r="L23" s="429"/>
-      <c r="P23" s="430"/>
+      <c r="L23" s="428"/>
+      <c r="P23" s="429"/>
       <c r="Q23" s="25"/>
       <c r="R23" s="25"/>
       <c r="S23" s="25"/>
@@ -9537,19 +9534,19 @@
       <c r="BP23" s="26"/>
     </row>
     <row r="24" spans="1:68" s="170" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="476"/>
+      <c r="A24" s="475"/>
       <c r="B24" s="191"/>
       <c r="C24" s="191"/>
       <c r="D24" s="191"/>
       <c r="E24" s="191"/>
       <c r="F24" s="191"/>
       <c r="G24" s="191"/>
-      <c r="H24" s="432"/>
+      <c r="H24" s="431"/>
       <c r="I24" s="167"/>
       <c r="J24" s="167"/>
       <c r="K24" s="167"/>
-      <c r="L24" s="427"/>
-      <c r="P24" s="428"/>
+      <c r="L24" s="426"/>
+      <c r="P24" s="427"/>
       <c r="Q24" s="167"/>
       <c r="R24" s="167"/>
       <c r="S24" s="167"/>
@@ -9604,19 +9601,19 @@
       <c r="BP24" s="169"/>
     </row>
     <row r="25" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="474"/>
-      <c r="B25" s="376"/>
-      <c r="C25" s="376"/>
-      <c r="D25" s="376"/>
-      <c r="E25" s="376"/>
-      <c r="F25" s="376"/>
-      <c r="G25" s="376"/>
-      <c r="H25" s="419"/>
+      <c r="A25" s="473"/>
+      <c r="B25" s="375"/>
+      <c r="C25" s="375"/>
+      <c r="D25" s="375"/>
+      <c r="E25" s="375"/>
+      <c r="F25" s="375"/>
+      <c r="G25" s="375"/>
+      <c r="H25" s="418"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
-      <c r="L25" s="429"/>
-      <c r="P25" s="430"/>
+      <c r="L25" s="428"/>
+      <c r="P25" s="429"/>
       <c r="Q25" s="25"/>
       <c r="R25" s="25"/>
       <c r="S25" s="25"/>
@@ -9670,422 +9667,422 @@
       <c r="BO25" s="25"/>
       <c r="BP25" s="26"/>
     </row>
-    <row r="26" spans="1:68" s="435" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="474"/>
-      <c r="B26" s="376"/>
-      <c r="C26" s="376"/>
-      <c r="D26" s="376"/>
-      <c r="E26" s="376"/>
-      <c r="F26" s="376"/>
-      <c r="G26" s="376"/>
-      <c r="H26" s="419"/>
-      <c r="I26" s="433"/>
-      <c r="J26" s="433"/>
-      <c r="K26" s="433"/>
-      <c r="L26" s="434"/>
-      <c r="P26" s="436"/>
-      <c r="Q26" s="433"/>
-      <c r="R26" s="433"/>
-      <c r="S26" s="433"/>
-      <c r="T26" s="433"/>
-      <c r="U26" s="433"/>
-      <c r="V26" s="433"/>
-      <c r="W26" s="433"/>
-      <c r="X26" s="433"/>
-      <c r="Y26" s="433"/>
-      <c r="Z26" s="433"/>
-      <c r="AA26" s="433"/>
-      <c r="AB26" s="433"/>
-      <c r="AC26" s="433"/>
-      <c r="AD26" s="433"/>
-      <c r="AE26" s="433"/>
-      <c r="AF26" s="433"/>
-      <c r="AG26" s="433"/>
-      <c r="AH26" s="433"/>
-      <c r="AI26" s="433"/>
-      <c r="AJ26" s="433"/>
-      <c r="AK26" s="433"/>
-      <c r="AL26" s="433"/>
-      <c r="AM26" s="433"/>
-      <c r="AN26" s="433"/>
-      <c r="AO26" s="433"/>
-      <c r="AP26" s="433"/>
-      <c r="AQ26" s="433"/>
-      <c r="AR26" s="433"/>
-      <c r="AS26" s="433"/>
-      <c r="AT26" s="433"/>
-      <c r="AU26" s="433"/>
-      <c r="AV26" s="433"/>
-      <c r="AW26" s="433"/>
-      <c r="AX26" s="433"/>
-      <c r="AY26" s="433"/>
-      <c r="AZ26" s="433"/>
-      <c r="BA26" s="433"/>
-      <c r="BB26" s="433"/>
-      <c r="BC26" s="433"/>
-      <c r="BD26" s="433"/>
-      <c r="BE26" s="433"/>
-      <c r="BF26" s="433"/>
-      <c r="BG26" s="433"/>
-      <c r="BH26" s="433"/>
-      <c r="BI26" s="433"/>
-      <c r="BJ26" s="433"/>
-      <c r="BK26" s="433"/>
-      <c r="BL26" s="433"/>
-      <c r="BM26" s="433"/>
-      <c r="BN26" s="433"/>
-      <c r="BO26" s="433"/>
-      <c r="BP26" s="437"/>
-    </row>
-    <row r="27" spans="1:68" s="435" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="479"/>
-      <c r="B27" s="328"/>
+    <row r="26" spans="1:68" s="434" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="473"/>
+      <c r="B26" s="375"/>
+      <c r="C26" s="375"/>
+      <c r="D26" s="375"/>
+      <c r="E26" s="375"/>
+      <c r="F26" s="375"/>
+      <c r="G26" s="375"/>
+      <c r="H26" s="418"/>
+      <c r="I26" s="432"/>
+      <c r="J26" s="432"/>
+      <c r="K26" s="432"/>
+      <c r="L26" s="433"/>
+      <c r="P26" s="435"/>
+      <c r="Q26" s="432"/>
+      <c r="R26" s="432"/>
+      <c r="S26" s="432"/>
+      <c r="T26" s="432"/>
+      <c r="U26" s="432"/>
+      <c r="V26" s="432"/>
+      <c r="W26" s="432"/>
+      <c r="X26" s="432"/>
+      <c r="Y26" s="432"/>
+      <c r="Z26" s="432"/>
+      <c r="AA26" s="432"/>
+      <c r="AB26" s="432"/>
+      <c r="AC26" s="432"/>
+      <c r="AD26" s="432"/>
+      <c r="AE26" s="432"/>
+      <c r="AF26" s="432"/>
+      <c r="AG26" s="432"/>
+      <c r="AH26" s="432"/>
+      <c r="AI26" s="432"/>
+      <c r="AJ26" s="432"/>
+      <c r="AK26" s="432"/>
+      <c r="AL26" s="432"/>
+      <c r="AM26" s="432"/>
+      <c r="AN26" s="432"/>
+      <c r="AO26" s="432"/>
+      <c r="AP26" s="432"/>
+      <c r="AQ26" s="432"/>
+      <c r="AR26" s="432"/>
+      <c r="AS26" s="432"/>
+      <c r="AT26" s="432"/>
+      <c r="AU26" s="432"/>
+      <c r="AV26" s="432"/>
+      <c r="AW26" s="432"/>
+      <c r="AX26" s="432"/>
+      <c r="AY26" s="432"/>
+      <c r="AZ26" s="432"/>
+      <c r="BA26" s="432"/>
+      <c r="BB26" s="432"/>
+      <c r="BC26" s="432"/>
+      <c r="BD26" s="432"/>
+      <c r="BE26" s="432"/>
+      <c r="BF26" s="432"/>
+      <c r="BG26" s="432"/>
+      <c r="BH26" s="432"/>
+      <c r="BI26" s="432"/>
+      <c r="BJ26" s="432"/>
+      <c r="BK26" s="432"/>
+      <c r="BL26" s="432"/>
+      <c r="BM26" s="432"/>
+      <c r="BN26" s="432"/>
+      <c r="BO26" s="432"/>
+      <c r="BP26" s="436"/>
+    </row>
+    <row r="27" spans="1:68" s="434" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="478"/>
+      <c r="B27" s="327"/>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
       <c r="F27" s="31"/>
-      <c r="G27" s="328"/>
-      <c r="H27" s="330"/>
-      <c r="I27" s="433"/>
-      <c r="J27" s="433"/>
-      <c r="K27" s="433"/>
-      <c r="L27" s="434"/>
-      <c r="P27" s="436"/>
-      <c r="Q27" s="433"/>
-      <c r="R27" s="433"/>
-      <c r="S27" s="433"/>
-      <c r="T27" s="433"/>
-      <c r="U27" s="433"/>
-      <c r="V27" s="433"/>
-      <c r="W27" s="433"/>
-      <c r="X27" s="433"/>
-      <c r="Y27" s="433"/>
-      <c r="Z27" s="433"/>
-      <c r="AA27" s="433"/>
-      <c r="AB27" s="433"/>
-      <c r="AC27" s="433"/>
-      <c r="AD27" s="433"/>
-      <c r="AE27" s="433"/>
-      <c r="AF27" s="433"/>
-      <c r="AG27" s="433"/>
-      <c r="AH27" s="433"/>
-      <c r="AI27" s="433"/>
-      <c r="AJ27" s="433"/>
-      <c r="AK27" s="433"/>
-      <c r="AL27" s="433"/>
-      <c r="AM27" s="433"/>
-      <c r="AN27" s="433"/>
-      <c r="AO27" s="433"/>
-      <c r="AP27" s="433"/>
-      <c r="AQ27" s="433"/>
-      <c r="AR27" s="433"/>
-      <c r="AS27" s="433"/>
-      <c r="AT27" s="433"/>
-      <c r="AU27" s="433"/>
-      <c r="AV27" s="433"/>
-      <c r="AW27" s="433"/>
-      <c r="AX27" s="433"/>
-      <c r="AY27" s="433"/>
-      <c r="AZ27" s="433"/>
-      <c r="BA27" s="433"/>
-      <c r="BB27" s="433"/>
-      <c r="BC27" s="433"/>
-      <c r="BD27" s="433"/>
-      <c r="BE27" s="433"/>
-      <c r="BF27" s="433"/>
-      <c r="BG27" s="433"/>
-      <c r="BH27" s="433"/>
-      <c r="BI27" s="433"/>
-      <c r="BJ27" s="433"/>
-      <c r="BK27" s="433"/>
-      <c r="BL27" s="433"/>
-      <c r="BM27" s="433"/>
-      <c r="BN27" s="433"/>
-      <c r="BO27" s="433"/>
-      <c r="BP27" s="437"/>
-    </row>
-    <row r="28" spans="1:68" s="435" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="480"/>
-      <c r="B28" s="328"/>
+      <c r="G27" s="327"/>
+      <c r="H27" s="329"/>
+      <c r="I27" s="432"/>
+      <c r="J27" s="432"/>
+      <c r="K27" s="432"/>
+      <c r="L27" s="433"/>
+      <c r="P27" s="435"/>
+      <c r="Q27" s="432"/>
+      <c r="R27" s="432"/>
+      <c r="S27" s="432"/>
+      <c r="T27" s="432"/>
+      <c r="U27" s="432"/>
+      <c r="V27" s="432"/>
+      <c r="W27" s="432"/>
+      <c r="X27" s="432"/>
+      <c r="Y27" s="432"/>
+      <c r="Z27" s="432"/>
+      <c r="AA27" s="432"/>
+      <c r="AB27" s="432"/>
+      <c r="AC27" s="432"/>
+      <c r="AD27" s="432"/>
+      <c r="AE27" s="432"/>
+      <c r="AF27" s="432"/>
+      <c r="AG27" s="432"/>
+      <c r="AH27" s="432"/>
+      <c r="AI27" s="432"/>
+      <c r="AJ27" s="432"/>
+      <c r="AK27" s="432"/>
+      <c r="AL27" s="432"/>
+      <c r="AM27" s="432"/>
+      <c r="AN27" s="432"/>
+      <c r="AO27" s="432"/>
+      <c r="AP27" s="432"/>
+      <c r="AQ27" s="432"/>
+      <c r="AR27" s="432"/>
+      <c r="AS27" s="432"/>
+      <c r="AT27" s="432"/>
+      <c r="AU27" s="432"/>
+      <c r="AV27" s="432"/>
+      <c r="AW27" s="432"/>
+      <c r="AX27" s="432"/>
+      <c r="AY27" s="432"/>
+      <c r="AZ27" s="432"/>
+      <c r="BA27" s="432"/>
+      <c r="BB27" s="432"/>
+      <c r="BC27" s="432"/>
+      <c r="BD27" s="432"/>
+      <c r="BE27" s="432"/>
+      <c r="BF27" s="432"/>
+      <c r="BG27" s="432"/>
+      <c r="BH27" s="432"/>
+      <c r="BI27" s="432"/>
+      <c r="BJ27" s="432"/>
+      <c r="BK27" s="432"/>
+      <c r="BL27" s="432"/>
+      <c r="BM27" s="432"/>
+      <c r="BN27" s="432"/>
+      <c r="BO27" s="432"/>
+      <c r="BP27" s="436"/>
+    </row>
+    <row r="28" spans="1:68" s="434" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="479"/>
+      <c r="B28" s="327"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
       <c r="F28" s="31"/>
-      <c r="G28" s="328"/>
-      <c r="H28" s="330"/>
-      <c r="I28" s="433"/>
-      <c r="J28" s="433"/>
-      <c r="K28" s="433"/>
-      <c r="L28" s="434"/>
-      <c r="P28" s="436"/>
-      <c r="Q28" s="433"/>
-      <c r="R28" s="433"/>
-      <c r="S28" s="433"/>
-      <c r="T28" s="433"/>
-      <c r="U28" s="433"/>
-      <c r="V28" s="433"/>
-      <c r="W28" s="433"/>
-      <c r="X28" s="433"/>
-      <c r="Y28" s="433"/>
-      <c r="Z28" s="433"/>
-      <c r="AA28" s="433"/>
-      <c r="AB28" s="433"/>
-      <c r="AC28" s="433"/>
-      <c r="AD28" s="433"/>
-      <c r="AE28" s="433"/>
-      <c r="AF28" s="433"/>
-      <c r="AG28" s="433"/>
-      <c r="AH28" s="433"/>
-      <c r="AI28" s="433"/>
-      <c r="AJ28" s="433"/>
-      <c r="AK28" s="433"/>
-      <c r="AL28" s="433"/>
-      <c r="AM28" s="433"/>
-      <c r="AN28" s="433"/>
-      <c r="AO28" s="433"/>
-      <c r="AP28" s="433"/>
-      <c r="AQ28" s="433"/>
-      <c r="AR28" s="433"/>
-      <c r="AS28" s="433"/>
-      <c r="AT28" s="433"/>
-      <c r="AU28" s="433"/>
-      <c r="AV28" s="433"/>
-      <c r="AW28" s="433"/>
-      <c r="AX28" s="433"/>
-      <c r="AY28" s="433"/>
-      <c r="AZ28" s="433"/>
-      <c r="BA28" s="433"/>
-      <c r="BB28" s="433"/>
-      <c r="BC28" s="433"/>
-      <c r="BD28" s="433"/>
-      <c r="BE28" s="433"/>
-      <c r="BF28" s="433"/>
-      <c r="BG28" s="433"/>
-      <c r="BH28" s="433"/>
-      <c r="BI28" s="433"/>
-      <c r="BJ28" s="433"/>
-      <c r="BK28" s="433"/>
-      <c r="BL28" s="433"/>
-      <c r="BM28" s="433"/>
-      <c r="BN28" s="433"/>
-      <c r="BO28" s="433"/>
-      <c r="BP28" s="437"/>
-    </row>
-    <row r="29" spans="1:68" s="435" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="480"/>
-      <c r="B29" s="328"/>
+      <c r="G28" s="327"/>
+      <c r="H28" s="329"/>
+      <c r="I28" s="432"/>
+      <c r="J28" s="432"/>
+      <c r="K28" s="432"/>
+      <c r="L28" s="433"/>
+      <c r="P28" s="435"/>
+      <c r="Q28" s="432"/>
+      <c r="R28" s="432"/>
+      <c r="S28" s="432"/>
+      <c r="T28" s="432"/>
+      <c r="U28" s="432"/>
+      <c r="V28" s="432"/>
+      <c r="W28" s="432"/>
+      <c r="X28" s="432"/>
+      <c r="Y28" s="432"/>
+      <c r="Z28" s="432"/>
+      <c r="AA28" s="432"/>
+      <c r="AB28" s="432"/>
+      <c r="AC28" s="432"/>
+      <c r="AD28" s="432"/>
+      <c r="AE28" s="432"/>
+      <c r="AF28" s="432"/>
+      <c r="AG28" s="432"/>
+      <c r="AH28" s="432"/>
+      <c r="AI28" s="432"/>
+      <c r="AJ28" s="432"/>
+      <c r="AK28" s="432"/>
+      <c r="AL28" s="432"/>
+      <c r="AM28" s="432"/>
+      <c r="AN28" s="432"/>
+      <c r="AO28" s="432"/>
+      <c r="AP28" s="432"/>
+      <c r="AQ28" s="432"/>
+      <c r="AR28" s="432"/>
+      <c r="AS28" s="432"/>
+      <c r="AT28" s="432"/>
+      <c r="AU28" s="432"/>
+      <c r="AV28" s="432"/>
+      <c r="AW28" s="432"/>
+      <c r="AX28" s="432"/>
+      <c r="AY28" s="432"/>
+      <c r="AZ28" s="432"/>
+      <c r="BA28" s="432"/>
+      <c r="BB28" s="432"/>
+      <c r="BC28" s="432"/>
+      <c r="BD28" s="432"/>
+      <c r="BE28" s="432"/>
+      <c r="BF28" s="432"/>
+      <c r="BG28" s="432"/>
+      <c r="BH28" s="432"/>
+      <c r="BI28" s="432"/>
+      <c r="BJ28" s="432"/>
+      <c r="BK28" s="432"/>
+      <c r="BL28" s="432"/>
+      <c r="BM28" s="432"/>
+      <c r="BN28" s="432"/>
+      <c r="BO28" s="432"/>
+      <c r="BP28" s="436"/>
+    </row>
+    <row r="29" spans="1:68" s="434" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="479"/>
+      <c r="B29" s="327"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="F29" s="31"/>
-      <c r="G29" s="328"/>
-      <c r="H29" s="330"/>
-      <c r="I29" s="433"/>
-      <c r="J29" s="433"/>
-      <c r="K29" s="433"/>
-      <c r="L29" s="434"/>
-      <c r="P29" s="436"/>
-      <c r="Q29" s="433"/>
-      <c r="R29" s="433"/>
-      <c r="S29" s="433"/>
-      <c r="T29" s="433"/>
-      <c r="U29" s="433"/>
-      <c r="V29" s="433"/>
-      <c r="W29" s="433"/>
-      <c r="X29" s="433"/>
-      <c r="Y29" s="433"/>
-      <c r="Z29" s="433"/>
-      <c r="AA29" s="433"/>
-      <c r="AB29" s="433"/>
-      <c r="AC29" s="433"/>
-      <c r="AD29" s="433"/>
-      <c r="AE29" s="433"/>
-      <c r="AF29" s="433"/>
-      <c r="AG29" s="433"/>
-      <c r="AH29" s="433"/>
-      <c r="AI29" s="433"/>
-      <c r="AJ29" s="433"/>
-      <c r="AK29" s="433"/>
-      <c r="AL29" s="433"/>
-      <c r="AM29" s="433"/>
-      <c r="AN29" s="433"/>
-      <c r="AO29" s="433"/>
-      <c r="AP29" s="433"/>
-      <c r="AQ29" s="433"/>
-      <c r="AR29" s="433"/>
-      <c r="AS29" s="433"/>
-      <c r="AT29" s="433"/>
-      <c r="AU29" s="433"/>
-      <c r="AV29" s="433"/>
-      <c r="AW29" s="433"/>
-      <c r="AX29" s="433"/>
-      <c r="AY29" s="433"/>
-      <c r="AZ29" s="433"/>
-      <c r="BA29" s="433"/>
-      <c r="BB29" s="433"/>
-      <c r="BC29" s="433"/>
-      <c r="BD29" s="433"/>
-      <c r="BE29" s="433"/>
-      <c r="BF29" s="433"/>
-      <c r="BG29" s="433"/>
-      <c r="BH29" s="433"/>
-      <c r="BI29" s="433"/>
-      <c r="BJ29" s="433"/>
-      <c r="BK29" s="433"/>
-      <c r="BL29" s="433"/>
-      <c r="BM29" s="433"/>
-      <c r="BN29" s="433"/>
-      <c r="BO29" s="433"/>
-      <c r="BP29" s="437"/>
-    </row>
-    <row r="30" spans="1:68" s="435" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="480"/>
-      <c r="B30" s="328"/>
+      <c r="G29" s="327"/>
+      <c r="H29" s="329"/>
+      <c r="I29" s="432"/>
+      <c r="J29" s="432"/>
+      <c r="K29" s="432"/>
+      <c r="L29" s="433"/>
+      <c r="P29" s="435"/>
+      <c r="Q29" s="432"/>
+      <c r="R29" s="432"/>
+      <c r="S29" s="432"/>
+      <c r="T29" s="432"/>
+      <c r="U29" s="432"/>
+      <c r="V29" s="432"/>
+      <c r="W29" s="432"/>
+      <c r="X29" s="432"/>
+      <c r="Y29" s="432"/>
+      <c r="Z29" s="432"/>
+      <c r="AA29" s="432"/>
+      <c r="AB29" s="432"/>
+      <c r="AC29" s="432"/>
+      <c r="AD29" s="432"/>
+      <c r="AE29" s="432"/>
+      <c r="AF29" s="432"/>
+      <c r="AG29" s="432"/>
+      <c r="AH29" s="432"/>
+      <c r="AI29" s="432"/>
+      <c r="AJ29" s="432"/>
+      <c r="AK29" s="432"/>
+      <c r="AL29" s="432"/>
+      <c r="AM29" s="432"/>
+      <c r="AN29" s="432"/>
+      <c r="AO29" s="432"/>
+      <c r="AP29" s="432"/>
+      <c r="AQ29" s="432"/>
+      <c r="AR29" s="432"/>
+      <c r="AS29" s="432"/>
+      <c r="AT29" s="432"/>
+      <c r="AU29" s="432"/>
+      <c r="AV29" s="432"/>
+      <c r="AW29" s="432"/>
+      <c r="AX29" s="432"/>
+      <c r="AY29" s="432"/>
+      <c r="AZ29" s="432"/>
+      <c r="BA29" s="432"/>
+      <c r="BB29" s="432"/>
+      <c r="BC29" s="432"/>
+      <c r="BD29" s="432"/>
+      <c r="BE29" s="432"/>
+      <c r="BF29" s="432"/>
+      <c r="BG29" s="432"/>
+      <c r="BH29" s="432"/>
+      <c r="BI29" s="432"/>
+      <c r="BJ29" s="432"/>
+      <c r="BK29" s="432"/>
+      <c r="BL29" s="432"/>
+      <c r="BM29" s="432"/>
+      <c r="BN29" s="432"/>
+      <c r="BO29" s="432"/>
+      <c r="BP29" s="436"/>
+    </row>
+    <row r="30" spans="1:68" s="434" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="479"/>
+      <c r="B30" s="327"/>
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="F30" s="31"/>
-      <c r="G30" s="328"/>
-      <c r="H30" s="330"/>
-      <c r="I30" s="433"/>
-      <c r="J30" s="433"/>
-      <c r="K30" s="433"/>
-      <c r="L30" s="434"/>
-      <c r="P30" s="436"/>
-      <c r="Q30" s="433"/>
-      <c r="R30" s="433"/>
-      <c r="S30" s="433"/>
-      <c r="T30" s="433"/>
-      <c r="U30" s="433"/>
-      <c r="V30" s="433"/>
-      <c r="W30" s="433"/>
-      <c r="X30" s="433"/>
-      <c r="Y30" s="433"/>
-      <c r="Z30" s="433"/>
-      <c r="AA30" s="433"/>
-      <c r="AB30" s="433"/>
-      <c r="AC30" s="433"/>
-      <c r="AD30" s="433"/>
-      <c r="AE30" s="433"/>
-      <c r="AF30" s="433"/>
-      <c r="AG30" s="433"/>
-      <c r="AH30" s="433"/>
-      <c r="AI30" s="433"/>
-      <c r="AJ30" s="433"/>
-      <c r="AK30" s="433"/>
-      <c r="AL30" s="433"/>
-      <c r="AM30" s="433"/>
-      <c r="AN30" s="433"/>
-      <c r="AO30" s="433"/>
-      <c r="AP30" s="433"/>
-      <c r="AQ30" s="433"/>
-      <c r="AR30" s="433"/>
-      <c r="AS30" s="433"/>
-      <c r="AT30" s="433"/>
-      <c r="AU30" s="433"/>
-      <c r="AV30" s="433"/>
-      <c r="AW30" s="433"/>
-      <c r="AX30" s="433"/>
-      <c r="AY30" s="433"/>
-      <c r="AZ30" s="433"/>
-      <c r="BA30" s="433"/>
-      <c r="BB30" s="433"/>
-      <c r="BC30" s="433"/>
-      <c r="BD30" s="433"/>
-      <c r="BE30" s="433"/>
-      <c r="BF30" s="433"/>
-      <c r="BG30" s="433"/>
-      <c r="BH30" s="433"/>
-      <c r="BI30" s="433"/>
-      <c r="BJ30" s="433"/>
-      <c r="BK30" s="433"/>
-      <c r="BL30" s="433"/>
-      <c r="BM30" s="433"/>
-      <c r="BN30" s="433"/>
-      <c r="BO30" s="433"/>
-      <c r="BP30" s="437"/>
-    </row>
-    <row r="31" spans="1:68" s="435" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="480"/>
-      <c r="B31" s="328"/>
+      <c r="G30" s="327"/>
+      <c r="H30" s="329"/>
+      <c r="I30" s="432"/>
+      <c r="J30" s="432"/>
+      <c r="K30" s="432"/>
+      <c r="L30" s="433"/>
+      <c r="P30" s="435"/>
+      <c r="Q30" s="432"/>
+      <c r="R30" s="432"/>
+      <c r="S30" s="432"/>
+      <c r="T30" s="432"/>
+      <c r="U30" s="432"/>
+      <c r="V30" s="432"/>
+      <c r="W30" s="432"/>
+      <c r="X30" s="432"/>
+      <c r="Y30" s="432"/>
+      <c r="Z30" s="432"/>
+      <c r="AA30" s="432"/>
+      <c r="AB30" s="432"/>
+      <c r="AC30" s="432"/>
+      <c r="AD30" s="432"/>
+      <c r="AE30" s="432"/>
+      <c r="AF30" s="432"/>
+      <c r="AG30" s="432"/>
+      <c r="AH30" s="432"/>
+      <c r="AI30" s="432"/>
+      <c r="AJ30" s="432"/>
+      <c r="AK30" s="432"/>
+      <c r="AL30" s="432"/>
+      <c r="AM30" s="432"/>
+      <c r="AN30" s="432"/>
+      <c r="AO30" s="432"/>
+      <c r="AP30" s="432"/>
+      <c r="AQ30" s="432"/>
+      <c r="AR30" s="432"/>
+      <c r="AS30" s="432"/>
+      <c r="AT30" s="432"/>
+      <c r="AU30" s="432"/>
+      <c r="AV30" s="432"/>
+      <c r="AW30" s="432"/>
+      <c r="AX30" s="432"/>
+      <c r="AY30" s="432"/>
+      <c r="AZ30" s="432"/>
+      <c r="BA30" s="432"/>
+      <c r="BB30" s="432"/>
+      <c r="BC30" s="432"/>
+      <c r="BD30" s="432"/>
+      <c r="BE30" s="432"/>
+      <c r="BF30" s="432"/>
+      <c r="BG30" s="432"/>
+      <c r="BH30" s="432"/>
+      <c r="BI30" s="432"/>
+      <c r="BJ30" s="432"/>
+      <c r="BK30" s="432"/>
+      <c r="BL30" s="432"/>
+      <c r="BM30" s="432"/>
+      <c r="BN30" s="432"/>
+      <c r="BO30" s="432"/>
+      <c r="BP30" s="436"/>
+    </row>
+    <row r="31" spans="1:68" s="434" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="479"/>
+      <c r="B31" s="327"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="F31" s="31"/>
-      <c r="G31" s="328"/>
-      <c r="H31" s="330"/>
-      <c r="I31" s="433"/>
-      <c r="J31" s="433"/>
-      <c r="K31" s="433"/>
-      <c r="L31" s="434"/>
-      <c r="P31" s="436"/>
-      <c r="Q31" s="433"/>
-      <c r="R31" s="433"/>
-      <c r="S31" s="433"/>
-      <c r="T31" s="433"/>
-      <c r="U31" s="433"/>
-      <c r="V31" s="433"/>
-      <c r="W31" s="433"/>
-      <c r="X31" s="433"/>
-      <c r="Y31" s="433"/>
-      <c r="Z31" s="433"/>
-      <c r="AA31" s="433"/>
-      <c r="AB31" s="433"/>
-      <c r="AC31" s="433"/>
-      <c r="AD31" s="433"/>
-      <c r="AE31" s="433"/>
-      <c r="AF31" s="433"/>
-      <c r="AG31" s="433"/>
-      <c r="AH31" s="433"/>
-      <c r="AI31" s="433"/>
-      <c r="AJ31" s="433"/>
-      <c r="AK31" s="433"/>
-      <c r="AL31" s="433"/>
-      <c r="AM31" s="433"/>
-      <c r="AN31" s="433"/>
-      <c r="AO31" s="433"/>
-      <c r="AP31" s="433"/>
-      <c r="AQ31" s="433"/>
-      <c r="AR31" s="433"/>
-      <c r="AS31" s="433"/>
-      <c r="AT31" s="433"/>
-      <c r="AU31" s="433"/>
-      <c r="AV31" s="433"/>
-      <c r="AW31" s="433"/>
-      <c r="AX31" s="433"/>
-      <c r="AY31" s="433"/>
-      <c r="AZ31" s="433"/>
-      <c r="BA31" s="433"/>
-      <c r="BB31" s="433"/>
-      <c r="BC31" s="433"/>
-      <c r="BD31" s="433"/>
-      <c r="BE31" s="433"/>
-      <c r="BF31" s="433"/>
-      <c r="BG31" s="433"/>
-      <c r="BH31" s="433"/>
-      <c r="BI31" s="433"/>
-      <c r="BJ31" s="433"/>
-      <c r="BK31" s="433"/>
-      <c r="BL31" s="433"/>
-      <c r="BM31" s="433"/>
-      <c r="BN31" s="433"/>
-      <c r="BO31" s="433"/>
-      <c r="BP31" s="437"/>
+      <c r="G31" s="327"/>
+      <c r="H31" s="329"/>
+      <c r="I31" s="432"/>
+      <c r="J31" s="432"/>
+      <c r="K31" s="432"/>
+      <c r="L31" s="433"/>
+      <c r="P31" s="435"/>
+      <c r="Q31" s="432"/>
+      <c r="R31" s="432"/>
+      <c r="S31" s="432"/>
+      <c r="T31" s="432"/>
+      <c r="U31" s="432"/>
+      <c r="V31" s="432"/>
+      <c r="W31" s="432"/>
+      <c r="X31" s="432"/>
+      <c r="Y31" s="432"/>
+      <c r="Z31" s="432"/>
+      <c r="AA31" s="432"/>
+      <c r="AB31" s="432"/>
+      <c r="AC31" s="432"/>
+      <c r="AD31" s="432"/>
+      <c r="AE31" s="432"/>
+      <c r="AF31" s="432"/>
+      <c r="AG31" s="432"/>
+      <c r="AH31" s="432"/>
+      <c r="AI31" s="432"/>
+      <c r="AJ31" s="432"/>
+      <c r="AK31" s="432"/>
+      <c r="AL31" s="432"/>
+      <c r="AM31" s="432"/>
+      <c r="AN31" s="432"/>
+      <c r="AO31" s="432"/>
+      <c r="AP31" s="432"/>
+      <c r="AQ31" s="432"/>
+      <c r="AR31" s="432"/>
+      <c r="AS31" s="432"/>
+      <c r="AT31" s="432"/>
+      <c r="AU31" s="432"/>
+      <c r="AV31" s="432"/>
+      <c r="AW31" s="432"/>
+      <c r="AX31" s="432"/>
+      <c r="AY31" s="432"/>
+      <c r="AZ31" s="432"/>
+      <c r="BA31" s="432"/>
+      <c r="BB31" s="432"/>
+      <c r="BC31" s="432"/>
+      <c r="BD31" s="432"/>
+      <c r="BE31" s="432"/>
+      <c r="BF31" s="432"/>
+      <c r="BG31" s="432"/>
+      <c r="BH31" s="432"/>
+      <c r="BI31" s="432"/>
+      <c r="BJ31" s="432"/>
+      <c r="BK31" s="432"/>
+      <c r="BL31" s="432"/>
+      <c r="BM31" s="432"/>
+      <c r="BN31" s="432"/>
+      <c r="BO31" s="432"/>
+      <c r="BP31" s="436"/>
     </row>
     <row r="32" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="474"/>
-      <c r="B32" s="376"/>
-      <c r="C32" s="376"/>
-      <c r="D32" s="376"/>
-      <c r="E32" s="376"/>
-      <c r="F32" s="376"/>
-      <c r="G32" s="376"/>
-      <c r="H32" s="419"/>
+      <c r="A32" s="473"/>
+      <c r="B32" s="375"/>
+      <c r="C32" s="375"/>
+      <c r="D32" s="375"/>
+      <c r="E32" s="375"/>
+      <c r="F32" s="375"/>
+      <c r="G32" s="375"/>
+      <c r="H32" s="418"/>
       <c r="I32" s="25"/>
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
-      <c r="L32" s="429"/>
-      <c r="P32" s="430"/>
+      <c r="L32" s="428"/>
+      <c r="P32" s="429"/>
       <c r="Q32" s="25"/>
       <c r="R32" s="25"/>
       <c r="S32" s="25"/>
@@ -10140,19 +10137,19 @@
       <c r="BP32" s="26"/>
     </row>
     <row r="33" spans="1:68" s="170" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="481"/>
+      <c r="A33" s="480"/>
       <c r="B33" s="191"/>
       <c r="C33" s="191"/>
       <c r="D33" s="181"/>
       <c r="E33" s="181"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="432"/>
+      <c r="H33" s="431"/>
       <c r="I33" s="167"/>
       <c r="J33" s="167"/>
       <c r="K33" s="167"/>
-      <c r="L33" s="427"/>
-      <c r="P33" s="428"/>
+      <c r="L33" s="426"/>
+      <c r="P33" s="427"/>
       <c r="Q33" s="167"/>
       <c r="R33" s="167"/>
       <c r="S33" s="167"/>
@@ -10207,22 +10204,22 @@
       <c r="BP33" s="169"/>
     </row>
     <row r="34" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="482"/>
-      <c r="B34" s="438"/>
-      <c r="C34" s="439"/>
-      <c r="D34" s="439"/>
-      <c r="E34" s="439"/>
-      <c r="F34" s="439"/>
-      <c r="G34" s="438"/>
-      <c r="H34" s="440"/>
+      <c r="A34" s="481"/>
+      <c r="B34" s="437"/>
+      <c r="C34" s="438"/>
+      <c r="D34" s="438"/>
+      <c r="E34" s="438"/>
+      <c r="F34" s="438"/>
+      <c r="G34" s="437"/>
+      <c r="H34" s="439"/>
       <c r="I34" s="25"/>
       <c r="J34" s="25"/>
       <c r="K34" s="25"/>
-      <c r="L34" s="441"/>
-      <c r="M34" s="442"/>
-      <c r="N34" s="442"/>
-      <c r="O34" s="442"/>
-      <c r="P34" s="443"/>
+      <c r="L34" s="440"/>
+      <c r="M34" s="441"/>
+      <c r="N34" s="441"/>
+      <c r="O34" s="441"/>
+      <c r="P34" s="442"/>
       <c r="Q34" s="25"/>
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
@@ -10277,20 +10274,20 @@
       <c r="BP34" s="26"/>
     </row>
     <row r="35" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="250"/>
-      <c r="B35" s="468"/>
-      <c r="C35" s="250"/>
-      <c r="D35" s="250"/>
-      <c r="E35" s="250"/>
-      <c r="F35" s="251"/>
-      <c r="G35" s="469"/>
-      <c r="H35" s="469"/>
+      <c r="A35" s="249"/>
+      <c r="B35" s="467"/>
+      <c r="C35" s="249"/>
+      <c r="D35" s="249"/>
+      <c r="E35" s="249"/>
+      <c r="F35" s="250"/>
+      <c r="G35" s="468"/>
+      <c r="H35" s="468"/>
     </row>
     <row r="36" spans="1:68" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="250" t="s">
+      <c r="A36" s="249" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="444">
+      <c r="B36" s="443">
         <f>COUNTA(B7:B34)</f>
         <v>0</v>
       </c>
@@ -10298,15 +10295,15 @@
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="L5:R5"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:H3"/>
+    <mergeCell ref="A2:C4"/>
     <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:H4"/>
     <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="39" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="16" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;G</oddFooter>
   </headerFooter>
@@ -10323,10 +10320,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T44"/>
+  <dimension ref="A1:T43"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10365,14 +10362,14 @@
       <c r="N1" s="12"/>
     </row>
     <row r="2" spans="1:20" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="488"/>
-      <c r="B2" s="488"/>
-      <c r="C2" s="488"/>
-      <c r="D2" s="489"/>
-      <c r="E2" s="489"/>
-      <c r="F2" s="489"/>
-      <c r="G2" s="488"/>
-      <c r="H2" s="488"/>
+      <c r="A2" s="487"/>
+      <c r="B2" s="487"/>
+      <c r="C2" s="487"/>
+      <c r="D2" s="488"/>
+      <c r="E2" s="488"/>
+      <c r="F2" s="488"/>
+      <c r="G2" s="487"/>
+      <c r="H2" s="487"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
@@ -10387,16 +10384,16 @@
       <c r="T2" s="12"/>
     </row>
     <row r="3" spans="1:20" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="488"/>
-      <c r="B3" s="488"/>
-      <c r="C3" s="488"/>
-      <c r="D3" s="489" t="s">
+      <c r="A3" s="487"/>
+      <c r="B3" s="487"/>
+      <c r="C3" s="487"/>
+      <c r="D3" s="488" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="489"/>
-      <c r="F3" s="489"/>
-      <c r="G3" s="488"/>
-      <c r="H3" s="488"/>
+      <c r="E3" s="488"/>
+      <c r="F3" s="488"/>
+      <c r="G3" s="487"/>
+      <c r="H3" s="487"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
@@ -10411,14 +10408,14 @@
       <c r="T3" s="12"/>
     </row>
     <row r="4" spans="1:20" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="488"/>
-      <c r="B4" s="488"/>
-      <c r="C4" s="488"/>
-      <c r="D4" s="489"/>
-      <c r="E4" s="489"/>
-      <c r="F4" s="489"/>
-      <c r="G4" s="488"/>
-      <c r="H4" s="488"/>
+      <c r="A4" s="487"/>
+      <c r="B4" s="487"/>
+      <c r="C4" s="487"/>
+      <c r="D4" s="488"/>
+      <c r="E4" s="488"/>
+      <c r="F4" s="488"/>
+      <c r="G4" s="487"/>
+      <c r="H4" s="487"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
@@ -10432,13 +10429,13 @@
       <c r="S4" s="12"/>
       <c r="T4" s="12"/>
     </row>
-    <row r="5" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="228"/>
-      <c r="E5" s="228"/>
-      <c r="F5" s="228"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
@@ -10454,21 +10451,47 @@
       <c r="S5" s="12"/>
       <c r="T5" s="12"/>
     </row>
-    <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
+    <row r="6" spans="1:20" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="457" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="458" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="459" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="458" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="458" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="460" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="461" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="462" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="20"/>
+      <c r="J6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
@@ -10476,47 +10499,21 @@
       <c r="S6" s="12"/>
       <c r="T6" s="12"/>
     </row>
-    <row r="7" spans="1:20" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="458" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="459" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="460" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="459" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="459" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="461" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="462" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="463" t="s">
-        <v>22</v>
-      </c>
+    <row r="7" spans="1:20" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="452"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="446"/>
       <c r="I7" s="20"/>
-      <c r="J7" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>30</v>
-      </c>
+      <c r="J7" s="21"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
@@ -10524,21 +10521,27 @@
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
     </row>
-    <row r="8" spans="1:20" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="453"/>
-      <c r="B8" s="154"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="447"/>
+    <row r="8" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="444"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="172"/>
+      <c r="H8" s="445"/>
       <c r="I8" s="20"/>
       <c r="J8" s="21"/>
       <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
+      <c r="L8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
@@ -10547,26 +10550,20 @@
       <c r="T8" s="12"/>
     </row>
     <row r="9" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="445"/>
-      <c r="B9" s="171"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="172"/>
+      <c r="A9" s="444"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
       <c r="H9" s="446"/>
       <c r="I9" s="20"/>
       <c r="J9" s="21"/>
       <c r="K9" s="13"/>
-      <c r="L9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>26</v>
-      </c>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
@@ -10574,59 +10571,59 @@
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
     </row>
-    <row r="10" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="445"/>
+    <row r="10" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="444"/>
       <c r="B10" s="27"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
-      <c r="H10" s="447"/>
+      <c r="H10" s="446"/>
       <c r="I10" s="20"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-    </row>
-    <row r="11" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="445"/>
+      <c r="J10" s="179"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="444"/>
       <c r="B11" s="27"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
-      <c r="H11" s="447"/>
+      <c r="H11" s="446"/>
       <c r="I11" s="20"/>
-      <c r="J11" s="179"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="J11" s="21"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
     </row>
     <row r="12" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="445"/>
+      <c r="A12" s="444"/>
       <c r="B12" s="27"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
       <c r="G12" s="28"/>
-      <c r="H12" s="447"/>
+      <c r="H12" s="446"/>
       <c r="I12" s="20"/>
       <c r="J12" s="21"/>
       <c r="K12" s="13"/>
@@ -10641,14 +10638,14 @@
       <c r="T12" s="12"/>
     </row>
     <row r="13" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="445"/>
+      <c r="A13" s="444"/>
       <c r="B13" s="27"/>
       <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="156"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="447"/>
+      <c r="D13" s="152"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="211"/>
+      <c r="G13" s="171"/>
+      <c r="H13" s="446"/>
       <c r="I13" s="20"/>
       <c r="J13" s="21"/>
       <c r="K13" s="13"/>
@@ -10663,14 +10660,14 @@
       <c r="T13" s="12"/>
     </row>
     <row r="14" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="445"/>
+      <c r="A14" s="444"/>
       <c r="B14" s="27"/>
       <c r="C14" s="28"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="211"/>
-      <c r="G14" s="171"/>
-      <c r="H14" s="447"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="446"/>
       <c r="I14" s="20"/>
       <c r="J14" s="21"/>
       <c r="K14" s="13"/>
@@ -10685,14 +10682,14 @@
       <c r="T14" s="12"/>
     </row>
     <row r="15" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="445"/>
+      <c r="A15" s="444"/>
       <c r="B15" s="27"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="153"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
       <c r="G15" s="28"/>
-      <c r="H15" s="447"/>
+      <c r="H15" s="446"/>
       <c r="I15" s="20"/>
       <c r="J15" s="21"/>
       <c r="K15" s="13"/>
@@ -10706,89 +10703,89 @@
       <c r="S15" s="12"/>
       <c r="T15" s="12"/>
     </row>
-    <row r="16" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="445"/>
+    <row r="16" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="444"/>
       <c r="B16" s="27"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
-      <c r="H16" s="447"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-    </row>
-    <row r="17" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="445"/>
+      <c r="H16" s="446"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="155"/>
+      <c r="M16" s="155"/>
+      <c r="N16" s="155"/>
+    </row>
+    <row r="17" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="444"/>
       <c r="B17" s="27"/>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
-      <c r="H17" s="447"/>
-      <c r="J17" s="155"/>
-      <c r="K17" s="155"/>
-      <c r="L17" s="155"/>
-      <c r="M17" s="155"/>
-      <c r="N17" s="155"/>
-    </row>
-    <row r="18" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="445"/>
+      <c r="H17" s="446"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+    </row>
+    <row r="18" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="444"/>
       <c r="B18" s="27"/>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
-      <c r="H18" s="447"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-    </row>
-    <row r="19" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="445"/>
+      <c r="H18" s="446"/>
+      <c r="J18" s="155"/>
+      <c r="K18" s="155"/>
+      <c r="L18" s="155"/>
+      <c r="M18" s="155"/>
+      <c r="N18" s="155"/>
+    </row>
+    <row r="19" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="444"/>
       <c r="B19" s="27"/>
       <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
+      <c r="D19" s="156"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
-      <c r="H19" s="447"/>
-      <c r="J19" s="155"/>
-      <c r="K19" s="155"/>
-      <c r="L19" s="155"/>
-      <c r="M19" s="155"/>
-      <c r="N19" s="155"/>
+      <c r="H19" s="446"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
     </row>
     <row r="20" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="445"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="447"/>
+      <c r="A20" s="444"/>
+      <c r="B20" s="203"/>
+      <c r="C20" s="204"/>
+      <c r="D20" s="205"/>
+      <c r="E20" s="179"/>
+      <c r="F20" s="206"/>
+      <c r="G20" s="207"/>
+      <c r="H20" s="448"/>
       <c r="I20" s="20"/>
       <c r="J20" s="21"/>
       <c r="K20" s="13"/>
@@ -10803,14 +10800,14 @@
       <c r="T20" s="12"/>
     </row>
     <row r="21" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="445"/>
-      <c r="B21" s="203"/>
-      <c r="C21" s="204"/>
-      <c r="D21" s="205"/>
-      <c r="E21" s="179"/>
-      <c r="F21" s="206"/>
-      <c r="G21" s="207"/>
-      <c r="H21" s="449"/>
+      <c r="A21" s="444"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="446"/>
       <c r="I21" s="20"/>
       <c r="J21" s="21"/>
       <c r="K21" s="13"/>
@@ -10825,14 +10822,14 @@
       <c r="T21" s="12"/>
     </row>
     <row r="22" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="445"/>
+      <c r="A22" s="444"/>
       <c r="B22" s="27"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
-      <c r="H22" s="447"/>
+      <c r="H22" s="446"/>
       <c r="I22" s="20"/>
       <c r="J22" s="21"/>
       <c r="K22" s="13"/>
@@ -10847,14 +10844,14 @@
       <c r="T22" s="12"/>
     </row>
     <row r="23" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="445"/>
+      <c r="A23" s="444"/>
       <c r="B23" s="27"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="447"/>
+      <c r="H23" s="446"/>
       <c r="I23" s="20"/>
       <c r="J23" s="21"/>
       <c r="K23" s="13"/>
@@ -10869,14 +10866,14 @@
       <c r="T23" s="12"/>
     </row>
     <row r="24" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="445"/>
+      <c r="A24" s="444"/>
       <c r="B24" s="27"/>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
-      <c r="H24" s="447"/>
+      <c r="H24" s="446"/>
       <c r="I24" s="20"/>
       <c r="J24" s="21"/>
       <c r="K24" s="13"/>
@@ -10891,52 +10888,52 @@
       <c r="T24" s="12"/>
     </row>
     <row r="25" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="445"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="447"/>
+      <c r="A25" s="444"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="208"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="449"/>
       <c r="I25" s="20"/>
       <c r="J25" s="21"/>
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
     </row>
     <row r="26" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="445"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="208"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="450"/>
+      <c r="A26" s="444"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="446"/>
       <c r="I26" s="20"/>
       <c r="J26" s="21"/>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
     </row>
     <row r="27" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="445"/>
+      <c r="A27" s="444"/>
       <c r="B27" s="27"/>
       <c r="C27" s="28"/>
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
-      <c r="H27" s="447"/>
+      <c r="H27" s="446"/>
       <c r="I27" s="20"/>
       <c r="J27" s="21"/>
       <c r="K27" s="13"/>
@@ -10951,14 +10948,14 @@
       <c r="T27" s="12"/>
     </row>
     <row r="28" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="445"/>
+      <c r="A28" s="444"/>
       <c r="B28" s="27"/>
       <c r="C28" s="28"/>
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
-      <c r="H28" s="447"/>
+      <c r="H28" s="446"/>
       <c r="I28" s="20"/>
       <c r="J28" s="21"/>
       <c r="K28" s="13"/>
@@ -10973,14 +10970,14 @@
       <c r="T28" s="12"/>
     </row>
     <row r="29" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="445"/>
+      <c r="A29" s="444"/>
       <c r="B29" s="27"/>
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
-      <c r="H29" s="447"/>
+      <c r="H29" s="446"/>
       <c r="I29" s="20"/>
       <c r="J29" s="21"/>
       <c r="K29" s="13"/>
@@ -10995,14 +10992,14 @@
       <c r="T29" s="12"/>
     </row>
     <row r="30" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="445"/>
+      <c r="A30" s="444"/>
       <c r="B30" s="27"/>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
       <c r="G30" s="28"/>
-      <c r="H30" s="447"/>
+      <c r="H30" s="446"/>
       <c r="I30" s="20"/>
       <c r="J30" s="21"/>
       <c r="K30" s="13"/>
@@ -11017,14 +11014,14 @@
       <c r="T30" s="12"/>
     </row>
     <row r="31" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="445"/>
+      <c r="A31" s="444"/>
       <c r="B31" s="27"/>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
-      <c r="H31" s="447"/>
+      <c r="H31" s="446"/>
       <c r="I31" s="20"/>
       <c r="J31" s="21"/>
       <c r="K31" s="13"/>
@@ -11039,14 +11036,14 @@
       <c r="T31" s="12"/>
     </row>
     <row r="32" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="445"/>
+      <c r="A32" s="444"/>
       <c r="B32" s="27"/>
       <c r="C32" s="28"/>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
+      <c r="F32" s="9"/>
       <c r="G32" s="28"/>
-      <c r="H32" s="447"/>
+      <c r="H32" s="446"/>
       <c r="I32" s="20"/>
       <c r="J32" s="21"/>
       <c r="K32" s="13"/>
@@ -11061,14 +11058,14 @@
       <c r="T32" s="12"/>
     </row>
     <row r="33" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="445"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="447"/>
+      <c r="A33" s="450"/>
+      <c r="B33" s="177"/>
+      <c r="C33" s="156"/>
+      <c r="D33" s="156"/>
+      <c r="E33" s="156"/>
+      <c r="F33" s="156"/>
+      <c r="G33" s="156"/>
+      <c r="H33" s="451"/>
       <c r="I33" s="20"/>
       <c r="J33" s="21"/>
       <c r="K33" s="13"/>
@@ -11083,14 +11080,14 @@
       <c r="T33" s="12"/>
     </row>
     <row r="34" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="451"/>
-      <c r="B34" s="177"/>
-      <c r="C34" s="156"/>
-      <c r="D34" s="156"/>
-      <c r="E34" s="156"/>
-      <c r="F34" s="156"/>
-      <c r="G34" s="156"/>
-      <c r="H34" s="452"/>
+      <c r="A34" s="444"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="447"/>
       <c r="I34" s="20"/>
       <c r="J34" s="21"/>
       <c r="K34" s="13"/>
@@ -11105,14 +11102,14 @@
       <c r="T34" s="12"/>
     </row>
     <row r="35" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="445"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="448"/>
+      <c r="A35" s="452"/>
+      <c r="B35" s="178"/>
+      <c r="C35" s="178"/>
+      <c r="D35" s="178"/>
+      <c r="E35" s="178"/>
+      <c r="F35" s="178"/>
+      <c r="G35" s="178"/>
+      <c r="H35" s="453"/>
       <c r="I35" s="20"/>
       <c r="J35" s="21"/>
       <c r="K35" s="13"/>
@@ -11126,15 +11123,15 @@
       <c r="S35" s="12"/>
       <c r="T35" s="12"/>
     </row>
-    <row r="36" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="453"/>
-      <c r="B36" s="178"/>
-      <c r="C36" s="178"/>
-      <c r="D36" s="178"/>
-      <c r="E36" s="178"/>
-      <c r="F36" s="178"/>
-      <c r="G36" s="178"/>
-      <c r="H36" s="454"/>
+    <row r="36" spans="1:20" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="454"/>
+      <c r="B36" s="455"/>
+      <c r="C36" s="455"/>
+      <c r="D36" s="455"/>
+      <c r="E36" s="455"/>
+      <c r="F36" s="455"/>
+      <c r="G36" s="455"/>
+      <c r="H36" s="456"/>
       <c r="I36" s="20"/>
       <c r="J36" s="21"/>
       <c r="K36" s="13"/>
@@ -11148,31 +11145,30 @@
       <c r="S36" s="12"/>
       <c r="T36" s="12"/>
     </row>
-    <row r="37" spans="1:20" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="455"/>
-      <c r="B37" s="456"/>
-      <c r="C37" s="456"/>
-      <c r="D37" s="456"/>
-      <c r="E37" s="456"/>
-      <c r="F37" s="456"/>
-      <c r="G37" s="456"/>
-      <c r="H37" s="457"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
+    <row r="37" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="165"/>
+      <c r="K37" s="165"/>
+      <c r="L37" s="165"/>
+      <c r="M37" s="165"/>
+      <c r="N37" s="165"/>
     </row>
     <row r="38" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
+      <c r="A38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="23">
+        <f>COUNTA(B7:B36)</f>
+        <v>0</v>
+      </c>
       <c r="C38" s="18"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
@@ -11180,20 +11176,15 @@
       <c r="G38" s="22"/>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
-      <c r="J38" s="165"/>
-      <c r="K38" s="165"/>
-      <c r="L38" s="165"/>
-      <c r="M38" s="165"/>
-      <c r="N38" s="165"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
     </row>
     <row r="39" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="23">
-        <f>COUNTA(B8:B37)</f>
-        <v>0</v>
-      </c>
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
       <c r="C39" s="18"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
@@ -11207,21 +11198,8 @@
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
     </row>
-    <row r="40" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
+    <row r="40" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="G40" s="22"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
     </row>
     <row r="41" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="G41" s="22"/>
@@ -11229,13 +11207,10 @@
     <row r="42" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="G42" s="22"/>
     </row>
-    <row r="43" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="G43" s="22"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:G37">
-    <sortCondition ref="B9:B37"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:G36">
+    <sortCondition ref="B8:B36"/>
   </sortState>
   <mergeCells count="5">
     <mergeCell ref="G2:H4"/>
@@ -11245,7 +11220,7 @@
     <mergeCell ref="D3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="56" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="35" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>

--- a/templates/entry_list_template.xlsx
+++ b/templates/entry_list_template.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brendanwoo/projects/sro_sign_in/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C51575-2D3B-1E48-993E-67595F7E1A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5584E30-356D-C245-ACE1-E77730B6F960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{542D648B-9180-43EF-9053-182057C63D4C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{542D648B-9180-43EF-9053-182057C63D4C}"/>
   </bookViews>
   <sheets>
     <sheet name="GTWCA" sheetId="10" r:id="rId1"/>
-    <sheet name="GTAM" sheetId="5" r:id="rId2"/>
-    <sheet name="PGT4A" sheetId="6" r:id="rId3"/>
+    <sheet name="PGT4A" sheetId="6" r:id="rId2"/>
+    <sheet name="GTAM" sheetId="5" r:id="rId3"/>
     <sheet name="TCAM" sheetId="11" r:id="rId4"/>
     <sheet name="GR Cup" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'GR Cup'!$A$1:$H$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">GTAM!$A$2:$J$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">GTAM!$A$2:$J$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">GTWCA!$A$2:$N$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">PGT4A!$A$1:$N$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">PGT4A!$A$1:$N$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">TCAM!$A$2:$H$37</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -149,7 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="63" x14ac:knownFonts="1">
+  <fonts count="66" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,6 +557,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1763,7 +1783,7 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="56" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="510">
+  <cellXfs count="526">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2732,30 +2752,15 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2768,33 +2773,9 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2807,12 +2788,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2828,15 +2803,6 @@
     <xf numFmtId="0" fontId="57" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2906,18 +2872,6 @@
     <xf numFmtId="0" fontId="58" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2933,35 +2887,245 @@
     <xf numFmtId="49" fontId="31" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="91" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="91" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="90" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="61" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="62" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="59" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="60" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="62" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="61" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="61" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="62" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="62" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="59" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="61" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="62" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="62" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="60" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="59" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2984,244 +3148,148 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="61" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="62" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="59" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="60" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="62" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="61" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="61" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="62" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="62" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="59" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="61" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="62" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="62" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="60" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="59" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="91" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="91" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="90" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="61" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3235,29 +3303,39 @@
   <dxfs count="66">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
+        <sz val="16"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
-        <right style="thick">
-          <color auto="1"/>
+        <right style="thin">
+          <color indexed="64"/>
         </right>
         <top style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </top>
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -3268,7 +3346,35 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -3301,7 +3407,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
+        <sz val="16"/>
         <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -3332,35 +3438,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -3370,39 +3447,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
+        <sz val="16"/>
         <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -3423,7 +3468,9 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -3440,7 +3487,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
+        <sz val="16"/>
         <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -3480,7 +3527,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
+        <sz val="16"/>
         <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -3516,429 +3563,26 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thick">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thick">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thick">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thick">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thick">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thick">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
+        <sz val="16"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color rgb="FF000000"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -4546,6 +4190,426 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thick">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thick">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thick">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thick">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -5255,6 +5319,122 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>143565</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>361673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133882</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CF1385E-253A-47AA-BE07-EC9BF7753628}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="143565" y="552173"/>
+          <a:ext cx="3990817" cy="940077"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>164227</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>257449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>809487</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>396875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25852A11-DF67-474F-9384-7244EFE161D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14975602" y="447949"/>
+          <a:ext cx="3661510" cy="1282426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>51975</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -5363,122 +5543,6 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>143565</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>361673</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>133882</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CF1385E-253A-47AA-BE07-EC9BF7753628}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="143565" y="552173"/>
-          <a:ext cx="3990817" cy="940077"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>164227</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>257449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>809487</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>396875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25852A11-DF67-474F-9384-7244EFE161D0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="14975602" y="447949"/>
-          <a:ext cx="3661510" cy="1282426"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -5744,66 +5808,66 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EEF14E4E-087A-46C7-831D-A668229E00D6}" name="Table226" displayName="Table226" ref="A6:J37" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:J40">
-    <sortCondition descending="1" ref="J8:J40"/>
-    <sortCondition ref="B8:B40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{56F25BC1-6701-4669-AC0F-E1673995674A}" name="Table2267" displayName="Table2267" ref="A6:N38" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:N39">
+    <sortCondition ref="B9:B39"/>
   </sortState>
-  <tableColumns count="10">
-    <tableColumn id="2" xr3:uid="{29DF6422-9DDA-4F8F-8BEE-5184D2457B57}" name="Series" dataDxfId="9" dataCellStyle="Neutral"/>
-    <tableColumn id="10" xr3:uid="{1486B7A1-2318-4A69-93B1-14B85F40C988}" name="Car #" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{9FCCBAF6-EB7D-44F1-ADEC-A2DF74A549AE}" name="Team " dataDxfId="7" dataCellStyle="Neutral"/>
-    <tableColumn id="4" xr3:uid="{5972D2A1-6086-4595-9053-F6AB4ABD85A7}" name="Driver 1" dataDxfId="6" dataCellStyle="Neutral"/>
-    <tableColumn id="5" xr3:uid="{0273D45B-C8FF-4DBF-A963-B72D55D93954}" name="NAT" dataDxfId="5" dataCellStyle="Neutral"/>
-    <tableColumn id="13" xr3:uid="{26D97A36-D7BA-4D93-9A44-CC528D4BDC4F}" name="LIC " dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{AC25B573-C8BF-40ED-8E09-71D35117CA3A}" name="CAT" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{C3A46578-AA4D-4C94-B592-5AC371A17E14}" name="Car Sponsors" dataDxfId="2" dataCellStyle="Neutral"/>
-    <tableColumn id="7" xr3:uid="{7B3018A6-2A70-4C3E-BE5C-CCFFCABD4796}" name="Car Make/Model" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{C0209330-55B6-42D3-AB23-D1C37AFC6FDA}" name="Class" dataDxfId="0"/>
+  <tableColumns count="14">
+    <tableColumn id="2" xr3:uid="{86C7766F-C815-4642-A792-C792E5CD9B1D}" name="Series" dataDxfId="26" dataCellStyle="Neutral"/>
+    <tableColumn id="10" xr3:uid="{B0849F24-6597-4E76-94D7-2D7E93B5B7E1}" name="Car #" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{C0375D1B-A6A9-4878-94F1-144B367DBFAE}" name="Team " dataDxfId="24" dataCellStyle="Neutral"/>
+    <tableColumn id="4" xr3:uid="{731AF936-9BBC-4114-AF94-6737C2C799AD}" name="Driver 1" dataDxfId="23" dataCellStyle="Neutral"/>
+    <tableColumn id="5" xr3:uid="{4AAAC599-A742-4343-8BE4-F0207EAEB236}" name="NAT" dataDxfId="22" dataCellStyle="Neutral"/>
+    <tableColumn id="13" xr3:uid="{46C8C08D-7690-4908-8D68-9031FA1AAB13}" name="LIC " dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{0B42790F-CF16-4A79-97F6-02353851B814}" name="CAT" dataDxfId="20"/>
+    <tableColumn id="12" xr3:uid="{4393EDC9-8099-4851-8BA5-F88B5093FA18}" name="Driver 2" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{022A346F-1EFC-477E-B3FF-234F17FB995D}" name="  NAT " dataDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{4A5DA010-C6D1-49CE-8487-00AC7C736274}" name=" LIC " dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{15D47E2B-7108-41F5-BB6D-FABBD704C2C8}" name="CAT " dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{5F578104-8A47-4C21-AE4F-A41AFD51CA17}" name="Car Sponsors" dataDxfId="15" dataCellStyle="Neutral"/>
+    <tableColumn id="7" xr3:uid="{37BFAE36-6B5E-4D59-B805-2A4B37B829ED}" name="Car Make/Model" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{C4134C49-64E4-4B01-865E-C1B755B7D04A}" name="Championship" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{56F25BC1-6701-4669-AC0F-E1673995674A}" name="Table2267" displayName="Table2267" ref="A6:N38" totalsRowShown="0" headerRowDxfId="45" headerRowBorderDxfId="44" tableBorderDxfId="43" totalsRowBorderDxfId="42">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:N39">
-    <sortCondition ref="B9:B39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EEF14E4E-087A-46C7-831D-A668229E00D6}" name="Table226" displayName="Table226" ref="A6:J37" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42" totalsRowBorderDxfId="41">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:J40">
+    <sortCondition descending="1" ref="J8:J40"/>
+    <sortCondition ref="B8:B40"/>
   </sortState>
-  <tableColumns count="14">
-    <tableColumn id="2" xr3:uid="{86C7766F-C815-4642-A792-C792E5CD9B1D}" name="Series" dataDxfId="41" dataCellStyle="Neutral"/>
-    <tableColumn id="10" xr3:uid="{B0849F24-6597-4E76-94D7-2D7E93B5B7E1}" name="Car #" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{C0375D1B-A6A9-4878-94F1-144B367DBFAE}" name="Team " dataDxfId="39" dataCellStyle="Neutral"/>
-    <tableColumn id="4" xr3:uid="{731AF936-9BBC-4114-AF94-6737C2C799AD}" name="Driver 1" dataDxfId="38" dataCellStyle="Neutral"/>
-    <tableColumn id="5" xr3:uid="{4AAAC599-A742-4343-8BE4-F0207EAEB236}" name="NAT" dataDxfId="37" dataCellStyle="Neutral"/>
-    <tableColumn id="13" xr3:uid="{46C8C08D-7690-4908-8D68-9031FA1AAB13}" name="LIC " dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{0B42790F-CF16-4A79-97F6-02353851B814}" name="CAT" dataDxfId="35"/>
-    <tableColumn id="12" xr3:uid="{4393EDC9-8099-4851-8BA5-F88B5093FA18}" name="Driver 2" dataDxfId="34"/>
-    <tableColumn id="11" xr3:uid="{022A346F-1EFC-477E-B3FF-234F17FB995D}" name="  NAT " dataDxfId="33"/>
-    <tableColumn id="14" xr3:uid="{4A5DA010-C6D1-49CE-8487-00AC7C736274}" name=" LIC " dataDxfId="32"/>
-    <tableColumn id="1" xr3:uid="{15D47E2B-7108-41F5-BB6D-FABBD704C2C8}" name="CAT " dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{5F578104-8A47-4C21-AE4F-A41AFD51CA17}" name="Car Sponsors" dataDxfId="30" dataCellStyle="Neutral"/>
-    <tableColumn id="7" xr3:uid="{37BFAE36-6B5E-4D59-B805-2A4B37B829ED}" name="Car Make/Model" dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{C4134C49-64E4-4B01-865E-C1B755B7D04A}" name="Championship" dataDxfId="28"/>
+  <tableColumns count="10">
+    <tableColumn id="2" xr3:uid="{29DF6422-9DDA-4F8F-8BEE-5184D2457B57}" name="Series" dataDxfId="40" dataCellStyle="Neutral"/>
+    <tableColumn id="10" xr3:uid="{1486B7A1-2318-4A69-93B1-14B85F40C988}" name="Car #" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{9FCCBAF6-EB7D-44F1-ADEC-A2DF74A549AE}" name="Team " dataDxfId="38" dataCellStyle="Neutral"/>
+    <tableColumn id="4" xr3:uid="{5972D2A1-6086-4595-9053-F6AB4ABD85A7}" name="Driver 1" dataDxfId="37" dataCellStyle="Neutral"/>
+    <tableColumn id="5" xr3:uid="{0273D45B-C8FF-4DBF-A963-B72D55D93954}" name="NAT" dataDxfId="36" dataCellStyle="Neutral"/>
+    <tableColumn id="13" xr3:uid="{26D97A36-D7BA-4D93-9A44-CC528D4BDC4F}" name="LIC " dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{AC25B573-C8BF-40ED-8E09-71D35117CA3A}" name="CAT" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{C3A46578-AA4D-4C94-B592-5AC371A17E14}" name="Car Sponsors" dataDxfId="33" dataCellStyle="Neutral"/>
+    <tableColumn id="7" xr3:uid="{7B3018A6-2A70-4C3E-BE5C-CCFFCABD4796}" name="Car Make/Model" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{C0209330-55B6-42D3-AB23-D1C37AFC6FDA}" name="Class" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{11330F46-3971-7D44-8FE5-B039A90EF352}" name="Table22683" displayName="Table22683" ref="A6:H34" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{11330F46-3971-7D44-8FE5-B039A90EF352}" name="Table22683" displayName="Table22683" ref="A6:H34" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:H35">
     <sortCondition descending="1" ref="H12:H35"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="2" xr3:uid="{459DFC46-4742-6E42-8DBB-A583077730B7}" name="Series" dataDxfId="22" dataCellStyle="Neutral"/>
-    <tableColumn id="10" xr3:uid="{A735E01E-C722-8046-A3A7-EB4B8E9856D0}" name="Car #" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{6858B568-BE7E-DA44-A760-6A0FEC2B9951}" name="Team " dataDxfId="20" dataCellStyle="Neutral"/>
-    <tableColumn id="4" xr3:uid="{9302466E-96CC-B845-817B-5E7790246EEA}" name="Driver" dataDxfId="19" dataCellStyle="Neutral"/>
-    <tableColumn id="5" xr3:uid="{6F60649D-7A1A-6B47-AF8B-CDFA61A10C71}" name="NAT" dataDxfId="18" dataCellStyle="Neutral"/>
-    <tableColumn id="8" xr3:uid="{8224E110-2012-0E4B-A25F-B837877427FA}" name="Car Sponsors" dataDxfId="17" dataCellStyle="Neutral"/>
-    <tableColumn id="7" xr3:uid="{3ADFDE9D-B3A8-2D47-8CAD-6E4FB830231A}" name="Car Make/Model" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{B7E977BD-C739-704E-A4EB-5D75989E1112}" name="Class" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{459DFC46-4742-6E42-8DBB-A583077730B7}" name="Series" dataDxfId="0" dataCellStyle="Neutral"/>
+    <tableColumn id="10" xr3:uid="{A735E01E-C722-8046-A3A7-EB4B8E9856D0}" name="Car #" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{6858B568-BE7E-DA44-A760-6A0FEC2B9951}" name="Team " dataDxfId="6" dataCellStyle="Neutral"/>
+    <tableColumn id="4" xr3:uid="{9302466E-96CC-B845-817B-5E7790246EEA}" name="Driver" dataDxfId="5" dataCellStyle="Neutral"/>
+    <tableColumn id="5" xr3:uid="{6F60649D-7A1A-6B47-AF8B-CDFA61A10C71}" name="NAT" dataDxfId="4" dataCellStyle="Neutral"/>
+    <tableColumn id="8" xr3:uid="{8224E110-2012-0E4B-A25F-B837877427FA}" name="Car Sponsors" dataDxfId="3" dataCellStyle="Neutral"/>
+    <tableColumn id="7" xr3:uid="{3ADFDE9D-B3A8-2D47-8CAD-6E4FB830231A}" name="Car Make/Model" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{B7E977BD-C739-704E-A4EB-5D75989E1112}" name="Class" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6134,21 +6198,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="423"/>
-      <c r="B2" s="423"/>
-      <c r="C2" s="423"/>
+      <c r="A2" s="471"/>
+      <c r="B2" s="471"/>
+      <c r="C2" s="471"/>
       <c r="F2" s="184"/>
       <c r="G2" s="184"/>
       <c r="H2" s="177"/>
       <c r="I2" s="184"/>
       <c r="J2" s="184"/>
-      <c r="M2" s="423"/>
-      <c r="N2" s="423"/>
+      <c r="M2" s="471"/>
+      <c r="N2" s="471"/>
     </row>
     <row r="3" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="423"/>
-      <c r="B3" s="423"/>
-      <c r="C3" s="423"/>
+      <c r="A3" s="471"/>
+      <c r="B3" s="471"/>
+      <c r="C3" s="471"/>
       <c r="F3" s="184"/>
       <c r="G3" s="184"/>
       <c r="H3" s="177" t="s">
@@ -6156,31 +6220,31 @@
       </c>
       <c r="I3" s="184"/>
       <c r="J3" s="184"/>
-      <c r="M3" s="423"/>
-      <c r="N3" s="423"/>
+      <c r="M3" s="471"/>
+      <c r="N3" s="471"/>
     </row>
     <row r="4" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="423"/>
-      <c r="B4" s="423"/>
-      <c r="C4" s="423"/>
+      <c r="A4" s="471"/>
+      <c r="B4" s="471"/>
+      <c r="C4" s="471"/>
       <c r="F4" s="184"/>
       <c r="G4" s="184"/>
       <c r="H4" s="177"/>
       <c r="I4" s="184"/>
       <c r="J4" s="184"/>
-      <c r="M4" s="423"/>
-      <c r="N4" s="423"/>
+      <c r="M4" s="471"/>
+      <c r="N4" s="471"/>
     </row>
     <row r="5" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="R5" s="423" t="s">
+      <c r="R5" s="471" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="423"/>
-      <c r="T5" s="423"/>
-      <c r="U5" s="423"/>
-      <c r="V5" s="423"/>
-      <c r="W5" s="423"/>
-      <c r="X5" s="423"/>
+      <c r="S5" s="471"/>
+      <c r="T5" s="471"/>
+      <c r="U5" s="471"/>
+      <c r="V5" s="471"/>
+      <c r="W5" s="471"/>
+      <c r="X5" s="471"/>
     </row>
     <row r="6" spans="1:24" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6" s="226" t="s">
@@ -6821,735 +6885,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85FEBD50-9ECF-4D52-B6BF-7430521747DA}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:R41"/>
-  <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScale="80" zoomScaleNormal="90" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="3" max="3" width="38.5" customWidth="1"/>
-    <col min="4" max="4" width="51.6640625" customWidth="1"/>
-    <col min="5" max="6" width="8.6640625" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="9" width="35.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" style="96" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" customWidth="1"/>
-    <col min="17" max="18" width="8.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="424"/>
-      <c r="B2" s="424"/>
-      <c r="C2" s="424"/>
-      <c r="D2" s="425"/>
-      <c r="E2" s="425"/>
-      <c r="F2" s="425"/>
-      <c r="G2" s="425"/>
-      <c r="H2" s="425"/>
-      <c r="I2" s="424"/>
-      <c r="J2" s="424"/>
-    </row>
-    <row r="3" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="424"/>
-      <c r="B3" s="424"/>
-      <c r="C3" s="424"/>
-      <c r="D3" s="425" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="425"/>
-      <c r="F3" s="425"/>
-      <c r="G3" s="425"/>
-      <c r="H3" s="425"/>
-      <c r="I3" s="424"/>
-      <c r="J3" s="424"/>
-    </row>
-    <row r="4" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="424"/>
-      <c r="B4" s="424"/>
-      <c r="C4" s="424"/>
-      <c r="D4" s="425"/>
-      <c r="E4" s="425"/>
-      <c r="F4" s="425"/>
-      <c r="G4" s="425"/>
-      <c r="H4" s="425"/>
-      <c r="I4" s="424"/>
-      <c r="J4" s="424"/>
-    </row>
-    <row r="5" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N5" s="424" t="s">
-        <v>0</v>
-      </c>
-      <c r="O5" s="424"/>
-      <c r="P5" s="424"/>
-      <c r="Q5" s="424"/>
-      <c r="R5" s="424"/>
-    </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" s="194" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="163" t="s">
-        <v>13</v>
-      </c>
-      <c r="P6" s="163" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q6" s="163" t="s">
-        <v>15</v>
-      </c>
-      <c r="R6" s="169" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="54" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="430"/>
-      <c r="B7" s="437"/>
-      <c r="C7" s="438"/>
-      <c r="D7" s="439"/>
-      <c r="E7" s="438"/>
-      <c r="F7" s="438"/>
-      <c r="G7" s="439"/>
-      <c r="H7" s="440"/>
-      <c r="I7" s="441"/>
-      <c r="J7" s="438"/>
-      <c r="N7" s="195"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="196"/>
-    </row>
-    <row r="8" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="430"/>
-      <c r="B8" s="442"/>
-      <c r="C8" s="443"/>
-      <c r="D8" s="443"/>
-      <c r="E8" s="443"/>
-      <c r="F8" s="444"/>
-      <c r="G8" s="443"/>
-      <c r="H8" s="443"/>
-      <c r="I8" s="443"/>
-      <c r="J8" s="443"/>
-      <c r="N8" s="195"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="197"/>
-    </row>
-    <row r="9" spans="1:18" s="32" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="431"/>
-      <c r="B9" s="445"/>
-      <c r="C9" s="446"/>
-      <c r="D9" s="447"/>
-      <c r="E9" s="447"/>
-      <c r="F9" s="447"/>
-      <c r="G9" s="447"/>
-      <c r="H9" s="448"/>
-      <c r="I9" s="449"/>
-      <c r="J9" s="447"/>
-      <c r="N9" s="198"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="199"/>
-    </row>
-    <row r="10" spans="1:18" s="32" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="432"/>
-      <c r="B10" s="450"/>
-      <c r="C10" s="451"/>
-      <c r="D10" s="451"/>
-      <c r="E10" s="452"/>
-      <c r="F10" s="453"/>
-      <c r="G10" s="454"/>
-      <c r="H10" s="455"/>
-      <c r="I10" s="454"/>
-      <c r="J10" s="456"/>
-      <c r="N10" s="198"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="199"/>
-    </row>
-    <row r="11" spans="1:18" s="43" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="433"/>
-      <c r="B11" s="457"/>
-      <c r="C11" s="458"/>
-      <c r="D11" s="459"/>
-      <c r="E11" s="459"/>
-      <c r="F11" s="458"/>
-      <c r="G11" s="458"/>
-      <c r="H11" s="460"/>
-      <c r="I11" s="461"/>
-      <c r="J11" s="458"/>
-      <c r="N11" s="198"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="200"/>
-    </row>
-    <row r="12" spans="1:18" s="43" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="433"/>
-      <c r="B12" s="462"/>
-      <c r="C12" s="451"/>
-      <c r="D12" s="451"/>
-      <c r="E12" s="452"/>
-      <c r="F12" s="453"/>
-      <c r="G12" s="463"/>
-      <c r="H12" s="464"/>
-      <c r="I12" s="463"/>
-      <c r="J12" s="456"/>
-      <c r="N12" s="198"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="200"/>
-    </row>
-    <row r="13" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="430"/>
-      <c r="B13" s="442"/>
-      <c r="C13" s="443"/>
-      <c r="D13" s="443"/>
-      <c r="E13" s="443"/>
-      <c r="F13" s="444"/>
-      <c r="G13" s="443"/>
-      <c r="H13" s="443"/>
-      <c r="I13" s="443"/>
-      <c r="J13" s="443"/>
-      <c r="N13" s="201"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="103"/>
-      <c r="Q13" s="104"/>
-      <c r="R13" s="202"/>
-    </row>
-    <row r="14" spans="1:18" s="105" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="431"/>
-      <c r="B14" s="446"/>
-      <c r="C14" s="446"/>
-      <c r="D14" s="446"/>
-      <c r="E14" s="446"/>
-      <c r="F14" s="446"/>
-      <c r="G14" s="465"/>
-      <c r="H14" s="466"/>
-      <c r="I14" s="446"/>
-      <c r="J14" s="467"/>
-      <c r="N14" s="203"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="106"/>
-      <c r="Q14" s="106"/>
-      <c r="R14" s="204"/>
-    </row>
-    <row r="15" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="430"/>
-      <c r="B15" s="468"/>
-      <c r="C15" s="469"/>
-      <c r="D15" s="469"/>
-      <c r="E15" s="469"/>
-      <c r="F15" s="470"/>
-      <c r="G15" s="468"/>
-      <c r="H15" s="469"/>
-      <c r="I15" s="469"/>
-      <c r="J15" s="469"/>
-      <c r="N15" s="195"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="196"/>
-    </row>
-    <row r="16" spans="1:18" s="89" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="430"/>
-      <c r="B16" s="471"/>
-      <c r="C16" s="443"/>
-      <c r="D16" s="443"/>
-      <c r="E16" s="443"/>
-      <c r="F16" s="472"/>
-      <c r="G16" s="443"/>
-      <c r="H16" s="443"/>
-      <c r="I16" s="458"/>
-      <c r="J16" s="443"/>
-      <c r="N16" s="205"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="90"/>
-      <c r="R16" s="206"/>
-    </row>
-    <row r="17" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="430"/>
-      <c r="B17" s="471"/>
-      <c r="C17" s="443"/>
-      <c r="D17" s="443"/>
-      <c r="E17" s="443"/>
-      <c r="F17" s="444"/>
-      <c r="G17" s="473"/>
-      <c r="H17" s="474"/>
-      <c r="I17" s="474"/>
-      <c r="J17" s="443"/>
-      <c r="N17" s="195"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="207"/>
-    </row>
-    <row r="18" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="430"/>
-      <c r="B18" s="463"/>
-      <c r="C18" s="451"/>
-      <c r="D18" s="451"/>
-      <c r="E18" s="452"/>
-      <c r="F18" s="453"/>
-      <c r="G18" s="463"/>
-      <c r="H18" s="464"/>
-      <c r="I18" s="463"/>
-      <c r="J18" s="456"/>
-      <c r="N18" s="195"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="197"/>
-    </row>
-    <row r="19" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="434"/>
-      <c r="B19" s="454"/>
-      <c r="C19" s="475"/>
-      <c r="D19" s="475"/>
-      <c r="E19" s="476"/>
-      <c r="F19" s="453"/>
-      <c r="G19" s="463"/>
-      <c r="H19" s="464"/>
-      <c r="I19" s="463"/>
-      <c r="J19" s="456"/>
-      <c r="N19" s="208"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="171"/>
-      <c r="Q19" s="171"/>
-      <c r="R19" s="209"/>
-    </row>
-    <row r="20" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="435"/>
-      <c r="B20" s="463"/>
-      <c r="C20" s="477"/>
-      <c r="D20" s="478"/>
-      <c r="E20" s="479"/>
-      <c r="F20" s="453"/>
-      <c r="G20" s="463"/>
-      <c r="H20" s="477"/>
-      <c r="I20" s="463"/>
-      <c r="J20" s="456"/>
-      <c r="N20" s="195"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="210"/>
-    </row>
-    <row r="21" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="430"/>
-      <c r="B21" s="468"/>
-      <c r="C21" s="468"/>
-      <c r="D21" s="468"/>
-      <c r="E21" s="468"/>
-      <c r="F21" s="480"/>
-      <c r="G21" s="481"/>
-      <c r="H21" s="482"/>
-      <c r="I21" s="443"/>
-      <c r="J21" s="468"/>
-      <c r="N21" s="201"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="172"/>
-      <c r="Q21" s="172"/>
-      <c r="R21" s="211"/>
-    </row>
-    <row r="22" spans="1:18" s="34" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="431"/>
-      <c r="B22" s="483"/>
-      <c r="C22" s="484"/>
-      <c r="D22" s="485"/>
-      <c r="E22" s="486"/>
-      <c r="F22" s="486"/>
-      <c r="G22" s="485"/>
-      <c r="H22" s="487"/>
-      <c r="I22" s="488"/>
-      <c r="J22" s="489"/>
-      <c r="N22" s="198"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="212"/>
-    </row>
-    <row r="23" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="430"/>
-      <c r="B23" s="490"/>
-      <c r="C23" s="478"/>
-      <c r="D23" s="478"/>
-      <c r="E23" s="479"/>
-      <c r="F23" s="453"/>
-      <c r="G23" s="491"/>
-      <c r="H23" s="492"/>
-      <c r="I23" s="438"/>
-      <c r="J23" s="456"/>
-      <c r="N23" s="195"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="99"/>
-      <c r="Q23" s="99"/>
-      <c r="R23" s="213"/>
-    </row>
-    <row r="24" spans="1:18" s="34" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="431"/>
-      <c r="B24" s="462"/>
-      <c r="C24" s="451"/>
-      <c r="D24" s="451"/>
-      <c r="E24" s="452"/>
-      <c r="F24" s="453"/>
-      <c r="G24" s="478"/>
-      <c r="H24" s="464"/>
-      <c r="I24" s="463"/>
-      <c r="J24" s="456"/>
-      <c r="N24" s="198"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="212"/>
-    </row>
-    <row r="25" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="431"/>
-      <c r="B25" s="493"/>
-      <c r="C25" s="485"/>
-      <c r="D25" s="485"/>
-      <c r="E25" s="494"/>
-      <c r="F25" s="484"/>
-      <c r="G25" s="484"/>
-      <c r="H25" s="495"/>
-      <c r="I25" s="484"/>
-      <c r="J25" s="496"/>
-      <c r="N25" s="195"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="99"/>
-      <c r="Q25" s="99"/>
-      <c r="R25" s="213"/>
-    </row>
-    <row r="26" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="431"/>
-      <c r="B26" s="493"/>
-      <c r="C26" s="485"/>
-      <c r="D26" s="485"/>
-      <c r="E26" s="494"/>
-      <c r="F26" s="484"/>
-      <c r="G26" s="484"/>
-      <c r="H26" s="495"/>
-      <c r="I26" s="484"/>
-      <c r="J26" s="509"/>
-      <c r="N26" s="195"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="99"/>
-      <c r="Q26" s="99"/>
-      <c r="R26" s="213"/>
-    </row>
-    <row r="27" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="431"/>
-      <c r="B27" s="493"/>
-      <c r="C27" s="485"/>
-      <c r="D27" s="485"/>
-      <c r="E27" s="494"/>
-      <c r="F27" s="484"/>
-      <c r="G27" s="484"/>
-      <c r="H27" s="495"/>
-      <c r="I27" s="484"/>
-      <c r="J27" s="509"/>
-      <c r="N27" s="195"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="99"/>
-      <c r="Q27" s="99"/>
-      <c r="R27" s="213"/>
-    </row>
-    <row r="28" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="431"/>
-      <c r="B28" s="493"/>
-      <c r="C28" s="485"/>
-      <c r="D28" s="485"/>
-      <c r="E28" s="494"/>
-      <c r="F28" s="484"/>
-      <c r="G28" s="484"/>
-      <c r="H28" s="495"/>
-      <c r="I28" s="484"/>
-      <c r="J28" s="509"/>
-      <c r="N28" s="195"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="99"/>
-      <c r="Q28" s="99"/>
-      <c r="R28" s="213"/>
-    </row>
-    <row r="29" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="431"/>
-      <c r="B29" s="493"/>
-      <c r="C29" s="485"/>
-      <c r="D29" s="485"/>
-      <c r="E29" s="494"/>
-      <c r="F29" s="484"/>
-      <c r="G29" s="484"/>
-      <c r="H29" s="495"/>
-      <c r="I29" s="484"/>
-      <c r="J29" s="509"/>
-      <c r="N29" s="195"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="213"/>
-    </row>
-    <row r="30" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="431"/>
-      <c r="B30" s="493"/>
-      <c r="C30" s="485"/>
-      <c r="D30" s="485"/>
-      <c r="E30" s="494"/>
-      <c r="F30" s="484"/>
-      <c r="G30" s="484"/>
-      <c r="H30" s="495"/>
-      <c r="I30" s="484"/>
-      <c r="J30" s="509"/>
-      <c r="N30" s="195"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="99"/>
-      <c r="Q30" s="99"/>
-      <c r="R30" s="213"/>
-    </row>
-    <row r="31" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="431"/>
-      <c r="B31" s="493"/>
-      <c r="C31" s="485"/>
-      <c r="D31" s="485"/>
-      <c r="E31" s="494"/>
-      <c r="F31" s="484"/>
-      <c r="G31" s="484"/>
-      <c r="H31" s="495"/>
-      <c r="I31" s="484"/>
-      <c r="J31" s="509"/>
-      <c r="N31" s="195"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="99"/>
-      <c r="Q31" s="99"/>
-      <c r="R31" s="213"/>
-    </row>
-    <row r="32" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="431"/>
-      <c r="B32" s="493"/>
-      <c r="C32" s="485"/>
-      <c r="D32" s="485"/>
-      <c r="E32" s="494"/>
-      <c r="F32" s="484"/>
-      <c r="G32" s="484"/>
-      <c r="H32" s="495"/>
-      <c r="I32" s="484"/>
-      <c r="J32" s="509"/>
-      <c r="N32" s="195"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="99"/>
-      <c r="Q32" s="99"/>
-      <c r="R32" s="213"/>
-    </row>
-    <row r="33" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="430"/>
-      <c r="B33" s="490"/>
-      <c r="C33" s="463"/>
-      <c r="D33" s="497"/>
-      <c r="E33" s="453"/>
-      <c r="F33" s="463"/>
-      <c r="G33" s="478"/>
-      <c r="H33" s="497"/>
-      <c r="I33" s="498"/>
-      <c r="J33" s="456"/>
-      <c r="N33" s="195"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="47"/>
-      <c r="R33" s="197"/>
-    </row>
-    <row r="34" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="430"/>
-      <c r="B34" s="490"/>
-      <c r="C34" s="463"/>
-      <c r="D34" s="497"/>
-      <c r="E34" s="453"/>
-      <c r="F34" s="463"/>
-      <c r="G34" s="478"/>
-      <c r="H34" s="497"/>
-      <c r="I34" s="498"/>
-      <c r="J34" s="456"/>
-      <c r="N34" s="195"/>
-      <c r="O34" s="46"/>
-      <c r="P34" s="46"/>
-      <c r="Q34" s="47"/>
-      <c r="R34" s="197"/>
-    </row>
-    <row r="35" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="430"/>
-      <c r="B35" s="490"/>
-      <c r="C35" s="463"/>
-      <c r="D35" s="497"/>
-      <c r="E35" s="453"/>
-      <c r="F35" s="453"/>
-      <c r="G35" s="491"/>
-      <c r="H35" s="497"/>
-      <c r="I35" s="498"/>
-      <c r="J35" s="456"/>
-      <c r="N35" s="195"/>
-      <c r="O35" s="46"/>
-      <c r="P35" s="46"/>
-      <c r="Q35" s="47"/>
-      <c r="R35" s="197"/>
-    </row>
-    <row r="36" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="430"/>
-      <c r="B36" s="468"/>
-      <c r="C36" s="468"/>
-      <c r="D36" s="468"/>
-      <c r="E36" s="468"/>
-      <c r="F36" s="480"/>
-      <c r="G36" s="481"/>
-      <c r="H36" s="468"/>
-      <c r="I36" s="468"/>
-      <c r="J36" s="499"/>
-      <c r="N36" s="195"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="47"/>
-      <c r="Q36" s="47"/>
-      <c r="R36" s="197"/>
-    </row>
-    <row r="37" spans="1:18" s="96" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="436"/>
-      <c r="B37" s="500"/>
-      <c r="C37" s="501"/>
-      <c r="D37" s="502"/>
-      <c r="E37" s="503"/>
-      <c r="F37" s="504"/>
-      <c r="G37" s="505"/>
-      <c r="H37" s="506"/>
-      <c r="I37" s="507"/>
-      <c r="J37" s="508"/>
-      <c r="N37" s="214"/>
-      <c r="O37" s="215"/>
-      <c r="P37" s="216"/>
-      <c r="Q37" s="216"/>
-      <c r="R37" s="217"/>
-    </row>
-    <row r="38" spans="1:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="186"/>
-      <c r="B38" s="187"/>
-      <c r="C38" s="188"/>
-      <c r="D38" s="188"/>
-      <c r="E38" s="188"/>
-      <c r="F38" s="183"/>
-      <c r="G38" s="188"/>
-      <c r="H38" s="188"/>
-      <c r="I38" s="188"/>
-      <c r="J38" s="188"/>
-      <c r="N38" s="98"/>
-      <c r="O38" s="45"/>
-    </row>
-    <row r="39" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="193" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" s="192">
-        <f>COUNTA(B7:B37)</f>
-        <v>0</v>
-      </c>
-      <c r="C39" s="190"/>
-      <c r="D39" s="190"/>
-      <c r="E39" s="190"/>
-      <c r="F39" s="189"/>
-      <c r="G39" s="189"/>
-      <c r="H39" s="191"/>
-      <c r="I39" s="189"/>
-      <c r="J39" s="189"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="I2:J4"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D3:H3"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="30" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;14&amp;G</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawingHF r:id="rId3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId4"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B660E4-5CC7-4B8C-B888-8D9BEEB0F61E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -7578,65 +6913,65 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="424"/>
-      <c r="B2" s="424"/>
-      <c r="C2" s="424"/>
-      <c r="D2" s="424"/>
-      <c r="E2" s="424"/>
-      <c r="F2" s="424"/>
-      <c r="G2" s="424"/>
-      <c r="H2" s="424"/>
-      <c r="I2" s="424"/>
-      <c r="J2" s="424"/>
-      <c r="K2" s="424"/>
-      <c r="L2" s="424"/>
-      <c r="M2" s="424"/>
-      <c r="N2" s="424"/>
+      <c r="A2" s="472"/>
+      <c r="B2" s="472"/>
+      <c r="C2" s="472"/>
+      <c r="D2" s="472"/>
+      <c r="E2" s="472"/>
+      <c r="F2" s="472"/>
+      <c r="G2" s="472"/>
+      <c r="H2" s="472"/>
+      <c r="I2" s="472"/>
+      <c r="J2" s="472"/>
+      <c r="K2" s="472"/>
+      <c r="L2" s="472"/>
+      <c r="M2" s="472"/>
+      <c r="N2" s="472"/>
     </row>
     <row r="3" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="424"/>
-      <c r="B3" s="424"/>
-      <c r="C3" s="424"/>
-      <c r="D3" s="427" t="s">
+      <c r="A3" s="472"/>
+      <c r="B3" s="472"/>
+      <c r="C3" s="472"/>
+      <c r="D3" s="475" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="427"/>
-      <c r="F3" s="427"/>
-      <c r="G3" s="427"/>
-      <c r="H3" s="427"/>
-      <c r="I3" s="427"/>
-      <c r="J3" s="427"/>
-      <c r="K3" s="427"/>
-      <c r="L3" s="427"/>
-      <c r="M3" s="424"/>
-      <c r="N3" s="424"/>
+      <c r="E3" s="475"/>
+      <c r="F3" s="475"/>
+      <c r="G3" s="475"/>
+      <c r="H3" s="475"/>
+      <c r="I3" s="475"/>
+      <c r="J3" s="475"/>
+      <c r="K3" s="475"/>
+      <c r="L3" s="475"/>
+      <c r="M3" s="472"/>
+      <c r="N3" s="472"/>
     </row>
     <row r="4" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="424"/>
-      <c r="B4" s="424"/>
-      <c r="C4" s="424"/>
-      <c r="D4" s="424"/>
-      <c r="E4" s="424"/>
-      <c r="F4" s="424"/>
-      <c r="G4" s="424"/>
-      <c r="H4" s="424"/>
-      <c r="I4" s="424"/>
-      <c r="J4" s="424"/>
-      <c r="K4" s="424"/>
-      <c r="L4" s="424"/>
-      <c r="M4" s="424"/>
-      <c r="N4" s="424"/>
+      <c r="A4" s="472"/>
+      <c r="B4" s="472"/>
+      <c r="C4" s="472"/>
+      <c r="D4" s="472"/>
+      <c r="E4" s="472"/>
+      <c r="F4" s="472"/>
+      <c r="G4" s="472"/>
+      <c r="H4" s="472"/>
+      <c r="I4" s="472"/>
+      <c r="J4" s="472"/>
+      <c r="K4" s="472"/>
+      <c r="L4" s="472"/>
+      <c r="M4" s="472"/>
+      <c r="N4" s="472"/>
     </row>
     <row r="5" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="R5" s="426" t="s">
+      <c r="R5" s="474" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="426"/>
-      <c r="T5" s="426"/>
-      <c r="U5" s="426"/>
-      <c r="V5" s="426"/>
-      <c r="W5" s="426"/>
-      <c r="X5" s="426"/>
+      <c r="S5" s="474"/>
+      <c r="T5" s="474"/>
+      <c r="U5" s="474"/>
+      <c r="V5" s="474"/>
+      <c r="W5" s="474"/>
+      <c r="X5" s="474"/>
     </row>
     <row r="6" spans="1:24" s="2" customFormat="1" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="221" t="s">
@@ -8494,6 +7829,735 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85FEBD50-9ECF-4D52-B6BF-7430521747DA}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:R41"/>
+  <sheetViews>
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScale="80" zoomScaleNormal="90" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="38.5" customWidth="1"/>
+    <col min="4" max="4" width="51.6640625" customWidth="1"/>
+    <col min="5" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="9" width="35.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" style="96" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" customWidth="1"/>
+    <col min="17" max="18" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="472"/>
+      <c r="B2" s="472"/>
+      <c r="C2" s="472"/>
+      <c r="D2" s="473"/>
+      <c r="E2" s="473"/>
+      <c r="F2" s="473"/>
+      <c r="G2" s="473"/>
+      <c r="H2" s="473"/>
+      <c r="I2" s="472"/>
+      <c r="J2" s="472"/>
+    </row>
+    <row r="3" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="472"/>
+      <c r="B3" s="472"/>
+      <c r="C3" s="472"/>
+      <c r="D3" s="473" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="473"/>
+      <c r="F3" s="473"/>
+      <c r="G3" s="473"/>
+      <c r="H3" s="473"/>
+      <c r="I3" s="472"/>
+      <c r="J3" s="472"/>
+    </row>
+    <row r="4" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="472"/>
+      <c r="B4" s="472"/>
+      <c r="C4" s="472"/>
+      <c r="D4" s="473"/>
+      <c r="E4" s="473"/>
+      <c r="F4" s="473"/>
+      <c r="G4" s="473"/>
+      <c r="H4" s="473"/>
+      <c r="I4" s="472"/>
+      <c r="J4" s="472"/>
+    </row>
+    <row r="5" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N5" s="472" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" s="472"/>
+      <c r="P5" s="472"/>
+      <c r="Q5" s="472"/>
+      <c r="R5" s="472"/>
+    </row>
+    <row r="6" spans="1:18" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="194" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="163" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" s="163" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="163" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" s="169" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="54" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="391"/>
+      <c r="B7" s="398"/>
+      <c r="C7" s="399"/>
+      <c r="D7" s="400"/>
+      <c r="E7" s="399"/>
+      <c r="F7" s="399"/>
+      <c r="G7" s="400"/>
+      <c r="H7" s="401"/>
+      <c r="I7" s="402"/>
+      <c r="J7" s="399"/>
+      <c r="N7" s="195"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="196"/>
+    </row>
+    <row r="8" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="391"/>
+      <c r="B8" s="403"/>
+      <c r="C8" s="404"/>
+      <c r="D8" s="404"/>
+      <c r="E8" s="404"/>
+      <c r="F8" s="405"/>
+      <c r="G8" s="404"/>
+      <c r="H8" s="404"/>
+      <c r="I8" s="404"/>
+      <c r="J8" s="404"/>
+      <c r="N8" s="195"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="197"/>
+    </row>
+    <row r="9" spans="1:18" s="32" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="392"/>
+      <c r="B9" s="406"/>
+      <c r="C9" s="407"/>
+      <c r="D9" s="408"/>
+      <c r="E9" s="408"/>
+      <c r="F9" s="408"/>
+      <c r="G9" s="408"/>
+      <c r="H9" s="409"/>
+      <c r="I9" s="410"/>
+      <c r="J9" s="408"/>
+      <c r="N9" s="198"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="199"/>
+    </row>
+    <row r="10" spans="1:18" s="32" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="393"/>
+      <c r="B10" s="411"/>
+      <c r="C10" s="412"/>
+      <c r="D10" s="412"/>
+      <c r="E10" s="413"/>
+      <c r="F10" s="414"/>
+      <c r="G10" s="415"/>
+      <c r="H10" s="416"/>
+      <c r="I10" s="415"/>
+      <c r="J10" s="417"/>
+      <c r="N10" s="198"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="199"/>
+    </row>
+    <row r="11" spans="1:18" s="43" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="394"/>
+      <c r="B11" s="418"/>
+      <c r="C11" s="419"/>
+      <c r="D11" s="420"/>
+      <c r="E11" s="420"/>
+      <c r="F11" s="419"/>
+      <c r="G11" s="419"/>
+      <c r="H11" s="421"/>
+      <c r="I11" s="422"/>
+      <c r="J11" s="419"/>
+      <c r="N11" s="198"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="200"/>
+    </row>
+    <row r="12" spans="1:18" s="43" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="394"/>
+      <c r="B12" s="423"/>
+      <c r="C12" s="412"/>
+      <c r="D12" s="412"/>
+      <c r="E12" s="413"/>
+      <c r="F12" s="414"/>
+      <c r="G12" s="424"/>
+      <c r="H12" s="425"/>
+      <c r="I12" s="424"/>
+      <c r="J12" s="417"/>
+      <c r="N12" s="198"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="200"/>
+    </row>
+    <row r="13" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="391"/>
+      <c r="B13" s="403"/>
+      <c r="C13" s="404"/>
+      <c r="D13" s="404"/>
+      <c r="E13" s="404"/>
+      <c r="F13" s="405"/>
+      <c r="G13" s="404"/>
+      <c r="H13" s="404"/>
+      <c r="I13" s="404"/>
+      <c r="J13" s="404"/>
+      <c r="N13" s="201"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="104"/>
+      <c r="R13" s="202"/>
+    </row>
+    <row r="14" spans="1:18" s="105" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="392"/>
+      <c r="B14" s="407"/>
+      <c r="C14" s="407"/>
+      <c r="D14" s="407"/>
+      <c r="E14" s="407"/>
+      <c r="F14" s="407"/>
+      <c r="G14" s="426"/>
+      <c r="H14" s="427"/>
+      <c r="I14" s="407"/>
+      <c r="J14" s="428"/>
+      <c r="N14" s="203"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="106"/>
+      <c r="Q14" s="106"/>
+      <c r="R14" s="204"/>
+    </row>
+    <row r="15" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="391"/>
+      <c r="B15" s="429"/>
+      <c r="C15" s="430"/>
+      <c r="D15" s="430"/>
+      <c r="E15" s="430"/>
+      <c r="F15" s="431"/>
+      <c r="G15" s="429"/>
+      <c r="H15" s="430"/>
+      <c r="I15" s="430"/>
+      <c r="J15" s="430"/>
+      <c r="N15" s="195"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="196"/>
+    </row>
+    <row r="16" spans="1:18" s="89" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="391"/>
+      <c r="B16" s="432"/>
+      <c r="C16" s="404"/>
+      <c r="D16" s="404"/>
+      <c r="E16" s="404"/>
+      <c r="F16" s="433"/>
+      <c r="G16" s="404"/>
+      <c r="H16" s="404"/>
+      <c r="I16" s="419"/>
+      <c r="J16" s="404"/>
+      <c r="N16" s="205"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="90"/>
+      <c r="Q16" s="90"/>
+      <c r="R16" s="206"/>
+    </row>
+    <row r="17" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="391"/>
+      <c r="B17" s="432"/>
+      <c r="C17" s="404"/>
+      <c r="D17" s="404"/>
+      <c r="E17" s="404"/>
+      <c r="F17" s="405"/>
+      <c r="G17" s="434"/>
+      <c r="H17" s="435"/>
+      <c r="I17" s="435"/>
+      <c r="J17" s="404"/>
+      <c r="N17" s="195"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="207"/>
+    </row>
+    <row r="18" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="391"/>
+      <c r="B18" s="424"/>
+      <c r="C18" s="412"/>
+      <c r="D18" s="412"/>
+      <c r="E18" s="413"/>
+      <c r="F18" s="414"/>
+      <c r="G18" s="424"/>
+      <c r="H18" s="425"/>
+      <c r="I18" s="424"/>
+      <c r="J18" s="417"/>
+      <c r="N18" s="195"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="197"/>
+    </row>
+    <row r="19" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="395"/>
+      <c r="B19" s="415"/>
+      <c r="C19" s="436"/>
+      <c r="D19" s="436"/>
+      <c r="E19" s="437"/>
+      <c r="F19" s="414"/>
+      <c r="G19" s="424"/>
+      <c r="H19" s="425"/>
+      <c r="I19" s="424"/>
+      <c r="J19" s="417"/>
+      <c r="N19" s="208"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="171"/>
+      <c r="Q19" s="171"/>
+      <c r="R19" s="209"/>
+    </row>
+    <row r="20" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="396"/>
+      <c r="B20" s="424"/>
+      <c r="C20" s="438"/>
+      <c r="D20" s="439"/>
+      <c r="E20" s="440"/>
+      <c r="F20" s="414"/>
+      <c r="G20" s="424"/>
+      <c r="H20" s="438"/>
+      <c r="I20" s="424"/>
+      <c r="J20" s="417"/>
+      <c r="N20" s="195"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="210"/>
+    </row>
+    <row r="21" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="391"/>
+      <c r="B21" s="429"/>
+      <c r="C21" s="429"/>
+      <c r="D21" s="429"/>
+      <c r="E21" s="429"/>
+      <c r="F21" s="441"/>
+      <c r="G21" s="442"/>
+      <c r="H21" s="443"/>
+      <c r="I21" s="404"/>
+      <c r="J21" s="429"/>
+      <c r="N21" s="201"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="172"/>
+      <c r="Q21" s="172"/>
+      <c r="R21" s="211"/>
+    </row>
+    <row r="22" spans="1:18" s="34" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="392"/>
+      <c r="B22" s="444"/>
+      <c r="C22" s="445"/>
+      <c r="D22" s="446"/>
+      <c r="E22" s="447"/>
+      <c r="F22" s="447"/>
+      <c r="G22" s="446"/>
+      <c r="H22" s="448"/>
+      <c r="I22" s="449"/>
+      <c r="J22" s="450"/>
+      <c r="N22" s="198"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="212"/>
+    </row>
+    <row r="23" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="391"/>
+      <c r="B23" s="451"/>
+      <c r="C23" s="439"/>
+      <c r="D23" s="439"/>
+      <c r="E23" s="440"/>
+      <c r="F23" s="414"/>
+      <c r="G23" s="452"/>
+      <c r="H23" s="453"/>
+      <c r="I23" s="399"/>
+      <c r="J23" s="417"/>
+      <c r="N23" s="195"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="99"/>
+      <c r="Q23" s="99"/>
+      <c r="R23" s="213"/>
+    </row>
+    <row r="24" spans="1:18" s="34" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="392"/>
+      <c r="B24" s="423"/>
+      <c r="C24" s="412"/>
+      <c r="D24" s="412"/>
+      <c r="E24" s="413"/>
+      <c r="F24" s="414"/>
+      <c r="G24" s="439"/>
+      <c r="H24" s="425"/>
+      <c r="I24" s="424"/>
+      <c r="J24" s="417"/>
+      <c r="N24" s="198"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="212"/>
+    </row>
+    <row r="25" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="392"/>
+      <c r="B25" s="454"/>
+      <c r="C25" s="446"/>
+      <c r="D25" s="446"/>
+      <c r="E25" s="455"/>
+      <c r="F25" s="445"/>
+      <c r="G25" s="445"/>
+      <c r="H25" s="456"/>
+      <c r="I25" s="445"/>
+      <c r="J25" s="457"/>
+      <c r="N25" s="195"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="99"/>
+      <c r="R25" s="213"/>
+    </row>
+    <row r="26" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="392"/>
+      <c r="B26" s="454"/>
+      <c r="C26" s="446"/>
+      <c r="D26" s="446"/>
+      <c r="E26" s="455"/>
+      <c r="F26" s="445"/>
+      <c r="G26" s="445"/>
+      <c r="H26" s="456"/>
+      <c r="I26" s="445"/>
+      <c r="J26" s="470"/>
+      <c r="N26" s="195"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="99"/>
+      <c r="R26" s="213"/>
+    </row>
+    <row r="27" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="392"/>
+      <c r="B27" s="454"/>
+      <c r="C27" s="446"/>
+      <c r="D27" s="446"/>
+      <c r="E27" s="455"/>
+      <c r="F27" s="445"/>
+      <c r="G27" s="445"/>
+      <c r="H27" s="456"/>
+      <c r="I27" s="445"/>
+      <c r="J27" s="470"/>
+      <c r="N27" s="195"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="99"/>
+      <c r="Q27" s="99"/>
+      <c r="R27" s="213"/>
+    </row>
+    <row r="28" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="392"/>
+      <c r="B28" s="454"/>
+      <c r="C28" s="446"/>
+      <c r="D28" s="446"/>
+      <c r="E28" s="455"/>
+      <c r="F28" s="445"/>
+      <c r="G28" s="445"/>
+      <c r="H28" s="456"/>
+      <c r="I28" s="445"/>
+      <c r="J28" s="470"/>
+      <c r="N28" s="195"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="99"/>
+      <c r="Q28" s="99"/>
+      <c r="R28" s="213"/>
+    </row>
+    <row r="29" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="392"/>
+      <c r="B29" s="454"/>
+      <c r="C29" s="446"/>
+      <c r="D29" s="446"/>
+      <c r="E29" s="455"/>
+      <c r="F29" s="445"/>
+      <c r="G29" s="445"/>
+      <c r="H29" s="456"/>
+      <c r="I29" s="445"/>
+      <c r="J29" s="470"/>
+      <c r="N29" s="195"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="99"/>
+      <c r="Q29" s="99"/>
+      <c r="R29" s="213"/>
+    </row>
+    <row r="30" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="392"/>
+      <c r="B30" s="454"/>
+      <c r="C30" s="446"/>
+      <c r="D30" s="446"/>
+      <c r="E30" s="455"/>
+      <c r="F30" s="445"/>
+      <c r="G30" s="445"/>
+      <c r="H30" s="456"/>
+      <c r="I30" s="445"/>
+      <c r="J30" s="470"/>
+      <c r="N30" s="195"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="99"/>
+      <c r="Q30" s="99"/>
+      <c r="R30" s="213"/>
+    </row>
+    <row r="31" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="392"/>
+      <c r="B31" s="454"/>
+      <c r="C31" s="446"/>
+      <c r="D31" s="446"/>
+      <c r="E31" s="455"/>
+      <c r="F31" s="445"/>
+      <c r="G31" s="445"/>
+      <c r="H31" s="456"/>
+      <c r="I31" s="445"/>
+      <c r="J31" s="470"/>
+      <c r="N31" s="195"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="99"/>
+      <c r="Q31" s="99"/>
+      <c r="R31" s="213"/>
+    </row>
+    <row r="32" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="392"/>
+      <c r="B32" s="454"/>
+      <c r="C32" s="446"/>
+      <c r="D32" s="446"/>
+      <c r="E32" s="455"/>
+      <c r="F32" s="445"/>
+      <c r="G32" s="445"/>
+      <c r="H32" s="456"/>
+      <c r="I32" s="445"/>
+      <c r="J32" s="470"/>
+      <c r="N32" s="195"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="99"/>
+      <c r="Q32" s="99"/>
+      <c r="R32" s="213"/>
+    </row>
+    <row r="33" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="391"/>
+      <c r="B33" s="451"/>
+      <c r="C33" s="424"/>
+      <c r="D33" s="458"/>
+      <c r="E33" s="414"/>
+      <c r="F33" s="424"/>
+      <c r="G33" s="439"/>
+      <c r="H33" s="458"/>
+      <c r="I33" s="459"/>
+      <c r="J33" s="417"/>
+      <c r="N33" s="195"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="47"/>
+      <c r="R33" s="197"/>
+    </row>
+    <row r="34" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="391"/>
+      <c r="B34" s="451"/>
+      <c r="C34" s="424"/>
+      <c r="D34" s="458"/>
+      <c r="E34" s="414"/>
+      <c r="F34" s="424"/>
+      <c r="G34" s="439"/>
+      <c r="H34" s="458"/>
+      <c r="I34" s="459"/>
+      <c r="J34" s="417"/>
+      <c r="N34" s="195"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="46"/>
+      <c r="Q34" s="47"/>
+      <c r="R34" s="197"/>
+    </row>
+    <row r="35" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="391"/>
+      <c r="B35" s="451"/>
+      <c r="C35" s="424"/>
+      <c r="D35" s="458"/>
+      <c r="E35" s="414"/>
+      <c r="F35" s="414"/>
+      <c r="G35" s="452"/>
+      <c r="H35" s="458"/>
+      <c r="I35" s="459"/>
+      <c r="J35" s="417"/>
+      <c r="N35" s="195"/>
+      <c r="O35" s="46"/>
+      <c r="P35" s="46"/>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="197"/>
+    </row>
+    <row r="36" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="391"/>
+      <c r="B36" s="429"/>
+      <c r="C36" s="429"/>
+      <c r="D36" s="429"/>
+      <c r="E36" s="429"/>
+      <c r="F36" s="441"/>
+      <c r="G36" s="442"/>
+      <c r="H36" s="429"/>
+      <c r="I36" s="429"/>
+      <c r="J36" s="460"/>
+      <c r="N36" s="195"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="47"/>
+      <c r="Q36" s="47"/>
+      <c r="R36" s="197"/>
+    </row>
+    <row r="37" spans="1:18" s="96" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="397"/>
+      <c r="B37" s="461"/>
+      <c r="C37" s="462"/>
+      <c r="D37" s="463"/>
+      <c r="E37" s="464"/>
+      <c r="F37" s="465"/>
+      <c r="G37" s="466"/>
+      <c r="H37" s="467"/>
+      <c r="I37" s="468"/>
+      <c r="J37" s="469"/>
+      <c r="N37" s="214"/>
+      <c r="O37" s="215"/>
+      <c r="P37" s="216"/>
+      <c r="Q37" s="216"/>
+      <c r="R37" s="217"/>
+    </row>
+    <row r="38" spans="1:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="186"/>
+      <c r="B38" s="187"/>
+      <c r="C38" s="188"/>
+      <c r="D38" s="188"/>
+      <c r="E38" s="188"/>
+      <c r="F38" s="183"/>
+      <c r="G38" s="188"/>
+      <c r="H38" s="188"/>
+      <c r="I38" s="188"/>
+      <c r="J38" s="188"/>
+      <c r="N38" s="98"/>
+      <c r="O38" s="45"/>
+    </row>
+    <row r="39" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="193" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="192">
+        <f>COUNTA(B7:B37)</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="190"/>
+      <c r="D39" s="190"/>
+      <c r="E39" s="190"/>
+      <c r="F39" s="189"/>
+      <c r="G39" s="189"/>
+      <c r="H39" s="191"/>
+      <c r="I39" s="189"/>
+      <c r="J39" s="189"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="I2:J4"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D3:H3"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="30" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;14&amp;G</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+  <legacyDrawingHF r:id="rId3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E458BD6B-5FB9-2A4F-95A7-3FEC27EDA669}">
   <sheetPr>
@@ -8501,8 +8565,8 @@
   </sheetPr>
   <dimension ref="A2:BP36"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:F4"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A23" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8521,71 +8585,71 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:68" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="424"/>
-      <c r="B2" s="424"/>
-      <c r="C2" s="424"/>
-      <c r="D2" s="425"/>
-      <c r="E2" s="425"/>
-      <c r="F2" s="425"/>
-      <c r="G2" s="424"/>
-      <c r="H2" s="424"/>
+      <c r="A2" s="472"/>
+      <c r="B2" s="472"/>
+      <c r="C2" s="472"/>
+      <c r="D2" s="473"/>
+      <c r="E2" s="473"/>
+      <c r="F2" s="473"/>
+      <c r="G2" s="472"/>
+      <c r="H2" s="472"/>
     </row>
     <row r="3" spans="1:68" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="424"/>
-      <c r="B3" s="424"/>
-      <c r="C3" s="424"/>
-      <c r="D3" s="425" t="s">
+      <c r="A3" s="472"/>
+      <c r="B3" s="472"/>
+      <c r="C3" s="472"/>
+      <c r="D3" s="473" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="425"/>
-      <c r="F3" s="425"/>
-      <c r="G3" s="424"/>
-      <c r="H3" s="424"/>
+      <c r="E3" s="473"/>
+      <c r="F3" s="473"/>
+      <c r="G3" s="472"/>
+      <c r="H3" s="472"/>
     </row>
     <row r="4" spans="1:68" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="424"/>
-      <c r="B4" s="424"/>
-      <c r="C4" s="424"/>
-      <c r="D4" s="425"/>
-      <c r="E4" s="425"/>
-      <c r="F4" s="425"/>
-      <c r="G4" s="424"/>
-      <c r="H4" s="424"/>
+      <c r="A4" s="472"/>
+      <c r="B4" s="472"/>
+      <c r="C4" s="472"/>
+      <c r="D4" s="473"/>
+      <c r="E4" s="473"/>
+      <c r="F4" s="473"/>
+      <c r="G4" s="472"/>
+      <c r="H4" s="472"/>
     </row>
     <row r="5" spans="1:68" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L5" s="424" t="s">
+      <c r="L5" s="472" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="424"/>
-      <c r="N5" s="424"/>
-      <c r="O5" s="424"/>
-      <c r="P5" s="424"/>
-      <c r="Q5" s="424"/>
-      <c r="R5" s="424"/>
+      <c r="M5" s="472"/>
+      <c r="N5" s="472"/>
+      <c r="O5" s="472"/>
+      <c r="P5" s="472"/>
+      <c r="Q5" s="472"/>
+      <c r="R5" s="472"/>
     </row>
     <row r="6" spans="1:68" s="10" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="410" t="s">
+      <c r="A6" s="388" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="411" t="s">
+      <c r="B6" s="389" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="411" t="s">
+      <c r="C6" s="389" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="411" t="s">
+      <c r="D6" s="389" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="411" t="s">
+      <c r="E6" s="389" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="411" t="s">
+      <c r="F6" s="389" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="411" t="s">
+      <c r="G6" s="389" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="412" t="s">
+      <c r="H6" s="390" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="25"/>
@@ -8662,14 +8726,14 @@
       <c r="BP6" s="26"/>
     </row>
     <row r="7" spans="1:68" s="25" customFormat="1" ht="46.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="413"/>
-      <c r="B7" s="404"/>
-      <c r="C7" s="405"/>
-      <c r="D7" s="406"/>
-      <c r="E7" s="405"/>
-      <c r="F7" s="405"/>
-      <c r="G7" s="405"/>
-      <c r="H7" s="407"/>
+      <c r="A7" s="515"/>
+      <c r="B7" s="478"/>
+      <c r="C7" s="479"/>
+      <c r="D7" s="480"/>
+      <c r="E7" s="479"/>
+      <c r="F7" s="479"/>
+      <c r="G7" s="479"/>
+      <c r="H7" s="481"/>
       <c r="L7" s="342"/>
       <c r="M7" s="343"/>
       <c r="N7" s="344"/>
@@ -8679,22 +8743,22 @@
       <c r="R7" s="85"/>
     </row>
     <row r="8" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="414"/>
-      <c r="B8" s="346"/>
-      <c r="C8" s="346"/>
-      <c r="D8" s="346"/>
-      <c r="E8" s="346"/>
-      <c r="F8" s="346"/>
-      <c r="G8" s="346"/>
-      <c r="H8" s="347"/>
+      <c r="A8" s="516"/>
+      <c r="B8" s="482"/>
+      <c r="C8" s="482"/>
+      <c r="D8" s="482"/>
+      <c r="E8" s="482"/>
+      <c r="F8" s="482"/>
+      <c r="G8" s="482"/>
+      <c r="H8" s="483"/>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
-      <c r="L8" s="348"/>
+      <c r="L8" s="346"/>
       <c r="M8" s="99"/>
       <c r="N8" s="55"/>
       <c r="O8" s="55"/>
-      <c r="P8" s="349"/>
+      <c r="P8" s="347"/>
       <c r="Q8" s="85"/>
       <c r="R8" s="85"/>
       <c r="S8" s="25"/>
@@ -8749,24 +8813,24 @@
       <c r="BP8" s="26"/>
     </row>
     <row r="9" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="415"/>
-      <c r="B9" s="350"/>
-      <c r="C9" s="351"/>
-      <c r="D9" s="352"/>
-      <c r="E9" s="351"/>
-      <c r="F9" s="351"/>
-      <c r="G9" s="351"/>
-      <c r="H9" s="353"/>
-      <c r="I9" s="354"/>
-      <c r="J9" s="355"/>
-      <c r="K9" s="354"/>
-      <c r="L9" s="356"/>
-      <c r="M9" s="351"/>
-      <c r="N9" s="351"/>
-      <c r="O9" s="351"/>
-      <c r="P9" s="357"/>
-      <c r="Q9" s="354"/>
-      <c r="R9" s="355"/>
+      <c r="A9" s="517"/>
+      <c r="B9" s="484"/>
+      <c r="C9" s="485"/>
+      <c r="D9" s="486"/>
+      <c r="E9" s="485"/>
+      <c r="F9" s="485"/>
+      <c r="G9" s="485"/>
+      <c r="H9" s="487"/>
+      <c r="I9" s="349"/>
+      <c r="J9" s="350"/>
+      <c r="K9" s="349"/>
+      <c r="L9" s="351"/>
+      <c r="M9" s="348"/>
+      <c r="N9" s="348"/>
+      <c r="O9" s="348"/>
+      <c r="P9" s="352"/>
+      <c r="Q9" s="349"/>
+      <c r="R9" s="350"/>
       <c r="S9" s="25"/>
       <c r="T9" s="25"/>
       <c r="U9" s="25"/>
@@ -8819,22 +8883,22 @@
       <c r="BP9" s="26"/>
     </row>
     <row r="10" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="415"/>
-      <c r="B10" s="350"/>
-      <c r="C10" s="351"/>
-      <c r="D10" s="352"/>
-      <c r="E10" s="352"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="353"/>
+      <c r="A10" s="517"/>
+      <c r="B10" s="484"/>
+      <c r="C10" s="485"/>
+      <c r="D10" s="486"/>
+      <c r="E10" s="486"/>
+      <c r="F10" s="488"/>
+      <c r="G10" s="488"/>
+      <c r="H10" s="487"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
-      <c r="L10" s="348"/>
+      <c r="L10" s="346"/>
       <c r="M10" s="99"/>
       <c r="N10" s="55"/>
       <c r="O10" s="55"/>
-      <c r="P10" s="349"/>
+      <c r="P10" s="347"/>
       <c r="Q10" s="85"/>
       <c r="R10" s="85"/>
       <c r="S10" s="25"/>
@@ -8889,22 +8953,22 @@
       <c r="BP10" s="26"/>
     </row>
     <row r="11" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="415"/>
-      <c r="B11" s="358"/>
-      <c r="C11" s="351"/>
-      <c r="D11" s="352"/>
-      <c r="E11" s="351"/>
-      <c r="F11" s="351"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="353"/>
+      <c r="A11" s="517"/>
+      <c r="B11" s="489"/>
+      <c r="C11" s="485"/>
+      <c r="D11" s="486"/>
+      <c r="E11" s="485"/>
+      <c r="F11" s="485"/>
+      <c r="G11" s="488"/>
+      <c r="H11" s="487"/>
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
-      <c r="L11" s="348"/>
+      <c r="L11" s="346"/>
       <c r="M11" s="99"/>
       <c r="N11" s="55"/>
       <c r="O11" s="55"/>
-      <c r="P11" s="349"/>
+      <c r="P11" s="347"/>
       <c r="Q11" s="85"/>
       <c r="R11" s="85"/>
       <c r="S11" s="25"/>
@@ -8959,22 +9023,22 @@
       <c r="BP11" s="26"/>
     </row>
     <row r="12" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="414"/>
-      <c r="B12" s="316"/>
-      <c r="C12" s="316"/>
-      <c r="D12" s="316"/>
-      <c r="E12" s="316"/>
-      <c r="F12" s="316"/>
-      <c r="G12" s="316"/>
-      <c r="H12" s="359"/>
+      <c r="A12" s="516"/>
+      <c r="B12" s="490"/>
+      <c r="C12" s="490"/>
+      <c r="D12" s="490"/>
+      <c r="E12" s="490"/>
+      <c r="F12" s="490"/>
+      <c r="G12" s="490"/>
+      <c r="H12" s="491"/>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
-      <c r="L12" s="348"/>
+      <c r="L12" s="346"/>
       <c r="M12" s="99"/>
       <c r="N12" s="55"/>
       <c r="O12" s="55"/>
-      <c r="P12" s="349"/>
+      <c r="P12" s="347"/>
       <c r="Q12" s="25"/>
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
@@ -9029,22 +9093,22 @@
       <c r="BP12" s="26"/>
     </row>
     <row r="13" spans="1:68" s="124" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="416"/>
-      <c r="B13" s="360"/>
-      <c r="C13" s="361"/>
-      <c r="D13" s="361"/>
-      <c r="E13" s="361"/>
-      <c r="F13" s="361"/>
-      <c r="G13" s="361"/>
-      <c r="H13" s="362"/>
+      <c r="A13" s="518"/>
+      <c r="B13" s="492"/>
+      <c r="C13" s="493"/>
+      <c r="D13" s="493"/>
+      <c r="E13" s="493"/>
+      <c r="F13" s="493"/>
+      <c r="G13" s="493"/>
+      <c r="H13" s="494"/>
       <c r="I13" s="121"/>
       <c r="J13" s="121"/>
       <c r="K13" s="121"/>
-      <c r="L13" s="348"/>
+      <c r="L13" s="346"/>
       <c r="M13" s="99"/>
       <c r="N13" s="122"/>
       <c r="O13" s="122"/>
-      <c r="P13" s="363"/>
+      <c r="P13" s="353"/>
       <c r="Q13" s="121"/>
       <c r="R13" s="121"/>
       <c r="S13" s="121"/>
@@ -9099,22 +9163,22 @@
       <c r="BP13" s="123"/>
     </row>
     <row r="14" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="414"/>
-      <c r="B14" s="268"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="268"/>
-      <c r="H14" s="270"/>
+      <c r="A14" s="516"/>
+      <c r="B14" s="495"/>
+      <c r="C14" s="496"/>
+      <c r="D14" s="496"/>
+      <c r="E14" s="496"/>
+      <c r="F14" s="497"/>
+      <c r="G14" s="495"/>
+      <c r="H14" s="498"/>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
       <c r="K14" s="25"/>
-      <c r="L14" s="348"/>
+      <c r="L14" s="346"/>
       <c r="M14" s="99"/>
       <c r="N14" s="55"/>
       <c r="O14" s="55"/>
-      <c r="P14" s="349"/>
+      <c r="P14" s="347"/>
       <c r="Q14" s="25"/>
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
@@ -9169,22 +9233,22 @@
       <c r="BP14" s="26"/>
     </row>
     <row r="15" spans="1:68" s="124" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="416"/>
-      <c r="B15" s="116"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="364"/>
+      <c r="A15" s="518"/>
+      <c r="B15" s="499"/>
+      <c r="C15" s="500"/>
+      <c r="D15" s="500"/>
+      <c r="E15" s="500"/>
+      <c r="F15" s="501"/>
+      <c r="G15" s="499"/>
+      <c r="H15" s="502"/>
       <c r="I15" s="121"/>
       <c r="J15" s="121"/>
       <c r="K15" s="121"/>
-      <c r="L15" s="348"/>
+      <c r="L15" s="346"/>
       <c r="M15" s="99"/>
       <c r="N15" s="122"/>
       <c r="O15" s="122"/>
-      <c r="P15" s="363"/>
+      <c r="P15" s="353"/>
       <c r="Q15" s="121"/>
       <c r="R15" s="121"/>
       <c r="S15" s="121"/>
@@ -9239,19 +9303,19 @@
       <c r="BP15" s="123"/>
     </row>
     <row r="16" spans="1:68" s="124" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="417"/>
-      <c r="B16" s="365"/>
-      <c r="C16" s="365"/>
-      <c r="D16" s="365"/>
-      <c r="E16" s="365"/>
-      <c r="F16" s="365"/>
-      <c r="G16" s="365"/>
-      <c r="H16" s="366"/>
+      <c r="A16" s="519"/>
+      <c r="B16" s="503"/>
+      <c r="C16" s="503"/>
+      <c r="D16" s="503"/>
+      <c r="E16" s="503"/>
+      <c r="F16" s="503"/>
+      <c r="G16" s="503"/>
+      <c r="H16" s="504"/>
       <c r="I16" s="121"/>
       <c r="J16" s="121"/>
       <c r="K16" s="121"/>
-      <c r="L16" s="367"/>
-      <c r="P16" s="368"/>
+      <c r="L16" s="354"/>
+      <c r="P16" s="355"/>
       <c r="Q16" s="121"/>
       <c r="R16" s="121"/>
       <c r="S16" s="121"/>
@@ -9306,19 +9370,19 @@
       <c r="BP16" s="123"/>
     </row>
     <row r="17" spans="1:68" s="124" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="418"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="364"/>
+      <c r="A17" s="520"/>
+      <c r="B17" s="499"/>
+      <c r="C17" s="500"/>
+      <c r="D17" s="500"/>
+      <c r="E17" s="500"/>
+      <c r="F17" s="501"/>
+      <c r="G17" s="499"/>
+      <c r="H17" s="502"/>
       <c r="I17" s="121"/>
       <c r="J17" s="121"/>
       <c r="K17" s="121"/>
-      <c r="L17" s="367"/>
-      <c r="P17" s="368"/>
+      <c r="L17" s="354"/>
+      <c r="P17" s="355"/>
       <c r="Q17" s="121"/>
       <c r="R17" s="121"/>
       <c r="S17" s="121"/>
@@ -9373,19 +9437,19 @@
       <c r="BP17" s="123"/>
     </row>
     <row r="18" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="414"/>
-      <c r="B18" s="316"/>
-      <c r="C18" s="316"/>
-      <c r="D18" s="316"/>
-      <c r="E18" s="316"/>
-      <c r="F18" s="316"/>
-      <c r="G18" s="316"/>
-      <c r="H18" s="359"/>
+      <c r="A18" s="516"/>
+      <c r="B18" s="490"/>
+      <c r="C18" s="490"/>
+      <c r="D18" s="490"/>
+      <c r="E18" s="490"/>
+      <c r="F18" s="490"/>
+      <c r="G18" s="490"/>
+      <c r="H18" s="491"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
-      <c r="L18" s="369"/>
-      <c r="P18" s="370"/>
+      <c r="L18" s="356"/>
+      <c r="P18" s="357"/>
       <c r="Q18" s="25"/>
       <c r="R18" s="25"/>
       <c r="S18" s="25"/>
@@ -9440,19 +9504,19 @@
       <c r="BP18" s="26"/>
     </row>
     <row r="19" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="414"/>
-      <c r="B19" s="316"/>
-      <c r="C19" s="316"/>
-      <c r="D19" s="316"/>
-      <c r="E19" s="316"/>
-      <c r="F19" s="316"/>
-      <c r="G19" s="316"/>
-      <c r="H19" s="359"/>
+      <c r="A19" s="516"/>
+      <c r="B19" s="490"/>
+      <c r="C19" s="490"/>
+      <c r="D19" s="490"/>
+      <c r="E19" s="490"/>
+      <c r="F19" s="490"/>
+      <c r="G19" s="490"/>
+      <c r="H19" s="491"/>
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
-      <c r="L19" s="369"/>
-      <c r="P19" s="370"/>
+      <c r="L19" s="356"/>
+      <c r="P19" s="357"/>
       <c r="Q19" s="25"/>
       <c r="R19" s="25"/>
       <c r="S19" s="25"/>
@@ -9507,19 +9571,19 @@
       <c r="BP19" s="26"/>
     </row>
     <row r="20" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="414"/>
-      <c r="B20" s="316"/>
-      <c r="C20" s="316"/>
-      <c r="D20" s="316"/>
-      <c r="E20" s="316"/>
-      <c r="F20" s="316"/>
-      <c r="G20" s="316"/>
-      <c r="H20" s="359"/>
+      <c r="A20" s="516"/>
+      <c r="B20" s="490"/>
+      <c r="C20" s="490"/>
+      <c r="D20" s="490"/>
+      <c r="E20" s="490"/>
+      <c r="F20" s="490"/>
+      <c r="G20" s="490"/>
+      <c r="H20" s="491"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
-      <c r="L20" s="369"/>
-      <c r="P20" s="370"/>
+      <c r="L20" s="356"/>
+      <c r="P20" s="357"/>
       <c r="Q20" s="25"/>
       <c r="R20" s="25"/>
       <c r="S20" s="25"/>
@@ -9574,19 +9638,19 @@
       <c r="BP20" s="26"/>
     </row>
     <row r="21" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="416"/>
-      <c r="B21" s="140"/>
-      <c r="C21" s="134"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="134"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="371"/>
+      <c r="A21" s="518"/>
+      <c r="B21" s="505"/>
+      <c r="C21" s="506"/>
+      <c r="D21" s="507"/>
+      <c r="E21" s="507"/>
+      <c r="F21" s="506"/>
+      <c r="G21" s="505"/>
+      <c r="H21" s="508"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
-      <c r="L21" s="369"/>
-      <c r="P21" s="370"/>
+      <c r="L21" s="356"/>
+      <c r="P21" s="357"/>
       <c r="Q21" s="25"/>
       <c r="R21" s="25"/>
       <c r="S21" s="25"/>
@@ -9641,19 +9705,19 @@
       <c r="BP21" s="26"/>
     </row>
     <row r="22" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="416"/>
-      <c r="B22" s="316"/>
-      <c r="C22" s="316"/>
-      <c r="D22" s="316"/>
-      <c r="E22" s="316"/>
-      <c r="F22" s="316"/>
-      <c r="G22" s="316"/>
-      <c r="H22" s="359"/>
+      <c r="A22" s="518"/>
+      <c r="B22" s="490"/>
+      <c r="C22" s="490"/>
+      <c r="D22" s="490"/>
+      <c r="E22" s="490"/>
+      <c r="F22" s="490"/>
+      <c r="G22" s="490"/>
+      <c r="H22" s="491"/>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
-      <c r="L22" s="369"/>
-      <c r="P22" s="370"/>
+      <c r="L22" s="356"/>
+      <c r="P22" s="357"/>
       <c r="Q22" s="25"/>
       <c r="R22" s="25"/>
       <c r="S22" s="25"/>
@@ -9708,19 +9772,19 @@
       <c r="BP22" s="26"/>
     </row>
     <row r="23" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="414"/>
-      <c r="B23" s="268"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="268"/>
-      <c r="H23" s="270"/>
+      <c r="A23" s="516"/>
+      <c r="B23" s="495"/>
+      <c r="C23" s="497"/>
+      <c r="D23" s="496"/>
+      <c r="E23" s="496"/>
+      <c r="F23" s="497"/>
+      <c r="G23" s="495"/>
+      <c r="H23" s="498"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
-      <c r="L23" s="369"/>
-      <c r="P23" s="370"/>
+      <c r="L23" s="356"/>
+      <c r="P23" s="357"/>
       <c r="Q23" s="25"/>
       <c r="R23" s="25"/>
       <c r="S23" s="25"/>
@@ -9775,19 +9839,19 @@
       <c r="BP23" s="26"/>
     </row>
     <row r="24" spans="1:68" s="124" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="416"/>
-      <c r="B24" s="144"/>
-      <c r="C24" s="144"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="144"/>
-      <c r="G24" s="144"/>
-      <c r="H24" s="372"/>
+      <c r="A24" s="518"/>
+      <c r="B24" s="509"/>
+      <c r="C24" s="509"/>
+      <c r="D24" s="509"/>
+      <c r="E24" s="509"/>
+      <c r="F24" s="509"/>
+      <c r="G24" s="509"/>
+      <c r="H24" s="510"/>
       <c r="I24" s="121"/>
       <c r="J24" s="121"/>
       <c r="K24" s="121"/>
-      <c r="L24" s="367"/>
-      <c r="P24" s="368"/>
+      <c r="L24" s="354"/>
+      <c r="P24" s="355"/>
       <c r="Q24" s="121"/>
       <c r="R24" s="121"/>
       <c r="S24" s="121"/>
@@ -9842,19 +9906,19 @@
       <c r="BP24" s="123"/>
     </row>
     <row r="25" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="414"/>
-      <c r="B25" s="316"/>
-      <c r="C25" s="316"/>
-      <c r="D25" s="316"/>
-      <c r="E25" s="316"/>
-      <c r="F25" s="316"/>
-      <c r="G25" s="316"/>
-      <c r="H25" s="359"/>
+      <c r="A25" s="516"/>
+      <c r="B25" s="490"/>
+      <c r="C25" s="490"/>
+      <c r="D25" s="490"/>
+      <c r="E25" s="490"/>
+      <c r="F25" s="490"/>
+      <c r="G25" s="490"/>
+      <c r="H25" s="491"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
-      <c r="L25" s="369"/>
-      <c r="P25" s="370"/>
+      <c r="L25" s="356"/>
+      <c r="P25" s="357"/>
       <c r="Q25" s="25"/>
       <c r="R25" s="25"/>
       <c r="S25" s="25"/>
@@ -9908,422 +9972,422 @@
       <c r="BO25" s="25"/>
       <c r="BP25" s="26"/>
     </row>
-    <row r="26" spans="1:68" s="375" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="414"/>
-      <c r="B26" s="316"/>
-      <c r="C26" s="316"/>
-      <c r="D26" s="316"/>
-      <c r="E26" s="316"/>
-      <c r="F26" s="316"/>
-      <c r="G26" s="316"/>
-      <c r="H26" s="359"/>
-      <c r="I26" s="373"/>
-      <c r="J26" s="373"/>
-      <c r="K26" s="373"/>
-      <c r="L26" s="374"/>
-      <c r="P26" s="376"/>
-      <c r="Q26" s="373"/>
-      <c r="R26" s="373"/>
-      <c r="S26" s="373"/>
-      <c r="T26" s="373"/>
-      <c r="U26" s="373"/>
-      <c r="V26" s="373"/>
-      <c r="W26" s="373"/>
-      <c r="X26" s="373"/>
-      <c r="Y26" s="373"/>
-      <c r="Z26" s="373"/>
-      <c r="AA26" s="373"/>
-      <c r="AB26" s="373"/>
-      <c r="AC26" s="373"/>
-      <c r="AD26" s="373"/>
-      <c r="AE26" s="373"/>
-      <c r="AF26" s="373"/>
-      <c r="AG26" s="373"/>
-      <c r="AH26" s="373"/>
-      <c r="AI26" s="373"/>
-      <c r="AJ26" s="373"/>
-      <c r="AK26" s="373"/>
-      <c r="AL26" s="373"/>
-      <c r="AM26" s="373"/>
-      <c r="AN26" s="373"/>
-      <c r="AO26" s="373"/>
-      <c r="AP26" s="373"/>
-      <c r="AQ26" s="373"/>
-      <c r="AR26" s="373"/>
-      <c r="AS26" s="373"/>
-      <c r="AT26" s="373"/>
-      <c r="AU26" s="373"/>
-      <c r="AV26" s="373"/>
-      <c r="AW26" s="373"/>
-      <c r="AX26" s="373"/>
-      <c r="AY26" s="373"/>
-      <c r="AZ26" s="373"/>
-      <c r="BA26" s="373"/>
-      <c r="BB26" s="373"/>
-      <c r="BC26" s="373"/>
-      <c r="BD26" s="373"/>
-      <c r="BE26" s="373"/>
-      <c r="BF26" s="373"/>
-      <c r="BG26" s="373"/>
-      <c r="BH26" s="373"/>
-      <c r="BI26" s="373"/>
-      <c r="BJ26" s="373"/>
-      <c r="BK26" s="373"/>
-      <c r="BL26" s="373"/>
-      <c r="BM26" s="373"/>
-      <c r="BN26" s="373"/>
-      <c r="BO26" s="373"/>
-      <c r="BP26" s="377"/>
-    </row>
-    <row r="27" spans="1:68" s="375" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="419"/>
-      <c r="B27" s="268"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="268"/>
-      <c r="H27" s="270"/>
-      <c r="I27" s="373"/>
-      <c r="J27" s="373"/>
-      <c r="K27" s="373"/>
-      <c r="L27" s="374"/>
-      <c r="P27" s="376"/>
-      <c r="Q27" s="373"/>
-      <c r="R27" s="373"/>
-      <c r="S27" s="373"/>
-      <c r="T27" s="373"/>
-      <c r="U27" s="373"/>
-      <c r="V27" s="373"/>
-      <c r="W27" s="373"/>
-      <c r="X27" s="373"/>
-      <c r="Y27" s="373"/>
-      <c r="Z27" s="373"/>
-      <c r="AA27" s="373"/>
-      <c r="AB27" s="373"/>
-      <c r="AC27" s="373"/>
-      <c r="AD27" s="373"/>
-      <c r="AE27" s="373"/>
-      <c r="AF27" s="373"/>
-      <c r="AG27" s="373"/>
-      <c r="AH27" s="373"/>
-      <c r="AI27" s="373"/>
-      <c r="AJ27" s="373"/>
-      <c r="AK27" s="373"/>
-      <c r="AL27" s="373"/>
-      <c r="AM27" s="373"/>
-      <c r="AN27" s="373"/>
-      <c r="AO27" s="373"/>
-      <c r="AP27" s="373"/>
-      <c r="AQ27" s="373"/>
-      <c r="AR27" s="373"/>
-      <c r="AS27" s="373"/>
-      <c r="AT27" s="373"/>
-      <c r="AU27" s="373"/>
-      <c r="AV27" s="373"/>
-      <c r="AW27" s="373"/>
-      <c r="AX27" s="373"/>
-      <c r="AY27" s="373"/>
-      <c r="AZ27" s="373"/>
-      <c r="BA27" s="373"/>
-      <c r="BB27" s="373"/>
-      <c r="BC27" s="373"/>
-      <c r="BD27" s="373"/>
-      <c r="BE27" s="373"/>
-      <c r="BF27" s="373"/>
-      <c r="BG27" s="373"/>
-      <c r="BH27" s="373"/>
-      <c r="BI27" s="373"/>
-      <c r="BJ27" s="373"/>
-      <c r="BK27" s="373"/>
-      <c r="BL27" s="373"/>
-      <c r="BM27" s="373"/>
-      <c r="BN27" s="373"/>
-      <c r="BO27" s="373"/>
-      <c r="BP27" s="377"/>
-    </row>
-    <row r="28" spans="1:68" s="375" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="420"/>
-      <c r="B28" s="268"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="268"/>
-      <c r="H28" s="270"/>
-      <c r="I28" s="373"/>
-      <c r="J28" s="373"/>
-      <c r="K28" s="373"/>
-      <c r="L28" s="374"/>
-      <c r="P28" s="376"/>
-      <c r="Q28" s="373"/>
-      <c r="R28" s="373"/>
-      <c r="S28" s="373"/>
-      <c r="T28" s="373"/>
-      <c r="U28" s="373"/>
-      <c r="V28" s="373"/>
-      <c r="W28" s="373"/>
-      <c r="X28" s="373"/>
-      <c r="Y28" s="373"/>
-      <c r="Z28" s="373"/>
-      <c r="AA28" s="373"/>
-      <c r="AB28" s="373"/>
-      <c r="AC28" s="373"/>
-      <c r="AD28" s="373"/>
-      <c r="AE28" s="373"/>
-      <c r="AF28" s="373"/>
-      <c r="AG28" s="373"/>
-      <c r="AH28" s="373"/>
-      <c r="AI28" s="373"/>
-      <c r="AJ28" s="373"/>
-      <c r="AK28" s="373"/>
-      <c r="AL28" s="373"/>
-      <c r="AM28" s="373"/>
-      <c r="AN28" s="373"/>
-      <c r="AO28" s="373"/>
-      <c r="AP28" s="373"/>
-      <c r="AQ28" s="373"/>
-      <c r="AR28" s="373"/>
-      <c r="AS28" s="373"/>
-      <c r="AT28" s="373"/>
-      <c r="AU28" s="373"/>
-      <c r="AV28" s="373"/>
-      <c r="AW28" s="373"/>
-      <c r="AX28" s="373"/>
-      <c r="AY28" s="373"/>
-      <c r="AZ28" s="373"/>
-      <c r="BA28" s="373"/>
-      <c r="BB28" s="373"/>
-      <c r="BC28" s="373"/>
-      <c r="BD28" s="373"/>
-      <c r="BE28" s="373"/>
-      <c r="BF28" s="373"/>
-      <c r="BG28" s="373"/>
-      <c r="BH28" s="373"/>
-      <c r="BI28" s="373"/>
-      <c r="BJ28" s="373"/>
-      <c r="BK28" s="373"/>
-      <c r="BL28" s="373"/>
-      <c r="BM28" s="373"/>
-      <c r="BN28" s="373"/>
-      <c r="BO28" s="373"/>
-      <c r="BP28" s="377"/>
-    </row>
-    <row r="29" spans="1:68" s="375" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="420"/>
-      <c r="B29" s="268"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="268"/>
-      <c r="H29" s="270"/>
-      <c r="I29" s="373"/>
-      <c r="J29" s="373"/>
-      <c r="K29" s="373"/>
-      <c r="L29" s="374"/>
-      <c r="P29" s="376"/>
-      <c r="Q29" s="373"/>
-      <c r="R29" s="373"/>
-      <c r="S29" s="373"/>
-      <c r="T29" s="373"/>
-      <c r="U29" s="373"/>
-      <c r="V29" s="373"/>
-      <c r="W29" s="373"/>
-      <c r="X29" s="373"/>
-      <c r="Y29" s="373"/>
-      <c r="Z29" s="373"/>
-      <c r="AA29" s="373"/>
-      <c r="AB29" s="373"/>
-      <c r="AC29" s="373"/>
-      <c r="AD29" s="373"/>
-      <c r="AE29" s="373"/>
-      <c r="AF29" s="373"/>
-      <c r="AG29" s="373"/>
-      <c r="AH29" s="373"/>
-      <c r="AI29" s="373"/>
-      <c r="AJ29" s="373"/>
-      <c r="AK29" s="373"/>
-      <c r="AL29" s="373"/>
-      <c r="AM29" s="373"/>
-      <c r="AN29" s="373"/>
-      <c r="AO29" s="373"/>
-      <c r="AP29" s="373"/>
-      <c r="AQ29" s="373"/>
-      <c r="AR29" s="373"/>
-      <c r="AS29" s="373"/>
-      <c r="AT29" s="373"/>
-      <c r="AU29" s="373"/>
-      <c r="AV29" s="373"/>
-      <c r="AW29" s="373"/>
-      <c r="AX29" s="373"/>
-      <c r="AY29" s="373"/>
-      <c r="AZ29" s="373"/>
-      <c r="BA29" s="373"/>
-      <c r="BB29" s="373"/>
-      <c r="BC29" s="373"/>
-      <c r="BD29" s="373"/>
-      <c r="BE29" s="373"/>
-      <c r="BF29" s="373"/>
-      <c r="BG29" s="373"/>
-      <c r="BH29" s="373"/>
-      <c r="BI29" s="373"/>
-      <c r="BJ29" s="373"/>
-      <c r="BK29" s="373"/>
-      <c r="BL29" s="373"/>
-      <c r="BM29" s="373"/>
-      <c r="BN29" s="373"/>
-      <c r="BO29" s="373"/>
-      <c r="BP29" s="377"/>
-    </row>
-    <row r="30" spans="1:68" s="375" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="420"/>
-      <c r="B30" s="268"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="268"/>
-      <c r="H30" s="270"/>
-      <c r="I30" s="373"/>
-      <c r="J30" s="373"/>
-      <c r="K30" s="373"/>
-      <c r="L30" s="374"/>
-      <c r="P30" s="376"/>
-      <c r="Q30" s="373"/>
-      <c r="R30" s="373"/>
-      <c r="S30" s="373"/>
-      <c r="T30" s="373"/>
-      <c r="U30" s="373"/>
-      <c r="V30" s="373"/>
-      <c r="W30" s="373"/>
-      <c r="X30" s="373"/>
-      <c r="Y30" s="373"/>
-      <c r="Z30" s="373"/>
-      <c r="AA30" s="373"/>
-      <c r="AB30" s="373"/>
-      <c r="AC30" s="373"/>
-      <c r="AD30" s="373"/>
-      <c r="AE30" s="373"/>
-      <c r="AF30" s="373"/>
-      <c r="AG30" s="373"/>
-      <c r="AH30" s="373"/>
-      <c r="AI30" s="373"/>
-      <c r="AJ30" s="373"/>
-      <c r="AK30" s="373"/>
-      <c r="AL30" s="373"/>
-      <c r="AM30" s="373"/>
-      <c r="AN30" s="373"/>
-      <c r="AO30" s="373"/>
-      <c r="AP30" s="373"/>
-      <c r="AQ30" s="373"/>
-      <c r="AR30" s="373"/>
-      <c r="AS30" s="373"/>
-      <c r="AT30" s="373"/>
-      <c r="AU30" s="373"/>
-      <c r="AV30" s="373"/>
-      <c r="AW30" s="373"/>
-      <c r="AX30" s="373"/>
-      <c r="AY30" s="373"/>
-      <c r="AZ30" s="373"/>
-      <c r="BA30" s="373"/>
-      <c r="BB30" s="373"/>
-      <c r="BC30" s="373"/>
-      <c r="BD30" s="373"/>
-      <c r="BE30" s="373"/>
-      <c r="BF30" s="373"/>
-      <c r="BG30" s="373"/>
-      <c r="BH30" s="373"/>
-      <c r="BI30" s="373"/>
-      <c r="BJ30" s="373"/>
-      <c r="BK30" s="373"/>
-      <c r="BL30" s="373"/>
-      <c r="BM30" s="373"/>
-      <c r="BN30" s="373"/>
-      <c r="BO30" s="373"/>
-      <c r="BP30" s="377"/>
-    </row>
-    <row r="31" spans="1:68" s="375" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="420"/>
-      <c r="B31" s="268"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="268"/>
-      <c r="H31" s="270"/>
-      <c r="I31" s="373"/>
-      <c r="J31" s="373"/>
-      <c r="K31" s="373"/>
-      <c r="L31" s="374"/>
-      <c r="P31" s="376"/>
-      <c r="Q31" s="373"/>
-      <c r="R31" s="373"/>
-      <c r="S31" s="373"/>
-      <c r="T31" s="373"/>
-      <c r="U31" s="373"/>
-      <c r="V31" s="373"/>
-      <c r="W31" s="373"/>
-      <c r="X31" s="373"/>
-      <c r="Y31" s="373"/>
-      <c r="Z31" s="373"/>
-      <c r="AA31" s="373"/>
-      <c r="AB31" s="373"/>
-      <c r="AC31" s="373"/>
-      <c r="AD31" s="373"/>
-      <c r="AE31" s="373"/>
-      <c r="AF31" s="373"/>
-      <c r="AG31" s="373"/>
-      <c r="AH31" s="373"/>
-      <c r="AI31" s="373"/>
-      <c r="AJ31" s="373"/>
-      <c r="AK31" s="373"/>
-      <c r="AL31" s="373"/>
-      <c r="AM31" s="373"/>
-      <c r="AN31" s="373"/>
-      <c r="AO31" s="373"/>
-      <c r="AP31" s="373"/>
-      <c r="AQ31" s="373"/>
-      <c r="AR31" s="373"/>
-      <c r="AS31" s="373"/>
-      <c r="AT31" s="373"/>
-      <c r="AU31" s="373"/>
-      <c r="AV31" s="373"/>
-      <c r="AW31" s="373"/>
-      <c r="AX31" s="373"/>
-      <c r="AY31" s="373"/>
-      <c r="AZ31" s="373"/>
-      <c r="BA31" s="373"/>
-      <c r="BB31" s="373"/>
-      <c r="BC31" s="373"/>
-      <c r="BD31" s="373"/>
-      <c r="BE31" s="373"/>
-      <c r="BF31" s="373"/>
-      <c r="BG31" s="373"/>
-      <c r="BH31" s="373"/>
-      <c r="BI31" s="373"/>
-      <c r="BJ31" s="373"/>
-      <c r="BK31" s="373"/>
-      <c r="BL31" s="373"/>
-      <c r="BM31" s="373"/>
-      <c r="BN31" s="373"/>
-      <c r="BO31" s="373"/>
-      <c r="BP31" s="377"/>
+    <row r="26" spans="1:68" s="360" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="516"/>
+      <c r="B26" s="490"/>
+      <c r="C26" s="490"/>
+      <c r="D26" s="490"/>
+      <c r="E26" s="490"/>
+      <c r="F26" s="490"/>
+      <c r="G26" s="490"/>
+      <c r="H26" s="491"/>
+      <c r="I26" s="358"/>
+      <c r="J26" s="358"/>
+      <c r="K26" s="358"/>
+      <c r="L26" s="359"/>
+      <c r="P26" s="361"/>
+      <c r="Q26" s="358"/>
+      <c r="R26" s="358"/>
+      <c r="S26" s="358"/>
+      <c r="T26" s="358"/>
+      <c r="U26" s="358"/>
+      <c r="V26" s="358"/>
+      <c r="W26" s="358"/>
+      <c r="X26" s="358"/>
+      <c r="Y26" s="358"/>
+      <c r="Z26" s="358"/>
+      <c r="AA26" s="358"/>
+      <c r="AB26" s="358"/>
+      <c r="AC26" s="358"/>
+      <c r="AD26" s="358"/>
+      <c r="AE26" s="358"/>
+      <c r="AF26" s="358"/>
+      <c r="AG26" s="358"/>
+      <c r="AH26" s="358"/>
+      <c r="AI26" s="358"/>
+      <c r="AJ26" s="358"/>
+      <c r="AK26" s="358"/>
+      <c r="AL26" s="358"/>
+      <c r="AM26" s="358"/>
+      <c r="AN26" s="358"/>
+      <c r="AO26" s="358"/>
+      <c r="AP26" s="358"/>
+      <c r="AQ26" s="358"/>
+      <c r="AR26" s="358"/>
+      <c r="AS26" s="358"/>
+      <c r="AT26" s="358"/>
+      <c r="AU26" s="358"/>
+      <c r="AV26" s="358"/>
+      <c r="AW26" s="358"/>
+      <c r="AX26" s="358"/>
+      <c r="AY26" s="358"/>
+      <c r="AZ26" s="358"/>
+      <c r="BA26" s="358"/>
+      <c r="BB26" s="358"/>
+      <c r="BC26" s="358"/>
+      <c r="BD26" s="358"/>
+      <c r="BE26" s="358"/>
+      <c r="BF26" s="358"/>
+      <c r="BG26" s="358"/>
+      <c r="BH26" s="358"/>
+      <c r="BI26" s="358"/>
+      <c r="BJ26" s="358"/>
+      <c r="BK26" s="358"/>
+      <c r="BL26" s="358"/>
+      <c r="BM26" s="358"/>
+      <c r="BN26" s="358"/>
+      <c r="BO26" s="358"/>
+      <c r="BP26" s="362"/>
+    </row>
+    <row r="27" spans="1:68" s="360" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="521"/>
+      <c r="B27" s="495"/>
+      <c r="C27" s="496"/>
+      <c r="D27" s="496"/>
+      <c r="E27" s="496"/>
+      <c r="F27" s="497"/>
+      <c r="G27" s="495"/>
+      <c r="H27" s="498"/>
+      <c r="I27" s="358"/>
+      <c r="J27" s="358"/>
+      <c r="K27" s="358"/>
+      <c r="L27" s="359"/>
+      <c r="P27" s="361"/>
+      <c r="Q27" s="358"/>
+      <c r="R27" s="358"/>
+      <c r="S27" s="358"/>
+      <c r="T27" s="358"/>
+      <c r="U27" s="358"/>
+      <c r="V27" s="358"/>
+      <c r="W27" s="358"/>
+      <c r="X27" s="358"/>
+      <c r="Y27" s="358"/>
+      <c r="Z27" s="358"/>
+      <c r="AA27" s="358"/>
+      <c r="AB27" s="358"/>
+      <c r="AC27" s="358"/>
+      <c r="AD27" s="358"/>
+      <c r="AE27" s="358"/>
+      <c r="AF27" s="358"/>
+      <c r="AG27" s="358"/>
+      <c r="AH27" s="358"/>
+      <c r="AI27" s="358"/>
+      <c r="AJ27" s="358"/>
+      <c r="AK27" s="358"/>
+      <c r="AL27" s="358"/>
+      <c r="AM27" s="358"/>
+      <c r="AN27" s="358"/>
+      <c r="AO27" s="358"/>
+      <c r="AP27" s="358"/>
+      <c r="AQ27" s="358"/>
+      <c r="AR27" s="358"/>
+      <c r="AS27" s="358"/>
+      <c r="AT27" s="358"/>
+      <c r="AU27" s="358"/>
+      <c r="AV27" s="358"/>
+      <c r="AW27" s="358"/>
+      <c r="AX27" s="358"/>
+      <c r="AY27" s="358"/>
+      <c r="AZ27" s="358"/>
+      <c r="BA27" s="358"/>
+      <c r="BB27" s="358"/>
+      <c r="BC27" s="358"/>
+      <c r="BD27" s="358"/>
+      <c r="BE27" s="358"/>
+      <c r="BF27" s="358"/>
+      <c r="BG27" s="358"/>
+      <c r="BH27" s="358"/>
+      <c r="BI27" s="358"/>
+      <c r="BJ27" s="358"/>
+      <c r="BK27" s="358"/>
+      <c r="BL27" s="358"/>
+      <c r="BM27" s="358"/>
+      <c r="BN27" s="358"/>
+      <c r="BO27" s="358"/>
+      <c r="BP27" s="362"/>
+    </row>
+    <row r="28" spans="1:68" s="360" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="522"/>
+      <c r="B28" s="495"/>
+      <c r="C28" s="496"/>
+      <c r="D28" s="496"/>
+      <c r="E28" s="496"/>
+      <c r="F28" s="497"/>
+      <c r="G28" s="495"/>
+      <c r="H28" s="498"/>
+      <c r="I28" s="358"/>
+      <c r="J28" s="358"/>
+      <c r="K28" s="358"/>
+      <c r="L28" s="359"/>
+      <c r="P28" s="361"/>
+      <c r="Q28" s="358"/>
+      <c r="R28" s="358"/>
+      <c r="S28" s="358"/>
+      <c r="T28" s="358"/>
+      <c r="U28" s="358"/>
+      <c r="V28" s="358"/>
+      <c r="W28" s="358"/>
+      <c r="X28" s="358"/>
+      <c r="Y28" s="358"/>
+      <c r="Z28" s="358"/>
+      <c r="AA28" s="358"/>
+      <c r="AB28" s="358"/>
+      <c r="AC28" s="358"/>
+      <c r="AD28" s="358"/>
+      <c r="AE28" s="358"/>
+      <c r="AF28" s="358"/>
+      <c r="AG28" s="358"/>
+      <c r="AH28" s="358"/>
+      <c r="AI28" s="358"/>
+      <c r="AJ28" s="358"/>
+      <c r="AK28" s="358"/>
+      <c r="AL28" s="358"/>
+      <c r="AM28" s="358"/>
+      <c r="AN28" s="358"/>
+      <c r="AO28" s="358"/>
+      <c r="AP28" s="358"/>
+      <c r="AQ28" s="358"/>
+      <c r="AR28" s="358"/>
+      <c r="AS28" s="358"/>
+      <c r="AT28" s="358"/>
+      <c r="AU28" s="358"/>
+      <c r="AV28" s="358"/>
+      <c r="AW28" s="358"/>
+      <c r="AX28" s="358"/>
+      <c r="AY28" s="358"/>
+      <c r="AZ28" s="358"/>
+      <c r="BA28" s="358"/>
+      <c r="BB28" s="358"/>
+      <c r="BC28" s="358"/>
+      <c r="BD28" s="358"/>
+      <c r="BE28" s="358"/>
+      <c r="BF28" s="358"/>
+      <c r="BG28" s="358"/>
+      <c r="BH28" s="358"/>
+      <c r="BI28" s="358"/>
+      <c r="BJ28" s="358"/>
+      <c r="BK28" s="358"/>
+      <c r="BL28" s="358"/>
+      <c r="BM28" s="358"/>
+      <c r="BN28" s="358"/>
+      <c r="BO28" s="358"/>
+      <c r="BP28" s="362"/>
+    </row>
+    <row r="29" spans="1:68" s="360" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="522"/>
+      <c r="B29" s="495"/>
+      <c r="C29" s="496"/>
+      <c r="D29" s="496"/>
+      <c r="E29" s="496"/>
+      <c r="F29" s="497"/>
+      <c r="G29" s="495"/>
+      <c r="H29" s="498"/>
+      <c r="I29" s="358"/>
+      <c r="J29" s="358"/>
+      <c r="K29" s="358"/>
+      <c r="L29" s="359"/>
+      <c r="P29" s="361"/>
+      <c r="Q29" s="358"/>
+      <c r="R29" s="358"/>
+      <c r="S29" s="358"/>
+      <c r="T29" s="358"/>
+      <c r="U29" s="358"/>
+      <c r="V29" s="358"/>
+      <c r="W29" s="358"/>
+      <c r="X29" s="358"/>
+      <c r="Y29" s="358"/>
+      <c r="Z29" s="358"/>
+      <c r="AA29" s="358"/>
+      <c r="AB29" s="358"/>
+      <c r="AC29" s="358"/>
+      <c r="AD29" s="358"/>
+      <c r="AE29" s="358"/>
+      <c r="AF29" s="358"/>
+      <c r="AG29" s="358"/>
+      <c r="AH29" s="358"/>
+      <c r="AI29" s="358"/>
+      <c r="AJ29" s="358"/>
+      <c r="AK29" s="358"/>
+      <c r="AL29" s="358"/>
+      <c r="AM29" s="358"/>
+      <c r="AN29" s="358"/>
+      <c r="AO29" s="358"/>
+      <c r="AP29" s="358"/>
+      <c r="AQ29" s="358"/>
+      <c r="AR29" s="358"/>
+      <c r="AS29" s="358"/>
+      <c r="AT29" s="358"/>
+      <c r="AU29" s="358"/>
+      <c r="AV29" s="358"/>
+      <c r="AW29" s="358"/>
+      <c r="AX29" s="358"/>
+      <c r="AY29" s="358"/>
+      <c r="AZ29" s="358"/>
+      <c r="BA29" s="358"/>
+      <c r="BB29" s="358"/>
+      <c r="BC29" s="358"/>
+      <c r="BD29" s="358"/>
+      <c r="BE29" s="358"/>
+      <c r="BF29" s="358"/>
+      <c r="BG29" s="358"/>
+      <c r="BH29" s="358"/>
+      <c r="BI29" s="358"/>
+      <c r="BJ29" s="358"/>
+      <c r="BK29" s="358"/>
+      <c r="BL29" s="358"/>
+      <c r="BM29" s="358"/>
+      <c r="BN29" s="358"/>
+      <c r="BO29" s="358"/>
+      <c r="BP29" s="362"/>
+    </row>
+    <row r="30" spans="1:68" s="360" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="522"/>
+      <c r="B30" s="495"/>
+      <c r="C30" s="496"/>
+      <c r="D30" s="496"/>
+      <c r="E30" s="496"/>
+      <c r="F30" s="497"/>
+      <c r="G30" s="495"/>
+      <c r="H30" s="498"/>
+      <c r="I30" s="358"/>
+      <c r="J30" s="358"/>
+      <c r="K30" s="358"/>
+      <c r="L30" s="359"/>
+      <c r="P30" s="361"/>
+      <c r="Q30" s="358"/>
+      <c r="R30" s="358"/>
+      <c r="S30" s="358"/>
+      <c r="T30" s="358"/>
+      <c r="U30" s="358"/>
+      <c r="V30" s="358"/>
+      <c r="W30" s="358"/>
+      <c r="X30" s="358"/>
+      <c r="Y30" s="358"/>
+      <c r="Z30" s="358"/>
+      <c r="AA30" s="358"/>
+      <c r="AB30" s="358"/>
+      <c r="AC30" s="358"/>
+      <c r="AD30" s="358"/>
+      <c r="AE30" s="358"/>
+      <c r="AF30" s="358"/>
+      <c r="AG30" s="358"/>
+      <c r="AH30" s="358"/>
+      <c r="AI30" s="358"/>
+      <c r="AJ30" s="358"/>
+      <c r="AK30" s="358"/>
+      <c r="AL30" s="358"/>
+      <c r="AM30" s="358"/>
+      <c r="AN30" s="358"/>
+      <c r="AO30" s="358"/>
+      <c r="AP30" s="358"/>
+      <c r="AQ30" s="358"/>
+      <c r="AR30" s="358"/>
+      <c r="AS30" s="358"/>
+      <c r="AT30" s="358"/>
+      <c r="AU30" s="358"/>
+      <c r="AV30" s="358"/>
+      <c r="AW30" s="358"/>
+      <c r="AX30" s="358"/>
+      <c r="AY30" s="358"/>
+      <c r="AZ30" s="358"/>
+      <c r="BA30" s="358"/>
+      <c r="BB30" s="358"/>
+      <c r="BC30" s="358"/>
+      <c r="BD30" s="358"/>
+      <c r="BE30" s="358"/>
+      <c r="BF30" s="358"/>
+      <c r="BG30" s="358"/>
+      <c r="BH30" s="358"/>
+      <c r="BI30" s="358"/>
+      <c r="BJ30" s="358"/>
+      <c r="BK30" s="358"/>
+      <c r="BL30" s="358"/>
+      <c r="BM30" s="358"/>
+      <c r="BN30" s="358"/>
+      <c r="BO30" s="358"/>
+      <c r="BP30" s="362"/>
+    </row>
+    <row r="31" spans="1:68" s="360" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="522"/>
+      <c r="B31" s="495"/>
+      <c r="C31" s="496"/>
+      <c r="D31" s="496"/>
+      <c r="E31" s="496"/>
+      <c r="F31" s="497"/>
+      <c r="G31" s="495"/>
+      <c r="H31" s="498"/>
+      <c r="I31" s="358"/>
+      <c r="J31" s="358"/>
+      <c r="K31" s="358"/>
+      <c r="L31" s="359"/>
+      <c r="P31" s="361"/>
+      <c r="Q31" s="358"/>
+      <c r="R31" s="358"/>
+      <c r="S31" s="358"/>
+      <c r="T31" s="358"/>
+      <c r="U31" s="358"/>
+      <c r="V31" s="358"/>
+      <c r="W31" s="358"/>
+      <c r="X31" s="358"/>
+      <c r="Y31" s="358"/>
+      <c r="Z31" s="358"/>
+      <c r="AA31" s="358"/>
+      <c r="AB31" s="358"/>
+      <c r="AC31" s="358"/>
+      <c r="AD31" s="358"/>
+      <c r="AE31" s="358"/>
+      <c r="AF31" s="358"/>
+      <c r="AG31" s="358"/>
+      <c r="AH31" s="358"/>
+      <c r="AI31" s="358"/>
+      <c r="AJ31" s="358"/>
+      <c r="AK31" s="358"/>
+      <c r="AL31" s="358"/>
+      <c r="AM31" s="358"/>
+      <c r="AN31" s="358"/>
+      <c r="AO31" s="358"/>
+      <c r="AP31" s="358"/>
+      <c r="AQ31" s="358"/>
+      <c r="AR31" s="358"/>
+      <c r="AS31" s="358"/>
+      <c r="AT31" s="358"/>
+      <c r="AU31" s="358"/>
+      <c r="AV31" s="358"/>
+      <c r="AW31" s="358"/>
+      <c r="AX31" s="358"/>
+      <c r="AY31" s="358"/>
+      <c r="AZ31" s="358"/>
+      <c r="BA31" s="358"/>
+      <c r="BB31" s="358"/>
+      <c r="BC31" s="358"/>
+      <c r="BD31" s="358"/>
+      <c r="BE31" s="358"/>
+      <c r="BF31" s="358"/>
+      <c r="BG31" s="358"/>
+      <c r="BH31" s="358"/>
+      <c r="BI31" s="358"/>
+      <c r="BJ31" s="358"/>
+      <c r="BK31" s="358"/>
+      <c r="BL31" s="358"/>
+      <c r="BM31" s="358"/>
+      <c r="BN31" s="358"/>
+      <c r="BO31" s="358"/>
+      <c r="BP31" s="362"/>
     </row>
     <row r="32" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="414"/>
-      <c r="B32" s="316"/>
-      <c r="C32" s="316"/>
-      <c r="D32" s="316"/>
-      <c r="E32" s="316"/>
-      <c r="F32" s="316"/>
-      <c r="G32" s="316"/>
-      <c r="H32" s="359"/>
+      <c r="A32" s="516"/>
+      <c r="B32" s="490"/>
+      <c r="C32" s="490"/>
+      <c r="D32" s="490"/>
+      <c r="E32" s="490"/>
+      <c r="F32" s="490"/>
+      <c r="G32" s="490"/>
+      <c r="H32" s="491"/>
       <c r="I32" s="25"/>
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
-      <c r="L32" s="369"/>
-      <c r="P32" s="370"/>
+      <c r="L32" s="356"/>
+      <c r="P32" s="357"/>
       <c r="Q32" s="25"/>
       <c r="R32" s="25"/>
       <c r="S32" s="25"/>
@@ -10378,19 +10442,19 @@
       <c r="BP32" s="26"/>
     </row>
     <row r="33" spans="1:68" s="124" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="421"/>
-      <c r="B33" s="144"/>
-      <c r="C33" s="144"/>
-      <c r="D33" s="134"/>
-      <c r="E33" s="134"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="372"/>
+      <c r="A33" s="523"/>
+      <c r="B33" s="509"/>
+      <c r="C33" s="509"/>
+      <c r="D33" s="506"/>
+      <c r="E33" s="506"/>
+      <c r="F33" s="511"/>
+      <c r="G33" s="511"/>
+      <c r="H33" s="510"/>
       <c r="I33" s="121"/>
       <c r="J33" s="121"/>
       <c r="K33" s="121"/>
-      <c r="L33" s="367"/>
-      <c r="P33" s="368"/>
+      <c r="L33" s="354"/>
+      <c r="P33" s="355"/>
       <c r="Q33" s="121"/>
       <c r="R33" s="121"/>
       <c r="S33" s="121"/>
@@ -10445,22 +10509,22 @@
       <c r="BP33" s="123"/>
     </row>
     <row r="34" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="422"/>
-      <c r="B34" s="378"/>
-      <c r="C34" s="379"/>
-      <c r="D34" s="379"/>
-      <c r="E34" s="379"/>
-      <c r="F34" s="379"/>
-      <c r="G34" s="378"/>
-      <c r="H34" s="380"/>
+      <c r="A34" s="524"/>
+      <c r="B34" s="512"/>
+      <c r="C34" s="513"/>
+      <c r="D34" s="513"/>
+      <c r="E34" s="513"/>
+      <c r="F34" s="513"/>
+      <c r="G34" s="512"/>
+      <c r="H34" s="514"/>
       <c r="I34" s="25"/>
       <c r="J34" s="25"/>
       <c r="K34" s="25"/>
-      <c r="L34" s="381"/>
-      <c r="M34" s="382"/>
-      <c r="N34" s="382"/>
-      <c r="O34" s="382"/>
-      <c r="P34" s="383"/>
+      <c r="L34" s="363"/>
+      <c r="M34" s="364"/>
+      <c r="N34" s="364"/>
+      <c r="O34" s="364"/>
+      <c r="P34" s="365"/>
       <c r="Q34" s="25"/>
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
@@ -10516,19 +10580,19 @@
     </row>
     <row r="35" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="190"/>
-      <c r="B35" s="408"/>
+      <c r="B35" s="386"/>
       <c r="C35" s="190"/>
       <c r="D35" s="190"/>
       <c r="E35" s="190"/>
       <c r="F35" s="191"/>
-      <c r="G35" s="409"/>
-      <c r="H35" s="409"/>
-    </row>
-    <row r="36" spans="1:68" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="190" t="s">
+      <c r="G35" s="387"/>
+      <c r="H35" s="387"/>
+    </row>
+    <row r="36" spans="1:68" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="525" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="384">
+      <c r="B36" s="366">
         <f>COUNTA(B7:B34)</f>
         <v>0</v>
       </c>
@@ -10603,14 +10667,14 @@
       <c r="N1" s="12"/>
     </row>
     <row r="2" spans="1:20" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="428"/>
-      <c r="B2" s="428"/>
-      <c r="C2" s="428"/>
-      <c r="D2" s="429"/>
-      <c r="E2" s="429"/>
-      <c r="F2" s="429"/>
-      <c r="G2" s="428"/>
-      <c r="H2" s="428"/>
+      <c r="A2" s="476"/>
+      <c r="B2" s="476"/>
+      <c r="C2" s="476"/>
+      <c r="D2" s="477"/>
+      <c r="E2" s="477"/>
+      <c r="F2" s="477"/>
+      <c r="G2" s="476"/>
+      <c r="H2" s="476"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
@@ -10625,16 +10689,16 @@
       <c r="T2" s="12"/>
     </row>
     <row r="3" spans="1:20" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="428"/>
-      <c r="B3" s="428"/>
-      <c r="C3" s="428"/>
-      <c r="D3" s="429" t="s">
+      <c r="A3" s="476"/>
+      <c r="B3" s="476"/>
+      <c r="C3" s="476"/>
+      <c r="D3" s="477" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="429"/>
-      <c r="F3" s="429"/>
-      <c r="G3" s="428"/>
-      <c r="H3" s="428"/>
+      <c r="E3" s="477"/>
+      <c r="F3" s="477"/>
+      <c r="G3" s="476"/>
+      <c r="H3" s="476"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
@@ -10649,14 +10713,14 @@
       <c r="T3" s="12"/>
     </row>
     <row r="4" spans="1:20" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="428"/>
-      <c r="B4" s="428"/>
-      <c r="C4" s="428"/>
-      <c r="D4" s="429"/>
-      <c r="E4" s="429"/>
-      <c r="F4" s="429"/>
-      <c r="G4" s="428"/>
-      <c r="H4" s="428"/>
+      <c r="A4" s="476"/>
+      <c r="B4" s="476"/>
+      <c r="C4" s="476"/>
+      <c r="D4" s="477"/>
+      <c r="E4" s="477"/>
+      <c r="F4" s="477"/>
+      <c r="G4" s="476"/>
+      <c r="H4" s="476"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
@@ -10693,28 +10757,28 @@
       <c r="T5" s="12"/>
     </row>
     <row r="6" spans="1:20" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="398" t="s">
+      <c r="A6" s="380" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="399" t="s">
+      <c r="B6" s="381" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="400" t="s">
+      <c r="C6" s="382" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="399" t="s">
+      <c r="D6" s="381" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="399" t="s">
+      <c r="E6" s="381" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="401" t="s">
+      <c r="F6" s="383" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="402" t="s">
+      <c r="G6" s="384" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="403" t="s">
+      <c r="H6" s="385" t="s">
         <v>22</v>
       </c>
       <c r="I6" s="20"/>
@@ -10741,14 +10805,14 @@
       <c r="T6" s="12"/>
     </row>
     <row r="7" spans="1:20" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="393"/>
+      <c r="A7" s="375"/>
       <c r="B7" s="109"/>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
-      <c r="H7" s="387"/>
+      <c r="H7" s="369"/>
       <c r="I7" s="20"/>
       <c r="J7" s="21"/>
       <c r="K7" s="13"/>
@@ -10763,14 +10827,14 @@
       <c r="T7" s="12"/>
     </row>
     <row r="8" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="385"/>
+      <c r="A8" s="367"/>
       <c r="B8" s="125"/>
       <c r="C8" s="49"/>
       <c r="D8" s="126"/>
       <c r="E8" s="126"/>
       <c r="F8" s="126"/>
       <c r="G8" s="126"/>
-      <c r="H8" s="386"/>
+      <c r="H8" s="368"/>
       <c r="I8" s="20"/>
       <c r="J8" s="21"/>
       <c r="K8" s="13"/>
@@ -10791,14 +10855,14 @@
       <c r="T8" s="12"/>
     </row>
     <row r="9" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="385"/>
+      <c r="A9" s="367"/>
       <c r="B9" s="27"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
-      <c r="H9" s="387"/>
+      <c r="H9" s="369"/>
       <c r="I9" s="20"/>
       <c r="J9" s="21"/>
       <c r="K9" s="13"/>
@@ -10813,14 +10877,14 @@
       <c r="T9" s="12"/>
     </row>
     <row r="10" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="385"/>
+      <c r="A10" s="367"/>
       <c r="B10" s="27"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
-      <c r="H10" s="387"/>
+      <c r="H10" s="369"/>
       <c r="I10" s="20"/>
       <c r="J10" s="132"/>
       <c r="K10" s="11"/>
@@ -10835,14 +10899,14 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="385"/>
+      <c r="A11" s="367"/>
       <c r="B11" s="27"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
-      <c r="H11" s="387"/>
+      <c r="H11" s="369"/>
       <c r="I11" s="20"/>
       <c r="J11" s="21"/>
       <c r="K11" s="13"/>
@@ -10857,14 +10921,14 @@
       <c r="T11" s="12"/>
     </row>
     <row r="12" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="385"/>
+      <c r="A12" s="367"/>
       <c r="B12" s="27"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
       <c r="E12" s="111"/>
       <c r="F12" s="111"/>
       <c r="G12" s="28"/>
-      <c r="H12" s="387"/>
+      <c r="H12" s="369"/>
       <c r="I12" s="20"/>
       <c r="J12" s="21"/>
       <c r="K12" s="13"/>
@@ -10879,14 +10943,14 @@
       <c r="T12" s="12"/>
     </row>
     <row r="13" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="385"/>
+      <c r="A13" s="367"/>
       <c r="B13" s="27"/>
       <c r="C13" s="28"/>
       <c r="D13" s="107"/>
       <c r="E13" s="9"/>
       <c r="F13" s="162"/>
       <c r="G13" s="125"/>
-      <c r="H13" s="387"/>
+      <c r="H13" s="369"/>
       <c r="I13" s="20"/>
       <c r="J13" s="21"/>
       <c r="K13" s="13"/>
@@ -10901,14 +10965,14 @@
       <c r="T13" s="12"/>
     </row>
     <row r="14" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="385"/>
+      <c r="A14" s="367"/>
       <c r="B14" s="27"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="107"/>
       <c r="F14" s="108"/>
       <c r="G14" s="28"/>
-      <c r="H14" s="387"/>
+      <c r="H14" s="369"/>
       <c r="I14" s="20"/>
       <c r="J14" s="21"/>
       <c r="K14" s="13"/>
@@ -10923,14 +10987,14 @@
       <c r="T14" s="12"/>
     </row>
     <row r="15" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="385"/>
+      <c r="A15" s="367"/>
       <c r="B15" s="27"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
-      <c r="H15" s="387"/>
+      <c r="H15" s="369"/>
       <c r="I15" s="20"/>
       <c r="J15" s="21"/>
       <c r="K15" s="13"/>
@@ -10945,14 +11009,14 @@
       <c r="T15" s="12"/>
     </row>
     <row r="16" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="385"/>
+      <c r="A16" s="367"/>
       <c r="B16" s="27"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
-      <c r="H16" s="387"/>
+      <c r="H16" s="369"/>
       <c r="J16" s="110"/>
       <c r="K16" s="110"/>
       <c r="L16" s="110"/>
@@ -10960,14 +11024,14 @@
       <c r="N16" s="110"/>
     </row>
     <row r="17" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="385"/>
+      <c r="A17" s="367"/>
       <c r="B17" s="27"/>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
-      <c r="H17" s="387"/>
+      <c r="H17" s="369"/>
       <c r="I17" s="20"/>
       <c r="J17" s="21"/>
       <c r="K17" s="13"/>
@@ -10982,14 +11046,14 @@
       <c r="T17" s="12"/>
     </row>
     <row r="18" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="385"/>
+      <c r="A18" s="367"/>
       <c r="B18" s="27"/>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
-      <c r="H18" s="387"/>
+      <c r="H18" s="369"/>
       <c r="J18" s="110"/>
       <c r="K18" s="110"/>
       <c r="L18" s="110"/>
@@ -10997,14 +11061,14 @@
       <c r="N18" s="110"/>
     </row>
     <row r="19" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="385"/>
+      <c r="A19" s="367"/>
       <c r="B19" s="27"/>
       <c r="C19" s="28"/>
       <c r="D19" s="111"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
-      <c r="H19" s="387"/>
+      <c r="H19" s="369"/>
       <c r="I19" s="20"/>
       <c r="J19" s="21"/>
       <c r="K19" s="13"/>
@@ -11019,14 +11083,14 @@
       <c r="T19" s="12"/>
     </row>
     <row r="20" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="385"/>
+      <c r="A20" s="367"/>
       <c r="B20" s="154"/>
       <c r="C20" s="155"/>
       <c r="D20" s="156"/>
       <c r="E20" s="132"/>
       <c r="F20" s="157"/>
       <c r="G20" s="158"/>
-      <c r="H20" s="389"/>
+      <c r="H20" s="371"/>
       <c r="I20" s="20"/>
       <c r="J20" s="21"/>
       <c r="K20" s="13"/>
@@ -11041,14 +11105,14 @@
       <c r="T20" s="12"/>
     </row>
     <row r="21" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="385"/>
+      <c r="A21" s="367"/>
       <c r="B21" s="27"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
-      <c r="H21" s="387"/>
+      <c r="H21" s="369"/>
       <c r="I21" s="20"/>
       <c r="J21" s="21"/>
       <c r="K21" s="13"/>
@@ -11063,14 +11127,14 @@
       <c r="T21" s="12"/>
     </row>
     <row r="22" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="385"/>
+      <c r="A22" s="367"/>
       <c r="B22" s="27"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
-      <c r="H22" s="387"/>
+      <c r="H22" s="369"/>
       <c r="I22" s="20"/>
       <c r="J22" s="21"/>
       <c r="K22" s="13"/>
@@ -11085,14 +11149,14 @@
       <c r="T22" s="12"/>
     </row>
     <row r="23" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="385"/>
+      <c r="A23" s="367"/>
       <c r="B23" s="27"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="387"/>
+      <c r="H23" s="369"/>
       <c r="I23" s="20"/>
       <c r="J23" s="21"/>
       <c r="K23" s="13"/>
@@ -11107,14 +11171,14 @@
       <c r="T23" s="12"/>
     </row>
     <row r="24" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="385"/>
+      <c r="A24" s="367"/>
       <c r="B24" s="27"/>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
-      <c r="H24" s="387"/>
+      <c r="H24" s="369"/>
       <c r="I24" s="20"/>
       <c r="J24" s="21"/>
       <c r="K24" s="13"/>
@@ -11129,14 +11193,14 @@
       <c r="T24" s="12"/>
     </row>
     <row r="25" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="385"/>
+      <c r="A25" s="367"/>
       <c r="B25" s="11"/>
       <c r="C25" s="14"/>
       <c r="D25" s="159"/>
       <c r="E25" s="11"/>
       <c r="F25" s="15"/>
       <c r="G25" s="24"/>
-      <c r="H25" s="390"/>
+      <c r="H25" s="372"/>
       <c r="I25" s="20"/>
       <c r="J25" s="21"/>
       <c r="K25" s="13"/>
@@ -11145,14 +11209,14 @@
       <c r="N25" s="13"/>
     </row>
     <row r="26" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="385"/>
+      <c r="A26" s="367"/>
       <c r="B26" s="27"/>
       <c r="C26" s="28"/>
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
-      <c r="H26" s="387"/>
+      <c r="H26" s="369"/>
       <c r="I26" s="20"/>
       <c r="J26" s="21"/>
       <c r="K26" s="13"/>
@@ -11167,14 +11231,14 @@
       <c r="T26" s="12"/>
     </row>
     <row r="27" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="385"/>
+      <c r="A27" s="367"/>
       <c r="B27" s="27"/>
       <c r="C27" s="28"/>
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
-      <c r="H27" s="387"/>
+      <c r="H27" s="369"/>
       <c r="I27" s="20"/>
       <c r="J27" s="21"/>
       <c r="K27" s="13"/>
@@ -11189,14 +11253,14 @@
       <c r="T27" s="12"/>
     </row>
     <row r="28" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="385"/>
+      <c r="A28" s="367"/>
       <c r="B28" s="27"/>
       <c r="C28" s="28"/>
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
-      <c r="H28" s="387"/>
+      <c r="H28" s="369"/>
       <c r="I28" s="20"/>
       <c r="J28" s="21"/>
       <c r="K28" s="13"/>
@@ -11211,14 +11275,14 @@
       <c r="T28" s="12"/>
     </row>
     <row r="29" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="385"/>
+      <c r="A29" s="367"/>
       <c r="B29" s="27"/>
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
-      <c r="H29" s="387"/>
+      <c r="H29" s="369"/>
       <c r="I29" s="20"/>
       <c r="J29" s="21"/>
       <c r="K29" s="13"/>
@@ -11233,14 +11297,14 @@
       <c r="T29" s="12"/>
     </row>
     <row r="30" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="385"/>
+      <c r="A30" s="367"/>
       <c r="B30" s="27"/>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
       <c r="G30" s="28"/>
-      <c r="H30" s="387"/>
+      <c r="H30" s="369"/>
       <c r="I30" s="20"/>
       <c r="J30" s="21"/>
       <c r="K30" s="13"/>
@@ -11255,14 +11319,14 @@
       <c r="T30" s="12"/>
     </row>
     <row r="31" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="385"/>
+      <c r="A31" s="367"/>
       <c r="B31" s="27"/>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
-      <c r="H31" s="387"/>
+      <c r="H31" s="369"/>
       <c r="I31" s="20"/>
       <c r="J31" s="21"/>
       <c r="K31" s="13"/>
@@ -11277,14 +11341,14 @@
       <c r="T31" s="12"/>
     </row>
     <row r="32" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="385"/>
+      <c r="A32" s="367"/>
       <c r="B32" s="27"/>
       <c r="C32" s="28"/>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
       <c r="F32" s="9"/>
       <c r="G32" s="28"/>
-      <c r="H32" s="387"/>
+      <c r="H32" s="369"/>
       <c r="I32" s="20"/>
       <c r="J32" s="21"/>
       <c r="K32" s="13"/>
@@ -11299,14 +11363,14 @@
       <c r="T32" s="12"/>
     </row>
     <row r="33" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="391"/>
+      <c r="A33" s="373"/>
       <c r="B33" s="130"/>
       <c r="C33" s="111"/>
       <c r="D33" s="111"/>
       <c r="E33" s="111"/>
       <c r="F33" s="111"/>
       <c r="G33" s="111"/>
-      <c r="H33" s="392"/>
+      <c r="H33" s="374"/>
       <c r="I33" s="20"/>
       <c r="J33" s="21"/>
       <c r="K33" s="13"/>
@@ -11321,14 +11385,14 @@
       <c r="T33" s="12"/>
     </row>
     <row r="34" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="385"/>
+      <c r="A34" s="367"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="388"/>
+      <c r="H34" s="370"/>
       <c r="I34" s="20"/>
       <c r="J34" s="21"/>
       <c r="K34" s="13"/>
@@ -11343,14 +11407,14 @@
       <c r="T34" s="12"/>
     </row>
     <row r="35" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="393"/>
+      <c r="A35" s="375"/>
       <c r="B35" s="131"/>
       <c r="C35" s="131"/>
       <c r="D35" s="131"/>
       <c r="E35" s="131"/>
       <c r="F35" s="131"/>
       <c r="G35" s="131"/>
-      <c r="H35" s="394"/>
+      <c r="H35" s="376"/>
       <c r="I35" s="20"/>
       <c r="J35" s="21"/>
       <c r="K35" s="13"/>
@@ -11365,14 +11429,14 @@
       <c r="T35" s="12"/>
     </row>
     <row r="36" spans="1:20" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="395"/>
-      <c r="B36" s="396"/>
-      <c r="C36" s="396"/>
-      <c r="D36" s="396"/>
-      <c r="E36" s="396"/>
-      <c r="F36" s="396"/>
-      <c r="G36" s="396"/>
-      <c r="H36" s="397"/>
+      <c r="A36" s="377"/>
+      <c r="B36" s="378"/>
+      <c r="C36" s="378"/>
+      <c r="D36" s="378"/>
+      <c r="E36" s="378"/>
+      <c r="F36" s="378"/>
+      <c r="G36" s="378"/>
+      <c r="H36" s="379"/>
       <c r="I36" s="20"/>
       <c r="J36" s="21"/>
       <c r="K36" s="13"/>
@@ -11467,12 +11531,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c298f69c-7e32-4d69-8a4f-44b776bc75e5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="27d18e64-52d1-4030-b5cf-9c691bb829da" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11719,20 +11785,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c298f69c-7e32-4d69-8a4f-44b776bc75e5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="27d18e64-52d1-4030-b5cf-9c691bb829da" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18B17227-D4F1-4BA2-A533-34BDC1F9C7F0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B37A3888-C326-48DF-AE4A-829BED1A658A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c298f69c-7e32-4d69-8a4f-44b776bc75e5"/>
+    <ds:schemaRef ds:uri="27d18e64-52d1-4030-b5cf-9c691bb829da"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11757,12 +11824,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B37A3888-C326-48DF-AE4A-829BED1A658A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18B17227-D4F1-4BA2-A533-34BDC1F9C7F0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c298f69c-7e32-4d69-8a4f-44b776bc75e5"/>
-    <ds:schemaRef ds:uri="27d18e64-52d1-4030-b5cf-9c691bb829da"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/templates/entry_list_template.xlsx
+++ b/templates/entry_list_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brendanwoo/projects/sro_sign_in/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CF7972-DCD8-074F-9318-D763C905B913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C51575-2D3B-1E48-993E-67595F7E1A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{542D648B-9180-43EF-9053-182057C63D4C}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{542D648B-9180-43EF-9053-182057C63D4C}"/>
   </bookViews>
   <sheets>
     <sheet name="GTWCA" sheetId="10" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'GR Cup'!$A$1:$H$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">GTAM!$A$2:$J$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">GTAM!$A$2:$J$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">GTWCA!$A$2:$N$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">PGT4A!$A$1:$N$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">TCAM!$A$2:$H$37</definedName>
@@ -149,7 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="59" x14ac:knownFonts="1">
+  <fonts count="63" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,6 +532,31 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1738,7 +1763,7 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="56" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="489">
+  <cellXfs count="510">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1851,9 +1876,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1861,28 +1883,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1896,89 +1900,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2056,9 +2006,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2067,21 +2014,6 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2093,9 +2025,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2104,38 +2033,11 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="34" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2148,9 +2050,6 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2160,15 +2059,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="34" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2200,9 +2090,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="39" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2241,9 +2128,6 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2304,12 +2188,6 @@
     <xf numFmtId="49" fontId="39" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2384,9 +2262,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="39" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2425,33 +2300,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3135,6 +2983,246 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="61" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="62" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="59" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="60" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="62" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="61" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="61" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="62" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="62" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="59" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="61" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="62" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="62" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="60" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="59" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3145,6 +3233,426 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{561A9865-CE34-4D81-A124-2143BF703225}"/>
   </cellStyles>
   <dxfs count="66">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thick">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thick">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thick">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thick">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -4038,426 +4546,6 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thick">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thick">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thick">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thick">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thick">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thick">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thick">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -5234,8 +5322,8 @@
       <xdr:rowOff>292100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>5204</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2265804</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>330200</xdr:rowOff>
     </xdr:to>
@@ -5656,66 +5744,66 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EEF14E4E-087A-46C7-831D-A668229E00D6}" name="Table226" displayName="Table226" ref="A6:J28" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42" totalsRowBorderDxfId="41">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:J31">
-    <sortCondition descending="1" ref="J8:J31"/>
-    <sortCondition ref="B8:B31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EEF14E4E-087A-46C7-831D-A668229E00D6}" name="Table226" displayName="Table226" ref="A6:J37" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:J40">
+    <sortCondition descending="1" ref="J8:J40"/>
+    <sortCondition ref="B8:B40"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="2" xr3:uid="{29DF6422-9DDA-4F8F-8BEE-5184D2457B57}" name="Series" dataDxfId="40" dataCellStyle="Neutral"/>
-    <tableColumn id="10" xr3:uid="{1486B7A1-2318-4A69-93B1-14B85F40C988}" name="Car #" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{9FCCBAF6-EB7D-44F1-ADEC-A2DF74A549AE}" name="Team " dataDxfId="38" dataCellStyle="Neutral"/>
-    <tableColumn id="4" xr3:uid="{5972D2A1-6086-4595-9053-F6AB4ABD85A7}" name="Driver 1" dataDxfId="37" dataCellStyle="Neutral"/>
-    <tableColumn id="5" xr3:uid="{0273D45B-C8FF-4DBF-A963-B72D55D93954}" name="NAT" dataDxfId="36" dataCellStyle="Neutral"/>
-    <tableColumn id="13" xr3:uid="{26D97A36-D7BA-4D93-9A44-CC528D4BDC4F}" name="LIC " dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{AC25B573-C8BF-40ED-8E09-71D35117CA3A}" name="CAT" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{C3A46578-AA4D-4C94-B592-5AC371A17E14}" name="Car Sponsors" dataDxfId="33" dataCellStyle="Neutral"/>
-    <tableColumn id="7" xr3:uid="{7B3018A6-2A70-4C3E-BE5C-CCFFCABD4796}" name="Car Make/Model" dataDxfId="32"/>
-    <tableColumn id="9" xr3:uid="{C0209330-55B6-42D3-AB23-D1C37AFC6FDA}" name="Class" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{29DF6422-9DDA-4F8F-8BEE-5184D2457B57}" name="Series" dataDxfId="9" dataCellStyle="Neutral"/>
+    <tableColumn id="10" xr3:uid="{1486B7A1-2318-4A69-93B1-14B85F40C988}" name="Car #" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{9FCCBAF6-EB7D-44F1-ADEC-A2DF74A549AE}" name="Team " dataDxfId="7" dataCellStyle="Neutral"/>
+    <tableColumn id="4" xr3:uid="{5972D2A1-6086-4595-9053-F6AB4ABD85A7}" name="Driver 1" dataDxfId="6" dataCellStyle="Neutral"/>
+    <tableColumn id="5" xr3:uid="{0273D45B-C8FF-4DBF-A963-B72D55D93954}" name="NAT" dataDxfId="5" dataCellStyle="Neutral"/>
+    <tableColumn id="13" xr3:uid="{26D97A36-D7BA-4D93-9A44-CC528D4BDC4F}" name="LIC " dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{AC25B573-C8BF-40ED-8E09-71D35117CA3A}" name="CAT" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{C3A46578-AA4D-4C94-B592-5AC371A17E14}" name="Car Sponsors" dataDxfId="2" dataCellStyle="Neutral"/>
+    <tableColumn id="7" xr3:uid="{7B3018A6-2A70-4C3E-BE5C-CCFFCABD4796}" name="Car Make/Model" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{C0209330-55B6-42D3-AB23-D1C37AFC6FDA}" name="Class" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{56F25BC1-6701-4669-AC0F-E1673995674A}" name="Table2267" displayName="Table2267" ref="A6:N38" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{56F25BC1-6701-4669-AC0F-E1673995674A}" name="Table2267" displayName="Table2267" ref="A6:N38" totalsRowShown="0" headerRowDxfId="45" headerRowBorderDxfId="44" tableBorderDxfId="43" totalsRowBorderDxfId="42">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:N39">
     <sortCondition ref="B9:B39"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="2" xr3:uid="{86C7766F-C815-4642-A792-C792E5CD9B1D}" name="Series" dataDxfId="26" dataCellStyle="Neutral"/>
-    <tableColumn id="10" xr3:uid="{B0849F24-6597-4E76-94D7-2D7E93B5B7E1}" name="Car #" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{C0375D1B-A6A9-4878-94F1-144B367DBFAE}" name="Team " dataDxfId="24" dataCellStyle="Neutral"/>
-    <tableColumn id="4" xr3:uid="{731AF936-9BBC-4114-AF94-6737C2C799AD}" name="Driver 1" dataDxfId="23" dataCellStyle="Neutral"/>
-    <tableColumn id="5" xr3:uid="{4AAAC599-A742-4343-8BE4-F0207EAEB236}" name="NAT" dataDxfId="22" dataCellStyle="Neutral"/>
-    <tableColumn id="13" xr3:uid="{46C8C08D-7690-4908-8D68-9031FA1AAB13}" name="LIC " dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{0B42790F-CF16-4A79-97F6-02353851B814}" name="CAT" dataDxfId="20"/>
-    <tableColumn id="12" xr3:uid="{4393EDC9-8099-4851-8BA5-F88B5093FA18}" name="Driver 2" dataDxfId="19"/>
-    <tableColumn id="11" xr3:uid="{022A346F-1EFC-477E-B3FF-234F17FB995D}" name="  NAT " dataDxfId="18"/>
-    <tableColumn id="14" xr3:uid="{4A5DA010-C6D1-49CE-8487-00AC7C736274}" name=" LIC " dataDxfId="17"/>
-    <tableColumn id="1" xr3:uid="{15D47E2B-7108-41F5-BB6D-FABBD704C2C8}" name="CAT " dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{5F578104-8A47-4C21-AE4F-A41AFD51CA17}" name="Car Sponsors" dataDxfId="15" dataCellStyle="Neutral"/>
-    <tableColumn id="7" xr3:uid="{37BFAE36-6B5E-4D59-B805-2A4B37B829ED}" name="Car Make/Model" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{C4134C49-64E4-4B01-865E-C1B755B7D04A}" name="Championship" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{86C7766F-C815-4642-A792-C792E5CD9B1D}" name="Series" dataDxfId="41" dataCellStyle="Neutral"/>
+    <tableColumn id="10" xr3:uid="{B0849F24-6597-4E76-94D7-2D7E93B5B7E1}" name="Car #" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{C0375D1B-A6A9-4878-94F1-144B367DBFAE}" name="Team " dataDxfId="39" dataCellStyle="Neutral"/>
+    <tableColumn id="4" xr3:uid="{731AF936-9BBC-4114-AF94-6737C2C799AD}" name="Driver 1" dataDxfId="38" dataCellStyle="Neutral"/>
+    <tableColumn id="5" xr3:uid="{4AAAC599-A742-4343-8BE4-F0207EAEB236}" name="NAT" dataDxfId="37" dataCellStyle="Neutral"/>
+    <tableColumn id="13" xr3:uid="{46C8C08D-7690-4908-8D68-9031FA1AAB13}" name="LIC " dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{0B42790F-CF16-4A79-97F6-02353851B814}" name="CAT" dataDxfId="35"/>
+    <tableColumn id="12" xr3:uid="{4393EDC9-8099-4851-8BA5-F88B5093FA18}" name="Driver 2" dataDxfId="34"/>
+    <tableColumn id="11" xr3:uid="{022A346F-1EFC-477E-B3FF-234F17FB995D}" name="  NAT " dataDxfId="33"/>
+    <tableColumn id="14" xr3:uid="{4A5DA010-C6D1-49CE-8487-00AC7C736274}" name=" LIC " dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{15D47E2B-7108-41F5-BB6D-FABBD704C2C8}" name="CAT " dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{5F578104-8A47-4C21-AE4F-A41AFD51CA17}" name="Car Sponsors" dataDxfId="30" dataCellStyle="Neutral"/>
+    <tableColumn id="7" xr3:uid="{37BFAE36-6B5E-4D59-B805-2A4B37B829ED}" name="Car Make/Model" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{C4134C49-64E4-4B01-865E-C1B755B7D04A}" name="Championship" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{11330F46-3971-7D44-8FE5-B039A90EF352}" name="Table22683" displayName="Table22683" ref="A6:H34" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{11330F46-3971-7D44-8FE5-B039A90EF352}" name="Table22683" displayName="Table22683" ref="A6:H34" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:H35">
     <sortCondition descending="1" ref="H12:H35"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="2" xr3:uid="{459DFC46-4742-6E42-8DBB-A583077730B7}" name="Series" dataDxfId="7" dataCellStyle="Neutral"/>
-    <tableColumn id="10" xr3:uid="{A735E01E-C722-8046-A3A7-EB4B8E9856D0}" name="Car #" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{6858B568-BE7E-DA44-A760-6A0FEC2B9951}" name="Team " dataDxfId="5" dataCellStyle="Neutral"/>
-    <tableColumn id="4" xr3:uid="{9302466E-96CC-B845-817B-5E7790246EEA}" name="Driver" dataDxfId="4" dataCellStyle="Neutral"/>
-    <tableColumn id="5" xr3:uid="{6F60649D-7A1A-6B47-AF8B-CDFA61A10C71}" name="NAT" dataDxfId="3" dataCellStyle="Neutral"/>
-    <tableColumn id="8" xr3:uid="{8224E110-2012-0E4B-A25F-B837877427FA}" name="Car Sponsors" dataDxfId="2" dataCellStyle="Neutral"/>
-    <tableColumn id="7" xr3:uid="{3ADFDE9D-B3A8-2D47-8CAD-6E4FB830231A}" name="Car Make/Model" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{B7E977BD-C739-704E-A4EB-5D75989E1112}" name="Class" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{459DFC46-4742-6E42-8DBB-A583077730B7}" name="Series" dataDxfId="22" dataCellStyle="Neutral"/>
+    <tableColumn id="10" xr3:uid="{A735E01E-C722-8046-A3A7-EB4B8E9856D0}" name="Car #" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{6858B568-BE7E-DA44-A760-6A0FEC2B9951}" name="Team " dataDxfId="20" dataCellStyle="Neutral"/>
+    <tableColumn id="4" xr3:uid="{9302466E-96CC-B845-817B-5E7790246EEA}" name="Driver" dataDxfId="19" dataCellStyle="Neutral"/>
+    <tableColumn id="5" xr3:uid="{6F60649D-7A1A-6B47-AF8B-CDFA61A10C71}" name="NAT" dataDxfId="18" dataCellStyle="Neutral"/>
+    <tableColumn id="8" xr3:uid="{8224E110-2012-0E4B-A25F-B837877427FA}" name="Car Sponsors" dataDxfId="17" dataCellStyle="Neutral"/>
+    <tableColumn id="7" xr3:uid="{3ADFDE9D-B3A8-2D47-8CAD-6E4FB830231A}" name="Car Make/Model" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{B7E977BD-C739-704E-A4EB-5D75989E1112}" name="Class" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6029,686 +6117,686 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="283" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="284" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" style="283" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="283" customWidth="1"/>
-    <col min="5" max="7" width="8.6640625" style="283" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="283" customWidth="1"/>
-    <col min="9" max="11" width="8.6640625" style="283" customWidth="1"/>
-    <col min="12" max="13" width="35.6640625" style="283" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" style="283" customWidth="1"/>
-    <col min="15" max="17" width="4.5" style="283"/>
-    <col min="18" max="19" width="8.6640625" style="283" customWidth="1"/>
-    <col min="20" max="20" width="10.6640625" style="283" customWidth="1"/>
-    <col min="21" max="24" width="8.6640625" style="283" customWidth="1"/>
-    <col min="25" max="16384" width="4.5" style="283"/>
+    <col min="1" max="1" width="10.6640625" style="224" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="225" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" style="224" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" style="224" customWidth="1"/>
+    <col min="5" max="7" width="8.6640625" style="224" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" style="224" customWidth="1"/>
+    <col min="9" max="11" width="8.6640625" style="224" customWidth="1"/>
+    <col min="12" max="13" width="35.6640625" style="224" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" style="224" customWidth="1"/>
+    <col min="15" max="17" width="4.5" style="224"/>
+    <col min="18" max="19" width="8.6640625" style="224" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" style="224" customWidth="1"/>
+    <col min="21" max="24" width="8.6640625" style="224" customWidth="1"/>
+    <col min="25" max="16384" width="4.5" style="224"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="482"/>
-      <c r="B2" s="482"/>
-      <c r="C2" s="482"/>
-      <c r="F2" s="234"/>
-      <c r="G2" s="234"/>
-      <c r="H2" s="227"/>
-      <c r="I2" s="234"/>
-      <c r="J2" s="234"/>
-      <c r="M2" s="482"/>
-      <c r="N2" s="482"/>
+      <c r="A2" s="423"/>
+      <c r="B2" s="423"/>
+      <c r="C2" s="423"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="M2" s="423"/>
+      <c r="N2" s="423"/>
     </row>
     <row r="3" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="482"/>
-      <c r="B3" s="482"/>
-      <c r="C3" s="482"/>
-      <c r="F3" s="234"/>
-      <c r="G3" s="234"/>
-      <c r="H3" s="227" t="s">
+      <c r="A3" s="423"/>
+      <c r="B3" s="423"/>
+      <c r="C3" s="423"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="177" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="M3" s="482"/>
-      <c r="N3" s="482"/>
+      <c r="I3" s="184"/>
+      <c r="J3" s="184"/>
+      <c r="M3" s="423"/>
+      <c r="N3" s="423"/>
     </row>
     <row r="4" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="482"/>
-      <c r="B4" s="482"/>
-      <c r="C4" s="482"/>
-      <c r="F4" s="234"/>
-      <c r="G4" s="234"/>
-      <c r="H4" s="227"/>
-      <c r="I4" s="234"/>
-      <c r="J4" s="234"/>
-      <c r="M4" s="482"/>
-      <c r="N4" s="482"/>
+      <c r="A4" s="423"/>
+      <c r="B4" s="423"/>
+      <c r="C4" s="423"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="184"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="184"/>
+      <c r="J4" s="184"/>
+      <c r="M4" s="423"/>
+      <c r="N4" s="423"/>
     </row>
     <row r="5" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="R5" s="482" t="s">
+      <c r="R5" s="423" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="482"/>
-      <c r="T5" s="482"/>
-      <c r="U5" s="482"/>
-      <c r="V5" s="482"/>
-      <c r="W5" s="482"/>
-      <c r="X5" s="482"/>
+      <c r="S5" s="423"/>
+      <c r="T5" s="423"/>
+      <c r="U5" s="423"/>
+      <c r="V5" s="423"/>
+      <c r="W5" s="423"/>
+      <c r="X5" s="423"/>
     </row>
     <row r="6" spans="1:24" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="285" t="s">
+      <c r="A6" s="226" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="285" t="s">
+      <c r="B6" s="226" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="285" t="s">
+      <c r="C6" s="226" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="285" t="s">
+      <c r="D6" s="226" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="285" t="s">
+      <c r="E6" s="226" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="285" t="s">
+      <c r="F6" s="226" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="285" t="s">
+      <c r="G6" s="226" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="285" t="s">
+      <c r="H6" s="226" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="285" t="s">
+      <c r="I6" s="226" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="285" t="s">
+      <c r="J6" s="226" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="285" t="s">
+      <c r="K6" s="226" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="286" t="s">
+      <c r="L6" s="227" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="285" t="s">
+      <c r="M6" s="226" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="287" t="s">
+      <c r="N6" s="228" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" s="283" t="s">
+      <c r="Q6" s="224" t="s">
         <v>11</v>
       </c>
-      <c r="R6" s="288" t="s">
+      <c r="R6" s="229" t="s">
         <v>12</v>
       </c>
-      <c r="S6" s="289" t="s">
+      <c r="S6" s="230" t="s">
         <v>13</v>
       </c>
-      <c r="T6" s="290" t="s">
+      <c r="T6" s="231" t="s">
         <v>14</v>
       </c>
-      <c r="U6" s="290" t="s">
+      <c r="U6" s="231" t="s">
         <v>15</v>
       </c>
-      <c r="V6" s="290" t="s">
+      <c r="V6" s="231" t="s">
         <v>16</v>
       </c>
-      <c r="W6" s="290" t="s">
+      <c r="W6" s="231" t="s">
         <v>23</v>
       </c>
-      <c r="X6" s="290" t="s">
+      <c r="X6" s="231" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="297" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="291"/>
-      <c r="B7" s="292"/>
-      <c r="C7" s="291"/>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
-      <c r="F7" s="291"/>
-      <c r="G7" s="291"/>
-      <c r="H7" s="291"/>
-      <c r="I7" s="291"/>
-      <c r="J7" s="291"/>
-      <c r="K7" s="291"/>
-      <c r="L7" s="291"/>
-      <c r="M7" s="291"/>
-      <c r="N7" s="293"/>
-      <c r="O7" s="294"/>
-      <c r="P7" s="294"/>
-      <c r="Q7" s="294"/>
-      <c r="R7" s="295"/>
-      <c r="S7" s="291"/>
-      <c r="T7" s="291"/>
-      <c r="U7" s="291"/>
-      <c r="V7" s="291"/>
-      <c r="W7" s="291"/>
-      <c r="X7" s="296"/>
-    </row>
-    <row r="8" spans="1:24" s="297" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="298"/>
-      <c r="B8" s="299"/>
-      <c r="C8" s="300"/>
-      <c r="D8" s="300"/>
-      <c r="E8" s="300"/>
-      <c r="F8" s="301"/>
-      <c r="G8" s="301"/>
-      <c r="H8" s="301"/>
-      <c r="I8" s="301"/>
-      <c r="J8" s="302"/>
-      <c r="K8" s="301"/>
-      <c r="L8" s="303"/>
-      <c r="M8" s="304"/>
-      <c r="N8" s="305"/>
-      <c r="O8" s="294"/>
-      <c r="P8" s="294"/>
-      <c r="Q8" s="294"/>
-      <c r="R8" s="306"/>
-      <c r="S8" s="307"/>
-      <c r="T8" s="307"/>
-      <c r="U8" s="307"/>
-      <c r="V8" s="307"/>
-      <c r="W8" s="307"/>
-      <c r="X8" s="308"/>
-    </row>
-    <row r="9" spans="1:24" s="297" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="298"/>
-      <c r="B9" s="299"/>
-      <c r="C9" s="301"/>
-      <c r="D9" s="301"/>
-      <c r="E9" s="301"/>
-      <c r="F9" s="301"/>
-      <c r="G9" s="301"/>
-      <c r="H9" s="301"/>
-      <c r="I9" s="301"/>
-      <c r="J9" s="301"/>
-      <c r="K9" s="309"/>
-      <c r="L9" s="310"/>
-      <c r="M9" s="304"/>
-      <c r="N9" s="305"/>
-      <c r="O9" s="294"/>
-      <c r="P9" s="294"/>
-      <c r="Q9" s="294"/>
-      <c r="R9" s="306"/>
-      <c r="S9" s="307"/>
-      <c r="T9" s="307"/>
-      <c r="U9" s="307"/>
-      <c r="V9" s="307"/>
-      <c r="W9" s="307"/>
-      <c r="X9" s="308"/>
-    </row>
-    <row r="10" spans="1:24" s="321" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="311"/>
-      <c r="B10" s="312"/>
-      <c r="C10" s="313"/>
-      <c r="D10" s="314"/>
-      <c r="E10" s="314"/>
-      <c r="F10" s="315"/>
-      <c r="G10" s="316"/>
-      <c r="H10" s="316"/>
-      <c r="I10" s="316"/>
-      <c r="J10" s="315"/>
-      <c r="K10" s="317"/>
-      <c r="L10" s="318"/>
-      <c r="M10" s="319"/>
-      <c r="N10" s="320"/>
-      <c r="R10" s="322"/>
-      <c r="S10" s="323"/>
-      <c r="T10" s="323"/>
-      <c r="U10" s="323"/>
-      <c r="V10" s="323"/>
-      <c r="W10" s="323"/>
-      <c r="X10" s="324"/>
-    </row>
-    <row r="11" spans="1:24" s="297" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="325"/>
-      <c r="B11" s="326"/>
+    <row r="7" spans="1:24" s="238" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="232"/>
+      <c r="B7" s="233"/>
+      <c r="C7" s="232"/>
+      <c r="D7" s="232"/>
+      <c r="E7" s="232"/>
+      <c r="F7" s="232"/>
+      <c r="G7" s="232"/>
+      <c r="H7" s="232"/>
+      <c r="I7" s="232"/>
+      <c r="J7" s="232"/>
+      <c r="K7" s="232"/>
+      <c r="L7" s="232"/>
+      <c r="M7" s="232"/>
+      <c r="N7" s="234"/>
+      <c r="O7" s="235"/>
+      <c r="P7" s="235"/>
+      <c r="Q7" s="235"/>
+      <c r="R7" s="236"/>
+      <c r="S7" s="232"/>
+      <c r="T7" s="232"/>
+      <c r="U7" s="232"/>
+      <c r="V7" s="232"/>
+      <c r="W7" s="232"/>
+      <c r="X7" s="237"/>
+    </row>
+    <row r="8" spans="1:24" s="238" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="239"/>
+      <c r="B8" s="240"/>
+      <c r="C8" s="241"/>
+      <c r="D8" s="241"/>
+      <c r="E8" s="241"/>
+      <c r="F8" s="242"/>
+      <c r="G8" s="242"/>
+      <c r="H8" s="242"/>
+      <c r="I8" s="242"/>
+      <c r="J8" s="243"/>
+      <c r="K8" s="242"/>
+      <c r="L8" s="244"/>
+      <c r="M8" s="245"/>
+      <c r="N8" s="246"/>
+      <c r="O8" s="235"/>
+      <c r="P8" s="235"/>
+      <c r="Q8" s="235"/>
+      <c r="R8" s="247"/>
+      <c r="S8" s="248"/>
+      <c r="T8" s="248"/>
+      <c r="U8" s="248"/>
+      <c r="V8" s="248"/>
+      <c r="W8" s="248"/>
+      <c r="X8" s="249"/>
+    </row>
+    <row r="9" spans="1:24" s="238" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="239"/>
+      <c r="B9" s="240"/>
+      <c r="C9" s="242"/>
+      <c r="D9" s="242"/>
+      <c r="E9" s="242"/>
+      <c r="F9" s="242"/>
+      <c r="G9" s="242"/>
+      <c r="H9" s="242"/>
+      <c r="I9" s="242"/>
+      <c r="J9" s="242"/>
+      <c r="K9" s="250"/>
+      <c r="L9" s="251"/>
+      <c r="M9" s="245"/>
+      <c r="N9" s="246"/>
+      <c r="O9" s="235"/>
+      <c r="P9" s="235"/>
+      <c r="Q9" s="235"/>
+      <c r="R9" s="247"/>
+      <c r="S9" s="248"/>
+      <c r="T9" s="248"/>
+      <c r="U9" s="248"/>
+      <c r="V9" s="248"/>
+      <c r="W9" s="248"/>
+      <c r="X9" s="249"/>
+    </row>
+    <row r="10" spans="1:24" s="262" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="252"/>
+      <c r="B10" s="253"/>
+      <c r="C10" s="254"/>
+      <c r="D10" s="255"/>
+      <c r="E10" s="255"/>
+      <c r="F10" s="256"/>
+      <c r="G10" s="257"/>
+      <c r="H10" s="257"/>
+      <c r="I10" s="257"/>
+      <c r="J10" s="256"/>
+      <c r="K10" s="258"/>
+      <c r="L10" s="259"/>
+      <c r="M10" s="260"/>
+      <c r="N10" s="261"/>
+      <c r="R10" s="263"/>
+      <c r="S10" s="264"/>
+      <c r="T10" s="264"/>
+      <c r="U10" s="264"/>
+      <c r="V10" s="264"/>
+      <c r="W10" s="264"/>
+      <c r="X10" s="265"/>
+    </row>
+    <row r="11" spans="1:24" s="238" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="266"/>
+      <c r="B11" s="267"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
-      <c r="F11" s="327"/>
-      <c r="G11" s="327"/>
-      <c r="H11" s="327"/>
-      <c r="I11" s="327"/>
-      <c r="J11" s="327"/>
-      <c r="K11" s="327"/>
+      <c r="F11" s="268"/>
+      <c r="G11" s="268"/>
+      <c r="H11" s="268"/>
+      <c r="I11" s="268"/>
+      <c r="J11" s="268"/>
+      <c r="K11" s="268"/>
       <c r="L11" s="31"/>
-      <c r="M11" s="328"/>
-      <c r="N11" s="329"/>
-      <c r="R11" s="330"/>
-      <c r="S11" s="331"/>
-      <c r="T11" s="331"/>
-      <c r="U11" s="331"/>
-      <c r="V11" s="331"/>
-      <c r="W11" s="331"/>
-      <c r="X11" s="332"/>
-    </row>
-    <row r="12" spans="1:24" s="297" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="291"/>
-      <c r="B12" s="291"/>
-      <c r="C12" s="291"/>
-      <c r="D12" s="291"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="291"/>
-      <c r="G12" s="291"/>
-      <c r="H12" s="291"/>
-      <c r="I12" s="291"/>
-      <c r="J12" s="291"/>
-      <c r="K12" s="291"/>
-      <c r="L12" s="291"/>
-      <c r="M12" s="291"/>
-      <c r="N12" s="291"/>
-      <c r="R12" s="330"/>
-      <c r="S12" s="331"/>
-      <c r="T12" s="331"/>
-      <c r="U12" s="331"/>
-      <c r="V12" s="331"/>
-      <c r="W12" s="331"/>
-      <c r="X12" s="332"/>
-    </row>
-    <row r="13" spans="1:24" s="297" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="333"/>
-      <c r="B13" s="334"/>
-      <c r="C13" s="335"/>
-      <c r="D13" s="335"/>
-      <c r="E13" s="335"/>
-      <c r="F13" s="302"/>
-      <c r="G13" s="302"/>
-      <c r="H13" s="302"/>
-      <c r="I13" s="302"/>
-      <c r="J13" s="302"/>
-      <c r="K13" s="336"/>
+      <c r="M11" s="269"/>
+      <c r="N11" s="270"/>
+      <c r="R11" s="271"/>
+      <c r="S11" s="272"/>
+      <c r="T11" s="272"/>
+      <c r="U11" s="272"/>
+      <c r="V11" s="272"/>
+      <c r="W11" s="272"/>
+      <c r="X11" s="273"/>
+    </row>
+    <row r="12" spans="1:24" s="238" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="232"/>
+      <c r="B12" s="232"/>
+      <c r="C12" s="232"/>
+      <c r="D12" s="232"/>
+      <c r="E12" s="232"/>
+      <c r="F12" s="232"/>
+      <c r="G12" s="232"/>
+      <c r="H12" s="232"/>
+      <c r="I12" s="232"/>
+      <c r="J12" s="232"/>
+      <c r="K12" s="232"/>
+      <c r="L12" s="232"/>
+      <c r="M12" s="232"/>
+      <c r="N12" s="232"/>
+      <c r="R12" s="271"/>
+      <c r="S12" s="272"/>
+      <c r="T12" s="272"/>
+      <c r="U12" s="272"/>
+      <c r="V12" s="272"/>
+      <c r="W12" s="272"/>
+      <c r="X12" s="273"/>
+    </row>
+    <row r="13" spans="1:24" s="238" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="274"/>
+      <c r="B13" s="275"/>
+      <c r="C13" s="276"/>
+      <c r="D13" s="276"/>
+      <c r="E13" s="276"/>
+      <c r="F13" s="243"/>
+      <c r="G13" s="243"/>
+      <c r="H13" s="243"/>
+      <c r="I13" s="243"/>
+      <c r="J13" s="243"/>
+      <c r="K13" s="277"/>
       <c r="L13" s="14"/>
-      <c r="M13" s="337"/>
-      <c r="N13" s="338"/>
-      <c r="R13" s="339"/>
-      <c r="S13" s="340"/>
-      <c r="T13" s="340"/>
-      <c r="U13" s="340"/>
-      <c r="V13" s="340"/>
-      <c r="W13" s="340"/>
-      <c r="X13" s="341"/>
-    </row>
-    <row r="14" spans="1:24" s="297" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="291"/>
-      <c r="B14" s="291"/>
-      <c r="C14" s="291"/>
-      <c r="D14" s="291"/>
-      <c r="E14" s="291"/>
-      <c r="F14" s="291"/>
-      <c r="G14" s="291"/>
-      <c r="H14" s="291"/>
-      <c r="I14" s="291"/>
-      <c r="J14" s="291"/>
-      <c r="K14" s="291"/>
-      <c r="L14" s="291"/>
-      <c r="M14" s="291"/>
-      <c r="N14" s="291"/>
-      <c r="R14" s="339"/>
-      <c r="S14" s="340"/>
-      <c r="T14" s="340"/>
-      <c r="U14" s="340"/>
-      <c r="V14" s="340"/>
-      <c r="W14" s="340"/>
-      <c r="X14" s="341"/>
-    </row>
-    <row r="15" spans="1:24" s="321" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="298"/>
-      <c r="B15" s="162"/>
+      <c r="M13" s="278"/>
+      <c r="N13" s="279"/>
+      <c r="R13" s="280"/>
+      <c r="S13" s="281"/>
+      <c r="T13" s="281"/>
+      <c r="U13" s="281"/>
+      <c r="V13" s="281"/>
+      <c r="W13" s="281"/>
+      <c r="X13" s="282"/>
+    </row>
+    <row r="14" spans="1:24" s="238" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="232"/>
+      <c r="B14" s="232"/>
+      <c r="C14" s="232"/>
+      <c r="D14" s="232"/>
+      <c r="E14" s="232"/>
+      <c r="F14" s="232"/>
+      <c r="G14" s="232"/>
+      <c r="H14" s="232"/>
+      <c r="I14" s="232"/>
+      <c r="J14" s="232"/>
+      <c r="K14" s="232"/>
+      <c r="L14" s="232"/>
+      <c r="M14" s="232"/>
+      <c r="N14" s="232"/>
+      <c r="R14" s="280"/>
+      <c r="S14" s="281"/>
+      <c r="T14" s="281"/>
+      <c r="U14" s="281"/>
+      <c r="V14" s="281"/>
+      <c r="W14" s="281"/>
+      <c r="X14" s="282"/>
+    </row>
+    <row r="15" spans="1:24" s="262" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="239"/>
+      <c r="B15" s="116"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
-      <c r="F15" s="327"/>
-      <c r="G15" s="302"/>
-      <c r="H15" s="162"/>
-      <c r="I15" s="327"/>
-      <c r="J15" s="327"/>
-      <c r="K15" s="327"/>
+      <c r="F15" s="268"/>
+      <c r="G15" s="243"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="268"/>
+      <c r="J15" s="268"/>
+      <c r="K15" s="268"/>
       <c r="L15" s="12"/>
-      <c r="M15" s="162"/>
-      <c r="N15" s="342"/>
-      <c r="R15" s="343"/>
-      <c r="S15" s="344"/>
-      <c r="T15" s="344"/>
-      <c r="U15" s="344"/>
-      <c r="V15" s="344"/>
-      <c r="W15" s="344"/>
-      <c r="X15" s="345"/>
-    </row>
-    <row r="16" spans="1:24" s="350" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="346"/>
-      <c r="B16" s="334"/>
-      <c r="C16" s="335"/>
-      <c r="D16" s="347"/>
-      <c r="E16" s="302"/>
-      <c r="F16" s="302"/>
-      <c r="G16" s="348"/>
-      <c r="H16" s="347"/>
-      <c r="I16" s="335"/>
-      <c r="J16" s="302"/>
-      <c r="K16" s="336"/>
+      <c r="M15" s="116"/>
+      <c r="N15" s="283"/>
+      <c r="R15" s="284"/>
+      <c r="S15" s="285"/>
+      <c r="T15" s="285"/>
+      <c r="U15" s="285"/>
+      <c r="V15" s="285"/>
+      <c r="W15" s="285"/>
+      <c r="X15" s="286"/>
+    </row>
+    <row r="16" spans="1:24" s="291" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="287"/>
+      <c r="B16" s="275"/>
+      <c r="C16" s="276"/>
+      <c r="D16" s="288"/>
+      <c r="E16" s="243"/>
+      <c r="F16" s="243"/>
+      <c r="G16" s="289"/>
+      <c r="H16" s="288"/>
+      <c r="I16" s="276"/>
+      <c r="J16" s="243"/>
+      <c r="K16" s="277"/>
       <c r="L16" s="14"/>
-      <c r="M16" s="349"/>
-      <c r="N16" s="320"/>
-      <c r="R16" s="351"/>
-      <c r="S16" s="352"/>
-      <c r="T16" s="352"/>
-      <c r="U16" s="352"/>
-      <c r="V16" s="352"/>
-      <c r="W16" s="352"/>
-      <c r="X16" s="353"/>
+      <c r="M16" s="290"/>
+      <c r="N16" s="261"/>
+      <c r="R16" s="292"/>
+      <c r="S16" s="293"/>
+      <c r="T16" s="293"/>
+      <c r="U16" s="293"/>
+      <c r="V16" s="293"/>
+      <c r="W16" s="293"/>
+      <c r="X16" s="294"/>
     </row>
     <row r="17" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="354"/>
-      <c r="B17" s="291"/>
-      <c r="C17" s="291"/>
-      <c r="D17" s="291"/>
-      <c r="E17" s="291"/>
-      <c r="F17" s="291"/>
-      <c r="G17" s="291"/>
-      <c r="H17" s="291"/>
-      <c r="I17" s="291"/>
-      <c r="J17" s="291"/>
-      <c r="K17" s="291"/>
-      <c r="L17" s="291"/>
-      <c r="M17" s="291"/>
-      <c r="N17" s="291"/>
-      <c r="R17" s="355"/>
-      <c r="S17" s="356"/>
-      <c r="T17" s="356"/>
-      <c r="U17" s="356"/>
-      <c r="V17" s="356"/>
-      <c r="W17" s="356"/>
-      <c r="X17" s="357"/>
-    </row>
-    <row r="18" spans="1:24" s="364" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="333"/>
-      <c r="B18" s="334"/>
-      <c r="C18" s="358"/>
-      <c r="D18" s="359"/>
-      <c r="E18" s="335"/>
-      <c r="F18" s="302"/>
-      <c r="G18" s="302"/>
-      <c r="H18" s="360"/>
-      <c r="I18" s="302"/>
-      <c r="J18" s="302"/>
-      <c r="K18" s="302"/>
-      <c r="L18" s="361"/>
-      <c r="M18" s="362"/>
-      <c r="N18" s="363"/>
-      <c r="R18" s="365"/>
-      <c r="S18" s="366"/>
-      <c r="T18" s="366"/>
-      <c r="U18" s="366"/>
-      <c r="V18" s="366"/>
-      <c r="W18" s="366"/>
-      <c r="X18" s="367"/>
+      <c r="A17" s="295"/>
+      <c r="B17" s="232"/>
+      <c r="C17" s="232"/>
+      <c r="D17" s="232"/>
+      <c r="E17" s="232"/>
+      <c r="F17" s="232"/>
+      <c r="G17" s="232"/>
+      <c r="H17" s="232"/>
+      <c r="I17" s="232"/>
+      <c r="J17" s="232"/>
+      <c r="K17" s="232"/>
+      <c r="L17" s="232"/>
+      <c r="M17" s="232"/>
+      <c r="N17" s="232"/>
+      <c r="R17" s="296"/>
+      <c r="S17" s="297"/>
+      <c r="T17" s="297"/>
+      <c r="U17" s="297"/>
+      <c r="V17" s="297"/>
+      <c r="W17" s="297"/>
+      <c r="X17" s="298"/>
+    </row>
+    <row r="18" spans="1:24" s="305" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="274"/>
+      <c r="B18" s="275"/>
+      <c r="C18" s="299"/>
+      <c r="D18" s="300"/>
+      <c r="E18" s="276"/>
+      <c r="F18" s="243"/>
+      <c r="G18" s="243"/>
+      <c r="H18" s="301"/>
+      <c r="I18" s="243"/>
+      <c r="J18" s="243"/>
+      <c r="K18" s="243"/>
+      <c r="L18" s="302"/>
+      <c r="M18" s="303"/>
+      <c r="N18" s="304"/>
+      <c r="R18" s="306"/>
+      <c r="S18" s="307"/>
+      <c r="T18" s="307"/>
+      <c r="U18" s="307"/>
+      <c r="V18" s="307"/>
+      <c r="W18" s="307"/>
+      <c r="X18" s="308"/>
     </row>
     <row r="19" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="298"/>
-      <c r="B19" s="299"/>
-      <c r="C19" s="368"/>
-      <c r="D19" s="300"/>
-      <c r="E19" s="300"/>
-      <c r="F19" s="301"/>
-      <c r="G19" s="369"/>
-      <c r="H19" s="301"/>
-      <c r="I19" s="301"/>
-      <c r="J19" s="301"/>
-      <c r="K19" s="309"/>
-      <c r="L19" s="303"/>
-      <c r="M19" s="370"/>
-      <c r="N19" s="371"/>
-      <c r="R19" s="355"/>
-      <c r="S19" s="356"/>
-      <c r="T19" s="356"/>
-      <c r="U19" s="356"/>
-      <c r="V19" s="356"/>
-      <c r="W19" s="356"/>
-      <c r="X19" s="357"/>
-    </row>
-    <row r="20" spans="1:24" s="150" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="325"/>
-      <c r="B20" s="327"/>
+      <c r="A19" s="239"/>
+      <c r="B19" s="240"/>
+      <c r="C19" s="309"/>
+      <c r="D19" s="241"/>
+      <c r="E19" s="241"/>
+      <c r="F19" s="242"/>
+      <c r="G19" s="310"/>
+      <c r="H19" s="242"/>
+      <c r="I19" s="242"/>
+      <c r="J19" s="242"/>
+      <c r="K19" s="250"/>
+      <c r="L19" s="244"/>
+      <c r="M19" s="311"/>
+      <c r="N19" s="312"/>
+      <c r="R19" s="296"/>
+      <c r="S19" s="297"/>
+      <c r="T19" s="297"/>
+      <c r="U19" s="297"/>
+      <c r="V19" s="297"/>
+      <c r="W19" s="297"/>
+      <c r="X19" s="298"/>
+    </row>
+    <row r="20" spans="1:24" s="105" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="266"/>
+      <c r="B20" s="268"/>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
-      <c r="F20" s="327"/>
-      <c r="G20" s="327"/>
-      <c r="H20" s="327"/>
-      <c r="I20" s="327"/>
-      <c r="J20" s="327"/>
-      <c r="K20" s="327"/>
+      <c r="F20" s="268"/>
+      <c r="G20" s="268"/>
+      <c r="H20" s="268"/>
+      <c r="I20" s="268"/>
+      <c r="J20" s="268"/>
+      <c r="K20" s="268"/>
       <c r="L20" s="31"/>
-      <c r="M20" s="327"/>
-      <c r="N20" s="329"/>
-      <c r="R20" s="372"/>
-      <c r="S20" s="122"/>
-      <c r="T20" s="122"/>
-      <c r="U20" s="122"/>
-      <c r="V20" s="122"/>
-      <c r="W20" s="122"/>
-      <c r="X20" s="373"/>
+      <c r="M20" s="268"/>
+      <c r="N20" s="270"/>
+      <c r="R20" s="313"/>
+      <c r="S20" s="91"/>
+      <c r="T20" s="91"/>
+      <c r="U20" s="91"/>
+      <c r="V20" s="91"/>
+      <c r="W20" s="91"/>
+      <c r="X20" s="314"/>
     </row>
     <row r="21" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="374"/>
-      <c r="B21" s="328"/>
-      <c r="C21" s="328"/>
-      <c r="D21" s="328"/>
-      <c r="E21" s="328"/>
-      <c r="F21" s="328"/>
-      <c r="G21" s="328"/>
-      <c r="H21" s="328"/>
-      <c r="I21" s="328"/>
-      <c r="J21" s="328"/>
-      <c r="K21" s="328"/>
-      <c r="L21" s="375"/>
-      <c r="M21" s="328"/>
-      <c r="N21" s="328"/>
-      <c r="R21" s="355"/>
-      <c r="S21" s="356"/>
-      <c r="T21" s="356"/>
-      <c r="U21" s="356"/>
-      <c r="V21" s="356"/>
-      <c r="W21" s="356"/>
-      <c r="X21" s="357"/>
+      <c r="A21" s="315"/>
+      <c r="B21" s="269"/>
+      <c r="C21" s="269"/>
+      <c r="D21" s="269"/>
+      <c r="E21" s="269"/>
+      <c r="F21" s="269"/>
+      <c r="G21" s="269"/>
+      <c r="H21" s="269"/>
+      <c r="I21" s="269"/>
+      <c r="J21" s="269"/>
+      <c r="K21" s="269"/>
+      <c r="L21" s="316"/>
+      <c r="M21" s="269"/>
+      <c r="N21" s="269"/>
+      <c r="R21" s="296"/>
+      <c r="S21" s="297"/>
+      <c r="T21" s="297"/>
+      <c r="U21" s="297"/>
+      <c r="V21" s="297"/>
+      <c r="W21" s="297"/>
+      <c r="X21" s="298"/>
     </row>
     <row r="22" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="374"/>
-      <c r="B22" s="376"/>
-      <c r="C22" s="377"/>
-      <c r="D22" s="377"/>
-      <c r="E22" s="377"/>
-      <c r="F22" s="377"/>
-      <c r="G22" s="377"/>
-      <c r="H22" s="377"/>
-      <c r="I22" s="377"/>
-      <c r="J22" s="377"/>
-      <c r="K22" s="328"/>
-      <c r="L22" s="375"/>
-      <c r="M22" s="328"/>
-      <c r="N22" s="377"/>
-      <c r="R22" s="355"/>
-      <c r="S22" s="356"/>
-      <c r="T22" s="356"/>
-      <c r="U22" s="356"/>
-      <c r="V22" s="356"/>
-      <c r="W22" s="356"/>
-      <c r="X22" s="357"/>
+      <c r="A22" s="315"/>
+      <c r="B22" s="317"/>
+      <c r="C22" s="318"/>
+      <c r="D22" s="318"/>
+      <c r="E22" s="318"/>
+      <c r="F22" s="318"/>
+      <c r="G22" s="318"/>
+      <c r="H22" s="318"/>
+      <c r="I22" s="318"/>
+      <c r="J22" s="318"/>
+      <c r="K22" s="269"/>
+      <c r="L22" s="316"/>
+      <c r="M22" s="269"/>
+      <c r="N22" s="318"/>
+      <c r="R22" s="296"/>
+      <c r="S22" s="297"/>
+      <c r="T22" s="297"/>
+      <c r="U22" s="297"/>
+      <c r="V22" s="297"/>
+      <c r="W22" s="297"/>
+      <c r="X22" s="298"/>
     </row>
     <row r="23" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="374"/>
-      <c r="B23" s="376"/>
-      <c r="C23" s="377"/>
-      <c r="D23" s="377"/>
-      <c r="E23" s="377"/>
-      <c r="F23" s="377"/>
-      <c r="G23" s="377"/>
-      <c r="H23" s="377"/>
-      <c r="I23" s="377"/>
-      <c r="J23" s="377"/>
-      <c r="K23" s="328"/>
-      <c r="L23" s="375"/>
-      <c r="M23" s="328"/>
-      <c r="N23" s="377"/>
-      <c r="R23" s="355"/>
-      <c r="S23" s="356"/>
-      <c r="T23" s="356"/>
-      <c r="U23" s="356"/>
-      <c r="V23" s="356"/>
-      <c r="W23" s="356"/>
-      <c r="X23" s="357"/>
+      <c r="A23" s="315"/>
+      <c r="B23" s="317"/>
+      <c r="C23" s="318"/>
+      <c r="D23" s="318"/>
+      <c r="E23" s="318"/>
+      <c r="F23" s="318"/>
+      <c r="G23" s="318"/>
+      <c r="H23" s="318"/>
+      <c r="I23" s="318"/>
+      <c r="J23" s="318"/>
+      <c r="K23" s="269"/>
+      <c r="L23" s="316"/>
+      <c r="M23" s="269"/>
+      <c r="N23" s="318"/>
+      <c r="R23" s="296"/>
+      <c r="S23" s="297"/>
+      <c r="T23" s="297"/>
+      <c r="U23" s="297"/>
+      <c r="V23" s="297"/>
+      <c r="W23" s="297"/>
+      <c r="X23" s="298"/>
     </row>
     <row r="24" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="374"/>
-      <c r="B24" s="376"/>
-      <c r="C24" s="377"/>
-      <c r="D24" s="377"/>
-      <c r="E24" s="377"/>
-      <c r="F24" s="377"/>
-      <c r="G24" s="377"/>
-      <c r="H24" s="377"/>
-      <c r="I24" s="377"/>
-      <c r="J24" s="377"/>
-      <c r="K24" s="328"/>
-      <c r="L24" s="375"/>
-      <c r="M24" s="328"/>
-      <c r="N24" s="377"/>
-      <c r="R24" s="355"/>
-      <c r="S24" s="356"/>
-      <c r="T24" s="356"/>
-      <c r="U24" s="356"/>
-      <c r="V24" s="356"/>
-      <c r="W24" s="356"/>
-      <c r="X24" s="357"/>
+      <c r="A24" s="315"/>
+      <c r="B24" s="317"/>
+      <c r="C24" s="318"/>
+      <c r="D24" s="318"/>
+      <c r="E24" s="318"/>
+      <c r="F24" s="318"/>
+      <c r="G24" s="318"/>
+      <c r="H24" s="318"/>
+      <c r="I24" s="318"/>
+      <c r="J24" s="318"/>
+      <c r="K24" s="269"/>
+      <c r="L24" s="316"/>
+      <c r="M24" s="269"/>
+      <c r="N24" s="318"/>
+      <c r="R24" s="296"/>
+      <c r="S24" s="297"/>
+      <c r="T24" s="297"/>
+      <c r="U24" s="297"/>
+      <c r="V24" s="297"/>
+      <c r="W24" s="297"/>
+      <c r="X24" s="298"/>
     </row>
     <row r="25" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="374"/>
-      <c r="B25" s="376"/>
-      <c r="C25" s="377"/>
-      <c r="D25" s="377"/>
-      <c r="E25" s="377"/>
-      <c r="F25" s="377"/>
-      <c r="G25" s="377"/>
-      <c r="H25" s="377"/>
-      <c r="I25" s="377"/>
-      <c r="J25" s="377"/>
-      <c r="K25" s="328"/>
-      <c r="L25" s="375"/>
-      <c r="M25" s="328"/>
-      <c r="N25" s="377"/>
-      <c r="R25" s="355"/>
-      <c r="S25" s="356"/>
-      <c r="T25" s="356"/>
-      <c r="U25" s="356"/>
-      <c r="V25" s="356"/>
-      <c r="W25" s="356"/>
-      <c r="X25" s="357"/>
+      <c r="A25" s="315"/>
+      <c r="B25" s="317"/>
+      <c r="C25" s="318"/>
+      <c r="D25" s="318"/>
+      <c r="E25" s="318"/>
+      <c r="F25" s="318"/>
+      <c r="G25" s="318"/>
+      <c r="H25" s="318"/>
+      <c r="I25" s="318"/>
+      <c r="J25" s="318"/>
+      <c r="K25" s="269"/>
+      <c r="L25" s="316"/>
+      <c r="M25" s="269"/>
+      <c r="N25" s="318"/>
+      <c r="R25" s="296"/>
+      <c r="S25" s="297"/>
+      <c r="T25" s="297"/>
+      <c r="U25" s="297"/>
+      <c r="V25" s="297"/>
+      <c r="W25" s="297"/>
+      <c r="X25" s="298"/>
     </row>
     <row r="26" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="374"/>
-      <c r="B26" s="378"/>
-      <c r="C26" s="379"/>
-      <c r="D26" s="379"/>
-      <c r="E26" s="379"/>
-      <c r="F26" s="379"/>
-      <c r="G26" s="379"/>
-      <c r="H26" s="379"/>
-      <c r="I26" s="379"/>
-      <c r="J26" s="379"/>
-      <c r="K26" s="380"/>
-      <c r="L26" s="380"/>
-      <c r="M26" s="328"/>
-      <c r="N26" s="379"/>
-      <c r="R26" s="355"/>
-      <c r="S26" s="356"/>
-      <c r="T26" s="356"/>
-      <c r="U26" s="356"/>
-      <c r="V26" s="356"/>
-      <c r="W26" s="356"/>
-      <c r="X26" s="357"/>
+      <c r="A26" s="315"/>
+      <c r="B26" s="319"/>
+      <c r="C26" s="320"/>
+      <c r="D26" s="320"/>
+      <c r="E26" s="320"/>
+      <c r="F26" s="320"/>
+      <c r="G26" s="320"/>
+      <c r="H26" s="320"/>
+      <c r="I26" s="320"/>
+      <c r="J26" s="320"/>
+      <c r="K26" s="321"/>
+      <c r="L26" s="321"/>
+      <c r="M26" s="269"/>
+      <c r="N26" s="320"/>
+      <c r="R26" s="296"/>
+      <c r="S26" s="297"/>
+      <c r="T26" s="297"/>
+      <c r="U26" s="297"/>
+      <c r="V26" s="297"/>
+      <c r="W26" s="297"/>
+      <c r="X26" s="298"/>
     </row>
     <row r="27" spans="1:24" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="374"/>
-      <c r="B27" s="328"/>
-      <c r="C27" s="328"/>
-      <c r="D27" s="328"/>
-      <c r="E27" s="328"/>
-      <c r="F27" s="328"/>
-      <c r="G27" s="328"/>
-      <c r="H27" s="328"/>
-      <c r="I27" s="328"/>
-      <c r="J27" s="328"/>
-      <c r="K27" s="328"/>
-      <c r="L27" s="328"/>
-      <c r="M27" s="328"/>
-      <c r="N27" s="328"/>
-      <c r="R27" s="381"/>
-      <c r="S27" s="382"/>
-      <c r="T27" s="382"/>
-      <c r="U27" s="382"/>
-      <c r="V27" s="382"/>
-      <c r="W27" s="382"/>
-      <c r="X27" s="383"/>
+      <c r="A27" s="315"/>
+      <c r="B27" s="269"/>
+      <c r="C27" s="269"/>
+      <c r="D27" s="269"/>
+      <c r="E27" s="269"/>
+      <c r="F27" s="269"/>
+      <c r="G27" s="269"/>
+      <c r="H27" s="269"/>
+      <c r="I27" s="269"/>
+      <c r="J27" s="269"/>
+      <c r="K27" s="269"/>
+      <c r="L27" s="269"/>
+      <c r="M27" s="269"/>
+      <c r="N27" s="269"/>
+      <c r="R27" s="322"/>
+      <c r="S27" s="323"/>
+      <c r="T27" s="323"/>
+      <c r="U27" s="323"/>
+      <c r="V27" s="323"/>
+      <c r="W27" s="323"/>
+      <c r="X27" s="324"/>
     </row>
     <row r="28" spans="1:24" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="384"/>
-      <c r="B28" s="385"/>
-      <c r="C28" s="384"/>
-      <c r="D28" s="384"/>
-      <c r="E28" s="384"/>
-      <c r="F28" s="384"/>
-      <c r="G28" s="386"/>
-      <c r="H28" s="386"/>
-      <c r="I28" s="386"/>
-      <c r="J28" s="386"/>
-      <c r="K28" s="386"/>
-      <c r="L28" s="387"/>
-      <c r="M28" s="388"/>
-      <c r="N28" s="386"/>
+      <c r="A28" s="325"/>
+      <c r="B28" s="326"/>
+      <c r="C28" s="325"/>
+      <c r="D28" s="325"/>
+      <c r="E28" s="325"/>
+      <c r="F28" s="325"/>
+      <c r="G28" s="327"/>
+      <c r="H28" s="327"/>
+      <c r="I28" s="327"/>
+      <c r="J28" s="327"/>
+      <c r="K28" s="327"/>
+      <c r="L28" s="328"/>
+      <c r="M28" s="329"/>
+      <c r="N28" s="327"/>
     </row>
     <row r="29" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="389" t="s">
+      <c r="A29" s="330" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="251">
+      <c r="B29" s="192">
         <f>COUNTA(B7:B27)</f>
         <v>0</v>
       </c>
-      <c r="C29" s="368"/>
-      <c r="D29" s="368"/>
-      <c r="E29" s="368"/>
-      <c r="F29" s="390"/>
-      <c r="G29" s="368"/>
-      <c r="H29" s="391"/>
-      <c r="I29" s="390"/>
-      <c r="J29" s="390"/>
-      <c r="K29" s="392"/>
-      <c r="L29" s="393"/>
-      <c r="M29" s="390"/>
-      <c r="N29" s="390"/>
+      <c r="C29" s="309"/>
+      <c r="D29" s="309"/>
+      <c r="E29" s="309"/>
+      <c r="F29" s="331"/>
+      <c r="G29" s="309"/>
+      <c r="H29" s="332"/>
+      <c r="I29" s="331"/>
+      <c r="J29" s="331"/>
+      <c r="K29" s="333"/>
+      <c r="L29" s="334"/>
+      <c r="M29" s="331"/>
+      <c r="N29" s="331"/>
     </row>
     <row r="30" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="394"/>
-      <c r="B30" s="390"/>
-      <c r="C30" s="394"/>
-      <c r="D30" s="395"/>
-      <c r="E30" s="394"/>
-      <c r="F30" s="394"/>
-      <c r="G30" s="396"/>
-      <c r="H30" s="395"/>
-      <c r="I30" s="394"/>
-      <c r="J30" s="394"/>
-      <c r="K30" s="396"/>
-      <c r="L30" s="397"/>
+      <c r="A30" s="335"/>
+      <c r="B30" s="331"/>
+      <c r="C30" s="335"/>
+      <c r="D30" s="336"/>
+      <c r="E30" s="335"/>
+      <c r="F30" s="335"/>
+      <c r="G30" s="337"/>
+      <c r="H30" s="336"/>
+      <c r="I30" s="335"/>
+      <c r="J30" s="335"/>
+      <c r="K30" s="337"/>
+      <c r="L30" s="338"/>
       <c r="M30" s="17"/>
-      <c r="N30" s="394"/>
+      <c r="N30" s="335"/>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H34" s="283" t="s">
+      <c r="H34" s="224" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6737,74 +6825,74 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:R32"/>
+  <dimension ref="A2:R41"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScale="80" zoomScaleNormal="90" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="38.5" customWidth="1"/>
+    <col min="4" max="4" width="51.6640625" customWidth="1"/>
     <col min="5" max="6" width="8.6640625" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
     <col min="8" max="9" width="35.6640625" customWidth="1"/>
     <col min="10" max="10" width="10.83203125" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" style="135" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" style="96" customWidth="1"/>
     <col min="15" max="15" width="8.6640625" customWidth="1"/>
     <col min="16" max="16" width="10.6640625" customWidth="1"/>
     <col min="17" max="18" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="483"/>
-      <c r="B2" s="483"/>
-      <c r="C2" s="483"/>
-      <c r="D2" s="484"/>
-      <c r="E2" s="484"/>
-      <c r="F2" s="484"/>
-      <c r="G2" s="484"/>
-      <c r="H2" s="484"/>
-      <c r="I2" s="483"/>
-      <c r="J2" s="483"/>
+      <c r="A2" s="424"/>
+      <c r="B2" s="424"/>
+      <c r="C2" s="424"/>
+      <c r="D2" s="425"/>
+      <c r="E2" s="425"/>
+      <c r="F2" s="425"/>
+      <c r="G2" s="425"/>
+      <c r="H2" s="425"/>
+      <c r="I2" s="424"/>
+      <c r="J2" s="424"/>
     </row>
     <row r="3" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="483"/>
-      <c r="B3" s="483"/>
-      <c r="C3" s="483"/>
-      <c r="D3" s="484" t="s">
+      <c r="A3" s="424"/>
+      <c r="B3" s="424"/>
+      <c r="C3" s="424"/>
+      <c r="D3" s="425" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="484"/>
-      <c r="F3" s="484"/>
-      <c r="G3" s="484"/>
-      <c r="H3" s="484"/>
-      <c r="I3" s="483"/>
-      <c r="J3" s="483"/>
+      <c r="E3" s="425"/>
+      <c r="F3" s="425"/>
+      <c r="G3" s="425"/>
+      <c r="H3" s="425"/>
+      <c r="I3" s="424"/>
+      <c r="J3" s="424"/>
     </row>
     <row r="4" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="483"/>
-      <c r="B4" s="483"/>
-      <c r="C4" s="483"/>
-      <c r="D4" s="484"/>
-      <c r="E4" s="484"/>
-      <c r="F4" s="484"/>
-      <c r="G4" s="484"/>
-      <c r="H4" s="484"/>
-      <c r="I4" s="483"/>
-      <c r="J4" s="483"/>
+      <c r="A4" s="424"/>
+      <c r="B4" s="424"/>
+      <c r="C4" s="424"/>
+      <c r="D4" s="425"/>
+      <c r="E4" s="425"/>
+      <c r="F4" s="425"/>
+      <c r="G4" s="425"/>
+      <c r="H4" s="425"/>
+      <c r="I4" s="424"/>
+      <c r="J4" s="424"/>
     </row>
     <row r="5" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N5" s="483" t="s">
+      <c r="N5" s="424" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="483"/>
-      <c r="P5" s="483"/>
-      <c r="Q5" s="483"/>
-      <c r="R5" s="483"/>
+      <c r="O5" s="424"/>
+      <c r="P5" s="424"/>
+      <c r="Q5" s="424"/>
+      <c r="R5" s="424"/>
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -6840,450 +6928,603 @@
       <c r="M6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="253" t="s">
+      <c r="N6" s="194" t="s">
         <v>12</v>
       </c>
-      <c r="O6" s="212" t="s">
+      <c r="O6" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="212" t="s">
+      <c r="P6" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="212" t="s">
+      <c r="Q6" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="R6" s="218" t="s">
+      <c r="R6" s="169" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="54" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="48"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="71"/>
-      <c r="N7" s="254"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="255"/>
-    </row>
-    <row r="8" spans="1:18" s="52" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="48"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="N8" s="254"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="256"/>
+      <c r="A7" s="430"/>
+      <c r="B7" s="437"/>
+      <c r="C7" s="438"/>
+      <c r="D7" s="439"/>
+      <c r="E7" s="438"/>
+      <c r="F7" s="438"/>
+      <c r="G7" s="439"/>
+      <c r="H7" s="440"/>
+      <c r="I7" s="441"/>
+      <c r="J7" s="438"/>
+      <c r="N7" s="195"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="196"/>
+    </row>
+    <row r="8" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="430"/>
+      <c r="B8" s="442"/>
+      <c r="C8" s="443"/>
+      <c r="D8" s="443"/>
+      <c r="E8" s="443"/>
+      <c r="F8" s="444"/>
+      <c r="G8" s="443"/>
+      <c r="H8" s="443"/>
+      <c r="I8" s="443"/>
+      <c r="J8" s="443"/>
+      <c r="N8" s="195"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="197"/>
     </row>
     <row r="9" spans="1:18" s="32" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="115"/>
-      <c r="B9" s="149"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="174"/>
-      <c r="G9" s="174"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="147"/>
-      <c r="J9" s="174"/>
-      <c r="N9" s="257"/>
-      <c r="O9" s="53"/>
+      <c r="A9" s="431"/>
+      <c r="B9" s="445"/>
+      <c r="C9" s="446"/>
+      <c r="D9" s="447"/>
+      <c r="E9" s="447"/>
+      <c r="F9" s="447"/>
+      <c r="G9" s="447"/>
+      <c r="H9" s="448"/>
+      <c r="I9" s="449"/>
+      <c r="J9" s="447"/>
+      <c r="N9" s="198"/>
+      <c r="O9" s="46"/>
       <c r="P9" s="33"/>
       <c r="Q9" s="33"/>
-      <c r="R9" s="258"/>
+      <c r="R9" s="199"/>
     </row>
     <row r="10" spans="1:18" s="32" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="114"/>
-      <c r="B10" s="195"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="196"/>
-      <c r="I10" s="162"/>
-      <c r="J10" s="40"/>
-      <c r="N10" s="257"/>
-      <c r="O10" s="53"/>
+      <c r="A10" s="432"/>
+      <c r="B10" s="450"/>
+      <c r="C10" s="451"/>
+      <c r="D10" s="451"/>
+      <c r="E10" s="452"/>
+      <c r="F10" s="453"/>
+      <c r="G10" s="454"/>
+      <c r="H10" s="455"/>
+      <c r="I10" s="454"/>
+      <c r="J10" s="456"/>
+      <c r="N10" s="198"/>
+      <c r="O10" s="46"/>
       <c r="P10" s="33"/>
       <c r="Q10" s="33"/>
-      <c r="R10" s="258"/>
-    </row>
-    <row r="11" spans="1:18" s="46" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="62"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="61"/>
-      <c r="N11" s="257"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="259"/>
-    </row>
-    <row r="12" spans="1:18" s="46" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="62"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="40"/>
-      <c r="N12" s="257"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="259"/>
+      <c r="R10" s="199"/>
+    </row>
+    <row r="11" spans="1:18" s="43" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="433"/>
+      <c r="B11" s="457"/>
+      <c r="C11" s="458"/>
+      <c r="D11" s="459"/>
+      <c r="E11" s="459"/>
+      <c r="F11" s="458"/>
+      <c r="G11" s="458"/>
+      <c r="H11" s="460"/>
+      <c r="I11" s="461"/>
+      <c r="J11" s="458"/>
+      <c r="N11" s="198"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="200"/>
+    </row>
+    <row r="12" spans="1:18" s="43" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="433"/>
+      <c r="B12" s="462"/>
+      <c r="C12" s="451"/>
+      <c r="D12" s="451"/>
+      <c r="E12" s="452"/>
+      <c r="F12" s="453"/>
+      <c r="G12" s="463"/>
+      <c r="H12" s="464"/>
+      <c r="I12" s="463"/>
+      <c r="J12" s="456"/>
+      <c r="N12" s="198"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="200"/>
     </row>
     <row r="13" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="48"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="N13" s="260"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="145"/>
-      <c r="Q13" s="146"/>
-      <c r="R13" s="261"/>
-    </row>
-    <row r="14" spans="1:18" s="150" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="115"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="119"/>
-      <c r="N14" s="262"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="151"/>
-      <c r="Q14" s="151"/>
-      <c r="R14" s="263"/>
+      <c r="A13" s="430"/>
+      <c r="B13" s="442"/>
+      <c r="C13" s="443"/>
+      <c r="D13" s="443"/>
+      <c r="E13" s="443"/>
+      <c r="F13" s="444"/>
+      <c r="G13" s="443"/>
+      <c r="H13" s="443"/>
+      <c r="I13" s="443"/>
+      <c r="J13" s="443"/>
+      <c r="N13" s="201"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="104"/>
+      <c r="R13" s="202"/>
+    </row>
+    <row r="14" spans="1:18" s="105" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="431"/>
+      <c r="B14" s="446"/>
+      <c r="C14" s="446"/>
+      <c r="D14" s="446"/>
+      <c r="E14" s="446"/>
+      <c r="F14" s="446"/>
+      <c r="G14" s="465"/>
+      <c r="H14" s="466"/>
+      <c r="I14" s="446"/>
+      <c r="J14" s="467"/>
+      <c r="N14" s="203"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="106"/>
+      <c r="Q14" s="106"/>
+      <c r="R14" s="204"/>
     </row>
     <row r="15" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="48"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="N15" s="254"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="255"/>
-    </row>
-    <row r="16" spans="1:18" s="120" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="48"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="50"/>
-      <c r="N16" s="264"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="121"/>
-      <c r="Q16" s="121"/>
-      <c r="R16" s="265"/>
+      <c r="A15" s="430"/>
+      <c r="B15" s="468"/>
+      <c r="C15" s="469"/>
+      <c r="D15" s="469"/>
+      <c r="E15" s="469"/>
+      <c r="F15" s="470"/>
+      <c r="G15" s="468"/>
+      <c r="H15" s="469"/>
+      <c r="I15" s="469"/>
+      <c r="J15" s="469"/>
+      <c r="N15" s="195"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="196"/>
+    </row>
+    <row r="16" spans="1:18" s="89" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="430"/>
+      <c r="B16" s="471"/>
+      <c r="C16" s="443"/>
+      <c r="D16" s="443"/>
+      <c r="E16" s="443"/>
+      <c r="F16" s="472"/>
+      <c r="G16" s="443"/>
+      <c r="H16" s="443"/>
+      <c r="I16" s="458"/>
+      <c r="J16" s="443"/>
+      <c r="N16" s="205"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="90"/>
+      <c r="Q16" s="90"/>
+      <c r="R16" s="206"/>
     </row>
     <row r="17" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="48"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="50"/>
-      <c r="N17" s="254"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="58"/>
-      <c r="Q17" s="58"/>
-      <c r="R17" s="266"/>
-    </row>
-    <row r="18" spans="1:18" s="52" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="48"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="40"/>
-      <c r="N18" s="254"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="256"/>
-    </row>
-    <row r="19" spans="1:18" s="52" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="161"/>
-      <c r="B19" s="162"/>
-      <c r="C19" s="163"/>
-      <c r="D19" s="163"/>
-      <c r="E19" s="164"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="40"/>
-      <c r="N19" s="267"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="220"/>
-      <c r="Q19" s="220"/>
-      <c r="R19" s="268"/>
-    </row>
-    <row r="20" spans="1:18" s="52" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="111"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="40"/>
-      <c r="N20" s="254"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="269"/>
-    </row>
-    <row r="21" spans="1:18" s="52" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="48"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="56"/>
-      <c r="N21" s="260"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="221"/>
-      <c r="Q21" s="221"/>
-      <c r="R21" s="270"/>
+      <c r="A17" s="430"/>
+      <c r="B17" s="471"/>
+      <c r="C17" s="443"/>
+      <c r="D17" s="443"/>
+      <c r="E17" s="443"/>
+      <c r="F17" s="444"/>
+      <c r="G17" s="473"/>
+      <c r="H17" s="474"/>
+      <c r="I17" s="474"/>
+      <c r="J17" s="443"/>
+      <c r="N17" s="195"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="207"/>
+    </row>
+    <row r="18" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="430"/>
+      <c r="B18" s="463"/>
+      <c r="C18" s="451"/>
+      <c r="D18" s="451"/>
+      <c r="E18" s="452"/>
+      <c r="F18" s="453"/>
+      <c r="G18" s="463"/>
+      <c r="H18" s="464"/>
+      <c r="I18" s="463"/>
+      <c r="J18" s="456"/>
+      <c r="N18" s="195"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="197"/>
+    </row>
+    <row r="19" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="434"/>
+      <c r="B19" s="454"/>
+      <c r="C19" s="475"/>
+      <c r="D19" s="475"/>
+      <c r="E19" s="476"/>
+      <c r="F19" s="453"/>
+      <c r="G19" s="463"/>
+      <c r="H19" s="464"/>
+      <c r="I19" s="463"/>
+      <c r="J19" s="456"/>
+      <c r="N19" s="208"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="171"/>
+      <c r="Q19" s="171"/>
+      <c r="R19" s="209"/>
+    </row>
+    <row r="20" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="435"/>
+      <c r="B20" s="463"/>
+      <c r="C20" s="477"/>
+      <c r="D20" s="478"/>
+      <c r="E20" s="479"/>
+      <c r="F20" s="453"/>
+      <c r="G20" s="463"/>
+      <c r="H20" s="477"/>
+      <c r="I20" s="463"/>
+      <c r="J20" s="456"/>
+      <c r="N20" s="195"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="210"/>
+    </row>
+    <row r="21" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="430"/>
+      <c r="B21" s="468"/>
+      <c r="C21" s="468"/>
+      <c r="D21" s="468"/>
+      <c r="E21" s="468"/>
+      <c r="F21" s="480"/>
+      <c r="G21" s="481"/>
+      <c r="H21" s="482"/>
+      <c r="I21" s="443"/>
+      <c r="J21" s="468"/>
+      <c r="N21" s="201"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="172"/>
+      <c r="Q21" s="172"/>
+      <c r="R21" s="211"/>
     </row>
     <row r="22" spans="1:18" s="34" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="115"/>
-      <c r="B22" s="137"/>
-      <c r="C22" s="129"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="138"/>
-      <c r="I22" s="124"/>
-      <c r="J22" s="134"/>
-      <c r="N22" s="257"/>
-      <c r="O22" s="53"/>
+      <c r="A22" s="431"/>
+      <c r="B22" s="483"/>
+      <c r="C22" s="484"/>
+      <c r="D22" s="485"/>
+      <c r="E22" s="486"/>
+      <c r="F22" s="486"/>
+      <c r="G22" s="485"/>
+      <c r="H22" s="487"/>
+      <c r="I22" s="488"/>
+      <c r="J22" s="489"/>
+      <c r="N22" s="198"/>
+      <c r="O22" s="46"/>
       <c r="P22" s="35"/>
       <c r="Q22" s="35"/>
-      <c r="R22" s="271"/>
-    </row>
-    <row r="23" spans="1:18" s="139" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="48"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="40"/>
-      <c r="N23" s="254"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="140"/>
-      <c r="Q23" s="140"/>
-      <c r="R23" s="272"/>
+      <c r="R22" s="212"/>
+    </row>
+    <row r="23" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="430"/>
+      <c r="B23" s="490"/>
+      <c r="C23" s="478"/>
+      <c r="D23" s="478"/>
+      <c r="E23" s="479"/>
+      <c r="F23" s="453"/>
+      <c r="G23" s="491"/>
+      <c r="H23" s="492"/>
+      <c r="I23" s="438"/>
+      <c r="J23" s="456"/>
+      <c r="N23" s="195"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="99"/>
+      <c r="Q23" s="99"/>
+      <c r="R23" s="213"/>
     </row>
     <row r="24" spans="1:18" s="34" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="115"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="40"/>
-      <c r="N24" s="257"/>
-      <c r="O24" s="53"/>
+      <c r="A24" s="431"/>
+      <c r="B24" s="462"/>
+      <c r="C24" s="451"/>
+      <c r="D24" s="451"/>
+      <c r="E24" s="452"/>
+      <c r="F24" s="453"/>
+      <c r="G24" s="478"/>
+      <c r="H24" s="464"/>
+      <c r="I24" s="463"/>
+      <c r="J24" s="456"/>
+      <c r="N24" s="198"/>
+      <c r="O24" s="46"/>
       <c r="P24" s="35"/>
       <c r="Q24" s="35"/>
-      <c r="R24" s="271"/>
-    </row>
-    <row r="25" spans="1:18" s="139" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="115"/>
-      <c r="B25" s="128"/>
-      <c r="C25" s="130"/>
-      <c r="D25" s="130"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="143"/>
-      <c r="I25" s="129"/>
-      <c r="J25" s="222"/>
-      <c r="N25" s="254"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="140"/>
-      <c r="Q25" s="140"/>
-      <c r="R25" s="272"/>
-    </row>
-    <row r="26" spans="1:18" s="52" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="48"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="40"/>
-      <c r="N26" s="254"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="256"/>
-    </row>
-    <row r="27" spans="1:18" s="52" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="48"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="77"/>
-      <c r="N27" s="254"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="256"/>
-    </row>
-    <row r="28" spans="1:18" s="135" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="236"/>
-      <c r="B28" s="237"/>
-      <c r="C28" s="238"/>
-      <c r="D28" s="239"/>
-      <c r="E28" s="240"/>
-      <c r="F28" s="241"/>
-      <c r="G28" s="242"/>
-      <c r="H28" s="133"/>
-      <c r="I28" s="243"/>
-      <c r="J28" s="244"/>
-      <c r="N28" s="273"/>
-      <c r="O28" s="274"/>
-      <c r="P28" s="275"/>
-      <c r="Q28" s="275"/>
-      <c r="R28" s="276"/>
-    </row>
-    <row r="29" spans="1:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="245"/>
-      <c r="B29" s="246"/>
-      <c r="C29" s="247"/>
-      <c r="D29" s="247"/>
-      <c r="E29" s="247"/>
-      <c r="F29" s="233"/>
-      <c r="G29" s="247"/>
-      <c r="H29" s="247"/>
-      <c r="I29" s="247"/>
-      <c r="J29" s="247"/>
-      <c r="N29" s="139"/>
-      <c r="O29" s="52"/>
-    </row>
-    <row r="30" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="252" t="s">
+      <c r="R24" s="212"/>
+    </row>
+    <row r="25" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="431"/>
+      <c r="B25" s="493"/>
+      <c r="C25" s="485"/>
+      <c r="D25" s="485"/>
+      <c r="E25" s="494"/>
+      <c r="F25" s="484"/>
+      <c r="G25" s="484"/>
+      <c r="H25" s="495"/>
+      <c r="I25" s="484"/>
+      <c r="J25" s="496"/>
+      <c r="N25" s="195"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="99"/>
+      <c r="R25" s="213"/>
+    </row>
+    <row r="26" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="431"/>
+      <c r="B26" s="493"/>
+      <c r="C26" s="485"/>
+      <c r="D26" s="485"/>
+      <c r="E26" s="494"/>
+      <c r="F26" s="484"/>
+      <c r="G26" s="484"/>
+      <c r="H26" s="495"/>
+      <c r="I26" s="484"/>
+      <c r="J26" s="509"/>
+      <c r="N26" s="195"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="99"/>
+      <c r="R26" s="213"/>
+    </row>
+    <row r="27" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="431"/>
+      <c r="B27" s="493"/>
+      <c r="C27" s="485"/>
+      <c r="D27" s="485"/>
+      <c r="E27" s="494"/>
+      <c r="F27" s="484"/>
+      <c r="G27" s="484"/>
+      <c r="H27" s="495"/>
+      <c r="I27" s="484"/>
+      <c r="J27" s="509"/>
+      <c r="N27" s="195"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="99"/>
+      <c r="Q27" s="99"/>
+      <c r="R27" s="213"/>
+    </row>
+    <row r="28" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="431"/>
+      <c r="B28" s="493"/>
+      <c r="C28" s="485"/>
+      <c r="D28" s="485"/>
+      <c r="E28" s="494"/>
+      <c r="F28" s="484"/>
+      <c r="G28" s="484"/>
+      <c r="H28" s="495"/>
+      <c r="I28" s="484"/>
+      <c r="J28" s="509"/>
+      <c r="N28" s="195"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="99"/>
+      <c r="Q28" s="99"/>
+      <c r="R28" s="213"/>
+    </row>
+    <row r="29" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="431"/>
+      <c r="B29" s="493"/>
+      <c r="C29" s="485"/>
+      <c r="D29" s="485"/>
+      <c r="E29" s="494"/>
+      <c r="F29" s="484"/>
+      <c r="G29" s="484"/>
+      <c r="H29" s="495"/>
+      <c r="I29" s="484"/>
+      <c r="J29" s="509"/>
+      <c r="N29" s="195"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="99"/>
+      <c r="Q29" s="99"/>
+      <c r="R29" s="213"/>
+    </row>
+    <row r="30" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="431"/>
+      <c r="B30" s="493"/>
+      <c r="C30" s="485"/>
+      <c r="D30" s="485"/>
+      <c r="E30" s="494"/>
+      <c r="F30" s="484"/>
+      <c r="G30" s="484"/>
+      <c r="H30" s="495"/>
+      <c r="I30" s="484"/>
+      <c r="J30" s="509"/>
+      <c r="N30" s="195"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="99"/>
+      <c r="Q30" s="99"/>
+      <c r="R30" s="213"/>
+    </row>
+    <row r="31" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="431"/>
+      <c r="B31" s="493"/>
+      <c r="C31" s="485"/>
+      <c r="D31" s="485"/>
+      <c r="E31" s="494"/>
+      <c r="F31" s="484"/>
+      <c r="G31" s="484"/>
+      <c r="H31" s="495"/>
+      <c r="I31" s="484"/>
+      <c r="J31" s="509"/>
+      <c r="N31" s="195"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="99"/>
+      <c r="Q31" s="99"/>
+      <c r="R31" s="213"/>
+    </row>
+    <row r="32" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="431"/>
+      <c r="B32" s="493"/>
+      <c r="C32" s="485"/>
+      <c r="D32" s="485"/>
+      <c r="E32" s="494"/>
+      <c r="F32" s="484"/>
+      <c r="G32" s="484"/>
+      <c r="H32" s="495"/>
+      <c r="I32" s="484"/>
+      <c r="J32" s="509"/>
+      <c r="N32" s="195"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="99"/>
+      <c r="Q32" s="99"/>
+      <c r="R32" s="213"/>
+    </row>
+    <row r="33" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="430"/>
+      <c r="B33" s="490"/>
+      <c r="C33" s="463"/>
+      <c r="D33" s="497"/>
+      <c r="E33" s="453"/>
+      <c r="F33" s="463"/>
+      <c r="G33" s="478"/>
+      <c r="H33" s="497"/>
+      <c r="I33" s="498"/>
+      <c r="J33" s="456"/>
+      <c r="N33" s="195"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="47"/>
+      <c r="R33" s="197"/>
+    </row>
+    <row r="34" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="430"/>
+      <c r="B34" s="490"/>
+      <c r="C34" s="463"/>
+      <c r="D34" s="497"/>
+      <c r="E34" s="453"/>
+      <c r="F34" s="463"/>
+      <c r="G34" s="478"/>
+      <c r="H34" s="497"/>
+      <c r="I34" s="498"/>
+      <c r="J34" s="456"/>
+      <c r="N34" s="195"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="46"/>
+      <c r="Q34" s="47"/>
+      <c r="R34" s="197"/>
+    </row>
+    <row r="35" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="430"/>
+      <c r="B35" s="490"/>
+      <c r="C35" s="463"/>
+      <c r="D35" s="497"/>
+      <c r="E35" s="453"/>
+      <c r="F35" s="453"/>
+      <c r="G35" s="491"/>
+      <c r="H35" s="497"/>
+      <c r="I35" s="498"/>
+      <c r="J35" s="456"/>
+      <c r="N35" s="195"/>
+      <c r="O35" s="46"/>
+      <c r="P35" s="46"/>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="197"/>
+    </row>
+    <row r="36" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="430"/>
+      <c r="B36" s="468"/>
+      <c r="C36" s="468"/>
+      <c r="D36" s="468"/>
+      <c r="E36" s="468"/>
+      <c r="F36" s="480"/>
+      <c r="G36" s="481"/>
+      <c r="H36" s="468"/>
+      <c r="I36" s="468"/>
+      <c r="J36" s="499"/>
+      <c r="N36" s="195"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="47"/>
+      <c r="Q36" s="47"/>
+      <c r="R36" s="197"/>
+    </row>
+    <row r="37" spans="1:18" s="96" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="436"/>
+      <c r="B37" s="500"/>
+      <c r="C37" s="501"/>
+      <c r="D37" s="502"/>
+      <c r="E37" s="503"/>
+      <c r="F37" s="504"/>
+      <c r="G37" s="505"/>
+      <c r="H37" s="506"/>
+      <c r="I37" s="507"/>
+      <c r="J37" s="508"/>
+      <c r="N37" s="214"/>
+      <c r="O37" s="215"/>
+      <c r="P37" s="216"/>
+      <c r="Q37" s="216"/>
+      <c r="R37" s="217"/>
+    </row>
+    <row r="38" spans="1:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="186"/>
+      <c r="B38" s="187"/>
+      <c r="C38" s="188"/>
+      <c r="D38" s="188"/>
+      <c r="E38" s="188"/>
+      <c r="F38" s="183"/>
+      <c r="G38" s="188"/>
+      <c r="H38" s="188"/>
+      <c r="I38" s="188"/>
+      <c r="J38" s="188"/>
+      <c r="N38" s="98"/>
+      <c r="O38" s="45"/>
+    </row>
+    <row r="39" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="251">
-        <f>COUNTA(B7:B28)</f>
+      <c r="B39" s="192">
+        <f>COUNTA(B7:B37)</f>
         <v>0</v>
       </c>
-      <c r="C30" s="249"/>
-      <c r="D30" s="249"/>
-      <c r="E30" s="249"/>
-      <c r="F30" s="248"/>
-      <c r="G30" s="248"/>
-      <c r="H30" s="250"/>
-      <c r="I30" s="248"/>
-      <c r="J30" s="248"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
+      <c r="C39" s="190"/>
+      <c r="D39" s="190"/>
+      <c r="E39" s="190"/>
+      <c r="F39" s="189"/>
+      <c r="G39" s="189"/>
+      <c r="H39" s="191"/>
+      <c r="I39" s="189"/>
+      <c r="J39" s="189"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7296,7 +7537,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="45" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="30" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;14&amp;G</oddFooter>
   </headerFooter>
@@ -7337,151 +7578,151 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="483"/>
-      <c r="B2" s="483"/>
-      <c r="C2" s="483"/>
-      <c r="D2" s="483"/>
-      <c r="E2" s="483"/>
-      <c r="F2" s="483"/>
-      <c r="G2" s="483"/>
-      <c r="H2" s="483"/>
-      <c r="I2" s="483"/>
-      <c r="J2" s="483"/>
-      <c r="K2" s="483"/>
-      <c r="L2" s="483"/>
-      <c r="M2" s="483"/>
-      <c r="N2" s="483"/>
+      <c r="A2" s="424"/>
+      <c r="B2" s="424"/>
+      <c r="C2" s="424"/>
+      <c r="D2" s="424"/>
+      <c r="E2" s="424"/>
+      <c r="F2" s="424"/>
+      <c r="G2" s="424"/>
+      <c r="H2" s="424"/>
+      <c r="I2" s="424"/>
+      <c r="J2" s="424"/>
+      <c r="K2" s="424"/>
+      <c r="L2" s="424"/>
+      <c r="M2" s="424"/>
+      <c r="N2" s="424"/>
     </row>
     <row r="3" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="483"/>
-      <c r="B3" s="483"/>
-      <c r="C3" s="483"/>
-      <c r="D3" s="486" t="s">
+      <c r="A3" s="424"/>
+      <c r="B3" s="424"/>
+      <c r="C3" s="424"/>
+      <c r="D3" s="427" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="486"/>
-      <c r="F3" s="486"/>
-      <c r="G3" s="486"/>
-      <c r="H3" s="486"/>
-      <c r="I3" s="486"/>
-      <c r="J3" s="486"/>
-      <c r="K3" s="486"/>
-      <c r="L3" s="486"/>
-      <c r="M3" s="483"/>
-      <c r="N3" s="483"/>
+      <c r="E3" s="427"/>
+      <c r="F3" s="427"/>
+      <c r="G3" s="427"/>
+      <c r="H3" s="427"/>
+      <c r="I3" s="427"/>
+      <c r="J3" s="427"/>
+      <c r="K3" s="427"/>
+      <c r="L3" s="427"/>
+      <c r="M3" s="424"/>
+      <c r="N3" s="424"/>
     </row>
     <row r="4" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="483"/>
-      <c r="B4" s="483"/>
-      <c r="C4" s="483"/>
-      <c r="D4" s="483"/>
-      <c r="E4" s="483"/>
-      <c r="F4" s="483"/>
-      <c r="G4" s="483"/>
-      <c r="H4" s="483"/>
-      <c r="I4" s="483"/>
-      <c r="J4" s="483"/>
-      <c r="K4" s="483"/>
-      <c r="L4" s="483"/>
-      <c r="M4" s="483"/>
-      <c r="N4" s="483"/>
+      <c r="A4" s="424"/>
+      <c r="B4" s="424"/>
+      <c r="C4" s="424"/>
+      <c r="D4" s="424"/>
+      <c r="E4" s="424"/>
+      <c r="F4" s="424"/>
+      <c r="G4" s="424"/>
+      <c r="H4" s="424"/>
+      <c r="I4" s="424"/>
+      <c r="J4" s="424"/>
+      <c r="K4" s="424"/>
+      <c r="L4" s="424"/>
+      <c r="M4" s="424"/>
+      <c r="N4" s="424"/>
     </row>
     <row r="5" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="R5" s="485" t="s">
+      <c r="R5" s="426" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="485"/>
-      <c r="T5" s="485"/>
-      <c r="U5" s="485"/>
-      <c r="V5" s="485"/>
-      <c r="W5" s="485"/>
-      <c r="X5" s="485"/>
+      <c r="S5" s="426"/>
+      <c r="T5" s="426"/>
+      <c r="U5" s="426"/>
+      <c r="V5" s="426"/>
+      <c r="W5" s="426"/>
+      <c r="X5" s="426"/>
     </row>
     <row r="6" spans="1:24" s="2" customFormat="1" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="280" t="s">
+      <c r="A6" s="221" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="280" t="s">
+      <c r="B6" s="221" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="280" t="s">
+      <c r="C6" s="221" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="280" t="s">
+      <c r="D6" s="221" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="280" t="s">
+      <c r="E6" s="221" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="280" t="s">
+      <c r="F6" s="221" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="280" t="s">
+      <c r="G6" s="221" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="280" t="s">
+      <c r="H6" s="221" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="280" t="s">
+      <c r="I6" s="221" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="280" t="s">
+      <c r="J6" s="221" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="280" t="s">
+      <c r="K6" s="221" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="281" t="s">
+      <c r="L6" s="222" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="280" t="s">
+      <c r="M6" s="221" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="282" t="s">
+      <c r="N6" s="223" t="s">
         <v>22</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R6" s="212" t="s">
+      <c r="R6" s="163" t="s">
         <v>12</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T6" s="217" t="s">
+      <c r="T6" s="168" t="s">
         <v>14</v>
       </c>
-      <c r="U6" s="217" t="s">
+      <c r="U6" s="168" t="s">
         <v>15</v>
       </c>
-      <c r="V6" s="217" t="s">
+      <c r="V6" s="168" t="s">
         <v>16</v>
       </c>
-      <c r="W6" s="217" t="s">
+      <c r="W6" s="168" t="s">
         <v>23</v>
       </c>
-      <c r="X6" s="218" t="s">
+      <c r="X6" s="169" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="209" customFormat="1" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="277"/>
-      <c r="B7" s="278"/>
-      <c r="C7" s="279"/>
-      <c r="D7" s="279"/>
-      <c r="E7" s="279"/>
-      <c r="F7" s="278"/>
-      <c r="G7" s="278"/>
-      <c r="H7" s="278"/>
-      <c r="I7" s="278"/>
-      <c r="J7" s="278"/>
-      <c r="K7" s="278"/>
-      <c r="L7" s="277"/>
-      <c r="M7" s="278"/>
-      <c r="N7" s="278"/>
+    <row r="7" spans="1:24" s="160" customFormat="1" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="218"/>
+      <c r="B7" s="219"/>
+      <c r="C7" s="220"/>
+      <c r="D7" s="220"/>
+      <c r="E7" s="220"/>
+      <c r="F7" s="219"/>
+      <c r="G7" s="219"/>
+      <c r="H7" s="219"/>
+      <c r="I7" s="219"/>
+      <c r="J7" s="219"/>
+      <c r="K7" s="219"/>
+      <c r="L7" s="218"/>
+      <c r="M7" s="219"/>
+      <c r="N7" s="219"/>
       <c r="R7" s="29"/>
-      <c r="S7" s="216"/>
+      <c r="S7" s="167"/>
       <c r="T7" s="29"/>
       <c r="U7" s="29"/>
       <c r="V7" s="29"/>
@@ -7489,737 +7730,737 @@
       <c r="X7" s="29"/>
     </row>
     <row r="8" spans="1:24" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="198"/>
-      <c r="B8" s="123"/>
+      <c r="A8" s="149"/>
+      <c r="B8" s="92"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="199"/>
-      <c r="E8" s="197"/>
-      <c r="F8" s="200"/>
-      <c r="G8" s="201"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="152"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
       <c r="J8" s="39"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="202"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="153"/>
       <c r="M8" s="39"/>
       <c r="N8" s="39"/>
-      <c r="R8" s="113"/>
-      <c r="S8" s="216"/>
-      <c r="T8" s="113"/>
-      <c r="U8" s="113"/>
-      <c r="V8" s="113"/>
-      <c r="W8" s="113"/>
-      <c r="X8" s="113"/>
-    </row>
-    <row r="9" spans="1:24" s="87" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="65"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="R9" s="213"/>
-      <c r="S9" s="216"/>
-      <c r="T9" s="67"/>
-      <c r="U9" s="67"/>
-      <c r="V9" s="67"/>
-      <c r="W9" s="67"/>
-      <c r="X9" s="67"/>
-    </row>
-    <row r="10" spans="1:24" s="112" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="114"/>
-      <c r="B10" s="158"/>
-      <c r="C10" s="157"/>
-      <c r="D10" s="157"/>
-      <c r="E10" s="159"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="157"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="R10" s="160"/>
-      <c r="S10" s="216"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="67"/>
-      <c r="V10" s="67"/>
-      <c r="W10" s="67"/>
-      <c r="X10" s="67"/>
-    </row>
-    <row r="11" spans="1:24" s="120" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="181"/>
-      <c r="B11" s="162"/>
-      <c r="C11" s="182"/>
-      <c r="D11" s="163"/>
-      <c r="E11" s="163"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="162"/>
-      <c r="I11" s="162"/>
-      <c r="J11" s="162"/>
-      <c r="K11" s="162"/>
-      <c r="L11" s="183"/>
-      <c r="M11" s="182"/>
-      <c r="N11" s="184"/>
-      <c r="R11" s="126"/>
-      <c r="S11" s="216"/>
-      <c r="T11" s="173"/>
-      <c r="U11" s="173"/>
-      <c r="V11" s="173"/>
-      <c r="W11" s="173"/>
-      <c r="X11" s="173"/>
-    </row>
-    <row r="12" spans="1:24" s="87" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="65"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="R12" s="88"/>
-      <c r="S12" s="216"/>
-      <c r="T12" s="219"/>
-      <c r="U12" s="219"/>
-      <c r="V12" s="219"/>
-      <c r="W12" s="219"/>
-      <c r="X12" s="219"/>
-    </row>
-    <row r="13" spans="1:24" s="87" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="65"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="61"/>
-      <c r="R13" s="88"/>
-      <c r="S13" s="216"/>
-      <c r="T13" s="89"/>
-      <c r="U13" s="89"/>
-      <c r="V13" s="89"/>
-      <c r="W13" s="89"/>
-      <c r="X13" s="89"/>
-    </row>
-    <row r="14" spans="1:24" s="87" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="65"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="R14" s="88"/>
-      <c r="S14" s="216"/>
-      <c r="T14" s="89"/>
-      <c r="U14" s="89"/>
-      <c r="V14" s="89"/>
-      <c r="W14" s="89"/>
-      <c r="X14" s="89"/>
-    </row>
-    <row r="15" spans="1:24" s="87" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="65"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="R15" s="88"/>
-      <c r="S15" s="216"/>
-      <c r="T15" s="89"/>
-      <c r="U15" s="89"/>
-      <c r="V15" s="89"/>
-      <c r="W15" s="89"/>
-      <c r="X15" s="89"/>
-    </row>
-    <row r="16" spans="1:24" s="87" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="65"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="R16" s="88"/>
-      <c r="S16" s="216"/>
-      <c r="T16" s="96"/>
-      <c r="U16" s="96"/>
-      <c r="V16" s="96"/>
-      <c r="W16" s="96"/>
-      <c r="X16" s="96"/>
-    </row>
-    <row r="17" spans="1:24" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="65"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="R17" s="97"/>
-      <c r="S17" s="216"/>
-      <c r="T17" s="98"/>
-      <c r="U17" s="98"/>
-      <c r="V17" s="99"/>
-      <c r="W17" s="98"/>
-      <c r="X17" s="99"/>
-    </row>
-    <row r="18" spans="1:24" s="100" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="65"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="R18" s="88"/>
-      <c r="S18" s="216"/>
-      <c r="T18" s="89"/>
-      <c r="U18" s="89"/>
-      <c r="V18" s="101"/>
-      <c r="W18" s="89"/>
-      <c r="X18" s="101"/>
-    </row>
-    <row r="19" spans="1:24" s="100" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="65"/>
-      <c r="B19" s="91"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="75"/>
-      <c r="R19" s="88"/>
-      <c r="S19" s="216"/>
-      <c r="T19" s="89"/>
-      <c r="U19" s="89"/>
-      <c r="V19" s="101"/>
-      <c r="W19" s="89"/>
-      <c r="X19" s="101"/>
-    </row>
-    <row r="20" spans="1:24" s="100" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="65"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
-      <c r="R20" s="88"/>
-      <c r="S20" s="216"/>
-      <c r="T20" s="89"/>
-      <c r="U20" s="89"/>
-      <c r="V20" s="89"/>
-      <c r="W20" s="89"/>
-      <c r="X20" s="89"/>
-    </row>
-    <row r="21" spans="1:24" s="100" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="65"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="69"/>
-      <c r="R21" s="88"/>
-      <c r="S21" s="216"/>
-      <c r="T21" s="89"/>
-      <c r="U21" s="89"/>
-      <c r="V21" s="89"/>
-      <c r="W21" s="89"/>
-      <c r="X21" s="89"/>
-    </row>
-    <row r="22" spans="1:24" s="100" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="65"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
-      <c r="R22" s="88"/>
-      <c r="S22" s="216"/>
-      <c r="T22" s="89"/>
-      <c r="U22" s="89"/>
-      <c r="V22" s="89"/>
-      <c r="W22" s="89"/>
-      <c r="X22" s="89"/>
-    </row>
-    <row r="23" spans="1:24" s="87" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="65"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="R23" s="88"/>
-      <c r="S23" s="216"/>
-      <c r="T23" s="89"/>
-      <c r="U23" s="89"/>
-      <c r="V23" s="89"/>
-      <c r="W23" s="89"/>
-      <c r="X23" s="89"/>
-    </row>
-    <row r="24" spans="1:24" s="120" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="181"/>
-      <c r="B24" s="185"/>
-      <c r="C24" s="186"/>
-      <c r="D24" s="186"/>
-      <c r="E24" s="186"/>
-      <c r="F24" s="187"/>
-      <c r="G24" s="187"/>
-      <c r="H24" s="187"/>
-      <c r="I24" s="187"/>
-      <c r="J24" s="187"/>
-      <c r="K24" s="187"/>
-      <c r="L24" s="188"/>
-      <c r="M24" s="136"/>
-      <c r="N24" s="187"/>
-      <c r="R24" s="125"/>
-      <c r="S24" s="216"/>
-      <c r="T24" s="127"/>
-      <c r="U24" s="127"/>
-      <c r="V24" s="127"/>
-      <c r="W24" s="127"/>
-      <c r="X24" s="127"/>
-    </row>
-    <row r="25" spans="1:24" s="120" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="181"/>
-      <c r="B25" s="189"/>
-      <c r="C25" s="163"/>
-      <c r="D25" s="163"/>
-      <c r="E25" s="180"/>
-      <c r="F25" s="162"/>
-      <c r="G25" s="180"/>
-      <c r="H25" s="163"/>
-      <c r="I25" s="164"/>
-      <c r="J25" s="180"/>
-      <c r="K25" s="180"/>
-      <c r="L25" s="183"/>
-      <c r="M25" s="162"/>
-      <c r="N25" s="184"/>
-      <c r="R25" s="126"/>
-      <c r="S25" s="216"/>
-      <c r="T25" s="175"/>
-      <c r="U25" s="175"/>
-      <c r="V25" s="176"/>
-      <c r="W25" s="175"/>
-      <c r="X25" s="176"/>
-    </row>
-    <row r="26" spans="1:24" s="100" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="65"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="61"/>
-      <c r="R26" s="88"/>
-      <c r="S26" s="216"/>
-      <c r="T26" s="105"/>
-      <c r="U26" s="105"/>
-      <c r="V26" s="105"/>
-      <c r="W26" s="105"/>
-      <c r="X26" s="105"/>
-    </row>
-    <row r="27" spans="1:24" s="166" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="181"/>
-      <c r="B27" s="190"/>
-      <c r="C27" s="187"/>
-      <c r="D27" s="187"/>
-      <c r="E27" s="187"/>
-      <c r="F27" s="187"/>
-      <c r="G27" s="210"/>
-      <c r="H27" s="187"/>
-      <c r="I27" s="187"/>
-      <c r="J27" s="187"/>
-      <c r="K27" s="187"/>
-      <c r="L27" s="191"/>
-      <c r="M27" s="191"/>
-      <c r="N27" s="187"/>
-      <c r="R27" s="125"/>
-      <c r="S27" s="216"/>
-      <c r="T27" s="144"/>
-      <c r="U27" s="144"/>
-      <c r="V27" s="144"/>
-      <c r="W27" s="144"/>
-      <c r="X27" s="144"/>
-    </row>
-    <row r="28" spans="1:24" s="166" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="223"/>
-      <c r="B28" s="224"/>
-      <c r="C28" s="224"/>
-      <c r="D28" s="225"/>
-      <c r="E28" s="224"/>
-      <c r="F28" s="224"/>
-      <c r="G28" s="224"/>
-      <c r="H28" s="224"/>
-      <c r="I28" s="224"/>
-      <c r="J28" s="224"/>
-      <c r="K28" s="224"/>
-      <c r="L28" s="223"/>
-      <c r="M28" s="226"/>
-      <c r="N28" s="224"/>
-      <c r="R28" s="125"/>
-      <c r="S28" s="216"/>
-      <c r="T28" s="127"/>
-      <c r="U28" s="127"/>
-      <c r="V28" s="127"/>
-      <c r="W28" s="127"/>
-      <c r="X28" s="127"/>
-    </row>
-    <row r="29" spans="1:24" s="141" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="65"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="192"/>
-      <c r="M29" s="193"/>
-      <c r="N29" s="53"/>
-      <c r="R29" s="97"/>
-      <c r="S29" s="216"/>
-      <c r="T29" s="142"/>
-      <c r="U29" s="142"/>
-      <c r="V29" s="142"/>
-      <c r="W29" s="142"/>
-      <c r="X29" s="142"/>
+      <c r="R8" s="87"/>
+      <c r="S8" s="167"/>
+      <c r="T8" s="87"/>
+      <c r="U8" s="87"/>
+      <c r="V8" s="87"/>
+      <c r="W8" s="87"/>
+      <c r="X8" s="87"/>
+    </row>
+    <row r="9" spans="1:24" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="54"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="R9" s="164"/>
+      <c r="S9" s="167"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="55"/>
+    </row>
+    <row r="10" spans="1:24" s="86" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="88"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="112"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="R10" s="115"/>
+      <c r="S10" s="167"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="55"/>
+    </row>
+    <row r="11" spans="1:24" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="134"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="136"/>
+      <c r="M11" s="135"/>
+      <c r="N11" s="137"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="167"/>
+      <c r="T11" s="127"/>
+      <c r="U11" s="127"/>
+      <c r="V11" s="127"/>
+      <c r="W11" s="127"/>
+      <c r="X11" s="127"/>
+    </row>
+    <row r="12" spans="1:24" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="54"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="167"/>
+      <c r="T12" s="170"/>
+      <c r="U12" s="170"/>
+      <c r="V12" s="170"/>
+      <c r="W12" s="170"/>
+      <c r="X12" s="170"/>
+    </row>
+    <row r="13" spans="1:24" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="54"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="51"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="167"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="64"/>
+    </row>
+    <row r="14" spans="1:24" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="54"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="167"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="64"/>
+    </row>
+    <row r="15" spans="1:24" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="54"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="167"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="64"/>
+      <c r="X15" s="64"/>
+    </row>
+    <row r="16" spans="1:24" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="54"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="167"/>
+      <c r="T16" s="71"/>
+      <c r="U16" s="71"/>
+      <c r="V16" s="71"/>
+      <c r="W16" s="71"/>
+      <c r="X16" s="71"/>
+    </row>
+    <row r="17" spans="1:24" s="43" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="54"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="R17" s="72"/>
+      <c r="S17" s="167"/>
+      <c r="T17" s="73"/>
+      <c r="U17" s="73"/>
+      <c r="V17" s="74"/>
+      <c r="W17" s="73"/>
+      <c r="X17" s="74"/>
+    </row>
+    <row r="18" spans="1:24" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="54"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="167"/>
+      <c r="T18" s="64"/>
+      <c r="U18" s="64"/>
+      <c r="V18" s="76"/>
+      <c r="W18" s="64"/>
+      <c r="X18" s="76"/>
+    </row>
+    <row r="19" spans="1:24" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="54"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="R19" s="63"/>
+      <c r="S19" s="167"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="64"/>
+      <c r="V19" s="76"/>
+      <c r="W19" s="64"/>
+      <c r="X19" s="76"/>
+    </row>
+    <row r="20" spans="1:24" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="54"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="167"/>
+      <c r="T20" s="64"/>
+      <c r="U20" s="64"/>
+      <c r="V20" s="64"/>
+      <c r="W20" s="64"/>
+      <c r="X20" s="64"/>
+    </row>
+    <row r="21" spans="1:24" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="54"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="167"/>
+      <c r="T21" s="64"/>
+      <c r="U21" s="64"/>
+      <c r="V21" s="64"/>
+      <c r="W21" s="64"/>
+      <c r="X21" s="64"/>
+    </row>
+    <row r="22" spans="1:24" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="54"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="R22" s="63"/>
+      <c r="S22" s="167"/>
+      <c r="T22" s="64"/>
+      <c r="U22" s="64"/>
+      <c r="V22" s="64"/>
+      <c r="W22" s="64"/>
+      <c r="X22" s="64"/>
+    </row>
+    <row r="23" spans="1:24" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="54"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="R23" s="63"/>
+      <c r="S23" s="167"/>
+      <c r="T23" s="64"/>
+      <c r="U23" s="64"/>
+      <c r="V23" s="64"/>
+      <c r="W23" s="64"/>
+      <c r="X23" s="64"/>
+    </row>
+    <row r="24" spans="1:24" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="134"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="139"/>
+      <c r="D24" s="139"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="140"/>
+      <c r="G24" s="140"/>
+      <c r="H24" s="140"/>
+      <c r="I24" s="140"/>
+      <c r="J24" s="140"/>
+      <c r="K24" s="140"/>
+      <c r="L24" s="141"/>
+      <c r="M24" s="97"/>
+      <c r="N24" s="140"/>
+      <c r="R24" s="93"/>
+      <c r="S24" s="167"/>
+      <c r="T24" s="95"/>
+      <c r="U24" s="95"/>
+      <c r="V24" s="95"/>
+      <c r="W24" s="95"/>
+      <c r="X24" s="95"/>
+    </row>
+    <row r="25" spans="1:24" s="89" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="134"/>
+      <c r="B25" s="142"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="133"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="133"/>
+      <c r="H25" s="117"/>
+      <c r="I25" s="118"/>
+      <c r="J25" s="133"/>
+      <c r="K25" s="133"/>
+      <c r="L25" s="136"/>
+      <c r="M25" s="116"/>
+      <c r="N25" s="137"/>
+      <c r="R25" s="94"/>
+      <c r="S25" s="167"/>
+      <c r="T25" s="128"/>
+      <c r="U25" s="128"/>
+      <c r="V25" s="129"/>
+      <c r="W25" s="128"/>
+      <c r="X25" s="129"/>
+    </row>
+    <row r="26" spans="1:24" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="54"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="167"/>
+      <c r="T26" s="80"/>
+      <c r="U26" s="80"/>
+      <c r="V26" s="80"/>
+      <c r="W26" s="80"/>
+      <c r="X26" s="80"/>
+    </row>
+    <row r="27" spans="1:24" s="120" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="134"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="140"/>
+      <c r="D27" s="140"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="161"/>
+      <c r="H27" s="140"/>
+      <c r="I27" s="140"/>
+      <c r="J27" s="140"/>
+      <c r="K27" s="140"/>
+      <c r="L27" s="144"/>
+      <c r="M27" s="144"/>
+      <c r="N27" s="140"/>
+      <c r="R27" s="93"/>
+      <c r="S27" s="167"/>
+      <c r="T27" s="102"/>
+      <c r="U27" s="102"/>
+      <c r="V27" s="102"/>
+      <c r="W27" s="102"/>
+      <c r="X27" s="102"/>
+    </row>
+    <row r="28" spans="1:24" s="120" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="173"/>
+      <c r="B28" s="174"/>
+      <c r="C28" s="174"/>
+      <c r="D28" s="175"/>
+      <c r="E28" s="174"/>
+      <c r="F28" s="174"/>
+      <c r="G28" s="174"/>
+      <c r="H28" s="174"/>
+      <c r="I28" s="174"/>
+      <c r="J28" s="174"/>
+      <c r="K28" s="174"/>
+      <c r="L28" s="173"/>
+      <c r="M28" s="176"/>
+      <c r="N28" s="174"/>
+      <c r="R28" s="93"/>
+      <c r="S28" s="167"/>
+      <c r="T28" s="95"/>
+      <c r="U28" s="95"/>
+      <c r="V28" s="95"/>
+      <c r="W28" s="95"/>
+      <c r="X28" s="95"/>
+    </row>
+    <row r="29" spans="1:24" s="100" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="54"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="145"/>
+      <c r="M29" s="146"/>
+      <c r="N29" s="46"/>
+      <c r="R29" s="72"/>
+      <c r="S29" s="167"/>
+      <c r="T29" s="101"/>
+      <c r="U29" s="101"/>
+      <c r="V29" s="101"/>
+      <c r="W29" s="101"/>
+      <c r="X29" s="101"/>
     </row>
     <row r="30" spans="1:24" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="198"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="79"/>
-      <c r="K30" s="79"/>
-      <c r="L30" s="79"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="79"/>
+      <c r="A30" s="149"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="58"/>
       <c r="R30" s="38"/>
-      <c r="S30" s="216"/>
+      <c r="S30" s="167"/>
       <c r="T30" s="37"/>
       <c r="U30" s="37"/>
       <c r="V30" s="37"/>
       <c r="W30" s="37"/>
       <c r="X30" s="37"/>
     </row>
-    <row r="31" spans="1:24" s="87" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="65"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="61"/>
-      <c r="R31" s="88"/>
-      <c r="S31" s="216"/>
-      <c r="T31" s="89"/>
-      <c r="U31" s="89"/>
-      <c r="V31" s="89"/>
-      <c r="W31" s="89"/>
-      <c r="X31" s="89"/>
-    </row>
-    <row r="32" spans="1:24" s="87" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="65"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="91"/>
-      <c r="I32" s="91"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="91"/>
-      <c r="L32" s="106"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="R32" s="88"/>
-      <c r="S32" s="216"/>
-      <c r="T32" s="89"/>
-      <c r="U32" s="89"/>
-      <c r="V32" s="89"/>
-      <c r="W32" s="89"/>
-      <c r="X32" s="89"/>
-    </row>
-    <row r="33" spans="1:25" s="166" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="181"/>
-      <c r="B33" s="187"/>
-      <c r="C33" s="136"/>
-      <c r="D33" s="187"/>
-      <c r="E33" s="187"/>
-      <c r="F33" s="187"/>
-      <c r="G33" s="187"/>
-      <c r="H33" s="136"/>
-      <c r="I33" s="186"/>
-      <c r="J33" s="187"/>
-      <c r="K33" s="187"/>
-      <c r="L33" s="181"/>
-      <c r="M33" s="187"/>
-      <c r="N33" s="187"/>
-      <c r="R33" s="125"/>
-      <c r="S33" s="216"/>
-      <c r="T33" s="127"/>
-      <c r="U33" s="127"/>
-      <c r="V33" s="127"/>
-      <c r="W33" s="127"/>
-      <c r="X33" s="127"/>
-    </row>
-    <row r="34" spans="1:25" s="87" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="65"/>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="69"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="69"/>
-      <c r="M34" s="69"/>
-      <c r="N34" s="69"/>
-      <c r="R34" s="88"/>
-      <c r="S34" s="216"/>
-      <c r="T34" s="89"/>
-      <c r="U34" s="89"/>
-      <c r="V34" s="89"/>
-      <c r="W34" s="89"/>
-      <c r="X34" s="89"/>
-    </row>
-    <row r="35" spans="1:25" s="87" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="65"/>
-      <c r="B35" s="107"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="108"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="109"/>
-      <c r="N35" s="61"/>
-      <c r="R35" s="88"/>
-      <c r="S35" s="216"/>
-      <c r="T35" s="89"/>
-      <c r="U35" s="89"/>
-      <c r="V35" s="89"/>
-      <c r="W35" s="89"/>
-      <c r="X35" s="89"/>
-    </row>
-    <row r="36" spans="1:25" s="166" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="181"/>
-      <c r="B36" s="190"/>
-      <c r="C36" s="187"/>
-      <c r="D36" s="187"/>
-      <c r="E36" s="187"/>
-      <c r="F36" s="187"/>
-      <c r="G36" s="187"/>
-      <c r="H36" s="187"/>
-      <c r="I36" s="186"/>
-      <c r="J36" s="186"/>
-      <c r="K36" s="187"/>
-      <c r="L36" s="194"/>
-      <c r="M36" s="191"/>
-      <c r="N36" s="187"/>
-      <c r="R36" s="125"/>
-      <c r="S36" s="216"/>
-      <c r="T36" s="215"/>
-      <c r="U36" s="215"/>
-      <c r="V36" s="215"/>
-      <c r="W36" s="215"/>
-      <c r="X36" s="215"/>
-    </row>
-    <row r="37" spans="1:25" s="87" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="65"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="94"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="102"/>
-      <c r="I37" s="103"/>
-      <c r="J37" s="104"/>
-      <c r="K37" s="94"/>
-      <c r="L37" s="95"/>
-      <c r="M37" s="75"/>
-      <c r="N37" s="75"/>
-      <c r="R37" s="90"/>
-      <c r="S37" s="216"/>
-      <c r="T37" s="67"/>
-      <c r="U37" s="67"/>
-      <c r="V37" s="67"/>
-      <c r="W37" s="67"/>
-      <c r="X37" s="67"/>
-    </row>
-    <row r="38" spans="1:25" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="228"/>
-      <c r="B38" s="86"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="86"/>
-      <c r="H38" s="86"/>
-      <c r="I38" s="229"/>
-      <c r="J38" s="86"/>
-      <c r="K38" s="86"/>
-      <c r="L38" s="86"/>
-      <c r="M38" s="86"/>
-      <c r="N38" s="86"/>
-      <c r="R38" s="214"/>
-      <c r="S38" s="216"/>
-      <c r="T38" s="214"/>
-      <c r="U38" s="214"/>
-      <c r="V38" s="214"/>
-      <c r="W38" s="214"/>
-      <c r="X38" s="214"/>
-      <c r="Y38" s="141"/>
+    <row r="31" spans="1:24" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="54"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="51"/>
+      <c r="R31" s="63"/>
+      <c r="S31" s="167"/>
+      <c r="T31" s="64"/>
+      <c r="U31" s="64"/>
+      <c r="V31" s="64"/>
+      <c r="W31" s="64"/>
+      <c r="X31" s="64"/>
+    </row>
+    <row r="32" spans="1:24" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="54"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="R32" s="63"/>
+      <c r="S32" s="167"/>
+      <c r="T32" s="64"/>
+      <c r="U32" s="64"/>
+      <c r="V32" s="64"/>
+      <c r="W32" s="64"/>
+      <c r="X32" s="64"/>
+    </row>
+    <row r="33" spans="1:25" s="120" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="134"/>
+      <c r="B33" s="140"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="140"/>
+      <c r="F33" s="140"/>
+      <c r="G33" s="140"/>
+      <c r="H33" s="97"/>
+      <c r="I33" s="139"/>
+      <c r="J33" s="140"/>
+      <c r="K33" s="140"/>
+      <c r="L33" s="134"/>
+      <c r="M33" s="140"/>
+      <c r="N33" s="140"/>
+      <c r="R33" s="93"/>
+      <c r="S33" s="167"/>
+      <c r="T33" s="95"/>
+      <c r="U33" s="95"/>
+      <c r="V33" s="95"/>
+      <c r="W33" s="95"/>
+      <c r="X33" s="95"/>
+    </row>
+    <row r="34" spans="1:25" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="54"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="R34" s="63"/>
+      <c r="S34" s="167"/>
+      <c r="T34" s="64"/>
+      <c r="U34" s="64"/>
+      <c r="V34" s="64"/>
+      <c r="W34" s="64"/>
+      <c r="X34" s="64"/>
+    </row>
+    <row r="35" spans="1:25" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="54"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="83"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="84"/>
+      <c r="N35" s="51"/>
+      <c r="R35" s="63"/>
+      <c r="S35" s="167"/>
+      <c r="T35" s="64"/>
+      <c r="U35" s="64"/>
+      <c r="V35" s="64"/>
+      <c r="W35" s="64"/>
+      <c r="X35" s="64"/>
+    </row>
+    <row r="36" spans="1:25" s="120" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="134"/>
+      <c r="B36" s="143"/>
+      <c r="C36" s="140"/>
+      <c r="D36" s="140"/>
+      <c r="E36" s="140"/>
+      <c r="F36" s="140"/>
+      <c r="G36" s="140"/>
+      <c r="H36" s="140"/>
+      <c r="I36" s="139"/>
+      <c r="J36" s="139"/>
+      <c r="K36" s="140"/>
+      <c r="L36" s="147"/>
+      <c r="M36" s="144"/>
+      <c r="N36" s="140"/>
+      <c r="R36" s="93"/>
+      <c r="S36" s="167"/>
+      <c r="T36" s="166"/>
+      <c r="U36" s="166"/>
+      <c r="V36" s="166"/>
+      <c r="W36" s="166"/>
+      <c r="X36" s="166"/>
+    </row>
+    <row r="37" spans="1:25" s="62" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="54"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="79"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="57"/>
+      <c r="R37" s="65"/>
+      <c r="S37" s="167"/>
+      <c r="T37" s="55"/>
+      <c r="U37" s="55"/>
+      <c r="V37" s="55"/>
+      <c r="W37" s="55"/>
+      <c r="X37" s="55"/>
+    </row>
+    <row r="38" spans="1:25" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="178"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="179"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="61"/>
+      <c r="L38" s="61"/>
+      <c r="M38" s="61"/>
+      <c r="N38" s="61"/>
+      <c r="R38" s="165"/>
+      <c r="S38" s="167"/>
+      <c r="T38" s="165"/>
+      <c r="U38" s="165"/>
+      <c r="V38" s="165"/>
+      <c r="W38" s="165"/>
+      <c r="X38" s="165"/>
+      <c r="Y38" s="100"/>
     </row>
     <row r="39" spans="1:25" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="230"/>
-      <c r="B39" s="231"/>
-      <c r="C39" s="230"/>
-      <c r="D39" s="232"/>
-      <c r="E39" s="232"/>
-      <c r="F39" s="232"/>
-      <c r="G39" s="232"/>
-      <c r="H39" s="233"/>
-      <c r="I39" s="233"/>
-      <c r="J39" s="233"/>
-      <c r="K39" s="233"/>
-      <c r="L39" s="230"/>
-      <c r="M39" s="233"/>
-      <c r="N39" s="233"/>
+      <c r="A39" s="180"/>
+      <c r="B39" s="181"/>
+      <c r="C39" s="180"/>
+      <c r="D39" s="182"/>
+      <c r="E39" s="182"/>
+      <c r="F39" s="182"/>
+      <c r="G39" s="182"/>
+      <c r="H39" s="183"/>
+      <c r="I39" s="183"/>
+      <c r="J39" s="183"/>
+      <c r="K39" s="183"/>
+      <c r="L39" s="180"/>
+      <c r="M39" s="183"/>
+      <c r="N39" s="183"/>
     </row>
     <row r="40" spans="1:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="235" t="s">
+      <c r="A40" s="185" t="s">
         <v>17</v>
       </c>
       <c r="B40" s="23">
@@ -8260,8 +8501,8 @@
   </sheetPr>
   <dimension ref="A2:BP36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView view="pageLayout" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8280,71 +8521,71 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:68" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="483"/>
-      <c r="B2" s="483"/>
-      <c r="C2" s="483"/>
-      <c r="D2" s="484"/>
-      <c r="E2" s="484"/>
-      <c r="F2" s="484"/>
-      <c r="G2" s="483"/>
-      <c r="H2" s="483"/>
+      <c r="A2" s="424"/>
+      <c r="B2" s="424"/>
+      <c r="C2" s="424"/>
+      <c r="D2" s="425"/>
+      <c r="E2" s="425"/>
+      <c r="F2" s="425"/>
+      <c r="G2" s="424"/>
+      <c r="H2" s="424"/>
     </row>
     <row r="3" spans="1:68" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="483"/>
-      <c r="B3" s="483"/>
-      <c r="C3" s="483"/>
-      <c r="D3" s="484" t="s">
+      <c r="A3" s="424"/>
+      <c r="B3" s="424"/>
+      <c r="C3" s="424"/>
+      <c r="D3" s="425" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="484"/>
-      <c r="F3" s="484"/>
-      <c r="G3" s="483"/>
-      <c r="H3" s="483"/>
+      <c r="E3" s="425"/>
+      <c r="F3" s="425"/>
+      <c r="G3" s="424"/>
+      <c r="H3" s="424"/>
     </row>
     <row r="4" spans="1:68" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="483"/>
-      <c r="B4" s="483"/>
-      <c r="C4" s="483"/>
-      <c r="D4" s="484"/>
-      <c r="E4" s="484"/>
-      <c r="F4" s="484"/>
-      <c r="G4" s="483"/>
-      <c r="H4" s="483"/>
+      <c r="A4" s="424"/>
+      <c r="B4" s="424"/>
+      <c r="C4" s="424"/>
+      <c r="D4" s="425"/>
+      <c r="E4" s="425"/>
+      <c r="F4" s="425"/>
+      <c r="G4" s="424"/>
+      <c r="H4" s="424"/>
     </row>
     <row r="5" spans="1:68" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L5" s="483" t="s">
+      <c r="L5" s="424" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="483"/>
-      <c r="N5" s="483"/>
-      <c r="O5" s="483"/>
-      <c r="P5" s="483"/>
-      <c r="Q5" s="483"/>
-      <c r="R5" s="483"/>
+      <c r="M5" s="424"/>
+      <c r="N5" s="424"/>
+      <c r="O5" s="424"/>
+      <c r="P5" s="424"/>
+      <c r="Q5" s="424"/>
+      <c r="R5" s="424"/>
     </row>
     <row r="6" spans="1:68" s="10" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="469" t="s">
+      <c r="A6" s="410" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="470" t="s">
+      <c r="B6" s="411" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="470" t="s">
+      <c r="C6" s="411" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="470" t="s">
+      <c r="D6" s="411" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="470" t="s">
+      <c r="E6" s="411" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="470" t="s">
+      <c r="F6" s="411" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="470" t="s">
+      <c r="G6" s="411" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="471" t="s">
+      <c r="H6" s="412" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="25"/>
@@ -8352,19 +8593,19 @@
       <c r="K6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="398" t="s">
+      <c r="L6" s="339" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="399" t="s">
+      <c r="M6" s="340" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="399" t="s">
+      <c r="N6" s="340" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="399" t="s">
+      <c r="O6" s="340" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="400" t="s">
+      <c r="P6" s="341" t="s">
         <v>16</v>
       </c>
       <c r="Q6" s="3"/>
@@ -8421,41 +8662,41 @@
       <c r="BP6" s="26"/>
     </row>
     <row r="7" spans="1:68" s="25" customFormat="1" ht="46.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="472"/>
-      <c r="B7" s="463"/>
-      <c r="C7" s="464"/>
-      <c r="D7" s="465"/>
-      <c r="E7" s="464"/>
-      <c r="F7" s="464"/>
-      <c r="G7" s="464"/>
-      <c r="H7" s="466"/>
-      <c r="L7" s="401"/>
-      <c r="M7" s="402"/>
-      <c r="N7" s="403"/>
-      <c r="O7" s="403"/>
-      <c r="P7" s="404"/>
-      <c r="Q7" s="110"/>
-      <c r="R7" s="110"/>
+      <c r="A7" s="413"/>
+      <c r="B7" s="404"/>
+      <c r="C7" s="405"/>
+      <c r="D7" s="406"/>
+      <c r="E7" s="405"/>
+      <c r="F7" s="405"/>
+      <c r="G7" s="405"/>
+      <c r="H7" s="407"/>
+      <c r="L7" s="342"/>
+      <c r="M7" s="343"/>
+      <c r="N7" s="344"/>
+      <c r="O7" s="344"/>
+      <c r="P7" s="345"/>
+      <c r="Q7" s="85"/>
+      <c r="R7" s="85"/>
     </row>
     <row r="8" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="473"/>
-      <c r="B8" s="405"/>
-      <c r="C8" s="405"/>
-      <c r="D8" s="405"/>
-      <c r="E8" s="405"/>
-      <c r="F8" s="405"/>
-      <c r="G8" s="405"/>
-      <c r="H8" s="406"/>
+      <c r="A8" s="414"/>
+      <c r="B8" s="346"/>
+      <c r="C8" s="346"/>
+      <c r="D8" s="346"/>
+      <c r="E8" s="346"/>
+      <c r="F8" s="346"/>
+      <c r="G8" s="346"/>
+      <c r="H8" s="347"/>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
-      <c r="L8" s="407"/>
-      <c r="M8" s="140"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="408"/>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="110"/>
+      <c r="L8" s="348"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="349"/>
+      <c r="Q8" s="85"/>
+      <c r="R8" s="85"/>
       <c r="S8" s="25"/>
       <c r="T8" s="25"/>
       <c r="U8" s="25"/>
@@ -8508,24 +8749,24 @@
       <c r="BP8" s="26"/>
     </row>
     <row r="9" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="474"/>
-      <c r="B9" s="409"/>
-      <c r="C9" s="410"/>
-      <c r="D9" s="411"/>
-      <c r="E9" s="410"/>
-      <c r="F9" s="410"/>
-      <c r="G9" s="410"/>
-      <c r="H9" s="412"/>
-      <c r="I9" s="413"/>
-      <c r="J9" s="414"/>
-      <c r="K9" s="413"/>
-      <c r="L9" s="415"/>
-      <c r="M9" s="410"/>
-      <c r="N9" s="410"/>
-      <c r="O9" s="410"/>
-      <c r="P9" s="416"/>
-      <c r="Q9" s="413"/>
-      <c r="R9" s="414"/>
+      <c r="A9" s="415"/>
+      <c r="B9" s="350"/>
+      <c r="C9" s="351"/>
+      <c r="D9" s="352"/>
+      <c r="E9" s="351"/>
+      <c r="F9" s="351"/>
+      <c r="G9" s="351"/>
+      <c r="H9" s="353"/>
+      <c r="I9" s="354"/>
+      <c r="J9" s="355"/>
+      <c r="K9" s="354"/>
+      <c r="L9" s="356"/>
+      <c r="M9" s="351"/>
+      <c r="N9" s="351"/>
+      <c r="O9" s="351"/>
+      <c r="P9" s="357"/>
+      <c r="Q9" s="354"/>
+      <c r="R9" s="355"/>
       <c r="S9" s="25"/>
       <c r="T9" s="25"/>
       <c r="U9" s="25"/>
@@ -8578,24 +8819,24 @@
       <c r="BP9" s="26"/>
     </row>
     <row r="10" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="474"/>
-      <c r="B10" s="409"/>
-      <c r="C10" s="410"/>
-      <c r="D10" s="411"/>
-      <c r="E10" s="411"/>
+      <c r="A10" s="415"/>
+      <c r="B10" s="350"/>
+      <c r="C10" s="351"/>
+      <c r="D10" s="352"/>
+      <c r="E10" s="352"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
-      <c r="H10" s="412"/>
+      <c r="H10" s="353"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
-      <c r="L10" s="407"/>
-      <c r="M10" s="140"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="408"/>
-      <c r="Q10" s="110"/>
-      <c r="R10" s="110"/>
+      <c r="L10" s="348"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="349"/>
+      <c r="Q10" s="85"/>
+      <c r="R10" s="85"/>
       <c r="S10" s="25"/>
       <c r="T10" s="25"/>
       <c r="U10" s="25"/>
@@ -8648,24 +8889,24 @@
       <c r="BP10" s="26"/>
     </row>
     <row r="11" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="474"/>
-      <c r="B11" s="417"/>
-      <c r="C11" s="410"/>
-      <c r="D11" s="411"/>
-      <c r="E11" s="410"/>
-      <c r="F11" s="410"/>
+      <c r="A11" s="415"/>
+      <c r="B11" s="358"/>
+      <c r="C11" s="351"/>
+      <c r="D11" s="352"/>
+      <c r="E11" s="351"/>
+      <c r="F11" s="351"/>
       <c r="G11" s="28"/>
-      <c r="H11" s="412"/>
+      <c r="H11" s="353"/>
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
-      <c r="L11" s="407"/>
-      <c r="M11" s="140"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="408"/>
-      <c r="Q11" s="110"/>
-      <c r="R11" s="110"/>
+      <c r="L11" s="348"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="349"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="85"/>
       <c r="S11" s="25"/>
       <c r="T11" s="25"/>
       <c r="U11" s="25"/>
@@ -8718,22 +8959,22 @@
       <c r="BP11" s="26"/>
     </row>
     <row r="12" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="473"/>
-      <c r="B12" s="375"/>
-      <c r="C12" s="375"/>
-      <c r="D12" s="375"/>
-      <c r="E12" s="375"/>
-      <c r="F12" s="375"/>
-      <c r="G12" s="375"/>
-      <c r="H12" s="418"/>
+      <c r="A12" s="414"/>
+      <c r="B12" s="316"/>
+      <c r="C12" s="316"/>
+      <c r="D12" s="316"/>
+      <c r="E12" s="316"/>
+      <c r="F12" s="316"/>
+      <c r="G12" s="316"/>
+      <c r="H12" s="359"/>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
-      <c r="L12" s="407"/>
-      <c r="M12" s="140"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="408"/>
+      <c r="L12" s="348"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="349"/>
       <c r="Q12" s="25"/>
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
@@ -8787,93 +9028,93 @@
       <c r="BO12" s="25"/>
       <c r="BP12" s="26"/>
     </row>
-    <row r="13" spans="1:68" s="170" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="475"/>
-      <c r="B13" s="419"/>
-      <c r="C13" s="420"/>
-      <c r="D13" s="420"/>
-      <c r="E13" s="420"/>
-      <c r="F13" s="420"/>
-      <c r="G13" s="420"/>
-      <c r="H13" s="421"/>
-      <c r="I13" s="167"/>
-      <c r="J13" s="167"/>
-      <c r="K13" s="167"/>
-      <c r="L13" s="407"/>
-      <c r="M13" s="140"/>
-      <c r="N13" s="168"/>
-      <c r="O13" s="168"/>
-      <c r="P13" s="422"/>
-      <c r="Q13" s="167"/>
-      <c r="R13" s="167"/>
-      <c r="S13" s="167"/>
-      <c r="T13" s="167"/>
-      <c r="U13" s="167"/>
-      <c r="V13" s="167"/>
-      <c r="W13" s="167"/>
-      <c r="X13" s="167"/>
-      <c r="Y13" s="167"/>
-      <c r="Z13" s="167"/>
-      <c r="AA13" s="167"/>
-      <c r="AB13" s="167"/>
-      <c r="AC13" s="167"/>
-      <c r="AD13" s="167"/>
-      <c r="AE13" s="167"/>
-      <c r="AF13" s="167"/>
-      <c r="AG13" s="167"/>
-      <c r="AH13" s="167"/>
-      <c r="AI13" s="167"/>
-      <c r="AJ13" s="167"/>
-      <c r="AK13" s="167"/>
-      <c r="AL13" s="167"/>
-      <c r="AM13" s="167"/>
-      <c r="AN13" s="167"/>
-      <c r="AO13" s="167"/>
-      <c r="AP13" s="167"/>
-      <c r="AQ13" s="167"/>
-      <c r="AR13" s="167"/>
-      <c r="AS13" s="167"/>
-      <c r="AT13" s="167"/>
-      <c r="AU13" s="167"/>
-      <c r="AV13" s="167"/>
-      <c r="AW13" s="167"/>
-      <c r="AX13" s="167"/>
-      <c r="AY13" s="167"/>
-      <c r="AZ13" s="167"/>
-      <c r="BA13" s="167"/>
-      <c r="BB13" s="167"/>
-      <c r="BC13" s="167"/>
-      <c r="BD13" s="167"/>
-      <c r="BE13" s="167"/>
-      <c r="BF13" s="167"/>
-      <c r="BG13" s="167"/>
-      <c r="BH13" s="167"/>
-      <c r="BI13" s="167"/>
-      <c r="BJ13" s="167"/>
-      <c r="BK13" s="167"/>
-      <c r="BL13" s="167"/>
-      <c r="BM13" s="167"/>
-      <c r="BN13" s="167"/>
-      <c r="BO13" s="167"/>
-      <c r="BP13" s="169"/>
+    <row r="13" spans="1:68" s="124" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="416"/>
+      <c r="B13" s="360"/>
+      <c r="C13" s="361"/>
+      <c r="D13" s="361"/>
+      <c r="E13" s="361"/>
+      <c r="F13" s="361"/>
+      <c r="G13" s="361"/>
+      <c r="H13" s="362"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="348"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="122"/>
+      <c r="O13" s="122"/>
+      <c r="P13" s="363"/>
+      <c r="Q13" s="121"/>
+      <c r="R13" s="121"/>
+      <c r="S13" s="121"/>
+      <c r="T13" s="121"/>
+      <c r="U13" s="121"/>
+      <c r="V13" s="121"/>
+      <c r="W13" s="121"/>
+      <c r="X13" s="121"/>
+      <c r="Y13" s="121"/>
+      <c r="Z13" s="121"/>
+      <c r="AA13" s="121"/>
+      <c r="AB13" s="121"/>
+      <c r="AC13" s="121"/>
+      <c r="AD13" s="121"/>
+      <c r="AE13" s="121"/>
+      <c r="AF13" s="121"/>
+      <c r="AG13" s="121"/>
+      <c r="AH13" s="121"/>
+      <c r="AI13" s="121"/>
+      <c r="AJ13" s="121"/>
+      <c r="AK13" s="121"/>
+      <c r="AL13" s="121"/>
+      <c r="AM13" s="121"/>
+      <c r="AN13" s="121"/>
+      <c r="AO13" s="121"/>
+      <c r="AP13" s="121"/>
+      <c r="AQ13" s="121"/>
+      <c r="AR13" s="121"/>
+      <c r="AS13" s="121"/>
+      <c r="AT13" s="121"/>
+      <c r="AU13" s="121"/>
+      <c r="AV13" s="121"/>
+      <c r="AW13" s="121"/>
+      <c r="AX13" s="121"/>
+      <c r="AY13" s="121"/>
+      <c r="AZ13" s="121"/>
+      <c r="BA13" s="121"/>
+      <c r="BB13" s="121"/>
+      <c r="BC13" s="121"/>
+      <c r="BD13" s="121"/>
+      <c r="BE13" s="121"/>
+      <c r="BF13" s="121"/>
+      <c r="BG13" s="121"/>
+      <c r="BH13" s="121"/>
+      <c r="BI13" s="121"/>
+      <c r="BJ13" s="121"/>
+      <c r="BK13" s="121"/>
+      <c r="BL13" s="121"/>
+      <c r="BM13" s="121"/>
+      <c r="BN13" s="121"/>
+      <c r="BO13" s="121"/>
+      <c r="BP13" s="123"/>
     </row>
     <row r="14" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="473"/>
-      <c r="B14" s="327"/>
+      <c r="A14" s="414"/>
+      <c r="B14" s="268"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
       <c r="F14" s="31"/>
-      <c r="G14" s="327"/>
-      <c r="H14" s="329"/>
+      <c r="G14" s="268"/>
+      <c r="H14" s="270"/>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
       <c r="K14" s="25"/>
-      <c r="L14" s="407"/>
-      <c r="M14" s="140"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="408"/>
+      <c r="L14" s="348"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="349"/>
       <c r="Q14" s="25"/>
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
@@ -8927,224 +9168,224 @@
       <c r="BO14" s="25"/>
       <c r="BP14" s="26"/>
     </row>
-    <row r="15" spans="1:68" s="170" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="475"/>
-      <c r="B15" s="162"/>
-      <c r="C15" s="163"/>
-      <c r="D15" s="163"/>
-      <c r="E15" s="163"/>
-      <c r="F15" s="183"/>
-      <c r="G15" s="162"/>
-      <c r="H15" s="423"/>
-      <c r="I15" s="167"/>
-      <c r="J15" s="167"/>
-      <c r="K15" s="167"/>
-      <c r="L15" s="407"/>
-      <c r="M15" s="140"/>
-      <c r="N15" s="168"/>
-      <c r="O15" s="168"/>
-      <c r="P15" s="422"/>
-      <c r="Q15" s="167"/>
-      <c r="R15" s="167"/>
-      <c r="S15" s="167"/>
-      <c r="T15" s="167"/>
-      <c r="U15" s="167"/>
-      <c r="V15" s="167"/>
-      <c r="W15" s="167"/>
-      <c r="X15" s="167"/>
-      <c r="Y15" s="167"/>
-      <c r="Z15" s="167"/>
-      <c r="AA15" s="167"/>
-      <c r="AB15" s="167"/>
-      <c r="AC15" s="167"/>
-      <c r="AD15" s="167"/>
-      <c r="AE15" s="167"/>
-      <c r="AF15" s="167"/>
-      <c r="AG15" s="167"/>
-      <c r="AH15" s="167"/>
-      <c r="AI15" s="167"/>
-      <c r="AJ15" s="167"/>
-      <c r="AK15" s="167"/>
-      <c r="AL15" s="167"/>
-      <c r="AM15" s="167"/>
-      <c r="AN15" s="167"/>
-      <c r="AO15" s="167"/>
-      <c r="AP15" s="167"/>
-      <c r="AQ15" s="167"/>
-      <c r="AR15" s="167"/>
-      <c r="AS15" s="167"/>
-      <c r="AT15" s="167"/>
-      <c r="AU15" s="167"/>
-      <c r="AV15" s="167"/>
-      <c r="AW15" s="167"/>
-      <c r="AX15" s="167"/>
-      <c r="AY15" s="167"/>
-      <c r="AZ15" s="167"/>
-      <c r="BA15" s="167"/>
-      <c r="BB15" s="167"/>
-      <c r="BC15" s="167"/>
-      <c r="BD15" s="167"/>
-      <c r="BE15" s="167"/>
-      <c r="BF15" s="167"/>
-      <c r="BG15" s="167"/>
-      <c r="BH15" s="167"/>
-      <c r="BI15" s="167"/>
-      <c r="BJ15" s="167"/>
-      <c r="BK15" s="167"/>
-      <c r="BL15" s="167"/>
-      <c r="BM15" s="167"/>
-      <c r="BN15" s="167"/>
-      <c r="BO15" s="167"/>
-      <c r="BP15" s="169"/>
-    </row>
-    <row r="16" spans="1:68" s="170" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="476"/>
-      <c r="B16" s="424"/>
-      <c r="C16" s="424"/>
-      <c r="D16" s="424"/>
-      <c r="E16" s="424"/>
-      <c r="F16" s="424"/>
-      <c r="G16" s="424"/>
-      <c r="H16" s="425"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="167"/>
-      <c r="K16" s="167"/>
-      <c r="L16" s="426"/>
-      <c r="P16" s="427"/>
-      <c r="Q16" s="167"/>
-      <c r="R16" s="167"/>
-      <c r="S16" s="167"/>
-      <c r="T16" s="167"/>
-      <c r="U16" s="167"/>
-      <c r="V16" s="167"/>
-      <c r="W16" s="167"/>
-      <c r="X16" s="167"/>
-      <c r="Y16" s="167"/>
-      <c r="Z16" s="167"/>
-      <c r="AA16" s="167"/>
-      <c r="AB16" s="167"/>
-      <c r="AC16" s="167"/>
-      <c r="AD16" s="167"/>
-      <c r="AE16" s="167"/>
-      <c r="AF16" s="167"/>
-      <c r="AG16" s="167"/>
-      <c r="AH16" s="167"/>
-      <c r="AI16" s="167"/>
-      <c r="AJ16" s="167"/>
-      <c r="AK16" s="167"/>
-      <c r="AL16" s="167"/>
-      <c r="AM16" s="167"/>
-      <c r="AN16" s="167"/>
-      <c r="AO16" s="167"/>
-      <c r="AP16" s="167"/>
-      <c r="AQ16" s="167"/>
-      <c r="AR16" s="167"/>
-      <c r="AS16" s="167"/>
-      <c r="AT16" s="167"/>
-      <c r="AU16" s="167"/>
-      <c r="AV16" s="167"/>
-      <c r="AW16" s="167"/>
-      <c r="AX16" s="167"/>
-      <c r="AY16" s="167"/>
-      <c r="AZ16" s="167"/>
-      <c r="BA16" s="167"/>
-      <c r="BB16" s="167"/>
-      <c r="BC16" s="167"/>
-      <c r="BD16" s="167"/>
-      <c r="BE16" s="167"/>
-      <c r="BF16" s="167"/>
-      <c r="BG16" s="167"/>
-      <c r="BH16" s="167"/>
-      <c r="BI16" s="167"/>
-      <c r="BJ16" s="167"/>
-      <c r="BK16" s="167"/>
-      <c r="BL16" s="167"/>
-      <c r="BM16" s="167"/>
-      <c r="BN16" s="167"/>
-      <c r="BO16" s="167"/>
-      <c r="BP16" s="169"/>
-    </row>
-    <row r="17" spans="1:68" s="170" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="477"/>
-      <c r="B17" s="162"/>
-      <c r="C17" s="163"/>
-      <c r="D17" s="163"/>
-      <c r="E17" s="163"/>
-      <c r="F17" s="183"/>
-      <c r="G17" s="162"/>
-      <c r="H17" s="423"/>
-      <c r="I17" s="167"/>
-      <c r="J17" s="167"/>
-      <c r="K17" s="167"/>
-      <c r="L17" s="426"/>
-      <c r="P17" s="427"/>
-      <c r="Q17" s="167"/>
-      <c r="R17" s="167"/>
-      <c r="S17" s="167"/>
-      <c r="T17" s="167"/>
-      <c r="U17" s="167"/>
-      <c r="V17" s="167"/>
-      <c r="W17" s="167"/>
-      <c r="X17" s="167"/>
-      <c r="Y17" s="167"/>
-      <c r="Z17" s="167"/>
-      <c r="AA17" s="167"/>
-      <c r="AB17" s="167"/>
-      <c r="AC17" s="167"/>
-      <c r="AD17" s="167"/>
-      <c r="AE17" s="167"/>
-      <c r="AF17" s="167"/>
-      <c r="AG17" s="167"/>
-      <c r="AH17" s="167"/>
-      <c r="AI17" s="167"/>
-      <c r="AJ17" s="167"/>
-      <c r="AK17" s="167"/>
-      <c r="AL17" s="167"/>
-      <c r="AM17" s="167"/>
-      <c r="AN17" s="167"/>
-      <c r="AO17" s="167"/>
-      <c r="AP17" s="167"/>
-      <c r="AQ17" s="167"/>
-      <c r="AR17" s="167"/>
-      <c r="AS17" s="167"/>
-      <c r="AT17" s="167"/>
-      <c r="AU17" s="167"/>
-      <c r="AV17" s="167"/>
-      <c r="AW17" s="167"/>
-      <c r="AX17" s="167"/>
-      <c r="AY17" s="167"/>
-      <c r="AZ17" s="167"/>
-      <c r="BA17" s="167"/>
-      <c r="BB17" s="167"/>
-      <c r="BC17" s="167"/>
-      <c r="BD17" s="167"/>
-      <c r="BE17" s="167"/>
-      <c r="BF17" s="167"/>
-      <c r="BG17" s="167"/>
-      <c r="BH17" s="167"/>
-      <c r="BI17" s="167"/>
-      <c r="BJ17" s="167"/>
-      <c r="BK17" s="167"/>
-      <c r="BL17" s="167"/>
-      <c r="BM17" s="167"/>
-      <c r="BN17" s="167"/>
-      <c r="BO17" s="167"/>
-      <c r="BP17" s="169"/>
+    <row r="15" spans="1:68" s="124" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="416"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="364"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="121"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="348"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="122"/>
+      <c r="O15" s="122"/>
+      <c r="P15" s="363"/>
+      <c r="Q15" s="121"/>
+      <c r="R15" s="121"/>
+      <c r="S15" s="121"/>
+      <c r="T15" s="121"/>
+      <c r="U15" s="121"/>
+      <c r="V15" s="121"/>
+      <c r="W15" s="121"/>
+      <c r="X15" s="121"/>
+      <c r="Y15" s="121"/>
+      <c r="Z15" s="121"/>
+      <c r="AA15" s="121"/>
+      <c r="AB15" s="121"/>
+      <c r="AC15" s="121"/>
+      <c r="AD15" s="121"/>
+      <c r="AE15" s="121"/>
+      <c r="AF15" s="121"/>
+      <c r="AG15" s="121"/>
+      <c r="AH15" s="121"/>
+      <c r="AI15" s="121"/>
+      <c r="AJ15" s="121"/>
+      <c r="AK15" s="121"/>
+      <c r="AL15" s="121"/>
+      <c r="AM15" s="121"/>
+      <c r="AN15" s="121"/>
+      <c r="AO15" s="121"/>
+      <c r="AP15" s="121"/>
+      <c r="AQ15" s="121"/>
+      <c r="AR15" s="121"/>
+      <c r="AS15" s="121"/>
+      <c r="AT15" s="121"/>
+      <c r="AU15" s="121"/>
+      <c r="AV15" s="121"/>
+      <c r="AW15" s="121"/>
+      <c r="AX15" s="121"/>
+      <c r="AY15" s="121"/>
+      <c r="AZ15" s="121"/>
+      <c r="BA15" s="121"/>
+      <c r="BB15" s="121"/>
+      <c r="BC15" s="121"/>
+      <c r="BD15" s="121"/>
+      <c r="BE15" s="121"/>
+      <c r="BF15" s="121"/>
+      <c r="BG15" s="121"/>
+      <c r="BH15" s="121"/>
+      <c r="BI15" s="121"/>
+      <c r="BJ15" s="121"/>
+      <c r="BK15" s="121"/>
+      <c r="BL15" s="121"/>
+      <c r="BM15" s="121"/>
+      <c r="BN15" s="121"/>
+      <c r="BO15" s="121"/>
+      <c r="BP15" s="123"/>
+    </row>
+    <row r="16" spans="1:68" s="124" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="417"/>
+      <c r="B16" s="365"/>
+      <c r="C16" s="365"/>
+      <c r="D16" s="365"/>
+      <c r="E16" s="365"/>
+      <c r="F16" s="365"/>
+      <c r="G16" s="365"/>
+      <c r="H16" s="366"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="367"/>
+      <c r="P16" s="368"/>
+      <c r="Q16" s="121"/>
+      <c r="R16" s="121"/>
+      <c r="S16" s="121"/>
+      <c r="T16" s="121"/>
+      <c r="U16" s="121"/>
+      <c r="V16" s="121"/>
+      <c r="W16" s="121"/>
+      <c r="X16" s="121"/>
+      <c r="Y16" s="121"/>
+      <c r="Z16" s="121"/>
+      <c r="AA16" s="121"/>
+      <c r="AB16" s="121"/>
+      <c r="AC16" s="121"/>
+      <c r="AD16" s="121"/>
+      <c r="AE16" s="121"/>
+      <c r="AF16" s="121"/>
+      <c r="AG16" s="121"/>
+      <c r="AH16" s="121"/>
+      <c r="AI16" s="121"/>
+      <c r="AJ16" s="121"/>
+      <c r="AK16" s="121"/>
+      <c r="AL16" s="121"/>
+      <c r="AM16" s="121"/>
+      <c r="AN16" s="121"/>
+      <c r="AO16" s="121"/>
+      <c r="AP16" s="121"/>
+      <c r="AQ16" s="121"/>
+      <c r="AR16" s="121"/>
+      <c r="AS16" s="121"/>
+      <c r="AT16" s="121"/>
+      <c r="AU16" s="121"/>
+      <c r="AV16" s="121"/>
+      <c r="AW16" s="121"/>
+      <c r="AX16" s="121"/>
+      <c r="AY16" s="121"/>
+      <c r="AZ16" s="121"/>
+      <c r="BA16" s="121"/>
+      <c r="BB16" s="121"/>
+      <c r="BC16" s="121"/>
+      <c r="BD16" s="121"/>
+      <c r="BE16" s="121"/>
+      <c r="BF16" s="121"/>
+      <c r="BG16" s="121"/>
+      <c r="BH16" s="121"/>
+      <c r="BI16" s="121"/>
+      <c r="BJ16" s="121"/>
+      <c r="BK16" s="121"/>
+      <c r="BL16" s="121"/>
+      <c r="BM16" s="121"/>
+      <c r="BN16" s="121"/>
+      <c r="BO16" s="121"/>
+      <c r="BP16" s="123"/>
+    </row>
+    <row r="17" spans="1:68" s="124" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="418"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="364"/>
+      <c r="I17" s="121"/>
+      <c r="J17" s="121"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="367"/>
+      <c r="P17" s="368"/>
+      <c r="Q17" s="121"/>
+      <c r="R17" s="121"/>
+      <c r="S17" s="121"/>
+      <c r="T17" s="121"/>
+      <c r="U17" s="121"/>
+      <c r="V17" s="121"/>
+      <c r="W17" s="121"/>
+      <c r="X17" s="121"/>
+      <c r="Y17" s="121"/>
+      <c r="Z17" s="121"/>
+      <c r="AA17" s="121"/>
+      <c r="AB17" s="121"/>
+      <c r="AC17" s="121"/>
+      <c r="AD17" s="121"/>
+      <c r="AE17" s="121"/>
+      <c r="AF17" s="121"/>
+      <c r="AG17" s="121"/>
+      <c r="AH17" s="121"/>
+      <c r="AI17" s="121"/>
+      <c r="AJ17" s="121"/>
+      <c r="AK17" s="121"/>
+      <c r="AL17" s="121"/>
+      <c r="AM17" s="121"/>
+      <c r="AN17" s="121"/>
+      <c r="AO17" s="121"/>
+      <c r="AP17" s="121"/>
+      <c r="AQ17" s="121"/>
+      <c r="AR17" s="121"/>
+      <c r="AS17" s="121"/>
+      <c r="AT17" s="121"/>
+      <c r="AU17" s="121"/>
+      <c r="AV17" s="121"/>
+      <c r="AW17" s="121"/>
+      <c r="AX17" s="121"/>
+      <c r="AY17" s="121"/>
+      <c r="AZ17" s="121"/>
+      <c r="BA17" s="121"/>
+      <c r="BB17" s="121"/>
+      <c r="BC17" s="121"/>
+      <c r="BD17" s="121"/>
+      <c r="BE17" s="121"/>
+      <c r="BF17" s="121"/>
+      <c r="BG17" s="121"/>
+      <c r="BH17" s="121"/>
+      <c r="BI17" s="121"/>
+      <c r="BJ17" s="121"/>
+      <c r="BK17" s="121"/>
+      <c r="BL17" s="121"/>
+      <c r="BM17" s="121"/>
+      <c r="BN17" s="121"/>
+      <c r="BO17" s="121"/>
+      <c r="BP17" s="123"/>
     </row>
     <row r="18" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="473"/>
-      <c r="B18" s="375"/>
-      <c r="C18" s="375"/>
-      <c r="D18" s="375"/>
-      <c r="E18" s="375"/>
-      <c r="F18" s="375"/>
-      <c r="G18" s="375"/>
-      <c r="H18" s="418"/>
+      <c r="A18" s="414"/>
+      <c r="B18" s="316"/>
+      <c r="C18" s="316"/>
+      <c r="D18" s="316"/>
+      <c r="E18" s="316"/>
+      <c r="F18" s="316"/>
+      <c r="G18" s="316"/>
+      <c r="H18" s="359"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
-      <c r="L18" s="428"/>
-      <c r="P18" s="429"/>
+      <c r="L18" s="369"/>
+      <c r="P18" s="370"/>
       <c r="Q18" s="25"/>
       <c r="R18" s="25"/>
       <c r="S18" s="25"/>
@@ -9199,19 +9440,19 @@
       <c r="BP18" s="26"/>
     </row>
     <row r="19" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="473"/>
-      <c r="B19" s="375"/>
-      <c r="C19" s="375"/>
-      <c r="D19" s="375"/>
-      <c r="E19" s="375"/>
-      <c r="F19" s="375"/>
-      <c r="G19" s="375"/>
-      <c r="H19" s="418"/>
+      <c r="A19" s="414"/>
+      <c r="B19" s="316"/>
+      <c r="C19" s="316"/>
+      <c r="D19" s="316"/>
+      <c r="E19" s="316"/>
+      <c r="F19" s="316"/>
+      <c r="G19" s="316"/>
+      <c r="H19" s="359"/>
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
-      <c r="L19" s="428"/>
-      <c r="P19" s="429"/>
+      <c r="L19" s="369"/>
+      <c r="P19" s="370"/>
       <c r="Q19" s="25"/>
       <c r="R19" s="25"/>
       <c r="S19" s="25"/>
@@ -9266,19 +9507,19 @@
       <c r="BP19" s="26"/>
     </row>
     <row r="20" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="473"/>
-      <c r="B20" s="375"/>
-      <c r="C20" s="375"/>
-      <c r="D20" s="375"/>
-      <c r="E20" s="375"/>
-      <c r="F20" s="375"/>
-      <c r="G20" s="375"/>
-      <c r="H20" s="418"/>
+      <c r="A20" s="414"/>
+      <c r="B20" s="316"/>
+      <c r="C20" s="316"/>
+      <c r="D20" s="316"/>
+      <c r="E20" s="316"/>
+      <c r="F20" s="316"/>
+      <c r="G20" s="316"/>
+      <c r="H20" s="359"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
-      <c r="L20" s="428"/>
-      <c r="P20" s="429"/>
+      <c r="L20" s="369"/>
+      <c r="P20" s="370"/>
       <c r="Q20" s="25"/>
       <c r="R20" s="25"/>
       <c r="S20" s="25"/>
@@ -9333,19 +9574,19 @@
       <c r="BP20" s="26"/>
     </row>
     <row r="21" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="475"/>
-      <c r="B21" s="187"/>
-      <c r="C21" s="181"/>
-      <c r="D21" s="186"/>
-      <c r="E21" s="186"/>
-      <c r="F21" s="181"/>
-      <c r="G21" s="187"/>
-      <c r="H21" s="430"/>
+      <c r="A21" s="416"/>
+      <c r="B21" s="140"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="371"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
-      <c r="L21" s="428"/>
-      <c r="P21" s="429"/>
+      <c r="L21" s="369"/>
+      <c r="P21" s="370"/>
       <c r="Q21" s="25"/>
       <c r="R21" s="25"/>
       <c r="S21" s="25"/>
@@ -9400,19 +9641,19 @@
       <c r="BP21" s="26"/>
     </row>
     <row r="22" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="475"/>
-      <c r="B22" s="375"/>
-      <c r="C22" s="375"/>
-      <c r="D22" s="375"/>
-      <c r="E22" s="375"/>
-      <c r="F22" s="375"/>
-      <c r="G22" s="375"/>
-      <c r="H22" s="418"/>
+      <c r="A22" s="416"/>
+      <c r="B22" s="316"/>
+      <c r="C22" s="316"/>
+      <c r="D22" s="316"/>
+      <c r="E22" s="316"/>
+      <c r="F22" s="316"/>
+      <c r="G22" s="316"/>
+      <c r="H22" s="359"/>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
-      <c r="L22" s="428"/>
-      <c r="P22" s="429"/>
+      <c r="L22" s="369"/>
+      <c r="P22" s="370"/>
       <c r="Q22" s="25"/>
       <c r="R22" s="25"/>
       <c r="S22" s="25"/>
@@ -9467,19 +9708,19 @@
       <c r="BP22" s="26"/>
     </row>
     <row r="23" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="473"/>
-      <c r="B23" s="327"/>
+      <c r="A23" s="414"/>
+      <c r="B23" s="268"/>
       <c r="C23" s="31"/>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
       <c r="F23" s="31"/>
-      <c r="G23" s="327"/>
-      <c r="H23" s="329"/>
+      <c r="G23" s="268"/>
+      <c r="H23" s="270"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
-      <c r="L23" s="428"/>
-      <c r="P23" s="429"/>
+      <c r="L23" s="369"/>
+      <c r="P23" s="370"/>
       <c r="Q23" s="25"/>
       <c r="R23" s="25"/>
       <c r="S23" s="25"/>
@@ -9533,87 +9774,87 @@
       <c r="BO23" s="25"/>
       <c r="BP23" s="26"/>
     </row>
-    <row r="24" spans="1:68" s="170" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="475"/>
-      <c r="B24" s="191"/>
-      <c r="C24" s="191"/>
-      <c r="D24" s="191"/>
-      <c r="E24" s="191"/>
-      <c r="F24" s="191"/>
-      <c r="G24" s="191"/>
-      <c r="H24" s="431"/>
-      <c r="I24" s="167"/>
-      <c r="J24" s="167"/>
-      <c r="K24" s="167"/>
-      <c r="L24" s="426"/>
-      <c r="P24" s="427"/>
-      <c r="Q24" s="167"/>
-      <c r="R24" s="167"/>
-      <c r="S24" s="167"/>
-      <c r="T24" s="167"/>
-      <c r="U24" s="167"/>
-      <c r="V24" s="167"/>
-      <c r="W24" s="167"/>
-      <c r="X24" s="167"/>
-      <c r="Y24" s="167"/>
-      <c r="Z24" s="167"/>
-      <c r="AA24" s="167"/>
-      <c r="AB24" s="167"/>
-      <c r="AC24" s="167"/>
-      <c r="AD24" s="167"/>
-      <c r="AE24" s="167"/>
-      <c r="AF24" s="167"/>
-      <c r="AG24" s="167"/>
-      <c r="AH24" s="167"/>
-      <c r="AI24" s="167"/>
-      <c r="AJ24" s="167"/>
-      <c r="AK24" s="167"/>
-      <c r="AL24" s="167"/>
-      <c r="AM24" s="167"/>
-      <c r="AN24" s="167"/>
-      <c r="AO24" s="167"/>
-      <c r="AP24" s="167"/>
-      <c r="AQ24" s="167"/>
-      <c r="AR24" s="167"/>
-      <c r="AS24" s="167"/>
-      <c r="AT24" s="167"/>
-      <c r="AU24" s="167"/>
-      <c r="AV24" s="167"/>
-      <c r="AW24" s="167"/>
-      <c r="AX24" s="167"/>
-      <c r="AY24" s="167"/>
-      <c r="AZ24" s="167"/>
-      <c r="BA24" s="167"/>
-      <c r="BB24" s="167"/>
-      <c r="BC24" s="167"/>
-      <c r="BD24" s="167"/>
-      <c r="BE24" s="167"/>
-      <c r="BF24" s="167"/>
-      <c r="BG24" s="167"/>
-      <c r="BH24" s="167"/>
-      <c r="BI24" s="167"/>
-      <c r="BJ24" s="167"/>
-      <c r="BK24" s="167"/>
-      <c r="BL24" s="167"/>
-      <c r="BM24" s="167"/>
-      <c r="BN24" s="167"/>
-      <c r="BO24" s="167"/>
-      <c r="BP24" s="169"/>
+    <row r="24" spans="1:68" s="124" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="416"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="372"/>
+      <c r="I24" s="121"/>
+      <c r="J24" s="121"/>
+      <c r="K24" s="121"/>
+      <c r="L24" s="367"/>
+      <c r="P24" s="368"/>
+      <c r="Q24" s="121"/>
+      <c r="R24" s="121"/>
+      <c r="S24" s="121"/>
+      <c r="T24" s="121"/>
+      <c r="U24" s="121"/>
+      <c r="V24" s="121"/>
+      <c r="W24" s="121"/>
+      <c r="X24" s="121"/>
+      <c r="Y24" s="121"/>
+      <c r="Z24" s="121"/>
+      <c r="AA24" s="121"/>
+      <c r="AB24" s="121"/>
+      <c r="AC24" s="121"/>
+      <c r="AD24" s="121"/>
+      <c r="AE24" s="121"/>
+      <c r="AF24" s="121"/>
+      <c r="AG24" s="121"/>
+      <c r="AH24" s="121"/>
+      <c r="AI24" s="121"/>
+      <c r="AJ24" s="121"/>
+      <c r="AK24" s="121"/>
+      <c r="AL24" s="121"/>
+      <c r="AM24" s="121"/>
+      <c r="AN24" s="121"/>
+      <c r="AO24" s="121"/>
+      <c r="AP24" s="121"/>
+      <c r="AQ24" s="121"/>
+      <c r="AR24" s="121"/>
+      <c r="AS24" s="121"/>
+      <c r="AT24" s="121"/>
+      <c r="AU24" s="121"/>
+      <c r="AV24" s="121"/>
+      <c r="AW24" s="121"/>
+      <c r="AX24" s="121"/>
+      <c r="AY24" s="121"/>
+      <c r="AZ24" s="121"/>
+      <c r="BA24" s="121"/>
+      <c r="BB24" s="121"/>
+      <c r="BC24" s="121"/>
+      <c r="BD24" s="121"/>
+      <c r="BE24" s="121"/>
+      <c r="BF24" s="121"/>
+      <c r="BG24" s="121"/>
+      <c r="BH24" s="121"/>
+      <c r="BI24" s="121"/>
+      <c r="BJ24" s="121"/>
+      <c r="BK24" s="121"/>
+      <c r="BL24" s="121"/>
+      <c r="BM24" s="121"/>
+      <c r="BN24" s="121"/>
+      <c r="BO24" s="121"/>
+      <c r="BP24" s="123"/>
     </row>
     <row r="25" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="473"/>
-      <c r="B25" s="375"/>
-      <c r="C25" s="375"/>
-      <c r="D25" s="375"/>
-      <c r="E25" s="375"/>
-      <c r="F25" s="375"/>
-      <c r="G25" s="375"/>
-      <c r="H25" s="418"/>
+      <c r="A25" s="414"/>
+      <c r="B25" s="316"/>
+      <c r="C25" s="316"/>
+      <c r="D25" s="316"/>
+      <c r="E25" s="316"/>
+      <c r="F25" s="316"/>
+      <c r="G25" s="316"/>
+      <c r="H25" s="359"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
-      <c r="L25" s="428"/>
-      <c r="P25" s="429"/>
+      <c r="L25" s="369"/>
+      <c r="P25" s="370"/>
       <c r="Q25" s="25"/>
       <c r="R25" s="25"/>
       <c r="S25" s="25"/>
@@ -9667,422 +9908,422 @@
       <c r="BO25" s="25"/>
       <c r="BP25" s="26"/>
     </row>
-    <row r="26" spans="1:68" s="434" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="473"/>
-      <c r="B26" s="375"/>
-      <c r="C26" s="375"/>
-      <c r="D26" s="375"/>
-      <c r="E26" s="375"/>
-      <c r="F26" s="375"/>
-      <c r="G26" s="375"/>
-      <c r="H26" s="418"/>
-      <c r="I26" s="432"/>
-      <c r="J26" s="432"/>
-      <c r="K26" s="432"/>
-      <c r="L26" s="433"/>
-      <c r="P26" s="435"/>
-      <c r="Q26" s="432"/>
-      <c r="R26" s="432"/>
-      <c r="S26" s="432"/>
-      <c r="T26" s="432"/>
-      <c r="U26" s="432"/>
-      <c r="V26" s="432"/>
-      <c r="W26" s="432"/>
-      <c r="X26" s="432"/>
-      <c r="Y26" s="432"/>
-      <c r="Z26" s="432"/>
-      <c r="AA26" s="432"/>
-      <c r="AB26" s="432"/>
-      <c r="AC26" s="432"/>
-      <c r="AD26" s="432"/>
-      <c r="AE26" s="432"/>
-      <c r="AF26" s="432"/>
-      <c r="AG26" s="432"/>
-      <c r="AH26" s="432"/>
-      <c r="AI26" s="432"/>
-      <c r="AJ26" s="432"/>
-      <c r="AK26" s="432"/>
-      <c r="AL26" s="432"/>
-      <c r="AM26" s="432"/>
-      <c r="AN26" s="432"/>
-      <c r="AO26" s="432"/>
-      <c r="AP26" s="432"/>
-      <c r="AQ26" s="432"/>
-      <c r="AR26" s="432"/>
-      <c r="AS26" s="432"/>
-      <c r="AT26" s="432"/>
-      <c r="AU26" s="432"/>
-      <c r="AV26" s="432"/>
-      <c r="AW26" s="432"/>
-      <c r="AX26" s="432"/>
-      <c r="AY26" s="432"/>
-      <c r="AZ26" s="432"/>
-      <c r="BA26" s="432"/>
-      <c r="BB26" s="432"/>
-      <c r="BC26" s="432"/>
-      <c r="BD26" s="432"/>
-      <c r="BE26" s="432"/>
-      <c r="BF26" s="432"/>
-      <c r="BG26" s="432"/>
-      <c r="BH26" s="432"/>
-      <c r="BI26" s="432"/>
-      <c r="BJ26" s="432"/>
-      <c r="BK26" s="432"/>
-      <c r="BL26" s="432"/>
-      <c r="BM26" s="432"/>
-      <c r="BN26" s="432"/>
-      <c r="BO26" s="432"/>
-      <c r="BP26" s="436"/>
-    </row>
-    <row r="27" spans="1:68" s="434" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="478"/>
-      <c r="B27" s="327"/>
+    <row r="26" spans="1:68" s="375" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="414"/>
+      <c r="B26" s="316"/>
+      <c r="C26" s="316"/>
+      <c r="D26" s="316"/>
+      <c r="E26" s="316"/>
+      <c r="F26" s="316"/>
+      <c r="G26" s="316"/>
+      <c r="H26" s="359"/>
+      <c r="I26" s="373"/>
+      <c r="J26" s="373"/>
+      <c r="K26" s="373"/>
+      <c r="L26" s="374"/>
+      <c r="P26" s="376"/>
+      <c r="Q26" s="373"/>
+      <c r="R26" s="373"/>
+      <c r="S26" s="373"/>
+      <c r="T26" s="373"/>
+      <c r="U26" s="373"/>
+      <c r="V26" s="373"/>
+      <c r="W26" s="373"/>
+      <c r="X26" s="373"/>
+      <c r="Y26" s="373"/>
+      <c r="Z26" s="373"/>
+      <c r="AA26" s="373"/>
+      <c r="AB26" s="373"/>
+      <c r="AC26" s="373"/>
+      <c r="AD26" s="373"/>
+      <c r="AE26" s="373"/>
+      <c r="AF26" s="373"/>
+      <c r="AG26" s="373"/>
+      <c r="AH26" s="373"/>
+      <c r="AI26" s="373"/>
+      <c r="AJ26" s="373"/>
+      <c r="AK26" s="373"/>
+      <c r="AL26" s="373"/>
+      <c r="AM26" s="373"/>
+      <c r="AN26" s="373"/>
+      <c r="AO26" s="373"/>
+      <c r="AP26" s="373"/>
+      <c r="AQ26" s="373"/>
+      <c r="AR26" s="373"/>
+      <c r="AS26" s="373"/>
+      <c r="AT26" s="373"/>
+      <c r="AU26" s="373"/>
+      <c r="AV26" s="373"/>
+      <c r="AW26" s="373"/>
+      <c r="AX26" s="373"/>
+      <c r="AY26" s="373"/>
+      <c r="AZ26" s="373"/>
+      <c r="BA26" s="373"/>
+      <c r="BB26" s="373"/>
+      <c r="BC26" s="373"/>
+      <c r="BD26" s="373"/>
+      <c r="BE26" s="373"/>
+      <c r="BF26" s="373"/>
+      <c r="BG26" s="373"/>
+      <c r="BH26" s="373"/>
+      <c r="BI26" s="373"/>
+      <c r="BJ26" s="373"/>
+      <c r="BK26" s="373"/>
+      <c r="BL26" s="373"/>
+      <c r="BM26" s="373"/>
+      <c r="BN26" s="373"/>
+      <c r="BO26" s="373"/>
+      <c r="BP26" s="377"/>
+    </row>
+    <row r="27" spans="1:68" s="375" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="419"/>
+      <c r="B27" s="268"/>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
       <c r="F27" s="31"/>
-      <c r="G27" s="327"/>
-      <c r="H27" s="329"/>
-      <c r="I27" s="432"/>
-      <c r="J27" s="432"/>
-      <c r="K27" s="432"/>
-      <c r="L27" s="433"/>
-      <c r="P27" s="435"/>
-      <c r="Q27" s="432"/>
-      <c r="R27" s="432"/>
-      <c r="S27" s="432"/>
-      <c r="T27" s="432"/>
-      <c r="U27" s="432"/>
-      <c r="V27" s="432"/>
-      <c r="W27" s="432"/>
-      <c r="X27" s="432"/>
-      <c r="Y27" s="432"/>
-      <c r="Z27" s="432"/>
-      <c r="AA27" s="432"/>
-      <c r="AB27" s="432"/>
-      <c r="AC27" s="432"/>
-      <c r="AD27" s="432"/>
-      <c r="AE27" s="432"/>
-      <c r="AF27" s="432"/>
-      <c r="AG27" s="432"/>
-      <c r="AH27" s="432"/>
-      <c r="AI27" s="432"/>
-      <c r="AJ27" s="432"/>
-      <c r="AK27" s="432"/>
-      <c r="AL27" s="432"/>
-      <c r="AM27" s="432"/>
-      <c r="AN27" s="432"/>
-      <c r="AO27" s="432"/>
-      <c r="AP27" s="432"/>
-      <c r="AQ27" s="432"/>
-      <c r="AR27" s="432"/>
-      <c r="AS27" s="432"/>
-      <c r="AT27" s="432"/>
-      <c r="AU27" s="432"/>
-      <c r="AV27" s="432"/>
-      <c r="AW27" s="432"/>
-      <c r="AX27" s="432"/>
-      <c r="AY27" s="432"/>
-      <c r="AZ27" s="432"/>
-      <c r="BA27" s="432"/>
-      <c r="BB27" s="432"/>
-      <c r="BC27" s="432"/>
-      <c r="BD27" s="432"/>
-      <c r="BE27" s="432"/>
-      <c r="BF27" s="432"/>
-      <c r="BG27" s="432"/>
-      <c r="BH27" s="432"/>
-      <c r="BI27" s="432"/>
-      <c r="BJ27" s="432"/>
-      <c r="BK27" s="432"/>
-      <c r="BL27" s="432"/>
-      <c r="BM27" s="432"/>
-      <c r="BN27" s="432"/>
-      <c r="BO27" s="432"/>
-      <c r="BP27" s="436"/>
-    </row>
-    <row r="28" spans="1:68" s="434" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="479"/>
-      <c r="B28" s="327"/>
+      <c r="G27" s="268"/>
+      <c r="H27" s="270"/>
+      <c r="I27" s="373"/>
+      <c r="J27" s="373"/>
+      <c r="K27" s="373"/>
+      <c r="L27" s="374"/>
+      <c r="P27" s="376"/>
+      <c r="Q27" s="373"/>
+      <c r="R27" s="373"/>
+      <c r="S27" s="373"/>
+      <c r="T27" s="373"/>
+      <c r="U27" s="373"/>
+      <c r="V27" s="373"/>
+      <c r="W27" s="373"/>
+      <c r="X27" s="373"/>
+      <c r="Y27" s="373"/>
+      <c r="Z27" s="373"/>
+      <c r="AA27" s="373"/>
+      <c r="AB27" s="373"/>
+      <c r="AC27" s="373"/>
+      <c r="AD27" s="373"/>
+      <c r="AE27" s="373"/>
+      <c r="AF27" s="373"/>
+      <c r="AG27" s="373"/>
+      <c r="AH27" s="373"/>
+      <c r="AI27" s="373"/>
+      <c r="AJ27" s="373"/>
+      <c r="AK27" s="373"/>
+      <c r="AL27" s="373"/>
+      <c r="AM27" s="373"/>
+      <c r="AN27" s="373"/>
+      <c r="AO27" s="373"/>
+      <c r="AP27" s="373"/>
+      <c r="AQ27" s="373"/>
+      <c r="AR27" s="373"/>
+      <c r="AS27" s="373"/>
+      <c r="AT27" s="373"/>
+      <c r="AU27" s="373"/>
+      <c r="AV27" s="373"/>
+      <c r="AW27" s="373"/>
+      <c r="AX27" s="373"/>
+      <c r="AY27" s="373"/>
+      <c r="AZ27" s="373"/>
+      <c r="BA27" s="373"/>
+      <c r="BB27" s="373"/>
+      <c r="BC27" s="373"/>
+      <c r="BD27" s="373"/>
+      <c r="BE27" s="373"/>
+      <c r="BF27" s="373"/>
+      <c r="BG27" s="373"/>
+      <c r="BH27" s="373"/>
+      <c r="BI27" s="373"/>
+      <c r="BJ27" s="373"/>
+      <c r="BK27" s="373"/>
+      <c r="BL27" s="373"/>
+      <c r="BM27" s="373"/>
+      <c r="BN27" s="373"/>
+      <c r="BO27" s="373"/>
+      <c r="BP27" s="377"/>
+    </row>
+    <row r="28" spans="1:68" s="375" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="420"/>
+      <c r="B28" s="268"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
       <c r="F28" s="31"/>
-      <c r="G28" s="327"/>
-      <c r="H28" s="329"/>
-      <c r="I28" s="432"/>
-      <c r="J28" s="432"/>
-      <c r="K28" s="432"/>
-      <c r="L28" s="433"/>
-      <c r="P28" s="435"/>
-      <c r="Q28" s="432"/>
-      <c r="R28" s="432"/>
-      <c r="S28" s="432"/>
-      <c r="T28" s="432"/>
-      <c r="U28" s="432"/>
-      <c r="V28" s="432"/>
-      <c r="W28" s="432"/>
-      <c r="X28" s="432"/>
-      <c r="Y28" s="432"/>
-      <c r="Z28" s="432"/>
-      <c r="AA28" s="432"/>
-      <c r="AB28" s="432"/>
-      <c r="AC28" s="432"/>
-      <c r="AD28" s="432"/>
-      <c r="AE28" s="432"/>
-      <c r="AF28" s="432"/>
-      <c r="AG28" s="432"/>
-      <c r="AH28" s="432"/>
-      <c r="AI28" s="432"/>
-      <c r="AJ28" s="432"/>
-      <c r="AK28" s="432"/>
-      <c r="AL28" s="432"/>
-      <c r="AM28" s="432"/>
-      <c r="AN28" s="432"/>
-      <c r="AO28" s="432"/>
-      <c r="AP28" s="432"/>
-      <c r="AQ28" s="432"/>
-      <c r="AR28" s="432"/>
-      <c r="AS28" s="432"/>
-      <c r="AT28" s="432"/>
-      <c r="AU28" s="432"/>
-      <c r="AV28" s="432"/>
-      <c r="AW28" s="432"/>
-      <c r="AX28" s="432"/>
-      <c r="AY28" s="432"/>
-      <c r="AZ28" s="432"/>
-      <c r="BA28" s="432"/>
-      <c r="BB28" s="432"/>
-      <c r="BC28" s="432"/>
-      <c r="BD28" s="432"/>
-      <c r="BE28" s="432"/>
-      <c r="BF28" s="432"/>
-      <c r="BG28" s="432"/>
-      <c r="BH28" s="432"/>
-      <c r="BI28" s="432"/>
-      <c r="BJ28" s="432"/>
-      <c r="BK28" s="432"/>
-      <c r="BL28" s="432"/>
-      <c r="BM28" s="432"/>
-      <c r="BN28" s="432"/>
-      <c r="BO28" s="432"/>
-      <c r="BP28" s="436"/>
-    </row>
-    <row r="29" spans="1:68" s="434" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="479"/>
-      <c r="B29" s="327"/>
+      <c r="G28" s="268"/>
+      <c r="H28" s="270"/>
+      <c r="I28" s="373"/>
+      <c r="J28" s="373"/>
+      <c r="K28" s="373"/>
+      <c r="L28" s="374"/>
+      <c r="P28" s="376"/>
+      <c r="Q28" s="373"/>
+      <c r="R28" s="373"/>
+      <c r="S28" s="373"/>
+      <c r="T28" s="373"/>
+      <c r="U28" s="373"/>
+      <c r="V28" s="373"/>
+      <c r="W28" s="373"/>
+      <c r="X28" s="373"/>
+      <c r="Y28" s="373"/>
+      <c r="Z28" s="373"/>
+      <c r="AA28" s="373"/>
+      <c r="AB28" s="373"/>
+      <c r="AC28" s="373"/>
+      <c r="AD28" s="373"/>
+      <c r="AE28" s="373"/>
+      <c r="AF28" s="373"/>
+      <c r="AG28" s="373"/>
+      <c r="AH28" s="373"/>
+      <c r="AI28" s="373"/>
+      <c r="AJ28" s="373"/>
+      <c r="AK28" s="373"/>
+      <c r="AL28" s="373"/>
+      <c r="AM28" s="373"/>
+      <c r="AN28" s="373"/>
+      <c r="AO28" s="373"/>
+      <c r="AP28" s="373"/>
+      <c r="AQ28" s="373"/>
+      <c r="AR28" s="373"/>
+      <c r="AS28" s="373"/>
+      <c r="AT28" s="373"/>
+      <c r="AU28" s="373"/>
+      <c r="AV28" s="373"/>
+      <c r="AW28" s="373"/>
+      <c r="AX28" s="373"/>
+      <c r="AY28" s="373"/>
+      <c r="AZ28" s="373"/>
+      <c r="BA28" s="373"/>
+      <c r="BB28" s="373"/>
+      <c r="BC28" s="373"/>
+      <c r="BD28" s="373"/>
+      <c r="BE28" s="373"/>
+      <c r="BF28" s="373"/>
+      <c r="BG28" s="373"/>
+      <c r="BH28" s="373"/>
+      <c r="BI28" s="373"/>
+      <c r="BJ28" s="373"/>
+      <c r="BK28" s="373"/>
+      <c r="BL28" s="373"/>
+      <c r="BM28" s="373"/>
+      <c r="BN28" s="373"/>
+      <c r="BO28" s="373"/>
+      <c r="BP28" s="377"/>
+    </row>
+    <row r="29" spans="1:68" s="375" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="420"/>
+      <c r="B29" s="268"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="F29" s="31"/>
-      <c r="G29" s="327"/>
-      <c r="H29" s="329"/>
-      <c r="I29" s="432"/>
-      <c r="J29" s="432"/>
-      <c r="K29" s="432"/>
-      <c r="L29" s="433"/>
-      <c r="P29" s="435"/>
-      <c r="Q29" s="432"/>
-      <c r="R29" s="432"/>
-      <c r="S29" s="432"/>
-      <c r="T29" s="432"/>
-      <c r="U29" s="432"/>
-      <c r="V29" s="432"/>
-      <c r="W29" s="432"/>
-      <c r="X29" s="432"/>
-      <c r="Y29" s="432"/>
-      <c r="Z29" s="432"/>
-      <c r="AA29" s="432"/>
-      <c r="AB29" s="432"/>
-      <c r="AC29" s="432"/>
-      <c r="AD29" s="432"/>
-      <c r="AE29" s="432"/>
-      <c r="AF29" s="432"/>
-      <c r="AG29" s="432"/>
-      <c r="AH29" s="432"/>
-      <c r="AI29" s="432"/>
-      <c r="AJ29" s="432"/>
-      <c r="AK29" s="432"/>
-      <c r="AL29" s="432"/>
-      <c r="AM29" s="432"/>
-      <c r="AN29" s="432"/>
-      <c r="AO29" s="432"/>
-      <c r="AP29" s="432"/>
-      <c r="AQ29" s="432"/>
-      <c r="AR29" s="432"/>
-      <c r="AS29" s="432"/>
-      <c r="AT29" s="432"/>
-      <c r="AU29" s="432"/>
-      <c r="AV29" s="432"/>
-      <c r="AW29" s="432"/>
-      <c r="AX29" s="432"/>
-      <c r="AY29" s="432"/>
-      <c r="AZ29" s="432"/>
-      <c r="BA29" s="432"/>
-      <c r="BB29" s="432"/>
-      <c r="BC29" s="432"/>
-      <c r="BD29" s="432"/>
-      <c r="BE29" s="432"/>
-      <c r="BF29" s="432"/>
-      <c r="BG29" s="432"/>
-      <c r="BH29" s="432"/>
-      <c r="BI29" s="432"/>
-      <c r="BJ29" s="432"/>
-      <c r="BK29" s="432"/>
-      <c r="BL29" s="432"/>
-      <c r="BM29" s="432"/>
-      <c r="BN29" s="432"/>
-      <c r="BO29" s="432"/>
-      <c r="BP29" s="436"/>
-    </row>
-    <row r="30" spans="1:68" s="434" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="479"/>
-      <c r="B30" s="327"/>
+      <c r="G29" s="268"/>
+      <c r="H29" s="270"/>
+      <c r="I29" s="373"/>
+      <c r="J29" s="373"/>
+      <c r="K29" s="373"/>
+      <c r="L29" s="374"/>
+      <c r="P29" s="376"/>
+      <c r="Q29" s="373"/>
+      <c r="R29" s="373"/>
+      <c r="S29" s="373"/>
+      <c r="T29" s="373"/>
+      <c r="U29" s="373"/>
+      <c r="V29" s="373"/>
+      <c r="W29" s="373"/>
+      <c r="X29" s="373"/>
+      <c r="Y29" s="373"/>
+      <c r="Z29" s="373"/>
+      <c r="AA29" s="373"/>
+      <c r="AB29" s="373"/>
+      <c r="AC29" s="373"/>
+      <c r="AD29" s="373"/>
+      <c r="AE29" s="373"/>
+      <c r="AF29" s="373"/>
+      <c r="AG29" s="373"/>
+      <c r="AH29" s="373"/>
+      <c r="AI29" s="373"/>
+      <c r="AJ29" s="373"/>
+      <c r="AK29" s="373"/>
+      <c r="AL29" s="373"/>
+      <c r="AM29" s="373"/>
+      <c r="AN29" s="373"/>
+      <c r="AO29" s="373"/>
+      <c r="AP29" s="373"/>
+      <c r="AQ29" s="373"/>
+      <c r="AR29" s="373"/>
+      <c r="AS29" s="373"/>
+      <c r="AT29" s="373"/>
+      <c r="AU29" s="373"/>
+      <c r="AV29" s="373"/>
+      <c r="AW29" s="373"/>
+      <c r="AX29" s="373"/>
+      <c r="AY29" s="373"/>
+      <c r="AZ29" s="373"/>
+      <c r="BA29" s="373"/>
+      <c r="BB29" s="373"/>
+      <c r="BC29" s="373"/>
+      <c r="BD29" s="373"/>
+      <c r="BE29" s="373"/>
+      <c r="BF29" s="373"/>
+      <c r="BG29" s="373"/>
+      <c r="BH29" s="373"/>
+      <c r="BI29" s="373"/>
+      <c r="BJ29" s="373"/>
+      <c r="BK29" s="373"/>
+      <c r="BL29" s="373"/>
+      <c r="BM29" s="373"/>
+      <c r="BN29" s="373"/>
+      <c r="BO29" s="373"/>
+      <c r="BP29" s="377"/>
+    </row>
+    <row r="30" spans="1:68" s="375" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="420"/>
+      <c r="B30" s="268"/>
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="F30" s="31"/>
-      <c r="G30" s="327"/>
-      <c r="H30" s="329"/>
-      <c r="I30" s="432"/>
-      <c r="J30" s="432"/>
-      <c r="K30" s="432"/>
-      <c r="L30" s="433"/>
-      <c r="P30" s="435"/>
-      <c r="Q30" s="432"/>
-      <c r="R30" s="432"/>
-      <c r="S30" s="432"/>
-      <c r="T30" s="432"/>
-      <c r="U30" s="432"/>
-      <c r="V30" s="432"/>
-      <c r="W30" s="432"/>
-      <c r="X30" s="432"/>
-      <c r="Y30" s="432"/>
-      <c r="Z30" s="432"/>
-      <c r="AA30" s="432"/>
-      <c r="AB30" s="432"/>
-      <c r="AC30" s="432"/>
-      <c r="AD30" s="432"/>
-      <c r="AE30" s="432"/>
-      <c r="AF30" s="432"/>
-      <c r="AG30" s="432"/>
-      <c r="AH30" s="432"/>
-      <c r="AI30" s="432"/>
-      <c r="AJ30" s="432"/>
-      <c r="AK30" s="432"/>
-      <c r="AL30" s="432"/>
-      <c r="AM30" s="432"/>
-      <c r="AN30" s="432"/>
-      <c r="AO30" s="432"/>
-      <c r="AP30" s="432"/>
-      <c r="AQ30" s="432"/>
-      <c r="AR30" s="432"/>
-      <c r="AS30" s="432"/>
-      <c r="AT30" s="432"/>
-      <c r="AU30" s="432"/>
-      <c r="AV30" s="432"/>
-      <c r="AW30" s="432"/>
-      <c r="AX30" s="432"/>
-      <c r="AY30" s="432"/>
-      <c r="AZ30" s="432"/>
-      <c r="BA30" s="432"/>
-      <c r="BB30" s="432"/>
-      <c r="BC30" s="432"/>
-      <c r="BD30" s="432"/>
-      <c r="BE30" s="432"/>
-      <c r="BF30" s="432"/>
-      <c r="BG30" s="432"/>
-      <c r="BH30" s="432"/>
-      <c r="BI30" s="432"/>
-      <c r="BJ30" s="432"/>
-      <c r="BK30" s="432"/>
-      <c r="BL30" s="432"/>
-      <c r="BM30" s="432"/>
-      <c r="BN30" s="432"/>
-      <c r="BO30" s="432"/>
-      <c r="BP30" s="436"/>
-    </row>
-    <row r="31" spans="1:68" s="434" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="479"/>
-      <c r="B31" s="327"/>
+      <c r="G30" s="268"/>
+      <c r="H30" s="270"/>
+      <c r="I30" s="373"/>
+      <c r="J30" s="373"/>
+      <c r="K30" s="373"/>
+      <c r="L30" s="374"/>
+      <c r="P30" s="376"/>
+      <c r="Q30" s="373"/>
+      <c r="R30" s="373"/>
+      <c r="S30" s="373"/>
+      <c r="T30" s="373"/>
+      <c r="U30" s="373"/>
+      <c r="V30" s="373"/>
+      <c r="W30" s="373"/>
+      <c r="X30" s="373"/>
+      <c r="Y30" s="373"/>
+      <c r="Z30" s="373"/>
+      <c r="AA30" s="373"/>
+      <c r="AB30" s="373"/>
+      <c r="AC30" s="373"/>
+      <c r="AD30" s="373"/>
+      <c r="AE30" s="373"/>
+      <c r="AF30" s="373"/>
+      <c r="AG30" s="373"/>
+      <c r="AH30" s="373"/>
+      <c r="AI30" s="373"/>
+      <c r="AJ30" s="373"/>
+      <c r="AK30" s="373"/>
+      <c r="AL30" s="373"/>
+      <c r="AM30" s="373"/>
+      <c r="AN30" s="373"/>
+      <c r="AO30" s="373"/>
+      <c r="AP30" s="373"/>
+      <c r="AQ30" s="373"/>
+      <c r="AR30" s="373"/>
+      <c r="AS30" s="373"/>
+      <c r="AT30" s="373"/>
+      <c r="AU30" s="373"/>
+      <c r="AV30" s="373"/>
+      <c r="AW30" s="373"/>
+      <c r="AX30" s="373"/>
+      <c r="AY30" s="373"/>
+      <c r="AZ30" s="373"/>
+      <c r="BA30" s="373"/>
+      <c r="BB30" s="373"/>
+      <c r="BC30" s="373"/>
+      <c r="BD30" s="373"/>
+      <c r="BE30" s="373"/>
+      <c r="BF30" s="373"/>
+      <c r="BG30" s="373"/>
+      <c r="BH30" s="373"/>
+      <c r="BI30" s="373"/>
+      <c r="BJ30" s="373"/>
+      <c r="BK30" s="373"/>
+      <c r="BL30" s="373"/>
+      <c r="BM30" s="373"/>
+      <c r="BN30" s="373"/>
+      <c r="BO30" s="373"/>
+      <c r="BP30" s="377"/>
+    </row>
+    <row r="31" spans="1:68" s="375" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="420"/>
+      <c r="B31" s="268"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="F31" s="31"/>
-      <c r="G31" s="327"/>
-      <c r="H31" s="329"/>
-      <c r="I31" s="432"/>
-      <c r="J31" s="432"/>
-      <c r="K31" s="432"/>
-      <c r="L31" s="433"/>
-      <c r="P31" s="435"/>
-      <c r="Q31" s="432"/>
-      <c r="R31" s="432"/>
-      <c r="S31" s="432"/>
-      <c r="T31" s="432"/>
-      <c r="U31" s="432"/>
-      <c r="V31" s="432"/>
-      <c r="W31" s="432"/>
-      <c r="X31" s="432"/>
-      <c r="Y31" s="432"/>
-      <c r="Z31" s="432"/>
-      <c r="AA31" s="432"/>
-      <c r="AB31" s="432"/>
-      <c r="AC31" s="432"/>
-      <c r="AD31" s="432"/>
-      <c r="AE31" s="432"/>
-      <c r="AF31" s="432"/>
-      <c r="AG31" s="432"/>
-      <c r="AH31" s="432"/>
-      <c r="AI31" s="432"/>
-      <c r="AJ31" s="432"/>
-      <c r="AK31" s="432"/>
-      <c r="AL31" s="432"/>
-      <c r="AM31" s="432"/>
-      <c r="AN31" s="432"/>
-      <c r="AO31" s="432"/>
-      <c r="AP31" s="432"/>
-      <c r="AQ31" s="432"/>
-      <c r="AR31" s="432"/>
-      <c r="AS31" s="432"/>
-      <c r="AT31" s="432"/>
-      <c r="AU31" s="432"/>
-      <c r="AV31" s="432"/>
-      <c r="AW31" s="432"/>
-      <c r="AX31" s="432"/>
-      <c r="AY31" s="432"/>
-      <c r="AZ31" s="432"/>
-      <c r="BA31" s="432"/>
-      <c r="BB31" s="432"/>
-      <c r="BC31" s="432"/>
-      <c r="BD31" s="432"/>
-      <c r="BE31" s="432"/>
-      <c r="BF31" s="432"/>
-      <c r="BG31" s="432"/>
-      <c r="BH31" s="432"/>
-      <c r="BI31" s="432"/>
-      <c r="BJ31" s="432"/>
-      <c r="BK31" s="432"/>
-      <c r="BL31" s="432"/>
-      <c r="BM31" s="432"/>
-      <c r="BN31" s="432"/>
-      <c r="BO31" s="432"/>
-      <c r="BP31" s="436"/>
+      <c r="G31" s="268"/>
+      <c r="H31" s="270"/>
+      <c r="I31" s="373"/>
+      <c r="J31" s="373"/>
+      <c r="K31" s="373"/>
+      <c r="L31" s="374"/>
+      <c r="P31" s="376"/>
+      <c r="Q31" s="373"/>
+      <c r="R31" s="373"/>
+      <c r="S31" s="373"/>
+      <c r="T31" s="373"/>
+      <c r="U31" s="373"/>
+      <c r="V31" s="373"/>
+      <c r="W31" s="373"/>
+      <c r="X31" s="373"/>
+      <c r="Y31" s="373"/>
+      <c r="Z31" s="373"/>
+      <c r="AA31" s="373"/>
+      <c r="AB31" s="373"/>
+      <c r="AC31" s="373"/>
+      <c r="AD31" s="373"/>
+      <c r="AE31" s="373"/>
+      <c r="AF31" s="373"/>
+      <c r="AG31" s="373"/>
+      <c r="AH31" s="373"/>
+      <c r="AI31" s="373"/>
+      <c r="AJ31" s="373"/>
+      <c r="AK31" s="373"/>
+      <c r="AL31" s="373"/>
+      <c r="AM31" s="373"/>
+      <c r="AN31" s="373"/>
+      <c r="AO31" s="373"/>
+      <c r="AP31" s="373"/>
+      <c r="AQ31" s="373"/>
+      <c r="AR31" s="373"/>
+      <c r="AS31" s="373"/>
+      <c r="AT31" s="373"/>
+      <c r="AU31" s="373"/>
+      <c r="AV31" s="373"/>
+      <c r="AW31" s="373"/>
+      <c r="AX31" s="373"/>
+      <c r="AY31" s="373"/>
+      <c r="AZ31" s="373"/>
+      <c r="BA31" s="373"/>
+      <c r="BB31" s="373"/>
+      <c r="BC31" s="373"/>
+      <c r="BD31" s="373"/>
+      <c r="BE31" s="373"/>
+      <c r="BF31" s="373"/>
+      <c r="BG31" s="373"/>
+      <c r="BH31" s="373"/>
+      <c r="BI31" s="373"/>
+      <c r="BJ31" s="373"/>
+      <c r="BK31" s="373"/>
+      <c r="BL31" s="373"/>
+      <c r="BM31" s="373"/>
+      <c r="BN31" s="373"/>
+      <c r="BO31" s="373"/>
+      <c r="BP31" s="377"/>
     </row>
     <row r="32" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="473"/>
-      <c r="B32" s="375"/>
-      <c r="C32" s="375"/>
-      <c r="D32" s="375"/>
-      <c r="E32" s="375"/>
-      <c r="F32" s="375"/>
-      <c r="G32" s="375"/>
-      <c r="H32" s="418"/>
+      <c r="A32" s="414"/>
+      <c r="B32" s="316"/>
+      <c r="C32" s="316"/>
+      <c r="D32" s="316"/>
+      <c r="E32" s="316"/>
+      <c r="F32" s="316"/>
+      <c r="G32" s="316"/>
+      <c r="H32" s="359"/>
       <c r="I32" s="25"/>
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
-      <c r="L32" s="428"/>
-      <c r="P32" s="429"/>
+      <c r="L32" s="369"/>
+      <c r="P32" s="370"/>
       <c r="Q32" s="25"/>
       <c r="R32" s="25"/>
       <c r="S32" s="25"/>
@@ -10136,90 +10377,90 @@
       <c r="BO32" s="25"/>
       <c r="BP32" s="26"/>
     </row>
-    <row r="33" spans="1:68" s="170" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="480"/>
-      <c r="B33" s="191"/>
-      <c r="C33" s="191"/>
-      <c r="D33" s="181"/>
-      <c r="E33" s="181"/>
+    <row r="33" spans="1:68" s="124" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="421"/>
+      <c r="B33" s="144"/>
+      <c r="C33" s="144"/>
+      <c r="D33" s="134"/>
+      <c r="E33" s="134"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="431"/>
-      <c r="I33" s="167"/>
-      <c r="J33" s="167"/>
-      <c r="K33" s="167"/>
-      <c r="L33" s="426"/>
-      <c r="P33" s="427"/>
-      <c r="Q33" s="167"/>
-      <c r="R33" s="167"/>
-      <c r="S33" s="167"/>
-      <c r="T33" s="167"/>
-      <c r="U33" s="167"/>
-      <c r="V33" s="167"/>
-      <c r="W33" s="167"/>
-      <c r="X33" s="167"/>
-      <c r="Y33" s="167"/>
-      <c r="Z33" s="167"/>
-      <c r="AA33" s="167"/>
-      <c r="AB33" s="167"/>
-      <c r="AC33" s="167"/>
-      <c r="AD33" s="167"/>
-      <c r="AE33" s="167"/>
-      <c r="AF33" s="167"/>
-      <c r="AG33" s="167"/>
-      <c r="AH33" s="167"/>
-      <c r="AI33" s="167"/>
-      <c r="AJ33" s="167"/>
-      <c r="AK33" s="167"/>
-      <c r="AL33" s="167"/>
-      <c r="AM33" s="167"/>
-      <c r="AN33" s="167"/>
-      <c r="AO33" s="167"/>
-      <c r="AP33" s="167"/>
-      <c r="AQ33" s="167"/>
-      <c r="AR33" s="167"/>
-      <c r="AS33" s="167"/>
-      <c r="AT33" s="167"/>
-      <c r="AU33" s="167"/>
-      <c r="AV33" s="167"/>
-      <c r="AW33" s="167"/>
-      <c r="AX33" s="167"/>
-      <c r="AY33" s="167"/>
-      <c r="AZ33" s="167"/>
-      <c r="BA33" s="167"/>
-      <c r="BB33" s="167"/>
-      <c r="BC33" s="167"/>
-      <c r="BD33" s="167"/>
-      <c r="BE33" s="167"/>
-      <c r="BF33" s="167"/>
-      <c r="BG33" s="167"/>
-      <c r="BH33" s="167"/>
-      <c r="BI33" s="167"/>
-      <c r="BJ33" s="167"/>
-      <c r="BK33" s="167"/>
-      <c r="BL33" s="167"/>
-      <c r="BM33" s="167"/>
-      <c r="BN33" s="167"/>
-      <c r="BO33" s="167"/>
-      <c r="BP33" s="169"/>
+      <c r="H33" s="372"/>
+      <c r="I33" s="121"/>
+      <c r="J33" s="121"/>
+      <c r="K33" s="121"/>
+      <c r="L33" s="367"/>
+      <c r="P33" s="368"/>
+      <c r="Q33" s="121"/>
+      <c r="R33" s="121"/>
+      <c r="S33" s="121"/>
+      <c r="T33" s="121"/>
+      <c r="U33" s="121"/>
+      <c r="V33" s="121"/>
+      <c r="W33" s="121"/>
+      <c r="X33" s="121"/>
+      <c r="Y33" s="121"/>
+      <c r="Z33" s="121"/>
+      <c r="AA33" s="121"/>
+      <c r="AB33" s="121"/>
+      <c r="AC33" s="121"/>
+      <c r="AD33" s="121"/>
+      <c r="AE33" s="121"/>
+      <c r="AF33" s="121"/>
+      <c r="AG33" s="121"/>
+      <c r="AH33" s="121"/>
+      <c r="AI33" s="121"/>
+      <c r="AJ33" s="121"/>
+      <c r="AK33" s="121"/>
+      <c r="AL33" s="121"/>
+      <c r="AM33" s="121"/>
+      <c r="AN33" s="121"/>
+      <c r="AO33" s="121"/>
+      <c r="AP33" s="121"/>
+      <c r="AQ33" s="121"/>
+      <c r="AR33" s="121"/>
+      <c r="AS33" s="121"/>
+      <c r="AT33" s="121"/>
+      <c r="AU33" s="121"/>
+      <c r="AV33" s="121"/>
+      <c r="AW33" s="121"/>
+      <c r="AX33" s="121"/>
+      <c r="AY33" s="121"/>
+      <c r="AZ33" s="121"/>
+      <c r="BA33" s="121"/>
+      <c r="BB33" s="121"/>
+      <c r="BC33" s="121"/>
+      <c r="BD33" s="121"/>
+      <c r="BE33" s="121"/>
+      <c r="BF33" s="121"/>
+      <c r="BG33" s="121"/>
+      <c r="BH33" s="121"/>
+      <c r="BI33" s="121"/>
+      <c r="BJ33" s="121"/>
+      <c r="BK33" s="121"/>
+      <c r="BL33" s="121"/>
+      <c r="BM33" s="121"/>
+      <c r="BN33" s="121"/>
+      <c r="BO33" s="121"/>
+      <c r="BP33" s="123"/>
     </row>
     <row r="34" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="481"/>
-      <c r="B34" s="437"/>
-      <c r="C34" s="438"/>
-      <c r="D34" s="438"/>
-      <c r="E34" s="438"/>
-      <c r="F34" s="438"/>
-      <c r="G34" s="437"/>
-      <c r="H34" s="439"/>
+      <c r="A34" s="422"/>
+      <c r="B34" s="378"/>
+      <c r="C34" s="379"/>
+      <c r="D34" s="379"/>
+      <c r="E34" s="379"/>
+      <c r="F34" s="379"/>
+      <c r="G34" s="378"/>
+      <c r="H34" s="380"/>
       <c r="I34" s="25"/>
       <c r="J34" s="25"/>
       <c r="K34" s="25"/>
-      <c r="L34" s="440"/>
-      <c r="M34" s="441"/>
-      <c r="N34" s="441"/>
-      <c r="O34" s="441"/>
-      <c r="P34" s="442"/>
+      <c r="L34" s="381"/>
+      <c r="M34" s="382"/>
+      <c r="N34" s="382"/>
+      <c r="O34" s="382"/>
+      <c r="P34" s="383"/>
       <c r="Q34" s="25"/>
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
@@ -10274,20 +10515,20 @@
       <c r="BP34" s="26"/>
     </row>
     <row r="35" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="249"/>
-      <c r="B35" s="467"/>
-      <c r="C35" s="249"/>
-      <c r="D35" s="249"/>
-      <c r="E35" s="249"/>
-      <c r="F35" s="250"/>
-      <c r="G35" s="468"/>
-      <c r="H35" s="468"/>
+      <c r="A35" s="190"/>
+      <c r="B35" s="408"/>
+      <c r="C35" s="190"/>
+      <c r="D35" s="190"/>
+      <c r="E35" s="190"/>
+      <c r="F35" s="191"/>
+      <c r="G35" s="409"/>
+      <c r="H35" s="409"/>
     </row>
     <row r="36" spans="1:68" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="249" t="s">
+      <c r="A36" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="443">
+      <c r="B36" s="384">
         <f>COUNTA(B7:B34)</f>
         <v>0</v>
       </c>
@@ -10323,7 +10564,7 @@
   <dimension ref="A1:T43"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D4" sqref="D4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10362,14 +10603,14 @@
       <c r="N1" s="12"/>
     </row>
     <row r="2" spans="1:20" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="487"/>
-      <c r="B2" s="487"/>
-      <c r="C2" s="487"/>
-      <c r="D2" s="488"/>
-      <c r="E2" s="488"/>
-      <c r="F2" s="488"/>
-      <c r="G2" s="487"/>
-      <c r="H2" s="487"/>
+      <c r="A2" s="428"/>
+      <c r="B2" s="428"/>
+      <c r="C2" s="428"/>
+      <c r="D2" s="429"/>
+      <c r="E2" s="429"/>
+      <c r="F2" s="429"/>
+      <c r="G2" s="428"/>
+      <c r="H2" s="428"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
@@ -10384,16 +10625,16 @@
       <c r="T2" s="12"/>
     </row>
     <row r="3" spans="1:20" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="487"/>
-      <c r="B3" s="487"/>
-      <c r="C3" s="487"/>
-      <c r="D3" s="488" t="s">
+      <c r="A3" s="428"/>
+      <c r="B3" s="428"/>
+      <c r="C3" s="428"/>
+      <c r="D3" s="429" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="488"/>
-      <c r="F3" s="488"/>
-      <c r="G3" s="487"/>
-      <c r="H3" s="487"/>
+      <c r="E3" s="429"/>
+      <c r="F3" s="429"/>
+      <c r="G3" s="428"/>
+      <c r="H3" s="428"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
@@ -10408,14 +10649,14 @@
       <c r="T3" s="12"/>
     </row>
     <row r="4" spans="1:20" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="487"/>
-      <c r="B4" s="487"/>
-      <c r="C4" s="487"/>
-      <c r="D4" s="488"/>
-      <c r="E4" s="488"/>
-      <c r="F4" s="488"/>
-      <c r="G4" s="487"/>
-      <c r="H4" s="487"/>
+      <c r="A4" s="428"/>
+      <c r="B4" s="428"/>
+      <c r="C4" s="428"/>
+      <c r="D4" s="429"/>
+      <c r="E4" s="429"/>
+      <c r="F4" s="429"/>
+      <c r="G4" s="428"/>
+      <c r="H4" s="428"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
@@ -10452,28 +10693,28 @@
       <c r="T5" s="12"/>
     </row>
     <row r="6" spans="1:20" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="457" t="s">
+      <c r="A6" s="398" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="458" t="s">
+      <c r="B6" s="399" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="459" t="s">
+      <c r="C6" s="400" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="458" t="s">
+      <c r="D6" s="399" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="458" t="s">
+      <c r="E6" s="399" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="460" t="s">
+      <c r="F6" s="401" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="461" t="s">
+      <c r="G6" s="402" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="462" t="s">
+      <c r="H6" s="403" t="s">
         <v>22</v>
       </c>
       <c r="I6" s="20"/>
@@ -10500,14 +10741,14 @@
       <c r="T6" s="12"/>
     </row>
     <row r="7" spans="1:20" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="452"/>
-      <c r="B7" s="154"/>
+      <c r="A7" s="393"/>
+      <c r="B7" s="109"/>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
-      <c r="H7" s="446"/>
+      <c r="H7" s="387"/>
       <c r="I7" s="20"/>
       <c r="J7" s="21"/>
       <c r="K7" s="13"/>
@@ -10522,14 +10763,14 @@
       <c r="T7" s="12"/>
     </row>
     <row r="8" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="444"/>
-      <c r="B8" s="171"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="172"/>
-      <c r="E8" s="172"/>
-      <c r="F8" s="172"/>
-      <c r="G8" s="172"/>
-      <c r="H8" s="445"/>
+      <c r="A8" s="385"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="386"/>
       <c r="I8" s="20"/>
       <c r="J8" s="21"/>
       <c r="K8" s="13"/>
@@ -10550,14 +10791,14 @@
       <c r="T8" s="12"/>
     </row>
     <row r="9" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="444"/>
+      <c r="A9" s="385"/>
       <c r="B9" s="27"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
-      <c r="H9" s="446"/>
+      <c r="H9" s="387"/>
       <c r="I9" s="20"/>
       <c r="J9" s="21"/>
       <c r="K9" s="13"/>
@@ -10572,16 +10813,16 @@
       <c r="T9" s="12"/>
     </row>
     <row r="10" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="444"/>
+      <c r="A10" s="385"/>
       <c r="B10" s="27"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
-      <c r="H10" s="446"/>
+      <c r="H10" s="387"/>
       <c r="I10" s="20"/>
-      <c r="J10" s="179"/>
+      <c r="J10" s="132"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11" t="s">
         <v>26</v>
@@ -10594,14 +10835,14 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="444"/>
+      <c r="A11" s="385"/>
       <c r="B11" s="27"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
-      <c r="H11" s="446"/>
+      <c r="H11" s="387"/>
       <c r="I11" s="20"/>
       <c r="J11" s="21"/>
       <c r="K11" s="13"/>
@@ -10616,14 +10857,14 @@
       <c r="T11" s="12"/>
     </row>
     <row r="12" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="444"/>
+      <c r="A12" s="385"/>
       <c r="B12" s="27"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="156"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
       <c r="G12" s="28"/>
-      <c r="H12" s="446"/>
+      <c r="H12" s="387"/>
       <c r="I12" s="20"/>
       <c r="J12" s="21"/>
       <c r="K12" s="13"/>
@@ -10638,14 +10879,14 @@
       <c r="T12" s="12"/>
     </row>
     <row r="13" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="444"/>
+      <c r="A13" s="385"/>
       <c r="B13" s="27"/>
       <c r="C13" s="28"/>
-      <c r="D13" s="152"/>
+      <c r="D13" s="107"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="211"/>
-      <c r="G13" s="171"/>
-      <c r="H13" s="446"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="387"/>
       <c r="I13" s="20"/>
       <c r="J13" s="21"/>
       <c r="K13" s="13"/>
@@ -10660,14 +10901,14 @@
       <c r="T13" s="12"/>
     </row>
     <row r="14" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="444"/>
+      <c r="A14" s="385"/>
       <c r="B14" s="27"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="153"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="108"/>
       <c r="G14" s="28"/>
-      <c r="H14" s="446"/>
+      <c r="H14" s="387"/>
       <c r="I14" s="20"/>
       <c r="J14" s="21"/>
       <c r="K14" s="13"/>
@@ -10682,14 +10923,14 @@
       <c r="T14" s="12"/>
     </row>
     <row r="15" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="444"/>
+      <c r="A15" s="385"/>
       <c r="B15" s="27"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
-      <c r="H15" s="446"/>
+      <c r="H15" s="387"/>
       <c r="I15" s="20"/>
       <c r="J15" s="21"/>
       <c r="K15" s="13"/>
@@ -10704,29 +10945,29 @@
       <c r="T15" s="12"/>
     </row>
     <row r="16" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="444"/>
+      <c r="A16" s="385"/>
       <c r="B16" s="27"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
-      <c r="H16" s="446"/>
-      <c r="J16" s="155"/>
-      <c r="K16" s="155"/>
-      <c r="L16" s="155"/>
-      <c r="M16" s="155"/>
-      <c r="N16" s="155"/>
+      <c r="H16" s="387"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="110"/>
+      <c r="N16" s="110"/>
     </row>
     <row r="17" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="444"/>
+      <c r="A17" s="385"/>
       <c r="B17" s="27"/>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
-      <c r="H17" s="446"/>
+      <c r="H17" s="387"/>
       <c r="I17" s="20"/>
       <c r="J17" s="21"/>
       <c r="K17" s="13"/>
@@ -10741,29 +10982,29 @@
       <c r="T17" s="12"/>
     </row>
     <row r="18" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="444"/>
+      <c r="A18" s="385"/>
       <c r="B18" s="27"/>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
-      <c r="H18" s="446"/>
-      <c r="J18" s="155"/>
-      <c r="K18" s="155"/>
-      <c r="L18" s="155"/>
-      <c r="M18" s="155"/>
-      <c r="N18" s="155"/>
+      <c r="H18" s="387"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="110"/>
+      <c r="N18" s="110"/>
     </row>
     <row r="19" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="444"/>
+      <c r="A19" s="385"/>
       <c r="B19" s="27"/>
       <c r="C19" s="28"/>
-      <c r="D19" s="156"/>
+      <c r="D19" s="111"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
-      <c r="H19" s="446"/>
+      <c r="H19" s="387"/>
       <c r="I19" s="20"/>
       <c r="J19" s="21"/>
       <c r="K19" s="13"/>
@@ -10778,14 +11019,14 @@
       <c r="T19" s="12"/>
     </row>
     <row r="20" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="444"/>
-      <c r="B20" s="203"/>
-      <c r="C20" s="204"/>
-      <c r="D20" s="205"/>
-      <c r="E20" s="179"/>
-      <c r="F20" s="206"/>
-      <c r="G20" s="207"/>
-      <c r="H20" s="448"/>
+      <c r="A20" s="385"/>
+      <c r="B20" s="154"/>
+      <c r="C20" s="155"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="389"/>
       <c r="I20" s="20"/>
       <c r="J20" s="21"/>
       <c r="K20" s="13"/>
@@ -10800,14 +11041,14 @@
       <c r="T20" s="12"/>
     </row>
     <row r="21" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="444"/>
+      <c r="A21" s="385"/>
       <c r="B21" s="27"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
-      <c r="H21" s="446"/>
+      <c r="H21" s="387"/>
       <c r="I21" s="20"/>
       <c r="J21" s="21"/>
       <c r="K21" s="13"/>
@@ -10822,14 +11063,14 @@
       <c r="T21" s="12"/>
     </row>
     <row r="22" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="444"/>
+      <c r="A22" s="385"/>
       <c r="B22" s="27"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
-      <c r="H22" s="446"/>
+      <c r="H22" s="387"/>
       <c r="I22" s="20"/>
       <c r="J22" s="21"/>
       <c r="K22" s="13"/>
@@ -10844,14 +11085,14 @@
       <c r="T22" s="12"/>
     </row>
     <row r="23" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="444"/>
+      <c r="A23" s="385"/>
       <c r="B23" s="27"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="446"/>
+      <c r="H23" s="387"/>
       <c r="I23" s="20"/>
       <c r="J23" s="21"/>
       <c r="K23" s="13"/>
@@ -10866,14 +11107,14 @@
       <c r="T23" s="12"/>
     </row>
     <row r="24" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="444"/>
+      <c r="A24" s="385"/>
       <c r="B24" s="27"/>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
-      <c r="H24" s="446"/>
+      <c r="H24" s="387"/>
       <c r="I24" s="20"/>
       <c r="J24" s="21"/>
       <c r="K24" s="13"/>
@@ -10888,14 +11129,14 @@
       <c r="T24" s="12"/>
     </row>
     <row r="25" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="444"/>
+      <c r="A25" s="385"/>
       <c r="B25" s="11"/>
       <c r="C25" s="14"/>
-      <c r="D25" s="208"/>
+      <c r="D25" s="159"/>
       <c r="E25" s="11"/>
       <c r="F25" s="15"/>
       <c r="G25" s="24"/>
-      <c r="H25" s="449"/>
+      <c r="H25" s="390"/>
       <c r="I25" s="20"/>
       <c r="J25" s="21"/>
       <c r="K25" s="13"/>
@@ -10904,14 +11145,14 @@
       <c r="N25" s="13"/>
     </row>
     <row r="26" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="444"/>
+      <c r="A26" s="385"/>
       <c r="B26" s="27"/>
       <c r="C26" s="28"/>
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
-      <c r="H26" s="446"/>
+      <c r="H26" s="387"/>
       <c r="I26" s="20"/>
       <c r="J26" s="21"/>
       <c r="K26" s="13"/>
@@ -10926,14 +11167,14 @@
       <c r="T26" s="12"/>
     </row>
     <row r="27" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="444"/>
+      <c r="A27" s="385"/>
       <c r="B27" s="27"/>
       <c r="C27" s="28"/>
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
-      <c r="H27" s="446"/>
+      <c r="H27" s="387"/>
       <c r="I27" s="20"/>
       <c r="J27" s="21"/>
       <c r="K27" s="13"/>
@@ -10948,14 +11189,14 @@
       <c r="T27" s="12"/>
     </row>
     <row r="28" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="444"/>
+      <c r="A28" s="385"/>
       <c r="B28" s="27"/>
       <c r="C28" s="28"/>
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
-      <c r="H28" s="446"/>
+      <c r="H28" s="387"/>
       <c r="I28" s="20"/>
       <c r="J28" s="21"/>
       <c r="K28" s="13"/>
@@ -10970,14 +11211,14 @@
       <c r="T28" s="12"/>
     </row>
     <row r="29" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="444"/>
+      <c r="A29" s="385"/>
       <c r="B29" s="27"/>
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
-      <c r="H29" s="446"/>
+      <c r="H29" s="387"/>
       <c r="I29" s="20"/>
       <c r="J29" s="21"/>
       <c r="K29" s="13"/>
@@ -10992,14 +11233,14 @@
       <c r="T29" s="12"/>
     </row>
     <row r="30" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="444"/>
+      <c r="A30" s="385"/>
       <c r="B30" s="27"/>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
       <c r="G30" s="28"/>
-      <c r="H30" s="446"/>
+      <c r="H30" s="387"/>
       <c r="I30" s="20"/>
       <c r="J30" s="21"/>
       <c r="K30" s="13"/>
@@ -11014,14 +11255,14 @@
       <c r="T30" s="12"/>
     </row>
     <row r="31" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="444"/>
+      <c r="A31" s="385"/>
       <c r="B31" s="27"/>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
-      <c r="H31" s="446"/>
+      <c r="H31" s="387"/>
       <c r="I31" s="20"/>
       <c r="J31" s="21"/>
       <c r="K31" s="13"/>
@@ -11036,14 +11277,14 @@
       <c r="T31" s="12"/>
     </row>
     <row r="32" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="444"/>
+      <c r="A32" s="385"/>
       <c r="B32" s="27"/>
       <c r="C32" s="28"/>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
       <c r="F32" s="9"/>
       <c r="G32" s="28"/>
-      <c r="H32" s="446"/>
+      <c r="H32" s="387"/>
       <c r="I32" s="20"/>
       <c r="J32" s="21"/>
       <c r="K32" s="13"/>
@@ -11058,14 +11299,14 @@
       <c r="T32" s="12"/>
     </row>
     <row r="33" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="450"/>
-      <c r="B33" s="177"/>
-      <c r="C33" s="156"/>
-      <c r="D33" s="156"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="156"/>
-      <c r="H33" s="451"/>
+      <c r="A33" s="391"/>
+      <c r="B33" s="130"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="392"/>
       <c r="I33" s="20"/>
       <c r="J33" s="21"/>
       <c r="K33" s="13"/>
@@ -11080,14 +11321,14 @@
       <c r="T33" s="12"/>
     </row>
     <row r="34" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="444"/>
+      <c r="A34" s="385"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="447"/>
+      <c r="H34" s="388"/>
       <c r="I34" s="20"/>
       <c r="J34" s="21"/>
       <c r="K34" s="13"/>
@@ -11102,14 +11343,14 @@
       <c r="T34" s="12"/>
     </row>
     <row r="35" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="452"/>
-      <c r="B35" s="178"/>
-      <c r="C35" s="178"/>
-      <c r="D35" s="178"/>
-      <c r="E35" s="178"/>
-      <c r="F35" s="178"/>
-      <c r="G35" s="178"/>
-      <c r="H35" s="453"/>
+      <c r="A35" s="393"/>
+      <c r="B35" s="131"/>
+      <c r="C35" s="131"/>
+      <c r="D35" s="131"/>
+      <c r="E35" s="131"/>
+      <c r="F35" s="131"/>
+      <c r="G35" s="131"/>
+      <c r="H35" s="394"/>
       <c r="I35" s="20"/>
       <c r="J35" s="21"/>
       <c r="K35" s="13"/>
@@ -11124,14 +11365,14 @@
       <c r="T35" s="12"/>
     </row>
     <row r="36" spans="1:20" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="454"/>
-      <c r="B36" s="455"/>
-      <c r="C36" s="455"/>
-      <c r="D36" s="455"/>
-      <c r="E36" s="455"/>
-      <c r="F36" s="455"/>
-      <c r="G36" s="455"/>
-      <c r="H36" s="456"/>
+      <c r="A36" s="395"/>
+      <c r="B36" s="396"/>
+      <c r="C36" s="396"/>
+      <c r="D36" s="396"/>
+      <c r="E36" s="396"/>
+      <c r="F36" s="396"/>
+      <c r="G36" s="396"/>
+      <c r="H36" s="397"/>
       <c r="I36" s="20"/>
       <c r="J36" s="21"/>
       <c r="K36" s="13"/>
@@ -11155,11 +11396,11 @@
       <c r="G37" s="22"/>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
-      <c r="J37" s="165"/>
-      <c r="K37" s="165"/>
-      <c r="L37" s="165"/>
-      <c r="M37" s="165"/>
-      <c r="N37" s="165"/>
+      <c r="J37" s="119"/>
+      <c r="K37" s="119"/>
+      <c r="L37" s="119"/>
+      <c r="M37" s="119"/>
+      <c r="N37" s="119"/>
     </row>
     <row r="38" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">

--- a/templates/entry_list_template.xlsx
+++ b/templates/entry_list_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brendanwoo/projects/sro_sign_in/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5584E30-356D-C245-ACE1-E77730B6F960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C5A1E4-B377-D741-A579-2821C48CDD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{542D648B-9180-43EF-9053-182057C63D4C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{542D648B-9180-43EF-9053-182057C63D4C}"/>
   </bookViews>
   <sheets>
     <sheet name="GTWCA" sheetId="10" r:id="rId1"/>
@@ -1783,7 +1783,7 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="56" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="526">
+  <cellXfs count="530">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2295,9 +2295,6 @@
     <xf numFmtId="49" fontId="39" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2315,9 +2312,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2445,9 +2439,6 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2461,12 +2452,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2499,12 +2484,6 @@
     </xf>
     <xf numFmtId="49" fontId="50" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="51" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2540,12 +2519,6 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2564,12 +2537,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2602,9 +2569,6 @@
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2619,9 +2583,6 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="54" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2665,20 +2626,11 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2908,9 +2860,6 @@
     <xf numFmtId="49" fontId="60" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="59" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="59" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2923,18 +2872,12 @@
     <xf numFmtId="49" fontId="59" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="60" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2947,9 +2890,6 @@
     <xf numFmtId="49" fontId="60" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="62" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="61" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2968,9 +2908,6 @@
     <xf numFmtId="49" fontId="59" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="59" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="59" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2983,9 +2920,6 @@
     <xf numFmtId="49" fontId="59" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="59" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3010,34 +2944,31 @@
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="62" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="62" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="62" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="62" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3046,9 +2977,6 @@
     <xf numFmtId="0" fontId="59" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="60" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="60" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3067,18 +2995,12 @@
     <xf numFmtId="49" fontId="60" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="59" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="59" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="60" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3097,9 +3019,6 @@
     <xf numFmtId="0" fontId="59" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="60" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3125,6 +3044,222 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="60" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="91" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="91" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="90" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="61" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="45" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="51" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="45" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="59" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="59" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="60" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="62" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="59" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="59" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="60" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="59" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="59" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="59" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="62" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="60" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="60" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3133,164 +3268,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="65" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="65" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="65" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="65" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="65" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="65" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="91" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="65" fillId="0" borderId="91" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="65" fillId="0" borderId="90" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="65" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="61" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="54" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3312,10 +3324,9 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="16"/>
+        <sz val="12"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -3325,17 +3336,47 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
         <top style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </top>
         <bottom style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
@@ -3582,6 +3623,44 @@
         </top>
         <bottom style="thin">
           <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -3656,557 +3735,6 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thick">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thick">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thick">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thick">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thick">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thick">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="14"/>
         <color theme="1"/>
         <name val="Calibri"/>
@@ -4488,7 +4016,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -4496,7 +4024,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -4630,6 +4158,557 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thick">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thick">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thick">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -5017,73 +5096,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thick">
           <color indexed="64"/>
         </left>
         <right style="thin">
@@ -5210,7 +5222,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1044222</xdr:colOff>
+      <xdr:colOff>933097</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>416906</xdr:rowOff>
     </xdr:to>
@@ -5788,86 +5800,86 @@
     <sortCondition ref="B28"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="2" xr3:uid="{8EAC187A-4BC7-044D-A24C-EE683FF40EDC}" name="Series" dataDxfId="59" dataCellStyle="Neutral"/>
-    <tableColumn id="10" xr3:uid="{6761E48F-7432-8E4D-983D-FD8CF12204ED}" name="Car #" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{0DF6B8D7-FC4D-5845-A1AC-0C19350700B1}" name="Team " dataDxfId="57" dataCellStyle="Neutral"/>
-    <tableColumn id="4" xr3:uid="{D7958FE6-C778-2340-A370-BF9B62951BE2}" name="Driver 1" dataDxfId="56" dataCellStyle="Neutral"/>
-    <tableColumn id="5" xr3:uid="{A1C4CE74-0FBD-A249-A28E-1AA4F0E32E24}" name="NAT" dataDxfId="55" dataCellStyle="Neutral"/>
-    <tableColumn id="13" xr3:uid="{06D828EC-E323-DA4F-B814-30D97E8751E7}" name="LIC " dataDxfId="54"/>
-    <tableColumn id="6" xr3:uid="{5C59EF6B-E503-B449-BD81-31D0C127B158}" name="CAT" dataDxfId="53"/>
-    <tableColumn id="12" xr3:uid="{FCCDF9C0-43DB-3343-8312-4E0B4B75956D}" name="Driver 2" dataDxfId="52"/>
-    <tableColumn id="11" xr3:uid="{48BAF24C-A19D-1B40-8E87-E8ABF82E4431}" name="  NAT " dataDxfId="51"/>
-    <tableColumn id="14" xr3:uid="{CF8EB17E-A9FE-5E4E-B068-F6226C82985D}" name=" LIC " dataDxfId="50"/>
-    <tableColumn id="1" xr3:uid="{4E58BAAF-4A36-2443-BB6E-FB2F3CD6C045}" name="CAT " dataDxfId="49"/>
-    <tableColumn id="8" xr3:uid="{B01B38E0-90B8-DA4E-A115-23024964F22B}" name="Car Sponsors" dataDxfId="48" dataCellStyle="Neutral"/>
-    <tableColumn id="7" xr3:uid="{A8339886-62FE-D648-99E5-4129118A9D24}" name="Car Make/Model" dataDxfId="47"/>
-    <tableColumn id="9" xr3:uid="{FAA5AA03-0CBD-CD44-B4EA-32A19F875C8B}" name="Championship" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{8EAC187A-4BC7-044D-A24C-EE683FF40EDC}" name="Series" dataDxfId="0" dataCellStyle="Neutral"/>
+    <tableColumn id="10" xr3:uid="{6761E48F-7432-8E4D-983D-FD8CF12204ED}" name="Car #" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{0DF6B8D7-FC4D-5845-A1AC-0C19350700B1}" name="Team " dataDxfId="59" dataCellStyle="Neutral"/>
+    <tableColumn id="4" xr3:uid="{D7958FE6-C778-2340-A370-BF9B62951BE2}" name="Driver 1" dataDxfId="58" dataCellStyle="Neutral"/>
+    <tableColumn id="5" xr3:uid="{A1C4CE74-0FBD-A249-A28E-1AA4F0E32E24}" name="NAT" dataDxfId="57" dataCellStyle="Neutral"/>
+    <tableColumn id="13" xr3:uid="{06D828EC-E323-DA4F-B814-30D97E8751E7}" name="LIC " dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{5C59EF6B-E503-B449-BD81-31D0C127B158}" name="CAT" dataDxfId="55"/>
+    <tableColumn id="12" xr3:uid="{FCCDF9C0-43DB-3343-8312-4E0B4B75956D}" name="Driver 2" dataDxfId="54"/>
+    <tableColumn id="11" xr3:uid="{48BAF24C-A19D-1B40-8E87-E8ABF82E4431}" name="  NAT " dataDxfId="53"/>
+    <tableColumn id="14" xr3:uid="{CF8EB17E-A9FE-5E4E-B068-F6226C82985D}" name=" LIC " dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{4E58BAAF-4A36-2443-BB6E-FB2F3CD6C045}" name="CAT " dataDxfId="51"/>
+    <tableColumn id="8" xr3:uid="{B01B38E0-90B8-DA4E-A115-23024964F22B}" name="Car Sponsors" dataDxfId="50" dataCellStyle="Neutral"/>
+    <tableColumn id="7" xr3:uid="{A8339886-62FE-D648-99E5-4129118A9D24}" name="Car Make/Model" dataDxfId="49"/>
+    <tableColumn id="9" xr3:uid="{FAA5AA03-0CBD-CD44-B4EA-32A19F875C8B}" name="Championship" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{56F25BC1-6701-4669-AC0F-E1673995674A}" name="Table2267" displayName="Table2267" ref="A6:N38" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{56F25BC1-6701-4669-AC0F-E1673995674A}" name="Table2267" displayName="Table2267" ref="A6:N38" totalsRowShown="0" headerRowDxfId="47" headerRowBorderDxfId="46" tableBorderDxfId="45" totalsRowBorderDxfId="44">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:N39">
     <sortCondition ref="B9:B39"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="2" xr3:uid="{86C7766F-C815-4642-A792-C792E5CD9B1D}" name="Series" dataDxfId="26" dataCellStyle="Neutral"/>
-    <tableColumn id="10" xr3:uid="{B0849F24-6597-4E76-94D7-2D7E93B5B7E1}" name="Car #" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{C0375D1B-A6A9-4878-94F1-144B367DBFAE}" name="Team " dataDxfId="24" dataCellStyle="Neutral"/>
-    <tableColumn id="4" xr3:uid="{731AF936-9BBC-4114-AF94-6737C2C799AD}" name="Driver 1" dataDxfId="23" dataCellStyle="Neutral"/>
-    <tableColumn id="5" xr3:uid="{4AAAC599-A742-4343-8BE4-F0207EAEB236}" name="NAT" dataDxfId="22" dataCellStyle="Neutral"/>
-    <tableColumn id="13" xr3:uid="{46C8C08D-7690-4908-8D68-9031FA1AAB13}" name="LIC " dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{0B42790F-CF16-4A79-97F6-02353851B814}" name="CAT" dataDxfId="20"/>
-    <tableColumn id="12" xr3:uid="{4393EDC9-8099-4851-8BA5-F88B5093FA18}" name="Driver 2" dataDxfId="19"/>
-    <tableColumn id="11" xr3:uid="{022A346F-1EFC-477E-B3FF-234F17FB995D}" name="  NAT " dataDxfId="18"/>
-    <tableColumn id="14" xr3:uid="{4A5DA010-C6D1-49CE-8487-00AC7C736274}" name=" LIC " dataDxfId="17"/>
-    <tableColumn id="1" xr3:uid="{15D47E2B-7108-41F5-BB6D-FABBD704C2C8}" name="CAT " dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{5F578104-8A47-4C21-AE4F-A41AFD51CA17}" name="Car Sponsors" dataDxfId="15" dataCellStyle="Neutral"/>
-    <tableColumn id="7" xr3:uid="{37BFAE36-6B5E-4D59-B805-2A4B37B829ED}" name="Car Make/Model" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{C4134C49-64E4-4B01-865E-C1B755B7D04A}" name="Championship" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{86C7766F-C815-4642-A792-C792E5CD9B1D}" name="Series" dataDxfId="43" dataCellStyle="Neutral"/>
+    <tableColumn id="10" xr3:uid="{B0849F24-6597-4E76-94D7-2D7E93B5B7E1}" name="Car #" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{C0375D1B-A6A9-4878-94F1-144B367DBFAE}" name="Team " dataDxfId="41" dataCellStyle="Neutral"/>
+    <tableColumn id="4" xr3:uid="{731AF936-9BBC-4114-AF94-6737C2C799AD}" name="Driver 1" dataDxfId="40" dataCellStyle="Neutral"/>
+    <tableColumn id="5" xr3:uid="{4AAAC599-A742-4343-8BE4-F0207EAEB236}" name="NAT" dataDxfId="39" dataCellStyle="Neutral"/>
+    <tableColumn id="13" xr3:uid="{46C8C08D-7690-4908-8D68-9031FA1AAB13}" name="LIC " dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{0B42790F-CF16-4A79-97F6-02353851B814}" name="CAT" dataDxfId="37"/>
+    <tableColumn id="12" xr3:uid="{4393EDC9-8099-4851-8BA5-F88B5093FA18}" name="Driver 2" dataDxfId="36"/>
+    <tableColumn id="11" xr3:uid="{022A346F-1EFC-477E-B3FF-234F17FB995D}" name="  NAT " dataDxfId="35"/>
+    <tableColumn id="14" xr3:uid="{4A5DA010-C6D1-49CE-8487-00AC7C736274}" name=" LIC " dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{15D47E2B-7108-41F5-BB6D-FABBD704C2C8}" name="CAT " dataDxfId="33"/>
+    <tableColumn id="8" xr3:uid="{5F578104-8A47-4C21-AE4F-A41AFD51CA17}" name="Car Sponsors" dataDxfId="32" dataCellStyle="Neutral"/>
+    <tableColumn id="7" xr3:uid="{37BFAE36-6B5E-4D59-B805-2A4B37B829ED}" name="Car Make/Model" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{C4134C49-64E4-4B01-865E-C1B755B7D04A}" name="Championship" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EEF14E4E-087A-46C7-831D-A668229E00D6}" name="Table226" displayName="Table226" ref="A6:J37" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42" totalsRowBorderDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EEF14E4E-087A-46C7-831D-A668229E00D6}" name="Table226" displayName="Table226" ref="A6:J37" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:J40">
     <sortCondition descending="1" ref="J8:J40"/>
     <sortCondition ref="B8:B40"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="2" xr3:uid="{29DF6422-9DDA-4F8F-8BEE-5184D2457B57}" name="Series" dataDxfId="40" dataCellStyle="Neutral"/>
-    <tableColumn id="10" xr3:uid="{1486B7A1-2318-4A69-93B1-14B85F40C988}" name="Car #" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{9FCCBAF6-EB7D-44F1-ADEC-A2DF74A549AE}" name="Team " dataDxfId="38" dataCellStyle="Neutral"/>
-    <tableColumn id="4" xr3:uid="{5972D2A1-6086-4595-9053-F6AB4ABD85A7}" name="Driver 1" dataDxfId="37" dataCellStyle="Neutral"/>
-    <tableColumn id="5" xr3:uid="{0273D45B-C8FF-4DBF-A963-B72D55D93954}" name="NAT" dataDxfId="36" dataCellStyle="Neutral"/>
-    <tableColumn id="13" xr3:uid="{26D97A36-D7BA-4D93-9A44-CC528D4BDC4F}" name="LIC " dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{AC25B573-C8BF-40ED-8E09-71D35117CA3A}" name="CAT" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{C3A46578-AA4D-4C94-B592-5AC371A17E14}" name="Car Sponsors" dataDxfId="33" dataCellStyle="Neutral"/>
-    <tableColumn id="7" xr3:uid="{7B3018A6-2A70-4C3E-BE5C-CCFFCABD4796}" name="Car Make/Model" dataDxfId="32"/>
-    <tableColumn id="9" xr3:uid="{C0209330-55B6-42D3-AB23-D1C37AFC6FDA}" name="Class" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{29DF6422-9DDA-4F8F-8BEE-5184D2457B57}" name="Series" dataDxfId="24" dataCellStyle="Neutral"/>
+    <tableColumn id="10" xr3:uid="{1486B7A1-2318-4A69-93B1-14B85F40C988}" name="Car #" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{9FCCBAF6-EB7D-44F1-ADEC-A2DF74A549AE}" name="Team " dataDxfId="22" dataCellStyle="Neutral"/>
+    <tableColumn id="4" xr3:uid="{5972D2A1-6086-4595-9053-F6AB4ABD85A7}" name="Driver 1" dataDxfId="21" dataCellStyle="Neutral"/>
+    <tableColumn id="5" xr3:uid="{0273D45B-C8FF-4DBF-A963-B72D55D93954}" name="NAT" dataDxfId="20" dataCellStyle="Neutral"/>
+    <tableColumn id="13" xr3:uid="{26D97A36-D7BA-4D93-9A44-CC528D4BDC4F}" name="LIC " dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{AC25B573-C8BF-40ED-8E09-71D35117CA3A}" name="CAT" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{C3A46578-AA4D-4C94-B592-5AC371A17E14}" name="Car Sponsors" dataDxfId="17" dataCellStyle="Neutral"/>
+    <tableColumn id="7" xr3:uid="{7B3018A6-2A70-4C3E-BE5C-CCFFCABD4796}" name="Car Make/Model" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{C0209330-55B6-42D3-AB23-D1C37AFC6FDA}" name="Class" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{11330F46-3971-7D44-8FE5-B039A90EF352}" name="Table22683" displayName="Table22683" ref="A6:H34" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{11330F46-3971-7D44-8FE5-B039A90EF352}" name="Table22683" displayName="Table22683" ref="A6:H34" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:H35">
     <sortCondition descending="1" ref="H12:H35"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="2" xr3:uid="{459DFC46-4742-6E42-8DBB-A583077730B7}" name="Series" dataDxfId="0" dataCellStyle="Neutral"/>
-    <tableColumn id="10" xr3:uid="{A735E01E-C722-8046-A3A7-EB4B8E9856D0}" name="Car #" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{6858B568-BE7E-DA44-A760-6A0FEC2B9951}" name="Team " dataDxfId="6" dataCellStyle="Neutral"/>
-    <tableColumn id="4" xr3:uid="{9302466E-96CC-B845-817B-5E7790246EEA}" name="Driver" dataDxfId="5" dataCellStyle="Neutral"/>
-    <tableColumn id="5" xr3:uid="{6F60649D-7A1A-6B47-AF8B-CDFA61A10C71}" name="NAT" dataDxfId="4" dataCellStyle="Neutral"/>
-    <tableColumn id="8" xr3:uid="{8224E110-2012-0E4B-A25F-B837877427FA}" name="Car Sponsors" dataDxfId="3" dataCellStyle="Neutral"/>
-    <tableColumn id="7" xr3:uid="{3ADFDE9D-B3A8-2D47-8CAD-6E4FB830231A}" name="Car Make/Model" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{B7E977BD-C739-704E-A4EB-5D75989E1112}" name="Class" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{459DFC46-4742-6E42-8DBB-A583077730B7}" name="Series" dataDxfId="9" dataCellStyle="Neutral"/>
+    <tableColumn id="10" xr3:uid="{A735E01E-C722-8046-A3A7-EB4B8E9856D0}" name="Car #" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{6858B568-BE7E-DA44-A760-6A0FEC2B9951}" name="Team " dataDxfId="7" dataCellStyle="Neutral"/>
+    <tableColumn id="4" xr3:uid="{9302466E-96CC-B845-817B-5E7790246EEA}" name="Driver" dataDxfId="6" dataCellStyle="Neutral"/>
+    <tableColumn id="5" xr3:uid="{6F60649D-7A1A-6B47-AF8B-CDFA61A10C71}" name="NAT" dataDxfId="5" dataCellStyle="Neutral"/>
+    <tableColumn id="8" xr3:uid="{8224E110-2012-0E4B-A25F-B837877427FA}" name="Car Sponsors" dataDxfId="4" dataCellStyle="Neutral"/>
+    <tableColumn id="7" xr3:uid="{3ADFDE9D-B3A8-2D47-8CAD-6E4FB830231A}" name="Car Make/Model" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{B7E977BD-C739-704E-A4EB-5D75989E1112}" name="Class" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6175,700 +6187,715 @@
   </sheetPr>
   <dimension ref="A2:X34"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="80" zoomScaleNormal="90" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="90" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="224" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="225" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" style="224" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="224" customWidth="1"/>
-    <col min="5" max="7" width="8.6640625" style="224" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="224" customWidth="1"/>
-    <col min="9" max="11" width="8.6640625" style="224" customWidth="1"/>
-    <col min="12" max="13" width="35.6640625" style="224" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" style="224" customWidth="1"/>
-    <col min="15" max="17" width="4.5" style="224"/>
-    <col min="18" max="19" width="8.6640625" style="224" customWidth="1"/>
-    <col min="20" max="20" width="10.6640625" style="224" customWidth="1"/>
-    <col min="21" max="24" width="8.6640625" style="224" customWidth="1"/>
-    <col min="25" max="16384" width="4.5" style="224"/>
+    <col min="1" max="1" width="12.1640625" style="222" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="223" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" style="222" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" style="222" customWidth="1"/>
+    <col min="5" max="7" width="8.6640625" style="222" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" style="222" customWidth="1"/>
+    <col min="9" max="11" width="8.6640625" style="222" customWidth="1"/>
+    <col min="12" max="13" width="35.6640625" style="222" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" style="222" customWidth="1"/>
+    <col min="15" max="17" width="4.5" style="222"/>
+    <col min="18" max="19" width="8.6640625" style="222" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" style="222" customWidth="1"/>
+    <col min="21" max="24" width="8.6640625" style="222" customWidth="1"/>
+    <col min="25" max="16384" width="4.5" style="222"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="471"/>
-      <c r="B2" s="471"/>
-      <c r="C2" s="471"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
-      <c r="M2" s="471"/>
-      <c r="N2" s="471"/>
+      <c r="A2" s="516"/>
+      <c r="B2" s="516"/>
+      <c r="C2" s="516"/>
+      <c r="D2" s="516"/>
+      <c r="E2" s="516"/>
+      <c r="F2" s="516"/>
+      <c r="G2" s="516"/>
+      <c r="H2" s="516"/>
+      <c r="I2" s="516"/>
+      <c r="J2" s="516"/>
+      <c r="K2" s="516"/>
+      <c r="L2" s="516"/>
+      <c r="M2" s="516"/>
+      <c r="N2" s="516"/>
     </row>
     <row r="3" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="471"/>
-      <c r="B3" s="471"/>
-      <c r="C3" s="471"/>
-      <c r="F3" s="184"/>
-      <c r="G3" s="184"/>
-      <c r="H3" s="177" t="s">
+      <c r="A3" s="516"/>
+      <c r="B3" s="516"/>
+      <c r="C3" s="516"/>
+      <c r="D3" s="520" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="184"/>
-      <c r="J3" s="184"/>
-      <c r="M3" s="471"/>
-      <c r="N3" s="471"/>
+      <c r="E3" s="520"/>
+      <c r="F3" s="520"/>
+      <c r="G3" s="520"/>
+      <c r="H3" s="520"/>
+      <c r="I3" s="520"/>
+      <c r="J3" s="520"/>
+      <c r="K3" s="520"/>
+      <c r="L3" s="520"/>
+      <c r="M3" s="516"/>
+      <c r="N3" s="516"/>
     </row>
     <row r="4" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="471"/>
-      <c r="B4" s="471"/>
-      <c r="C4" s="471"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="184"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="184"/>
-      <c r="J4" s="184"/>
-      <c r="M4" s="471"/>
-      <c r="N4" s="471"/>
+      <c r="A4" s="516"/>
+      <c r="B4" s="516"/>
+      <c r="C4" s="516"/>
+      <c r="D4" s="516"/>
+      <c r="E4" s="516"/>
+      <c r="F4" s="516"/>
+      <c r="G4" s="516"/>
+      <c r="H4" s="516"/>
+      <c r="I4" s="516"/>
+      <c r="J4" s="516"/>
+      <c r="K4" s="516"/>
+      <c r="L4" s="516"/>
+      <c r="M4" s="516"/>
+      <c r="N4" s="516"/>
     </row>
     <row r="5" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="R5" s="471" t="s">
+      <c r="R5" s="516" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="471"/>
-      <c r="T5" s="471"/>
-      <c r="U5" s="471"/>
-      <c r="V5" s="471"/>
-      <c r="W5" s="471"/>
-      <c r="X5" s="471"/>
+      <c r="S5" s="516"/>
+      <c r="T5" s="516"/>
+      <c r="U5" s="516"/>
+      <c r="V5" s="516"/>
+      <c r="W5" s="516"/>
+      <c r="X5" s="516"/>
     </row>
     <row r="6" spans="1:24" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="226" t="s">
+      <c r="A6" s="224" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="226" t="s">
+      <c r="B6" s="224" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="226" t="s">
+      <c r="C6" s="224" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="226" t="s">
+      <c r="D6" s="224" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="226" t="s">
+      <c r="E6" s="224" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="226" t="s">
+      <c r="F6" s="224" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="226" t="s">
+      <c r="G6" s="224" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="226" t="s">
+      <c r="H6" s="224" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="226" t="s">
+      <c r="I6" s="224" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="226" t="s">
+      <c r="J6" s="224" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="226" t="s">
+      <c r="K6" s="224" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="227" t="s">
+      <c r="L6" s="225" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="226" t="s">
+      <c r="M6" s="224" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="228" t="s">
+      <c r="N6" s="226" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" s="224" t="s">
+      <c r="Q6" s="222" t="s">
         <v>11</v>
       </c>
-      <c r="R6" s="229" t="s">
+      <c r="R6" s="227" t="s">
         <v>12</v>
       </c>
-      <c r="S6" s="230" t="s">
+      <c r="S6" s="228" t="s">
         <v>13</v>
       </c>
-      <c r="T6" s="231" t="s">
+      <c r="T6" s="229" t="s">
         <v>14</v>
       </c>
-      <c r="U6" s="231" t="s">
+      <c r="U6" s="229" t="s">
         <v>15</v>
       </c>
-      <c r="V6" s="231" t="s">
+      <c r="V6" s="229" t="s">
         <v>16</v>
       </c>
-      <c r="W6" s="231" t="s">
+      <c r="W6" s="229" t="s">
         <v>23</v>
       </c>
-      <c r="X6" s="231" t="s">
+      <c r="X6" s="229" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="238" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="232"/>
-      <c r="B7" s="233"/>
-      <c r="C7" s="232"/>
-      <c r="D7" s="232"/>
-      <c r="E7" s="232"/>
-      <c r="F7" s="232"/>
-      <c r="G7" s="232"/>
-      <c r="H7" s="232"/>
-      <c r="I7" s="232"/>
-      <c r="J7" s="232"/>
-      <c r="K7" s="232"/>
-      <c r="L7" s="232"/>
-      <c r="M7" s="232"/>
-      <c r="N7" s="234"/>
-      <c r="O7" s="235"/>
-      <c r="P7" s="235"/>
-      <c r="Q7" s="235"/>
-      <c r="R7" s="236"/>
-      <c r="S7" s="232"/>
-      <c r="T7" s="232"/>
-      <c r="U7" s="232"/>
-      <c r="V7" s="232"/>
-      <c r="W7" s="232"/>
-      <c r="X7" s="237"/>
-    </row>
-    <row r="8" spans="1:24" s="238" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="239"/>
-      <c r="B8" s="240"/>
-      <c r="C8" s="241"/>
-      <c r="D8" s="241"/>
-      <c r="E8" s="241"/>
-      <c r="F8" s="242"/>
-      <c r="G8" s="242"/>
-      <c r="H8" s="242"/>
-      <c r="I8" s="242"/>
-      <c r="J8" s="243"/>
-      <c r="K8" s="242"/>
-      <c r="L8" s="244"/>
-      <c r="M8" s="245"/>
-      <c r="N8" s="246"/>
-      <c r="O8" s="235"/>
-      <c r="P8" s="235"/>
-      <c r="Q8" s="235"/>
-      <c r="R8" s="247"/>
-      <c r="S8" s="248"/>
-      <c r="T8" s="248"/>
-      <c r="U8" s="248"/>
-      <c r="V8" s="248"/>
-      <c r="W8" s="248"/>
-      <c r="X8" s="249"/>
-    </row>
-    <row r="9" spans="1:24" s="238" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="239"/>
-      <c r="B9" s="240"/>
-      <c r="C9" s="242"/>
-      <c r="D9" s="242"/>
-      <c r="E9" s="242"/>
-      <c r="F9" s="242"/>
-      <c r="G9" s="242"/>
-      <c r="H9" s="242"/>
-      <c r="I9" s="242"/>
-      <c r="J9" s="242"/>
-      <c r="K9" s="250"/>
-      <c r="L9" s="251"/>
-      <c r="M9" s="245"/>
-      <c r="N9" s="246"/>
-      <c r="O9" s="235"/>
-      <c r="P9" s="235"/>
-      <c r="Q9" s="235"/>
-      <c r="R9" s="247"/>
-      <c r="S9" s="248"/>
-      <c r="T9" s="248"/>
-      <c r="U9" s="248"/>
-      <c r="V9" s="248"/>
-      <c r="W9" s="248"/>
-      <c r="X9" s="249"/>
-    </row>
-    <row r="10" spans="1:24" s="262" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="252"/>
-      <c r="B10" s="253"/>
-      <c r="C10" s="254"/>
-      <c r="D10" s="255"/>
-      <c r="E10" s="255"/>
-      <c r="F10" s="256"/>
-      <c r="G10" s="257"/>
-      <c r="H10" s="257"/>
-      <c r="I10" s="257"/>
-      <c r="J10" s="256"/>
-      <c r="K10" s="258"/>
-      <c r="L10" s="259"/>
-      <c r="M10" s="260"/>
-      <c r="N10" s="261"/>
-      <c r="R10" s="263"/>
-      <c r="S10" s="264"/>
-      <c r="T10" s="264"/>
-      <c r="U10" s="264"/>
-      <c r="V10" s="264"/>
-      <c r="W10" s="264"/>
-      <c r="X10" s="265"/>
-    </row>
-    <row r="11" spans="1:24" s="238" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="266"/>
-      <c r="B11" s="267"/>
+    <row r="7" spans="1:24" s="235" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="492"/>
+      <c r="B7" s="493"/>
+      <c r="C7" s="230"/>
+      <c r="D7" s="230"/>
+      <c r="E7" s="230"/>
+      <c r="F7" s="230"/>
+      <c r="G7" s="230"/>
+      <c r="H7" s="230"/>
+      <c r="I7" s="230"/>
+      <c r="J7" s="230"/>
+      <c r="K7" s="230"/>
+      <c r="L7" s="230"/>
+      <c r="M7" s="230"/>
+      <c r="N7" s="231"/>
+      <c r="O7" s="232"/>
+      <c r="P7" s="232"/>
+      <c r="Q7" s="232"/>
+      <c r="R7" s="233"/>
+      <c r="S7" s="230"/>
+      <c r="T7" s="230"/>
+      <c r="U7" s="230"/>
+      <c r="V7" s="230"/>
+      <c r="W7" s="230"/>
+      <c r="X7" s="234"/>
+    </row>
+    <row r="8" spans="1:24" s="235" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="523"/>
+      <c r="B8" s="494"/>
+      <c r="C8" s="236"/>
+      <c r="D8" s="236"/>
+      <c r="E8" s="236"/>
+      <c r="F8" s="237"/>
+      <c r="G8" s="237"/>
+      <c r="H8" s="237"/>
+      <c r="I8" s="237"/>
+      <c r="J8" s="238"/>
+      <c r="K8" s="237"/>
+      <c r="L8" s="239"/>
+      <c r="M8" s="240"/>
+      <c r="N8" s="241"/>
+      <c r="O8" s="232"/>
+      <c r="P8" s="232"/>
+      <c r="Q8" s="232"/>
+      <c r="R8" s="242"/>
+      <c r="S8" s="243"/>
+      <c r="T8" s="243"/>
+      <c r="U8" s="243"/>
+      <c r="V8" s="243"/>
+      <c r="W8" s="243"/>
+      <c r="X8" s="244"/>
+    </row>
+    <row r="9" spans="1:24" s="235" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="523"/>
+      <c r="B9" s="494"/>
+      <c r="C9" s="237"/>
+      <c r="D9" s="237"/>
+      <c r="E9" s="237"/>
+      <c r="F9" s="237"/>
+      <c r="G9" s="237"/>
+      <c r="H9" s="237"/>
+      <c r="I9" s="237"/>
+      <c r="J9" s="237"/>
+      <c r="K9" s="245"/>
+      <c r="L9" s="246"/>
+      <c r="M9" s="240"/>
+      <c r="N9" s="241"/>
+      <c r="O9" s="232"/>
+      <c r="P9" s="232"/>
+      <c r="Q9" s="232"/>
+      <c r="R9" s="242"/>
+      <c r="S9" s="243"/>
+      <c r="T9" s="243"/>
+      <c r="U9" s="243"/>
+      <c r="V9" s="243"/>
+      <c r="W9" s="243"/>
+      <c r="X9" s="244"/>
+    </row>
+    <row r="10" spans="1:24" s="255" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="524"/>
+      <c r="B10" s="495"/>
+      <c r="C10" s="247"/>
+      <c r="D10" s="248"/>
+      <c r="E10" s="248"/>
+      <c r="F10" s="249"/>
+      <c r="G10" s="250"/>
+      <c r="H10" s="250"/>
+      <c r="I10" s="250"/>
+      <c r="J10" s="249"/>
+      <c r="K10" s="251"/>
+      <c r="L10" s="252"/>
+      <c r="M10" s="253"/>
+      <c r="N10" s="254"/>
+      <c r="R10" s="256"/>
+      <c r="S10" s="257"/>
+      <c r="T10" s="257"/>
+      <c r="U10" s="257"/>
+      <c r="V10" s="257"/>
+      <c r="W10" s="257"/>
+      <c r="X10" s="258"/>
+    </row>
+    <row r="11" spans="1:24" s="235" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="525"/>
+      <c r="B11" s="496"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
-      <c r="F11" s="268"/>
-      <c r="G11" s="268"/>
-      <c r="H11" s="268"/>
-      <c r="I11" s="268"/>
-      <c r="J11" s="268"/>
-      <c r="K11" s="268"/>
+      <c r="F11" s="259"/>
+      <c r="G11" s="259"/>
+      <c r="H11" s="259"/>
+      <c r="I11" s="259"/>
+      <c r="J11" s="259"/>
+      <c r="K11" s="259"/>
       <c r="L11" s="31"/>
-      <c r="M11" s="269"/>
-      <c r="N11" s="270"/>
-      <c r="R11" s="271"/>
-      <c r="S11" s="272"/>
-      <c r="T11" s="272"/>
-      <c r="U11" s="272"/>
-      <c r="V11" s="272"/>
-      <c r="W11" s="272"/>
-      <c r="X11" s="273"/>
-    </row>
-    <row r="12" spans="1:24" s="238" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="232"/>
-      <c r="B12" s="232"/>
-      <c r="C12" s="232"/>
-      <c r="D12" s="232"/>
-      <c r="E12" s="232"/>
-      <c r="F12" s="232"/>
-      <c r="G12" s="232"/>
-      <c r="H12" s="232"/>
-      <c r="I12" s="232"/>
-      <c r="J12" s="232"/>
-      <c r="K12" s="232"/>
-      <c r="L12" s="232"/>
-      <c r="M12" s="232"/>
-      <c r="N12" s="232"/>
-      <c r="R12" s="271"/>
-      <c r="S12" s="272"/>
-      <c r="T12" s="272"/>
-      <c r="U12" s="272"/>
-      <c r="V12" s="272"/>
-      <c r="W12" s="272"/>
-      <c r="X12" s="273"/>
-    </row>
-    <row r="13" spans="1:24" s="238" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="274"/>
-      <c r="B13" s="275"/>
-      <c r="C13" s="276"/>
-      <c r="D13" s="276"/>
-      <c r="E13" s="276"/>
-      <c r="F13" s="243"/>
-      <c r="G13" s="243"/>
-      <c r="H13" s="243"/>
-      <c r="I13" s="243"/>
-      <c r="J13" s="243"/>
-      <c r="K13" s="277"/>
+      <c r="M11" s="260"/>
+      <c r="N11" s="261"/>
+      <c r="R11" s="262"/>
+      <c r="S11" s="263"/>
+      <c r="T11" s="263"/>
+      <c r="U11" s="263"/>
+      <c r="V11" s="263"/>
+      <c r="W11" s="263"/>
+      <c r="X11" s="264"/>
+    </row>
+    <row r="12" spans="1:24" s="235" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="492"/>
+      <c r="B12" s="497"/>
+      <c r="C12" s="230"/>
+      <c r="D12" s="230"/>
+      <c r="E12" s="230"/>
+      <c r="F12" s="230"/>
+      <c r="G12" s="230"/>
+      <c r="H12" s="230"/>
+      <c r="I12" s="230"/>
+      <c r="J12" s="230"/>
+      <c r="K12" s="230"/>
+      <c r="L12" s="230"/>
+      <c r="M12" s="230"/>
+      <c r="N12" s="230"/>
+      <c r="R12" s="262"/>
+      <c r="S12" s="263"/>
+      <c r="T12" s="263"/>
+      <c r="U12" s="263"/>
+      <c r="V12" s="263"/>
+      <c r="W12" s="263"/>
+      <c r="X12" s="264"/>
+    </row>
+    <row r="13" spans="1:24" s="235" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="526"/>
+      <c r="B13" s="498"/>
+      <c r="C13" s="265"/>
+      <c r="D13" s="265"/>
+      <c r="E13" s="265"/>
+      <c r="F13" s="238"/>
+      <c r="G13" s="238"/>
+      <c r="H13" s="238"/>
+      <c r="I13" s="238"/>
+      <c r="J13" s="238"/>
+      <c r="K13" s="266"/>
       <c r="L13" s="14"/>
-      <c r="M13" s="278"/>
-      <c r="N13" s="279"/>
-      <c r="R13" s="280"/>
-      <c r="S13" s="281"/>
-      <c r="T13" s="281"/>
-      <c r="U13" s="281"/>
-      <c r="V13" s="281"/>
-      <c r="W13" s="281"/>
-      <c r="X13" s="282"/>
-    </row>
-    <row r="14" spans="1:24" s="238" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="232"/>
-      <c r="B14" s="232"/>
-      <c r="C14" s="232"/>
-      <c r="D14" s="232"/>
-      <c r="E14" s="232"/>
-      <c r="F14" s="232"/>
-      <c r="G14" s="232"/>
-      <c r="H14" s="232"/>
-      <c r="I14" s="232"/>
-      <c r="J14" s="232"/>
-      <c r="K14" s="232"/>
-      <c r="L14" s="232"/>
-      <c r="M14" s="232"/>
-      <c r="N14" s="232"/>
-      <c r="R14" s="280"/>
-      <c r="S14" s="281"/>
-      <c r="T14" s="281"/>
-      <c r="U14" s="281"/>
-      <c r="V14" s="281"/>
-      <c r="W14" s="281"/>
-      <c r="X14" s="282"/>
-    </row>
-    <row r="15" spans="1:24" s="262" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="239"/>
-      <c r="B15" s="116"/>
+      <c r="M13" s="267"/>
+      <c r="N13" s="268"/>
+      <c r="R13" s="269"/>
+      <c r="S13" s="270"/>
+      <c r="T13" s="270"/>
+      <c r="U13" s="270"/>
+      <c r="V13" s="270"/>
+      <c r="W13" s="270"/>
+      <c r="X13" s="271"/>
+    </row>
+    <row r="14" spans="1:24" s="235" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="492"/>
+      <c r="B14" s="497"/>
+      <c r="C14" s="230"/>
+      <c r="D14" s="230"/>
+      <c r="E14" s="230"/>
+      <c r="F14" s="230"/>
+      <c r="G14" s="230"/>
+      <c r="H14" s="230"/>
+      <c r="I14" s="230"/>
+      <c r="J14" s="230"/>
+      <c r="K14" s="230"/>
+      <c r="L14" s="230"/>
+      <c r="M14" s="230"/>
+      <c r="N14" s="230"/>
+      <c r="R14" s="269"/>
+      <c r="S14" s="270"/>
+      <c r="T14" s="270"/>
+      <c r="U14" s="270"/>
+      <c r="V14" s="270"/>
+      <c r="W14" s="270"/>
+      <c r="X14" s="271"/>
+    </row>
+    <row r="15" spans="1:24" s="255" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="523"/>
+      <c r="B15" s="499"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
-      <c r="F15" s="268"/>
-      <c r="G15" s="243"/>
+      <c r="F15" s="259"/>
+      <c r="G15" s="238"/>
       <c r="H15" s="116"/>
-      <c r="I15" s="268"/>
-      <c r="J15" s="268"/>
-      <c r="K15" s="268"/>
+      <c r="I15" s="259"/>
+      <c r="J15" s="259"/>
+      <c r="K15" s="259"/>
       <c r="L15" s="12"/>
       <c r="M15" s="116"/>
-      <c r="N15" s="283"/>
-      <c r="R15" s="284"/>
-      <c r="S15" s="285"/>
-      <c r="T15" s="285"/>
-      <c r="U15" s="285"/>
-      <c r="V15" s="285"/>
-      <c r="W15" s="285"/>
-      <c r="X15" s="286"/>
-    </row>
-    <row r="16" spans="1:24" s="291" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="287"/>
-      <c r="B16" s="275"/>
-      <c r="C16" s="276"/>
-      <c r="D16" s="288"/>
-      <c r="E16" s="243"/>
-      <c r="F16" s="243"/>
-      <c r="G16" s="289"/>
-      <c r="H16" s="288"/>
-      <c r="I16" s="276"/>
-      <c r="J16" s="243"/>
-      <c r="K16" s="277"/>
+      <c r="N15" s="272"/>
+      <c r="R15" s="273"/>
+      <c r="S15" s="274"/>
+      <c r="T15" s="274"/>
+      <c r="U15" s="274"/>
+      <c r="V15" s="274"/>
+      <c r="W15" s="274"/>
+      <c r="X15" s="275"/>
+    </row>
+    <row r="16" spans="1:24" s="279" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="527"/>
+      <c r="B16" s="498"/>
+      <c r="C16" s="265"/>
+      <c r="D16" s="276"/>
+      <c r="E16" s="238"/>
+      <c r="F16" s="238"/>
+      <c r="G16" s="277"/>
+      <c r="H16" s="276"/>
+      <c r="I16" s="265"/>
+      <c r="J16" s="238"/>
+      <c r="K16" s="266"/>
       <c r="L16" s="14"/>
-      <c r="M16" s="290"/>
-      <c r="N16" s="261"/>
-      <c r="R16" s="292"/>
-      <c r="S16" s="293"/>
-      <c r="T16" s="293"/>
-      <c r="U16" s="293"/>
-      <c r="V16" s="293"/>
-      <c r="W16" s="293"/>
-      <c r="X16" s="294"/>
+      <c r="M16" s="278"/>
+      <c r="N16" s="254"/>
+      <c r="R16" s="280"/>
+      <c r="S16" s="281"/>
+      <c r="T16" s="281"/>
+      <c r="U16" s="281"/>
+      <c r="V16" s="281"/>
+      <c r="W16" s="281"/>
+      <c r="X16" s="282"/>
     </row>
     <row r="17" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="295"/>
-      <c r="B17" s="232"/>
-      <c r="C17" s="232"/>
-      <c r="D17" s="232"/>
-      <c r="E17" s="232"/>
-      <c r="F17" s="232"/>
-      <c r="G17" s="232"/>
-      <c r="H17" s="232"/>
-      <c r="I17" s="232"/>
-      <c r="J17" s="232"/>
-      <c r="K17" s="232"/>
-      <c r="L17" s="232"/>
-      <c r="M17" s="232"/>
-      <c r="N17" s="232"/>
-      <c r="R17" s="296"/>
-      <c r="S17" s="297"/>
-      <c r="T17" s="297"/>
-      <c r="U17" s="297"/>
-      <c r="V17" s="297"/>
-      <c r="W17" s="297"/>
-      <c r="X17" s="298"/>
-    </row>
-    <row r="18" spans="1:24" s="305" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="274"/>
-      <c r="B18" s="275"/>
-      <c r="C18" s="299"/>
-      <c r="D18" s="300"/>
-      <c r="E18" s="276"/>
-      <c r="F18" s="243"/>
-      <c r="G18" s="243"/>
-      <c r="H18" s="301"/>
-      <c r="I18" s="243"/>
-      <c r="J18" s="243"/>
-      <c r="K18" s="243"/>
-      <c r="L18" s="302"/>
-      <c r="M18" s="303"/>
-      <c r="N18" s="304"/>
-      <c r="R18" s="306"/>
-      <c r="S18" s="307"/>
-      <c r="T18" s="307"/>
-      <c r="U18" s="307"/>
-      <c r="V18" s="307"/>
-      <c r="W18" s="307"/>
-      <c r="X18" s="308"/>
+      <c r="A17" s="528"/>
+      <c r="B17" s="497"/>
+      <c r="C17" s="230"/>
+      <c r="D17" s="230"/>
+      <c r="E17" s="230"/>
+      <c r="F17" s="230"/>
+      <c r="G17" s="230"/>
+      <c r="H17" s="230"/>
+      <c r="I17" s="230"/>
+      <c r="J17" s="230"/>
+      <c r="K17" s="230"/>
+      <c r="L17" s="230"/>
+      <c r="M17" s="230"/>
+      <c r="N17" s="230"/>
+      <c r="R17" s="283"/>
+      <c r="S17" s="284"/>
+      <c r="T17" s="284"/>
+      <c r="U17" s="284"/>
+      <c r="V17" s="284"/>
+      <c r="W17" s="284"/>
+      <c r="X17" s="285"/>
+    </row>
+    <row r="18" spans="1:24" s="292" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="526"/>
+      <c r="B18" s="498"/>
+      <c r="C18" s="286"/>
+      <c r="D18" s="287"/>
+      <c r="E18" s="265"/>
+      <c r="F18" s="238"/>
+      <c r="G18" s="238"/>
+      <c r="H18" s="288"/>
+      <c r="I18" s="238"/>
+      <c r="J18" s="238"/>
+      <c r="K18" s="238"/>
+      <c r="L18" s="289"/>
+      <c r="M18" s="290"/>
+      <c r="N18" s="291"/>
+      <c r="R18" s="293"/>
+      <c r="S18" s="294"/>
+      <c r="T18" s="294"/>
+      <c r="U18" s="294"/>
+      <c r="V18" s="294"/>
+      <c r="W18" s="294"/>
+      <c r="X18" s="295"/>
     </row>
     <row r="19" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="239"/>
-      <c r="B19" s="240"/>
-      <c r="C19" s="309"/>
-      <c r="D19" s="241"/>
-      <c r="E19" s="241"/>
-      <c r="F19" s="242"/>
-      <c r="G19" s="310"/>
-      <c r="H19" s="242"/>
-      <c r="I19" s="242"/>
-      <c r="J19" s="242"/>
-      <c r="K19" s="250"/>
-      <c r="L19" s="244"/>
-      <c r="M19" s="311"/>
-      <c r="N19" s="312"/>
-      <c r="R19" s="296"/>
-      <c r="S19" s="297"/>
-      <c r="T19" s="297"/>
-      <c r="U19" s="297"/>
-      <c r="V19" s="297"/>
-      <c r="W19" s="297"/>
-      <c r="X19" s="298"/>
+      <c r="A19" s="523"/>
+      <c r="B19" s="494"/>
+      <c r="C19" s="296"/>
+      <c r="D19" s="236"/>
+      <c r="E19" s="236"/>
+      <c r="F19" s="237"/>
+      <c r="G19" s="297"/>
+      <c r="H19" s="237"/>
+      <c r="I19" s="237"/>
+      <c r="J19" s="237"/>
+      <c r="K19" s="245"/>
+      <c r="L19" s="239"/>
+      <c r="M19" s="298"/>
+      <c r="N19" s="299"/>
+      <c r="R19" s="283"/>
+      <c r="S19" s="284"/>
+      <c r="T19" s="284"/>
+      <c r="U19" s="284"/>
+      <c r="V19" s="284"/>
+      <c r="W19" s="284"/>
+      <c r="X19" s="285"/>
     </row>
     <row r="20" spans="1:24" s="105" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="266"/>
-      <c r="B20" s="268"/>
+      <c r="A20" s="525"/>
+      <c r="B20" s="500"/>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
-      <c r="F20" s="268"/>
-      <c r="G20" s="268"/>
-      <c r="H20" s="268"/>
-      <c r="I20" s="268"/>
-      <c r="J20" s="268"/>
-      <c r="K20" s="268"/>
+      <c r="F20" s="259"/>
+      <c r="G20" s="259"/>
+      <c r="H20" s="259"/>
+      <c r="I20" s="259"/>
+      <c r="J20" s="259"/>
+      <c r="K20" s="259"/>
       <c r="L20" s="31"/>
-      <c r="M20" s="268"/>
-      <c r="N20" s="270"/>
-      <c r="R20" s="313"/>
+      <c r="M20" s="259"/>
+      <c r="N20" s="261"/>
+      <c r="R20" s="300"/>
       <c r="S20" s="91"/>
       <c r="T20" s="91"/>
       <c r="U20" s="91"/>
       <c r="V20" s="91"/>
       <c r="W20" s="91"/>
-      <c r="X20" s="314"/>
+      <c r="X20" s="301"/>
     </row>
     <row r="21" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="315"/>
-      <c r="B21" s="269"/>
-      <c r="C21" s="269"/>
-      <c r="D21" s="269"/>
-      <c r="E21" s="269"/>
-      <c r="F21" s="269"/>
-      <c r="G21" s="269"/>
-      <c r="H21" s="269"/>
-      <c r="I21" s="269"/>
-      <c r="J21" s="269"/>
-      <c r="K21" s="269"/>
-      <c r="L21" s="316"/>
-      <c r="M21" s="269"/>
-      <c r="N21" s="269"/>
-      <c r="R21" s="296"/>
-      <c r="S21" s="297"/>
-      <c r="T21" s="297"/>
-      <c r="U21" s="297"/>
-      <c r="V21" s="297"/>
-      <c r="W21" s="297"/>
-      <c r="X21" s="298"/>
+      <c r="A21" s="529"/>
+      <c r="B21" s="500"/>
+      <c r="C21" s="260"/>
+      <c r="D21" s="260"/>
+      <c r="E21" s="260"/>
+      <c r="F21" s="260"/>
+      <c r="G21" s="260"/>
+      <c r="H21" s="260"/>
+      <c r="I21" s="260"/>
+      <c r="J21" s="260"/>
+      <c r="K21" s="260"/>
+      <c r="L21" s="302"/>
+      <c r="M21" s="260"/>
+      <c r="N21" s="260"/>
+      <c r="R21" s="283"/>
+      <c r="S21" s="284"/>
+      <c r="T21" s="284"/>
+      <c r="U21" s="284"/>
+      <c r="V21" s="284"/>
+      <c r="W21" s="284"/>
+      <c r="X21" s="285"/>
     </row>
     <row r="22" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="315"/>
-      <c r="B22" s="317"/>
-      <c r="C22" s="318"/>
-      <c r="D22" s="318"/>
-      <c r="E22" s="318"/>
-      <c r="F22" s="318"/>
-      <c r="G22" s="318"/>
-      <c r="H22" s="318"/>
-      <c r="I22" s="318"/>
-      <c r="J22" s="318"/>
-      <c r="K22" s="269"/>
-      <c r="L22" s="316"/>
-      <c r="M22" s="269"/>
-      <c r="N22" s="318"/>
-      <c r="R22" s="296"/>
-      <c r="S22" s="297"/>
-      <c r="T22" s="297"/>
-      <c r="U22" s="297"/>
-      <c r="V22" s="297"/>
-      <c r="W22" s="297"/>
-      <c r="X22" s="298"/>
+      <c r="A22" s="529"/>
+      <c r="B22" s="501"/>
+      <c r="C22" s="303"/>
+      <c r="D22" s="303"/>
+      <c r="E22" s="303"/>
+      <c r="F22" s="303"/>
+      <c r="G22" s="303"/>
+      <c r="H22" s="303"/>
+      <c r="I22" s="303"/>
+      <c r="J22" s="303"/>
+      <c r="K22" s="260"/>
+      <c r="L22" s="302"/>
+      <c r="M22" s="260"/>
+      <c r="N22" s="303"/>
+      <c r="R22" s="283"/>
+      <c r="S22" s="284"/>
+      <c r="T22" s="284"/>
+      <c r="U22" s="284"/>
+      <c r="V22" s="284"/>
+      <c r="W22" s="284"/>
+      <c r="X22" s="285"/>
     </row>
     <row r="23" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="315"/>
-      <c r="B23" s="317"/>
-      <c r="C23" s="318"/>
-      <c r="D23" s="318"/>
-      <c r="E23" s="318"/>
-      <c r="F23" s="318"/>
-      <c r="G23" s="318"/>
-      <c r="H23" s="318"/>
-      <c r="I23" s="318"/>
-      <c r="J23" s="318"/>
-      <c r="K23" s="269"/>
-      <c r="L23" s="316"/>
-      <c r="M23" s="269"/>
-      <c r="N23" s="318"/>
-      <c r="R23" s="296"/>
-      <c r="S23" s="297"/>
-      <c r="T23" s="297"/>
-      <c r="U23" s="297"/>
-      <c r="V23" s="297"/>
-      <c r="W23" s="297"/>
-      <c r="X23" s="298"/>
+      <c r="A23" s="529"/>
+      <c r="B23" s="501"/>
+      <c r="C23" s="303"/>
+      <c r="D23" s="303"/>
+      <c r="E23" s="303"/>
+      <c r="F23" s="303"/>
+      <c r="G23" s="303"/>
+      <c r="H23" s="303"/>
+      <c r="I23" s="303"/>
+      <c r="J23" s="303"/>
+      <c r="K23" s="260"/>
+      <c r="L23" s="302"/>
+      <c r="M23" s="260"/>
+      <c r="N23" s="303"/>
+      <c r="R23" s="283"/>
+      <c r="S23" s="284"/>
+      <c r="T23" s="284"/>
+      <c r="U23" s="284"/>
+      <c r="V23" s="284"/>
+      <c r="W23" s="284"/>
+      <c r="X23" s="285"/>
     </row>
     <row r="24" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="315"/>
-      <c r="B24" s="317"/>
-      <c r="C24" s="318"/>
-      <c r="D24" s="318"/>
-      <c r="E24" s="318"/>
-      <c r="F24" s="318"/>
-      <c r="G24" s="318"/>
-      <c r="H24" s="318"/>
-      <c r="I24" s="318"/>
-      <c r="J24" s="318"/>
-      <c r="K24" s="269"/>
-      <c r="L24" s="316"/>
-      <c r="M24" s="269"/>
-      <c r="N24" s="318"/>
-      <c r="R24" s="296"/>
-      <c r="S24" s="297"/>
-      <c r="T24" s="297"/>
-      <c r="U24" s="297"/>
-      <c r="V24" s="297"/>
-      <c r="W24" s="297"/>
-      <c r="X24" s="298"/>
+      <c r="A24" s="529"/>
+      <c r="B24" s="501"/>
+      <c r="C24" s="303"/>
+      <c r="D24" s="303"/>
+      <c r="E24" s="303"/>
+      <c r="F24" s="303"/>
+      <c r="G24" s="303"/>
+      <c r="H24" s="303"/>
+      <c r="I24" s="303"/>
+      <c r="J24" s="303"/>
+      <c r="K24" s="260"/>
+      <c r="L24" s="302"/>
+      <c r="M24" s="260"/>
+      <c r="N24" s="303"/>
+      <c r="R24" s="283"/>
+      <c r="S24" s="284"/>
+      <c r="T24" s="284"/>
+      <c r="U24" s="284"/>
+      <c r="V24" s="284"/>
+      <c r="W24" s="284"/>
+      <c r="X24" s="285"/>
     </row>
     <row r="25" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="315"/>
-      <c r="B25" s="317"/>
-      <c r="C25" s="318"/>
-      <c r="D25" s="318"/>
-      <c r="E25" s="318"/>
-      <c r="F25" s="318"/>
-      <c r="G25" s="318"/>
-      <c r="H25" s="318"/>
-      <c r="I25" s="318"/>
-      <c r="J25" s="318"/>
-      <c r="K25" s="269"/>
-      <c r="L25" s="316"/>
-      <c r="M25" s="269"/>
-      <c r="N25" s="318"/>
-      <c r="R25" s="296"/>
-      <c r="S25" s="297"/>
-      <c r="T25" s="297"/>
-      <c r="U25" s="297"/>
-      <c r="V25" s="297"/>
-      <c r="W25" s="297"/>
-      <c r="X25" s="298"/>
+      <c r="A25" s="529"/>
+      <c r="B25" s="501"/>
+      <c r="C25" s="303"/>
+      <c r="D25" s="303"/>
+      <c r="E25" s="303"/>
+      <c r="F25" s="303"/>
+      <c r="G25" s="303"/>
+      <c r="H25" s="303"/>
+      <c r="I25" s="303"/>
+      <c r="J25" s="303"/>
+      <c r="K25" s="260"/>
+      <c r="L25" s="302"/>
+      <c r="M25" s="260"/>
+      <c r="N25" s="303"/>
+      <c r="R25" s="283"/>
+      <c r="S25" s="284"/>
+      <c r="T25" s="284"/>
+      <c r="U25" s="284"/>
+      <c r="V25" s="284"/>
+      <c r="W25" s="284"/>
+      <c r="X25" s="285"/>
     </row>
     <row r="26" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="315"/>
-      <c r="B26" s="319"/>
-      <c r="C26" s="320"/>
-      <c r="D26" s="320"/>
-      <c r="E26" s="320"/>
-      <c r="F26" s="320"/>
-      <c r="G26" s="320"/>
-      <c r="H26" s="320"/>
-      <c r="I26" s="320"/>
-      <c r="J26" s="320"/>
-      <c r="K26" s="321"/>
-      <c r="L26" s="321"/>
-      <c r="M26" s="269"/>
-      <c r="N26" s="320"/>
-      <c r="R26" s="296"/>
-      <c r="S26" s="297"/>
-      <c r="T26" s="297"/>
-      <c r="U26" s="297"/>
-      <c r="V26" s="297"/>
-      <c r="W26" s="297"/>
-      <c r="X26" s="298"/>
+      <c r="A26" s="529"/>
+      <c r="B26" s="502"/>
+      <c r="C26" s="304"/>
+      <c r="D26" s="304"/>
+      <c r="E26" s="304"/>
+      <c r="F26" s="304"/>
+      <c r="G26" s="304"/>
+      <c r="H26" s="304"/>
+      <c r="I26" s="304"/>
+      <c r="J26" s="304"/>
+      <c r="K26" s="305"/>
+      <c r="L26" s="305"/>
+      <c r="M26" s="260"/>
+      <c r="N26" s="304"/>
+      <c r="R26" s="283"/>
+      <c r="S26" s="284"/>
+      <c r="T26" s="284"/>
+      <c r="U26" s="284"/>
+      <c r="V26" s="284"/>
+      <c r="W26" s="284"/>
+      <c r="X26" s="285"/>
     </row>
     <row r="27" spans="1:24" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="315"/>
-      <c r="B27" s="269"/>
-      <c r="C27" s="269"/>
-      <c r="D27" s="269"/>
-      <c r="E27" s="269"/>
-      <c r="F27" s="269"/>
-      <c r="G27" s="269"/>
-      <c r="H27" s="269"/>
-      <c r="I27" s="269"/>
-      <c r="J27" s="269"/>
-      <c r="K27" s="269"/>
-      <c r="L27" s="269"/>
-      <c r="M27" s="269"/>
-      <c r="N27" s="269"/>
-      <c r="R27" s="322"/>
-      <c r="S27" s="323"/>
-      <c r="T27" s="323"/>
-      <c r="U27" s="323"/>
-      <c r="V27" s="323"/>
-      <c r="W27" s="323"/>
-      <c r="X27" s="324"/>
+      <c r="A27" s="529"/>
+      <c r="B27" s="500"/>
+      <c r="C27" s="260"/>
+      <c r="D27" s="260"/>
+      <c r="E27" s="260"/>
+      <c r="F27" s="260"/>
+      <c r="G27" s="260"/>
+      <c r="H27" s="260"/>
+      <c r="I27" s="260"/>
+      <c r="J27" s="260"/>
+      <c r="K27" s="260"/>
+      <c r="L27" s="260"/>
+      <c r="M27" s="260"/>
+      <c r="N27" s="260"/>
+      <c r="R27" s="306"/>
+      <c r="S27" s="307"/>
+      <c r="T27" s="307"/>
+      <c r="U27" s="307"/>
+      <c r="V27" s="307"/>
+      <c r="W27" s="307"/>
+      <c r="X27" s="308"/>
     </row>
     <row r="28" spans="1:24" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="325"/>
-      <c r="B28" s="326"/>
-      <c r="C28" s="325"/>
-      <c r="D28" s="325"/>
-      <c r="E28" s="325"/>
-      <c r="F28" s="325"/>
-      <c r="G28" s="327"/>
-      <c r="H28" s="327"/>
-      <c r="I28" s="327"/>
-      <c r="J28" s="327"/>
-      <c r="K28" s="327"/>
-      <c r="L28" s="328"/>
-      <c r="M28" s="329"/>
-      <c r="N28" s="327"/>
+      <c r="A28" s="309"/>
+      <c r="B28" s="310"/>
+      <c r="C28" s="309"/>
+      <c r="D28" s="309"/>
+      <c r="E28" s="309"/>
+      <c r="F28" s="309"/>
+      <c r="G28" s="311"/>
+      <c r="H28" s="311"/>
+      <c r="I28" s="311"/>
+      <c r="J28" s="311"/>
+      <c r="K28" s="311"/>
+      <c r="L28" s="312"/>
+      <c r="M28" s="313"/>
+      <c r="N28" s="311"/>
     </row>
     <row r="29" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="330" t="s">
+      <c r="A29" s="314" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="192">
+      <c r="B29" s="190">
         <f>COUNTA(B7:B27)</f>
         <v>0</v>
       </c>
-      <c r="C29" s="309"/>
-      <c r="D29" s="309"/>
-      <c r="E29" s="309"/>
-      <c r="F29" s="331"/>
-      <c r="G29" s="309"/>
-      <c r="H29" s="332"/>
-      <c r="I29" s="331"/>
-      <c r="J29" s="331"/>
-      <c r="K29" s="333"/>
-      <c r="L29" s="334"/>
-      <c r="M29" s="331"/>
-      <c r="N29" s="331"/>
+      <c r="C29" s="296"/>
+      <c r="D29" s="296"/>
+      <c r="E29" s="296"/>
+      <c r="F29" s="315"/>
+      <c r="G29" s="296"/>
+      <c r="H29" s="316"/>
+      <c r="I29" s="315"/>
+      <c r="J29" s="315"/>
+      <c r="K29" s="317"/>
+      <c r="L29" s="318"/>
+      <c r="M29" s="315"/>
+      <c r="N29" s="315"/>
     </row>
     <row r="30" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="335"/>
-      <c r="B30" s="331"/>
-      <c r="C30" s="335"/>
-      <c r="D30" s="336"/>
-      <c r="E30" s="335"/>
-      <c r="F30" s="335"/>
-      <c r="G30" s="337"/>
-      <c r="H30" s="336"/>
-      <c r="I30" s="335"/>
-      <c r="J30" s="335"/>
-      <c r="K30" s="337"/>
-      <c r="L30" s="338"/>
+      <c r="A30" s="319"/>
+      <c r="B30" s="315"/>
+      <c r="C30" s="319"/>
+      <c r="D30" s="320"/>
+      <c r="E30" s="319"/>
+      <c r="F30" s="319"/>
+      <c r="G30" s="321"/>
+      <c r="H30" s="320"/>
+      <c r="I30" s="319"/>
+      <c r="J30" s="319"/>
+      <c r="K30" s="321"/>
+      <c r="L30" s="322"/>
       <c r="M30" s="17"/>
-      <c r="N30" s="335"/>
+      <c r="N30" s="319"/>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H34" s="224" t="s">
+      <c r="H34" s="222" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="A2:C4"/>
     <mergeCell ref="M2:N4"/>
     <mergeCell ref="R5:X5"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="D3:L3"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.8"/>
@@ -6913,107 +6940,107 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="472"/>
-      <c r="B2" s="472"/>
-      <c r="C2" s="472"/>
-      <c r="D2" s="472"/>
-      <c r="E2" s="472"/>
-      <c r="F2" s="472"/>
-      <c r="G2" s="472"/>
-      <c r="H2" s="472"/>
-      <c r="I2" s="472"/>
-      <c r="J2" s="472"/>
-      <c r="K2" s="472"/>
-      <c r="L2" s="472"/>
-      <c r="M2" s="472"/>
-      <c r="N2" s="472"/>
+      <c r="A2" s="517"/>
+      <c r="B2" s="517"/>
+      <c r="C2" s="517"/>
+      <c r="D2" s="517"/>
+      <c r="E2" s="517"/>
+      <c r="F2" s="517"/>
+      <c r="G2" s="517"/>
+      <c r="H2" s="517"/>
+      <c r="I2" s="517"/>
+      <c r="J2" s="517"/>
+      <c r="K2" s="517"/>
+      <c r="L2" s="517"/>
+      <c r="M2" s="517"/>
+      <c r="N2" s="517"/>
     </row>
     <row r="3" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="472"/>
-      <c r="B3" s="472"/>
-      <c r="C3" s="472"/>
-      <c r="D3" s="475" t="s">
+      <c r="A3" s="517"/>
+      <c r="B3" s="517"/>
+      <c r="C3" s="517"/>
+      <c r="D3" s="519" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="475"/>
-      <c r="F3" s="475"/>
-      <c r="G3" s="475"/>
-      <c r="H3" s="475"/>
-      <c r="I3" s="475"/>
-      <c r="J3" s="475"/>
-      <c r="K3" s="475"/>
-      <c r="L3" s="475"/>
-      <c r="M3" s="472"/>
-      <c r="N3" s="472"/>
+      <c r="E3" s="519"/>
+      <c r="F3" s="519"/>
+      <c r="G3" s="519"/>
+      <c r="H3" s="519"/>
+      <c r="I3" s="519"/>
+      <c r="J3" s="519"/>
+      <c r="K3" s="519"/>
+      <c r="L3" s="519"/>
+      <c r="M3" s="517"/>
+      <c r="N3" s="517"/>
     </row>
     <row r="4" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="472"/>
-      <c r="B4" s="472"/>
-      <c r="C4" s="472"/>
-      <c r="D4" s="472"/>
-      <c r="E4" s="472"/>
-      <c r="F4" s="472"/>
-      <c r="G4" s="472"/>
-      <c r="H4" s="472"/>
-      <c r="I4" s="472"/>
-      <c r="J4" s="472"/>
-      <c r="K4" s="472"/>
-      <c r="L4" s="472"/>
-      <c r="M4" s="472"/>
-      <c r="N4" s="472"/>
+      <c r="A4" s="517"/>
+      <c r="B4" s="517"/>
+      <c r="C4" s="517"/>
+      <c r="D4" s="517"/>
+      <c r="E4" s="517"/>
+      <c r="F4" s="517"/>
+      <c r="G4" s="517"/>
+      <c r="H4" s="517"/>
+      <c r="I4" s="517"/>
+      <c r="J4" s="517"/>
+      <c r="K4" s="517"/>
+      <c r="L4" s="517"/>
+      <c r="M4" s="517"/>
+      <c r="N4" s="517"/>
     </row>
     <row r="5" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="R5" s="474" t="s">
+      <c r="R5" s="518" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="474"/>
-      <c r="T5" s="474"/>
-      <c r="U5" s="474"/>
-      <c r="V5" s="474"/>
-      <c r="W5" s="474"/>
-      <c r="X5" s="474"/>
+      <c r="S5" s="518"/>
+      <c r="T5" s="518"/>
+      <c r="U5" s="518"/>
+      <c r="V5" s="518"/>
+      <c r="W5" s="518"/>
+      <c r="X5" s="518"/>
     </row>
     <row r="6" spans="1:24" s="2" customFormat="1" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="221" t="s">
+      <c r="A6" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="221" t="s">
+      <c r="B6" s="219" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="221" t="s">
+      <c r="C6" s="219" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="221" t="s">
+      <c r="D6" s="219" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="221" t="s">
+      <c r="E6" s="219" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="221" t="s">
+      <c r="F6" s="219" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="221" t="s">
+      <c r="G6" s="219" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="221" t="s">
+      <c r="H6" s="219" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="221" t="s">
+      <c r="I6" s="219" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="221" t="s">
+      <c r="J6" s="219" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="221" t="s">
+      <c r="K6" s="219" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="222" t="s">
+      <c r="L6" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="221" t="s">
+      <c r="M6" s="219" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="223" t="s">
+      <c r="N6" s="221" t="s">
         <v>22</v>
       </c>
       <c r="Q6" s="2" t="s">
@@ -7042,20 +7069,20 @@
       </c>
     </row>
     <row r="7" spans="1:24" s="160" customFormat="1" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="218"/>
-      <c r="B7" s="219"/>
-      <c r="C7" s="220"/>
-      <c r="D7" s="220"/>
-      <c r="E7" s="220"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="219"/>
-      <c r="I7" s="219"/>
-      <c r="J7" s="219"/>
-      <c r="K7" s="219"/>
-      <c r="L7" s="218"/>
-      <c r="M7" s="219"/>
-      <c r="N7" s="219"/>
+      <c r="A7" s="216"/>
+      <c r="B7" s="217"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="218"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="217"/>
+      <c r="G7" s="217"/>
+      <c r="H7" s="217"/>
+      <c r="I7" s="217"/>
+      <c r="J7" s="217"/>
+      <c r="K7" s="217"/>
+      <c r="L7" s="216"/>
+      <c r="M7" s="217"/>
+      <c r="N7" s="217"/>
       <c r="R7" s="29"/>
       <c r="S7" s="167"/>
       <c r="T7" s="29"/>
@@ -7755,7 +7782,7 @@
       <c r="X37" s="55"/>
     </row>
     <row r="38" spans="1:25" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="178"/>
+      <c r="A38" s="177"/>
       <c r="B38" s="61"/>
       <c r="C38" s="61"/>
       <c r="D38" s="61"/>
@@ -7763,7 +7790,7 @@
       <c r="F38" s="61"/>
       <c r="G38" s="61"/>
       <c r="H38" s="61"/>
-      <c r="I38" s="179"/>
+      <c r="I38" s="178"/>
       <c r="J38" s="61"/>
       <c r="K38" s="61"/>
       <c r="L38" s="61"/>
@@ -7779,23 +7806,23 @@
       <c r="Y38" s="100"/>
     </row>
     <row r="39" spans="1:25" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="180"/>
-      <c r="B39" s="181"/>
-      <c r="C39" s="180"/>
-      <c r="D39" s="182"/>
-      <c r="E39" s="182"/>
-      <c r="F39" s="182"/>
-      <c r="G39" s="182"/>
-      <c r="H39" s="183"/>
-      <c r="I39" s="183"/>
-      <c r="J39" s="183"/>
-      <c r="K39" s="183"/>
-      <c r="L39" s="180"/>
-      <c r="M39" s="183"/>
-      <c r="N39" s="183"/>
+      <c r="A39" s="179"/>
+      <c r="B39" s="180"/>
+      <c r="C39" s="179"/>
+      <c r="D39" s="181"/>
+      <c r="E39" s="181"/>
+      <c r="F39" s="181"/>
+      <c r="G39" s="181"/>
+      <c r="H39" s="182"/>
+      <c r="I39" s="182"/>
+      <c r="J39" s="182"/>
+      <c r="K39" s="182"/>
+      <c r="L39" s="179"/>
+      <c r="M39" s="182"/>
+      <c r="N39" s="182"/>
     </row>
     <row r="40" spans="1:25" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="185" t="s">
+      <c r="A40" s="183" t="s">
         <v>17</v>
       </c>
       <c r="B40" s="23">
@@ -7836,8 +7863,8 @@
   </sheetPr>
   <dimension ref="A2:R41"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A4" zoomScale="80" zoomScaleNormal="90" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView view="pageLayout" zoomScale="80" zoomScaleNormal="90" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7857,51 +7884,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="472"/>
-      <c r="B2" s="472"/>
-      <c r="C2" s="472"/>
-      <c r="D2" s="473"/>
-      <c r="E2" s="473"/>
-      <c r="F2" s="473"/>
-      <c r="G2" s="473"/>
-      <c r="H2" s="473"/>
-      <c r="I2" s="472"/>
-      <c r="J2" s="472"/>
+      <c r="A2" s="517"/>
+      <c r="B2" s="517"/>
+      <c r="C2" s="517"/>
+      <c r="D2" s="520"/>
+      <c r="E2" s="520"/>
+      <c r="F2" s="520"/>
+      <c r="G2" s="520"/>
+      <c r="H2" s="520"/>
+      <c r="I2" s="517"/>
+      <c r="J2" s="517"/>
     </row>
     <row r="3" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="472"/>
-      <c r="B3" s="472"/>
-      <c r="C3" s="472"/>
-      <c r="D3" s="473" t="s">
+      <c r="A3" s="517"/>
+      <c r="B3" s="517"/>
+      <c r="C3" s="517"/>
+      <c r="D3" s="520" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="473"/>
-      <c r="F3" s="473"/>
-      <c r="G3" s="473"/>
-      <c r="H3" s="473"/>
-      <c r="I3" s="472"/>
-      <c r="J3" s="472"/>
+      <c r="E3" s="520"/>
+      <c r="F3" s="520"/>
+      <c r="G3" s="520"/>
+      <c r="H3" s="520"/>
+      <c r="I3" s="517"/>
+      <c r="J3" s="517"/>
     </row>
     <row r="4" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="472"/>
-      <c r="B4" s="472"/>
-      <c r="C4" s="472"/>
-      <c r="D4" s="473"/>
-      <c r="E4" s="473"/>
-      <c r="F4" s="473"/>
-      <c r="G4" s="473"/>
-      <c r="H4" s="473"/>
-      <c r="I4" s="472"/>
-      <c r="J4" s="472"/>
+      <c r="A4" s="517"/>
+      <c r="B4" s="517"/>
+      <c r="C4" s="517"/>
+      <c r="D4" s="520"/>
+      <c r="E4" s="520"/>
+      <c r="F4" s="520"/>
+      <c r="G4" s="520"/>
+      <c r="H4" s="520"/>
+      <c r="I4" s="517"/>
+      <c r="J4" s="517"/>
     </row>
     <row r="5" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N5" s="472" t="s">
+      <c r="N5" s="517" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="472"/>
-      <c r="P5" s="472"/>
-      <c r="Q5" s="472"/>
-      <c r="R5" s="472"/>
+      <c r="O5" s="517"/>
+      <c r="P5" s="517"/>
+      <c r="Q5" s="517"/>
+      <c r="R5" s="517"/>
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -7937,7 +7964,7 @@
       <c r="M6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="194" t="s">
+      <c r="N6" s="192" t="s">
         <v>12</v>
       </c>
       <c r="O6" s="163" t="s">
@@ -7954,562 +7981,562 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="54" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="391"/>
-      <c r="B7" s="398"/>
-      <c r="C7" s="399"/>
-      <c r="D7" s="400"/>
-      <c r="E7" s="399"/>
-      <c r="F7" s="399"/>
-      <c r="G7" s="400"/>
-      <c r="H7" s="401"/>
-      <c r="I7" s="402"/>
-      <c r="J7" s="399"/>
-      <c r="N7" s="195"/>
+      <c r="A7" s="375"/>
+      <c r="B7" s="503"/>
+      <c r="C7" s="382"/>
+      <c r="D7" s="383"/>
+      <c r="E7" s="382"/>
+      <c r="F7" s="382"/>
+      <c r="G7" s="383"/>
+      <c r="H7" s="384"/>
+      <c r="I7" s="385"/>
+      <c r="J7" s="382"/>
+      <c r="N7" s="193"/>
       <c r="O7" s="46"/>
       <c r="P7" s="48"/>
       <c r="Q7" s="48"/>
-      <c r="R7" s="196"/>
+      <c r="R7" s="194"/>
     </row>
     <row r="8" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="391"/>
-      <c r="B8" s="403"/>
-      <c r="C8" s="404"/>
-      <c r="D8" s="404"/>
-      <c r="E8" s="404"/>
-      <c r="F8" s="405"/>
-      <c r="G8" s="404"/>
-      <c r="H8" s="404"/>
-      <c r="I8" s="404"/>
-      <c r="J8" s="404"/>
-      <c r="N8" s="195"/>
+      <c r="A8" s="375"/>
+      <c r="B8" s="504"/>
+      <c r="C8" s="386"/>
+      <c r="D8" s="386"/>
+      <c r="E8" s="386"/>
+      <c r="F8" s="387"/>
+      <c r="G8" s="386"/>
+      <c r="H8" s="386"/>
+      <c r="I8" s="386"/>
+      <c r="J8" s="386"/>
+      <c r="N8" s="193"/>
       <c r="O8" s="46"/>
       <c r="P8" s="47"/>
       <c r="Q8" s="47"/>
-      <c r="R8" s="197"/>
+      <c r="R8" s="195"/>
     </row>
     <row r="9" spans="1:18" s="32" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="392"/>
-      <c r="B9" s="406"/>
-      <c r="C9" s="407"/>
-      <c r="D9" s="408"/>
-      <c r="E9" s="408"/>
-      <c r="F9" s="408"/>
-      <c r="G9" s="408"/>
-      <c r="H9" s="409"/>
-      <c r="I9" s="410"/>
-      <c r="J9" s="408"/>
-      <c r="N9" s="198"/>
+      <c r="A9" s="376"/>
+      <c r="B9" s="505"/>
+      <c r="C9" s="388"/>
+      <c r="D9" s="389"/>
+      <c r="E9" s="389"/>
+      <c r="F9" s="389"/>
+      <c r="G9" s="389"/>
+      <c r="H9" s="390"/>
+      <c r="I9" s="391"/>
+      <c r="J9" s="389"/>
+      <c r="N9" s="196"/>
       <c r="O9" s="46"/>
       <c r="P9" s="33"/>
       <c r="Q9" s="33"/>
-      <c r="R9" s="199"/>
+      <c r="R9" s="197"/>
     </row>
     <row r="10" spans="1:18" s="32" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="393"/>
-      <c r="B10" s="411"/>
-      <c r="C10" s="412"/>
-      <c r="D10" s="412"/>
-      <c r="E10" s="413"/>
-      <c r="F10" s="414"/>
-      <c r="G10" s="415"/>
-      <c r="H10" s="416"/>
-      <c r="I10" s="415"/>
-      <c r="J10" s="417"/>
-      <c r="N10" s="198"/>
+      <c r="A10" s="377"/>
+      <c r="B10" s="506"/>
+      <c r="C10" s="392"/>
+      <c r="D10" s="392"/>
+      <c r="E10" s="393"/>
+      <c r="F10" s="394"/>
+      <c r="G10" s="395"/>
+      <c r="H10" s="396"/>
+      <c r="I10" s="395"/>
+      <c r="J10" s="397"/>
+      <c r="N10" s="196"/>
       <c r="O10" s="46"/>
       <c r="P10" s="33"/>
       <c r="Q10" s="33"/>
-      <c r="R10" s="199"/>
+      <c r="R10" s="197"/>
     </row>
     <row r="11" spans="1:18" s="43" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="394"/>
-      <c r="B11" s="418"/>
-      <c r="C11" s="419"/>
-      <c r="D11" s="420"/>
-      <c r="E11" s="420"/>
-      <c r="F11" s="419"/>
-      <c r="G11" s="419"/>
-      <c r="H11" s="421"/>
-      <c r="I11" s="422"/>
-      <c r="J11" s="419"/>
-      <c r="N11" s="198"/>
+      <c r="A11" s="378"/>
+      <c r="B11" s="507"/>
+      <c r="C11" s="398"/>
+      <c r="D11" s="399"/>
+      <c r="E11" s="399"/>
+      <c r="F11" s="398"/>
+      <c r="G11" s="398"/>
+      <c r="H11" s="400"/>
+      <c r="I11" s="401"/>
+      <c r="J11" s="398"/>
+      <c r="N11" s="196"/>
       <c r="O11" s="46"/>
       <c r="P11" s="44"/>
       <c r="Q11" s="44"/>
-      <c r="R11" s="200"/>
+      <c r="R11" s="198"/>
     </row>
     <row r="12" spans="1:18" s="43" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="394"/>
-      <c r="B12" s="423"/>
-      <c r="C12" s="412"/>
-      <c r="D12" s="412"/>
-      <c r="E12" s="413"/>
-      <c r="F12" s="414"/>
-      <c r="G12" s="424"/>
-      <c r="H12" s="425"/>
-      <c r="I12" s="424"/>
-      <c r="J12" s="417"/>
-      <c r="N12" s="198"/>
+      <c r="A12" s="378"/>
+      <c r="B12" s="508"/>
+      <c r="C12" s="392"/>
+      <c r="D12" s="392"/>
+      <c r="E12" s="393"/>
+      <c r="F12" s="394"/>
+      <c r="G12" s="402"/>
+      <c r="H12" s="403"/>
+      <c r="I12" s="402"/>
+      <c r="J12" s="397"/>
+      <c r="N12" s="196"/>
       <c r="O12" s="46"/>
       <c r="P12" s="44"/>
       <c r="Q12" s="44"/>
-      <c r="R12" s="200"/>
+      <c r="R12" s="198"/>
     </row>
     <row r="13" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="391"/>
-      <c r="B13" s="403"/>
-      <c r="C13" s="404"/>
-      <c r="D13" s="404"/>
-      <c r="E13" s="404"/>
-      <c r="F13" s="405"/>
-      <c r="G13" s="404"/>
-      <c r="H13" s="404"/>
-      <c r="I13" s="404"/>
-      <c r="J13" s="404"/>
-      <c r="N13" s="201"/>
+      <c r="A13" s="375"/>
+      <c r="B13" s="504"/>
+      <c r="C13" s="386"/>
+      <c r="D13" s="386"/>
+      <c r="E13" s="386"/>
+      <c r="F13" s="387"/>
+      <c r="G13" s="386"/>
+      <c r="H13" s="386"/>
+      <c r="I13" s="386"/>
+      <c r="J13" s="386"/>
+      <c r="N13" s="199"/>
       <c r="O13" s="46"/>
       <c r="P13" s="103"/>
       <c r="Q13" s="104"/>
-      <c r="R13" s="202"/>
+      <c r="R13" s="200"/>
     </row>
     <row r="14" spans="1:18" s="105" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="392"/>
-      <c r="B14" s="407"/>
-      <c r="C14" s="407"/>
-      <c r="D14" s="407"/>
-      <c r="E14" s="407"/>
-      <c r="F14" s="407"/>
-      <c r="G14" s="426"/>
-      <c r="H14" s="427"/>
-      <c r="I14" s="407"/>
-      <c r="J14" s="428"/>
-      <c r="N14" s="203"/>
+      <c r="A14" s="376"/>
+      <c r="B14" s="509"/>
+      <c r="C14" s="388"/>
+      <c r="D14" s="388"/>
+      <c r="E14" s="388"/>
+      <c r="F14" s="388"/>
+      <c r="G14" s="404"/>
+      <c r="H14" s="405"/>
+      <c r="I14" s="388"/>
+      <c r="J14" s="406"/>
+      <c r="N14" s="201"/>
       <c r="O14" s="46"/>
       <c r="P14" s="106"/>
       <c r="Q14" s="106"/>
-      <c r="R14" s="204"/>
+      <c r="R14" s="202"/>
     </row>
     <row r="15" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="391"/>
-      <c r="B15" s="429"/>
-      <c r="C15" s="430"/>
-      <c r="D15" s="430"/>
-      <c r="E15" s="430"/>
-      <c r="F15" s="431"/>
-      <c r="G15" s="429"/>
-      <c r="H15" s="430"/>
-      <c r="I15" s="430"/>
-      <c r="J15" s="430"/>
-      <c r="N15" s="195"/>
+      <c r="A15" s="375"/>
+      <c r="B15" s="510"/>
+      <c r="C15" s="408"/>
+      <c r="D15" s="408"/>
+      <c r="E15" s="408"/>
+      <c r="F15" s="409"/>
+      <c r="G15" s="407"/>
+      <c r="H15" s="408"/>
+      <c r="I15" s="408"/>
+      <c r="J15" s="408"/>
+      <c r="N15" s="193"/>
       <c r="O15" s="46"/>
       <c r="P15" s="48"/>
       <c r="Q15" s="48"/>
-      <c r="R15" s="196"/>
+      <c r="R15" s="194"/>
     </row>
     <row r="16" spans="1:18" s="89" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="391"/>
-      <c r="B16" s="432"/>
-      <c r="C16" s="404"/>
-      <c r="D16" s="404"/>
-      <c r="E16" s="404"/>
-      <c r="F16" s="433"/>
-      <c r="G16" s="404"/>
-      <c r="H16" s="404"/>
-      <c r="I16" s="419"/>
-      <c r="J16" s="404"/>
-      <c r="N16" s="205"/>
+      <c r="A16" s="375"/>
+      <c r="B16" s="511"/>
+      <c r="C16" s="386"/>
+      <c r="D16" s="386"/>
+      <c r="E16" s="386"/>
+      <c r="F16" s="410"/>
+      <c r="G16" s="386"/>
+      <c r="H16" s="386"/>
+      <c r="I16" s="398"/>
+      <c r="J16" s="386"/>
+      <c r="N16" s="203"/>
       <c r="O16" s="46"/>
       <c r="P16" s="90"/>
       <c r="Q16" s="90"/>
-      <c r="R16" s="206"/>
+      <c r="R16" s="204"/>
     </row>
     <row r="17" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="391"/>
-      <c r="B17" s="432"/>
-      <c r="C17" s="404"/>
-      <c r="D17" s="404"/>
-      <c r="E17" s="404"/>
-      <c r="F17" s="405"/>
-      <c r="G17" s="434"/>
-      <c r="H17" s="435"/>
-      <c r="I17" s="435"/>
-      <c r="J17" s="404"/>
-      <c r="N17" s="195"/>
+      <c r="A17" s="375"/>
+      <c r="B17" s="511"/>
+      <c r="C17" s="386"/>
+      <c r="D17" s="386"/>
+      <c r="E17" s="386"/>
+      <c r="F17" s="387"/>
+      <c r="G17" s="411"/>
+      <c r="H17" s="412"/>
+      <c r="I17" s="412"/>
+      <c r="J17" s="386"/>
+      <c r="N17" s="193"/>
       <c r="O17" s="46"/>
       <c r="P17" s="50"/>
       <c r="Q17" s="50"/>
-      <c r="R17" s="207"/>
+      <c r="R17" s="205"/>
     </row>
     <row r="18" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="391"/>
-      <c r="B18" s="424"/>
-      <c r="C18" s="412"/>
-      <c r="D18" s="412"/>
-      <c r="E18" s="413"/>
-      <c r="F18" s="414"/>
-      <c r="G18" s="424"/>
-      <c r="H18" s="425"/>
-      <c r="I18" s="424"/>
-      <c r="J18" s="417"/>
-      <c r="N18" s="195"/>
+      <c r="A18" s="375"/>
+      <c r="B18" s="512"/>
+      <c r="C18" s="392"/>
+      <c r="D18" s="392"/>
+      <c r="E18" s="393"/>
+      <c r="F18" s="394"/>
+      <c r="G18" s="402"/>
+      <c r="H18" s="403"/>
+      <c r="I18" s="402"/>
+      <c r="J18" s="397"/>
+      <c r="N18" s="193"/>
       <c r="O18" s="46"/>
       <c r="P18" s="47"/>
       <c r="Q18" s="47"/>
-      <c r="R18" s="197"/>
+      <c r="R18" s="195"/>
     </row>
     <row r="19" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="395"/>
-      <c r="B19" s="415"/>
-      <c r="C19" s="436"/>
-      <c r="D19" s="436"/>
-      <c r="E19" s="437"/>
-      <c r="F19" s="414"/>
-      <c r="G19" s="424"/>
-      <c r="H19" s="425"/>
-      <c r="I19" s="424"/>
-      <c r="J19" s="417"/>
-      <c r="N19" s="208"/>
+      <c r="A19" s="379"/>
+      <c r="B19" s="513"/>
+      <c r="C19" s="413"/>
+      <c r="D19" s="413"/>
+      <c r="E19" s="414"/>
+      <c r="F19" s="394"/>
+      <c r="G19" s="402"/>
+      <c r="H19" s="403"/>
+      <c r="I19" s="402"/>
+      <c r="J19" s="397"/>
+      <c r="N19" s="206"/>
       <c r="O19" s="46"/>
       <c r="P19" s="171"/>
       <c r="Q19" s="171"/>
-      <c r="R19" s="209"/>
+      <c r="R19" s="207"/>
     </row>
     <row r="20" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="396"/>
-      <c r="B20" s="424"/>
-      <c r="C20" s="438"/>
-      <c r="D20" s="439"/>
-      <c r="E20" s="440"/>
-      <c r="F20" s="414"/>
-      <c r="G20" s="424"/>
-      <c r="H20" s="438"/>
-      <c r="I20" s="424"/>
-      <c r="J20" s="417"/>
-      <c r="N20" s="195"/>
+      <c r="A20" s="380"/>
+      <c r="B20" s="512"/>
+      <c r="C20" s="415"/>
+      <c r="D20" s="416"/>
+      <c r="E20" s="417"/>
+      <c r="F20" s="394"/>
+      <c r="G20" s="402"/>
+      <c r="H20" s="415"/>
+      <c r="I20" s="402"/>
+      <c r="J20" s="397"/>
+      <c r="N20" s="193"/>
       <c r="O20" s="46"/>
       <c r="P20" s="46"/>
       <c r="Q20" s="46"/>
-      <c r="R20" s="210"/>
+      <c r="R20" s="208"/>
     </row>
     <row r="21" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="391"/>
-      <c r="B21" s="429"/>
-      <c r="C21" s="429"/>
-      <c r="D21" s="429"/>
-      <c r="E21" s="429"/>
-      <c r="F21" s="441"/>
-      <c r="G21" s="442"/>
-      <c r="H21" s="443"/>
-      <c r="I21" s="404"/>
-      <c r="J21" s="429"/>
-      <c r="N21" s="201"/>
+      <c r="A21" s="375"/>
+      <c r="B21" s="510"/>
+      <c r="C21" s="407"/>
+      <c r="D21" s="407"/>
+      <c r="E21" s="407"/>
+      <c r="F21" s="418"/>
+      <c r="G21" s="419"/>
+      <c r="H21" s="420"/>
+      <c r="I21" s="386"/>
+      <c r="J21" s="407"/>
+      <c r="N21" s="199"/>
       <c r="O21" s="46"/>
       <c r="P21" s="172"/>
       <c r="Q21" s="172"/>
-      <c r="R21" s="211"/>
+      <c r="R21" s="209"/>
     </row>
     <row r="22" spans="1:18" s="34" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="392"/>
-      <c r="B22" s="444"/>
-      <c r="C22" s="445"/>
-      <c r="D22" s="446"/>
-      <c r="E22" s="447"/>
-      <c r="F22" s="447"/>
-      <c r="G22" s="446"/>
-      <c r="H22" s="448"/>
-      <c r="I22" s="449"/>
-      <c r="J22" s="450"/>
-      <c r="N22" s="198"/>
+      <c r="A22" s="376"/>
+      <c r="B22" s="514"/>
+      <c r="C22" s="421"/>
+      <c r="D22" s="422"/>
+      <c r="E22" s="423"/>
+      <c r="F22" s="423"/>
+      <c r="G22" s="422"/>
+      <c r="H22" s="424"/>
+      <c r="I22" s="425"/>
+      <c r="J22" s="426"/>
+      <c r="N22" s="196"/>
       <c r="O22" s="46"/>
       <c r="P22" s="35"/>
       <c r="Q22" s="35"/>
-      <c r="R22" s="212"/>
+      <c r="R22" s="210"/>
     </row>
     <row r="23" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="391"/>
-      <c r="B23" s="451"/>
-      <c r="C23" s="439"/>
-      <c r="D23" s="439"/>
-      <c r="E23" s="440"/>
-      <c r="F23" s="414"/>
-      <c r="G23" s="452"/>
-      <c r="H23" s="453"/>
-      <c r="I23" s="399"/>
-      <c r="J23" s="417"/>
-      <c r="N23" s="195"/>
+      <c r="A23" s="375"/>
+      <c r="B23" s="508"/>
+      <c r="C23" s="416"/>
+      <c r="D23" s="416"/>
+      <c r="E23" s="417"/>
+      <c r="F23" s="394"/>
+      <c r="G23" s="427"/>
+      <c r="H23" s="428"/>
+      <c r="I23" s="382"/>
+      <c r="J23" s="397"/>
+      <c r="N23" s="193"/>
       <c r="O23" s="46"/>
       <c r="P23" s="99"/>
       <c r="Q23" s="99"/>
-      <c r="R23" s="213"/>
+      <c r="R23" s="211"/>
     </row>
     <row r="24" spans="1:18" s="34" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="392"/>
-      <c r="B24" s="423"/>
-      <c r="C24" s="412"/>
-      <c r="D24" s="412"/>
-      <c r="E24" s="413"/>
-      <c r="F24" s="414"/>
-      <c r="G24" s="439"/>
-      <c r="H24" s="425"/>
-      <c r="I24" s="424"/>
-      <c r="J24" s="417"/>
-      <c r="N24" s="198"/>
+      <c r="A24" s="376"/>
+      <c r="B24" s="508"/>
+      <c r="C24" s="392"/>
+      <c r="D24" s="392"/>
+      <c r="E24" s="393"/>
+      <c r="F24" s="394"/>
+      <c r="G24" s="416"/>
+      <c r="H24" s="403"/>
+      <c r="I24" s="402"/>
+      <c r="J24" s="397"/>
+      <c r="N24" s="196"/>
       <c r="O24" s="46"/>
       <c r="P24" s="35"/>
       <c r="Q24" s="35"/>
-      <c r="R24" s="212"/>
+      <c r="R24" s="210"/>
     </row>
     <row r="25" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="392"/>
-      <c r="B25" s="454"/>
-      <c r="C25" s="446"/>
-      <c r="D25" s="446"/>
-      <c r="E25" s="455"/>
-      <c r="F25" s="445"/>
-      <c r="G25" s="445"/>
-      <c r="H25" s="456"/>
-      <c r="I25" s="445"/>
-      <c r="J25" s="457"/>
-      <c r="N25" s="195"/>
+      <c r="A25" s="376"/>
+      <c r="B25" s="514"/>
+      <c r="C25" s="422"/>
+      <c r="D25" s="422"/>
+      <c r="E25" s="429"/>
+      <c r="F25" s="421"/>
+      <c r="G25" s="421"/>
+      <c r="H25" s="430"/>
+      <c r="I25" s="421"/>
+      <c r="J25" s="431"/>
+      <c r="N25" s="193"/>
       <c r="O25" s="46"/>
       <c r="P25" s="99"/>
       <c r="Q25" s="99"/>
-      <c r="R25" s="213"/>
+      <c r="R25" s="211"/>
     </row>
     <row r="26" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="392"/>
-      <c r="B26" s="454"/>
-      <c r="C26" s="446"/>
-      <c r="D26" s="446"/>
-      <c r="E26" s="455"/>
-      <c r="F26" s="445"/>
-      <c r="G26" s="445"/>
-      <c r="H26" s="456"/>
-      <c r="I26" s="445"/>
-      <c r="J26" s="470"/>
-      <c r="N26" s="195"/>
+      <c r="A26" s="376"/>
+      <c r="B26" s="514"/>
+      <c r="C26" s="422"/>
+      <c r="D26" s="422"/>
+      <c r="E26" s="429"/>
+      <c r="F26" s="421"/>
+      <c r="G26" s="421"/>
+      <c r="H26" s="430"/>
+      <c r="I26" s="421"/>
+      <c r="J26" s="443"/>
+      <c r="N26" s="193"/>
       <c r="O26" s="46"/>
       <c r="P26" s="99"/>
       <c r="Q26" s="99"/>
-      <c r="R26" s="213"/>
+      <c r="R26" s="211"/>
     </row>
     <row r="27" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="392"/>
-      <c r="B27" s="454"/>
-      <c r="C27" s="446"/>
-      <c r="D27" s="446"/>
-      <c r="E27" s="455"/>
-      <c r="F27" s="445"/>
-      <c r="G27" s="445"/>
-      <c r="H27" s="456"/>
-      <c r="I27" s="445"/>
-      <c r="J27" s="470"/>
-      <c r="N27" s="195"/>
+      <c r="A27" s="376"/>
+      <c r="B27" s="514"/>
+      <c r="C27" s="422"/>
+      <c r="D27" s="422"/>
+      <c r="E27" s="429"/>
+      <c r="F27" s="421"/>
+      <c r="G27" s="421"/>
+      <c r="H27" s="430"/>
+      <c r="I27" s="421"/>
+      <c r="J27" s="443"/>
+      <c r="N27" s="193"/>
       <c r="O27" s="46"/>
       <c r="P27" s="99"/>
       <c r="Q27" s="99"/>
-      <c r="R27" s="213"/>
+      <c r="R27" s="211"/>
     </row>
     <row r="28" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="392"/>
-      <c r="B28" s="454"/>
-      <c r="C28" s="446"/>
-      <c r="D28" s="446"/>
-      <c r="E28" s="455"/>
-      <c r="F28" s="445"/>
-      <c r="G28" s="445"/>
-      <c r="H28" s="456"/>
-      <c r="I28" s="445"/>
-      <c r="J28" s="470"/>
-      <c r="N28" s="195"/>
+      <c r="A28" s="376"/>
+      <c r="B28" s="514"/>
+      <c r="C28" s="422"/>
+      <c r="D28" s="422"/>
+      <c r="E28" s="429"/>
+      <c r="F28" s="421"/>
+      <c r="G28" s="421"/>
+      <c r="H28" s="430"/>
+      <c r="I28" s="421"/>
+      <c r="J28" s="443"/>
+      <c r="N28" s="193"/>
       <c r="O28" s="46"/>
       <c r="P28" s="99"/>
       <c r="Q28" s="99"/>
-      <c r="R28" s="213"/>
+      <c r="R28" s="211"/>
     </row>
     <row r="29" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="392"/>
-      <c r="B29" s="454"/>
-      <c r="C29" s="446"/>
-      <c r="D29" s="446"/>
-      <c r="E29" s="455"/>
-      <c r="F29" s="445"/>
-      <c r="G29" s="445"/>
-      <c r="H29" s="456"/>
-      <c r="I29" s="445"/>
-      <c r="J29" s="470"/>
-      <c r="N29" s="195"/>
+      <c r="A29" s="376"/>
+      <c r="B29" s="514"/>
+      <c r="C29" s="422"/>
+      <c r="D29" s="422"/>
+      <c r="E29" s="429"/>
+      <c r="F29" s="421"/>
+      <c r="G29" s="421"/>
+      <c r="H29" s="430"/>
+      <c r="I29" s="421"/>
+      <c r="J29" s="443"/>
+      <c r="N29" s="193"/>
       <c r="O29" s="46"/>
       <c r="P29" s="99"/>
       <c r="Q29" s="99"/>
-      <c r="R29" s="213"/>
+      <c r="R29" s="211"/>
     </row>
     <row r="30" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="392"/>
-      <c r="B30" s="454"/>
-      <c r="C30" s="446"/>
-      <c r="D30" s="446"/>
-      <c r="E30" s="455"/>
-      <c r="F30" s="445"/>
-      <c r="G30" s="445"/>
-      <c r="H30" s="456"/>
-      <c r="I30" s="445"/>
-      <c r="J30" s="470"/>
-      <c r="N30" s="195"/>
+      <c r="A30" s="376"/>
+      <c r="B30" s="514"/>
+      <c r="C30" s="422"/>
+      <c r="D30" s="422"/>
+      <c r="E30" s="429"/>
+      <c r="F30" s="421"/>
+      <c r="G30" s="421"/>
+      <c r="H30" s="430"/>
+      <c r="I30" s="421"/>
+      <c r="J30" s="443"/>
+      <c r="N30" s="193"/>
       <c r="O30" s="46"/>
       <c r="P30" s="99"/>
       <c r="Q30" s="99"/>
-      <c r="R30" s="213"/>
+      <c r="R30" s="211"/>
     </row>
     <row r="31" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="392"/>
-      <c r="B31" s="454"/>
-      <c r="C31" s="446"/>
-      <c r="D31" s="446"/>
-      <c r="E31" s="455"/>
-      <c r="F31" s="445"/>
-      <c r="G31" s="445"/>
-      <c r="H31" s="456"/>
-      <c r="I31" s="445"/>
-      <c r="J31" s="470"/>
-      <c r="N31" s="195"/>
+      <c r="A31" s="376"/>
+      <c r="B31" s="514"/>
+      <c r="C31" s="422"/>
+      <c r="D31" s="422"/>
+      <c r="E31" s="429"/>
+      <c r="F31" s="421"/>
+      <c r="G31" s="421"/>
+      <c r="H31" s="430"/>
+      <c r="I31" s="421"/>
+      <c r="J31" s="443"/>
+      <c r="N31" s="193"/>
       <c r="O31" s="46"/>
       <c r="P31" s="99"/>
       <c r="Q31" s="99"/>
-      <c r="R31" s="213"/>
+      <c r="R31" s="211"/>
     </row>
     <row r="32" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="392"/>
-      <c r="B32" s="454"/>
-      <c r="C32" s="446"/>
-      <c r="D32" s="446"/>
-      <c r="E32" s="455"/>
-      <c r="F32" s="445"/>
-      <c r="G32" s="445"/>
-      <c r="H32" s="456"/>
-      <c r="I32" s="445"/>
-      <c r="J32" s="470"/>
-      <c r="N32" s="195"/>
+      <c r="A32" s="376"/>
+      <c r="B32" s="514"/>
+      <c r="C32" s="422"/>
+      <c r="D32" s="422"/>
+      <c r="E32" s="429"/>
+      <c r="F32" s="421"/>
+      <c r="G32" s="421"/>
+      <c r="H32" s="430"/>
+      <c r="I32" s="421"/>
+      <c r="J32" s="443"/>
+      <c r="N32" s="193"/>
       <c r="O32" s="46"/>
       <c r="P32" s="99"/>
       <c r="Q32" s="99"/>
-      <c r="R32" s="213"/>
+      <c r="R32" s="211"/>
     </row>
     <row r="33" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="391"/>
-      <c r="B33" s="451"/>
-      <c r="C33" s="424"/>
-      <c r="D33" s="458"/>
-      <c r="E33" s="414"/>
-      <c r="F33" s="424"/>
-      <c r="G33" s="439"/>
-      <c r="H33" s="458"/>
-      <c r="I33" s="459"/>
-      <c r="J33" s="417"/>
-      <c r="N33" s="195"/>
+      <c r="A33" s="375"/>
+      <c r="B33" s="508"/>
+      <c r="C33" s="402"/>
+      <c r="D33" s="432"/>
+      <c r="E33" s="394"/>
+      <c r="F33" s="402"/>
+      <c r="G33" s="416"/>
+      <c r="H33" s="432"/>
+      <c r="I33" s="433"/>
+      <c r="J33" s="397"/>
+      <c r="N33" s="193"/>
       <c r="O33" s="46"/>
       <c r="P33" s="46"/>
       <c r="Q33" s="47"/>
-      <c r="R33" s="197"/>
+      <c r="R33" s="195"/>
     </row>
     <row r="34" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="391"/>
-      <c r="B34" s="451"/>
-      <c r="C34" s="424"/>
-      <c r="D34" s="458"/>
-      <c r="E34" s="414"/>
-      <c r="F34" s="424"/>
-      <c r="G34" s="439"/>
-      <c r="H34" s="458"/>
-      <c r="I34" s="459"/>
-      <c r="J34" s="417"/>
-      <c r="N34" s="195"/>
+      <c r="A34" s="375"/>
+      <c r="B34" s="508"/>
+      <c r="C34" s="402"/>
+      <c r="D34" s="432"/>
+      <c r="E34" s="394"/>
+      <c r="F34" s="402"/>
+      <c r="G34" s="416"/>
+      <c r="H34" s="432"/>
+      <c r="I34" s="433"/>
+      <c r="J34" s="397"/>
+      <c r="N34" s="193"/>
       <c r="O34" s="46"/>
       <c r="P34" s="46"/>
       <c r="Q34" s="47"/>
-      <c r="R34" s="197"/>
+      <c r="R34" s="195"/>
     </row>
     <row r="35" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="391"/>
-      <c r="B35" s="451"/>
-      <c r="C35" s="424"/>
-      <c r="D35" s="458"/>
-      <c r="E35" s="414"/>
-      <c r="F35" s="414"/>
-      <c r="G35" s="452"/>
-      <c r="H35" s="458"/>
-      <c r="I35" s="459"/>
-      <c r="J35" s="417"/>
-      <c r="N35" s="195"/>
+      <c r="A35" s="375"/>
+      <c r="B35" s="508"/>
+      <c r="C35" s="402"/>
+      <c r="D35" s="432"/>
+      <c r="E35" s="394"/>
+      <c r="F35" s="394"/>
+      <c r="G35" s="427"/>
+      <c r="H35" s="432"/>
+      <c r="I35" s="433"/>
+      <c r="J35" s="397"/>
+      <c r="N35" s="193"/>
       <c r="O35" s="46"/>
       <c r="P35" s="46"/>
       <c r="Q35" s="47"/>
-      <c r="R35" s="197"/>
+      <c r="R35" s="195"/>
     </row>
     <row r="36" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="391"/>
-      <c r="B36" s="429"/>
-      <c r="C36" s="429"/>
-      <c r="D36" s="429"/>
-      <c r="E36" s="429"/>
-      <c r="F36" s="441"/>
-      <c r="G36" s="442"/>
-      <c r="H36" s="429"/>
-      <c r="I36" s="429"/>
-      <c r="J36" s="460"/>
-      <c r="N36" s="195"/>
+      <c r="A36" s="375"/>
+      <c r="B36" s="510"/>
+      <c r="C36" s="407"/>
+      <c r="D36" s="407"/>
+      <c r="E36" s="407"/>
+      <c r="F36" s="418"/>
+      <c r="G36" s="419"/>
+      <c r="H36" s="407"/>
+      <c r="I36" s="407"/>
+      <c r="J36" s="434"/>
+      <c r="N36" s="193"/>
       <c r="O36" s="46"/>
       <c r="P36" s="47"/>
       <c r="Q36" s="47"/>
-      <c r="R36" s="197"/>
+      <c r="R36" s="195"/>
     </row>
     <row r="37" spans="1:18" s="96" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="397"/>
-      <c r="B37" s="461"/>
-      <c r="C37" s="462"/>
-      <c r="D37" s="463"/>
-      <c r="E37" s="464"/>
-      <c r="F37" s="465"/>
-      <c r="G37" s="466"/>
-      <c r="H37" s="467"/>
-      <c r="I37" s="468"/>
-      <c r="J37" s="469"/>
-      <c r="N37" s="214"/>
-      <c r="O37" s="215"/>
-      <c r="P37" s="216"/>
-      <c r="Q37" s="216"/>
-      <c r="R37" s="217"/>
+      <c r="A37" s="381"/>
+      <c r="B37" s="515"/>
+      <c r="C37" s="435"/>
+      <c r="D37" s="436"/>
+      <c r="E37" s="437"/>
+      <c r="F37" s="438"/>
+      <c r="G37" s="439"/>
+      <c r="H37" s="440"/>
+      <c r="I37" s="441"/>
+      <c r="J37" s="442"/>
+      <c r="N37" s="212"/>
+      <c r="O37" s="213"/>
+      <c r="P37" s="214"/>
+      <c r="Q37" s="214"/>
+      <c r="R37" s="215"/>
     </row>
     <row r="38" spans="1:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="186"/>
-      <c r="B38" s="187"/>
-      <c r="C38" s="188"/>
-      <c r="D38" s="188"/>
-      <c r="E38" s="188"/>
-      <c r="F38" s="183"/>
-      <c r="G38" s="188"/>
-      <c r="H38" s="188"/>
-      <c r="I38" s="188"/>
-      <c r="J38" s="188"/>
+      <c r="A38" s="184"/>
+      <c r="B38" s="185"/>
+      <c r="C38" s="186"/>
+      <c r="D38" s="186"/>
+      <c r="E38" s="186"/>
+      <c r="F38" s="182"/>
+      <c r="G38" s="186"/>
+      <c r="H38" s="186"/>
+      <c r="I38" s="186"/>
+      <c r="J38" s="186"/>
       <c r="N38" s="98"/>
       <c r="O38" s="45"/>
     </row>
     <row r="39" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="193" t="s">
+      <c r="A39" s="191" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="192">
+      <c r="B39" s="190">
         <f>COUNTA(B7:B37)</f>
         <v>0</v>
       </c>
-      <c r="C39" s="190"/>
-      <c r="D39" s="190"/>
-      <c r="E39" s="190"/>
-      <c r="F39" s="189"/>
-      <c r="G39" s="189"/>
-      <c r="H39" s="191"/>
-      <c r="I39" s="189"/>
-      <c r="J39" s="189"/>
+      <c r="C39" s="188"/>
+      <c r="D39" s="188"/>
+      <c r="E39" s="188"/>
+      <c r="F39" s="187"/>
+      <c r="G39" s="187"/>
+      <c r="H39" s="189"/>
+      <c r="I39" s="187"/>
+      <c r="J39" s="187"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
@@ -8565,7 +8592,7 @@
   </sheetPr>
   <dimension ref="A2:BP36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A23" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A23" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -8585,71 +8612,71 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:68" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="472"/>
-      <c r="B2" s="472"/>
-      <c r="C2" s="472"/>
-      <c r="D2" s="473"/>
-      <c r="E2" s="473"/>
-      <c r="F2" s="473"/>
-      <c r="G2" s="472"/>
-      <c r="H2" s="472"/>
+      <c r="A2" s="517"/>
+      <c r="B2" s="517"/>
+      <c r="C2" s="517"/>
+      <c r="D2" s="520"/>
+      <c r="E2" s="520"/>
+      <c r="F2" s="520"/>
+      <c r="G2" s="517"/>
+      <c r="H2" s="517"/>
     </row>
     <row r="3" spans="1:68" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="472"/>
-      <c r="B3" s="472"/>
-      <c r="C3" s="472"/>
-      <c r="D3" s="473" t="s">
+      <c r="A3" s="517"/>
+      <c r="B3" s="517"/>
+      <c r="C3" s="517"/>
+      <c r="D3" s="520" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="473"/>
-      <c r="F3" s="473"/>
-      <c r="G3" s="472"/>
-      <c r="H3" s="472"/>
+      <c r="E3" s="520"/>
+      <c r="F3" s="520"/>
+      <c r="G3" s="517"/>
+      <c r="H3" s="517"/>
     </row>
     <row r="4" spans="1:68" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="472"/>
-      <c r="B4" s="472"/>
-      <c r="C4" s="472"/>
-      <c r="D4" s="473"/>
-      <c r="E4" s="473"/>
-      <c r="F4" s="473"/>
-      <c r="G4" s="472"/>
-      <c r="H4" s="472"/>
+      <c r="A4" s="517"/>
+      <c r="B4" s="517"/>
+      <c r="C4" s="517"/>
+      <c r="D4" s="520"/>
+      <c r="E4" s="520"/>
+      <c r="F4" s="520"/>
+      <c r="G4" s="517"/>
+      <c r="H4" s="517"/>
     </row>
     <row r="5" spans="1:68" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L5" s="472" t="s">
+      <c r="L5" s="517" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="472"/>
-      <c r="N5" s="472"/>
-      <c r="O5" s="472"/>
-      <c r="P5" s="472"/>
-      <c r="Q5" s="472"/>
-      <c r="R5" s="472"/>
+      <c r="M5" s="517"/>
+      <c r="N5" s="517"/>
+      <c r="O5" s="517"/>
+      <c r="P5" s="517"/>
+      <c r="Q5" s="517"/>
+      <c r="R5" s="517"/>
     </row>
     <row r="6" spans="1:68" s="10" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="388" t="s">
+      <c r="A6" s="372" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="389" t="s">
+      <c r="B6" s="373" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="389" t="s">
+      <c r="C6" s="373" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="389" t="s">
+      <c r="D6" s="373" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="389" t="s">
+      <c r="E6" s="373" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="389" t="s">
+      <c r="F6" s="373" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="389" t="s">
+      <c r="G6" s="373" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="390" t="s">
+      <c r="H6" s="374" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="25"/>
@@ -8657,19 +8684,19 @@
       <c r="K6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="339" t="s">
+      <c r="L6" s="323" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="340" t="s">
+      <c r="M6" s="324" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="340" t="s">
+      <c r="N6" s="324" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="340" t="s">
+      <c r="O6" s="324" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="341" t="s">
+      <c r="P6" s="325" t="s">
         <v>16</v>
       </c>
       <c r="Q6" s="3"/>
@@ -8726,39 +8753,39 @@
       <c r="BP6" s="26"/>
     </row>
     <row r="7" spans="1:68" s="25" customFormat="1" ht="46.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="515"/>
-      <c r="B7" s="478"/>
-      <c r="C7" s="479"/>
-      <c r="D7" s="480"/>
-      <c r="E7" s="479"/>
-      <c r="F7" s="479"/>
-      <c r="G7" s="479"/>
-      <c r="H7" s="481"/>
-      <c r="L7" s="342"/>
-      <c r="M7" s="343"/>
-      <c r="N7" s="344"/>
-      <c r="O7" s="344"/>
-      <c r="P7" s="345"/>
+      <c r="A7" s="481"/>
+      <c r="B7" s="444"/>
+      <c r="C7" s="445"/>
+      <c r="D7" s="446"/>
+      <c r="E7" s="445"/>
+      <c r="F7" s="445"/>
+      <c r="G7" s="445"/>
+      <c r="H7" s="447"/>
+      <c r="L7" s="326"/>
+      <c r="M7" s="327"/>
+      <c r="N7" s="328"/>
+      <c r="O7" s="328"/>
+      <c r="P7" s="329"/>
       <c r="Q7" s="85"/>
       <c r="R7" s="85"/>
     </row>
     <row r="8" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="516"/>
-      <c r="B8" s="482"/>
-      <c r="C8" s="482"/>
-      <c r="D8" s="482"/>
-      <c r="E8" s="482"/>
-      <c r="F8" s="482"/>
-      <c r="G8" s="482"/>
-      <c r="H8" s="483"/>
+      <c r="A8" s="482"/>
+      <c r="B8" s="448"/>
+      <c r="C8" s="448"/>
+      <c r="D8" s="448"/>
+      <c r="E8" s="448"/>
+      <c r="F8" s="448"/>
+      <c r="G8" s="448"/>
+      <c r="H8" s="449"/>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
-      <c r="L8" s="346"/>
+      <c r="L8" s="330"/>
       <c r="M8" s="99"/>
       <c r="N8" s="55"/>
       <c r="O8" s="55"/>
-      <c r="P8" s="347"/>
+      <c r="P8" s="331"/>
       <c r="Q8" s="85"/>
       <c r="R8" s="85"/>
       <c r="S8" s="25"/>
@@ -8813,24 +8840,24 @@
       <c r="BP8" s="26"/>
     </row>
     <row r="9" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="517"/>
-      <c r="B9" s="484"/>
-      <c r="C9" s="485"/>
-      <c r="D9" s="486"/>
-      <c r="E9" s="485"/>
-      <c r="F9" s="485"/>
-      <c r="G9" s="485"/>
-      <c r="H9" s="487"/>
-      <c r="I9" s="349"/>
-      <c r="J9" s="350"/>
-      <c r="K9" s="349"/>
-      <c r="L9" s="351"/>
-      <c r="M9" s="348"/>
-      <c r="N9" s="348"/>
-      <c r="O9" s="348"/>
-      <c r="P9" s="352"/>
-      <c r="Q9" s="349"/>
-      <c r="R9" s="350"/>
+      <c r="A9" s="483"/>
+      <c r="B9" s="450"/>
+      <c r="C9" s="451"/>
+      <c r="D9" s="452"/>
+      <c r="E9" s="451"/>
+      <c r="F9" s="451"/>
+      <c r="G9" s="451"/>
+      <c r="H9" s="453"/>
+      <c r="I9" s="333"/>
+      <c r="J9" s="334"/>
+      <c r="K9" s="333"/>
+      <c r="L9" s="335"/>
+      <c r="M9" s="332"/>
+      <c r="N9" s="332"/>
+      <c r="O9" s="332"/>
+      <c r="P9" s="336"/>
+      <c r="Q9" s="333"/>
+      <c r="R9" s="334"/>
       <c r="S9" s="25"/>
       <c r="T9" s="25"/>
       <c r="U9" s="25"/>
@@ -8883,22 +8910,22 @@
       <c r="BP9" s="26"/>
     </row>
     <row r="10" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="517"/>
-      <c r="B10" s="484"/>
-      <c r="C10" s="485"/>
-      <c r="D10" s="486"/>
-      <c r="E10" s="486"/>
-      <c r="F10" s="488"/>
-      <c r="G10" s="488"/>
-      <c r="H10" s="487"/>
+      <c r="A10" s="483"/>
+      <c r="B10" s="450"/>
+      <c r="C10" s="451"/>
+      <c r="D10" s="452"/>
+      <c r="E10" s="452"/>
+      <c r="F10" s="454"/>
+      <c r="G10" s="454"/>
+      <c r="H10" s="453"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
-      <c r="L10" s="346"/>
+      <c r="L10" s="330"/>
       <c r="M10" s="99"/>
       <c r="N10" s="55"/>
       <c r="O10" s="55"/>
-      <c r="P10" s="347"/>
+      <c r="P10" s="331"/>
       <c r="Q10" s="85"/>
       <c r="R10" s="85"/>
       <c r="S10" s="25"/>
@@ -8953,22 +8980,22 @@
       <c r="BP10" s="26"/>
     </row>
     <row r="11" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="517"/>
-      <c r="B11" s="489"/>
-      <c r="C11" s="485"/>
-      <c r="D11" s="486"/>
-      <c r="E11" s="485"/>
-      <c r="F11" s="485"/>
-      <c r="G11" s="488"/>
-      <c r="H11" s="487"/>
+      <c r="A11" s="483"/>
+      <c r="B11" s="455"/>
+      <c r="C11" s="451"/>
+      <c r="D11" s="452"/>
+      <c r="E11" s="451"/>
+      <c r="F11" s="451"/>
+      <c r="G11" s="454"/>
+      <c r="H11" s="453"/>
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
-      <c r="L11" s="346"/>
+      <c r="L11" s="330"/>
       <c r="M11" s="99"/>
       <c r="N11" s="55"/>
       <c r="O11" s="55"/>
-      <c r="P11" s="347"/>
+      <c r="P11" s="331"/>
       <c r="Q11" s="85"/>
       <c r="R11" s="85"/>
       <c r="S11" s="25"/>
@@ -9023,22 +9050,22 @@
       <c r="BP11" s="26"/>
     </row>
     <row r="12" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="516"/>
-      <c r="B12" s="490"/>
-      <c r="C12" s="490"/>
-      <c r="D12" s="490"/>
-      <c r="E12" s="490"/>
-      <c r="F12" s="490"/>
-      <c r="G12" s="490"/>
-      <c r="H12" s="491"/>
+      <c r="A12" s="482"/>
+      <c r="B12" s="456"/>
+      <c r="C12" s="456"/>
+      <c r="D12" s="456"/>
+      <c r="E12" s="456"/>
+      <c r="F12" s="456"/>
+      <c r="G12" s="456"/>
+      <c r="H12" s="457"/>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
-      <c r="L12" s="346"/>
+      <c r="L12" s="330"/>
       <c r="M12" s="99"/>
       <c r="N12" s="55"/>
       <c r="O12" s="55"/>
-      <c r="P12" s="347"/>
+      <c r="P12" s="331"/>
       <c r="Q12" s="25"/>
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
@@ -9093,22 +9120,22 @@
       <c r="BP12" s="26"/>
     </row>
     <row r="13" spans="1:68" s="124" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="518"/>
-      <c r="B13" s="492"/>
-      <c r="C13" s="493"/>
-      <c r="D13" s="493"/>
-      <c r="E13" s="493"/>
-      <c r="F13" s="493"/>
-      <c r="G13" s="493"/>
-      <c r="H13" s="494"/>
+      <c r="A13" s="484"/>
+      <c r="B13" s="458"/>
+      <c r="C13" s="459"/>
+      <c r="D13" s="459"/>
+      <c r="E13" s="459"/>
+      <c r="F13" s="459"/>
+      <c r="G13" s="459"/>
+      <c r="H13" s="460"/>
       <c r="I13" s="121"/>
       <c r="J13" s="121"/>
       <c r="K13" s="121"/>
-      <c r="L13" s="346"/>
+      <c r="L13" s="330"/>
       <c r="M13" s="99"/>
       <c r="N13" s="122"/>
       <c r="O13" s="122"/>
-      <c r="P13" s="353"/>
+      <c r="P13" s="337"/>
       <c r="Q13" s="121"/>
       <c r="R13" s="121"/>
       <c r="S13" s="121"/>
@@ -9163,22 +9190,22 @@
       <c r="BP13" s="123"/>
     </row>
     <row r="14" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="516"/>
-      <c r="B14" s="495"/>
-      <c r="C14" s="496"/>
-      <c r="D14" s="496"/>
-      <c r="E14" s="496"/>
-      <c r="F14" s="497"/>
-      <c r="G14" s="495"/>
-      <c r="H14" s="498"/>
+      <c r="A14" s="482"/>
+      <c r="B14" s="461"/>
+      <c r="C14" s="462"/>
+      <c r="D14" s="462"/>
+      <c r="E14" s="462"/>
+      <c r="F14" s="463"/>
+      <c r="G14" s="461"/>
+      <c r="H14" s="464"/>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
       <c r="K14" s="25"/>
-      <c r="L14" s="346"/>
+      <c r="L14" s="330"/>
       <c r="M14" s="99"/>
       <c r="N14" s="55"/>
       <c r="O14" s="55"/>
-      <c r="P14" s="347"/>
+      <c r="P14" s="331"/>
       <c r="Q14" s="25"/>
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
@@ -9233,22 +9260,22 @@
       <c r="BP14" s="26"/>
     </row>
     <row r="15" spans="1:68" s="124" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="518"/>
-      <c r="B15" s="499"/>
-      <c r="C15" s="500"/>
-      <c r="D15" s="500"/>
-      <c r="E15" s="500"/>
-      <c r="F15" s="501"/>
-      <c r="G15" s="499"/>
-      <c r="H15" s="502"/>
+      <c r="A15" s="484"/>
+      <c r="B15" s="465"/>
+      <c r="C15" s="466"/>
+      <c r="D15" s="466"/>
+      <c r="E15" s="466"/>
+      <c r="F15" s="467"/>
+      <c r="G15" s="465"/>
+      <c r="H15" s="468"/>
       <c r="I15" s="121"/>
       <c r="J15" s="121"/>
       <c r="K15" s="121"/>
-      <c r="L15" s="346"/>
+      <c r="L15" s="330"/>
       <c r="M15" s="99"/>
       <c r="N15" s="122"/>
       <c r="O15" s="122"/>
-      <c r="P15" s="353"/>
+      <c r="P15" s="337"/>
       <c r="Q15" s="121"/>
       <c r="R15" s="121"/>
       <c r="S15" s="121"/>
@@ -9303,19 +9330,19 @@
       <c r="BP15" s="123"/>
     </row>
     <row r="16" spans="1:68" s="124" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="519"/>
-      <c r="B16" s="503"/>
-      <c r="C16" s="503"/>
-      <c r="D16" s="503"/>
-      <c r="E16" s="503"/>
-      <c r="F16" s="503"/>
-      <c r="G16" s="503"/>
-      <c r="H16" s="504"/>
+      <c r="A16" s="485"/>
+      <c r="B16" s="469"/>
+      <c r="C16" s="469"/>
+      <c r="D16" s="469"/>
+      <c r="E16" s="469"/>
+      <c r="F16" s="469"/>
+      <c r="G16" s="469"/>
+      <c r="H16" s="470"/>
       <c r="I16" s="121"/>
       <c r="J16" s="121"/>
       <c r="K16" s="121"/>
-      <c r="L16" s="354"/>
-      <c r="P16" s="355"/>
+      <c r="L16" s="338"/>
+      <c r="P16" s="339"/>
       <c r="Q16" s="121"/>
       <c r="R16" s="121"/>
       <c r="S16" s="121"/>
@@ -9370,19 +9397,19 @@
       <c r="BP16" s="123"/>
     </row>
     <row r="17" spans="1:68" s="124" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="520"/>
-      <c r="B17" s="499"/>
-      <c r="C17" s="500"/>
-      <c r="D17" s="500"/>
-      <c r="E17" s="500"/>
-      <c r="F17" s="501"/>
-      <c r="G17" s="499"/>
-      <c r="H17" s="502"/>
+      <c r="A17" s="486"/>
+      <c r="B17" s="465"/>
+      <c r="C17" s="466"/>
+      <c r="D17" s="466"/>
+      <c r="E17" s="466"/>
+      <c r="F17" s="467"/>
+      <c r="G17" s="465"/>
+      <c r="H17" s="468"/>
       <c r="I17" s="121"/>
       <c r="J17" s="121"/>
       <c r="K17" s="121"/>
-      <c r="L17" s="354"/>
-      <c r="P17" s="355"/>
+      <c r="L17" s="338"/>
+      <c r="P17" s="339"/>
       <c r="Q17" s="121"/>
       <c r="R17" s="121"/>
       <c r="S17" s="121"/>
@@ -9437,19 +9464,19 @@
       <c r="BP17" s="123"/>
     </row>
     <row r="18" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="516"/>
-      <c r="B18" s="490"/>
-      <c r="C18" s="490"/>
-      <c r="D18" s="490"/>
-      <c r="E18" s="490"/>
-      <c r="F18" s="490"/>
-      <c r="G18" s="490"/>
-      <c r="H18" s="491"/>
+      <c r="A18" s="482"/>
+      <c r="B18" s="456"/>
+      <c r="C18" s="456"/>
+      <c r="D18" s="456"/>
+      <c r="E18" s="456"/>
+      <c r="F18" s="456"/>
+      <c r="G18" s="456"/>
+      <c r="H18" s="457"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
-      <c r="L18" s="356"/>
-      <c r="P18" s="357"/>
+      <c r="L18" s="340"/>
+      <c r="P18" s="341"/>
       <c r="Q18" s="25"/>
       <c r="R18" s="25"/>
       <c r="S18" s="25"/>
@@ -9504,19 +9531,19 @@
       <c r="BP18" s="26"/>
     </row>
     <row r="19" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="516"/>
-      <c r="B19" s="490"/>
-      <c r="C19" s="490"/>
-      <c r="D19" s="490"/>
-      <c r="E19" s="490"/>
-      <c r="F19" s="490"/>
-      <c r="G19" s="490"/>
-      <c r="H19" s="491"/>
+      <c r="A19" s="482"/>
+      <c r="B19" s="456"/>
+      <c r="C19" s="456"/>
+      <c r="D19" s="456"/>
+      <c r="E19" s="456"/>
+      <c r="F19" s="456"/>
+      <c r="G19" s="456"/>
+      <c r="H19" s="457"/>
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
-      <c r="L19" s="356"/>
-      <c r="P19" s="357"/>
+      <c r="L19" s="340"/>
+      <c r="P19" s="341"/>
       <c r="Q19" s="25"/>
       <c r="R19" s="25"/>
       <c r="S19" s="25"/>
@@ -9571,19 +9598,19 @@
       <c r="BP19" s="26"/>
     </row>
     <row r="20" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="516"/>
-      <c r="B20" s="490"/>
-      <c r="C20" s="490"/>
-      <c r="D20" s="490"/>
-      <c r="E20" s="490"/>
-      <c r="F20" s="490"/>
-      <c r="G20" s="490"/>
-      <c r="H20" s="491"/>
+      <c r="A20" s="482"/>
+      <c r="B20" s="456"/>
+      <c r="C20" s="456"/>
+      <c r="D20" s="456"/>
+      <c r="E20" s="456"/>
+      <c r="F20" s="456"/>
+      <c r="G20" s="456"/>
+      <c r="H20" s="457"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
-      <c r="L20" s="356"/>
-      <c r="P20" s="357"/>
+      <c r="L20" s="340"/>
+      <c r="P20" s="341"/>
       <c r="Q20" s="25"/>
       <c r="R20" s="25"/>
       <c r="S20" s="25"/>
@@ -9638,19 +9665,19 @@
       <c r="BP20" s="26"/>
     </row>
     <row r="21" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="518"/>
-      <c r="B21" s="505"/>
-      <c r="C21" s="506"/>
-      <c r="D21" s="507"/>
-      <c r="E21" s="507"/>
-      <c r="F21" s="506"/>
-      <c r="G21" s="505"/>
-      <c r="H21" s="508"/>
+      <c r="A21" s="484"/>
+      <c r="B21" s="471"/>
+      <c r="C21" s="472"/>
+      <c r="D21" s="473"/>
+      <c r="E21" s="473"/>
+      <c r="F21" s="472"/>
+      <c r="G21" s="471"/>
+      <c r="H21" s="474"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
-      <c r="L21" s="356"/>
-      <c r="P21" s="357"/>
+      <c r="L21" s="340"/>
+      <c r="P21" s="341"/>
       <c r="Q21" s="25"/>
       <c r="R21" s="25"/>
       <c r="S21" s="25"/>
@@ -9705,19 +9732,19 @@
       <c r="BP21" s="26"/>
     </row>
     <row r="22" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="518"/>
-      <c r="B22" s="490"/>
-      <c r="C22" s="490"/>
-      <c r="D22" s="490"/>
-      <c r="E22" s="490"/>
-      <c r="F22" s="490"/>
-      <c r="G22" s="490"/>
-      <c r="H22" s="491"/>
+      <c r="A22" s="484"/>
+      <c r="B22" s="456"/>
+      <c r="C22" s="456"/>
+      <c r="D22" s="456"/>
+      <c r="E22" s="456"/>
+      <c r="F22" s="456"/>
+      <c r="G22" s="456"/>
+      <c r="H22" s="457"/>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
-      <c r="L22" s="356"/>
-      <c r="P22" s="357"/>
+      <c r="L22" s="340"/>
+      <c r="P22" s="341"/>
       <c r="Q22" s="25"/>
       <c r="R22" s="25"/>
       <c r="S22" s="25"/>
@@ -9772,19 +9799,19 @@
       <c r="BP22" s="26"/>
     </row>
     <row r="23" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="516"/>
-      <c r="B23" s="495"/>
-      <c r="C23" s="497"/>
-      <c r="D23" s="496"/>
-      <c r="E23" s="496"/>
-      <c r="F23" s="497"/>
-      <c r="G23" s="495"/>
-      <c r="H23" s="498"/>
+      <c r="A23" s="482"/>
+      <c r="B23" s="461"/>
+      <c r="C23" s="463"/>
+      <c r="D23" s="462"/>
+      <c r="E23" s="462"/>
+      <c r="F23" s="463"/>
+      <c r="G23" s="461"/>
+      <c r="H23" s="464"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
-      <c r="L23" s="356"/>
-      <c r="P23" s="357"/>
+      <c r="L23" s="340"/>
+      <c r="P23" s="341"/>
       <c r="Q23" s="25"/>
       <c r="R23" s="25"/>
       <c r="S23" s="25"/>
@@ -9839,19 +9866,19 @@
       <c r="BP23" s="26"/>
     </row>
     <row r="24" spans="1:68" s="124" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="518"/>
-      <c r="B24" s="509"/>
-      <c r="C24" s="509"/>
-      <c r="D24" s="509"/>
-      <c r="E24" s="509"/>
-      <c r="F24" s="509"/>
-      <c r="G24" s="509"/>
-      <c r="H24" s="510"/>
+      <c r="A24" s="484"/>
+      <c r="B24" s="475"/>
+      <c r="C24" s="475"/>
+      <c r="D24" s="475"/>
+      <c r="E24" s="475"/>
+      <c r="F24" s="475"/>
+      <c r="G24" s="475"/>
+      <c r="H24" s="476"/>
       <c r="I24" s="121"/>
       <c r="J24" s="121"/>
       <c r="K24" s="121"/>
-      <c r="L24" s="354"/>
-      <c r="P24" s="355"/>
+      <c r="L24" s="338"/>
+      <c r="P24" s="339"/>
       <c r="Q24" s="121"/>
       <c r="R24" s="121"/>
       <c r="S24" s="121"/>
@@ -9906,19 +9933,19 @@
       <c r="BP24" s="123"/>
     </row>
     <row r="25" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="516"/>
-      <c r="B25" s="490"/>
-      <c r="C25" s="490"/>
-      <c r="D25" s="490"/>
-      <c r="E25" s="490"/>
-      <c r="F25" s="490"/>
-      <c r="G25" s="490"/>
-      <c r="H25" s="491"/>
+      <c r="A25" s="482"/>
+      <c r="B25" s="456"/>
+      <c r="C25" s="456"/>
+      <c r="D25" s="456"/>
+      <c r="E25" s="456"/>
+      <c r="F25" s="456"/>
+      <c r="G25" s="456"/>
+      <c r="H25" s="457"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
-      <c r="L25" s="356"/>
-      <c r="P25" s="357"/>
+      <c r="L25" s="340"/>
+      <c r="P25" s="341"/>
       <c r="Q25" s="25"/>
       <c r="R25" s="25"/>
       <c r="S25" s="25"/>
@@ -9972,422 +9999,422 @@
       <c r="BO25" s="25"/>
       <c r="BP25" s="26"/>
     </row>
-    <row r="26" spans="1:68" s="360" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="516"/>
-      <c r="B26" s="490"/>
-      <c r="C26" s="490"/>
-      <c r="D26" s="490"/>
-      <c r="E26" s="490"/>
-      <c r="F26" s="490"/>
-      <c r="G26" s="490"/>
-      <c r="H26" s="491"/>
-      <c r="I26" s="358"/>
-      <c r="J26" s="358"/>
-      <c r="K26" s="358"/>
-      <c r="L26" s="359"/>
-      <c r="P26" s="361"/>
-      <c r="Q26" s="358"/>
-      <c r="R26" s="358"/>
-      <c r="S26" s="358"/>
-      <c r="T26" s="358"/>
-      <c r="U26" s="358"/>
-      <c r="V26" s="358"/>
-      <c r="W26" s="358"/>
-      <c r="X26" s="358"/>
-      <c r="Y26" s="358"/>
-      <c r="Z26" s="358"/>
-      <c r="AA26" s="358"/>
-      <c r="AB26" s="358"/>
-      <c r="AC26" s="358"/>
-      <c r="AD26" s="358"/>
-      <c r="AE26" s="358"/>
-      <c r="AF26" s="358"/>
-      <c r="AG26" s="358"/>
-      <c r="AH26" s="358"/>
-      <c r="AI26" s="358"/>
-      <c r="AJ26" s="358"/>
-      <c r="AK26" s="358"/>
-      <c r="AL26" s="358"/>
-      <c r="AM26" s="358"/>
-      <c r="AN26" s="358"/>
-      <c r="AO26" s="358"/>
-      <c r="AP26" s="358"/>
-      <c r="AQ26" s="358"/>
-      <c r="AR26" s="358"/>
-      <c r="AS26" s="358"/>
-      <c r="AT26" s="358"/>
-      <c r="AU26" s="358"/>
-      <c r="AV26" s="358"/>
-      <c r="AW26" s="358"/>
-      <c r="AX26" s="358"/>
-      <c r="AY26" s="358"/>
-      <c r="AZ26" s="358"/>
-      <c r="BA26" s="358"/>
-      <c r="BB26" s="358"/>
-      <c r="BC26" s="358"/>
-      <c r="BD26" s="358"/>
-      <c r="BE26" s="358"/>
-      <c r="BF26" s="358"/>
-      <c r="BG26" s="358"/>
-      <c r="BH26" s="358"/>
-      <c r="BI26" s="358"/>
-      <c r="BJ26" s="358"/>
-      <c r="BK26" s="358"/>
-      <c r="BL26" s="358"/>
-      <c r="BM26" s="358"/>
-      <c r="BN26" s="358"/>
-      <c r="BO26" s="358"/>
-      <c r="BP26" s="362"/>
-    </row>
-    <row r="27" spans="1:68" s="360" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="521"/>
-      <c r="B27" s="495"/>
-      <c r="C27" s="496"/>
-      <c r="D27" s="496"/>
-      <c r="E27" s="496"/>
-      <c r="F27" s="497"/>
-      <c r="G27" s="495"/>
-      <c r="H27" s="498"/>
-      <c r="I27" s="358"/>
-      <c r="J27" s="358"/>
-      <c r="K27" s="358"/>
-      <c r="L27" s="359"/>
-      <c r="P27" s="361"/>
-      <c r="Q27" s="358"/>
-      <c r="R27" s="358"/>
-      <c r="S27" s="358"/>
-      <c r="T27" s="358"/>
-      <c r="U27" s="358"/>
-      <c r="V27" s="358"/>
-      <c r="W27" s="358"/>
-      <c r="X27" s="358"/>
-      <c r="Y27" s="358"/>
-      <c r="Z27" s="358"/>
-      <c r="AA27" s="358"/>
-      <c r="AB27" s="358"/>
-      <c r="AC27" s="358"/>
-      <c r="AD27" s="358"/>
-      <c r="AE27" s="358"/>
-      <c r="AF27" s="358"/>
-      <c r="AG27" s="358"/>
-      <c r="AH27" s="358"/>
-      <c r="AI27" s="358"/>
-      <c r="AJ27" s="358"/>
-      <c r="AK27" s="358"/>
-      <c r="AL27" s="358"/>
-      <c r="AM27" s="358"/>
-      <c r="AN27" s="358"/>
-      <c r="AO27" s="358"/>
-      <c r="AP27" s="358"/>
-      <c r="AQ27" s="358"/>
-      <c r="AR27" s="358"/>
-      <c r="AS27" s="358"/>
-      <c r="AT27" s="358"/>
-      <c r="AU27" s="358"/>
-      <c r="AV27" s="358"/>
-      <c r="AW27" s="358"/>
-      <c r="AX27" s="358"/>
-      <c r="AY27" s="358"/>
-      <c r="AZ27" s="358"/>
-      <c r="BA27" s="358"/>
-      <c r="BB27" s="358"/>
-      <c r="BC27" s="358"/>
-      <c r="BD27" s="358"/>
-      <c r="BE27" s="358"/>
-      <c r="BF27" s="358"/>
-      <c r="BG27" s="358"/>
-      <c r="BH27" s="358"/>
-      <c r="BI27" s="358"/>
-      <c r="BJ27" s="358"/>
-      <c r="BK27" s="358"/>
-      <c r="BL27" s="358"/>
-      <c r="BM27" s="358"/>
-      <c r="BN27" s="358"/>
-      <c r="BO27" s="358"/>
-      <c r="BP27" s="362"/>
-    </row>
-    <row r="28" spans="1:68" s="360" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="522"/>
-      <c r="B28" s="495"/>
-      <c r="C28" s="496"/>
-      <c r="D28" s="496"/>
-      <c r="E28" s="496"/>
-      <c r="F28" s="497"/>
-      <c r="G28" s="495"/>
-      <c r="H28" s="498"/>
-      <c r="I28" s="358"/>
-      <c r="J28" s="358"/>
-      <c r="K28" s="358"/>
-      <c r="L28" s="359"/>
-      <c r="P28" s="361"/>
-      <c r="Q28" s="358"/>
-      <c r="R28" s="358"/>
-      <c r="S28" s="358"/>
-      <c r="T28" s="358"/>
-      <c r="U28" s="358"/>
-      <c r="V28" s="358"/>
-      <c r="W28" s="358"/>
-      <c r="X28" s="358"/>
-      <c r="Y28" s="358"/>
-      <c r="Z28" s="358"/>
-      <c r="AA28" s="358"/>
-      <c r="AB28" s="358"/>
-      <c r="AC28" s="358"/>
-      <c r="AD28" s="358"/>
-      <c r="AE28" s="358"/>
-      <c r="AF28" s="358"/>
-      <c r="AG28" s="358"/>
-      <c r="AH28" s="358"/>
-      <c r="AI28" s="358"/>
-      <c r="AJ28" s="358"/>
-      <c r="AK28" s="358"/>
-      <c r="AL28" s="358"/>
-      <c r="AM28" s="358"/>
-      <c r="AN28" s="358"/>
-      <c r="AO28" s="358"/>
-      <c r="AP28" s="358"/>
-      <c r="AQ28" s="358"/>
-      <c r="AR28" s="358"/>
-      <c r="AS28" s="358"/>
-      <c r="AT28" s="358"/>
-      <c r="AU28" s="358"/>
-      <c r="AV28" s="358"/>
-      <c r="AW28" s="358"/>
-      <c r="AX28" s="358"/>
-      <c r="AY28" s="358"/>
-      <c r="AZ28" s="358"/>
-      <c r="BA28" s="358"/>
-      <c r="BB28" s="358"/>
-      <c r="BC28" s="358"/>
-      <c r="BD28" s="358"/>
-      <c r="BE28" s="358"/>
-      <c r="BF28" s="358"/>
-      <c r="BG28" s="358"/>
-      <c r="BH28" s="358"/>
-      <c r="BI28" s="358"/>
-      <c r="BJ28" s="358"/>
-      <c r="BK28" s="358"/>
-      <c r="BL28" s="358"/>
-      <c r="BM28" s="358"/>
-      <c r="BN28" s="358"/>
-      <c r="BO28" s="358"/>
-      <c r="BP28" s="362"/>
-    </row>
-    <row r="29" spans="1:68" s="360" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="522"/>
-      <c r="B29" s="495"/>
-      <c r="C29" s="496"/>
-      <c r="D29" s="496"/>
-      <c r="E29" s="496"/>
-      <c r="F29" s="497"/>
-      <c r="G29" s="495"/>
-      <c r="H29" s="498"/>
-      <c r="I29" s="358"/>
-      <c r="J29" s="358"/>
-      <c r="K29" s="358"/>
-      <c r="L29" s="359"/>
-      <c r="P29" s="361"/>
-      <c r="Q29" s="358"/>
-      <c r="R29" s="358"/>
-      <c r="S29" s="358"/>
-      <c r="T29" s="358"/>
-      <c r="U29" s="358"/>
-      <c r="V29" s="358"/>
-      <c r="W29" s="358"/>
-      <c r="X29" s="358"/>
-      <c r="Y29" s="358"/>
-      <c r="Z29" s="358"/>
-      <c r="AA29" s="358"/>
-      <c r="AB29" s="358"/>
-      <c r="AC29" s="358"/>
-      <c r="AD29" s="358"/>
-      <c r="AE29" s="358"/>
-      <c r="AF29" s="358"/>
-      <c r="AG29" s="358"/>
-      <c r="AH29" s="358"/>
-      <c r="AI29" s="358"/>
-      <c r="AJ29" s="358"/>
-      <c r="AK29" s="358"/>
-      <c r="AL29" s="358"/>
-      <c r="AM29" s="358"/>
-      <c r="AN29" s="358"/>
-      <c r="AO29" s="358"/>
-      <c r="AP29" s="358"/>
-      <c r="AQ29" s="358"/>
-      <c r="AR29" s="358"/>
-      <c r="AS29" s="358"/>
-      <c r="AT29" s="358"/>
-      <c r="AU29" s="358"/>
-      <c r="AV29" s="358"/>
-      <c r="AW29" s="358"/>
-      <c r="AX29" s="358"/>
-      <c r="AY29" s="358"/>
-      <c r="AZ29" s="358"/>
-      <c r="BA29" s="358"/>
-      <c r="BB29" s="358"/>
-      <c r="BC29" s="358"/>
-      <c r="BD29" s="358"/>
-      <c r="BE29" s="358"/>
-      <c r="BF29" s="358"/>
-      <c r="BG29" s="358"/>
-      <c r="BH29" s="358"/>
-      <c r="BI29" s="358"/>
-      <c r="BJ29" s="358"/>
-      <c r="BK29" s="358"/>
-      <c r="BL29" s="358"/>
-      <c r="BM29" s="358"/>
-      <c r="BN29" s="358"/>
-      <c r="BO29" s="358"/>
-      <c r="BP29" s="362"/>
-    </row>
-    <row r="30" spans="1:68" s="360" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="522"/>
-      <c r="B30" s="495"/>
-      <c r="C30" s="496"/>
-      <c r="D30" s="496"/>
-      <c r="E30" s="496"/>
-      <c r="F30" s="497"/>
-      <c r="G30" s="495"/>
-      <c r="H30" s="498"/>
-      <c r="I30" s="358"/>
-      <c r="J30" s="358"/>
-      <c r="K30" s="358"/>
-      <c r="L30" s="359"/>
-      <c r="P30" s="361"/>
-      <c r="Q30" s="358"/>
-      <c r="R30" s="358"/>
-      <c r="S30" s="358"/>
-      <c r="T30" s="358"/>
-      <c r="U30" s="358"/>
-      <c r="V30" s="358"/>
-      <c r="W30" s="358"/>
-      <c r="X30" s="358"/>
-      <c r="Y30" s="358"/>
-      <c r="Z30" s="358"/>
-      <c r="AA30" s="358"/>
-      <c r="AB30" s="358"/>
-      <c r="AC30" s="358"/>
-      <c r="AD30" s="358"/>
-      <c r="AE30" s="358"/>
-      <c r="AF30" s="358"/>
-      <c r="AG30" s="358"/>
-      <c r="AH30" s="358"/>
-      <c r="AI30" s="358"/>
-      <c r="AJ30" s="358"/>
-      <c r="AK30" s="358"/>
-      <c r="AL30" s="358"/>
-      <c r="AM30" s="358"/>
-      <c r="AN30" s="358"/>
-      <c r="AO30" s="358"/>
-      <c r="AP30" s="358"/>
-      <c r="AQ30" s="358"/>
-      <c r="AR30" s="358"/>
-      <c r="AS30" s="358"/>
-      <c r="AT30" s="358"/>
-      <c r="AU30" s="358"/>
-      <c r="AV30" s="358"/>
-      <c r="AW30" s="358"/>
-      <c r="AX30" s="358"/>
-      <c r="AY30" s="358"/>
-      <c r="AZ30" s="358"/>
-      <c r="BA30" s="358"/>
-      <c r="BB30" s="358"/>
-      <c r="BC30" s="358"/>
-      <c r="BD30" s="358"/>
-      <c r="BE30" s="358"/>
-      <c r="BF30" s="358"/>
-      <c r="BG30" s="358"/>
-      <c r="BH30" s="358"/>
-      <c r="BI30" s="358"/>
-      <c r="BJ30" s="358"/>
-      <c r="BK30" s="358"/>
-      <c r="BL30" s="358"/>
-      <c r="BM30" s="358"/>
-      <c r="BN30" s="358"/>
-      <c r="BO30" s="358"/>
-      <c r="BP30" s="362"/>
-    </row>
-    <row r="31" spans="1:68" s="360" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="522"/>
-      <c r="B31" s="495"/>
-      <c r="C31" s="496"/>
-      <c r="D31" s="496"/>
-      <c r="E31" s="496"/>
-      <c r="F31" s="497"/>
-      <c r="G31" s="495"/>
-      <c r="H31" s="498"/>
-      <c r="I31" s="358"/>
-      <c r="J31" s="358"/>
-      <c r="K31" s="358"/>
-      <c r="L31" s="359"/>
-      <c r="P31" s="361"/>
-      <c r="Q31" s="358"/>
-      <c r="R31" s="358"/>
-      <c r="S31" s="358"/>
-      <c r="T31" s="358"/>
-      <c r="U31" s="358"/>
-      <c r="V31" s="358"/>
-      <c r="W31" s="358"/>
-      <c r="X31" s="358"/>
-      <c r="Y31" s="358"/>
-      <c r="Z31" s="358"/>
-      <c r="AA31" s="358"/>
-      <c r="AB31" s="358"/>
-      <c r="AC31" s="358"/>
-      <c r="AD31" s="358"/>
-      <c r="AE31" s="358"/>
-      <c r="AF31" s="358"/>
-      <c r="AG31" s="358"/>
-      <c r="AH31" s="358"/>
-      <c r="AI31" s="358"/>
-      <c r="AJ31" s="358"/>
-      <c r="AK31" s="358"/>
-      <c r="AL31" s="358"/>
-      <c r="AM31" s="358"/>
-      <c r="AN31" s="358"/>
-      <c r="AO31" s="358"/>
-      <c r="AP31" s="358"/>
-      <c r="AQ31" s="358"/>
-      <c r="AR31" s="358"/>
-      <c r="AS31" s="358"/>
-      <c r="AT31" s="358"/>
-      <c r="AU31" s="358"/>
-      <c r="AV31" s="358"/>
-      <c r="AW31" s="358"/>
-      <c r="AX31" s="358"/>
-      <c r="AY31" s="358"/>
-      <c r="AZ31" s="358"/>
-      <c r="BA31" s="358"/>
-      <c r="BB31" s="358"/>
-      <c r="BC31" s="358"/>
-      <c r="BD31" s="358"/>
-      <c r="BE31" s="358"/>
-      <c r="BF31" s="358"/>
-      <c r="BG31" s="358"/>
-      <c r="BH31" s="358"/>
-      <c r="BI31" s="358"/>
-      <c r="BJ31" s="358"/>
-      <c r="BK31" s="358"/>
-      <c r="BL31" s="358"/>
-      <c r="BM31" s="358"/>
-      <c r="BN31" s="358"/>
-      <c r="BO31" s="358"/>
-      <c r="BP31" s="362"/>
+    <row r="26" spans="1:68" s="344" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="482"/>
+      <c r="B26" s="456"/>
+      <c r="C26" s="456"/>
+      <c r="D26" s="456"/>
+      <c r="E26" s="456"/>
+      <c r="F26" s="456"/>
+      <c r="G26" s="456"/>
+      <c r="H26" s="457"/>
+      <c r="I26" s="342"/>
+      <c r="J26" s="342"/>
+      <c r="K26" s="342"/>
+      <c r="L26" s="343"/>
+      <c r="P26" s="345"/>
+      <c r="Q26" s="342"/>
+      <c r="R26" s="342"/>
+      <c r="S26" s="342"/>
+      <c r="T26" s="342"/>
+      <c r="U26" s="342"/>
+      <c r="V26" s="342"/>
+      <c r="W26" s="342"/>
+      <c r="X26" s="342"/>
+      <c r="Y26" s="342"/>
+      <c r="Z26" s="342"/>
+      <c r="AA26" s="342"/>
+      <c r="AB26" s="342"/>
+      <c r="AC26" s="342"/>
+      <c r="AD26" s="342"/>
+      <c r="AE26" s="342"/>
+      <c r="AF26" s="342"/>
+      <c r="AG26" s="342"/>
+      <c r="AH26" s="342"/>
+      <c r="AI26" s="342"/>
+      <c r="AJ26" s="342"/>
+      <c r="AK26" s="342"/>
+      <c r="AL26" s="342"/>
+      <c r="AM26" s="342"/>
+      <c r="AN26" s="342"/>
+      <c r="AO26" s="342"/>
+      <c r="AP26" s="342"/>
+      <c r="AQ26" s="342"/>
+      <c r="AR26" s="342"/>
+      <c r="AS26" s="342"/>
+      <c r="AT26" s="342"/>
+      <c r="AU26" s="342"/>
+      <c r="AV26" s="342"/>
+      <c r="AW26" s="342"/>
+      <c r="AX26" s="342"/>
+      <c r="AY26" s="342"/>
+      <c r="AZ26" s="342"/>
+      <c r="BA26" s="342"/>
+      <c r="BB26" s="342"/>
+      <c r="BC26" s="342"/>
+      <c r="BD26" s="342"/>
+      <c r="BE26" s="342"/>
+      <c r="BF26" s="342"/>
+      <c r="BG26" s="342"/>
+      <c r="BH26" s="342"/>
+      <c r="BI26" s="342"/>
+      <c r="BJ26" s="342"/>
+      <c r="BK26" s="342"/>
+      <c r="BL26" s="342"/>
+      <c r="BM26" s="342"/>
+      <c r="BN26" s="342"/>
+      <c r="BO26" s="342"/>
+      <c r="BP26" s="346"/>
+    </row>
+    <row r="27" spans="1:68" s="344" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="487"/>
+      <c r="B27" s="461"/>
+      <c r="C27" s="462"/>
+      <c r="D27" s="462"/>
+      <c r="E27" s="462"/>
+      <c r="F27" s="463"/>
+      <c r="G27" s="461"/>
+      <c r="H27" s="464"/>
+      <c r="I27" s="342"/>
+      <c r="J27" s="342"/>
+      <c r="K27" s="342"/>
+      <c r="L27" s="343"/>
+      <c r="P27" s="345"/>
+      <c r="Q27" s="342"/>
+      <c r="R27" s="342"/>
+      <c r="S27" s="342"/>
+      <c r="T27" s="342"/>
+      <c r="U27" s="342"/>
+      <c r="V27" s="342"/>
+      <c r="W27" s="342"/>
+      <c r="X27" s="342"/>
+      <c r="Y27" s="342"/>
+      <c r="Z27" s="342"/>
+      <c r="AA27" s="342"/>
+      <c r="AB27" s="342"/>
+      <c r="AC27" s="342"/>
+      <c r="AD27" s="342"/>
+      <c r="AE27" s="342"/>
+      <c r="AF27" s="342"/>
+      <c r="AG27" s="342"/>
+      <c r="AH27" s="342"/>
+      <c r="AI27" s="342"/>
+      <c r="AJ27" s="342"/>
+      <c r="AK27" s="342"/>
+      <c r="AL27" s="342"/>
+      <c r="AM27" s="342"/>
+      <c r="AN27" s="342"/>
+      <c r="AO27" s="342"/>
+      <c r="AP27" s="342"/>
+      <c r="AQ27" s="342"/>
+      <c r="AR27" s="342"/>
+      <c r="AS27" s="342"/>
+      <c r="AT27" s="342"/>
+      <c r="AU27" s="342"/>
+      <c r="AV27" s="342"/>
+      <c r="AW27" s="342"/>
+      <c r="AX27" s="342"/>
+      <c r="AY27" s="342"/>
+      <c r="AZ27" s="342"/>
+      <c r="BA27" s="342"/>
+      <c r="BB27" s="342"/>
+      <c r="BC27" s="342"/>
+      <c r="BD27" s="342"/>
+      <c r="BE27" s="342"/>
+      <c r="BF27" s="342"/>
+      <c r="BG27" s="342"/>
+      <c r="BH27" s="342"/>
+      <c r="BI27" s="342"/>
+      <c r="BJ27" s="342"/>
+      <c r="BK27" s="342"/>
+      <c r="BL27" s="342"/>
+      <c r="BM27" s="342"/>
+      <c r="BN27" s="342"/>
+      <c r="BO27" s="342"/>
+      <c r="BP27" s="346"/>
+    </row>
+    <row r="28" spans="1:68" s="344" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="488"/>
+      <c r="B28" s="461"/>
+      <c r="C28" s="462"/>
+      <c r="D28" s="462"/>
+      <c r="E28" s="462"/>
+      <c r="F28" s="463"/>
+      <c r="G28" s="461"/>
+      <c r="H28" s="464"/>
+      <c r="I28" s="342"/>
+      <c r="J28" s="342"/>
+      <c r="K28" s="342"/>
+      <c r="L28" s="343"/>
+      <c r="P28" s="345"/>
+      <c r="Q28" s="342"/>
+      <c r="R28" s="342"/>
+      <c r="S28" s="342"/>
+      <c r="T28" s="342"/>
+      <c r="U28" s="342"/>
+      <c r="V28" s="342"/>
+      <c r="W28" s="342"/>
+      <c r="X28" s="342"/>
+      <c r="Y28" s="342"/>
+      <c r="Z28" s="342"/>
+      <c r="AA28" s="342"/>
+      <c r="AB28" s="342"/>
+      <c r="AC28" s="342"/>
+      <c r="AD28" s="342"/>
+      <c r="AE28" s="342"/>
+      <c r="AF28" s="342"/>
+      <c r="AG28" s="342"/>
+      <c r="AH28" s="342"/>
+      <c r="AI28" s="342"/>
+      <c r="AJ28" s="342"/>
+      <c r="AK28" s="342"/>
+      <c r="AL28" s="342"/>
+      <c r="AM28" s="342"/>
+      <c r="AN28" s="342"/>
+      <c r="AO28" s="342"/>
+      <c r="AP28" s="342"/>
+      <c r="AQ28" s="342"/>
+      <c r="AR28" s="342"/>
+      <c r="AS28" s="342"/>
+      <c r="AT28" s="342"/>
+      <c r="AU28" s="342"/>
+      <c r="AV28" s="342"/>
+      <c r="AW28" s="342"/>
+      <c r="AX28" s="342"/>
+      <c r="AY28" s="342"/>
+      <c r="AZ28" s="342"/>
+      <c r="BA28" s="342"/>
+      <c r="BB28" s="342"/>
+      <c r="BC28" s="342"/>
+      <c r="BD28" s="342"/>
+      <c r="BE28" s="342"/>
+      <c r="BF28" s="342"/>
+      <c r="BG28" s="342"/>
+      <c r="BH28" s="342"/>
+      <c r="BI28" s="342"/>
+      <c r="BJ28" s="342"/>
+      <c r="BK28" s="342"/>
+      <c r="BL28" s="342"/>
+      <c r="BM28" s="342"/>
+      <c r="BN28" s="342"/>
+      <c r="BO28" s="342"/>
+      <c r="BP28" s="346"/>
+    </row>
+    <row r="29" spans="1:68" s="344" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="488"/>
+      <c r="B29" s="461"/>
+      <c r="C29" s="462"/>
+      <c r="D29" s="462"/>
+      <c r="E29" s="462"/>
+      <c r="F29" s="463"/>
+      <c r="G29" s="461"/>
+      <c r="H29" s="464"/>
+      <c r="I29" s="342"/>
+      <c r="J29" s="342"/>
+      <c r="K29" s="342"/>
+      <c r="L29" s="343"/>
+      <c r="P29" s="345"/>
+      <c r="Q29" s="342"/>
+      <c r="R29" s="342"/>
+      <c r="S29" s="342"/>
+      <c r="T29" s="342"/>
+      <c r="U29" s="342"/>
+      <c r="V29" s="342"/>
+      <c r="W29" s="342"/>
+      <c r="X29" s="342"/>
+      <c r="Y29" s="342"/>
+      <c r="Z29" s="342"/>
+      <c r="AA29" s="342"/>
+      <c r="AB29" s="342"/>
+      <c r="AC29" s="342"/>
+      <c r="AD29" s="342"/>
+      <c r="AE29" s="342"/>
+      <c r="AF29" s="342"/>
+      <c r="AG29" s="342"/>
+      <c r="AH29" s="342"/>
+      <c r="AI29" s="342"/>
+      <c r="AJ29" s="342"/>
+      <c r="AK29" s="342"/>
+      <c r="AL29" s="342"/>
+      <c r="AM29" s="342"/>
+      <c r="AN29" s="342"/>
+      <c r="AO29" s="342"/>
+      <c r="AP29" s="342"/>
+      <c r="AQ29" s="342"/>
+      <c r="AR29" s="342"/>
+      <c r="AS29" s="342"/>
+      <c r="AT29" s="342"/>
+      <c r="AU29" s="342"/>
+      <c r="AV29" s="342"/>
+      <c r="AW29" s="342"/>
+      <c r="AX29" s="342"/>
+      <c r="AY29" s="342"/>
+      <c r="AZ29" s="342"/>
+      <c r="BA29" s="342"/>
+      <c r="BB29" s="342"/>
+      <c r="BC29" s="342"/>
+      <c r="BD29" s="342"/>
+      <c r="BE29" s="342"/>
+      <c r="BF29" s="342"/>
+      <c r="BG29" s="342"/>
+      <c r="BH29" s="342"/>
+      <c r="BI29" s="342"/>
+      <c r="BJ29" s="342"/>
+      <c r="BK29" s="342"/>
+      <c r="BL29" s="342"/>
+      <c r="BM29" s="342"/>
+      <c r="BN29" s="342"/>
+      <c r="BO29" s="342"/>
+      <c r="BP29" s="346"/>
+    </row>
+    <row r="30" spans="1:68" s="344" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="488"/>
+      <c r="B30" s="461"/>
+      <c r="C30" s="462"/>
+      <c r="D30" s="462"/>
+      <c r="E30" s="462"/>
+      <c r="F30" s="463"/>
+      <c r="G30" s="461"/>
+      <c r="H30" s="464"/>
+      <c r="I30" s="342"/>
+      <c r="J30" s="342"/>
+      <c r="K30" s="342"/>
+      <c r="L30" s="343"/>
+      <c r="P30" s="345"/>
+      <c r="Q30" s="342"/>
+      <c r="R30" s="342"/>
+      <c r="S30" s="342"/>
+      <c r="T30" s="342"/>
+      <c r="U30" s="342"/>
+      <c r="V30" s="342"/>
+      <c r="W30" s="342"/>
+      <c r="X30" s="342"/>
+      <c r="Y30" s="342"/>
+      <c r="Z30" s="342"/>
+      <c r="AA30" s="342"/>
+      <c r="AB30" s="342"/>
+      <c r="AC30" s="342"/>
+      <c r="AD30" s="342"/>
+      <c r="AE30" s="342"/>
+      <c r="AF30" s="342"/>
+      <c r="AG30" s="342"/>
+      <c r="AH30" s="342"/>
+      <c r="AI30" s="342"/>
+      <c r="AJ30" s="342"/>
+      <c r="AK30" s="342"/>
+      <c r="AL30" s="342"/>
+      <c r="AM30" s="342"/>
+      <c r="AN30" s="342"/>
+      <c r="AO30" s="342"/>
+      <c r="AP30" s="342"/>
+      <c r="AQ30" s="342"/>
+      <c r="AR30" s="342"/>
+      <c r="AS30" s="342"/>
+      <c r="AT30" s="342"/>
+      <c r="AU30" s="342"/>
+      <c r="AV30" s="342"/>
+      <c r="AW30" s="342"/>
+      <c r="AX30" s="342"/>
+      <c r="AY30" s="342"/>
+      <c r="AZ30" s="342"/>
+      <c r="BA30" s="342"/>
+      <c r="BB30" s="342"/>
+      <c r="BC30" s="342"/>
+      <c r="BD30" s="342"/>
+      <c r="BE30" s="342"/>
+      <c r="BF30" s="342"/>
+      <c r="BG30" s="342"/>
+      <c r="BH30" s="342"/>
+      <c r="BI30" s="342"/>
+      <c r="BJ30" s="342"/>
+      <c r="BK30" s="342"/>
+      <c r="BL30" s="342"/>
+      <c r="BM30" s="342"/>
+      <c r="BN30" s="342"/>
+      <c r="BO30" s="342"/>
+      <c r="BP30" s="346"/>
+    </row>
+    <row r="31" spans="1:68" s="344" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="488"/>
+      <c r="B31" s="461"/>
+      <c r="C31" s="462"/>
+      <c r="D31" s="462"/>
+      <c r="E31" s="462"/>
+      <c r="F31" s="463"/>
+      <c r="G31" s="461"/>
+      <c r="H31" s="464"/>
+      <c r="I31" s="342"/>
+      <c r="J31" s="342"/>
+      <c r="K31" s="342"/>
+      <c r="L31" s="343"/>
+      <c r="P31" s="345"/>
+      <c r="Q31" s="342"/>
+      <c r="R31" s="342"/>
+      <c r="S31" s="342"/>
+      <c r="T31" s="342"/>
+      <c r="U31" s="342"/>
+      <c r="V31" s="342"/>
+      <c r="W31" s="342"/>
+      <c r="X31" s="342"/>
+      <c r="Y31" s="342"/>
+      <c r="Z31" s="342"/>
+      <c r="AA31" s="342"/>
+      <c r="AB31" s="342"/>
+      <c r="AC31" s="342"/>
+      <c r="AD31" s="342"/>
+      <c r="AE31" s="342"/>
+      <c r="AF31" s="342"/>
+      <c r="AG31" s="342"/>
+      <c r="AH31" s="342"/>
+      <c r="AI31" s="342"/>
+      <c r="AJ31" s="342"/>
+      <c r="AK31" s="342"/>
+      <c r="AL31" s="342"/>
+      <c r="AM31" s="342"/>
+      <c r="AN31" s="342"/>
+      <c r="AO31" s="342"/>
+      <c r="AP31" s="342"/>
+      <c r="AQ31" s="342"/>
+      <c r="AR31" s="342"/>
+      <c r="AS31" s="342"/>
+      <c r="AT31" s="342"/>
+      <c r="AU31" s="342"/>
+      <c r="AV31" s="342"/>
+      <c r="AW31" s="342"/>
+      <c r="AX31" s="342"/>
+      <c r="AY31" s="342"/>
+      <c r="AZ31" s="342"/>
+      <c r="BA31" s="342"/>
+      <c r="BB31" s="342"/>
+      <c r="BC31" s="342"/>
+      <c r="BD31" s="342"/>
+      <c r="BE31" s="342"/>
+      <c r="BF31" s="342"/>
+      <c r="BG31" s="342"/>
+      <c r="BH31" s="342"/>
+      <c r="BI31" s="342"/>
+      <c r="BJ31" s="342"/>
+      <c r="BK31" s="342"/>
+      <c r="BL31" s="342"/>
+      <c r="BM31" s="342"/>
+      <c r="BN31" s="342"/>
+      <c r="BO31" s="342"/>
+      <c r="BP31" s="346"/>
     </row>
     <row r="32" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="516"/>
-      <c r="B32" s="490"/>
-      <c r="C32" s="490"/>
-      <c r="D32" s="490"/>
-      <c r="E32" s="490"/>
-      <c r="F32" s="490"/>
-      <c r="G32" s="490"/>
-      <c r="H32" s="491"/>
+      <c r="A32" s="482"/>
+      <c r="B32" s="456"/>
+      <c r="C32" s="456"/>
+      <c r="D32" s="456"/>
+      <c r="E32" s="456"/>
+      <c r="F32" s="456"/>
+      <c r="G32" s="456"/>
+      <c r="H32" s="457"/>
       <c r="I32" s="25"/>
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
-      <c r="L32" s="356"/>
-      <c r="P32" s="357"/>
+      <c r="L32" s="340"/>
+      <c r="P32" s="341"/>
       <c r="Q32" s="25"/>
       <c r="R32" s="25"/>
       <c r="S32" s="25"/>
@@ -10442,19 +10469,19 @@
       <c r="BP32" s="26"/>
     </row>
     <row r="33" spans="1:68" s="124" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="523"/>
-      <c r="B33" s="509"/>
-      <c r="C33" s="509"/>
-      <c r="D33" s="506"/>
-      <c r="E33" s="506"/>
-      <c r="F33" s="511"/>
-      <c r="G33" s="511"/>
-      <c r="H33" s="510"/>
+      <c r="A33" s="489"/>
+      <c r="B33" s="475"/>
+      <c r="C33" s="475"/>
+      <c r="D33" s="472"/>
+      <c r="E33" s="472"/>
+      <c r="F33" s="477"/>
+      <c r="G33" s="477"/>
+      <c r="H33" s="476"/>
       <c r="I33" s="121"/>
       <c r="J33" s="121"/>
       <c r="K33" s="121"/>
-      <c r="L33" s="354"/>
-      <c r="P33" s="355"/>
+      <c r="L33" s="338"/>
+      <c r="P33" s="339"/>
       <c r="Q33" s="121"/>
       <c r="R33" s="121"/>
       <c r="S33" s="121"/>
@@ -10509,22 +10536,22 @@
       <c r="BP33" s="123"/>
     </row>
     <row r="34" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="524"/>
-      <c r="B34" s="512"/>
-      <c r="C34" s="513"/>
-      <c r="D34" s="513"/>
-      <c r="E34" s="513"/>
-      <c r="F34" s="513"/>
-      <c r="G34" s="512"/>
-      <c r="H34" s="514"/>
+      <c r="A34" s="490"/>
+      <c r="B34" s="478"/>
+      <c r="C34" s="479"/>
+      <c r="D34" s="479"/>
+      <c r="E34" s="479"/>
+      <c r="F34" s="479"/>
+      <c r="G34" s="478"/>
+      <c r="H34" s="480"/>
       <c r="I34" s="25"/>
       <c r="J34" s="25"/>
       <c r="K34" s="25"/>
-      <c r="L34" s="363"/>
-      <c r="M34" s="364"/>
-      <c r="N34" s="364"/>
-      <c r="O34" s="364"/>
-      <c r="P34" s="365"/>
+      <c r="L34" s="347"/>
+      <c r="M34" s="348"/>
+      <c r="N34" s="348"/>
+      <c r="O34" s="348"/>
+      <c r="P34" s="349"/>
       <c r="Q34" s="25"/>
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
@@ -10579,20 +10606,20 @@
       <c r="BP34" s="26"/>
     </row>
     <row r="35" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="190"/>
-      <c r="B35" s="386"/>
-      <c r="C35" s="190"/>
-      <c r="D35" s="190"/>
-      <c r="E35" s="190"/>
-      <c r="F35" s="191"/>
-      <c r="G35" s="387"/>
-      <c r="H35" s="387"/>
+      <c r="A35" s="188"/>
+      <c r="B35" s="370"/>
+      <c r="C35" s="188"/>
+      <c r="D35" s="188"/>
+      <c r="E35" s="188"/>
+      <c r="F35" s="189"/>
+      <c r="G35" s="371"/>
+      <c r="H35" s="371"/>
     </row>
     <row r="36" spans="1:68" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="525" t="s">
+      <c r="A36" s="491" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="366">
+      <c r="B36" s="350">
         <f>COUNTA(B7:B34)</f>
         <v>0</v>
       </c>
@@ -10628,7 +10655,7 @@
   <dimension ref="A1:T43"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:F4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10667,14 +10694,14 @@
       <c r="N1" s="12"/>
     </row>
     <row r="2" spans="1:20" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="476"/>
-      <c r="B2" s="476"/>
-      <c r="C2" s="476"/>
-      <c r="D2" s="477"/>
-      <c r="E2" s="477"/>
-      <c r="F2" s="477"/>
-      <c r="G2" s="476"/>
-      <c r="H2" s="476"/>
+      <c r="A2" s="521"/>
+      <c r="B2" s="521"/>
+      <c r="C2" s="521"/>
+      <c r="D2" s="522"/>
+      <c r="E2" s="522"/>
+      <c r="F2" s="522"/>
+      <c r="G2" s="521"/>
+      <c r="H2" s="521"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
@@ -10689,16 +10716,16 @@
       <c r="T2" s="12"/>
     </row>
     <row r="3" spans="1:20" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="476"/>
-      <c r="B3" s="476"/>
-      <c r="C3" s="476"/>
-      <c r="D3" s="477" t="s">
+      <c r="A3" s="521"/>
+      <c r="B3" s="521"/>
+      <c r="C3" s="521"/>
+      <c r="D3" s="522" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="477"/>
-      <c r="F3" s="477"/>
-      <c r="G3" s="476"/>
-      <c r="H3" s="476"/>
+      <c r="E3" s="522"/>
+      <c r="F3" s="522"/>
+      <c r="G3" s="521"/>
+      <c r="H3" s="521"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
@@ -10713,14 +10740,14 @@
       <c r="T3" s="12"/>
     </row>
     <row r="4" spans="1:20" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="476"/>
-      <c r="B4" s="476"/>
-      <c r="C4" s="476"/>
-      <c r="D4" s="477"/>
-      <c r="E4" s="477"/>
-      <c r="F4" s="477"/>
-      <c r="G4" s="476"/>
-      <c r="H4" s="476"/>
+      <c r="A4" s="521"/>
+      <c r="B4" s="521"/>
+      <c r="C4" s="521"/>
+      <c r="D4" s="522"/>
+      <c r="E4" s="522"/>
+      <c r="F4" s="522"/>
+      <c r="G4" s="521"/>
+      <c r="H4" s="521"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
@@ -10757,28 +10784,28 @@
       <c r="T5" s="12"/>
     </row>
     <row r="6" spans="1:20" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="380" t="s">
+      <c r="A6" s="364" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="381" t="s">
+      <c r="B6" s="365" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="382" t="s">
+      <c r="C6" s="366" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="381" t="s">
+      <c r="D6" s="365" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="381" t="s">
+      <c r="E6" s="365" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="383" t="s">
+      <c r="F6" s="367" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="384" t="s">
+      <c r="G6" s="368" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="385" t="s">
+      <c r="H6" s="369" t="s">
         <v>22</v>
       </c>
       <c r="I6" s="20"/>
@@ -10805,14 +10832,14 @@
       <c r="T6" s="12"/>
     </row>
     <row r="7" spans="1:20" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="375"/>
+      <c r="A7" s="359"/>
       <c r="B7" s="109"/>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
-      <c r="H7" s="369"/>
+      <c r="H7" s="353"/>
       <c r="I7" s="20"/>
       <c r="J7" s="21"/>
       <c r="K7" s="13"/>
@@ -10827,14 +10854,14 @@
       <c r="T7" s="12"/>
     </row>
     <row r="8" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="367"/>
+      <c r="A8" s="351"/>
       <c r="B8" s="125"/>
       <c r="C8" s="49"/>
       <c r="D8" s="126"/>
       <c r="E8" s="126"/>
       <c r="F8" s="126"/>
       <c r="G8" s="126"/>
-      <c r="H8" s="368"/>
+      <c r="H8" s="352"/>
       <c r="I8" s="20"/>
       <c r="J8" s="21"/>
       <c r="K8" s="13"/>
@@ -10855,14 +10882,14 @@
       <c r="T8" s="12"/>
     </row>
     <row r="9" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="367"/>
+      <c r="A9" s="351"/>
       <c r="B9" s="27"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
-      <c r="H9" s="369"/>
+      <c r="H9" s="353"/>
       <c r="I9" s="20"/>
       <c r="J9" s="21"/>
       <c r="K9" s="13"/>
@@ -10877,14 +10904,14 @@
       <c r="T9" s="12"/>
     </row>
     <row r="10" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="367"/>
+      <c r="A10" s="351"/>
       <c r="B10" s="27"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
-      <c r="H10" s="369"/>
+      <c r="H10" s="353"/>
       <c r="I10" s="20"/>
       <c r="J10" s="132"/>
       <c r="K10" s="11"/>
@@ -10899,14 +10926,14 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="367"/>
+      <c r="A11" s="351"/>
       <c r="B11" s="27"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
-      <c r="H11" s="369"/>
+      <c r="H11" s="353"/>
       <c r="I11" s="20"/>
       <c r="J11" s="21"/>
       <c r="K11" s="13"/>
@@ -10921,14 +10948,14 @@
       <c r="T11" s="12"/>
     </row>
     <row r="12" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="367"/>
+      <c r="A12" s="351"/>
       <c r="B12" s="27"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
       <c r="E12" s="111"/>
       <c r="F12" s="111"/>
       <c r="G12" s="28"/>
-      <c r="H12" s="369"/>
+      <c r="H12" s="353"/>
       <c r="I12" s="20"/>
       <c r="J12" s="21"/>
       <c r="K12" s="13"/>
@@ -10943,14 +10970,14 @@
       <c r="T12" s="12"/>
     </row>
     <row r="13" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="367"/>
+      <c r="A13" s="351"/>
       <c r="B13" s="27"/>
       <c r="C13" s="28"/>
       <c r="D13" s="107"/>
       <c r="E13" s="9"/>
       <c r="F13" s="162"/>
       <c r="G13" s="125"/>
-      <c r="H13" s="369"/>
+      <c r="H13" s="353"/>
       <c r="I13" s="20"/>
       <c r="J13" s="21"/>
       <c r="K13" s="13"/>
@@ -10965,14 +10992,14 @@
       <c r="T13" s="12"/>
     </row>
     <row r="14" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="367"/>
+      <c r="A14" s="351"/>
       <c r="B14" s="27"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="107"/>
       <c r="F14" s="108"/>
       <c r="G14" s="28"/>
-      <c r="H14" s="369"/>
+      <c r="H14" s="353"/>
       <c r="I14" s="20"/>
       <c r="J14" s="21"/>
       <c r="K14" s="13"/>
@@ -10987,14 +11014,14 @@
       <c r="T14" s="12"/>
     </row>
     <row r="15" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="367"/>
+      <c r="A15" s="351"/>
       <c r="B15" s="27"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
-      <c r="H15" s="369"/>
+      <c r="H15" s="353"/>
       <c r="I15" s="20"/>
       <c r="J15" s="21"/>
       <c r="K15" s="13"/>
@@ -11009,14 +11036,14 @@
       <c r="T15" s="12"/>
     </row>
     <row r="16" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="367"/>
+      <c r="A16" s="351"/>
       <c r="B16" s="27"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
-      <c r="H16" s="369"/>
+      <c r="H16" s="353"/>
       <c r="J16" s="110"/>
       <c r="K16" s="110"/>
       <c r="L16" s="110"/>
@@ -11024,14 +11051,14 @@
       <c r="N16" s="110"/>
     </row>
     <row r="17" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="367"/>
+      <c r="A17" s="351"/>
       <c r="B17" s="27"/>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
-      <c r="H17" s="369"/>
+      <c r="H17" s="353"/>
       <c r="I17" s="20"/>
       <c r="J17" s="21"/>
       <c r="K17" s="13"/>
@@ -11046,14 +11073,14 @@
       <c r="T17" s="12"/>
     </row>
     <row r="18" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="367"/>
+      <c r="A18" s="351"/>
       <c r="B18" s="27"/>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
-      <c r="H18" s="369"/>
+      <c r="H18" s="353"/>
       <c r="J18" s="110"/>
       <c r="K18" s="110"/>
       <c r="L18" s="110"/>
@@ -11061,14 +11088,14 @@
       <c r="N18" s="110"/>
     </row>
     <row r="19" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="367"/>
+      <c r="A19" s="351"/>
       <c r="B19" s="27"/>
       <c r="C19" s="28"/>
       <c r="D19" s="111"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
-      <c r="H19" s="369"/>
+      <c r="H19" s="353"/>
       <c r="I19" s="20"/>
       <c r="J19" s="21"/>
       <c r="K19" s="13"/>
@@ -11083,14 +11110,14 @@
       <c r="T19" s="12"/>
     </row>
     <row r="20" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="367"/>
+      <c r="A20" s="351"/>
       <c r="B20" s="154"/>
       <c r="C20" s="155"/>
       <c r="D20" s="156"/>
       <c r="E20" s="132"/>
       <c r="F20" s="157"/>
       <c r="G20" s="158"/>
-      <c r="H20" s="371"/>
+      <c r="H20" s="355"/>
       <c r="I20" s="20"/>
       <c r="J20" s="21"/>
       <c r="K20" s="13"/>
@@ -11105,14 +11132,14 @@
       <c r="T20" s="12"/>
     </row>
     <row r="21" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="367"/>
+      <c r="A21" s="351"/>
       <c r="B21" s="27"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
-      <c r="H21" s="369"/>
+      <c r="H21" s="353"/>
       <c r="I21" s="20"/>
       <c r="J21" s="21"/>
       <c r="K21" s="13"/>
@@ -11127,14 +11154,14 @@
       <c r="T21" s="12"/>
     </row>
     <row r="22" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="367"/>
+      <c r="A22" s="351"/>
       <c r="B22" s="27"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
-      <c r="H22" s="369"/>
+      <c r="H22" s="353"/>
       <c r="I22" s="20"/>
       <c r="J22" s="21"/>
       <c r="K22" s="13"/>
@@ -11149,14 +11176,14 @@
       <c r="T22" s="12"/>
     </row>
     <row r="23" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="367"/>
+      <c r="A23" s="351"/>
       <c r="B23" s="27"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="369"/>
+      <c r="H23" s="353"/>
       <c r="I23" s="20"/>
       <c r="J23" s="21"/>
       <c r="K23" s="13"/>
@@ -11171,14 +11198,14 @@
       <c r="T23" s="12"/>
     </row>
     <row r="24" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="367"/>
+      <c r="A24" s="351"/>
       <c r="B24" s="27"/>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
-      <c r="H24" s="369"/>
+      <c r="H24" s="353"/>
       <c r="I24" s="20"/>
       <c r="J24" s="21"/>
       <c r="K24" s="13"/>
@@ -11193,14 +11220,14 @@
       <c r="T24" s="12"/>
     </row>
     <row r="25" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="367"/>
+      <c r="A25" s="351"/>
       <c r="B25" s="11"/>
       <c r="C25" s="14"/>
       <c r="D25" s="159"/>
       <c r="E25" s="11"/>
       <c r="F25" s="15"/>
       <c r="G25" s="24"/>
-      <c r="H25" s="372"/>
+      <c r="H25" s="356"/>
       <c r="I25" s="20"/>
       <c r="J25" s="21"/>
       <c r="K25" s="13"/>
@@ -11209,14 +11236,14 @@
       <c r="N25" s="13"/>
     </row>
     <row r="26" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="367"/>
+      <c r="A26" s="351"/>
       <c r="B26" s="27"/>
       <c r="C26" s="28"/>
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
-      <c r="H26" s="369"/>
+      <c r="H26" s="353"/>
       <c r="I26" s="20"/>
       <c r="J26" s="21"/>
       <c r="K26" s="13"/>
@@ -11231,14 +11258,14 @@
       <c r="T26" s="12"/>
     </row>
     <row r="27" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="367"/>
+      <c r="A27" s="351"/>
       <c r="B27" s="27"/>
       <c r="C27" s="28"/>
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
-      <c r="H27" s="369"/>
+      <c r="H27" s="353"/>
       <c r="I27" s="20"/>
       <c r="J27" s="21"/>
       <c r="K27" s="13"/>
@@ -11253,14 +11280,14 @@
       <c r="T27" s="12"/>
     </row>
     <row r="28" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="367"/>
+      <c r="A28" s="351"/>
       <c r="B28" s="27"/>
       <c r="C28" s="28"/>
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
-      <c r="H28" s="369"/>
+      <c r="H28" s="353"/>
       <c r="I28" s="20"/>
       <c r="J28" s="21"/>
       <c r="K28" s="13"/>
@@ -11275,14 +11302,14 @@
       <c r="T28" s="12"/>
     </row>
     <row r="29" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="367"/>
+      <c r="A29" s="351"/>
       <c r="B29" s="27"/>
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
-      <c r="H29" s="369"/>
+      <c r="H29" s="353"/>
       <c r="I29" s="20"/>
       <c r="J29" s="21"/>
       <c r="K29" s="13"/>
@@ -11297,14 +11324,14 @@
       <c r="T29" s="12"/>
     </row>
     <row r="30" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="367"/>
+      <c r="A30" s="351"/>
       <c r="B30" s="27"/>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
       <c r="G30" s="28"/>
-      <c r="H30" s="369"/>
+      <c r="H30" s="353"/>
       <c r="I30" s="20"/>
       <c r="J30" s="21"/>
       <c r="K30" s="13"/>
@@ -11319,14 +11346,14 @@
       <c r="T30" s="12"/>
     </row>
     <row r="31" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="367"/>
+      <c r="A31" s="351"/>
       <c r="B31" s="27"/>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
-      <c r="H31" s="369"/>
+      <c r="H31" s="353"/>
       <c r="I31" s="20"/>
       <c r="J31" s="21"/>
       <c r="K31" s="13"/>
@@ -11341,14 +11368,14 @@
       <c r="T31" s="12"/>
     </row>
     <row r="32" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="367"/>
+      <c r="A32" s="351"/>
       <c r="B32" s="27"/>
       <c r="C32" s="28"/>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
       <c r="F32" s="9"/>
       <c r="G32" s="28"/>
-      <c r="H32" s="369"/>
+      <c r="H32" s="353"/>
       <c r="I32" s="20"/>
       <c r="J32" s="21"/>
       <c r="K32" s="13"/>
@@ -11363,14 +11390,14 @@
       <c r="T32" s="12"/>
     </row>
     <row r="33" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="373"/>
+      <c r="A33" s="357"/>
       <c r="B33" s="130"/>
       <c r="C33" s="111"/>
       <c r="D33" s="111"/>
       <c r="E33" s="111"/>
       <c r="F33" s="111"/>
       <c r="G33" s="111"/>
-      <c r="H33" s="374"/>
+      <c r="H33" s="358"/>
       <c r="I33" s="20"/>
       <c r="J33" s="21"/>
       <c r="K33" s="13"/>
@@ -11385,14 +11412,14 @@
       <c r="T33" s="12"/>
     </row>
     <row r="34" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="367"/>
+      <c r="A34" s="351"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="370"/>
+      <c r="H34" s="354"/>
       <c r="I34" s="20"/>
       <c r="J34" s="21"/>
       <c r="K34" s="13"/>
@@ -11407,14 +11434,14 @@
       <c r="T34" s="12"/>
     </row>
     <row r="35" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="375"/>
+      <c r="A35" s="359"/>
       <c r="B35" s="131"/>
       <c r="C35" s="131"/>
       <c r="D35" s="131"/>
       <c r="E35" s="131"/>
       <c r="F35" s="131"/>
       <c r="G35" s="131"/>
-      <c r="H35" s="376"/>
+      <c r="H35" s="360"/>
       <c r="I35" s="20"/>
       <c r="J35" s="21"/>
       <c r="K35" s="13"/>
@@ -11429,14 +11456,14 @@
       <c r="T35" s="12"/>
     </row>
     <row r="36" spans="1:20" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="377"/>
-      <c r="B36" s="378"/>
-      <c r="C36" s="378"/>
-      <c r="D36" s="378"/>
-      <c r="E36" s="378"/>
-      <c r="F36" s="378"/>
-      <c r="G36" s="378"/>
-      <c r="H36" s="379"/>
+      <c r="A36" s="361"/>
+      <c r="B36" s="362"/>
+      <c r="C36" s="362"/>
+      <c r="D36" s="362"/>
+      <c r="E36" s="362"/>
+      <c r="F36" s="362"/>
+      <c r="G36" s="362"/>
+      <c r="H36" s="363"/>
       <c r="I36" s="20"/>
       <c r="J36" s="21"/>
       <c r="K36" s="13"/>

--- a/templates/entry_list_template.xlsx
+++ b/templates/entry_list_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brendanwoo/projects/sro_sign_in/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C5A1E4-B377-D741-A579-2821C48CDD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6E9107-E235-A640-8122-A99D5E008E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{542D648B-9180-43EF-9053-182057C63D4C}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{542D648B-9180-43EF-9053-182057C63D4C}"/>
   </bookViews>
   <sheets>
     <sheet name="GTWCA" sheetId="10" r:id="rId1"/>
@@ -149,7 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="66" x14ac:knownFonts="1">
+  <fonts count="67" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,6 +577,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1783,7 +1789,7 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="56" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="530">
+  <cellXfs count="531">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2767,513 +2773,534 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="61" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="62" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="61" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="61" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="62" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="62" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="61" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="62" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="62" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="91" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="91" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="90" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="61" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="45" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="51" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="45" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="59" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="59" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="60" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="62" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="59" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="59" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="60" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="59" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="59" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="59" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="62" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="60" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="60" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="54" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="61" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="62" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="61" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="61" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="62" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="62" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="61" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="62" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="62" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="65" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="65" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="65" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="65" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="65" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="65" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="91" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="65" fillId="0" borderId="91" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="65" fillId="0" borderId="90" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="65" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="61" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="45" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="51" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="45" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="39" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="59" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="59" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="60" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="62" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="59" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="59" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="60" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="59" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="59" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="59" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="62" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="60" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="60" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3283,26 +3310,8 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="54" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3313,73 +3322,6 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{561A9865-CE34-4D81-A124-2143BF703225}"/>
   </cellStyles>
   <dxfs count="66">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thick">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -5096,6 +5038,73 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
           <color indexed="64"/>
         </left>
         <right style="thin">
@@ -5800,86 +5809,86 @@
     <sortCondition ref="B28"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="2" xr3:uid="{8EAC187A-4BC7-044D-A24C-EE683FF40EDC}" name="Series" dataDxfId="0" dataCellStyle="Neutral"/>
-    <tableColumn id="10" xr3:uid="{6761E48F-7432-8E4D-983D-FD8CF12204ED}" name="Car #" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{0DF6B8D7-FC4D-5845-A1AC-0C19350700B1}" name="Team " dataDxfId="59" dataCellStyle="Neutral"/>
-    <tableColumn id="4" xr3:uid="{D7958FE6-C778-2340-A370-BF9B62951BE2}" name="Driver 1" dataDxfId="58" dataCellStyle="Neutral"/>
-    <tableColumn id="5" xr3:uid="{A1C4CE74-0FBD-A249-A28E-1AA4F0E32E24}" name="NAT" dataDxfId="57" dataCellStyle="Neutral"/>
-    <tableColumn id="13" xr3:uid="{06D828EC-E323-DA4F-B814-30D97E8751E7}" name="LIC " dataDxfId="56"/>
-    <tableColumn id="6" xr3:uid="{5C59EF6B-E503-B449-BD81-31D0C127B158}" name="CAT" dataDxfId="55"/>
-    <tableColumn id="12" xr3:uid="{FCCDF9C0-43DB-3343-8312-4E0B4B75956D}" name="Driver 2" dataDxfId="54"/>
-    <tableColumn id="11" xr3:uid="{48BAF24C-A19D-1B40-8E87-E8ABF82E4431}" name="  NAT " dataDxfId="53"/>
-    <tableColumn id="14" xr3:uid="{CF8EB17E-A9FE-5E4E-B068-F6226C82985D}" name=" LIC " dataDxfId="52"/>
-    <tableColumn id="1" xr3:uid="{4E58BAAF-4A36-2443-BB6E-FB2F3CD6C045}" name="CAT " dataDxfId="51"/>
-    <tableColumn id="8" xr3:uid="{B01B38E0-90B8-DA4E-A115-23024964F22B}" name="Car Sponsors" dataDxfId="50" dataCellStyle="Neutral"/>
-    <tableColumn id="7" xr3:uid="{A8339886-62FE-D648-99E5-4129118A9D24}" name="Car Make/Model" dataDxfId="49"/>
-    <tableColumn id="9" xr3:uid="{FAA5AA03-0CBD-CD44-B4EA-32A19F875C8B}" name="Championship" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{8EAC187A-4BC7-044D-A24C-EE683FF40EDC}" name="Series" dataDxfId="59" dataCellStyle="Neutral"/>
+    <tableColumn id="10" xr3:uid="{6761E48F-7432-8E4D-983D-FD8CF12204ED}" name="Car #" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{0DF6B8D7-FC4D-5845-A1AC-0C19350700B1}" name="Team " dataDxfId="57" dataCellStyle="Neutral"/>
+    <tableColumn id="4" xr3:uid="{D7958FE6-C778-2340-A370-BF9B62951BE2}" name="Driver 1" dataDxfId="56" dataCellStyle="Neutral"/>
+    <tableColumn id="5" xr3:uid="{A1C4CE74-0FBD-A249-A28E-1AA4F0E32E24}" name="NAT" dataDxfId="55" dataCellStyle="Neutral"/>
+    <tableColumn id="13" xr3:uid="{06D828EC-E323-DA4F-B814-30D97E8751E7}" name="LIC " dataDxfId="54"/>
+    <tableColumn id="6" xr3:uid="{5C59EF6B-E503-B449-BD81-31D0C127B158}" name="CAT" dataDxfId="53"/>
+    <tableColumn id="12" xr3:uid="{FCCDF9C0-43DB-3343-8312-4E0B4B75956D}" name="Driver 2" dataDxfId="52"/>
+    <tableColumn id="11" xr3:uid="{48BAF24C-A19D-1B40-8E87-E8ABF82E4431}" name="  NAT " dataDxfId="51"/>
+    <tableColumn id="14" xr3:uid="{CF8EB17E-A9FE-5E4E-B068-F6226C82985D}" name=" LIC " dataDxfId="50"/>
+    <tableColumn id="1" xr3:uid="{4E58BAAF-4A36-2443-BB6E-FB2F3CD6C045}" name="CAT " dataDxfId="49"/>
+    <tableColumn id="8" xr3:uid="{B01B38E0-90B8-DA4E-A115-23024964F22B}" name="Car Sponsors" dataDxfId="48" dataCellStyle="Neutral"/>
+    <tableColumn id="7" xr3:uid="{A8339886-62FE-D648-99E5-4129118A9D24}" name="Car Make/Model" dataDxfId="47"/>
+    <tableColumn id="9" xr3:uid="{FAA5AA03-0CBD-CD44-B4EA-32A19F875C8B}" name="Championship" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{56F25BC1-6701-4669-AC0F-E1673995674A}" name="Table2267" displayName="Table2267" ref="A6:N38" totalsRowShown="0" headerRowDxfId="47" headerRowBorderDxfId="46" tableBorderDxfId="45" totalsRowBorderDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{56F25BC1-6701-4669-AC0F-E1673995674A}" name="Table2267" displayName="Table2267" ref="A6:N38" totalsRowShown="0" headerRowDxfId="45" headerRowBorderDxfId="44" tableBorderDxfId="43" totalsRowBorderDxfId="42">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:N39">
     <sortCondition ref="B9:B39"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="2" xr3:uid="{86C7766F-C815-4642-A792-C792E5CD9B1D}" name="Series" dataDxfId="43" dataCellStyle="Neutral"/>
-    <tableColumn id="10" xr3:uid="{B0849F24-6597-4E76-94D7-2D7E93B5B7E1}" name="Car #" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{C0375D1B-A6A9-4878-94F1-144B367DBFAE}" name="Team " dataDxfId="41" dataCellStyle="Neutral"/>
-    <tableColumn id="4" xr3:uid="{731AF936-9BBC-4114-AF94-6737C2C799AD}" name="Driver 1" dataDxfId="40" dataCellStyle="Neutral"/>
-    <tableColumn id="5" xr3:uid="{4AAAC599-A742-4343-8BE4-F0207EAEB236}" name="NAT" dataDxfId="39" dataCellStyle="Neutral"/>
-    <tableColumn id="13" xr3:uid="{46C8C08D-7690-4908-8D68-9031FA1AAB13}" name="LIC " dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{0B42790F-CF16-4A79-97F6-02353851B814}" name="CAT" dataDxfId="37"/>
-    <tableColumn id="12" xr3:uid="{4393EDC9-8099-4851-8BA5-F88B5093FA18}" name="Driver 2" dataDxfId="36"/>
-    <tableColumn id="11" xr3:uid="{022A346F-1EFC-477E-B3FF-234F17FB995D}" name="  NAT " dataDxfId="35"/>
-    <tableColumn id="14" xr3:uid="{4A5DA010-C6D1-49CE-8487-00AC7C736274}" name=" LIC " dataDxfId="34"/>
-    <tableColumn id="1" xr3:uid="{15D47E2B-7108-41F5-BB6D-FABBD704C2C8}" name="CAT " dataDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{5F578104-8A47-4C21-AE4F-A41AFD51CA17}" name="Car Sponsors" dataDxfId="32" dataCellStyle="Neutral"/>
-    <tableColumn id="7" xr3:uid="{37BFAE36-6B5E-4D59-B805-2A4B37B829ED}" name="Car Make/Model" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{C4134C49-64E4-4B01-865E-C1B755B7D04A}" name="Championship" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{86C7766F-C815-4642-A792-C792E5CD9B1D}" name="Series" dataDxfId="41" dataCellStyle="Neutral"/>
+    <tableColumn id="10" xr3:uid="{B0849F24-6597-4E76-94D7-2D7E93B5B7E1}" name="Car #" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{C0375D1B-A6A9-4878-94F1-144B367DBFAE}" name="Team " dataDxfId="39" dataCellStyle="Neutral"/>
+    <tableColumn id="4" xr3:uid="{731AF936-9BBC-4114-AF94-6737C2C799AD}" name="Driver 1" dataDxfId="38" dataCellStyle="Neutral"/>
+    <tableColumn id="5" xr3:uid="{4AAAC599-A742-4343-8BE4-F0207EAEB236}" name="NAT" dataDxfId="37" dataCellStyle="Neutral"/>
+    <tableColumn id="13" xr3:uid="{46C8C08D-7690-4908-8D68-9031FA1AAB13}" name="LIC " dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{0B42790F-CF16-4A79-97F6-02353851B814}" name="CAT" dataDxfId="35"/>
+    <tableColumn id="12" xr3:uid="{4393EDC9-8099-4851-8BA5-F88B5093FA18}" name="Driver 2" dataDxfId="34"/>
+    <tableColumn id="11" xr3:uid="{022A346F-1EFC-477E-B3FF-234F17FB995D}" name="  NAT " dataDxfId="33"/>
+    <tableColumn id="14" xr3:uid="{4A5DA010-C6D1-49CE-8487-00AC7C736274}" name=" LIC " dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{15D47E2B-7108-41F5-BB6D-FABBD704C2C8}" name="CAT " dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{5F578104-8A47-4C21-AE4F-A41AFD51CA17}" name="Car Sponsors" dataDxfId="30" dataCellStyle="Neutral"/>
+    <tableColumn id="7" xr3:uid="{37BFAE36-6B5E-4D59-B805-2A4B37B829ED}" name="Car Make/Model" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{C4134C49-64E4-4B01-865E-C1B755B7D04A}" name="Championship" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EEF14E4E-087A-46C7-831D-A668229E00D6}" name="Table226" displayName="Table226" ref="A6:J37" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EEF14E4E-087A-46C7-831D-A668229E00D6}" name="Table226" displayName="Table226" ref="A6:J37" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:J40">
     <sortCondition descending="1" ref="J8:J40"/>
     <sortCondition ref="B8:B40"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="2" xr3:uid="{29DF6422-9DDA-4F8F-8BEE-5184D2457B57}" name="Series" dataDxfId="24" dataCellStyle="Neutral"/>
-    <tableColumn id="10" xr3:uid="{1486B7A1-2318-4A69-93B1-14B85F40C988}" name="Car #" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{9FCCBAF6-EB7D-44F1-ADEC-A2DF74A549AE}" name="Team " dataDxfId="22" dataCellStyle="Neutral"/>
-    <tableColumn id="4" xr3:uid="{5972D2A1-6086-4595-9053-F6AB4ABD85A7}" name="Driver 1" dataDxfId="21" dataCellStyle="Neutral"/>
-    <tableColumn id="5" xr3:uid="{0273D45B-C8FF-4DBF-A963-B72D55D93954}" name="NAT" dataDxfId="20" dataCellStyle="Neutral"/>
-    <tableColumn id="13" xr3:uid="{26D97A36-D7BA-4D93-9A44-CC528D4BDC4F}" name="LIC " dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{AC25B573-C8BF-40ED-8E09-71D35117CA3A}" name="CAT" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{C3A46578-AA4D-4C94-B592-5AC371A17E14}" name="Car Sponsors" dataDxfId="17" dataCellStyle="Neutral"/>
-    <tableColumn id="7" xr3:uid="{7B3018A6-2A70-4C3E-BE5C-CCFFCABD4796}" name="Car Make/Model" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{C0209330-55B6-42D3-AB23-D1C37AFC6FDA}" name="Class" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{29DF6422-9DDA-4F8F-8BEE-5184D2457B57}" name="Series" dataDxfId="22" dataCellStyle="Neutral"/>
+    <tableColumn id="10" xr3:uid="{1486B7A1-2318-4A69-93B1-14B85F40C988}" name="Car #" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{9FCCBAF6-EB7D-44F1-ADEC-A2DF74A549AE}" name="Team " dataDxfId="20" dataCellStyle="Neutral"/>
+    <tableColumn id="4" xr3:uid="{5972D2A1-6086-4595-9053-F6AB4ABD85A7}" name="Driver 1" dataDxfId="19" dataCellStyle="Neutral"/>
+    <tableColumn id="5" xr3:uid="{0273D45B-C8FF-4DBF-A963-B72D55D93954}" name="NAT" dataDxfId="18" dataCellStyle="Neutral"/>
+    <tableColumn id="13" xr3:uid="{26D97A36-D7BA-4D93-9A44-CC528D4BDC4F}" name="LIC " dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{AC25B573-C8BF-40ED-8E09-71D35117CA3A}" name="CAT" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{C3A46578-AA4D-4C94-B592-5AC371A17E14}" name="Car Sponsors" dataDxfId="15" dataCellStyle="Neutral"/>
+    <tableColumn id="7" xr3:uid="{7B3018A6-2A70-4C3E-BE5C-CCFFCABD4796}" name="Car Make/Model" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{C0209330-55B6-42D3-AB23-D1C37AFC6FDA}" name="Class" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{11330F46-3971-7D44-8FE5-B039A90EF352}" name="Table22683" displayName="Table22683" ref="A6:H34" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{11330F46-3971-7D44-8FE5-B039A90EF352}" name="Table22683" displayName="Table22683" ref="A6:H34" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:H35">
     <sortCondition descending="1" ref="H12:H35"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="2" xr3:uid="{459DFC46-4742-6E42-8DBB-A583077730B7}" name="Series" dataDxfId="9" dataCellStyle="Neutral"/>
-    <tableColumn id="10" xr3:uid="{A735E01E-C722-8046-A3A7-EB4B8E9856D0}" name="Car #" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{6858B568-BE7E-DA44-A760-6A0FEC2B9951}" name="Team " dataDxfId="7" dataCellStyle="Neutral"/>
-    <tableColumn id="4" xr3:uid="{9302466E-96CC-B845-817B-5E7790246EEA}" name="Driver" dataDxfId="6" dataCellStyle="Neutral"/>
-    <tableColumn id="5" xr3:uid="{6F60649D-7A1A-6B47-AF8B-CDFA61A10C71}" name="NAT" dataDxfId="5" dataCellStyle="Neutral"/>
-    <tableColumn id="8" xr3:uid="{8224E110-2012-0E4B-A25F-B837877427FA}" name="Car Sponsors" dataDxfId="4" dataCellStyle="Neutral"/>
-    <tableColumn id="7" xr3:uid="{3ADFDE9D-B3A8-2D47-8CAD-6E4FB830231A}" name="Car Make/Model" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{B7E977BD-C739-704E-A4EB-5D75989E1112}" name="Class" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{459DFC46-4742-6E42-8DBB-A583077730B7}" name="Series" dataDxfId="7" dataCellStyle="Neutral"/>
+    <tableColumn id="10" xr3:uid="{A735E01E-C722-8046-A3A7-EB4B8E9856D0}" name="Car #" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{6858B568-BE7E-DA44-A760-6A0FEC2B9951}" name="Team " dataDxfId="5" dataCellStyle="Neutral"/>
+    <tableColumn id="4" xr3:uid="{9302466E-96CC-B845-817B-5E7790246EEA}" name="Driver" dataDxfId="4" dataCellStyle="Neutral"/>
+    <tableColumn id="5" xr3:uid="{6F60649D-7A1A-6B47-AF8B-CDFA61A10C71}" name="NAT" dataDxfId="3" dataCellStyle="Neutral"/>
+    <tableColumn id="8" xr3:uid="{8224E110-2012-0E4B-A25F-B837877427FA}" name="Car Sponsors" dataDxfId="2" dataCellStyle="Neutral"/>
+    <tableColumn id="7" xr3:uid="{3ADFDE9D-B3A8-2D47-8CAD-6E4FB830231A}" name="Car Make/Model" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{B7E977BD-C739-704E-A4EB-5D75989E1112}" name="Class" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6187,8 +6196,8 @@
   </sheetPr>
   <dimension ref="A2:X34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="90" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView view="pageLayout" zoomScale="80" zoomScaleNormal="90" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6210,65 +6219,65 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="516"/>
-      <c r="B2" s="516"/>
-      <c r="C2" s="516"/>
-      <c r="D2" s="516"/>
-      <c r="E2" s="516"/>
-      <c r="F2" s="516"/>
-      <c r="G2" s="516"/>
-      <c r="H2" s="516"/>
-      <c r="I2" s="516"/>
-      <c r="J2" s="516"/>
-      <c r="K2" s="516"/>
-      <c r="L2" s="516"/>
-      <c r="M2" s="516"/>
-      <c r="N2" s="516"/>
+      <c r="A2" s="523"/>
+      <c r="B2" s="523"/>
+      <c r="C2" s="523"/>
+      <c r="D2" s="530"/>
+      <c r="E2" s="530"/>
+      <c r="F2" s="530"/>
+      <c r="G2" s="530"/>
+      <c r="H2" s="530"/>
+      <c r="I2" s="530"/>
+      <c r="J2" s="530"/>
+      <c r="K2" s="530"/>
+      <c r="L2" s="530"/>
+      <c r="M2" s="523"/>
+      <c r="N2" s="523"/>
     </row>
     <row r="3" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="516"/>
-      <c r="B3" s="516"/>
-      <c r="C3" s="516"/>
-      <c r="D3" s="520" t="s">
+      <c r="A3" s="523"/>
+      <c r="B3" s="523"/>
+      <c r="C3" s="523"/>
+      <c r="D3" s="524" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="520"/>
-      <c r="F3" s="520"/>
-      <c r="G3" s="520"/>
-      <c r="H3" s="520"/>
-      <c r="I3" s="520"/>
-      <c r="J3" s="520"/>
-      <c r="K3" s="520"/>
-      <c r="L3" s="520"/>
-      <c r="M3" s="516"/>
-      <c r="N3" s="516"/>
+      <c r="E3" s="524"/>
+      <c r="F3" s="524"/>
+      <c r="G3" s="524"/>
+      <c r="H3" s="524"/>
+      <c r="I3" s="524"/>
+      <c r="J3" s="524"/>
+      <c r="K3" s="524"/>
+      <c r="L3" s="524"/>
+      <c r="M3" s="523"/>
+      <c r="N3" s="523"/>
     </row>
     <row r="4" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="516"/>
-      <c r="B4" s="516"/>
-      <c r="C4" s="516"/>
-      <c r="D4" s="516"/>
-      <c r="E4" s="516"/>
-      <c r="F4" s="516"/>
-      <c r="G4" s="516"/>
-      <c r="H4" s="516"/>
-      <c r="I4" s="516"/>
-      <c r="J4" s="516"/>
-      <c r="K4" s="516"/>
-      <c r="L4" s="516"/>
-      <c r="M4" s="516"/>
-      <c r="N4" s="516"/>
+      <c r="A4" s="523"/>
+      <c r="B4" s="523"/>
+      <c r="C4" s="523"/>
+      <c r="D4" s="530"/>
+      <c r="E4" s="530"/>
+      <c r="F4" s="530"/>
+      <c r="G4" s="530"/>
+      <c r="H4" s="530"/>
+      <c r="I4" s="530"/>
+      <c r="J4" s="530"/>
+      <c r="K4" s="530"/>
+      <c r="L4" s="530"/>
+      <c r="M4" s="523"/>
+      <c r="N4" s="523"/>
     </row>
     <row r="5" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="R5" s="516" t="s">
+      <c r="R5" s="523" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="516"/>
-      <c r="T5" s="516"/>
-      <c r="U5" s="516"/>
-      <c r="V5" s="516"/>
-      <c r="W5" s="516"/>
-      <c r="X5" s="516"/>
+      <c r="S5" s="523"/>
+      <c r="T5" s="523"/>
+      <c r="U5" s="523"/>
+      <c r="V5" s="523"/>
+      <c r="W5" s="523"/>
+      <c r="X5" s="523"/>
     </row>
     <row r="6" spans="1:24" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6" s="224" t="s">
@@ -6339,8 +6348,8 @@
       </c>
     </row>
     <row r="7" spans="1:24" s="235" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="492"/>
-      <c r="B7" s="493"/>
+      <c r="A7" s="488"/>
+      <c r="B7" s="489"/>
       <c r="C7" s="230"/>
       <c r="D7" s="230"/>
       <c r="E7" s="230"/>
@@ -6365,8 +6374,8 @@
       <c r="X7" s="234"/>
     </row>
     <row r="8" spans="1:24" s="235" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="523"/>
-      <c r="B8" s="494"/>
+      <c r="A8" s="512"/>
+      <c r="B8" s="490"/>
       <c r="C8" s="236"/>
       <c r="D8" s="236"/>
       <c r="E8" s="236"/>
@@ -6391,8 +6400,8 @@
       <c r="X8" s="244"/>
     </row>
     <row r="9" spans="1:24" s="235" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="523"/>
-      <c r="B9" s="494"/>
+      <c r="A9" s="512"/>
+      <c r="B9" s="490"/>
       <c r="C9" s="237"/>
       <c r="D9" s="237"/>
       <c r="E9" s="237"/>
@@ -6417,8 +6426,8 @@
       <c r="X9" s="244"/>
     </row>
     <row r="10" spans="1:24" s="255" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="524"/>
-      <c r="B10" s="495"/>
+      <c r="A10" s="513"/>
+      <c r="B10" s="491"/>
       <c r="C10" s="247"/>
       <c r="D10" s="248"/>
       <c r="E10" s="248"/>
@@ -6440,8 +6449,8 @@
       <c r="X10" s="258"/>
     </row>
     <row r="11" spans="1:24" s="235" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="525"/>
-      <c r="B11" s="496"/>
+      <c r="A11" s="514"/>
+      <c r="B11" s="492"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
@@ -6463,8 +6472,8 @@
       <c r="X11" s="264"/>
     </row>
     <row r="12" spans="1:24" s="235" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="492"/>
-      <c r="B12" s="497"/>
+      <c r="A12" s="488"/>
+      <c r="B12" s="493"/>
       <c r="C12" s="230"/>
       <c r="D12" s="230"/>
       <c r="E12" s="230"/>
@@ -6486,8 +6495,8 @@
       <c r="X12" s="264"/>
     </row>
     <row r="13" spans="1:24" s="235" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="526"/>
-      <c r="B13" s="498"/>
+      <c r="A13" s="515"/>
+      <c r="B13" s="494"/>
       <c r="C13" s="265"/>
       <c r="D13" s="265"/>
       <c r="E13" s="265"/>
@@ -6509,8 +6518,8 @@
       <c r="X13" s="271"/>
     </row>
     <row r="14" spans="1:24" s="235" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="492"/>
-      <c r="B14" s="497"/>
+      <c r="A14" s="488"/>
+      <c r="B14" s="493"/>
       <c r="C14" s="230"/>
       <c r="D14" s="230"/>
       <c r="E14" s="230"/>
@@ -6532,8 +6541,8 @@
       <c r="X14" s="271"/>
     </row>
     <row r="15" spans="1:24" s="255" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="523"/>
-      <c r="B15" s="499"/>
+      <c r="A15" s="512"/>
+      <c r="B15" s="495"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
@@ -6555,8 +6564,8 @@
       <c r="X15" s="275"/>
     </row>
     <row r="16" spans="1:24" s="279" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="527"/>
-      <c r="B16" s="498"/>
+      <c r="A16" s="516"/>
+      <c r="B16" s="494"/>
       <c r="C16" s="265"/>
       <c r="D16" s="276"/>
       <c r="E16" s="238"/>
@@ -6578,8 +6587,8 @@
       <c r="X16" s="282"/>
     </row>
     <row r="17" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="528"/>
-      <c r="B17" s="497"/>
+      <c r="A17" s="517"/>
+      <c r="B17" s="493"/>
       <c r="C17" s="230"/>
       <c r="D17" s="230"/>
       <c r="E17" s="230"/>
@@ -6601,8 +6610,8 @@
       <c r="X17" s="285"/>
     </row>
     <row r="18" spans="1:24" s="292" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="526"/>
-      <c r="B18" s="498"/>
+      <c r="A18" s="515"/>
+      <c r="B18" s="494"/>
       <c r="C18" s="286"/>
       <c r="D18" s="287"/>
       <c r="E18" s="265"/>
@@ -6624,8 +6633,8 @@
       <c r="X18" s="295"/>
     </row>
     <row r="19" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="523"/>
-      <c r="B19" s="494"/>
+      <c r="A19" s="512"/>
+      <c r="B19" s="490"/>
       <c r="C19" s="296"/>
       <c r="D19" s="236"/>
       <c r="E19" s="236"/>
@@ -6647,8 +6656,8 @@
       <c r="X19" s="285"/>
     </row>
     <row r="20" spans="1:24" s="105" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="525"/>
-      <c r="B20" s="500"/>
+      <c r="A20" s="514"/>
+      <c r="B20" s="496"/>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
@@ -6670,8 +6679,8 @@
       <c r="X20" s="301"/>
     </row>
     <row r="21" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="529"/>
-      <c r="B21" s="500"/>
+      <c r="A21" s="518"/>
+      <c r="B21" s="496"/>
       <c r="C21" s="260"/>
       <c r="D21" s="260"/>
       <c r="E21" s="260"/>
@@ -6693,8 +6702,8 @@
       <c r="X21" s="285"/>
     </row>
     <row r="22" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="529"/>
-      <c r="B22" s="501"/>
+      <c r="A22" s="518"/>
+      <c r="B22" s="497"/>
       <c r="C22" s="303"/>
       <c r="D22" s="303"/>
       <c r="E22" s="303"/>
@@ -6716,8 +6725,8 @@
       <c r="X22" s="285"/>
     </row>
     <row r="23" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="529"/>
-      <c r="B23" s="501"/>
+      <c r="A23" s="518"/>
+      <c r="B23" s="497"/>
       <c r="C23" s="303"/>
       <c r="D23" s="303"/>
       <c r="E23" s="303"/>
@@ -6739,8 +6748,8 @@
       <c r="X23" s="285"/>
     </row>
     <row r="24" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="529"/>
-      <c r="B24" s="501"/>
+      <c r="A24" s="518"/>
+      <c r="B24" s="497"/>
       <c r="C24" s="303"/>
       <c r="D24" s="303"/>
       <c r="E24" s="303"/>
@@ -6762,8 +6771,8 @@
       <c r="X24" s="285"/>
     </row>
     <row r="25" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="529"/>
-      <c r="B25" s="501"/>
+      <c r="A25" s="518"/>
+      <c r="B25" s="497"/>
       <c r="C25" s="303"/>
       <c r="D25" s="303"/>
       <c r="E25" s="303"/>
@@ -6785,8 +6794,8 @@
       <c r="X25" s="285"/>
     </row>
     <row r="26" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="529"/>
-      <c r="B26" s="502"/>
+      <c r="A26" s="518"/>
+      <c r="B26" s="498"/>
       <c r="C26" s="304"/>
       <c r="D26" s="304"/>
       <c r="E26" s="304"/>
@@ -6808,8 +6817,8 @@
       <c r="X26" s="285"/>
     </row>
     <row r="27" spans="1:24" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="529"/>
-      <c r="B27" s="500"/>
+      <c r="A27" s="518"/>
+      <c r="B27" s="496"/>
       <c r="C27" s="260"/>
       <c r="D27" s="260"/>
       <c r="E27" s="260"/>
@@ -6918,8 +6927,8 @@
   </sheetPr>
   <dimension ref="A2:Y40"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A2" zoomScale="80" zoomScaleNormal="115" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView view="pageLayout" zoomScale="80" zoomScaleNormal="115" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6940,65 +6949,65 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="517"/>
-      <c r="B2" s="517"/>
-      <c r="C2" s="517"/>
-      <c r="D2" s="517"/>
-      <c r="E2" s="517"/>
-      <c r="F2" s="517"/>
-      <c r="G2" s="517"/>
-      <c r="H2" s="517"/>
-      <c r="I2" s="517"/>
-      <c r="J2" s="517"/>
-      <c r="K2" s="517"/>
-      <c r="L2" s="517"/>
-      <c r="M2" s="517"/>
-      <c r="N2" s="517"/>
+      <c r="A2" s="525"/>
+      <c r="B2" s="525"/>
+      <c r="C2" s="525"/>
+      <c r="D2" s="530"/>
+      <c r="E2" s="530"/>
+      <c r="F2" s="530"/>
+      <c r="G2" s="530"/>
+      <c r="H2" s="530"/>
+      <c r="I2" s="530"/>
+      <c r="J2" s="530"/>
+      <c r="K2" s="530"/>
+      <c r="L2" s="530"/>
+      <c r="M2" s="525"/>
+      <c r="N2" s="525"/>
     </row>
     <row r="3" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="517"/>
-      <c r="B3" s="517"/>
-      <c r="C3" s="517"/>
-      <c r="D3" s="519" t="s">
+      <c r="A3" s="525"/>
+      <c r="B3" s="525"/>
+      <c r="C3" s="525"/>
+      <c r="D3" s="524" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="519"/>
-      <c r="F3" s="519"/>
-      <c r="G3" s="519"/>
-      <c r="H3" s="519"/>
-      <c r="I3" s="519"/>
-      <c r="J3" s="519"/>
-      <c r="K3" s="519"/>
-      <c r="L3" s="519"/>
-      <c r="M3" s="517"/>
-      <c r="N3" s="517"/>
+      <c r="E3" s="524"/>
+      <c r="F3" s="524"/>
+      <c r="G3" s="524"/>
+      <c r="H3" s="524"/>
+      <c r="I3" s="524"/>
+      <c r="J3" s="524"/>
+      <c r="K3" s="524"/>
+      <c r="L3" s="524"/>
+      <c r="M3" s="525"/>
+      <c r="N3" s="525"/>
     </row>
     <row r="4" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="517"/>
-      <c r="B4" s="517"/>
-      <c r="C4" s="517"/>
-      <c r="D4" s="517"/>
-      <c r="E4" s="517"/>
-      <c r="F4" s="517"/>
-      <c r="G4" s="517"/>
-      <c r="H4" s="517"/>
-      <c r="I4" s="517"/>
-      <c r="J4" s="517"/>
-      <c r="K4" s="517"/>
-      <c r="L4" s="517"/>
-      <c r="M4" s="517"/>
-      <c r="N4" s="517"/>
+      <c r="A4" s="525"/>
+      <c r="B4" s="525"/>
+      <c r="C4" s="525"/>
+      <c r="D4" s="530"/>
+      <c r="E4" s="530"/>
+      <c r="F4" s="530"/>
+      <c r="G4" s="530"/>
+      <c r="H4" s="530"/>
+      <c r="I4" s="530"/>
+      <c r="J4" s="530"/>
+      <c r="K4" s="530"/>
+      <c r="L4" s="530"/>
+      <c r="M4" s="525"/>
+      <c r="N4" s="525"/>
     </row>
     <row r="5" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="R5" s="518" t="s">
+      <c r="R5" s="526" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="518"/>
-      <c r="T5" s="518"/>
-      <c r="U5" s="518"/>
-      <c r="V5" s="518"/>
-      <c r="W5" s="518"/>
-      <c r="X5" s="518"/>
+      <c r="S5" s="526"/>
+      <c r="T5" s="526"/>
+      <c r="U5" s="526"/>
+      <c r="V5" s="526"/>
+      <c r="W5" s="526"/>
+      <c r="X5" s="526"/>
     </row>
     <row r="6" spans="1:24" s="2" customFormat="1" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="219" t="s">
@@ -7844,7 +7853,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.8"/>
-  <pageSetup scale="44" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="34" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;G</oddFooter>
   </headerFooter>
@@ -7864,7 +7873,7 @@
   <dimension ref="A2:R41"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="80" zoomScaleNormal="90" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D4" sqref="D4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7884,51 +7893,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="517"/>
-      <c r="B2" s="517"/>
-      <c r="C2" s="517"/>
-      <c r="D2" s="520"/>
-      <c r="E2" s="520"/>
-      <c r="F2" s="520"/>
-      <c r="G2" s="520"/>
-      <c r="H2" s="520"/>
-      <c r="I2" s="517"/>
-      <c r="J2" s="517"/>
+      <c r="A2" s="525"/>
+      <c r="B2" s="525"/>
+      <c r="C2" s="525"/>
+      <c r="D2" s="527"/>
+      <c r="E2" s="527"/>
+      <c r="F2" s="527"/>
+      <c r="G2" s="527"/>
+      <c r="H2" s="527"/>
+      <c r="I2" s="525"/>
+      <c r="J2" s="525"/>
     </row>
     <row r="3" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="517"/>
-      <c r="B3" s="517"/>
-      <c r="C3" s="517"/>
-      <c r="D3" s="520" t="s">
+      <c r="A3" s="525"/>
+      <c r="B3" s="525"/>
+      <c r="C3" s="525"/>
+      <c r="D3" s="527" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="520"/>
-      <c r="F3" s="520"/>
-      <c r="G3" s="520"/>
-      <c r="H3" s="520"/>
-      <c r="I3" s="517"/>
-      <c r="J3" s="517"/>
+      <c r="E3" s="527"/>
+      <c r="F3" s="527"/>
+      <c r="G3" s="527"/>
+      <c r="H3" s="527"/>
+      <c r="I3" s="525"/>
+      <c r="J3" s="525"/>
     </row>
     <row r="4" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="517"/>
-      <c r="B4" s="517"/>
-      <c r="C4" s="517"/>
-      <c r="D4" s="520"/>
-      <c r="E4" s="520"/>
-      <c r="F4" s="520"/>
-      <c r="G4" s="520"/>
-      <c r="H4" s="520"/>
-      <c r="I4" s="517"/>
-      <c r="J4" s="517"/>
+      <c r="A4" s="525"/>
+      <c r="B4" s="525"/>
+      <c r="C4" s="525"/>
+      <c r="D4" s="527"/>
+      <c r="E4" s="527"/>
+      <c r="F4" s="527"/>
+      <c r="G4" s="527"/>
+      <c r="H4" s="527"/>
+      <c r="I4" s="525"/>
+      <c r="J4" s="525"/>
     </row>
     <row r="5" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N5" s="517" t="s">
+      <c r="N5" s="525" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="517"/>
-      <c r="P5" s="517"/>
-      <c r="Q5" s="517"/>
-      <c r="R5" s="517"/>
+      <c r="O5" s="525"/>
+      <c r="P5" s="525"/>
+      <c r="Q5" s="525"/>
+      <c r="R5" s="525"/>
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -7981,16 +7990,16 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="54" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="375"/>
-      <c r="B7" s="503"/>
-      <c r="C7" s="382"/>
-      <c r="D7" s="383"/>
-      <c r="E7" s="382"/>
-      <c r="F7" s="382"/>
-      <c r="G7" s="383"/>
-      <c r="H7" s="384"/>
-      <c r="I7" s="385"/>
-      <c r="J7" s="382"/>
+      <c r="A7" s="371"/>
+      <c r="B7" s="499"/>
+      <c r="C7" s="378"/>
+      <c r="D7" s="379"/>
+      <c r="E7" s="378"/>
+      <c r="F7" s="378"/>
+      <c r="G7" s="379"/>
+      <c r="H7" s="380"/>
+      <c r="I7" s="381"/>
+      <c r="J7" s="378"/>
       <c r="N7" s="193"/>
       <c r="O7" s="46"/>
       <c r="P7" s="48"/>
@@ -7998,16 +8007,16 @@
       <c r="R7" s="194"/>
     </row>
     <row r="8" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="375"/>
-      <c r="B8" s="504"/>
-      <c r="C8" s="386"/>
-      <c r="D8" s="386"/>
-      <c r="E8" s="386"/>
-      <c r="F8" s="387"/>
-      <c r="G8" s="386"/>
-      <c r="H8" s="386"/>
-      <c r="I8" s="386"/>
-      <c r="J8" s="386"/>
+      <c r="A8" s="371"/>
+      <c r="B8" s="500"/>
+      <c r="C8" s="382"/>
+      <c r="D8" s="382"/>
+      <c r="E8" s="382"/>
+      <c r="F8" s="383"/>
+      <c r="G8" s="382"/>
+      <c r="H8" s="382"/>
+      <c r="I8" s="382"/>
+      <c r="J8" s="382"/>
       <c r="N8" s="193"/>
       <c r="O8" s="46"/>
       <c r="P8" s="47"/>
@@ -8015,16 +8024,16 @@
       <c r="R8" s="195"/>
     </row>
     <row r="9" spans="1:18" s="32" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="376"/>
-      <c r="B9" s="505"/>
-      <c r="C9" s="388"/>
-      <c r="D9" s="389"/>
-      <c r="E9" s="389"/>
-      <c r="F9" s="389"/>
-      <c r="G9" s="389"/>
-      <c r="H9" s="390"/>
-      <c r="I9" s="391"/>
-      <c r="J9" s="389"/>
+      <c r="A9" s="372"/>
+      <c r="B9" s="501"/>
+      <c r="C9" s="384"/>
+      <c r="D9" s="385"/>
+      <c r="E9" s="385"/>
+      <c r="F9" s="385"/>
+      <c r="G9" s="385"/>
+      <c r="H9" s="386"/>
+      <c r="I9" s="387"/>
+      <c r="J9" s="385"/>
       <c r="N9" s="196"/>
       <c r="O9" s="46"/>
       <c r="P9" s="33"/>
@@ -8032,16 +8041,16 @@
       <c r="R9" s="197"/>
     </row>
     <row r="10" spans="1:18" s="32" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="377"/>
-      <c r="B10" s="506"/>
-      <c r="C10" s="392"/>
-      <c r="D10" s="392"/>
-      <c r="E10" s="393"/>
-      <c r="F10" s="394"/>
-      <c r="G10" s="395"/>
-      <c r="H10" s="396"/>
-      <c r="I10" s="395"/>
-      <c r="J10" s="397"/>
+      <c r="A10" s="373"/>
+      <c r="B10" s="502"/>
+      <c r="C10" s="388"/>
+      <c r="D10" s="388"/>
+      <c r="E10" s="389"/>
+      <c r="F10" s="390"/>
+      <c r="G10" s="391"/>
+      <c r="H10" s="392"/>
+      <c r="I10" s="391"/>
+      <c r="J10" s="393"/>
       <c r="N10" s="196"/>
       <c r="O10" s="46"/>
       <c r="P10" s="33"/>
@@ -8049,16 +8058,16 @@
       <c r="R10" s="197"/>
     </row>
     <row r="11" spans="1:18" s="43" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="378"/>
-      <c r="B11" s="507"/>
-      <c r="C11" s="398"/>
-      <c r="D11" s="399"/>
-      <c r="E11" s="399"/>
-      <c r="F11" s="398"/>
-      <c r="G11" s="398"/>
-      <c r="H11" s="400"/>
-      <c r="I11" s="401"/>
-      <c r="J11" s="398"/>
+      <c r="A11" s="374"/>
+      <c r="B11" s="503"/>
+      <c r="C11" s="394"/>
+      <c r="D11" s="395"/>
+      <c r="E11" s="395"/>
+      <c r="F11" s="394"/>
+      <c r="G11" s="394"/>
+      <c r="H11" s="396"/>
+      <c r="I11" s="397"/>
+      <c r="J11" s="394"/>
       <c r="N11" s="196"/>
       <c r="O11" s="46"/>
       <c r="P11" s="44"/>
@@ -8066,16 +8075,16 @@
       <c r="R11" s="198"/>
     </row>
     <row r="12" spans="1:18" s="43" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="378"/>
-      <c r="B12" s="508"/>
-      <c r="C12" s="392"/>
-      <c r="D12" s="392"/>
-      <c r="E12" s="393"/>
-      <c r="F12" s="394"/>
-      <c r="G12" s="402"/>
-      <c r="H12" s="403"/>
-      <c r="I12" s="402"/>
-      <c r="J12" s="397"/>
+      <c r="A12" s="374"/>
+      <c r="B12" s="504"/>
+      <c r="C12" s="388"/>
+      <c r="D12" s="388"/>
+      <c r="E12" s="389"/>
+      <c r="F12" s="390"/>
+      <c r="G12" s="398"/>
+      <c r="H12" s="399"/>
+      <c r="I12" s="398"/>
+      <c r="J12" s="393"/>
       <c r="N12" s="196"/>
       <c r="O12" s="46"/>
       <c r="P12" s="44"/>
@@ -8083,16 +8092,16 @@
       <c r="R12" s="198"/>
     </row>
     <row r="13" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="375"/>
-      <c r="B13" s="504"/>
-      <c r="C13" s="386"/>
-      <c r="D13" s="386"/>
-      <c r="E13" s="386"/>
-      <c r="F13" s="387"/>
-      <c r="G13" s="386"/>
-      <c r="H13" s="386"/>
-      <c r="I13" s="386"/>
-      <c r="J13" s="386"/>
+      <c r="A13" s="371"/>
+      <c r="B13" s="500"/>
+      <c r="C13" s="382"/>
+      <c r="D13" s="382"/>
+      <c r="E13" s="382"/>
+      <c r="F13" s="383"/>
+      <c r="G13" s="382"/>
+      <c r="H13" s="382"/>
+      <c r="I13" s="382"/>
+      <c r="J13" s="382"/>
       <c r="N13" s="199"/>
       <c r="O13" s="46"/>
       <c r="P13" s="103"/>
@@ -8100,16 +8109,16 @@
       <c r="R13" s="200"/>
     </row>
     <row r="14" spans="1:18" s="105" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="376"/>
-      <c r="B14" s="509"/>
-      <c r="C14" s="388"/>
-      <c r="D14" s="388"/>
-      <c r="E14" s="388"/>
-      <c r="F14" s="388"/>
-      <c r="G14" s="404"/>
-      <c r="H14" s="405"/>
-      <c r="I14" s="388"/>
-      <c r="J14" s="406"/>
+      <c r="A14" s="372"/>
+      <c r="B14" s="505"/>
+      <c r="C14" s="384"/>
+      <c r="D14" s="384"/>
+      <c r="E14" s="384"/>
+      <c r="F14" s="384"/>
+      <c r="G14" s="400"/>
+      <c r="H14" s="401"/>
+      <c r="I14" s="384"/>
+      <c r="J14" s="402"/>
       <c r="N14" s="201"/>
       <c r="O14" s="46"/>
       <c r="P14" s="106"/>
@@ -8117,16 +8126,16 @@
       <c r="R14" s="202"/>
     </row>
     <row r="15" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="375"/>
-      <c r="B15" s="510"/>
-      <c r="C15" s="408"/>
-      <c r="D15" s="408"/>
-      <c r="E15" s="408"/>
-      <c r="F15" s="409"/>
-      <c r="G15" s="407"/>
-      <c r="H15" s="408"/>
-      <c r="I15" s="408"/>
-      <c r="J15" s="408"/>
+      <c r="A15" s="371"/>
+      <c r="B15" s="506"/>
+      <c r="C15" s="404"/>
+      <c r="D15" s="404"/>
+      <c r="E15" s="404"/>
+      <c r="F15" s="405"/>
+      <c r="G15" s="403"/>
+      <c r="H15" s="404"/>
+      <c r="I15" s="404"/>
+      <c r="J15" s="404"/>
       <c r="N15" s="193"/>
       <c r="O15" s="46"/>
       <c r="P15" s="48"/>
@@ -8134,16 +8143,16 @@
       <c r="R15" s="194"/>
     </row>
     <row r="16" spans="1:18" s="89" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="375"/>
-      <c r="B16" s="511"/>
-      <c r="C16" s="386"/>
-      <c r="D16" s="386"/>
-      <c r="E16" s="386"/>
-      <c r="F16" s="410"/>
-      <c r="G16" s="386"/>
-      <c r="H16" s="386"/>
-      <c r="I16" s="398"/>
-      <c r="J16" s="386"/>
+      <c r="A16" s="371"/>
+      <c r="B16" s="507"/>
+      <c r="C16" s="382"/>
+      <c r="D16" s="382"/>
+      <c r="E16" s="382"/>
+      <c r="F16" s="406"/>
+      <c r="G16" s="382"/>
+      <c r="H16" s="382"/>
+      <c r="I16" s="394"/>
+      <c r="J16" s="382"/>
       <c r="N16" s="203"/>
       <c r="O16" s="46"/>
       <c r="P16" s="90"/>
@@ -8151,16 +8160,16 @@
       <c r="R16" s="204"/>
     </row>
     <row r="17" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="375"/>
-      <c r="B17" s="511"/>
-      <c r="C17" s="386"/>
-      <c r="D17" s="386"/>
-      <c r="E17" s="386"/>
-      <c r="F17" s="387"/>
-      <c r="G17" s="411"/>
-      <c r="H17" s="412"/>
-      <c r="I17" s="412"/>
-      <c r="J17" s="386"/>
+      <c r="A17" s="371"/>
+      <c r="B17" s="507"/>
+      <c r="C17" s="382"/>
+      <c r="D17" s="382"/>
+      <c r="E17" s="382"/>
+      <c r="F17" s="383"/>
+      <c r="G17" s="407"/>
+      <c r="H17" s="408"/>
+      <c r="I17" s="408"/>
+      <c r="J17" s="382"/>
       <c r="N17" s="193"/>
       <c r="O17" s="46"/>
       <c r="P17" s="50"/>
@@ -8168,16 +8177,16 @@
       <c r="R17" s="205"/>
     </row>
     <row r="18" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="375"/>
-      <c r="B18" s="512"/>
-      <c r="C18" s="392"/>
-      <c r="D18" s="392"/>
-      <c r="E18" s="393"/>
-      <c r="F18" s="394"/>
-      <c r="G18" s="402"/>
-      <c r="H18" s="403"/>
-      <c r="I18" s="402"/>
-      <c r="J18" s="397"/>
+      <c r="A18" s="371"/>
+      <c r="B18" s="508"/>
+      <c r="C18" s="388"/>
+      <c r="D18" s="388"/>
+      <c r="E18" s="389"/>
+      <c r="F18" s="390"/>
+      <c r="G18" s="398"/>
+      <c r="H18" s="399"/>
+      <c r="I18" s="398"/>
+      <c r="J18" s="393"/>
       <c r="N18" s="193"/>
       <c r="O18" s="46"/>
       <c r="P18" s="47"/>
@@ -8185,16 +8194,16 @@
       <c r="R18" s="195"/>
     </row>
     <row r="19" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="379"/>
-      <c r="B19" s="513"/>
-      <c r="C19" s="413"/>
-      <c r="D19" s="413"/>
-      <c r="E19" s="414"/>
-      <c r="F19" s="394"/>
-      <c r="G19" s="402"/>
-      <c r="H19" s="403"/>
-      <c r="I19" s="402"/>
-      <c r="J19" s="397"/>
+      <c r="A19" s="375"/>
+      <c r="B19" s="509"/>
+      <c r="C19" s="409"/>
+      <c r="D19" s="409"/>
+      <c r="E19" s="410"/>
+      <c r="F19" s="390"/>
+      <c r="G19" s="398"/>
+      <c r="H19" s="399"/>
+      <c r="I19" s="398"/>
+      <c r="J19" s="393"/>
       <c r="N19" s="206"/>
       <c r="O19" s="46"/>
       <c r="P19" s="171"/>
@@ -8202,16 +8211,16 @@
       <c r="R19" s="207"/>
     </row>
     <row r="20" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="380"/>
-      <c r="B20" s="512"/>
-      <c r="C20" s="415"/>
-      <c r="D20" s="416"/>
-      <c r="E20" s="417"/>
-      <c r="F20" s="394"/>
-      <c r="G20" s="402"/>
-      <c r="H20" s="415"/>
-      <c r="I20" s="402"/>
-      <c r="J20" s="397"/>
+      <c r="A20" s="376"/>
+      <c r="B20" s="508"/>
+      <c r="C20" s="411"/>
+      <c r="D20" s="412"/>
+      <c r="E20" s="413"/>
+      <c r="F20" s="390"/>
+      <c r="G20" s="398"/>
+      <c r="H20" s="411"/>
+      <c r="I20" s="398"/>
+      <c r="J20" s="393"/>
       <c r="N20" s="193"/>
       <c r="O20" s="46"/>
       <c r="P20" s="46"/>
@@ -8219,16 +8228,16 @@
       <c r="R20" s="208"/>
     </row>
     <row r="21" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="375"/>
-      <c r="B21" s="510"/>
-      <c r="C21" s="407"/>
-      <c r="D21" s="407"/>
-      <c r="E21" s="407"/>
-      <c r="F21" s="418"/>
-      <c r="G21" s="419"/>
-      <c r="H21" s="420"/>
-      <c r="I21" s="386"/>
-      <c r="J21" s="407"/>
+      <c r="A21" s="371"/>
+      <c r="B21" s="506"/>
+      <c r="C21" s="403"/>
+      <c r="D21" s="403"/>
+      <c r="E21" s="403"/>
+      <c r="F21" s="414"/>
+      <c r="G21" s="415"/>
+      <c r="H21" s="416"/>
+      <c r="I21" s="382"/>
+      <c r="J21" s="403"/>
       <c r="N21" s="199"/>
       <c r="O21" s="46"/>
       <c r="P21" s="172"/>
@@ -8236,16 +8245,16 @@
       <c r="R21" s="209"/>
     </row>
     <row r="22" spans="1:18" s="34" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="376"/>
-      <c r="B22" s="514"/>
-      <c r="C22" s="421"/>
-      <c r="D22" s="422"/>
-      <c r="E22" s="423"/>
-      <c r="F22" s="423"/>
-      <c r="G22" s="422"/>
-      <c r="H22" s="424"/>
-      <c r="I22" s="425"/>
-      <c r="J22" s="426"/>
+      <c r="A22" s="372"/>
+      <c r="B22" s="510"/>
+      <c r="C22" s="417"/>
+      <c r="D22" s="418"/>
+      <c r="E22" s="419"/>
+      <c r="F22" s="419"/>
+      <c r="G22" s="418"/>
+      <c r="H22" s="420"/>
+      <c r="I22" s="421"/>
+      <c r="J22" s="422"/>
       <c r="N22" s="196"/>
       <c r="O22" s="46"/>
       <c r="P22" s="35"/>
@@ -8253,16 +8262,16 @@
       <c r="R22" s="210"/>
     </row>
     <row r="23" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="375"/>
-      <c r="B23" s="508"/>
-      <c r="C23" s="416"/>
-      <c r="D23" s="416"/>
-      <c r="E23" s="417"/>
-      <c r="F23" s="394"/>
-      <c r="G23" s="427"/>
-      <c r="H23" s="428"/>
-      <c r="I23" s="382"/>
-      <c r="J23" s="397"/>
+      <c r="A23" s="371"/>
+      <c r="B23" s="504"/>
+      <c r="C23" s="412"/>
+      <c r="D23" s="412"/>
+      <c r="E23" s="413"/>
+      <c r="F23" s="390"/>
+      <c r="G23" s="423"/>
+      <c r="H23" s="424"/>
+      <c r="I23" s="378"/>
+      <c r="J23" s="393"/>
       <c r="N23" s="193"/>
       <c r="O23" s="46"/>
       <c r="P23" s="99"/>
@@ -8270,16 +8279,16 @@
       <c r="R23" s="211"/>
     </row>
     <row r="24" spans="1:18" s="34" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="376"/>
-      <c r="B24" s="508"/>
-      <c r="C24" s="392"/>
-      <c r="D24" s="392"/>
-      <c r="E24" s="393"/>
-      <c r="F24" s="394"/>
-      <c r="G24" s="416"/>
-      <c r="H24" s="403"/>
-      <c r="I24" s="402"/>
-      <c r="J24" s="397"/>
+      <c r="A24" s="372"/>
+      <c r="B24" s="504"/>
+      <c r="C24" s="388"/>
+      <c r="D24" s="388"/>
+      <c r="E24" s="389"/>
+      <c r="F24" s="390"/>
+      <c r="G24" s="412"/>
+      <c r="H24" s="399"/>
+      <c r="I24" s="398"/>
+      <c r="J24" s="393"/>
       <c r="N24" s="196"/>
       <c r="O24" s="46"/>
       <c r="P24" s="35"/>
@@ -8287,16 +8296,16 @@
       <c r="R24" s="210"/>
     </row>
     <row r="25" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="376"/>
-      <c r="B25" s="514"/>
-      <c r="C25" s="422"/>
-      <c r="D25" s="422"/>
-      <c r="E25" s="429"/>
-      <c r="F25" s="421"/>
-      <c r="G25" s="421"/>
-      <c r="H25" s="430"/>
-      <c r="I25" s="421"/>
-      <c r="J25" s="431"/>
+      <c r="A25" s="372"/>
+      <c r="B25" s="510"/>
+      <c r="C25" s="418"/>
+      <c r="D25" s="418"/>
+      <c r="E25" s="425"/>
+      <c r="F25" s="417"/>
+      <c r="G25" s="417"/>
+      <c r="H25" s="426"/>
+      <c r="I25" s="417"/>
+      <c r="J25" s="427"/>
       <c r="N25" s="193"/>
       <c r="O25" s="46"/>
       <c r="P25" s="99"/>
@@ -8304,16 +8313,16 @@
       <c r="R25" s="211"/>
     </row>
     <row r="26" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="376"/>
-      <c r="B26" s="514"/>
-      <c r="C26" s="422"/>
-      <c r="D26" s="422"/>
-      <c r="E26" s="429"/>
-      <c r="F26" s="421"/>
-      <c r="G26" s="421"/>
-      <c r="H26" s="430"/>
-      <c r="I26" s="421"/>
-      <c r="J26" s="443"/>
+      <c r="A26" s="372"/>
+      <c r="B26" s="510"/>
+      <c r="C26" s="418"/>
+      <c r="D26" s="418"/>
+      <c r="E26" s="425"/>
+      <c r="F26" s="417"/>
+      <c r="G26" s="417"/>
+      <c r="H26" s="426"/>
+      <c r="I26" s="417"/>
+      <c r="J26" s="439"/>
       <c r="N26" s="193"/>
       <c r="O26" s="46"/>
       <c r="P26" s="99"/>
@@ -8321,16 +8330,16 @@
       <c r="R26" s="211"/>
     </row>
     <row r="27" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="376"/>
-      <c r="B27" s="514"/>
-      <c r="C27" s="422"/>
-      <c r="D27" s="422"/>
-      <c r="E27" s="429"/>
-      <c r="F27" s="421"/>
-      <c r="G27" s="421"/>
-      <c r="H27" s="430"/>
-      <c r="I27" s="421"/>
-      <c r="J27" s="443"/>
+      <c r="A27" s="372"/>
+      <c r="B27" s="510"/>
+      <c r="C27" s="418"/>
+      <c r="D27" s="418"/>
+      <c r="E27" s="425"/>
+      <c r="F27" s="417"/>
+      <c r="G27" s="417"/>
+      <c r="H27" s="426"/>
+      <c r="I27" s="417"/>
+      <c r="J27" s="439"/>
       <c r="N27" s="193"/>
       <c r="O27" s="46"/>
       <c r="P27" s="99"/>
@@ -8338,16 +8347,16 @@
       <c r="R27" s="211"/>
     </row>
     <row r="28" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="376"/>
-      <c r="B28" s="514"/>
-      <c r="C28" s="422"/>
-      <c r="D28" s="422"/>
-      <c r="E28" s="429"/>
-      <c r="F28" s="421"/>
-      <c r="G28" s="421"/>
-      <c r="H28" s="430"/>
-      <c r="I28" s="421"/>
-      <c r="J28" s="443"/>
+      <c r="A28" s="372"/>
+      <c r="B28" s="510"/>
+      <c r="C28" s="418"/>
+      <c r="D28" s="418"/>
+      <c r="E28" s="425"/>
+      <c r="F28" s="417"/>
+      <c r="G28" s="417"/>
+      <c r="H28" s="426"/>
+      <c r="I28" s="417"/>
+      <c r="J28" s="439"/>
       <c r="N28" s="193"/>
       <c r="O28" s="46"/>
       <c r="P28" s="99"/>
@@ -8355,16 +8364,16 @@
       <c r="R28" s="211"/>
     </row>
     <row r="29" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="376"/>
-      <c r="B29" s="514"/>
-      <c r="C29" s="422"/>
-      <c r="D29" s="422"/>
-      <c r="E29" s="429"/>
-      <c r="F29" s="421"/>
-      <c r="G29" s="421"/>
-      <c r="H29" s="430"/>
-      <c r="I29" s="421"/>
-      <c r="J29" s="443"/>
+      <c r="A29" s="372"/>
+      <c r="B29" s="510"/>
+      <c r="C29" s="418"/>
+      <c r="D29" s="418"/>
+      <c r="E29" s="425"/>
+      <c r="F29" s="417"/>
+      <c r="G29" s="417"/>
+      <c r="H29" s="426"/>
+      <c r="I29" s="417"/>
+      <c r="J29" s="439"/>
       <c r="N29" s="193"/>
       <c r="O29" s="46"/>
       <c r="P29" s="99"/>
@@ -8372,16 +8381,16 @@
       <c r="R29" s="211"/>
     </row>
     <row r="30" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="376"/>
-      <c r="B30" s="514"/>
-      <c r="C30" s="422"/>
-      <c r="D30" s="422"/>
-      <c r="E30" s="429"/>
-      <c r="F30" s="421"/>
-      <c r="G30" s="421"/>
-      <c r="H30" s="430"/>
-      <c r="I30" s="421"/>
-      <c r="J30" s="443"/>
+      <c r="A30" s="372"/>
+      <c r="B30" s="510"/>
+      <c r="C30" s="418"/>
+      <c r="D30" s="418"/>
+      <c r="E30" s="425"/>
+      <c r="F30" s="417"/>
+      <c r="G30" s="417"/>
+      <c r="H30" s="426"/>
+      <c r="I30" s="417"/>
+      <c r="J30" s="439"/>
       <c r="N30" s="193"/>
       <c r="O30" s="46"/>
       <c r="P30" s="99"/>
@@ -8389,16 +8398,16 @@
       <c r="R30" s="211"/>
     </row>
     <row r="31" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="376"/>
-      <c r="B31" s="514"/>
-      <c r="C31" s="422"/>
-      <c r="D31" s="422"/>
-      <c r="E31" s="429"/>
-      <c r="F31" s="421"/>
-      <c r="G31" s="421"/>
-      <c r="H31" s="430"/>
-      <c r="I31" s="421"/>
-      <c r="J31" s="443"/>
+      <c r="A31" s="372"/>
+      <c r="B31" s="510"/>
+      <c r="C31" s="418"/>
+      <c r="D31" s="418"/>
+      <c r="E31" s="425"/>
+      <c r="F31" s="417"/>
+      <c r="G31" s="417"/>
+      <c r="H31" s="426"/>
+      <c r="I31" s="417"/>
+      <c r="J31" s="439"/>
       <c r="N31" s="193"/>
       <c r="O31" s="46"/>
       <c r="P31" s="99"/>
@@ -8406,16 +8415,16 @@
       <c r="R31" s="211"/>
     </row>
     <row r="32" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="376"/>
-      <c r="B32" s="514"/>
-      <c r="C32" s="422"/>
-      <c r="D32" s="422"/>
-      <c r="E32" s="429"/>
-      <c r="F32" s="421"/>
-      <c r="G32" s="421"/>
-      <c r="H32" s="430"/>
-      <c r="I32" s="421"/>
-      <c r="J32" s="443"/>
+      <c r="A32" s="372"/>
+      <c r="B32" s="510"/>
+      <c r="C32" s="418"/>
+      <c r="D32" s="418"/>
+      <c r="E32" s="425"/>
+      <c r="F32" s="417"/>
+      <c r="G32" s="417"/>
+      <c r="H32" s="426"/>
+      <c r="I32" s="417"/>
+      <c r="J32" s="439"/>
       <c r="N32" s="193"/>
       <c r="O32" s="46"/>
       <c r="P32" s="99"/>
@@ -8423,16 +8432,16 @@
       <c r="R32" s="211"/>
     </row>
     <row r="33" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="375"/>
-      <c r="B33" s="508"/>
-      <c r="C33" s="402"/>
-      <c r="D33" s="432"/>
-      <c r="E33" s="394"/>
-      <c r="F33" s="402"/>
-      <c r="G33" s="416"/>
-      <c r="H33" s="432"/>
-      <c r="I33" s="433"/>
-      <c r="J33" s="397"/>
+      <c r="A33" s="371"/>
+      <c r="B33" s="504"/>
+      <c r="C33" s="398"/>
+      <c r="D33" s="428"/>
+      <c r="E33" s="390"/>
+      <c r="F33" s="398"/>
+      <c r="G33" s="412"/>
+      <c r="H33" s="428"/>
+      <c r="I33" s="429"/>
+      <c r="J33" s="393"/>
       <c r="N33" s="193"/>
       <c r="O33" s="46"/>
       <c r="P33" s="46"/>
@@ -8440,16 +8449,16 @@
       <c r="R33" s="195"/>
     </row>
     <row r="34" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="375"/>
-      <c r="B34" s="508"/>
-      <c r="C34" s="402"/>
-      <c r="D34" s="432"/>
-      <c r="E34" s="394"/>
-      <c r="F34" s="402"/>
-      <c r="G34" s="416"/>
-      <c r="H34" s="432"/>
-      <c r="I34" s="433"/>
-      <c r="J34" s="397"/>
+      <c r="A34" s="371"/>
+      <c r="B34" s="504"/>
+      <c r="C34" s="398"/>
+      <c r="D34" s="428"/>
+      <c r="E34" s="390"/>
+      <c r="F34" s="398"/>
+      <c r="G34" s="412"/>
+      <c r="H34" s="428"/>
+      <c r="I34" s="429"/>
+      <c r="J34" s="393"/>
       <c r="N34" s="193"/>
       <c r="O34" s="46"/>
       <c r="P34" s="46"/>
@@ -8457,16 +8466,16 @@
       <c r="R34" s="195"/>
     </row>
     <row r="35" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="375"/>
-      <c r="B35" s="508"/>
-      <c r="C35" s="402"/>
-      <c r="D35" s="432"/>
-      <c r="E35" s="394"/>
-      <c r="F35" s="394"/>
-      <c r="G35" s="427"/>
-      <c r="H35" s="432"/>
-      <c r="I35" s="433"/>
-      <c r="J35" s="397"/>
+      <c r="A35" s="371"/>
+      <c r="B35" s="504"/>
+      <c r="C35" s="398"/>
+      <c r="D35" s="428"/>
+      <c r="E35" s="390"/>
+      <c r="F35" s="390"/>
+      <c r="G35" s="423"/>
+      <c r="H35" s="428"/>
+      <c r="I35" s="429"/>
+      <c r="J35" s="393"/>
       <c r="N35" s="193"/>
       <c r="O35" s="46"/>
       <c r="P35" s="46"/>
@@ -8474,16 +8483,16 @@
       <c r="R35" s="195"/>
     </row>
     <row r="36" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="375"/>
-      <c r="B36" s="510"/>
-      <c r="C36" s="407"/>
-      <c r="D36" s="407"/>
-      <c r="E36" s="407"/>
-      <c r="F36" s="418"/>
-      <c r="G36" s="419"/>
-      <c r="H36" s="407"/>
-      <c r="I36" s="407"/>
-      <c r="J36" s="434"/>
+      <c r="A36" s="371"/>
+      <c r="B36" s="506"/>
+      <c r="C36" s="403"/>
+      <c r="D36" s="403"/>
+      <c r="E36" s="403"/>
+      <c r="F36" s="414"/>
+      <c r="G36" s="415"/>
+      <c r="H36" s="403"/>
+      <c r="I36" s="403"/>
+      <c r="J36" s="430"/>
       <c r="N36" s="193"/>
       <c r="O36" s="46"/>
       <c r="P36" s="47"/>
@@ -8491,16 +8500,16 @@
       <c r="R36" s="195"/>
     </row>
     <row r="37" spans="1:18" s="96" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="381"/>
-      <c r="B37" s="515"/>
-      <c r="C37" s="435"/>
-      <c r="D37" s="436"/>
-      <c r="E37" s="437"/>
-      <c r="F37" s="438"/>
-      <c r="G37" s="439"/>
-      <c r="H37" s="440"/>
-      <c r="I37" s="441"/>
-      <c r="J37" s="442"/>
+      <c r="A37" s="377"/>
+      <c r="B37" s="511"/>
+      <c r="C37" s="431"/>
+      <c r="D37" s="432"/>
+      <c r="E37" s="433"/>
+      <c r="F37" s="434"/>
+      <c r="G37" s="435"/>
+      <c r="H37" s="436"/>
+      <c r="I37" s="437"/>
+      <c r="J37" s="438"/>
       <c r="N37" s="212"/>
       <c r="O37" s="213"/>
       <c r="P37" s="214"/>
@@ -8592,8 +8601,8 @@
   </sheetPr>
   <dimension ref="A2:BP36"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A23" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView view="pageLayout" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8612,71 +8621,71 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:68" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="517"/>
-      <c r="B2" s="517"/>
-      <c r="C2" s="517"/>
-      <c r="D2" s="520"/>
-      <c r="E2" s="520"/>
-      <c r="F2" s="520"/>
-      <c r="G2" s="517"/>
-      <c r="H2" s="517"/>
+      <c r="A2" s="525"/>
+      <c r="B2" s="525"/>
+      <c r="C2" s="525"/>
+      <c r="D2" s="527"/>
+      <c r="E2" s="527"/>
+      <c r="F2" s="527"/>
+      <c r="G2" s="525"/>
+      <c r="H2" s="525"/>
     </row>
     <row r="3" spans="1:68" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="517"/>
-      <c r="B3" s="517"/>
-      <c r="C3" s="517"/>
-      <c r="D3" s="520" t="s">
+      <c r="A3" s="525"/>
+      <c r="B3" s="525"/>
+      <c r="C3" s="525"/>
+      <c r="D3" s="527" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="520"/>
-      <c r="F3" s="520"/>
-      <c r="G3" s="517"/>
-      <c r="H3" s="517"/>
+      <c r="E3" s="527"/>
+      <c r="F3" s="527"/>
+      <c r="G3" s="525"/>
+      <c r="H3" s="525"/>
     </row>
     <row r="4" spans="1:68" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="517"/>
-      <c r="B4" s="517"/>
-      <c r="C4" s="517"/>
-      <c r="D4" s="520"/>
-      <c r="E4" s="520"/>
-      <c r="F4" s="520"/>
-      <c r="G4" s="517"/>
-      <c r="H4" s="517"/>
+      <c r="A4" s="525"/>
+      <c r="B4" s="525"/>
+      <c r="C4" s="525"/>
+      <c r="D4" s="527"/>
+      <c r="E4" s="527"/>
+      <c r="F4" s="527"/>
+      <c r="G4" s="525"/>
+      <c r="H4" s="525"/>
     </row>
     <row r="5" spans="1:68" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L5" s="517" t="s">
+      <c r="L5" s="525" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="517"/>
-      <c r="N5" s="517"/>
-      <c r="O5" s="517"/>
-      <c r="P5" s="517"/>
-      <c r="Q5" s="517"/>
-      <c r="R5" s="517"/>
+      <c r="M5" s="525"/>
+      <c r="N5" s="525"/>
+      <c r="O5" s="525"/>
+      <c r="P5" s="525"/>
+      <c r="Q5" s="525"/>
+      <c r="R5" s="525"/>
     </row>
     <row r="6" spans="1:68" s="10" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="372" t="s">
+      <c r="A6" s="368" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="373" t="s">
+      <c r="B6" s="369" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="373" t="s">
+      <c r="C6" s="369" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="373" t="s">
+      <c r="D6" s="369" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="373" t="s">
+      <c r="E6" s="369" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="373" t="s">
+      <c r="F6" s="369" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="373" t="s">
+      <c r="G6" s="369" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="374" t="s">
+      <c r="H6" s="370" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="25"/>
@@ -8753,14 +8762,14 @@
       <c r="BP6" s="26"/>
     </row>
     <row r="7" spans="1:68" s="25" customFormat="1" ht="46.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="481"/>
-      <c r="B7" s="444"/>
-      <c r="C7" s="445"/>
-      <c r="D7" s="446"/>
-      <c r="E7" s="445"/>
-      <c r="F7" s="445"/>
-      <c r="G7" s="445"/>
-      <c r="H7" s="447"/>
+      <c r="A7" s="477"/>
+      <c r="B7" s="440"/>
+      <c r="C7" s="441"/>
+      <c r="D7" s="442"/>
+      <c r="E7" s="441"/>
+      <c r="F7" s="441"/>
+      <c r="G7" s="441"/>
+      <c r="H7" s="443"/>
       <c r="L7" s="326"/>
       <c r="M7" s="327"/>
       <c r="N7" s="328"/>
@@ -8770,14 +8779,14 @@
       <c r="R7" s="85"/>
     </row>
     <row r="8" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="482"/>
-      <c r="B8" s="448"/>
-      <c r="C8" s="448"/>
-      <c r="D8" s="448"/>
-      <c r="E8" s="448"/>
-      <c r="F8" s="448"/>
-      <c r="G8" s="448"/>
-      <c r="H8" s="449"/>
+      <c r="A8" s="478"/>
+      <c r="B8" s="444"/>
+      <c r="C8" s="444"/>
+      <c r="D8" s="444"/>
+      <c r="E8" s="444"/>
+      <c r="F8" s="444"/>
+      <c r="G8" s="444"/>
+      <c r="H8" s="445"/>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
@@ -8840,14 +8849,14 @@
       <c r="BP8" s="26"/>
     </row>
     <row r="9" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="483"/>
-      <c r="B9" s="450"/>
-      <c r="C9" s="451"/>
-      <c r="D9" s="452"/>
-      <c r="E9" s="451"/>
-      <c r="F9" s="451"/>
-      <c r="G9" s="451"/>
-      <c r="H9" s="453"/>
+      <c r="A9" s="479"/>
+      <c r="B9" s="446"/>
+      <c r="C9" s="447"/>
+      <c r="D9" s="448"/>
+      <c r="E9" s="447"/>
+      <c r="F9" s="447"/>
+      <c r="G9" s="447"/>
+      <c r="H9" s="449"/>
       <c r="I9" s="333"/>
       <c r="J9" s="334"/>
       <c r="K9" s="333"/>
@@ -8910,14 +8919,14 @@
       <c r="BP9" s="26"/>
     </row>
     <row r="10" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="483"/>
-      <c r="B10" s="450"/>
-      <c r="C10" s="451"/>
-      <c r="D10" s="452"/>
-      <c r="E10" s="452"/>
-      <c r="F10" s="454"/>
-      <c r="G10" s="454"/>
-      <c r="H10" s="453"/>
+      <c r="A10" s="479"/>
+      <c r="B10" s="446"/>
+      <c r="C10" s="447"/>
+      <c r="D10" s="448"/>
+      <c r="E10" s="448"/>
+      <c r="F10" s="450"/>
+      <c r="G10" s="450"/>
+      <c r="H10" s="449"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
@@ -8980,14 +8989,14 @@
       <c r="BP10" s="26"/>
     </row>
     <row r="11" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="483"/>
-      <c r="B11" s="455"/>
-      <c r="C11" s="451"/>
-      <c r="D11" s="452"/>
-      <c r="E11" s="451"/>
-      <c r="F11" s="451"/>
-      <c r="G11" s="454"/>
-      <c r="H11" s="453"/>
+      <c r="A11" s="479"/>
+      <c r="B11" s="451"/>
+      <c r="C11" s="447"/>
+      <c r="D11" s="448"/>
+      <c r="E11" s="447"/>
+      <c r="F11" s="447"/>
+      <c r="G11" s="450"/>
+      <c r="H11" s="449"/>
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
@@ -9050,14 +9059,14 @@
       <c r="BP11" s="26"/>
     </row>
     <row r="12" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="482"/>
-      <c r="B12" s="456"/>
-      <c r="C12" s="456"/>
-      <c r="D12" s="456"/>
-      <c r="E12" s="456"/>
-      <c r="F12" s="456"/>
-      <c r="G12" s="456"/>
-      <c r="H12" s="457"/>
+      <c r="A12" s="478"/>
+      <c r="B12" s="452"/>
+      <c r="C12" s="452"/>
+      <c r="D12" s="452"/>
+      <c r="E12" s="452"/>
+      <c r="F12" s="452"/>
+      <c r="G12" s="452"/>
+      <c r="H12" s="453"/>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
@@ -9120,14 +9129,14 @@
       <c r="BP12" s="26"/>
     </row>
     <row r="13" spans="1:68" s="124" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="484"/>
-      <c r="B13" s="458"/>
-      <c r="C13" s="459"/>
-      <c r="D13" s="459"/>
-      <c r="E13" s="459"/>
-      <c r="F13" s="459"/>
-      <c r="G13" s="459"/>
-      <c r="H13" s="460"/>
+      <c r="A13" s="480"/>
+      <c r="B13" s="454"/>
+      <c r="C13" s="455"/>
+      <c r="D13" s="455"/>
+      <c r="E13" s="455"/>
+      <c r="F13" s="455"/>
+      <c r="G13" s="455"/>
+      <c r="H13" s="456"/>
       <c r="I13" s="121"/>
       <c r="J13" s="121"/>
       <c r="K13" s="121"/>
@@ -9190,14 +9199,14 @@
       <c r="BP13" s="123"/>
     </row>
     <row r="14" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="482"/>
-      <c r="B14" s="461"/>
-      <c r="C14" s="462"/>
-      <c r="D14" s="462"/>
-      <c r="E14" s="462"/>
-      <c r="F14" s="463"/>
-      <c r="G14" s="461"/>
-      <c r="H14" s="464"/>
+      <c r="A14" s="478"/>
+      <c r="B14" s="457"/>
+      <c r="C14" s="458"/>
+      <c r="D14" s="458"/>
+      <c r="E14" s="458"/>
+      <c r="F14" s="459"/>
+      <c r="G14" s="457"/>
+      <c r="H14" s="460"/>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
       <c r="K14" s="25"/>
@@ -9260,14 +9269,14 @@
       <c r="BP14" s="26"/>
     </row>
     <row r="15" spans="1:68" s="124" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="484"/>
-      <c r="B15" s="465"/>
-      <c r="C15" s="466"/>
-      <c r="D15" s="466"/>
-      <c r="E15" s="466"/>
-      <c r="F15" s="467"/>
-      <c r="G15" s="465"/>
-      <c r="H15" s="468"/>
+      <c r="A15" s="480"/>
+      <c r="B15" s="461"/>
+      <c r="C15" s="462"/>
+      <c r="D15" s="462"/>
+      <c r="E15" s="462"/>
+      <c r="F15" s="463"/>
+      <c r="G15" s="461"/>
+      <c r="H15" s="464"/>
       <c r="I15" s="121"/>
       <c r="J15" s="121"/>
       <c r="K15" s="121"/>
@@ -9330,14 +9339,14 @@
       <c r="BP15" s="123"/>
     </row>
     <row r="16" spans="1:68" s="124" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="485"/>
-      <c r="B16" s="469"/>
-      <c r="C16" s="469"/>
-      <c r="D16" s="469"/>
-      <c r="E16" s="469"/>
-      <c r="F16" s="469"/>
-      <c r="G16" s="469"/>
-      <c r="H16" s="470"/>
+      <c r="A16" s="481"/>
+      <c r="B16" s="465"/>
+      <c r="C16" s="465"/>
+      <c r="D16" s="465"/>
+      <c r="E16" s="465"/>
+      <c r="F16" s="465"/>
+      <c r="G16" s="465"/>
+      <c r="H16" s="466"/>
       <c r="I16" s="121"/>
       <c r="J16" s="121"/>
       <c r="K16" s="121"/>
@@ -9397,14 +9406,14 @@
       <c r="BP16" s="123"/>
     </row>
     <row r="17" spans="1:68" s="124" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="486"/>
-      <c r="B17" s="465"/>
-      <c r="C17" s="466"/>
-      <c r="D17" s="466"/>
-      <c r="E17" s="466"/>
-      <c r="F17" s="467"/>
-      <c r="G17" s="465"/>
-      <c r="H17" s="468"/>
+      <c r="A17" s="482"/>
+      <c r="B17" s="461"/>
+      <c r="C17" s="462"/>
+      <c r="D17" s="462"/>
+      <c r="E17" s="462"/>
+      <c r="F17" s="463"/>
+      <c r="G17" s="461"/>
+      <c r="H17" s="464"/>
       <c r="I17" s="121"/>
       <c r="J17" s="121"/>
       <c r="K17" s="121"/>
@@ -9464,14 +9473,14 @@
       <c r="BP17" s="123"/>
     </row>
     <row r="18" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="482"/>
-      <c r="B18" s="456"/>
-      <c r="C18" s="456"/>
-      <c r="D18" s="456"/>
-      <c r="E18" s="456"/>
-      <c r="F18" s="456"/>
-      <c r="G18" s="456"/>
-      <c r="H18" s="457"/>
+      <c r="A18" s="478"/>
+      <c r="B18" s="452"/>
+      <c r="C18" s="452"/>
+      <c r="D18" s="452"/>
+      <c r="E18" s="452"/>
+      <c r="F18" s="452"/>
+      <c r="G18" s="452"/>
+      <c r="H18" s="453"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
@@ -9531,14 +9540,14 @@
       <c r="BP18" s="26"/>
     </row>
     <row r="19" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="482"/>
-      <c r="B19" s="456"/>
-      <c r="C19" s="456"/>
-      <c r="D19" s="456"/>
-      <c r="E19" s="456"/>
-      <c r="F19" s="456"/>
-      <c r="G19" s="456"/>
-      <c r="H19" s="457"/>
+      <c r="A19" s="478"/>
+      <c r="B19" s="452"/>
+      <c r="C19" s="452"/>
+      <c r="D19" s="452"/>
+      <c r="E19" s="452"/>
+      <c r="F19" s="452"/>
+      <c r="G19" s="452"/>
+      <c r="H19" s="453"/>
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
@@ -9598,14 +9607,14 @@
       <c r="BP19" s="26"/>
     </row>
     <row r="20" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="482"/>
-      <c r="B20" s="456"/>
-      <c r="C20" s="456"/>
-      <c r="D20" s="456"/>
-      <c r="E20" s="456"/>
-      <c r="F20" s="456"/>
-      <c r="G20" s="456"/>
-      <c r="H20" s="457"/>
+      <c r="A20" s="478"/>
+      <c r="B20" s="452"/>
+      <c r="C20" s="452"/>
+      <c r="D20" s="452"/>
+      <c r="E20" s="452"/>
+      <c r="F20" s="452"/>
+      <c r="G20" s="452"/>
+      <c r="H20" s="453"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
@@ -9665,14 +9674,14 @@
       <c r="BP20" s="26"/>
     </row>
     <row r="21" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="484"/>
-      <c r="B21" s="471"/>
-      <c r="C21" s="472"/>
-      <c r="D21" s="473"/>
-      <c r="E21" s="473"/>
-      <c r="F21" s="472"/>
-      <c r="G21" s="471"/>
-      <c r="H21" s="474"/>
+      <c r="A21" s="480"/>
+      <c r="B21" s="467"/>
+      <c r="C21" s="468"/>
+      <c r="D21" s="469"/>
+      <c r="E21" s="469"/>
+      <c r="F21" s="468"/>
+      <c r="G21" s="467"/>
+      <c r="H21" s="470"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
@@ -9732,14 +9741,14 @@
       <c r="BP21" s="26"/>
     </row>
     <row r="22" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="484"/>
-      <c r="B22" s="456"/>
-      <c r="C22" s="456"/>
-      <c r="D22" s="456"/>
-      <c r="E22" s="456"/>
-      <c r="F22" s="456"/>
-      <c r="G22" s="456"/>
-      <c r="H22" s="457"/>
+      <c r="A22" s="480"/>
+      <c r="B22" s="452"/>
+      <c r="C22" s="452"/>
+      <c r="D22" s="452"/>
+      <c r="E22" s="452"/>
+      <c r="F22" s="452"/>
+      <c r="G22" s="452"/>
+      <c r="H22" s="453"/>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
@@ -9799,14 +9808,14 @@
       <c r="BP22" s="26"/>
     </row>
     <row r="23" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="482"/>
-      <c r="B23" s="461"/>
-      <c r="C23" s="463"/>
-      <c r="D23" s="462"/>
-      <c r="E23" s="462"/>
-      <c r="F23" s="463"/>
-      <c r="G23" s="461"/>
-      <c r="H23" s="464"/>
+      <c r="A23" s="478"/>
+      <c r="B23" s="457"/>
+      <c r="C23" s="459"/>
+      <c r="D23" s="458"/>
+      <c r="E23" s="458"/>
+      <c r="F23" s="459"/>
+      <c r="G23" s="457"/>
+      <c r="H23" s="460"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
@@ -9866,14 +9875,14 @@
       <c r="BP23" s="26"/>
     </row>
     <row r="24" spans="1:68" s="124" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="484"/>
-      <c r="B24" s="475"/>
-      <c r="C24" s="475"/>
-      <c r="D24" s="475"/>
-      <c r="E24" s="475"/>
-      <c r="F24" s="475"/>
-      <c r="G24" s="475"/>
-      <c r="H24" s="476"/>
+      <c r="A24" s="480"/>
+      <c r="B24" s="471"/>
+      <c r="C24" s="471"/>
+      <c r="D24" s="471"/>
+      <c r="E24" s="471"/>
+      <c r="F24" s="471"/>
+      <c r="G24" s="471"/>
+      <c r="H24" s="472"/>
       <c r="I24" s="121"/>
       <c r="J24" s="121"/>
       <c r="K24" s="121"/>
@@ -9933,14 +9942,14 @@
       <c r="BP24" s="123"/>
     </row>
     <row r="25" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="482"/>
-      <c r="B25" s="456"/>
-      <c r="C25" s="456"/>
-      <c r="D25" s="456"/>
-      <c r="E25" s="456"/>
-      <c r="F25" s="456"/>
-      <c r="G25" s="456"/>
-      <c r="H25" s="457"/>
+      <c r="A25" s="478"/>
+      <c r="B25" s="452"/>
+      <c r="C25" s="452"/>
+      <c r="D25" s="452"/>
+      <c r="E25" s="452"/>
+      <c r="F25" s="452"/>
+      <c r="G25" s="452"/>
+      <c r="H25" s="453"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
@@ -10000,14 +10009,14 @@
       <c r="BP25" s="26"/>
     </row>
     <row r="26" spans="1:68" s="344" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="482"/>
-      <c r="B26" s="456"/>
-      <c r="C26" s="456"/>
-      <c r="D26" s="456"/>
-      <c r="E26" s="456"/>
-      <c r="F26" s="456"/>
-      <c r="G26" s="456"/>
-      <c r="H26" s="457"/>
+      <c r="A26" s="478"/>
+      <c r="B26" s="452"/>
+      <c r="C26" s="452"/>
+      <c r="D26" s="452"/>
+      <c r="E26" s="452"/>
+      <c r="F26" s="452"/>
+      <c r="G26" s="452"/>
+      <c r="H26" s="453"/>
       <c r="I26" s="342"/>
       <c r="J26" s="342"/>
       <c r="K26" s="342"/>
@@ -10067,14 +10076,14 @@
       <c r="BP26" s="346"/>
     </row>
     <row r="27" spans="1:68" s="344" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="487"/>
-      <c r="B27" s="461"/>
-      <c r="C27" s="462"/>
-      <c r="D27" s="462"/>
-      <c r="E27" s="462"/>
-      <c r="F27" s="463"/>
-      <c r="G27" s="461"/>
-      <c r="H27" s="464"/>
+      <c r="A27" s="483"/>
+      <c r="B27" s="457"/>
+      <c r="C27" s="458"/>
+      <c r="D27" s="458"/>
+      <c r="E27" s="458"/>
+      <c r="F27" s="459"/>
+      <c r="G27" s="457"/>
+      <c r="H27" s="460"/>
       <c r="I27" s="342"/>
       <c r="J27" s="342"/>
       <c r="K27" s="342"/>
@@ -10134,14 +10143,14 @@
       <c r="BP27" s="346"/>
     </row>
     <row r="28" spans="1:68" s="344" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="488"/>
-      <c r="B28" s="461"/>
-      <c r="C28" s="462"/>
-      <c r="D28" s="462"/>
-      <c r="E28" s="462"/>
-      <c r="F28" s="463"/>
-      <c r="G28" s="461"/>
-      <c r="H28" s="464"/>
+      <c r="A28" s="484"/>
+      <c r="B28" s="457"/>
+      <c r="C28" s="458"/>
+      <c r="D28" s="458"/>
+      <c r="E28" s="458"/>
+      <c r="F28" s="459"/>
+      <c r="G28" s="457"/>
+      <c r="H28" s="460"/>
       <c r="I28" s="342"/>
       <c r="J28" s="342"/>
       <c r="K28" s="342"/>
@@ -10201,14 +10210,14 @@
       <c r="BP28" s="346"/>
     </row>
     <row r="29" spans="1:68" s="344" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="488"/>
-      <c r="B29" s="461"/>
-      <c r="C29" s="462"/>
-      <c r="D29" s="462"/>
-      <c r="E29" s="462"/>
-      <c r="F29" s="463"/>
-      <c r="G29" s="461"/>
-      <c r="H29" s="464"/>
+      <c r="A29" s="484"/>
+      <c r="B29" s="457"/>
+      <c r="C29" s="458"/>
+      <c r="D29" s="458"/>
+      <c r="E29" s="458"/>
+      <c r="F29" s="459"/>
+      <c r="G29" s="457"/>
+      <c r="H29" s="460"/>
       <c r="I29" s="342"/>
       <c r="J29" s="342"/>
       <c r="K29" s="342"/>
@@ -10268,14 +10277,14 @@
       <c r="BP29" s="346"/>
     </row>
     <row r="30" spans="1:68" s="344" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="488"/>
-      <c r="B30" s="461"/>
-      <c r="C30" s="462"/>
-      <c r="D30" s="462"/>
-      <c r="E30" s="462"/>
-      <c r="F30" s="463"/>
-      <c r="G30" s="461"/>
-      <c r="H30" s="464"/>
+      <c r="A30" s="484"/>
+      <c r="B30" s="457"/>
+      <c r="C30" s="458"/>
+      <c r="D30" s="458"/>
+      <c r="E30" s="458"/>
+      <c r="F30" s="459"/>
+      <c r="G30" s="457"/>
+      <c r="H30" s="460"/>
       <c r="I30" s="342"/>
       <c r="J30" s="342"/>
       <c r="K30" s="342"/>
@@ -10335,14 +10344,14 @@
       <c r="BP30" s="346"/>
     </row>
     <row r="31" spans="1:68" s="344" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="488"/>
-      <c r="B31" s="461"/>
-      <c r="C31" s="462"/>
-      <c r="D31" s="462"/>
-      <c r="E31" s="462"/>
-      <c r="F31" s="463"/>
-      <c r="G31" s="461"/>
-      <c r="H31" s="464"/>
+      <c r="A31" s="484"/>
+      <c r="B31" s="457"/>
+      <c r="C31" s="458"/>
+      <c r="D31" s="458"/>
+      <c r="E31" s="458"/>
+      <c r="F31" s="459"/>
+      <c r="G31" s="457"/>
+      <c r="H31" s="460"/>
       <c r="I31" s="342"/>
       <c r="J31" s="342"/>
       <c r="K31" s="342"/>
@@ -10402,14 +10411,14 @@
       <c r="BP31" s="346"/>
     </row>
     <row r="32" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="482"/>
-      <c r="B32" s="456"/>
-      <c r="C32" s="456"/>
-      <c r="D32" s="456"/>
-      <c r="E32" s="456"/>
-      <c r="F32" s="456"/>
-      <c r="G32" s="456"/>
-      <c r="H32" s="457"/>
+      <c r="A32" s="478"/>
+      <c r="B32" s="452"/>
+      <c r="C32" s="452"/>
+      <c r="D32" s="452"/>
+      <c r="E32" s="452"/>
+      <c r="F32" s="452"/>
+      <c r="G32" s="452"/>
+      <c r="H32" s="453"/>
       <c r="I32" s="25"/>
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
@@ -10469,14 +10478,14 @@
       <c r="BP32" s="26"/>
     </row>
     <row r="33" spans="1:68" s="124" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="489"/>
-      <c r="B33" s="475"/>
-      <c r="C33" s="475"/>
-      <c r="D33" s="472"/>
-      <c r="E33" s="472"/>
-      <c r="F33" s="477"/>
-      <c r="G33" s="477"/>
-      <c r="H33" s="476"/>
+      <c r="A33" s="485"/>
+      <c r="B33" s="471"/>
+      <c r="C33" s="471"/>
+      <c r="D33" s="468"/>
+      <c r="E33" s="468"/>
+      <c r="F33" s="473"/>
+      <c r="G33" s="473"/>
+      <c r="H33" s="472"/>
       <c r="I33" s="121"/>
       <c r="J33" s="121"/>
       <c r="K33" s="121"/>
@@ -10536,14 +10545,14 @@
       <c r="BP33" s="123"/>
     </row>
     <row r="34" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="490"/>
-      <c r="B34" s="478"/>
-      <c r="C34" s="479"/>
-      <c r="D34" s="479"/>
-      <c r="E34" s="479"/>
-      <c r="F34" s="479"/>
-      <c r="G34" s="478"/>
-      <c r="H34" s="480"/>
+      <c r="A34" s="486"/>
+      <c r="B34" s="474"/>
+      <c r="C34" s="475"/>
+      <c r="D34" s="475"/>
+      <c r="E34" s="475"/>
+      <c r="F34" s="475"/>
+      <c r="G34" s="474"/>
+      <c r="H34" s="476"/>
       <c r="I34" s="25"/>
       <c r="J34" s="25"/>
       <c r="K34" s="25"/>
@@ -10607,16 +10616,16 @@
     </row>
     <row r="35" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="188"/>
-      <c r="B35" s="370"/>
+      <c r="B35" s="366"/>
       <c r="C35" s="188"/>
       <c r="D35" s="188"/>
       <c r="E35" s="188"/>
       <c r="F35" s="189"/>
-      <c r="G35" s="371"/>
-      <c r="H35" s="371"/>
+      <c r="G35" s="367"/>
+      <c r="H35" s="367"/>
     </row>
     <row r="36" spans="1:68" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="491" t="s">
+      <c r="A36" s="487" t="s">
         <v>17</v>
       </c>
       <c r="B36" s="350">
@@ -10654,8 +10663,8 @@
   </sheetPr>
   <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10694,14 +10703,14 @@
       <c r="N1" s="12"/>
     </row>
     <row r="2" spans="1:20" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="521"/>
-      <c r="B2" s="521"/>
-      <c r="C2" s="521"/>
-      <c r="D2" s="522"/>
-      <c r="E2" s="522"/>
-      <c r="F2" s="522"/>
-      <c r="G2" s="521"/>
-      <c r="H2" s="521"/>
+      <c r="A2" s="528"/>
+      <c r="B2" s="528"/>
+      <c r="C2" s="528"/>
+      <c r="D2" s="529"/>
+      <c r="E2" s="529"/>
+      <c r="F2" s="529"/>
+      <c r="G2" s="528"/>
+      <c r="H2" s="528"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
@@ -10716,16 +10725,16 @@
       <c r="T2" s="12"/>
     </row>
     <row r="3" spans="1:20" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="521"/>
-      <c r="B3" s="521"/>
-      <c r="C3" s="521"/>
-      <c r="D3" s="522" t="s">
+      <c r="A3" s="528"/>
+      <c r="B3" s="528"/>
+      <c r="C3" s="528"/>
+      <c r="D3" s="529" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="522"/>
-      <c r="F3" s="522"/>
-      <c r="G3" s="521"/>
-      <c r="H3" s="521"/>
+      <c r="E3" s="529"/>
+      <c r="F3" s="529"/>
+      <c r="G3" s="528"/>
+      <c r="H3" s="528"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
@@ -10740,14 +10749,14 @@
       <c r="T3" s="12"/>
     </row>
     <row r="4" spans="1:20" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="521"/>
-      <c r="B4" s="521"/>
-      <c r="C4" s="521"/>
-      <c r="D4" s="522"/>
-      <c r="E4" s="522"/>
-      <c r="F4" s="522"/>
-      <c r="G4" s="521"/>
-      <c r="H4" s="521"/>
+      <c r="A4" s="528"/>
+      <c r="B4" s="528"/>
+      <c r="C4" s="528"/>
+      <c r="D4" s="529"/>
+      <c r="E4" s="529"/>
+      <c r="F4" s="529"/>
+      <c r="G4" s="528"/>
+      <c r="H4" s="528"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
@@ -10784,28 +10793,28 @@
       <c r="T5" s="12"/>
     </row>
     <row r="6" spans="1:20" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="364" t="s">
+      <c r="A6" s="360" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="365" t="s">
+      <c r="B6" s="361" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="366" t="s">
+      <c r="C6" s="362" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="365" t="s">
+      <c r="D6" s="361" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="365" t="s">
+      <c r="E6" s="361" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="367" t="s">
+      <c r="F6" s="363" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="368" t="s">
+      <c r="G6" s="364" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="369" t="s">
+      <c r="H6" s="365" t="s">
         <v>22</v>
       </c>
       <c r="I6" s="20"/>
@@ -10832,14 +10841,14 @@
       <c r="T6" s="12"/>
     </row>
     <row r="7" spans="1:20" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="359"/>
+      <c r="A7" s="519"/>
       <c r="B7" s="109"/>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
-      <c r="H7" s="353"/>
+      <c r="H7" s="352"/>
       <c r="I7" s="20"/>
       <c r="J7" s="21"/>
       <c r="K7" s="13"/>
@@ -10854,14 +10863,14 @@
       <c r="T7" s="12"/>
     </row>
     <row r="8" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="351"/>
+      <c r="A8" s="520"/>
       <c r="B8" s="125"/>
       <c r="C8" s="49"/>
       <c r="D8" s="126"/>
       <c r="E8" s="126"/>
       <c r="F8" s="126"/>
       <c r="G8" s="126"/>
-      <c r="H8" s="352"/>
+      <c r="H8" s="351"/>
       <c r="I8" s="20"/>
       <c r="J8" s="21"/>
       <c r="K8" s="13"/>
@@ -10882,14 +10891,14 @@
       <c r="T8" s="12"/>
     </row>
     <row r="9" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="351"/>
+      <c r="A9" s="520"/>
       <c r="B9" s="27"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
-      <c r="H9" s="353"/>
+      <c r="H9" s="352"/>
       <c r="I9" s="20"/>
       <c r="J9" s="21"/>
       <c r="K9" s="13"/>
@@ -10904,14 +10913,14 @@
       <c r="T9" s="12"/>
     </row>
     <row r="10" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="351"/>
+      <c r="A10" s="520"/>
       <c r="B10" s="27"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
-      <c r="H10" s="353"/>
+      <c r="H10" s="352"/>
       <c r="I10" s="20"/>
       <c r="J10" s="132"/>
       <c r="K10" s="11"/>
@@ -10926,14 +10935,14 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="351"/>
+      <c r="A11" s="520"/>
       <c r="B11" s="27"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
-      <c r="H11" s="353"/>
+      <c r="H11" s="352"/>
       <c r="I11" s="20"/>
       <c r="J11" s="21"/>
       <c r="K11" s="13"/>
@@ -10948,14 +10957,14 @@
       <c r="T11" s="12"/>
     </row>
     <row r="12" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="351"/>
+      <c r="A12" s="520"/>
       <c r="B12" s="27"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
       <c r="E12" s="111"/>
       <c r="F12" s="111"/>
       <c r="G12" s="28"/>
-      <c r="H12" s="353"/>
+      <c r="H12" s="352"/>
       <c r="I12" s="20"/>
       <c r="J12" s="21"/>
       <c r="K12" s="13"/>
@@ -10970,14 +10979,14 @@
       <c r="T12" s="12"/>
     </row>
     <row r="13" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="351"/>
+      <c r="A13" s="520"/>
       <c r="B13" s="27"/>
       <c r="C13" s="28"/>
       <c r="D13" s="107"/>
       <c r="E13" s="9"/>
       <c r="F13" s="162"/>
       <c r="G13" s="125"/>
-      <c r="H13" s="353"/>
+      <c r="H13" s="352"/>
       <c r="I13" s="20"/>
       <c r="J13" s="21"/>
       <c r="K13" s="13"/>
@@ -10992,14 +11001,14 @@
       <c r="T13" s="12"/>
     </row>
     <row r="14" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="351"/>
+      <c r="A14" s="520"/>
       <c r="B14" s="27"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="107"/>
       <c r="F14" s="108"/>
       <c r="G14" s="28"/>
-      <c r="H14" s="353"/>
+      <c r="H14" s="352"/>
       <c r="I14" s="20"/>
       <c r="J14" s="21"/>
       <c r="K14" s="13"/>
@@ -11014,14 +11023,14 @@
       <c r="T14" s="12"/>
     </row>
     <row r="15" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="351"/>
+      <c r="A15" s="520"/>
       <c r="B15" s="27"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
-      <c r="H15" s="353"/>
+      <c r="H15" s="352"/>
       <c r="I15" s="20"/>
       <c r="J15" s="21"/>
       <c r="K15" s="13"/>
@@ -11036,14 +11045,14 @@
       <c r="T15" s="12"/>
     </row>
     <row r="16" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="351"/>
+      <c r="A16" s="520"/>
       <c r="B16" s="27"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
-      <c r="H16" s="353"/>
+      <c r="H16" s="352"/>
       <c r="J16" s="110"/>
       <c r="K16" s="110"/>
       <c r="L16" s="110"/>
@@ -11051,14 +11060,14 @@
       <c r="N16" s="110"/>
     </row>
     <row r="17" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="351"/>
+      <c r="A17" s="520"/>
       <c r="B17" s="27"/>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
-      <c r="H17" s="353"/>
+      <c r="H17" s="352"/>
       <c r="I17" s="20"/>
       <c r="J17" s="21"/>
       <c r="K17" s="13"/>
@@ -11073,14 +11082,14 @@
       <c r="T17" s="12"/>
     </row>
     <row r="18" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="351"/>
+      <c r="A18" s="520"/>
       <c r="B18" s="27"/>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
-      <c r="H18" s="353"/>
+      <c r="H18" s="352"/>
       <c r="J18" s="110"/>
       <c r="K18" s="110"/>
       <c r="L18" s="110"/>
@@ -11088,14 +11097,14 @@
       <c r="N18" s="110"/>
     </row>
     <row r="19" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="351"/>
+      <c r="A19" s="520"/>
       <c r="B19" s="27"/>
       <c r="C19" s="28"/>
       <c r="D19" s="111"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
-      <c r="H19" s="353"/>
+      <c r="H19" s="352"/>
       <c r="I19" s="20"/>
       <c r="J19" s="21"/>
       <c r="K19" s="13"/>
@@ -11110,14 +11119,14 @@
       <c r="T19" s="12"/>
     </row>
     <row r="20" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="351"/>
+      <c r="A20" s="520"/>
       <c r="B20" s="154"/>
       <c r="C20" s="155"/>
       <c r="D20" s="156"/>
       <c r="E20" s="132"/>
       <c r="F20" s="157"/>
       <c r="G20" s="158"/>
-      <c r="H20" s="355"/>
+      <c r="H20" s="354"/>
       <c r="I20" s="20"/>
       <c r="J20" s="21"/>
       <c r="K20" s="13"/>
@@ -11132,14 +11141,14 @@
       <c r="T20" s="12"/>
     </row>
     <row r="21" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="351"/>
+      <c r="A21" s="520"/>
       <c r="B21" s="27"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
-      <c r="H21" s="353"/>
+      <c r="H21" s="352"/>
       <c r="I21" s="20"/>
       <c r="J21" s="21"/>
       <c r="K21" s="13"/>
@@ -11154,14 +11163,14 @@
       <c r="T21" s="12"/>
     </row>
     <row r="22" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="351"/>
+      <c r="A22" s="520"/>
       <c r="B22" s="27"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
-      <c r="H22" s="353"/>
+      <c r="H22" s="352"/>
       <c r="I22" s="20"/>
       <c r="J22" s="21"/>
       <c r="K22" s="13"/>
@@ -11176,14 +11185,14 @@
       <c r="T22" s="12"/>
     </row>
     <row r="23" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="351"/>
+      <c r="A23" s="520"/>
       <c r="B23" s="27"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="353"/>
+      <c r="H23" s="352"/>
       <c r="I23" s="20"/>
       <c r="J23" s="21"/>
       <c r="K23" s="13"/>
@@ -11198,14 +11207,14 @@
       <c r="T23" s="12"/>
     </row>
     <row r="24" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="351"/>
+      <c r="A24" s="520"/>
       <c r="B24" s="27"/>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
-      <c r="H24" s="353"/>
+      <c r="H24" s="352"/>
       <c r="I24" s="20"/>
       <c r="J24" s="21"/>
       <c r="K24" s="13"/>
@@ -11220,14 +11229,14 @@
       <c r="T24" s="12"/>
     </row>
     <row r="25" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="351"/>
+      <c r="A25" s="520"/>
       <c r="B25" s="11"/>
       <c r="C25" s="14"/>
       <c r="D25" s="159"/>
       <c r="E25" s="11"/>
       <c r="F25" s="15"/>
       <c r="G25" s="24"/>
-      <c r="H25" s="356"/>
+      <c r="H25" s="355"/>
       <c r="I25" s="20"/>
       <c r="J25" s="21"/>
       <c r="K25" s="13"/>
@@ -11236,14 +11245,14 @@
       <c r="N25" s="13"/>
     </row>
     <row r="26" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="351"/>
+      <c r="A26" s="520"/>
       <c r="B26" s="27"/>
       <c r="C26" s="28"/>
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
-      <c r="H26" s="353"/>
+      <c r="H26" s="352"/>
       <c r="I26" s="20"/>
       <c r="J26" s="21"/>
       <c r="K26" s="13"/>
@@ -11258,14 +11267,14 @@
       <c r="T26" s="12"/>
     </row>
     <row r="27" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="351"/>
+      <c r="A27" s="520"/>
       <c r="B27" s="27"/>
       <c r="C27" s="28"/>
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
-      <c r="H27" s="353"/>
+      <c r="H27" s="352"/>
       <c r="I27" s="20"/>
       <c r="J27" s="21"/>
       <c r="K27" s="13"/>
@@ -11280,14 +11289,14 @@
       <c r="T27" s="12"/>
     </row>
     <row r="28" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="351"/>
+      <c r="A28" s="520"/>
       <c r="B28" s="27"/>
       <c r="C28" s="28"/>
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
-      <c r="H28" s="353"/>
+      <c r="H28" s="352"/>
       <c r="I28" s="20"/>
       <c r="J28" s="21"/>
       <c r="K28" s="13"/>
@@ -11302,14 +11311,14 @@
       <c r="T28" s="12"/>
     </row>
     <row r="29" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="351"/>
+      <c r="A29" s="520"/>
       <c r="B29" s="27"/>
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
-      <c r="H29" s="353"/>
+      <c r="H29" s="352"/>
       <c r="I29" s="20"/>
       <c r="J29" s="21"/>
       <c r="K29" s="13"/>
@@ -11324,14 +11333,14 @@
       <c r="T29" s="12"/>
     </row>
     <row r="30" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="351"/>
+      <c r="A30" s="520"/>
       <c r="B30" s="27"/>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
       <c r="G30" s="28"/>
-      <c r="H30" s="353"/>
+      <c r="H30" s="352"/>
       <c r="I30" s="20"/>
       <c r="J30" s="21"/>
       <c r="K30" s="13"/>
@@ -11346,14 +11355,14 @@
       <c r="T30" s="12"/>
     </row>
     <row r="31" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="351"/>
+      <c r="A31" s="520"/>
       <c r="B31" s="27"/>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
-      <c r="H31" s="353"/>
+      <c r="H31" s="352"/>
       <c r="I31" s="20"/>
       <c r="J31" s="21"/>
       <c r="K31" s="13"/>
@@ -11368,14 +11377,14 @@
       <c r="T31" s="12"/>
     </row>
     <row r="32" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="351"/>
+      <c r="A32" s="520"/>
       <c r="B32" s="27"/>
       <c r="C32" s="28"/>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
       <c r="F32" s="9"/>
       <c r="G32" s="28"/>
-      <c r="H32" s="353"/>
+      <c r="H32" s="352"/>
       <c r="I32" s="20"/>
       <c r="J32" s="21"/>
       <c r="K32" s="13"/>
@@ -11390,14 +11399,14 @@
       <c r="T32" s="12"/>
     </row>
     <row r="33" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="357"/>
+      <c r="A33" s="521"/>
       <c r="B33" s="130"/>
       <c r="C33" s="111"/>
       <c r="D33" s="111"/>
       <c r="E33" s="111"/>
       <c r="F33" s="111"/>
       <c r="G33" s="111"/>
-      <c r="H33" s="358"/>
+      <c r="H33" s="356"/>
       <c r="I33" s="20"/>
       <c r="J33" s="21"/>
       <c r="K33" s="13"/>
@@ -11412,14 +11421,14 @@
       <c r="T33" s="12"/>
     </row>
     <row r="34" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="351"/>
+      <c r="A34" s="520"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="354"/>
+      <c r="H34" s="353"/>
       <c r="I34" s="20"/>
       <c r="J34" s="21"/>
       <c r="K34" s="13"/>
@@ -11434,14 +11443,14 @@
       <c r="T34" s="12"/>
     </row>
     <row r="35" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="359"/>
+      <c r="A35" s="519"/>
       <c r="B35" s="131"/>
       <c r="C35" s="131"/>
       <c r="D35" s="131"/>
       <c r="E35" s="131"/>
       <c r="F35" s="131"/>
       <c r="G35" s="131"/>
-      <c r="H35" s="360"/>
+      <c r="H35" s="357"/>
       <c r="I35" s="20"/>
       <c r="J35" s="21"/>
       <c r="K35" s="13"/>
@@ -11456,14 +11465,14 @@
       <c r="T35" s="12"/>
     </row>
     <row r="36" spans="1:20" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="361"/>
-      <c r="B36" s="362"/>
-      <c r="C36" s="362"/>
-      <c r="D36" s="362"/>
-      <c r="E36" s="362"/>
-      <c r="F36" s="362"/>
-      <c r="G36" s="362"/>
-      <c r="H36" s="363"/>
+      <c r="A36" s="522"/>
+      <c r="B36" s="358"/>
+      <c r="C36" s="358"/>
+      <c r="D36" s="358"/>
+      <c r="E36" s="358"/>
+      <c r="F36" s="358"/>
+      <c r="G36" s="358"/>
+      <c r="H36" s="359"/>
       <c r="I36" s="20"/>
       <c r="J36" s="21"/>
       <c r="K36" s="13"/>
@@ -11558,14 +11567,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c298f69c-7e32-4d69-8a4f-44b776bc75e5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="27d18e64-52d1-4030-b5cf-9c691bb829da" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11812,21 +11819,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c298f69c-7e32-4d69-8a4f-44b776bc75e5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="27d18e64-52d1-4030-b5cf-9c691bb829da" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B37A3888-C326-48DF-AE4A-829BED1A658A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18B17227-D4F1-4BA2-A533-34BDC1F9C7F0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c298f69c-7e32-4d69-8a4f-44b776bc75e5"/>
-    <ds:schemaRef ds:uri="27d18e64-52d1-4030-b5cf-9c691bb829da"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11851,9 +11857,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18B17227-D4F1-4BA2-A533-34BDC1F9C7F0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B37A3888-C326-48DF-AE4A-829BED1A658A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c298f69c-7e32-4d69-8a4f-44b776bc75e5"/>
+    <ds:schemaRef ds:uri="27d18e64-52d1-4030-b5cf-9c691bb829da"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/templates/entry_list_template.xlsx
+++ b/templates/entry_list_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brendanwoo/projects/sro_sign_in/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6E9107-E235-A640-8122-A99D5E008E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21176FAD-B3F1-9E4E-AAD9-2F4CC2569A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{542D648B-9180-43EF-9053-182057C63D4C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{542D648B-9180-43EF-9053-182057C63D4C}"/>
   </bookViews>
   <sheets>
     <sheet name="GTWCA" sheetId="10" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="33">
   <si>
     <t>Admin Checks</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>Driver</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -3292,6 +3295,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3309,9 +3315,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5275,60 +5278,49 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>503398</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>384068</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>623082</xdr:colOff>
+      <xdr:colOff>866775</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>234137</xdr:rowOff>
+      <xdr:rowOff>492125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A51C616-3BF1-7347-BCBC-9235B2260A5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1553D589-A35F-89C6-A47C-4464E7BE9664}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="15400498" y="574568"/>
-          <a:ext cx="2837484" cy="993069"/>
+          <a:off x="15033625" y="333375"/>
+          <a:ext cx="3581400" cy="1492250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -5391,60 +5383,49 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>164227</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>257449</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>809487</xdr:colOff>
+      <xdr:colOff>660400</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>396875</xdr:rowOff>
+      <xdr:rowOff>492125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25852A11-DF67-474F-9384-7244EFE161D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70433529-B030-6A49-B644-1D4AE883AA45}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="14975602" y="447949"/>
-          <a:ext cx="3661510" cy="1282426"/>
+          <a:off x="15478125" y="333375"/>
+          <a:ext cx="3581400" cy="1492250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -5454,67 +5435,6 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>51975</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>221422</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>782562</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>292100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4E44926-91F0-45EE-82FD-5A96F85CCC0B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10846975" y="411922"/>
-          <a:ext cx="3448387" cy="1213678"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -5545,7 +5465,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5560,6 +5480,56 @@
         <a:xfrm>
           <a:off x="165100" y="482600"/>
           <a:ext cx="3573904" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>41275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A372E33E-0A3D-7440-A09D-9D8C60624E2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13081000" y="269875"/>
+          <a:ext cx="3581400" cy="1492250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5626,63 +5596,49 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>308972</xdr:colOff>
+      <xdr:colOff>285751</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>332773</xdr:rowOff>
+      <xdr:rowOff>206375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>854364</xdr:colOff>
+      <xdr:colOff>783134</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>461816</xdr:rowOff>
+      <xdr:rowOff>553847</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CE623A5-A694-764D-91D7-7FC16F16E9F0}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{BB4D49F0-7C12-4E0F-AE96-C6F582C70233}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD484D61-E706-3942-8448-DAFA0CC0EA2B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="12477881" y="332773"/>
-          <a:ext cx="3639574" cy="1283589"/>
+          <a:off x="12446001" y="396875"/>
+          <a:ext cx="3577133" cy="1490472"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -5739,63 +5695,49 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2038350</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>1651000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>746125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1167434</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>396875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC8B1CD-E151-4723-A81D-1B2D3C762B9E}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{23A0F608-4A61-A5A6-2E50-6990CFC54CEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F3D3831-BE8B-264C-826B-C11262B496AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="8483600" y="1130300"/>
-          <a:ext cx="2986709" cy="987425"/>
+          <a:off x="8096250" y="936625"/>
+          <a:ext cx="3581400" cy="1492250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -6196,8 +6138,8 @@
   </sheetPr>
   <dimension ref="A2:X34"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="80" zoomScaleNormal="90" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" view="pageLayout" zoomScale="80" zoomScaleNormal="90" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6222,15 +6164,15 @@
       <c r="A2" s="523"/>
       <c r="B2" s="523"/>
       <c r="C2" s="523"/>
-      <c r="D2" s="530"/>
-      <c r="E2" s="530"/>
-      <c r="F2" s="530"/>
-      <c r="G2" s="530"/>
-      <c r="H2" s="530"/>
-      <c r="I2" s="530"/>
-      <c r="J2" s="530"/>
-      <c r="K2" s="530"/>
-      <c r="L2" s="530"/>
+      <c r="D2" s="524"/>
+      <c r="E2" s="524"/>
+      <c r="F2" s="524"/>
+      <c r="G2" s="524"/>
+      <c r="H2" s="524"/>
+      <c r="I2" s="524"/>
+      <c r="J2" s="524"/>
+      <c r="K2" s="524"/>
+      <c r="L2" s="524"/>
       <c r="M2" s="523"/>
       <c r="N2" s="523"/>
     </row>
@@ -6238,17 +6180,17 @@
       <c r="A3" s="523"/>
       <c r="B3" s="523"/>
       <c r="C3" s="523"/>
-      <c r="D3" s="524" t="s">
+      <c r="D3" s="525" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="524"/>
-      <c r="F3" s="524"/>
-      <c r="G3" s="524"/>
-      <c r="H3" s="524"/>
-      <c r="I3" s="524"/>
-      <c r="J3" s="524"/>
-      <c r="K3" s="524"/>
-      <c r="L3" s="524"/>
+      <c r="E3" s="525"/>
+      <c r="F3" s="525"/>
+      <c r="G3" s="525"/>
+      <c r="H3" s="525"/>
+      <c r="I3" s="525"/>
+      <c r="J3" s="525"/>
+      <c r="K3" s="525"/>
+      <c r="L3" s="525"/>
       <c r="M3" s="523"/>
       <c r="N3" s="523"/>
     </row>
@@ -6256,15 +6198,15 @@
       <c r="A4" s="523"/>
       <c r="B4" s="523"/>
       <c r="C4" s="523"/>
-      <c r="D4" s="530"/>
-      <c r="E4" s="530"/>
-      <c r="F4" s="530"/>
-      <c r="G4" s="530"/>
-      <c r="H4" s="530"/>
-      <c r="I4" s="530"/>
-      <c r="J4" s="530"/>
-      <c r="K4" s="530"/>
-      <c r="L4" s="530"/>
+      <c r="D4" s="524"/>
+      <c r="E4" s="524"/>
+      <c r="F4" s="524"/>
+      <c r="G4" s="524"/>
+      <c r="H4" s="524"/>
+      <c r="I4" s="524"/>
+      <c r="J4" s="524"/>
+      <c r="K4" s="524"/>
+      <c r="L4" s="524"/>
       <c r="M4" s="523"/>
       <c r="N4" s="523"/>
     </row>
@@ -6928,7 +6870,7 @@
   <dimension ref="A2:Y40"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="80" zoomScaleNormal="115" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6949,65 +6891,65 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="525"/>
-      <c r="B2" s="525"/>
-      <c r="C2" s="525"/>
-      <c r="D2" s="530"/>
-      <c r="E2" s="530"/>
-      <c r="F2" s="530"/>
-      <c r="G2" s="530"/>
-      <c r="H2" s="530"/>
-      <c r="I2" s="530"/>
-      <c r="J2" s="530"/>
-      <c r="K2" s="530"/>
-      <c r="L2" s="530"/>
-      <c r="M2" s="525"/>
-      <c r="N2" s="525"/>
+      <c r="A2" s="526"/>
+      <c r="B2" s="526"/>
+      <c r="C2" s="526"/>
+      <c r="D2" s="524"/>
+      <c r="E2" s="524"/>
+      <c r="F2" s="524"/>
+      <c r="G2" s="524"/>
+      <c r="H2" s="524"/>
+      <c r="I2" s="524"/>
+      <c r="J2" s="524"/>
+      <c r="K2" s="524"/>
+      <c r="L2" s="524"/>
+      <c r="M2" s="526"/>
+      <c r="N2" s="526"/>
     </row>
     <row r="3" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="525"/>
-      <c r="B3" s="525"/>
-      <c r="C3" s="525"/>
-      <c r="D3" s="524" t="s">
+      <c r="A3" s="526"/>
+      <c r="B3" s="526"/>
+      <c r="C3" s="526"/>
+      <c r="D3" s="525" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="524"/>
-      <c r="F3" s="524"/>
-      <c r="G3" s="524"/>
-      <c r="H3" s="524"/>
-      <c r="I3" s="524"/>
-      <c r="J3" s="524"/>
-      <c r="K3" s="524"/>
-      <c r="L3" s="524"/>
-      <c r="M3" s="525"/>
-      <c r="N3" s="525"/>
+      <c r="E3" s="525"/>
+      <c r="F3" s="525"/>
+      <c r="G3" s="525"/>
+      <c r="H3" s="525"/>
+      <c r="I3" s="525"/>
+      <c r="J3" s="525"/>
+      <c r="K3" s="525"/>
+      <c r="L3" s="525"/>
+      <c r="M3" s="526"/>
+      <c r="N3" s="526"/>
     </row>
     <row r="4" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="525"/>
-      <c r="B4" s="525"/>
-      <c r="C4" s="525"/>
-      <c r="D4" s="530"/>
-      <c r="E4" s="530"/>
-      <c r="F4" s="530"/>
-      <c r="G4" s="530"/>
-      <c r="H4" s="530"/>
-      <c r="I4" s="530"/>
-      <c r="J4" s="530"/>
-      <c r="K4" s="530"/>
-      <c r="L4" s="530"/>
-      <c r="M4" s="525"/>
-      <c r="N4" s="525"/>
+      <c r="A4" s="526"/>
+      <c r="B4" s="526"/>
+      <c r="C4" s="526"/>
+      <c r="D4" s="524"/>
+      <c r="E4" s="524"/>
+      <c r="F4" s="524"/>
+      <c r="G4" s="524"/>
+      <c r="H4" s="524"/>
+      <c r="I4" s="524"/>
+      <c r="J4" s="524"/>
+      <c r="K4" s="524"/>
+      <c r="L4" s="524"/>
+      <c r="M4" s="526"/>
+      <c r="N4" s="526"/>
     </row>
     <row r="5" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="R5" s="526" t="s">
+      <c r="R5" s="527" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="526"/>
-      <c r="T5" s="526"/>
-      <c r="U5" s="526"/>
-      <c r="V5" s="526"/>
-      <c r="W5" s="526"/>
-      <c r="X5" s="526"/>
+      <c r="S5" s="527"/>
+      <c r="T5" s="527"/>
+      <c r="U5" s="527"/>
+      <c r="V5" s="527"/>
+      <c r="W5" s="527"/>
+      <c r="X5" s="527"/>
     </row>
     <row r="6" spans="1:24" s="2" customFormat="1" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="219" t="s">
@@ -7873,7 +7815,7 @@
   <dimension ref="A2:R41"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="80" zoomScaleNormal="90" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:H4"/>
+      <selection activeCell="I2" sqref="I2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7893,51 +7835,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="525"/>
-      <c r="B2" s="525"/>
-      <c r="C2" s="525"/>
-      <c r="D2" s="527"/>
-      <c r="E2" s="527"/>
-      <c r="F2" s="527"/>
-      <c r="G2" s="527"/>
-      <c r="H2" s="527"/>
-      <c r="I2" s="525"/>
-      <c r="J2" s="525"/>
+      <c r="A2" s="526"/>
+      <c r="B2" s="526"/>
+      <c r="C2" s="526"/>
+      <c r="D2" s="528"/>
+      <c r="E2" s="528"/>
+      <c r="F2" s="528"/>
+      <c r="G2" s="528"/>
+      <c r="H2" s="528"/>
+      <c r="I2" s="526"/>
+      <c r="J2" s="526"/>
     </row>
     <row r="3" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="525"/>
-      <c r="B3" s="525"/>
-      <c r="C3" s="525"/>
-      <c r="D3" s="527" t="s">
+      <c r="A3" s="526"/>
+      <c r="B3" s="526"/>
+      <c r="C3" s="526"/>
+      <c r="D3" s="528" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="527"/>
-      <c r="F3" s="527"/>
-      <c r="G3" s="527"/>
-      <c r="H3" s="527"/>
-      <c r="I3" s="525"/>
-      <c r="J3" s="525"/>
+      <c r="E3" s="528"/>
+      <c r="F3" s="528"/>
+      <c r="G3" s="528"/>
+      <c r="H3" s="528"/>
+      <c r="I3" s="526"/>
+      <c r="J3" s="526"/>
     </row>
     <row r="4" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="525"/>
-      <c r="B4" s="525"/>
-      <c r="C4" s="525"/>
-      <c r="D4" s="527"/>
-      <c r="E4" s="527"/>
-      <c r="F4" s="527"/>
-      <c r="G4" s="527"/>
-      <c r="H4" s="527"/>
-      <c r="I4" s="525"/>
-      <c r="J4" s="525"/>
+      <c r="A4" s="526"/>
+      <c r="B4" s="526"/>
+      <c r="C4" s="526"/>
+      <c r="D4" s="528"/>
+      <c r="E4" s="528"/>
+      <c r="F4" s="528"/>
+      <c r="G4" s="528"/>
+      <c r="H4" s="528"/>
+      <c r="I4" s="526"/>
+      <c r="J4" s="526"/>
     </row>
     <row r="5" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N5" s="525" t="s">
+      <c r="N5" s="526" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="525"/>
-      <c r="P5" s="525"/>
-      <c r="Q5" s="525"/>
-      <c r="R5" s="525"/>
+      <c r="O5" s="526"/>
+      <c r="P5" s="526"/>
+      <c r="Q5" s="526"/>
+      <c r="R5" s="526"/>
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -8602,7 +8544,7 @@
   <dimension ref="A2:BP36"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:F3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8621,47 +8563,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:68" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="525"/>
-      <c r="B2" s="525"/>
-      <c r="C2" s="525"/>
-      <c r="D2" s="527"/>
-      <c r="E2" s="527"/>
-      <c r="F2" s="527"/>
-      <c r="G2" s="525"/>
-      <c r="H2" s="525"/>
+      <c r="A2" s="526"/>
+      <c r="B2" s="526"/>
+      <c r="C2" s="526"/>
+      <c r="D2" s="528"/>
+      <c r="E2" s="528"/>
+      <c r="F2" s="528"/>
+      <c r="G2" s="526"/>
+      <c r="H2" s="526"/>
     </row>
     <row r="3" spans="1:68" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="525"/>
-      <c r="B3" s="525"/>
-      <c r="C3" s="525"/>
-      <c r="D3" s="527" t="s">
+      <c r="A3" s="526"/>
+      <c r="B3" s="526"/>
+      <c r="C3" s="526"/>
+      <c r="D3" s="528" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="527"/>
-      <c r="F3" s="527"/>
-      <c r="G3" s="525"/>
-      <c r="H3" s="525"/>
+      <c r="E3" s="528"/>
+      <c r="F3" s="528"/>
+      <c r="G3" s="526"/>
+      <c r="H3" s="526"/>
     </row>
     <row r="4" spans="1:68" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="525"/>
-      <c r="B4" s="525"/>
-      <c r="C4" s="525"/>
-      <c r="D4" s="527"/>
-      <c r="E4" s="527"/>
-      <c r="F4" s="527"/>
-      <c r="G4" s="525"/>
-      <c r="H4" s="525"/>
+      <c r="A4" s="526"/>
+      <c r="B4" s="526"/>
+      <c r="C4" s="526"/>
+      <c r="D4" s="528"/>
+      <c r="E4" s="528"/>
+      <c r="F4" s="528"/>
+      <c r="G4" s="526"/>
+      <c r="H4" s="526"/>
     </row>
     <row r="5" spans="1:68" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L5" s="525" t="s">
+      <c r="L5" s="526" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="525"/>
-      <c r="N5" s="525"/>
-      <c r="O5" s="525"/>
-      <c r="P5" s="525"/>
-      <c r="Q5" s="525"/>
-      <c r="R5" s="525"/>
+      <c r="M5" s="526"/>
+      <c r="N5" s="526"/>
+      <c r="O5" s="526"/>
+      <c r="P5" s="526"/>
+      <c r="Q5" s="526"/>
+      <c r="R5" s="526"/>
     </row>
     <row r="6" spans="1:68" s="10" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="368" t="s">
@@ -10664,7 +10606,7 @@
   <dimension ref="A1:T43"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10703,14 +10645,14 @@
       <c r="N1" s="12"/>
     </row>
     <row r="2" spans="1:20" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="528"/>
-      <c r="B2" s="528"/>
-      <c r="C2" s="528"/>
-      <c r="D2" s="529"/>
-      <c r="E2" s="529"/>
-      <c r="F2" s="529"/>
-      <c r="G2" s="528"/>
-      <c r="H2" s="528"/>
+      <c r="A2" s="529"/>
+      <c r="B2" s="529"/>
+      <c r="C2" s="529"/>
+      <c r="D2" s="530"/>
+      <c r="E2" s="530"/>
+      <c r="F2" s="530"/>
+      <c r="G2" s="529"/>
+      <c r="H2" s="529"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
@@ -10725,16 +10667,16 @@
       <c r="T2" s="12"/>
     </row>
     <row r="3" spans="1:20" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="528"/>
-      <c r="B3" s="528"/>
-      <c r="C3" s="528"/>
-      <c r="D3" s="529" t="s">
+      <c r="A3" s="529"/>
+      <c r="B3" s="529"/>
+      <c r="C3" s="529"/>
+      <c r="D3" s="530" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="529"/>
-      <c r="F3" s="529"/>
-      <c r="G3" s="528"/>
-      <c r="H3" s="528"/>
+      <c r="E3" s="530"/>
+      <c r="F3" s="530"/>
+      <c r="G3" s="529"/>
+      <c r="H3" s="529"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
@@ -10749,14 +10691,14 @@
       <c r="T3" s="12"/>
     </row>
     <row r="4" spans="1:20" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="528"/>
-      <c r="B4" s="528"/>
-      <c r="C4" s="528"/>
-      <c r="D4" s="529"/>
-      <c r="E4" s="529"/>
-      <c r="F4" s="529"/>
-      <c r="G4" s="528"/>
-      <c r="H4" s="528"/>
+      <c r="A4" s="529"/>
+      <c r="B4" s="529"/>
+      <c r="C4" s="529"/>
+      <c r="D4" s="530"/>
+      <c r="E4" s="530"/>
+      <c r="F4" s="530"/>
+      <c r="G4" s="529"/>
+      <c r="H4" s="529"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
@@ -10963,7 +10905,9 @@
       <c r="D12" s="28"/>
       <c r="E12" s="111"/>
       <c r="F12" s="111"/>
-      <c r="G12" s="28"/>
+      <c r="G12" s="28" t="s">
+        <v>32</v>
+      </c>
       <c r="H12" s="352"/>
       <c r="I12" s="20"/>
       <c r="J12" s="21"/>
@@ -11567,15 +11511,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004E036A3F1E15E94A92324F6304EC7433" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f8e394c60fea3207393e1a1a2f77ce3d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c298f69c-7e32-4d69-8a4f-44b776bc75e5" xmlns:ns3="27d18e64-52d1-4030-b5cf-9c691bb829da" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a2c9b44cd906c8c5eef4b4317d39d060" ns2:_="" ns3:_="">
     <xsd:import namespace="c298f69c-7e32-4d69-8a4f-44b776bc75e5"/>
@@ -11818,6 +11753,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -11830,14 +11774,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18B17227-D4F1-4BA2-A533-34BDC1F9C7F0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5E7BAE2-04CC-4A41-8857-4BCE57D1DFAA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11856,6 +11792,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18B17227-D4F1-4BA2-A533-34BDC1F9C7F0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B37A3888-C326-48DF-AE4A-829BED1A658A}">
   <ds:schemaRefs>

--- a/templates/entry_list_template.xlsx
+++ b/templates/entry_list_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brendanwoo/projects/sro_sign_in/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brendanwoo/Documents/projects/SRO/sro_sign_in/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21176FAD-B3F1-9E4E-AAD9-2F4CC2569A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795D7BB8-3683-7840-B7DB-4D447E8F7489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{542D648B-9180-43EF-9053-182057C63D4C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="17500" xr2:uid="{542D648B-9180-43EF-9053-182057C63D4C}"/>
   </bookViews>
   <sheets>
     <sheet name="GTWCA" sheetId="10" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="35">
   <si>
     <t>Admin Checks</t>
   </si>
@@ -147,12 +147,18 @@
   <si>
     <t>`</t>
   </si>
+  <si>
+    <t>Transponder</t>
+  </si>
+  <si>
+    <t>Briefing Acknowledge</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="67" x14ac:knownFonts="1">
+  <fonts count="68" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -586,6 +592,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -623,7 +636,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="92">
+  <borders count="91">
     <border>
       <left/>
       <right/>
@@ -1282,45 +1295,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1366,19 +1340,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1784,6 +1745,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1792,7 +1790,7 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="56" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="531">
+  <cellXfs count="546">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2436,15 +2434,6 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2452,12 +2441,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2485,7 +2468,7 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="50" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2515,154 +2498,150 @@
     <xf numFmtId="49" fontId="51" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="50" fillId="0" borderId="67" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="67" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="50" fillId="0" borderId="63" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="63" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="55" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2692,25 +2671,25 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2728,10 +2707,10 @@
     <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="75" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="71" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2776,49 +2755,49 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2827,13 +2806,13 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="59" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3040,7 +3019,7 @@
     <xf numFmtId="49" fontId="60" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="63" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3052,133 +3031,133 @@
     <xf numFmtId="49" fontId="65" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="64" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="65" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="65" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="65" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="65" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="65" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="64" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="63" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="91" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="65" fillId="0" borderId="91" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="65" fillId="0" borderId="90" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="87" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="87" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="86" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="65" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3265,7 +3244,7 @@
     <xf numFmtId="49" fontId="51" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3289,7 +3268,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3316,6 +3295,54 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent4" xfId="3" builtinId="42"/>
@@ -5837,9 +5864,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5877,7 +5904,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5983,7 +6010,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6125,7 +6152,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6136,10 +6163,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:X34"/>
+  <dimension ref="A2:Z34"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScale="80" zoomScaleNormal="90" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A9" zoomScale="80" zoomScaleNormal="90" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6154,74 +6181,77 @@
     <col min="12" max="13" width="35.6640625" style="222" customWidth="1"/>
     <col min="14" max="14" width="14.33203125" style="222" customWidth="1"/>
     <col min="15" max="17" width="4.5" style="222"/>
-    <col min="18" max="19" width="8.6640625" style="222" customWidth="1"/>
-    <col min="20" max="20" width="10.6640625" style="222" customWidth="1"/>
-    <col min="21" max="24" width="8.6640625" style="222" customWidth="1"/>
-    <col min="25" max="16384" width="4.5" style="222"/>
+    <col min="18" max="19" width="10" style="222" customWidth="1"/>
+    <col min="20" max="21" width="8.6640625" style="222" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" style="222" customWidth="1"/>
+    <col min="23" max="26" width="8.6640625" style="222" customWidth="1"/>
+    <col min="27" max="16384" width="4.5" style="222"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="523"/>
-      <c r="B2" s="523"/>
-      <c r="C2" s="523"/>
-      <c r="D2" s="524"/>
-      <c r="E2" s="524"/>
-      <c r="F2" s="524"/>
-      <c r="G2" s="524"/>
-      <c r="H2" s="524"/>
-      <c r="I2" s="524"/>
-      <c r="J2" s="524"/>
-      <c r="K2" s="524"/>
-      <c r="L2" s="524"/>
-      <c r="M2" s="523"/>
-      <c r="N2" s="523"/>
-    </row>
-    <row r="3" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="523"/>
-      <c r="B3" s="523"/>
-      <c r="C3" s="523"/>
-      <c r="D3" s="525" t="s">
+    <row r="2" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="516"/>
+      <c r="B2" s="516"/>
+      <c r="C2" s="516"/>
+      <c r="D2" s="517"/>
+      <c r="E2" s="517"/>
+      <c r="F2" s="517"/>
+      <c r="G2" s="517"/>
+      <c r="H2" s="517"/>
+      <c r="I2" s="517"/>
+      <c r="J2" s="517"/>
+      <c r="K2" s="517"/>
+      <c r="L2" s="517"/>
+      <c r="M2" s="516"/>
+      <c r="N2" s="516"/>
+    </row>
+    <row r="3" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="516"/>
+      <c r="B3" s="516"/>
+      <c r="C3" s="516"/>
+      <c r="D3" s="518" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="525"/>
-      <c r="F3" s="525"/>
-      <c r="G3" s="525"/>
-      <c r="H3" s="525"/>
-      <c r="I3" s="525"/>
-      <c r="J3" s="525"/>
-      <c r="K3" s="525"/>
-      <c r="L3" s="525"/>
-      <c r="M3" s="523"/>
-      <c r="N3" s="523"/>
-    </row>
-    <row r="4" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="523"/>
-      <c r="B4" s="523"/>
-      <c r="C4" s="523"/>
-      <c r="D4" s="524"/>
-      <c r="E4" s="524"/>
-      <c r="F4" s="524"/>
-      <c r="G4" s="524"/>
-      <c r="H4" s="524"/>
-      <c r="I4" s="524"/>
-      <c r="J4" s="524"/>
-      <c r="K4" s="524"/>
-      <c r="L4" s="524"/>
-      <c r="M4" s="523"/>
-      <c r="N4" s="523"/>
-    </row>
-    <row r="5" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="R5" s="523" t="s">
+      <c r="E3" s="518"/>
+      <c r="F3" s="518"/>
+      <c r="G3" s="518"/>
+      <c r="H3" s="518"/>
+      <c r="I3" s="518"/>
+      <c r="J3" s="518"/>
+      <c r="K3" s="518"/>
+      <c r="L3" s="518"/>
+      <c r="M3" s="516"/>
+      <c r="N3" s="516"/>
+    </row>
+    <row r="4" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="516"/>
+      <c r="B4" s="516"/>
+      <c r="C4" s="516"/>
+      <c r="D4" s="517"/>
+      <c r="E4" s="517"/>
+      <c r="F4" s="517"/>
+      <c r="G4" s="517"/>
+      <c r="H4" s="517"/>
+      <c r="I4" s="517"/>
+      <c r="J4" s="517"/>
+      <c r="K4" s="517"/>
+      <c r="L4" s="517"/>
+      <c r="M4" s="516"/>
+      <c r="N4" s="516"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="R5" s="516" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="523"/>
-      <c r="T5" s="523"/>
-      <c r="U5" s="523"/>
-      <c r="V5" s="523"/>
-      <c r="W5" s="523"/>
-      <c r="X5" s="523"/>
-    </row>
-    <row r="6" spans="1:24" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="S5" s="516"/>
+      <c r="T5" s="516"/>
+      <c r="U5" s="516"/>
+      <c r="V5" s="516"/>
+      <c r="W5" s="516"/>
+      <c r="X5" s="516"/>
+      <c r="Y5" s="516"/>
+      <c r="Z5" s="516"/>
+    </row>
+    <row r="6" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="224" t="s">
         <v>1</v>
       </c>
@@ -6267,572 +6297,621 @@
       <c r="Q6" s="222" t="s">
         <v>11</v>
       </c>
-      <c r="R6" s="227" t="s">
+      <c r="R6" s="539" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" s="539" t="s">
+        <v>34</v>
+      </c>
+      <c r="T6" s="540" t="s">
         <v>12</v>
       </c>
-      <c r="S6" s="228" t="s">
+      <c r="U6" s="540" t="s">
         <v>13</v>
       </c>
-      <c r="T6" s="229" t="s">
+      <c r="V6" s="540" t="s">
         <v>14</v>
       </c>
-      <c r="U6" s="229" t="s">
+      <c r="W6" s="540" t="s">
         <v>15</v>
       </c>
-      <c r="V6" s="229" t="s">
+      <c r="X6" s="540" t="s">
         <v>16</v>
       </c>
-      <c r="W6" s="229" t="s">
+      <c r="Y6" s="540" t="s">
         <v>23</v>
       </c>
-      <c r="X6" s="229" t="s">
+      <c r="Z6" s="540" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="235" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="488"/>
-      <c r="B7" s="489"/>
-      <c r="C7" s="230"/>
-      <c r="D7" s="230"/>
-      <c r="E7" s="230"/>
-      <c r="F7" s="230"/>
-      <c r="G7" s="230"/>
-      <c r="H7" s="230"/>
-      <c r="I7" s="230"/>
-      <c r="J7" s="230"/>
-      <c r="K7" s="230"/>
-      <c r="L7" s="230"/>
-      <c r="M7" s="230"/>
-      <c r="N7" s="231"/>
-      <c r="O7" s="232"/>
-      <c r="P7" s="232"/>
-      <c r="Q7" s="232"/>
-      <c r="R7" s="233"/>
-      <c r="S7" s="230"/>
-      <c r="T7" s="230"/>
-      <c r="U7" s="230"/>
-      <c r="V7" s="230"/>
-      <c r="W7" s="230"/>
-      <c r="X7" s="234"/>
-    </row>
-    <row r="8" spans="1:24" s="235" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="512"/>
-      <c r="B8" s="490"/>
-      <c r="C8" s="236"/>
-      <c r="D8" s="236"/>
-      <c r="E8" s="236"/>
-      <c r="F8" s="237"/>
-      <c r="G8" s="237"/>
-      <c r="H8" s="237"/>
-      <c r="I8" s="237"/>
-      <c r="J8" s="238"/>
-      <c r="K8" s="237"/>
-      <c r="L8" s="239"/>
-      <c r="M8" s="240"/>
-      <c r="N8" s="241"/>
-      <c r="O8" s="232"/>
-      <c r="P8" s="232"/>
-      <c r="Q8" s="232"/>
-      <c r="R8" s="242"/>
-      <c r="S8" s="243"/>
-      <c r="T8" s="243"/>
-      <c r="U8" s="243"/>
-      <c r="V8" s="243"/>
-      <c r="W8" s="243"/>
-      <c r="X8" s="244"/>
-    </row>
-    <row r="9" spans="1:24" s="235" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="512"/>
-      <c r="B9" s="490"/>
-      <c r="C9" s="237"/>
-      <c r="D9" s="237"/>
-      <c r="E9" s="237"/>
-      <c r="F9" s="237"/>
-      <c r="G9" s="237"/>
-      <c r="H9" s="237"/>
-      <c r="I9" s="237"/>
-      <c r="J9" s="237"/>
-      <c r="K9" s="245"/>
-      <c r="L9" s="246"/>
-      <c r="M9" s="240"/>
-      <c r="N9" s="241"/>
-      <c r="O9" s="232"/>
-      <c r="P9" s="232"/>
-      <c r="Q9" s="232"/>
-      <c r="R9" s="242"/>
-      <c r="S9" s="243"/>
-      <c r="T9" s="243"/>
-      <c r="U9" s="243"/>
-      <c r="V9" s="243"/>
-      <c r="W9" s="243"/>
-      <c r="X9" s="244"/>
-    </row>
-    <row r="10" spans="1:24" s="255" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="513"/>
-      <c r="B10" s="491"/>
-      <c r="C10" s="247"/>
-      <c r="D10" s="248"/>
-      <c r="E10" s="248"/>
-      <c r="F10" s="249"/>
-      <c r="G10" s="250"/>
-      <c r="H10" s="250"/>
-      <c r="I10" s="250"/>
-      <c r="J10" s="249"/>
-      <c r="K10" s="251"/>
-      <c r="L10" s="252"/>
-      <c r="M10" s="253"/>
-      <c r="N10" s="254"/>
-      <c r="R10" s="256"/>
-      <c r="S10" s="257"/>
-      <c r="T10" s="257"/>
-      <c r="U10" s="257"/>
-      <c r="V10" s="257"/>
-      <c r="W10" s="257"/>
-      <c r="X10" s="258"/>
-    </row>
-    <row r="11" spans="1:24" s="235" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="514"/>
-      <c r="B11" s="492"/>
+    <row r="7" spans="1:26" s="230" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="481"/>
+      <c r="B7" s="482"/>
+      <c r="C7" s="227"/>
+      <c r="D7" s="227"/>
+      <c r="E7" s="227"/>
+      <c r="F7" s="227"/>
+      <c r="G7" s="227"/>
+      <c r="H7" s="227"/>
+      <c r="I7" s="227"/>
+      <c r="J7" s="227"/>
+      <c r="K7" s="227"/>
+      <c r="L7" s="227"/>
+      <c r="M7" s="227"/>
+      <c r="N7" s="228"/>
+      <c r="O7" s="229"/>
+      <c r="P7" s="229"/>
+      <c r="Q7" s="229"/>
+      <c r="R7" s="237"/>
+      <c r="S7" s="535"/>
+      <c r="T7" s="538"/>
+      <c r="U7" s="238"/>
+      <c r="V7" s="238"/>
+      <c r="W7" s="238"/>
+      <c r="X7" s="238"/>
+      <c r="Y7" s="238"/>
+      <c r="Z7" s="239"/>
+    </row>
+    <row r="8" spans="1:26" s="230" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="505"/>
+      <c r="B8" s="483"/>
+      <c r="C8" s="231"/>
+      <c r="D8" s="231"/>
+      <c r="E8" s="231"/>
+      <c r="F8" s="232"/>
+      <c r="G8" s="232"/>
+      <c r="H8" s="232"/>
+      <c r="I8" s="232"/>
+      <c r="J8" s="233"/>
+      <c r="K8" s="232"/>
+      <c r="L8" s="234"/>
+      <c r="M8" s="235"/>
+      <c r="N8" s="236"/>
+      <c r="O8" s="229"/>
+      <c r="P8" s="229"/>
+      <c r="Q8" s="229"/>
+      <c r="R8" s="237"/>
+      <c r="S8" s="227"/>
+      <c r="T8" s="524"/>
+      <c r="U8" s="238"/>
+      <c r="V8" s="238"/>
+      <c r="W8" s="238"/>
+      <c r="X8" s="238"/>
+      <c r="Y8" s="238"/>
+      <c r="Z8" s="239"/>
+    </row>
+    <row r="9" spans="1:26" s="230" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="505"/>
+      <c r="B9" s="483"/>
+      <c r="C9" s="232"/>
+      <c r="D9" s="232"/>
+      <c r="E9" s="232"/>
+      <c r="F9" s="232"/>
+      <c r="G9" s="232"/>
+      <c r="H9" s="232"/>
+      <c r="I9" s="232"/>
+      <c r="J9" s="232"/>
+      <c r="K9" s="240"/>
+      <c r="L9" s="241"/>
+      <c r="M9" s="235"/>
+      <c r="N9" s="236"/>
+      <c r="O9" s="229"/>
+      <c r="P9" s="229"/>
+      <c r="Q9" s="229"/>
+      <c r="R9" s="237"/>
+      <c r="S9" s="525"/>
+      <c r="T9" s="525"/>
+      <c r="U9" s="238"/>
+      <c r="V9" s="238"/>
+      <c r="W9" s="238"/>
+      <c r="X9" s="238"/>
+      <c r="Y9" s="238"/>
+      <c r="Z9" s="239"/>
+    </row>
+    <row r="10" spans="1:26" s="250" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="506"/>
+      <c r="B10" s="484"/>
+      <c r="C10" s="242"/>
+      <c r="D10" s="243"/>
+      <c r="E10" s="243"/>
+      <c r="F10" s="244"/>
+      <c r="G10" s="245"/>
+      <c r="H10" s="245"/>
+      <c r="I10" s="245"/>
+      <c r="J10" s="244"/>
+      <c r="K10" s="246"/>
+      <c r="L10" s="247"/>
+      <c r="M10" s="248"/>
+      <c r="N10" s="249"/>
+      <c r="R10" s="251"/>
+      <c r="S10" s="536"/>
+      <c r="T10" s="525"/>
+      <c r="U10" s="252"/>
+      <c r="V10" s="252"/>
+      <c r="W10" s="252"/>
+      <c r="X10" s="252"/>
+      <c r="Y10" s="252"/>
+      <c r="Z10" s="253"/>
+    </row>
+    <row r="11" spans="1:26" s="230" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="507"/>
+      <c r="B11" s="485"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
-      <c r="F11" s="259"/>
-      <c r="G11" s="259"/>
-      <c r="H11" s="259"/>
-      <c r="I11" s="259"/>
-      <c r="J11" s="259"/>
-      <c r="K11" s="259"/>
+      <c r="F11" s="254"/>
+      <c r="G11" s="254"/>
+      <c r="H11" s="254"/>
+      <c r="I11" s="254"/>
+      <c r="J11" s="254"/>
+      <c r="K11" s="254"/>
       <c r="L11" s="31"/>
-      <c r="M11" s="260"/>
-      <c r="N11" s="261"/>
-      <c r="R11" s="262"/>
-      <c r="S11" s="263"/>
-      <c r="T11" s="263"/>
-      <c r="U11" s="263"/>
-      <c r="V11" s="263"/>
-      <c r="W11" s="263"/>
-      <c r="X11" s="264"/>
-    </row>
-    <row r="12" spans="1:24" s="235" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="488"/>
-      <c r="B12" s="493"/>
-      <c r="C12" s="230"/>
-      <c r="D12" s="230"/>
-      <c r="E12" s="230"/>
-      <c r="F12" s="230"/>
-      <c r="G12" s="230"/>
-      <c r="H12" s="230"/>
-      <c r="I12" s="230"/>
-      <c r="J12" s="230"/>
-      <c r="K12" s="230"/>
-      <c r="L12" s="230"/>
-      <c r="M12" s="230"/>
-      <c r="N12" s="230"/>
-      <c r="R12" s="262"/>
-      <c r="S12" s="263"/>
-      <c r="T12" s="263"/>
-      <c r="U12" s="263"/>
-      <c r="V12" s="263"/>
-      <c r="W12" s="263"/>
-      <c r="X12" s="264"/>
-    </row>
-    <row r="13" spans="1:24" s="235" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="515"/>
-      <c r="B13" s="494"/>
-      <c r="C13" s="265"/>
-      <c r="D13" s="265"/>
-      <c r="E13" s="265"/>
-      <c r="F13" s="238"/>
-      <c r="G13" s="238"/>
-      <c r="H13" s="238"/>
-      <c r="I13" s="238"/>
-      <c r="J13" s="238"/>
-      <c r="K13" s="266"/>
+      <c r="M11" s="255"/>
+      <c r="N11" s="256"/>
+      <c r="R11" s="257"/>
+      <c r="S11" s="527"/>
+      <c r="T11" s="526"/>
+      <c r="U11" s="258"/>
+      <c r="V11" s="258"/>
+      <c r="W11" s="258"/>
+      <c r="X11" s="258"/>
+      <c r="Y11" s="258"/>
+      <c r="Z11" s="259"/>
+    </row>
+    <row r="12" spans="1:26" s="230" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="481"/>
+      <c r="B12" s="486"/>
+      <c r="C12" s="227"/>
+      <c r="D12" s="227"/>
+      <c r="E12" s="227"/>
+      <c r="F12" s="227"/>
+      <c r="G12" s="227"/>
+      <c r="H12" s="227"/>
+      <c r="I12" s="227"/>
+      <c r="J12" s="227"/>
+      <c r="K12" s="227"/>
+      <c r="L12" s="227"/>
+      <c r="M12" s="227"/>
+      <c r="N12" s="227"/>
+      <c r="R12" s="257"/>
+      <c r="S12" s="527"/>
+      <c r="T12" s="527"/>
+      <c r="U12" s="258"/>
+      <c r="V12" s="258"/>
+      <c r="W12" s="258"/>
+      <c r="X12" s="258"/>
+      <c r="Y12" s="258"/>
+      <c r="Z12" s="259"/>
+    </row>
+    <row r="13" spans="1:26" s="230" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="508"/>
+      <c r="B13" s="487"/>
+      <c r="C13" s="260"/>
+      <c r="D13" s="260"/>
+      <c r="E13" s="260"/>
+      <c r="F13" s="233"/>
+      <c r="G13" s="233"/>
+      <c r="H13" s="233"/>
+      <c r="I13" s="233"/>
+      <c r="J13" s="233"/>
+      <c r="K13" s="261"/>
       <c r="L13" s="14"/>
-      <c r="M13" s="267"/>
-      <c r="N13" s="268"/>
-      <c r="R13" s="269"/>
-      <c r="S13" s="270"/>
-      <c r="T13" s="270"/>
-      <c r="U13" s="270"/>
-      <c r="V13" s="270"/>
-      <c r="W13" s="270"/>
-      <c r="X13" s="271"/>
-    </row>
-    <row r="14" spans="1:24" s="235" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="488"/>
-      <c r="B14" s="493"/>
-      <c r="C14" s="230"/>
-      <c r="D14" s="230"/>
-      <c r="E14" s="230"/>
-      <c r="F14" s="230"/>
-      <c r="G14" s="230"/>
-      <c r="H14" s="230"/>
-      <c r="I14" s="230"/>
-      <c r="J14" s="230"/>
-      <c r="K14" s="230"/>
-      <c r="L14" s="230"/>
-      <c r="M14" s="230"/>
-      <c r="N14" s="230"/>
-      <c r="R14" s="269"/>
-      <c r="S14" s="270"/>
-      <c r="T14" s="270"/>
-      <c r="U14" s="270"/>
-      <c r="V14" s="270"/>
-      <c r="W14" s="270"/>
-      <c r="X14" s="271"/>
-    </row>
-    <row r="15" spans="1:24" s="255" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="512"/>
-      <c r="B15" s="495"/>
+      <c r="M13" s="262"/>
+      <c r="N13" s="263"/>
+      <c r="R13" s="264"/>
+      <c r="S13" s="527"/>
+      <c r="T13" s="527"/>
+      <c r="U13" s="265"/>
+      <c r="V13" s="265"/>
+      <c r="W13" s="265"/>
+      <c r="X13" s="265"/>
+      <c r="Y13" s="265"/>
+      <c r="Z13" s="266"/>
+    </row>
+    <row r="14" spans="1:26" s="230" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="481"/>
+      <c r="B14" s="486"/>
+      <c r="C14" s="227"/>
+      <c r="D14" s="227"/>
+      <c r="E14" s="227"/>
+      <c r="F14" s="227"/>
+      <c r="G14" s="227"/>
+      <c r="H14" s="227"/>
+      <c r="I14" s="227"/>
+      <c r="J14" s="227"/>
+      <c r="K14" s="227"/>
+      <c r="L14" s="227"/>
+      <c r="M14" s="227"/>
+      <c r="N14" s="227"/>
+      <c r="R14" s="264"/>
+      <c r="S14" s="528"/>
+      <c r="T14" s="528"/>
+      <c r="U14" s="265"/>
+      <c r="V14" s="265"/>
+      <c r="W14" s="265"/>
+      <c r="X14" s="265"/>
+      <c r="Y14" s="265"/>
+      <c r="Z14" s="266"/>
+    </row>
+    <row r="15" spans="1:26" s="250" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="505"/>
+      <c r="B15" s="488"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
-      <c r="F15" s="259"/>
-      <c r="G15" s="238"/>
+      <c r="F15" s="254"/>
+      <c r="G15" s="233"/>
       <c r="H15" s="116"/>
-      <c r="I15" s="259"/>
-      <c r="J15" s="259"/>
-      <c r="K15" s="259"/>
+      <c r="I15" s="254"/>
+      <c r="J15" s="254"/>
+      <c r="K15" s="254"/>
       <c r="L15" s="12"/>
       <c r="M15" s="116"/>
-      <c r="N15" s="272"/>
-      <c r="R15" s="273"/>
-      <c r="S15" s="274"/>
-      <c r="T15" s="274"/>
-      <c r="U15" s="274"/>
-      <c r="V15" s="274"/>
-      <c r="W15" s="274"/>
-      <c r="X15" s="275"/>
-    </row>
-    <row r="16" spans="1:24" s="279" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="516"/>
-      <c r="B16" s="494"/>
-      <c r="C16" s="265"/>
-      <c r="D16" s="276"/>
-      <c r="E16" s="238"/>
-      <c r="F16" s="238"/>
-      <c r="G16" s="277"/>
-      <c r="H16" s="276"/>
-      <c r="I16" s="265"/>
-      <c r="J16" s="238"/>
-      <c r="K16" s="266"/>
+      <c r="N15" s="267"/>
+      <c r="R15" s="541"/>
+      <c r="S15" s="252"/>
+      <c r="T15" s="265"/>
+      <c r="U15" s="529"/>
+      <c r="V15" s="268"/>
+      <c r="W15" s="268"/>
+      <c r="X15" s="268"/>
+      <c r="Y15" s="268"/>
+      <c r="Z15" s="269"/>
+    </row>
+    <row r="16" spans="1:26" s="273" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="509"/>
+      <c r="B16" s="487"/>
+      <c r="C16" s="260"/>
+      <c r="D16" s="270"/>
+      <c r="E16" s="233"/>
+      <c r="F16" s="233"/>
+      <c r="G16" s="271"/>
+      <c r="H16" s="270"/>
+      <c r="I16" s="260"/>
+      <c r="J16" s="233"/>
+      <c r="K16" s="261"/>
       <c r="L16" s="14"/>
-      <c r="M16" s="278"/>
-      <c r="N16" s="254"/>
-      <c r="R16" s="280"/>
-      <c r="S16" s="281"/>
-      <c r="T16" s="281"/>
-      <c r="U16" s="281"/>
-      <c r="V16" s="281"/>
-      <c r="W16" s="281"/>
-      <c r="X16" s="282"/>
-    </row>
-    <row r="17" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="517"/>
-      <c r="B17" s="493"/>
-      <c r="C17" s="230"/>
-      <c r="D17" s="230"/>
-      <c r="E17" s="230"/>
-      <c r="F17" s="230"/>
-      <c r="G17" s="230"/>
-      <c r="H17" s="230"/>
-      <c r="I17" s="230"/>
-      <c r="J17" s="230"/>
-      <c r="K17" s="230"/>
-      <c r="L17" s="230"/>
-      <c r="M17" s="230"/>
-      <c r="N17" s="230"/>
-      <c r="R17" s="283"/>
-      <c r="S17" s="284"/>
-      <c r="T17" s="284"/>
-      <c r="U17" s="284"/>
-      <c r="V17" s="284"/>
-      <c r="W17" s="284"/>
-      <c r="X17" s="285"/>
-    </row>
-    <row r="18" spans="1:24" s="292" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="515"/>
-      <c r="B18" s="494"/>
-      <c r="C18" s="286"/>
-      <c r="D18" s="287"/>
-      <c r="E18" s="265"/>
-      <c r="F18" s="238"/>
-      <c r="G18" s="238"/>
-      <c r="H18" s="288"/>
-      <c r="I18" s="238"/>
-      <c r="J18" s="238"/>
-      <c r="K18" s="238"/>
-      <c r="L18" s="289"/>
-      <c r="M18" s="290"/>
-      <c r="N18" s="291"/>
-      <c r="R18" s="293"/>
-      <c r="S18" s="294"/>
-      <c r="T18" s="294"/>
-      <c r="U18" s="294"/>
-      <c r="V18" s="294"/>
-      <c r="W18" s="294"/>
-      <c r="X18" s="295"/>
-    </row>
-    <row r="19" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="512"/>
-      <c r="B19" s="490"/>
-      <c r="C19" s="296"/>
-      <c r="D19" s="236"/>
-      <c r="E19" s="236"/>
-      <c r="F19" s="237"/>
-      <c r="G19" s="297"/>
-      <c r="H19" s="237"/>
-      <c r="I19" s="237"/>
-      <c r="J19" s="237"/>
-      <c r="K19" s="245"/>
-      <c r="L19" s="239"/>
-      <c r="M19" s="298"/>
-      <c r="N19" s="299"/>
-      <c r="R19" s="283"/>
-      <c r="S19" s="284"/>
-      <c r="T19" s="284"/>
-      <c r="U19" s="284"/>
-      <c r="V19" s="284"/>
-      <c r="W19" s="284"/>
-      <c r="X19" s="285"/>
-    </row>
-    <row r="20" spans="1:24" s="105" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="514"/>
-      <c r="B20" s="496"/>
+      <c r="M16" s="272"/>
+      <c r="N16" s="249"/>
+      <c r="R16" s="542"/>
+      <c r="S16" s="545"/>
+      <c r="T16" s="252"/>
+      <c r="U16" s="530"/>
+      <c r="V16" s="274"/>
+      <c r="W16" s="274"/>
+      <c r="X16" s="274"/>
+      <c r="Y16" s="274"/>
+      <c r="Z16" s="275"/>
+    </row>
+    <row r="17" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="510"/>
+      <c r="B17" s="486"/>
+      <c r="C17" s="227"/>
+      <c r="D17" s="227"/>
+      <c r="E17" s="227"/>
+      <c r="F17" s="227"/>
+      <c r="G17" s="227"/>
+      <c r="H17" s="227"/>
+      <c r="I17" s="227"/>
+      <c r="J17" s="227"/>
+      <c r="K17" s="227"/>
+      <c r="L17" s="227"/>
+      <c r="M17" s="227"/>
+      <c r="N17" s="227"/>
+      <c r="R17" s="276"/>
+      <c r="S17" s="543"/>
+      <c r="T17" s="544"/>
+      <c r="U17" s="277"/>
+      <c r="V17" s="277"/>
+      <c r="W17" s="277"/>
+      <c r="X17" s="277"/>
+      <c r="Y17" s="277"/>
+      <c r="Z17" s="278"/>
+    </row>
+    <row r="18" spans="1:26" s="285" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="508"/>
+      <c r="B18" s="487"/>
+      <c r="C18" s="279"/>
+      <c r="D18" s="280"/>
+      <c r="E18" s="260"/>
+      <c r="F18" s="233"/>
+      <c r="G18" s="233"/>
+      <c r="H18" s="281"/>
+      <c r="I18" s="233"/>
+      <c r="J18" s="233"/>
+      <c r="K18" s="233"/>
+      <c r="L18" s="282"/>
+      <c r="M18" s="283"/>
+      <c r="N18" s="284"/>
+      <c r="R18" s="286"/>
+      <c r="S18" s="532"/>
+      <c r="T18" s="531"/>
+      <c r="U18" s="287"/>
+      <c r="V18" s="287"/>
+      <c r="W18" s="287"/>
+      <c r="X18" s="287"/>
+      <c r="Y18" s="287"/>
+      <c r="Z18" s="288"/>
+    </row>
+    <row r="19" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="505"/>
+      <c r="B19" s="483"/>
+      <c r="C19" s="289"/>
+      <c r="D19" s="231"/>
+      <c r="E19" s="231"/>
+      <c r="F19" s="232"/>
+      <c r="G19" s="290"/>
+      <c r="H19" s="232"/>
+      <c r="I19" s="232"/>
+      <c r="J19" s="232"/>
+      <c r="K19" s="240"/>
+      <c r="L19" s="234"/>
+      <c r="M19" s="291"/>
+      <c r="N19" s="292"/>
+      <c r="R19" s="276"/>
+      <c r="S19" s="531"/>
+      <c r="T19" s="532"/>
+      <c r="U19" s="277"/>
+      <c r="V19" s="277"/>
+      <c r="W19" s="277"/>
+      <c r="X19" s="277"/>
+      <c r="Y19" s="277"/>
+      <c r="Z19" s="278"/>
+    </row>
+    <row r="20" spans="1:26" s="105" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="507"/>
+      <c r="B20" s="489"/>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
-      <c r="F20" s="259"/>
-      <c r="G20" s="259"/>
-      <c r="H20" s="259"/>
-      <c r="I20" s="259"/>
-      <c r="J20" s="259"/>
-      <c r="K20" s="259"/>
+      <c r="F20" s="254"/>
+      <c r="G20" s="254"/>
+      <c r="H20" s="254"/>
+      <c r="I20" s="254"/>
+      <c r="J20" s="254"/>
+      <c r="K20" s="254"/>
       <c r="L20" s="31"/>
-      <c r="M20" s="259"/>
-      <c r="N20" s="261"/>
-      <c r="R20" s="300"/>
-      <c r="S20" s="91"/>
-      <c r="T20" s="91"/>
+      <c r="M20" s="254"/>
+      <c r="N20" s="256"/>
+      <c r="R20" s="293"/>
+      <c r="S20" s="533"/>
+      <c r="T20" s="531"/>
       <c r="U20" s="91"/>
       <c r="V20" s="91"/>
       <c r="W20" s="91"/>
-      <c r="X20" s="301"/>
-    </row>
-    <row r="21" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="518"/>
-      <c r="B21" s="496"/>
-      <c r="C21" s="260"/>
-      <c r="D21" s="260"/>
-      <c r="E21" s="260"/>
-      <c r="F21" s="260"/>
-      <c r="G21" s="260"/>
-      <c r="H21" s="260"/>
-      <c r="I21" s="260"/>
-      <c r="J21" s="260"/>
-      <c r="K21" s="260"/>
-      <c r="L21" s="302"/>
-      <c r="M21" s="260"/>
-      <c r="N21" s="260"/>
-      <c r="R21" s="283"/>
-      <c r="S21" s="284"/>
-      <c r="T21" s="284"/>
-      <c r="U21" s="284"/>
-      <c r="V21" s="284"/>
-      <c r="W21" s="284"/>
-      <c r="X21" s="285"/>
-    </row>
-    <row r="22" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="518"/>
-      <c r="B22" s="497"/>
-      <c r="C22" s="303"/>
-      <c r="D22" s="303"/>
-      <c r="E22" s="303"/>
-      <c r="F22" s="303"/>
-      <c r="G22" s="303"/>
-      <c r="H22" s="303"/>
-      <c r="I22" s="303"/>
-      <c r="J22" s="303"/>
-      <c r="K22" s="260"/>
-      <c r="L22" s="302"/>
-      <c r="M22" s="260"/>
-      <c r="N22" s="303"/>
-      <c r="R22" s="283"/>
-      <c r="S22" s="284"/>
-      <c r="T22" s="284"/>
-      <c r="U22" s="284"/>
-      <c r="V22" s="284"/>
-      <c r="W22" s="284"/>
-      <c r="X22" s="285"/>
-    </row>
-    <row r="23" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="518"/>
-      <c r="B23" s="497"/>
-      <c r="C23" s="303"/>
-      <c r="D23" s="303"/>
-      <c r="E23" s="303"/>
-      <c r="F23" s="303"/>
-      <c r="G23" s="303"/>
-      <c r="H23" s="303"/>
-      <c r="I23" s="303"/>
-      <c r="J23" s="303"/>
-      <c r="K23" s="260"/>
-      <c r="L23" s="302"/>
-      <c r="M23" s="260"/>
-      <c r="N23" s="303"/>
-      <c r="R23" s="283"/>
-      <c r="S23" s="284"/>
-      <c r="T23" s="284"/>
-      <c r="U23" s="284"/>
-      <c r="V23" s="284"/>
-      <c r="W23" s="284"/>
-      <c r="X23" s="285"/>
-    </row>
-    <row r="24" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="518"/>
-      <c r="B24" s="497"/>
-      <c r="C24" s="303"/>
-      <c r="D24" s="303"/>
-      <c r="E24" s="303"/>
-      <c r="F24" s="303"/>
-      <c r="G24" s="303"/>
-      <c r="H24" s="303"/>
-      <c r="I24" s="303"/>
-      <c r="J24" s="303"/>
-      <c r="K24" s="260"/>
-      <c r="L24" s="302"/>
-      <c r="M24" s="260"/>
-      <c r="N24" s="303"/>
-      <c r="R24" s="283"/>
-      <c r="S24" s="284"/>
-      <c r="T24" s="284"/>
-      <c r="U24" s="284"/>
-      <c r="V24" s="284"/>
-      <c r="W24" s="284"/>
-      <c r="X24" s="285"/>
-    </row>
-    <row r="25" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="518"/>
-      <c r="B25" s="497"/>
-      <c r="C25" s="303"/>
-      <c r="D25" s="303"/>
-      <c r="E25" s="303"/>
-      <c r="F25" s="303"/>
-      <c r="G25" s="303"/>
-      <c r="H25" s="303"/>
-      <c r="I25" s="303"/>
-      <c r="J25" s="303"/>
-      <c r="K25" s="260"/>
-      <c r="L25" s="302"/>
-      <c r="M25" s="260"/>
-      <c r="N25" s="303"/>
-      <c r="R25" s="283"/>
-      <c r="S25" s="284"/>
-      <c r="T25" s="284"/>
-      <c r="U25" s="284"/>
-      <c r="V25" s="284"/>
-      <c r="W25" s="284"/>
-      <c r="X25" s="285"/>
-    </row>
-    <row r="26" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="518"/>
-      <c r="B26" s="498"/>
-      <c r="C26" s="304"/>
-      <c r="D26" s="304"/>
-      <c r="E26" s="304"/>
-      <c r="F26" s="304"/>
-      <c r="G26" s="304"/>
-      <c r="H26" s="304"/>
-      <c r="I26" s="304"/>
-      <c r="J26" s="304"/>
-      <c r="K26" s="305"/>
-      <c r="L26" s="305"/>
-      <c r="M26" s="260"/>
-      <c r="N26" s="304"/>
-      <c r="R26" s="283"/>
-      <c r="S26" s="284"/>
-      <c r="T26" s="284"/>
-      <c r="U26" s="284"/>
-      <c r="V26" s="284"/>
-      <c r="W26" s="284"/>
-      <c r="X26" s="285"/>
-    </row>
-    <row r="27" spans="1:24" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="518"/>
-      <c r="B27" s="496"/>
-      <c r="C27" s="260"/>
-      <c r="D27" s="260"/>
-      <c r="E27" s="260"/>
-      <c r="F27" s="260"/>
-      <c r="G27" s="260"/>
-      <c r="H27" s="260"/>
-      <c r="I27" s="260"/>
-      <c r="J27" s="260"/>
-      <c r="K27" s="260"/>
-      <c r="L27" s="260"/>
-      <c r="M27" s="260"/>
-      <c r="N27" s="260"/>
-      <c r="R27" s="306"/>
-      <c r="S27" s="307"/>
-      <c r="T27" s="307"/>
-      <c r="U27" s="307"/>
-      <c r="V27" s="307"/>
-      <c r="W27" s="307"/>
-      <c r="X27" s="308"/>
-    </row>
-    <row r="28" spans="1:24" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="309"/>
-      <c r="B28" s="310"/>
-      <c r="C28" s="309"/>
-      <c r="D28" s="309"/>
-      <c r="E28" s="309"/>
-      <c r="F28" s="309"/>
-      <c r="G28" s="311"/>
-      <c r="H28" s="311"/>
-      <c r="I28" s="311"/>
-      <c r="J28" s="311"/>
-      <c r="K28" s="311"/>
-      <c r="L28" s="312"/>
-      <c r="M28" s="313"/>
-      <c r="N28" s="311"/>
-    </row>
-    <row r="29" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="314" t="s">
+      <c r="X20" s="91"/>
+      <c r="Y20" s="91"/>
+      <c r="Z20" s="294"/>
+    </row>
+    <row r="21" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="511"/>
+      <c r="B21" s="489"/>
+      <c r="C21" s="255"/>
+      <c r="D21" s="255"/>
+      <c r="E21" s="255"/>
+      <c r="F21" s="255"/>
+      <c r="G21" s="255"/>
+      <c r="H21" s="255"/>
+      <c r="I21" s="255"/>
+      <c r="J21" s="255"/>
+      <c r="K21" s="255"/>
+      <c r="L21" s="295"/>
+      <c r="M21" s="255"/>
+      <c r="N21" s="255"/>
+      <c r="R21" s="276"/>
+      <c r="S21" s="531"/>
+      <c r="T21" s="533"/>
+      <c r="U21" s="277"/>
+      <c r="V21" s="277"/>
+      <c r="W21" s="277"/>
+      <c r="X21" s="277"/>
+      <c r="Y21" s="277"/>
+      <c r="Z21" s="278"/>
+    </row>
+    <row r="22" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="511"/>
+      <c r="B22" s="490"/>
+      <c r="C22" s="296"/>
+      <c r="D22" s="296"/>
+      <c r="E22" s="296"/>
+      <c r="F22" s="296"/>
+      <c r="G22" s="296"/>
+      <c r="H22" s="296"/>
+      <c r="I22" s="296"/>
+      <c r="J22" s="296"/>
+      <c r="K22" s="255"/>
+      <c r="L22" s="295"/>
+      <c r="M22" s="255"/>
+      <c r="N22" s="296"/>
+      <c r="R22" s="276"/>
+      <c r="S22" s="531"/>
+      <c r="T22" s="531"/>
+      <c r="U22" s="277"/>
+      <c r="V22" s="277"/>
+      <c r="W22" s="277"/>
+      <c r="X22" s="277"/>
+      <c r="Y22" s="277"/>
+      <c r="Z22" s="278"/>
+    </row>
+    <row r="23" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="511"/>
+      <c r="B23" s="490"/>
+      <c r="C23" s="296"/>
+      <c r="D23" s="296"/>
+      <c r="E23" s="296"/>
+      <c r="F23" s="296"/>
+      <c r="G23" s="296"/>
+      <c r="H23" s="296"/>
+      <c r="I23" s="296"/>
+      <c r="J23" s="296"/>
+      <c r="K23" s="255"/>
+      <c r="L23" s="295"/>
+      <c r="M23" s="255"/>
+      <c r="N23" s="296"/>
+      <c r="R23" s="276"/>
+      <c r="S23" s="531"/>
+      <c r="T23" s="531"/>
+      <c r="U23" s="277"/>
+      <c r="V23" s="277"/>
+      <c r="W23" s="277"/>
+      <c r="X23" s="277"/>
+      <c r="Y23" s="277"/>
+      <c r="Z23" s="278"/>
+    </row>
+    <row r="24" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="511"/>
+      <c r="B24" s="490"/>
+      <c r="C24" s="296"/>
+      <c r="D24" s="296"/>
+      <c r="E24" s="296"/>
+      <c r="F24" s="296"/>
+      <c r="G24" s="296"/>
+      <c r="H24" s="296"/>
+      <c r="I24" s="296"/>
+      <c r="J24" s="296"/>
+      <c r="K24" s="255"/>
+      <c r="L24" s="295"/>
+      <c r="M24" s="255"/>
+      <c r="N24" s="296"/>
+      <c r="R24" s="276"/>
+      <c r="S24" s="531"/>
+      <c r="T24" s="531"/>
+      <c r="U24" s="277"/>
+      <c r="V24" s="277"/>
+      <c r="W24" s="277"/>
+      <c r="X24" s="277"/>
+      <c r="Y24" s="277"/>
+      <c r="Z24" s="278"/>
+    </row>
+    <row r="25" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="511"/>
+      <c r="B25" s="490"/>
+      <c r="C25" s="296"/>
+      <c r="D25" s="296"/>
+      <c r="E25" s="296"/>
+      <c r="F25" s="296"/>
+      <c r="G25" s="296"/>
+      <c r="H25" s="296"/>
+      <c r="I25" s="296"/>
+      <c r="J25" s="296"/>
+      <c r="K25" s="255"/>
+      <c r="L25" s="295"/>
+      <c r="M25" s="255"/>
+      <c r="N25" s="296"/>
+      <c r="R25" s="276"/>
+      <c r="S25" s="531"/>
+      <c r="T25" s="531"/>
+      <c r="U25" s="277"/>
+      <c r="V25" s="277"/>
+      <c r="W25" s="277"/>
+      <c r="X25" s="277"/>
+      <c r="Y25" s="277"/>
+      <c r="Z25" s="278"/>
+    </row>
+    <row r="26" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="511"/>
+      <c r="B26" s="491"/>
+      <c r="C26" s="297"/>
+      <c r="D26" s="297"/>
+      <c r="E26" s="297"/>
+      <c r="F26" s="297"/>
+      <c r="G26" s="297"/>
+      <c r="H26" s="297"/>
+      <c r="I26" s="297"/>
+      <c r="J26" s="297"/>
+      <c r="K26" s="298"/>
+      <c r="L26" s="298"/>
+      <c r="M26" s="255"/>
+      <c r="N26" s="297"/>
+      <c r="R26" s="276"/>
+      <c r="S26" s="531"/>
+      <c r="T26" s="531"/>
+      <c r="U26" s="277"/>
+      <c r="V26" s="277"/>
+      <c r="W26" s="277"/>
+      <c r="X26" s="277"/>
+      <c r="Y26" s="277"/>
+      <c r="Z26" s="278"/>
+    </row>
+    <row r="27" spans="1:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="511"/>
+      <c r="B27" s="489"/>
+      <c r="C27" s="255"/>
+      <c r="D27" s="255"/>
+      <c r="E27" s="255"/>
+      <c r="F27" s="255"/>
+      <c r="G27" s="255"/>
+      <c r="H27" s="255"/>
+      <c r="I27" s="255"/>
+      <c r="J27" s="255"/>
+      <c r="K27" s="255"/>
+      <c r="L27" s="255"/>
+      <c r="M27" s="255"/>
+      <c r="N27" s="255"/>
+      <c r="R27" s="299"/>
+      <c r="S27" s="537"/>
+      <c r="T27" s="531"/>
+      <c r="U27" s="300"/>
+      <c r="V27" s="300"/>
+      <c r="W27" s="300"/>
+      <c r="X27" s="300"/>
+      <c r="Y27" s="300"/>
+      <c r="Z27" s="301"/>
+    </row>
+    <row r="28" spans="1:26" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="302"/>
+      <c r="B28" s="303"/>
+      <c r="C28" s="302"/>
+      <c r="D28" s="302"/>
+      <c r="E28" s="302"/>
+      <c r="F28" s="302"/>
+      <c r="G28" s="304"/>
+      <c r="H28" s="304"/>
+      <c r="I28" s="304"/>
+      <c r="J28" s="304"/>
+      <c r="K28" s="304"/>
+      <c r="L28" s="305"/>
+      <c r="M28" s="306"/>
+      <c r="N28" s="304"/>
+      <c r="T28" s="534"/>
+    </row>
+    <row r="29" spans="1:26" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="307" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="190">
-        <f>COUNTA(B7:B27)</f>
+        <f>COUNTIF(Table22[Car '#],"&lt;&gt;"&amp;"")</f>
         <v>0</v>
       </c>
-      <c r="C29" s="296"/>
-      <c r="D29" s="296"/>
-      <c r="E29" s="296"/>
-      <c r="F29" s="315"/>
-      <c r="G29" s="296"/>
-      <c r="H29" s="316"/>
-      <c r="I29" s="315"/>
-      <c r="J29" s="315"/>
-      <c r="K29" s="317"/>
-      <c r="L29" s="318"/>
-      <c r="M29" s="315"/>
-      <c r="N29" s="315"/>
-    </row>
-    <row r="30" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="319"/>
-      <c r="B30" s="315"/>
-      <c r="C30" s="319"/>
-      <c r="D30" s="320"/>
-      <c r="E30" s="319"/>
-      <c r="F30" s="319"/>
-      <c r="G30" s="321"/>
-      <c r="H30" s="320"/>
-      <c r="I30" s="319"/>
-      <c r="J30" s="319"/>
-      <c r="K30" s="321"/>
-      <c r="L30" s="322"/>
+      <c r="C29" s="289"/>
+      <c r="D29" s="289"/>
+      <c r="E29" s="289"/>
+      <c r="F29" s="308"/>
+      <c r="G29" s="289"/>
+      <c r="H29" s="309"/>
+      <c r="I29" s="308"/>
+      <c r="J29" s="308"/>
+      <c r="K29" s="310"/>
+      <c r="L29" s="311"/>
+      <c r="M29" s="308"/>
+      <c r="N29" s="308"/>
+    </row>
+    <row r="30" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="312"/>
+      <c r="B30" s="308"/>
+      <c r="C30" s="312"/>
+      <c r="D30" s="313"/>
+      <c r="E30" s="312"/>
+      <c r="F30" s="312"/>
+      <c r="G30" s="314"/>
+      <c r="H30" s="313"/>
+      <c r="I30" s="312"/>
+      <c r="J30" s="312"/>
+      <c r="K30" s="314"/>
+      <c r="L30" s="315"/>
       <c r="M30" s="17"/>
-      <c r="N30" s="319"/>
+      <c r="N30" s="312"/>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H34" s="222" t="s">
@@ -6843,14 +6922,14 @@
   <mergeCells count="6">
     <mergeCell ref="A2:C4"/>
     <mergeCell ref="M2:N4"/>
-    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="R5:Z5"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="D2:L2"/>
     <mergeCell ref="D3:L3"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.8"/>
-  <pageSetup scale="35" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="33" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;G</oddFooter>
   </headerFooter>
@@ -6891,65 +6970,65 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="526"/>
-      <c r="B2" s="526"/>
-      <c r="C2" s="526"/>
-      <c r="D2" s="524"/>
-      <c r="E2" s="524"/>
-      <c r="F2" s="524"/>
-      <c r="G2" s="524"/>
-      <c r="H2" s="524"/>
-      <c r="I2" s="524"/>
-      <c r="J2" s="524"/>
-      <c r="K2" s="524"/>
-      <c r="L2" s="524"/>
-      <c r="M2" s="526"/>
-      <c r="N2" s="526"/>
+      <c r="A2" s="519"/>
+      <c r="B2" s="519"/>
+      <c r="C2" s="519"/>
+      <c r="D2" s="517"/>
+      <c r="E2" s="517"/>
+      <c r="F2" s="517"/>
+      <c r="G2" s="517"/>
+      <c r="H2" s="517"/>
+      <c r="I2" s="517"/>
+      <c r="J2" s="517"/>
+      <c r="K2" s="517"/>
+      <c r="L2" s="517"/>
+      <c r="M2" s="519"/>
+      <c r="N2" s="519"/>
     </row>
     <row r="3" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="526"/>
-      <c r="B3" s="526"/>
-      <c r="C3" s="526"/>
-      <c r="D3" s="525" t="s">
+      <c r="A3" s="519"/>
+      <c r="B3" s="519"/>
+      <c r="C3" s="519"/>
+      <c r="D3" s="518" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="525"/>
-      <c r="F3" s="525"/>
-      <c r="G3" s="525"/>
-      <c r="H3" s="525"/>
-      <c r="I3" s="525"/>
-      <c r="J3" s="525"/>
-      <c r="K3" s="525"/>
-      <c r="L3" s="525"/>
-      <c r="M3" s="526"/>
-      <c r="N3" s="526"/>
+      <c r="E3" s="518"/>
+      <c r="F3" s="518"/>
+      <c r="G3" s="518"/>
+      <c r="H3" s="518"/>
+      <c r="I3" s="518"/>
+      <c r="J3" s="518"/>
+      <c r="K3" s="518"/>
+      <c r="L3" s="518"/>
+      <c r="M3" s="519"/>
+      <c r="N3" s="519"/>
     </row>
     <row r="4" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="526"/>
-      <c r="B4" s="526"/>
-      <c r="C4" s="526"/>
-      <c r="D4" s="524"/>
-      <c r="E4" s="524"/>
-      <c r="F4" s="524"/>
-      <c r="G4" s="524"/>
-      <c r="H4" s="524"/>
-      <c r="I4" s="524"/>
-      <c r="J4" s="524"/>
-      <c r="K4" s="524"/>
-      <c r="L4" s="524"/>
-      <c r="M4" s="526"/>
-      <c r="N4" s="526"/>
+      <c r="A4" s="519"/>
+      <c r="B4" s="519"/>
+      <c r="C4" s="519"/>
+      <c r="D4" s="517"/>
+      <c r="E4" s="517"/>
+      <c r="F4" s="517"/>
+      <c r="G4" s="517"/>
+      <c r="H4" s="517"/>
+      <c r="I4" s="517"/>
+      <c r="J4" s="517"/>
+      <c r="K4" s="517"/>
+      <c r="L4" s="517"/>
+      <c r="M4" s="519"/>
+      <c r="N4" s="519"/>
     </row>
     <row r="5" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="R5" s="527" t="s">
+      <c r="R5" s="520" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="527"/>
-      <c r="T5" s="527"/>
-      <c r="U5" s="527"/>
-      <c r="V5" s="527"/>
-      <c r="W5" s="527"/>
-      <c r="X5" s="527"/>
+      <c r="S5" s="520"/>
+      <c r="T5" s="520"/>
+      <c r="U5" s="520"/>
+      <c r="V5" s="520"/>
+      <c r="W5" s="520"/>
+      <c r="X5" s="520"/>
     </row>
     <row r="6" spans="1:24" s="2" customFormat="1" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="219" t="s">
@@ -7835,51 +7914,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="526"/>
-      <c r="B2" s="526"/>
-      <c r="C2" s="526"/>
-      <c r="D2" s="528"/>
-      <c r="E2" s="528"/>
-      <c r="F2" s="528"/>
-      <c r="G2" s="528"/>
-      <c r="H2" s="528"/>
-      <c r="I2" s="526"/>
-      <c r="J2" s="526"/>
+      <c r="A2" s="519"/>
+      <c r="B2" s="519"/>
+      <c r="C2" s="519"/>
+      <c r="D2" s="521"/>
+      <c r="E2" s="521"/>
+      <c r="F2" s="521"/>
+      <c r="G2" s="521"/>
+      <c r="H2" s="521"/>
+      <c r="I2" s="519"/>
+      <c r="J2" s="519"/>
     </row>
     <row r="3" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="526"/>
-      <c r="B3" s="526"/>
-      <c r="C3" s="526"/>
-      <c r="D3" s="528" t="s">
+      <c r="A3" s="519"/>
+      <c r="B3" s="519"/>
+      <c r="C3" s="519"/>
+      <c r="D3" s="521" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="528"/>
-      <c r="F3" s="528"/>
-      <c r="G3" s="528"/>
-      <c r="H3" s="528"/>
-      <c r="I3" s="526"/>
-      <c r="J3" s="526"/>
+      <c r="E3" s="521"/>
+      <c r="F3" s="521"/>
+      <c r="G3" s="521"/>
+      <c r="H3" s="521"/>
+      <c r="I3" s="519"/>
+      <c r="J3" s="519"/>
     </row>
     <row r="4" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="526"/>
-      <c r="B4" s="526"/>
-      <c r="C4" s="526"/>
-      <c r="D4" s="528"/>
-      <c r="E4" s="528"/>
-      <c r="F4" s="528"/>
-      <c r="G4" s="528"/>
-      <c r="H4" s="528"/>
-      <c r="I4" s="526"/>
-      <c r="J4" s="526"/>
+      <c r="A4" s="519"/>
+      <c r="B4" s="519"/>
+      <c r="C4" s="519"/>
+      <c r="D4" s="521"/>
+      <c r="E4" s="521"/>
+      <c r="F4" s="521"/>
+      <c r="G4" s="521"/>
+      <c r="H4" s="521"/>
+      <c r="I4" s="519"/>
+      <c r="J4" s="519"/>
     </row>
     <row r="5" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N5" s="526" t="s">
+      <c r="N5" s="519" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="526"/>
-      <c r="P5" s="526"/>
-      <c r="Q5" s="526"/>
-      <c r="R5" s="526"/>
+      <c r="O5" s="519"/>
+      <c r="P5" s="519"/>
+      <c r="Q5" s="519"/>
+      <c r="R5" s="519"/>
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -7932,16 +8011,16 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="54" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="371"/>
-      <c r="B7" s="499"/>
-      <c r="C7" s="378"/>
-      <c r="D7" s="379"/>
-      <c r="E7" s="378"/>
-      <c r="F7" s="378"/>
-      <c r="G7" s="379"/>
-      <c r="H7" s="380"/>
-      <c r="I7" s="381"/>
-      <c r="J7" s="378"/>
+      <c r="A7" s="364"/>
+      <c r="B7" s="492"/>
+      <c r="C7" s="371"/>
+      <c r="D7" s="372"/>
+      <c r="E7" s="371"/>
+      <c r="F7" s="371"/>
+      <c r="G7" s="372"/>
+      <c r="H7" s="373"/>
+      <c r="I7" s="374"/>
+      <c r="J7" s="371"/>
       <c r="N7" s="193"/>
       <c r="O7" s="46"/>
       <c r="P7" s="48"/>
@@ -7949,16 +8028,16 @@
       <c r="R7" s="194"/>
     </row>
     <row r="8" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="371"/>
-      <c r="B8" s="500"/>
-      <c r="C8" s="382"/>
-      <c r="D8" s="382"/>
-      <c r="E8" s="382"/>
-      <c r="F8" s="383"/>
-      <c r="G8" s="382"/>
-      <c r="H8" s="382"/>
-      <c r="I8" s="382"/>
-      <c r="J8" s="382"/>
+      <c r="A8" s="364"/>
+      <c r="B8" s="493"/>
+      <c r="C8" s="375"/>
+      <c r="D8" s="375"/>
+      <c r="E8" s="375"/>
+      <c r="F8" s="376"/>
+      <c r="G8" s="375"/>
+      <c r="H8" s="375"/>
+      <c r="I8" s="375"/>
+      <c r="J8" s="375"/>
       <c r="N8" s="193"/>
       <c r="O8" s="46"/>
       <c r="P8" s="47"/>
@@ -7966,16 +8045,16 @@
       <c r="R8" s="195"/>
     </row>
     <row r="9" spans="1:18" s="32" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="372"/>
-      <c r="B9" s="501"/>
-      <c r="C9" s="384"/>
-      <c r="D9" s="385"/>
-      <c r="E9" s="385"/>
-      <c r="F9" s="385"/>
-      <c r="G9" s="385"/>
-      <c r="H9" s="386"/>
-      <c r="I9" s="387"/>
-      <c r="J9" s="385"/>
+      <c r="A9" s="365"/>
+      <c r="B9" s="494"/>
+      <c r="C9" s="377"/>
+      <c r="D9" s="378"/>
+      <c r="E9" s="378"/>
+      <c r="F9" s="378"/>
+      <c r="G9" s="378"/>
+      <c r="H9" s="379"/>
+      <c r="I9" s="380"/>
+      <c r="J9" s="378"/>
       <c r="N9" s="196"/>
       <c r="O9" s="46"/>
       <c r="P9" s="33"/>
@@ -7983,16 +8062,16 @@
       <c r="R9" s="197"/>
     </row>
     <row r="10" spans="1:18" s="32" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="373"/>
-      <c r="B10" s="502"/>
-      <c r="C10" s="388"/>
-      <c r="D10" s="388"/>
-      <c r="E10" s="389"/>
-      <c r="F10" s="390"/>
-      <c r="G10" s="391"/>
-      <c r="H10" s="392"/>
-      <c r="I10" s="391"/>
-      <c r="J10" s="393"/>
+      <c r="A10" s="366"/>
+      <c r="B10" s="495"/>
+      <c r="C10" s="381"/>
+      <c r="D10" s="381"/>
+      <c r="E10" s="382"/>
+      <c r="F10" s="383"/>
+      <c r="G10" s="384"/>
+      <c r="H10" s="385"/>
+      <c r="I10" s="384"/>
+      <c r="J10" s="386"/>
       <c r="N10" s="196"/>
       <c r="O10" s="46"/>
       <c r="P10" s="33"/>
@@ -8000,16 +8079,16 @@
       <c r="R10" s="197"/>
     </row>
     <row r="11" spans="1:18" s="43" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="374"/>
-      <c r="B11" s="503"/>
-      <c r="C11" s="394"/>
-      <c r="D11" s="395"/>
-      <c r="E11" s="395"/>
-      <c r="F11" s="394"/>
-      <c r="G11" s="394"/>
-      <c r="H11" s="396"/>
-      <c r="I11" s="397"/>
-      <c r="J11" s="394"/>
+      <c r="A11" s="367"/>
+      <c r="B11" s="496"/>
+      <c r="C11" s="387"/>
+      <c r="D11" s="388"/>
+      <c r="E11" s="388"/>
+      <c r="F11" s="387"/>
+      <c r="G11" s="387"/>
+      <c r="H11" s="389"/>
+      <c r="I11" s="390"/>
+      <c r="J11" s="387"/>
       <c r="N11" s="196"/>
       <c r="O11" s="46"/>
       <c r="P11" s="44"/>
@@ -8017,16 +8096,16 @@
       <c r="R11" s="198"/>
     </row>
     <row r="12" spans="1:18" s="43" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="374"/>
-      <c r="B12" s="504"/>
-      <c r="C12" s="388"/>
-      <c r="D12" s="388"/>
-      <c r="E12" s="389"/>
-      <c r="F12" s="390"/>
-      <c r="G12" s="398"/>
-      <c r="H12" s="399"/>
-      <c r="I12" s="398"/>
-      <c r="J12" s="393"/>
+      <c r="A12" s="367"/>
+      <c r="B12" s="497"/>
+      <c r="C12" s="381"/>
+      <c r="D12" s="381"/>
+      <c r="E12" s="382"/>
+      <c r="F12" s="383"/>
+      <c r="G12" s="391"/>
+      <c r="H12" s="392"/>
+      <c r="I12" s="391"/>
+      <c r="J12" s="386"/>
       <c r="N12" s="196"/>
       <c r="O12" s="46"/>
       <c r="P12" s="44"/>
@@ -8034,16 +8113,16 @@
       <c r="R12" s="198"/>
     </row>
     <row r="13" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="371"/>
-      <c r="B13" s="500"/>
-      <c r="C13" s="382"/>
-      <c r="D13" s="382"/>
-      <c r="E13" s="382"/>
-      <c r="F13" s="383"/>
-      <c r="G13" s="382"/>
-      <c r="H13" s="382"/>
-      <c r="I13" s="382"/>
-      <c r="J13" s="382"/>
+      <c r="A13" s="364"/>
+      <c r="B13" s="493"/>
+      <c r="C13" s="375"/>
+      <c r="D13" s="375"/>
+      <c r="E13" s="375"/>
+      <c r="F13" s="376"/>
+      <c r="G13" s="375"/>
+      <c r="H13" s="375"/>
+      <c r="I13" s="375"/>
+      <c r="J13" s="375"/>
       <c r="N13" s="199"/>
       <c r="O13" s="46"/>
       <c r="P13" s="103"/>
@@ -8051,16 +8130,16 @@
       <c r="R13" s="200"/>
     </row>
     <row r="14" spans="1:18" s="105" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="372"/>
-      <c r="B14" s="505"/>
-      <c r="C14" s="384"/>
-      <c r="D14" s="384"/>
-      <c r="E14" s="384"/>
-      <c r="F14" s="384"/>
-      <c r="G14" s="400"/>
-      <c r="H14" s="401"/>
-      <c r="I14" s="384"/>
-      <c r="J14" s="402"/>
+      <c r="A14" s="365"/>
+      <c r="B14" s="498"/>
+      <c r="C14" s="377"/>
+      <c r="D14" s="377"/>
+      <c r="E14" s="377"/>
+      <c r="F14" s="377"/>
+      <c r="G14" s="393"/>
+      <c r="H14" s="394"/>
+      <c r="I14" s="377"/>
+      <c r="J14" s="395"/>
       <c r="N14" s="201"/>
       <c r="O14" s="46"/>
       <c r="P14" s="106"/>
@@ -8068,16 +8147,16 @@
       <c r="R14" s="202"/>
     </row>
     <row r="15" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="371"/>
-      <c r="B15" s="506"/>
-      <c r="C15" s="404"/>
-      <c r="D15" s="404"/>
-      <c r="E15" s="404"/>
-      <c r="F15" s="405"/>
-      <c r="G15" s="403"/>
-      <c r="H15" s="404"/>
-      <c r="I15" s="404"/>
-      <c r="J15" s="404"/>
+      <c r="A15" s="364"/>
+      <c r="B15" s="499"/>
+      <c r="C15" s="397"/>
+      <c r="D15" s="397"/>
+      <c r="E15" s="397"/>
+      <c r="F15" s="398"/>
+      <c r="G15" s="396"/>
+      <c r="H15" s="397"/>
+      <c r="I15" s="397"/>
+      <c r="J15" s="397"/>
       <c r="N15" s="193"/>
       <c r="O15" s="46"/>
       <c r="P15" s="48"/>
@@ -8085,16 +8164,16 @@
       <c r="R15" s="194"/>
     </row>
     <row r="16" spans="1:18" s="89" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="371"/>
-      <c r="B16" s="507"/>
-      <c r="C16" s="382"/>
-      <c r="D16" s="382"/>
-      <c r="E16" s="382"/>
-      <c r="F16" s="406"/>
-      <c r="G16" s="382"/>
-      <c r="H16" s="382"/>
-      <c r="I16" s="394"/>
-      <c r="J16" s="382"/>
+      <c r="A16" s="364"/>
+      <c r="B16" s="500"/>
+      <c r="C16" s="375"/>
+      <c r="D16" s="375"/>
+      <c r="E16" s="375"/>
+      <c r="F16" s="399"/>
+      <c r="G16" s="375"/>
+      <c r="H16" s="375"/>
+      <c r="I16" s="387"/>
+      <c r="J16" s="375"/>
       <c r="N16" s="203"/>
       <c r="O16" s="46"/>
       <c r="P16" s="90"/>
@@ -8102,16 +8181,16 @@
       <c r="R16" s="204"/>
     </row>
     <row r="17" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="371"/>
-      <c r="B17" s="507"/>
-      <c r="C17" s="382"/>
-      <c r="D17" s="382"/>
-      <c r="E17" s="382"/>
-      <c r="F17" s="383"/>
-      <c r="G17" s="407"/>
-      <c r="H17" s="408"/>
-      <c r="I17" s="408"/>
-      <c r="J17" s="382"/>
+      <c r="A17" s="364"/>
+      <c r="B17" s="500"/>
+      <c r="C17" s="375"/>
+      <c r="D17" s="375"/>
+      <c r="E17" s="375"/>
+      <c r="F17" s="376"/>
+      <c r="G17" s="400"/>
+      <c r="H17" s="401"/>
+      <c r="I17" s="401"/>
+      <c r="J17" s="375"/>
       <c r="N17" s="193"/>
       <c r="O17" s="46"/>
       <c r="P17" s="50"/>
@@ -8119,16 +8198,16 @@
       <c r="R17" s="205"/>
     </row>
     <row r="18" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="371"/>
-      <c r="B18" s="508"/>
-      <c r="C18" s="388"/>
-      <c r="D18" s="388"/>
-      <c r="E18" s="389"/>
-      <c r="F18" s="390"/>
-      <c r="G18" s="398"/>
-      <c r="H18" s="399"/>
-      <c r="I18" s="398"/>
-      <c r="J18" s="393"/>
+      <c r="A18" s="364"/>
+      <c r="B18" s="501"/>
+      <c r="C18" s="381"/>
+      <c r="D18" s="381"/>
+      <c r="E18" s="382"/>
+      <c r="F18" s="383"/>
+      <c r="G18" s="391"/>
+      <c r="H18" s="392"/>
+      <c r="I18" s="391"/>
+      <c r="J18" s="386"/>
       <c r="N18" s="193"/>
       <c r="O18" s="46"/>
       <c r="P18" s="47"/>
@@ -8136,16 +8215,16 @@
       <c r="R18" s="195"/>
     </row>
     <row r="19" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="375"/>
-      <c r="B19" s="509"/>
-      <c r="C19" s="409"/>
-      <c r="D19" s="409"/>
-      <c r="E19" s="410"/>
-      <c r="F19" s="390"/>
-      <c r="G19" s="398"/>
-      <c r="H19" s="399"/>
-      <c r="I19" s="398"/>
-      <c r="J19" s="393"/>
+      <c r="A19" s="368"/>
+      <c r="B19" s="502"/>
+      <c r="C19" s="402"/>
+      <c r="D19" s="402"/>
+      <c r="E19" s="403"/>
+      <c r="F19" s="383"/>
+      <c r="G19" s="391"/>
+      <c r="H19" s="392"/>
+      <c r="I19" s="391"/>
+      <c r="J19" s="386"/>
       <c r="N19" s="206"/>
       <c r="O19" s="46"/>
       <c r="P19" s="171"/>
@@ -8153,16 +8232,16 @@
       <c r="R19" s="207"/>
     </row>
     <row r="20" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="376"/>
-      <c r="B20" s="508"/>
-      <c r="C20" s="411"/>
-      <c r="D20" s="412"/>
-      <c r="E20" s="413"/>
-      <c r="F20" s="390"/>
-      <c r="G20" s="398"/>
-      <c r="H20" s="411"/>
-      <c r="I20" s="398"/>
-      <c r="J20" s="393"/>
+      <c r="A20" s="369"/>
+      <c r="B20" s="501"/>
+      <c r="C20" s="404"/>
+      <c r="D20" s="405"/>
+      <c r="E20" s="406"/>
+      <c r="F20" s="383"/>
+      <c r="G20" s="391"/>
+      <c r="H20" s="404"/>
+      <c r="I20" s="391"/>
+      <c r="J20" s="386"/>
       <c r="N20" s="193"/>
       <c r="O20" s="46"/>
       <c r="P20" s="46"/>
@@ -8170,16 +8249,16 @@
       <c r="R20" s="208"/>
     </row>
     <row r="21" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="371"/>
-      <c r="B21" s="506"/>
-      <c r="C21" s="403"/>
-      <c r="D21" s="403"/>
-      <c r="E21" s="403"/>
-      <c r="F21" s="414"/>
-      <c r="G21" s="415"/>
-      <c r="H21" s="416"/>
-      <c r="I21" s="382"/>
-      <c r="J21" s="403"/>
+      <c r="A21" s="364"/>
+      <c r="B21" s="499"/>
+      <c r="C21" s="396"/>
+      <c r="D21" s="396"/>
+      <c r="E21" s="396"/>
+      <c r="F21" s="407"/>
+      <c r="G21" s="408"/>
+      <c r="H21" s="409"/>
+      <c r="I21" s="375"/>
+      <c r="J21" s="396"/>
       <c r="N21" s="199"/>
       <c r="O21" s="46"/>
       <c r="P21" s="172"/>
@@ -8187,16 +8266,16 @@
       <c r="R21" s="209"/>
     </row>
     <row r="22" spans="1:18" s="34" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="372"/>
-      <c r="B22" s="510"/>
-      <c r="C22" s="417"/>
-      <c r="D22" s="418"/>
-      <c r="E22" s="419"/>
-      <c r="F22" s="419"/>
-      <c r="G22" s="418"/>
-      <c r="H22" s="420"/>
-      <c r="I22" s="421"/>
-      <c r="J22" s="422"/>
+      <c r="A22" s="365"/>
+      <c r="B22" s="503"/>
+      <c r="C22" s="410"/>
+      <c r="D22" s="411"/>
+      <c r="E22" s="412"/>
+      <c r="F22" s="412"/>
+      <c r="G22" s="411"/>
+      <c r="H22" s="413"/>
+      <c r="I22" s="414"/>
+      <c r="J22" s="415"/>
       <c r="N22" s="196"/>
       <c r="O22" s="46"/>
       <c r="P22" s="35"/>
@@ -8204,16 +8283,16 @@
       <c r="R22" s="210"/>
     </row>
     <row r="23" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="371"/>
-      <c r="B23" s="504"/>
-      <c r="C23" s="412"/>
-      <c r="D23" s="412"/>
-      <c r="E23" s="413"/>
-      <c r="F23" s="390"/>
-      <c r="G23" s="423"/>
-      <c r="H23" s="424"/>
-      <c r="I23" s="378"/>
-      <c r="J23" s="393"/>
+      <c r="A23" s="364"/>
+      <c r="B23" s="497"/>
+      <c r="C23" s="405"/>
+      <c r="D23" s="405"/>
+      <c r="E23" s="406"/>
+      <c r="F23" s="383"/>
+      <c r="G23" s="416"/>
+      <c r="H23" s="417"/>
+      <c r="I23" s="371"/>
+      <c r="J23" s="386"/>
       <c r="N23" s="193"/>
       <c r="O23" s="46"/>
       <c r="P23" s="99"/>
@@ -8221,16 +8300,16 @@
       <c r="R23" s="211"/>
     </row>
     <row r="24" spans="1:18" s="34" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="372"/>
-      <c r="B24" s="504"/>
-      <c r="C24" s="388"/>
-      <c r="D24" s="388"/>
-      <c r="E24" s="389"/>
-      <c r="F24" s="390"/>
-      <c r="G24" s="412"/>
-      <c r="H24" s="399"/>
-      <c r="I24" s="398"/>
-      <c r="J24" s="393"/>
+      <c r="A24" s="365"/>
+      <c r="B24" s="497"/>
+      <c r="C24" s="381"/>
+      <c r="D24" s="381"/>
+      <c r="E24" s="382"/>
+      <c r="F24" s="383"/>
+      <c r="G24" s="405"/>
+      <c r="H24" s="392"/>
+      <c r="I24" s="391"/>
+      <c r="J24" s="386"/>
       <c r="N24" s="196"/>
       <c r="O24" s="46"/>
       <c r="P24" s="35"/>
@@ -8238,16 +8317,16 @@
       <c r="R24" s="210"/>
     </row>
     <row r="25" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="372"/>
-      <c r="B25" s="510"/>
-      <c r="C25" s="418"/>
-      <c r="D25" s="418"/>
-      <c r="E25" s="425"/>
-      <c r="F25" s="417"/>
-      <c r="G25" s="417"/>
-      <c r="H25" s="426"/>
-      <c r="I25" s="417"/>
-      <c r="J25" s="427"/>
+      <c r="A25" s="365"/>
+      <c r="B25" s="503"/>
+      <c r="C25" s="411"/>
+      <c r="D25" s="411"/>
+      <c r="E25" s="418"/>
+      <c r="F25" s="410"/>
+      <c r="G25" s="410"/>
+      <c r="H25" s="419"/>
+      <c r="I25" s="410"/>
+      <c r="J25" s="420"/>
       <c r="N25" s="193"/>
       <c r="O25" s="46"/>
       <c r="P25" s="99"/>
@@ -8255,16 +8334,16 @@
       <c r="R25" s="211"/>
     </row>
     <row r="26" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="372"/>
-      <c r="B26" s="510"/>
-      <c r="C26" s="418"/>
-      <c r="D26" s="418"/>
-      <c r="E26" s="425"/>
-      <c r="F26" s="417"/>
-      <c r="G26" s="417"/>
-      <c r="H26" s="426"/>
-      <c r="I26" s="417"/>
-      <c r="J26" s="439"/>
+      <c r="A26" s="365"/>
+      <c r="B26" s="503"/>
+      <c r="C26" s="411"/>
+      <c r="D26" s="411"/>
+      <c r="E26" s="418"/>
+      <c r="F26" s="410"/>
+      <c r="G26" s="410"/>
+      <c r="H26" s="419"/>
+      <c r="I26" s="410"/>
+      <c r="J26" s="432"/>
       <c r="N26" s="193"/>
       <c r="O26" s="46"/>
       <c r="P26" s="99"/>
@@ -8272,16 +8351,16 @@
       <c r="R26" s="211"/>
     </row>
     <row r="27" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="372"/>
-      <c r="B27" s="510"/>
-      <c r="C27" s="418"/>
-      <c r="D27" s="418"/>
-      <c r="E27" s="425"/>
-      <c r="F27" s="417"/>
-      <c r="G27" s="417"/>
-      <c r="H27" s="426"/>
-      <c r="I27" s="417"/>
-      <c r="J27" s="439"/>
+      <c r="A27" s="365"/>
+      <c r="B27" s="503"/>
+      <c r="C27" s="411"/>
+      <c r="D27" s="411"/>
+      <c r="E27" s="418"/>
+      <c r="F27" s="410"/>
+      <c r="G27" s="410"/>
+      <c r="H27" s="419"/>
+      <c r="I27" s="410"/>
+      <c r="J27" s="432"/>
       <c r="N27" s="193"/>
       <c r="O27" s="46"/>
       <c r="P27" s="99"/>
@@ -8289,16 +8368,16 @@
       <c r="R27" s="211"/>
     </row>
     <row r="28" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="372"/>
-      <c r="B28" s="510"/>
-      <c r="C28" s="418"/>
-      <c r="D28" s="418"/>
-      <c r="E28" s="425"/>
-      <c r="F28" s="417"/>
-      <c r="G28" s="417"/>
-      <c r="H28" s="426"/>
-      <c r="I28" s="417"/>
-      <c r="J28" s="439"/>
+      <c r="A28" s="365"/>
+      <c r="B28" s="503"/>
+      <c r="C28" s="411"/>
+      <c r="D28" s="411"/>
+      <c r="E28" s="418"/>
+      <c r="F28" s="410"/>
+      <c r="G28" s="410"/>
+      <c r="H28" s="419"/>
+      <c r="I28" s="410"/>
+      <c r="J28" s="432"/>
       <c r="N28" s="193"/>
       <c r="O28" s="46"/>
       <c r="P28" s="99"/>
@@ -8306,16 +8385,16 @@
       <c r="R28" s="211"/>
     </row>
     <row r="29" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="372"/>
-      <c r="B29" s="510"/>
-      <c r="C29" s="418"/>
-      <c r="D29" s="418"/>
-      <c r="E29" s="425"/>
-      <c r="F29" s="417"/>
-      <c r="G29" s="417"/>
-      <c r="H29" s="426"/>
-      <c r="I29" s="417"/>
-      <c r="J29" s="439"/>
+      <c r="A29" s="365"/>
+      <c r="B29" s="503"/>
+      <c r="C29" s="411"/>
+      <c r="D29" s="411"/>
+      <c r="E29" s="418"/>
+      <c r="F29" s="410"/>
+      <c r="G29" s="410"/>
+      <c r="H29" s="419"/>
+      <c r="I29" s="410"/>
+      <c r="J29" s="432"/>
       <c r="N29" s="193"/>
       <c r="O29" s="46"/>
       <c r="P29" s="99"/>
@@ -8323,16 +8402,16 @@
       <c r="R29" s="211"/>
     </row>
     <row r="30" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="372"/>
-      <c r="B30" s="510"/>
-      <c r="C30" s="418"/>
-      <c r="D30" s="418"/>
-      <c r="E30" s="425"/>
-      <c r="F30" s="417"/>
-      <c r="G30" s="417"/>
-      <c r="H30" s="426"/>
-      <c r="I30" s="417"/>
-      <c r="J30" s="439"/>
+      <c r="A30" s="365"/>
+      <c r="B30" s="503"/>
+      <c r="C30" s="411"/>
+      <c r="D30" s="411"/>
+      <c r="E30" s="418"/>
+      <c r="F30" s="410"/>
+      <c r="G30" s="410"/>
+      <c r="H30" s="419"/>
+      <c r="I30" s="410"/>
+      <c r="J30" s="432"/>
       <c r="N30" s="193"/>
       <c r="O30" s="46"/>
       <c r="P30" s="99"/>
@@ -8340,16 +8419,16 @@
       <c r="R30" s="211"/>
     </row>
     <row r="31" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="372"/>
-      <c r="B31" s="510"/>
-      <c r="C31" s="418"/>
-      <c r="D31" s="418"/>
-      <c r="E31" s="425"/>
-      <c r="F31" s="417"/>
-      <c r="G31" s="417"/>
-      <c r="H31" s="426"/>
-      <c r="I31" s="417"/>
-      <c r="J31" s="439"/>
+      <c r="A31" s="365"/>
+      <c r="B31" s="503"/>
+      <c r="C31" s="411"/>
+      <c r="D31" s="411"/>
+      <c r="E31" s="418"/>
+      <c r="F31" s="410"/>
+      <c r="G31" s="410"/>
+      <c r="H31" s="419"/>
+      <c r="I31" s="410"/>
+      <c r="J31" s="432"/>
       <c r="N31" s="193"/>
       <c r="O31" s="46"/>
       <c r="P31" s="99"/>
@@ -8357,16 +8436,16 @@
       <c r="R31" s="211"/>
     </row>
     <row r="32" spans="1:18" s="98" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="372"/>
-      <c r="B32" s="510"/>
-      <c r="C32" s="418"/>
-      <c r="D32" s="418"/>
-      <c r="E32" s="425"/>
-      <c r="F32" s="417"/>
-      <c r="G32" s="417"/>
-      <c r="H32" s="426"/>
-      <c r="I32" s="417"/>
-      <c r="J32" s="439"/>
+      <c r="A32" s="365"/>
+      <c r="B32" s="503"/>
+      <c r="C32" s="411"/>
+      <c r="D32" s="411"/>
+      <c r="E32" s="418"/>
+      <c r="F32" s="410"/>
+      <c r="G32" s="410"/>
+      <c r="H32" s="419"/>
+      <c r="I32" s="410"/>
+      <c r="J32" s="432"/>
       <c r="N32" s="193"/>
       <c r="O32" s="46"/>
       <c r="P32" s="99"/>
@@ -8374,16 +8453,16 @@
       <c r="R32" s="211"/>
     </row>
     <row r="33" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="371"/>
-      <c r="B33" s="504"/>
-      <c r="C33" s="398"/>
-      <c r="D33" s="428"/>
-      <c r="E33" s="390"/>
-      <c r="F33" s="398"/>
-      <c r="G33" s="412"/>
-      <c r="H33" s="428"/>
-      <c r="I33" s="429"/>
-      <c r="J33" s="393"/>
+      <c r="A33" s="364"/>
+      <c r="B33" s="497"/>
+      <c r="C33" s="391"/>
+      <c r="D33" s="421"/>
+      <c r="E33" s="383"/>
+      <c r="F33" s="391"/>
+      <c r="G33" s="405"/>
+      <c r="H33" s="421"/>
+      <c r="I33" s="422"/>
+      <c r="J33" s="386"/>
       <c r="N33" s="193"/>
       <c r="O33" s="46"/>
       <c r="P33" s="46"/>
@@ -8391,16 +8470,16 @@
       <c r="R33" s="195"/>
     </row>
     <row r="34" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="371"/>
-      <c r="B34" s="504"/>
-      <c r="C34" s="398"/>
-      <c r="D34" s="428"/>
-      <c r="E34" s="390"/>
-      <c r="F34" s="398"/>
-      <c r="G34" s="412"/>
-      <c r="H34" s="428"/>
-      <c r="I34" s="429"/>
-      <c r="J34" s="393"/>
+      <c r="A34" s="364"/>
+      <c r="B34" s="497"/>
+      <c r="C34" s="391"/>
+      <c r="D34" s="421"/>
+      <c r="E34" s="383"/>
+      <c r="F34" s="391"/>
+      <c r="G34" s="405"/>
+      <c r="H34" s="421"/>
+      <c r="I34" s="422"/>
+      <c r="J34" s="386"/>
       <c r="N34" s="193"/>
       <c r="O34" s="46"/>
       <c r="P34" s="46"/>
@@ -8408,16 +8487,16 @@
       <c r="R34" s="195"/>
     </row>
     <row r="35" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="371"/>
-      <c r="B35" s="504"/>
-      <c r="C35" s="398"/>
-      <c r="D35" s="428"/>
-      <c r="E35" s="390"/>
-      <c r="F35" s="390"/>
-      <c r="G35" s="423"/>
-      <c r="H35" s="428"/>
-      <c r="I35" s="429"/>
-      <c r="J35" s="393"/>
+      <c r="A35" s="364"/>
+      <c r="B35" s="497"/>
+      <c r="C35" s="391"/>
+      <c r="D35" s="421"/>
+      <c r="E35" s="383"/>
+      <c r="F35" s="383"/>
+      <c r="G35" s="416"/>
+      <c r="H35" s="421"/>
+      <c r="I35" s="422"/>
+      <c r="J35" s="386"/>
       <c r="N35" s="193"/>
       <c r="O35" s="46"/>
       <c r="P35" s="46"/>
@@ -8425,16 +8504,16 @@
       <c r="R35" s="195"/>
     </row>
     <row r="36" spans="1:18" s="45" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="371"/>
-      <c r="B36" s="506"/>
-      <c r="C36" s="403"/>
-      <c r="D36" s="403"/>
-      <c r="E36" s="403"/>
-      <c r="F36" s="414"/>
-      <c r="G36" s="415"/>
-      <c r="H36" s="403"/>
-      <c r="I36" s="403"/>
-      <c r="J36" s="430"/>
+      <c r="A36" s="364"/>
+      <c r="B36" s="499"/>
+      <c r="C36" s="396"/>
+      <c r="D36" s="396"/>
+      <c r="E36" s="396"/>
+      <c r="F36" s="407"/>
+      <c r="G36" s="408"/>
+      <c r="H36" s="396"/>
+      <c r="I36" s="396"/>
+      <c r="J36" s="423"/>
       <c r="N36" s="193"/>
       <c r="O36" s="46"/>
       <c r="P36" s="47"/>
@@ -8442,16 +8521,16 @@
       <c r="R36" s="195"/>
     </row>
     <row r="37" spans="1:18" s="96" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="377"/>
-      <c r="B37" s="511"/>
-      <c r="C37" s="431"/>
-      <c r="D37" s="432"/>
-      <c r="E37" s="433"/>
-      <c r="F37" s="434"/>
-      <c r="G37" s="435"/>
-      <c r="H37" s="436"/>
-      <c r="I37" s="437"/>
-      <c r="J37" s="438"/>
+      <c r="A37" s="370"/>
+      <c r="B37" s="504"/>
+      <c r="C37" s="424"/>
+      <c r="D37" s="425"/>
+      <c r="E37" s="426"/>
+      <c r="F37" s="427"/>
+      <c r="G37" s="428"/>
+      <c r="H37" s="429"/>
+      <c r="I37" s="430"/>
+      <c r="J37" s="431"/>
       <c r="N37" s="212"/>
       <c r="O37" s="213"/>
       <c r="P37" s="214"/>
@@ -8563,71 +8642,71 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:68" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="526"/>
-      <c r="B2" s="526"/>
-      <c r="C2" s="526"/>
-      <c r="D2" s="528"/>
-      <c r="E2" s="528"/>
-      <c r="F2" s="528"/>
-      <c r="G2" s="526"/>
-      <c r="H2" s="526"/>
+      <c r="A2" s="519"/>
+      <c r="B2" s="519"/>
+      <c r="C2" s="519"/>
+      <c r="D2" s="521"/>
+      <c r="E2" s="521"/>
+      <c r="F2" s="521"/>
+      <c r="G2" s="519"/>
+      <c r="H2" s="519"/>
     </row>
     <row r="3" spans="1:68" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="526"/>
-      <c r="B3" s="526"/>
-      <c r="C3" s="526"/>
-      <c r="D3" s="528" t="s">
+      <c r="A3" s="519"/>
+      <c r="B3" s="519"/>
+      <c r="C3" s="519"/>
+      <c r="D3" s="521" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="528"/>
-      <c r="F3" s="528"/>
-      <c r="G3" s="526"/>
-      <c r="H3" s="526"/>
+      <c r="E3" s="521"/>
+      <c r="F3" s="521"/>
+      <c r="G3" s="519"/>
+      <c r="H3" s="519"/>
     </row>
     <row r="4" spans="1:68" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="526"/>
-      <c r="B4" s="526"/>
-      <c r="C4" s="526"/>
-      <c r="D4" s="528"/>
-      <c r="E4" s="528"/>
-      <c r="F4" s="528"/>
-      <c r="G4" s="526"/>
-      <c r="H4" s="526"/>
+      <c r="A4" s="519"/>
+      <c r="B4" s="519"/>
+      <c r="C4" s="519"/>
+      <c r="D4" s="521"/>
+      <c r="E4" s="521"/>
+      <c r="F4" s="521"/>
+      <c r="G4" s="519"/>
+      <c r="H4" s="519"/>
     </row>
     <row r="5" spans="1:68" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L5" s="526" t="s">
+      <c r="L5" s="519" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="526"/>
-      <c r="N5" s="526"/>
-      <c r="O5" s="526"/>
-      <c r="P5" s="526"/>
-      <c r="Q5" s="526"/>
-      <c r="R5" s="526"/>
+      <c r="M5" s="519"/>
+      <c r="N5" s="519"/>
+      <c r="O5" s="519"/>
+      <c r="P5" s="519"/>
+      <c r="Q5" s="519"/>
+      <c r="R5" s="519"/>
     </row>
     <row r="6" spans="1:68" s="10" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="368" t="s">
+      <c r="A6" s="361" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="369" t="s">
+      <c r="B6" s="362" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="369" t="s">
+      <c r="C6" s="362" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="369" t="s">
+      <c r="D6" s="362" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="369" t="s">
+      <c r="E6" s="362" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="369" t="s">
+      <c r="F6" s="362" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="369" t="s">
+      <c r="G6" s="362" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="370" t="s">
+      <c r="H6" s="363" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="25"/>
@@ -8635,19 +8714,19 @@
       <c r="K6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="323" t="s">
+      <c r="L6" s="316" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="324" t="s">
+      <c r="M6" s="317" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="324" t="s">
+      <c r="N6" s="317" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="324" t="s">
+      <c r="O6" s="317" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="325" t="s">
+      <c r="P6" s="318" t="s">
         <v>16</v>
       </c>
       <c r="Q6" s="3"/>
@@ -8704,39 +8783,39 @@
       <c r="BP6" s="26"/>
     </row>
     <row r="7" spans="1:68" s="25" customFormat="1" ht="46.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="477"/>
-      <c r="B7" s="440"/>
-      <c r="C7" s="441"/>
-      <c r="D7" s="442"/>
-      <c r="E7" s="441"/>
-      <c r="F7" s="441"/>
-      <c r="G7" s="441"/>
-      <c r="H7" s="443"/>
-      <c r="L7" s="326"/>
-      <c r="M7" s="327"/>
-      <c r="N7" s="328"/>
-      <c r="O7" s="328"/>
-      <c r="P7" s="329"/>
+      <c r="A7" s="470"/>
+      <c r="B7" s="433"/>
+      <c r="C7" s="434"/>
+      <c r="D7" s="435"/>
+      <c r="E7" s="434"/>
+      <c r="F7" s="434"/>
+      <c r="G7" s="434"/>
+      <c r="H7" s="436"/>
+      <c r="L7" s="319"/>
+      <c r="M7" s="320"/>
+      <c r="N7" s="321"/>
+      <c r="O7" s="321"/>
+      <c r="P7" s="322"/>
       <c r="Q7" s="85"/>
       <c r="R7" s="85"/>
     </row>
     <row r="8" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="478"/>
-      <c r="B8" s="444"/>
-      <c r="C8" s="444"/>
-      <c r="D8" s="444"/>
-      <c r="E8" s="444"/>
-      <c r="F8" s="444"/>
-      <c r="G8" s="444"/>
-      <c r="H8" s="445"/>
+      <c r="A8" s="471"/>
+      <c r="B8" s="437"/>
+      <c r="C8" s="437"/>
+      <c r="D8" s="437"/>
+      <c r="E8" s="437"/>
+      <c r="F8" s="437"/>
+      <c r="G8" s="437"/>
+      <c r="H8" s="438"/>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
-      <c r="L8" s="330"/>
+      <c r="L8" s="323"/>
       <c r="M8" s="99"/>
       <c r="N8" s="55"/>
       <c r="O8" s="55"/>
-      <c r="P8" s="331"/>
+      <c r="P8" s="324"/>
       <c r="Q8" s="85"/>
       <c r="R8" s="85"/>
       <c r="S8" s="25"/>
@@ -8791,24 +8870,24 @@
       <c r="BP8" s="26"/>
     </row>
     <row r="9" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="479"/>
-      <c r="B9" s="446"/>
-      <c r="C9" s="447"/>
-      <c r="D9" s="448"/>
-      <c r="E9" s="447"/>
-      <c r="F9" s="447"/>
-      <c r="G9" s="447"/>
-      <c r="H9" s="449"/>
-      <c r="I9" s="333"/>
-      <c r="J9" s="334"/>
-      <c r="K9" s="333"/>
-      <c r="L9" s="335"/>
-      <c r="M9" s="332"/>
-      <c r="N9" s="332"/>
-      <c r="O9" s="332"/>
-      <c r="P9" s="336"/>
-      <c r="Q9" s="333"/>
-      <c r="R9" s="334"/>
+      <c r="A9" s="472"/>
+      <c r="B9" s="439"/>
+      <c r="C9" s="440"/>
+      <c r="D9" s="441"/>
+      <c r="E9" s="440"/>
+      <c r="F9" s="440"/>
+      <c r="G9" s="440"/>
+      <c r="H9" s="442"/>
+      <c r="I9" s="326"/>
+      <c r="J9" s="327"/>
+      <c r="K9" s="326"/>
+      <c r="L9" s="328"/>
+      <c r="M9" s="325"/>
+      <c r="N9" s="325"/>
+      <c r="O9" s="325"/>
+      <c r="P9" s="329"/>
+      <c r="Q9" s="326"/>
+      <c r="R9" s="327"/>
       <c r="S9" s="25"/>
       <c r="T9" s="25"/>
       <c r="U9" s="25"/>
@@ -8861,22 +8940,22 @@
       <c r="BP9" s="26"/>
     </row>
     <row r="10" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="479"/>
-      <c r="B10" s="446"/>
-      <c r="C10" s="447"/>
-      <c r="D10" s="448"/>
-      <c r="E10" s="448"/>
-      <c r="F10" s="450"/>
-      <c r="G10" s="450"/>
-      <c r="H10" s="449"/>
+      <c r="A10" s="472"/>
+      <c r="B10" s="439"/>
+      <c r="C10" s="440"/>
+      <c r="D10" s="441"/>
+      <c r="E10" s="441"/>
+      <c r="F10" s="443"/>
+      <c r="G10" s="443"/>
+      <c r="H10" s="442"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
-      <c r="L10" s="330"/>
+      <c r="L10" s="323"/>
       <c r="M10" s="99"/>
       <c r="N10" s="55"/>
       <c r="O10" s="55"/>
-      <c r="P10" s="331"/>
+      <c r="P10" s="324"/>
       <c r="Q10" s="85"/>
       <c r="R10" s="85"/>
       <c r="S10" s="25"/>
@@ -8931,22 +9010,22 @@
       <c r="BP10" s="26"/>
     </row>
     <row r="11" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="479"/>
-      <c r="B11" s="451"/>
-      <c r="C11" s="447"/>
-      <c r="D11" s="448"/>
-      <c r="E11" s="447"/>
-      <c r="F11" s="447"/>
-      <c r="G11" s="450"/>
-      <c r="H11" s="449"/>
+      <c r="A11" s="472"/>
+      <c r="B11" s="444"/>
+      <c r="C11" s="440"/>
+      <c r="D11" s="441"/>
+      <c r="E11" s="440"/>
+      <c r="F11" s="440"/>
+      <c r="G11" s="443"/>
+      <c r="H11" s="442"/>
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
-      <c r="L11" s="330"/>
+      <c r="L11" s="323"/>
       <c r="M11" s="99"/>
       <c r="N11" s="55"/>
       <c r="O11" s="55"/>
-      <c r="P11" s="331"/>
+      <c r="P11" s="324"/>
       <c r="Q11" s="85"/>
       <c r="R11" s="85"/>
       <c r="S11" s="25"/>
@@ -9001,22 +9080,22 @@
       <c r="BP11" s="26"/>
     </row>
     <row r="12" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="478"/>
-      <c r="B12" s="452"/>
-      <c r="C12" s="452"/>
-      <c r="D12" s="452"/>
-      <c r="E12" s="452"/>
-      <c r="F12" s="452"/>
-      <c r="G12" s="452"/>
-      <c r="H12" s="453"/>
+      <c r="A12" s="471"/>
+      <c r="B12" s="445"/>
+      <c r="C12" s="445"/>
+      <c r="D12" s="445"/>
+      <c r="E12" s="445"/>
+      <c r="F12" s="445"/>
+      <c r="G12" s="445"/>
+      <c r="H12" s="446"/>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
-      <c r="L12" s="330"/>
+      <c r="L12" s="323"/>
       <c r="M12" s="99"/>
       <c r="N12" s="55"/>
       <c r="O12" s="55"/>
-      <c r="P12" s="331"/>
+      <c r="P12" s="324"/>
       <c r="Q12" s="25"/>
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
@@ -9071,22 +9150,22 @@
       <c r="BP12" s="26"/>
     </row>
     <row r="13" spans="1:68" s="124" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="480"/>
-      <c r="B13" s="454"/>
-      <c r="C13" s="455"/>
-      <c r="D13" s="455"/>
-      <c r="E13" s="455"/>
-      <c r="F13" s="455"/>
-      <c r="G13" s="455"/>
-      <c r="H13" s="456"/>
+      <c r="A13" s="473"/>
+      <c r="B13" s="447"/>
+      <c r="C13" s="448"/>
+      <c r="D13" s="448"/>
+      <c r="E13" s="448"/>
+      <c r="F13" s="448"/>
+      <c r="G13" s="448"/>
+      <c r="H13" s="449"/>
       <c r="I13" s="121"/>
       <c r="J13" s="121"/>
       <c r="K13" s="121"/>
-      <c r="L13" s="330"/>
+      <c r="L13" s="323"/>
       <c r="M13" s="99"/>
       <c r="N13" s="122"/>
       <c r="O13" s="122"/>
-      <c r="P13" s="337"/>
+      <c r="P13" s="330"/>
       <c r="Q13" s="121"/>
       <c r="R13" s="121"/>
       <c r="S13" s="121"/>
@@ -9141,22 +9220,22 @@
       <c r="BP13" s="123"/>
     </row>
     <row r="14" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="478"/>
-      <c r="B14" s="457"/>
-      <c r="C14" s="458"/>
-      <c r="D14" s="458"/>
-      <c r="E14" s="458"/>
-      <c r="F14" s="459"/>
-      <c r="G14" s="457"/>
-      <c r="H14" s="460"/>
+      <c r="A14" s="471"/>
+      <c r="B14" s="450"/>
+      <c r="C14" s="451"/>
+      <c r="D14" s="451"/>
+      <c r="E14" s="451"/>
+      <c r="F14" s="452"/>
+      <c r="G14" s="450"/>
+      <c r="H14" s="453"/>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
       <c r="K14" s="25"/>
-      <c r="L14" s="330"/>
+      <c r="L14" s="323"/>
       <c r="M14" s="99"/>
       <c r="N14" s="55"/>
       <c r="O14" s="55"/>
-      <c r="P14" s="331"/>
+      <c r="P14" s="324"/>
       <c r="Q14" s="25"/>
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
@@ -9211,22 +9290,22 @@
       <c r="BP14" s="26"/>
     </row>
     <row r="15" spans="1:68" s="124" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="480"/>
-      <c r="B15" s="461"/>
-      <c r="C15" s="462"/>
-      <c r="D15" s="462"/>
-      <c r="E15" s="462"/>
-      <c r="F15" s="463"/>
-      <c r="G15" s="461"/>
-      <c r="H15" s="464"/>
+      <c r="A15" s="473"/>
+      <c r="B15" s="454"/>
+      <c r="C15" s="455"/>
+      <c r="D15" s="455"/>
+      <c r="E15" s="455"/>
+      <c r="F15" s="456"/>
+      <c r="G15" s="454"/>
+      <c r="H15" s="457"/>
       <c r="I15" s="121"/>
       <c r="J15" s="121"/>
       <c r="K15" s="121"/>
-      <c r="L15" s="330"/>
+      <c r="L15" s="323"/>
       <c r="M15" s="99"/>
       <c r="N15" s="122"/>
       <c r="O15" s="122"/>
-      <c r="P15" s="337"/>
+      <c r="P15" s="330"/>
       <c r="Q15" s="121"/>
       <c r="R15" s="121"/>
       <c r="S15" s="121"/>
@@ -9281,19 +9360,19 @@
       <c r="BP15" s="123"/>
     </row>
     <row r="16" spans="1:68" s="124" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="481"/>
-      <c r="B16" s="465"/>
-      <c r="C16" s="465"/>
-      <c r="D16" s="465"/>
-      <c r="E16" s="465"/>
-      <c r="F16" s="465"/>
-      <c r="G16" s="465"/>
-      <c r="H16" s="466"/>
+      <c r="A16" s="474"/>
+      <c r="B16" s="458"/>
+      <c r="C16" s="458"/>
+      <c r="D16" s="458"/>
+      <c r="E16" s="458"/>
+      <c r="F16" s="458"/>
+      <c r="G16" s="458"/>
+      <c r="H16" s="459"/>
       <c r="I16" s="121"/>
       <c r="J16" s="121"/>
       <c r="K16" s="121"/>
-      <c r="L16" s="338"/>
-      <c r="P16" s="339"/>
+      <c r="L16" s="331"/>
+      <c r="P16" s="332"/>
       <c r="Q16" s="121"/>
       <c r="R16" s="121"/>
       <c r="S16" s="121"/>
@@ -9348,19 +9427,19 @@
       <c r="BP16" s="123"/>
     </row>
     <row r="17" spans="1:68" s="124" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="482"/>
-      <c r="B17" s="461"/>
-      <c r="C17" s="462"/>
-      <c r="D17" s="462"/>
-      <c r="E17" s="462"/>
-      <c r="F17" s="463"/>
-      <c r="G17" s="461"/>
-      <c r="H17" s="464"/>
+      <c r="A17" s="475"/>
+      <c r="B17" s="454"/>
+      <c r="C17" s="455"/>
+      <c r="D17" s="455"/>
+      <c r="E17" s="455"/>
+      <c r="F17" s="456"/>
+      <c r="G17" s="454"/>
+      <c r="H17" s="457"/>
       <c r="I17" s="121"/>
       <c r="J17" s="121"/>
       <c r="K17" s="121"/>
-      <c r="L17" s="338"/>
-      <c r="P17" s="339"/>
+      <c r="L17" s="331"/>
+      <c r="P17" s="332"/>
       <c r="Q17" s="121"/>
       <c r="R17" s="121"/>
       <c r="S17" s="121"/>
@@ -9415,19 +9494,19 @@
       <c r="BP17" s="123"/>
     </row>
     <row r="18" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="478"/>
-      <c r="B18" s="452"/>
-      <c r="C18" s="452"/>
-      <c r="D18" s="452"/>
-      <c r="E18" s="452"/>
-      <c r="F18" s="452"/>
-      <c r="G18" s="452"/>
-      <c r="H18" s="453"/>
+      <c r="A18" s="471"/>
+      <c r="B18" s="445"/>
+      <c r="C18" s="445"/>
+      <c r="D18" s="445"/>
+      <c r="E18" s="445"/>
+      <c r="F18" s="445"/>
+      <c r="G18" s="445"/>
+      <c r="H18" s="446"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
-      <c r="L18" s="340"/>
-      <c r="P18" s="341"/>
+      <c r="L18" s="333"/>
+      <c r="P18" s="334"/>
       <c r="Q18" s="25"/>
       <c r="R18" s="25"/>
       <c r="S18" s="25"/>
@@ -9482,19 +9561,19 @@
       <c r="BP18" s="26"/>
     </row>
     <row r="19" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="478"/>
-      <c r="B19" s="452"/>
-      <c r="C19" s="452"/>
-      <c r="D19" s="452"/>
-      <c r="E19" s="452"/>
-      <c r="F19" s="452"/>
-      <c r="G19" s="452"/>
-      <c r="H19" s="453"/>
+      <c r="A19" s="471"/>
+      <c r="B19" s="445"/>
+      <c r="C19" s="445"/>
+      <c r="D19" s="445"/>
+      <c r="E19" s="445"/>
+      <c r="F19" s="445"/>
+      <c r="G19" s="445"/>
+      <c r="H19" s="446"/>
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
-      <c r="L19" s="340"/>
-      <c r="P19" s="341"/>
+      <c r="L19" s="333"/>
+      <c r="P19" s="334"/>
       <c r="Q19" s="25"/>
       <c r="R19" s="25"/>
       <c r="S19" s="25"/>
@@ -9549,19 +9628,19 @@
       <c r="BP19" s="26"/>
     </row>
     <row r="20" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="478"/>
-      <c r="B20" s="452"/>
-      <c r="C20" s="452"/>
-      <c r="D20" s="452"/>
-      <c r="E20" s="452"/>
-      <c r="F20" s="452"/>
-      <c r="G20" s="452"/>
-      <c r="H20" s="453"/>
+      <c r="A20" s="471"/>
+      <c r="B20" s="445"/>
+      <c r="C20" s="445"/>
+      <c r="D20" s="445"/>
+      <c r="E20" s="445"/>
+      <c r="F20" s="445"/>
+      <c r="G20" s="445"/>
+      <c r="H20" s="446"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
-      <c r="L20" s="340"/>
-      <c r="P20" s="341"/>
+      <c r="L20" s="333"/>
+      <c r="P20" s="334"/>
       <c r="Q20" s="25"/>
       <c r="R20" s="25"/>
       <c r="S20" s="25"/>
@@ -9616,19 +9695,19 @@
       <c r="BP20" s="26"/>
     </row>
     <row r="21" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="480"/>
-      <c r="B21" s="467"/>
-      <c r="C21" s="468"/>
-      <c r="D21" s="469"/>
-      <c r="E21" s="469"/>
-      <c r="F21" s="468"/>
-      <c r="G21" s="467"/>
-      <c r="H21" s="470"/>
+      <c r="A21" s="473"/>
+      <c r="B21" s="460"/>
+      <c r="C21" s="461"/>
+      <c r="D21" s="462"/>
+      <c r="E21" s="462"/>
+      <c r="F21" s="461"/>
+      <c r="G21" s="460"/>
+      <c r="H21" s="463"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
-      <c r="L21" s="340"/>
-      <c r="P21" s="341"/>
+      <c r="L21" s="333"/>
+      <c r="P21" s="334"/>
       <c r="Q21" s="25"/>
       <c r="R21" s="25"/>
       <c r="S21" s="25"/>
@@ -9683,19 +9762,19 @@
       <c r="BP21" s="26"/>
     </row>
     <row r="22" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="480"/>
-      <c r="B22" s="452"/>
-      <c r="C22" s="452"/>
-      <c r="D22" s="452"/>
-      <c r="E22" s="452"/>
-      <c r="F22" s="452"/>
-      <c r="G22" s="452"/>
-      <c r="H22" s="453"/>
+      <c r="A22" s="473"/>
+      <c r="B22" s="445"/>
+      <c r="C22" s="445"/>
+      <c r="D22" s="445"/>
+      <c r="E22" s="445"/>
+      <c r="F22" s="445"/>
+      <c r="G22" s="445"/>
+      <c r="H22" s="446"/>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
-      <c r="L22" s="340"/>
-      <c r="P22" s="341"/>
+      <c r="L22" s="333"/>
+      <c r="P22" s="334"/>
       <c r="Q22" s="25"/>
       <c r="R22" s="25"/>
       <c r="S22" s="25"/>
@@ -9750,19 +9829,19 @@
       <c r="BP22" s="26"/>
     </row>
     <row r="23" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="478"/>
-      <c r="B23" s="457"/>
-      <c r="C23" s="459"/>
-      <c r="D23" s="458"/>
-      <c r="E23" s="458"/>
-      <c r="F23" s="459"/>
-      <c r="G23" s="457"/>
-      <c r="H23" s="460"/>
+      <c r="A23" s="471"/>
+      <c r="B23" s="450"/>
+      <c r="C23" s="452"/>
+      <c r="D23" s="451"/>
+      <c r="E23" s="451"/>
+      <c r="F23" s="452"/>
+      <c r="G23" s="450"/>
+      <c r="H23" s="453"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
-      <c r="L23" s="340"/>
-      <c r="P23" s="341"/>
+      <c r="L23" s="333"/>
+      <c r="P23" s="334"/>
       <c r="Q23" s="25"/>
       <c r="R23" s="25"/>
       <c r="S23" s="25"/>
@@ -9817,19 +9896,19 @@
       <c r="BP23" s="26"/>
     </row>
     <row r="24" spans="1:68" s="124" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="480"/>
-      <c r="B24" s="471"/>
-      <c r="C24" s="471"/>
-      <c r="D24" s="471"/>
-      <c r="E24" s="471"/>
-      <c r="F24" s="471"/>
-      <c r="G24" s="471"/>
-      <c r="H24" s="472"/>
+      <c r="A24" s="473"/>
+      <c r="B24" s="464"/>
+      <c r="C24" s="464"/>
+      <c r="D24" s="464"/>
+      <c r="E24" s="464"/>
+      <c r="F24" s="464"/>
+      <c r="G24" s="464"/>
+      <c r="H24" s="465"/>
       <c r="I24" s="121"/>
       <c r="J24" s="121"/>
       <c r="K24" s="121"/>
-      <c r="L24" s="338"/>
-      <c r="P24" s="339"/>
+      <c r="L24" s="331"/>
+      <c r="P24" s="332"/>
       <c r="Q24" s="121"/>
       <c r="R24" s="121"/>
       <c r="S24" s="121"/>
@@ -9884,19 +9963,19 @@
       <c r="BP24" s="123"/>
     </row>
     <row r="25" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="478"/>
-      <c r="B25" s="452"/>
-      <c r="C25" s="452"/>
-      <c r="D25" s="452"/>
-      <c r="E25" s="452"/>
-      <c r="F25" s="452"/>
-      <c r="G25" s="452"/>
-      <c r="H25" s="453"/>
+      <c r="A25" s="471"/>
+      <c r="B25" s="445"/>
+      <c r="C25" s="445"/>
+      <c r="D25" s="445"/>
+      <c r="E25" s="445"/>
+      <c r="F25" s="445"/>
+      <c r="G25" s="445"/>
+      <c r="H25" s="446"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
-      <c r="L25" s="340"/>
-      <c r="P25" s="341"/>
+      <c r="L25" s="333"/>
+      <c r="P25" s="334"/>
       <c r="Q25" s="25"/>
       <c r="R25" s="25"/>
       <c r="S25" s="25"/>
@@ -9950,422 +10029,422 @@
       <c r="BO25" s="25"/>
       <c r="BP25" s="26"/>
     </row>
-    <row r="26" spans="1:68" s="344" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="478"/>
-      <c r="B26" s="452"/>
-      <c r="C26" s="452"/>
-      <c r="D26" s="452"/>
-      <c r="E26" s="452"/>
-      <c r="F26" s="452"/>
-      <c r="G26" s="452"/>
-      <c r="H26" s="453"/>
-      <c r="I26" s="342"/>
-      <c r="J26" s="342"/>
-      <c r="K26" s="342"/>
-      <c r="L26" s="343"/>
-      <c r="P26" s="345"/>
-      <c r="Q26" s="342"/>
-      <c r="R26" s="342"/>
-      <c r="S26" s="342"/>
-      <c r="T26" s="342"/>
-      <c r="U26" s="342"/>
-      <c r="V26" s="342"/>
-      <c r="W26" s="342"/>
-      <c r="X26" s="342"/>
-      <c r="Y26" s="342"/>
-      <c r="Z26" s="342"/>
-      <c r="AA26" s="342"/>
-      <c r="AB26" s="342"/>
-      <c r="AC26" s="342"/>
-      <c r="AD26" s="342"/>
-      <c r="AE26" s="342"/>
-      <c r="AF26" s="342"/>
-      <c r="AG26" s="342"/>
-      <c r="AH26" s="342"/>
-      <c r="AI26" s="342"/>
-      <c r="AJ26" s="342"/>
-      <c r="AK26" s="342"/>
-      <c r="AL26" s="342"/>
-      <c r="AM26" s="342"/>
-      <c r="AN26" s="342"/>
-      <c r="AO26" s="342"/>
-      <c r="AP26" s="342"/>
-      <c r="AQ26" s="342"/>
-      <c r="AR26" s="342"/>
-      <c r="AS26" s="342"/>
-      <c r="AT26" s="342"/>
-      <c r="AU26" s="342"/>
-      <c r="AV26" s="342"/>
-      <c r="AW26" s="342"/>
-      <c r="AX26" s="342"/>
-      <c r="AY26" s="342"/>
-      <c r="AZ26" s="342"/>
-      <c r="BA26" s="342"/>
-      <c r="BB26" s="342"/>
-      <c r="BC26" s="342"/>
-      <c r="BD26" s="342"/>
-      <c r="BE26" s="342"/>
-      <c r="BF26" s="342"/>
-      <c r="BG26" s="342"/>
-      <c r="BH26" s="342"/>
-      <c r="BI26" s="342"/>
-      <c r="BJ26" s="342"/>
-      <c r="BK26" s="342"/>
-      <c r="BL26" s="342"/>
-      <c r="BM26" s="342"/>
-      <c r="BN26" s="342"/>
-      <c r="BO26" s="342"/>
-      <c r="BP26" s="346"/>
-    </row>
-    <row r="27" spans="1:68" s="344" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="483"/>
-      <c r="B27" s="457"/>
-      <c r="C27" s="458"/>
-      <c r="D27" s="458"/>
-      <c r="E27" s="458"/>
-      <c r="F27" s="459"/>
-      <c r="G27" s="457"/>
-      <c r="H27" s="460"/>
-      <c r="I27" s="342"/>
-      <c r="J27" s="342"/>
-      <c r="K27" s="342"/>
-      <c r="L27" s="343"/>
-      <c r="P27" s="345"/>
-      <c r="Q27" s="342"/>
-      <c r="R27" s="342"/>
-      <c r="S27" s="342"/>
-      <c r="T27" s="342"/>
-      <c r="U27" s="342"/>
-      <c r="V27" s="342"/>
-      <c r="W27" s="342"/>
-      <c r="X27" s="342"/>
-      <c r="Y27" s="342"/>
-      <c r="Z27" s="342"/>
-      <c r="AA27" s="342"/>
-      <c r="AB27" s="342"/>
-      <c r="AC27" s="342"/>
-      <c r="AD27" s="342"/>
-      <c r="AE27" s="342"/>
-      <c r="AF27" s="342"/>
-      <c r="AG27" s="342"/>
-      <c r="AH27" s="342"/>
-      <c r="AI27" s="342"/>
-      <c r="AJ27" s="342"/>
-      <c r="AK27" s="342"/>
-      <c r="AL27" s="342"/>
-      <c r="AM27" s="342"/>
-      <c r="AN27" s="342"/>
-      <c r="AO27" s="342"/>
-      <c r="AP27" s="342"/>
-      <c r="AQ27" s="342"/>
-      <c r="AR27" s="342"/>
-      <c r="AS27" s="342"/>
-      <c r="AT27" s="342"/>
-      <c r="AU27" s="342"/>
-      <c r="AV27" s="342"/>
-      <c r="AW27" s="342"/>
-      <c r="AX27" s="342"/>
-      <c r="AY27" s="342"/>
-      <c r="AZ27" s="342"/>
-      <c r="BA27" s="342"/>
-      <c r="BB27" s="342"/>
-      <c r="BC27" s="342"/>
-      <c r="BD27" s="342"/>
-      <c r="BE27" s="342"/>
-      <c r="BF27" s="342"/>
-      <c r="BG27" s="342"/>
-      <c r="BH27" s="342"/>
-      <c r="BI27" s="342"/>
-      <c r="BJ27" s="342"/>
-      <c r="BK27" s="342"/>
-      <c r="BL27" s="342"/>
-      <c r="BM27" s="342"/>
-      <c r="BN27" s="342"/>
-      <c r="BO27" s="342"/>
-      <c r="BP27" s="346"/>
-    </row>
-    <row r="28" spans="1:68" s="344" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="484"/>
-      <c r="B28" s="457"/>
-      <c r="C28" s="458"/>
-      <c r="D28" s="458"/>
-      <c r="E28" s="458"/>
-      <c r="F28" s="459"/>
-      <c r="G28" s="457"/>
-      <c r="H28" s="460"/>
-      <c r="I28" s="342"/>
-      <c r="J28" s="342"/>
-      <c r="K28" s="342"/>
-      <c r="L28" s="343"/>
-      <c r="P28" s="345"/>
-      <c r="Q28" s="342"/>
-      <c r="R28" s="342"/>
-      <c r="S28" s="342"/>
-      <c r="T28" s="342"/>
-      <c r="U28" s="342"/>
-      <c r="V28" s="342"/>
-      <c r="W28" s="342"/>
-      <c r="X28" s="342"/>
-      <c r="Y28" s="342"/>
-      <c r="Z28" s="342"/>
-      <c r="AA28" s="342"/>
-      <c r="AB28" s="342"/>
-      <c r="AC28" s="342"/>
-      <c r="AD28" s="342"/>
-      <c r="AE28" s="342"/>
-      <c r="AF28" s="342"/>
-      <c r="AG28" s="342"/>
-      <c r="AH28" s="342"/>
-      <c r="AI28" s="342"/>
-      <c r="AJ28" s="342"/>
-      <c r="AK28" s="342"/>
-      <c r="AL28" s="342"/>
-      <c r="AM28" s="342"/>
-      <c r="AN28" s="342"/>
-      <c r="AO28" s="342"/>
-      <c r="AP28" s="342"/>
-      <c r="AQ28" s="342"/>
-      <c r="AR28" s="342"/>
-      <c r="AS28" s="342"/>
-      <c r="AT28" s="342"/>
-      <c r="AU28" s="342"/>
-      <c r="AV28" s="342"/>
-      <c r="AW28" s="342"/>
-      <c r="AX28" s="342"/>
-      <c r="AY28" s="342"/>
-      <c r="AZ28" s="342"/>
-      <c r="BA28" s="342"/>
-      <c r="BB28" s="342"/>
-      <c r="BC28" s="342"/>
-      <c r="BD28" s="342"/>
-      <c r="BE28" s="342"/>
-      <c r="BF28" s="342"/>
-      <c r="BG28" s="342"/>
-      <c r="BH28" s="342"/>
-      <c r="BI28" s="342"/>
-      <c r="BJ28" s="342"/>
-      <c r="BK28" s="342"/>
-      <c r="BL28" s="342"/>
-      <c r="BM28" s="342"/>
-      <c r="BN28" s="342"/>
-      <c r="BO28" s="342"/>
-      <c r="BP28" s="346"/>
-    </row>
-    <row r="29" spans="1:68" s="344" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="484"/>
-      <c r="B29" s="457"/>
-      <c r="C29" s="458"/>
-      <c r="D29" s="458"/>
-      <c r="E29" s="458"/>
-      <c r="F29" s="459"/>
-      <c r="G29" s="457"/>
-      <c r="H29" s="460"/>
-      <c r="I29" s="342"/>
-      <c r="J29" s="342"/>
-      <c r="K29" s="342"/>
-      <c r="L29" s="343"/>
-      <c r="P29" s="345"/>
-      <c r="Q29" s="342"/>
-      <c r="R29" s="342"/>
-      <c r="S29" s="342"/>
-      <c r="T29" s="342"/>
-      <c r="U29" s="342"/>
-      <c r="V29" s="342"/>
-      <c r="W29" s="342"/>
-      <c r="X29" s="342"/>
-      <c r="Y29" s="342"/>
-      <c r="Z29" s="342"/>
-      <c r="AA29" s="342"/>
-      <c r="AB29" s="342"/>
-      <c r="AC29" s="342"/>
-      <c r="AD29" s="342"/>
-      <c r="AE29" s="342"/>
-      <c r="AF29" s="342"/>
-      <c r="AG29" s="342"/>
-      <c r="AH29" s="342"/>
-      <c r="AI29" s="342"/>
-      <c r="AJ29" s="342"/>
-      <c r="AK29" s="342"/>
-      <c r="AL29" s="342"/>
-      <c r="AM29" s="342"/>
-      <c r="AN29" s="342"/>
-      <c r="AO29" s="342"/>
-      <c r="AP29" s="342"/>
-      <c r="AQ29" s="342"/>
-      <c r="AR29" s="342"/>
-      <c r="AS29" s="342"/>
-      <c r="AT29" s="342"/>
-      <c r="AU29" s="342"/>
-      <c r="AV29" s="342"/>
-      <c r="AW29" s="342"/>
-      <c r="AX29" s="342"/>
-      <c r="AY29" s="342"/>
-      <c r="AZ29" s="342"/>
-      <c r="BA29" s="342"/>
-      <c r="BB29" s="342"/>
-      <c r="BC29" s="342"/>
-      <c r="BD29" s="342"/>
-      <c r="BE29" s="342"/>
-      <c r="BF29" s="342"/>
-      <c r="BG29" s="342"/>
-      <c r="BH29" s="342"/>
-      <c r="BI29" s="342"/>
-      <c r="BJ29" s="342"/>
-      <c r="BK29" s="342"/>
-      <c r="BL29" s="342"/>
-      <c r="BM29" s="342"/>
-      <c r="BN29" s="342"/>
-      <c r="BO29" s="342"/>
-      <c r="BP29" s="346"/>
-    </row>
-    <row r="30" spans="1:68" s="344" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="484"/>
-      <c r="B30" s="457"/>
-      <c r="C30" s="458"/>
-      <c r="D30" s="458"/>
-      <c r="E30" s="458"/>
-      <c r="F30" s="459"/>
-      <c r="G30" s="457"/>
-      <c r="H30" s="460"/>
-      <c r="I30" s="342"/>
-      <c r="J30" s="342"/>
-      <c r="K30" s="342"/>
-      <c r="L30" s="343"/>
-      <c r="P30" s="345"/>
-      <c r="Q30" s="342"/>
-      <c r="R30" s="342"/>
-      <c r="S30" s="342"/>
-      <c r="T30" s="342"/>
-      <c r="U30" s="342"/>
-      <c r="V30" s="342"/>
-      <c r="W30" s="342"/>
-      <c r="X30" s="342"/>
-      <c r="Y30" s="342"/>
-      <c r="Z30" s="342"/>
-      <c r="AA30" s="342"/>
-      <c r="AB30" s="342"/>
-      <c r="AC30" s="342"/>
-      <c r="AD30" s="342"/>
-      <c r="AE30" s="342"/>
-      <c r="AF30" s="342"/>
-      <c r="AG30" s="342"/>
-      <c r="AH30" s="342"/>
-      <c r="AI30" s="342"/>
-      <c r="AJ30" s="342"/>
-      <c r="AK30" s="342"/>
-      <c r="AL30" s="342"/>
-      <c r="AM30" s="342"/>
-      <c r="AN30" s="342"/>
-      <c r="AO30" s="342"/>
-      <c r="AP30" s="342"/>
-      <c r="AQ30" s="342"/>
-      <c r="AR30" s="342"/>
-      <c r="AS30" s="342"/>
-      <c r="AT30" s="342"/>
-      <c r="AU30" s="342"/>
-      <c r="AV30" s="342"/>
-      <c r="AW30" s="342"/>
-      <c r="AX30" s="342"/>
-      <c r="AY30" s="342"/>
-      <c r="AZ30" s="342"/>
-      <c r="BA30" s="342"/>
-      <c r="BB30" s="342"/>
-      <c r="BC30" s="342"/>
-      <c r="BD30" s="342"/>
-      <c r="BE30" s="342"/>
-      <c r="BF30" s="342"/>
-      <c r="BG30" s="342"/>
-      <c r="BH30" s="342"/>
-      <c r="BI30" s="342"/>
-      <c r="BJ30" s="342"/>
-      <c r="BK30" s="342"/>
-      <c r="BL30" s="342"/>
-      <c r="BM30" s="342"/>
-      <c r="BN30" s="342"/>
-      <c r="BO30" s="342"/>
-      <c r="BP30" s="346"/>
-    </row>
-    <row r="31" spans="1:68" s="344" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="484"/>
-      <c r="B31" s="457"/>
-      <c r="C31" s="458"/>
-      <c r="D31" s="458"/>
-      <c r="E31" s="458"/>
-      <c r="F31" s="459"/>
-      <c r="G31" s="457"/>
-      <c r="H31" s="460"/>
-      <c r="I31" s="342"/>
-      <c r="J31" s="342"/>
-      <c r="K31" s="342"/>
-      <c r="L31" s="343"/>
-      <c r="P31" s="345"/>
-      <c r="Q31" s="342"/>
-      <c r="R31" s="342"/>
-      <c r="S31" s="342"/>
-      <c r="T31" s="342"/>
-      <c r="U31" s="342"/>
-      <c r="V31" s="342"/>
-      <c r="W31" s="342"/>
-      <c r="X31" s="342"/>
-      <c r="Y31" s="342"/>
-      <c r="Z31" s="342"/>
-      <c r="AA31" s="342"/>
-      <c r="AB31" s="342"/>
-      <c r="AC31" s="342"/>
-      <c r="AD31" s="342"/>
-      <c r="AE31" s="342"/>
-      <c r="AF31" s="342"/>
-      <c r="AG31" s="342"/>
-      <c r="AH31" s="342"/>
-      <c r="AI31" s="342"/>
-      <c r="AJ31" s="342"/>
-      <c r="AK31" s="342"/>
-      <c r="AL31" s="342"/>
-      <c r="AM31" s="342"/>
-      <c r="AN31" s="342"/>
-      <c r="AO31" s="342"/>
-      <c r="AP31" s="342"/>
-      <c r="AQ31" s="342"/>
-      <c r="AR31" s="342"/>
-      <c r="AS31" s="342"/>
-      <c r="AT31" s="342"/>
-      <c r="AU31" s="342"/>
-      <c r="AV31" s="342"/>
-      <c r="AW31" s="342"/>
-      <c r="AX31" s="342"/>
-      <c r="AY31" s="342"/>
-      <c r="AZ31" s="342"/>
-      <c r="BA31" s="342"/>
-      <c r="BB31" s="342"/>
-      <c r="BC31" s="342"/>
-      <c r="BD31" s="342"/>
-      <c r="BE31" s="342"/>
-      <c r="BF31" s="342"/>
-      <c r="BG31" s="342"/>
-      <c r="BH31" s="342"/>
-      <c r="BI31" s="342"/>
-      <c r="BJ31" s="342"/>
-      <c r="BK31" s="342"/>
-      <c r="BL31" s="342"/>
-      <c r="BM31" s="342"/>
-      <c r="BN31" s="342"/>
-      <c r="BO31" s="342"/>
-      <c r="BP31" s="346"/>
+    <row r="26" spans="1:68" s="337" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="471"/>
+      <c r="B26" s="445"/>
+      <c r="C26" s="445"/>
+      <c r="D26" s="445"/>
+      <c r="E26" s="445"/>
+      <c r="F26" s="445"/>
+      <c r="G26" s="445"/>
+      <c r="H26" s="446"/>
+      <c r="I26" s="335"/>
+      <c r="J26" s="335"/>
+      <c r="K26" s="335"/>
+      <c r="L26" s="336"/>
+      <c r="P26" s="338"/>
+      <c r="Q26" s="335"/>
+      <c r="R26" s="335"/>
+      <c r="S26" s="335"/>
+      <c r="T26" s="335"/>
+      <c r="U26" s="335"/>
+      <c r="V26" s="335"/>
+      <c r="W26" s="335"/>
+      <c r="X26" s="335"/>
+      <c r="Y26" s="335"/>
+      <c r="Z26" s="335"/>
+      <c r="AA26" s="335"/>
+      <c r="AB26" s="335"/>
+      <c r="AC26" s="335"/>
+      <c r="AD26" s="335"/>
+      <c r="AE26" s="335"/>
+      <c r="AF26" s="335"/>
+      <c r="AG26" s="335"/>
+      <c r="AH26" s="335"/>
+      <c r="AI26" s="335"/>
+      <c r="AJ26" s="335"/>
+      <c r="AK26" s="335"/>
+      <c r="AL26" s="335"/>
+      <c r="AM26" s="335"/>
+      <c r="AN26" s="335"/>
+      <c r="AO26" s="335"/>
+      <c r="AP26" s="335"/>
+      <c r="AQ26" s="335"/>
+      <c r="AR26" s="335"/>
+      <c r="AS26" s="335"/>
+      <c r="AT26" s="335"/>
+      <c r="AU26" s="335"/>
+      <c r="AV26" s="335"/>
+      <c r="AW26" s="335"/>
+      <c r="AX26" s="335"/>
+      <c r="AY26" s="335"/>
+      <c r="AZ26" s="335"/>
+      <c r="BA26" s="335"/>
+      <c r="BB26" s="335"/>
+      <c r="BC26" s="335"/>
+      <c r="BD26" s="335"/>
+      <c r="BE26" s="335"/>
+      <c r="BF26" s="335"/>
+      <c r="BG26" s="335"/>
+      <c r="BH26" s="335"/>
+      <c r="BI26" s="335"/>
+      <c r="BJ26" s="335"/>
+      <c r="BK26" s="335"/>
+      <c r="BL26" s="335"/>
+      <c r="BM26" s="335"/>
+      <c r="BN26" s="335"/>
+      <c r="BO26" s="335"/>
+      <c r="BP26" s="339"/>
+    </row>
+    <row r="27" spans="1:68" s="337" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="476"/>
+      <c r="B27" s="450"/>
+      <c r="C27" s="451"/>
+      <c r="D27" s="451"/>
+      <c r="E27" s="451"/>
+      <c r="F27" s="452"/>
+      <c r="G27" s="450"/>
+      <c r="H27" s="453"/>
+      <c r="I27" s="335"/>
+      <c r="J27" s="335"/>
+      <c r="K27" s="335"/>
+      <c r="L27" s="336"/>
+      <c r="P27" s="338"/>
+      <c r="Q27" s="335"/>
+      <c r="R27" s="335"/>
+      <c r="S27" s="335"/>
+      <c r="T27" s="335"/>
+      <c r="U27" s="335"/>
+      <c r="V27" s="335"/>
+      <c r="W27" s="335"/>
+      <c r="X27" s="335"/>
+      <c r="Y27" s="335"/>
+      <c r="Z27" s="335"/>
+      <c r="AA27" s="335"/>
+      <c r="AB27" s="335"/>
+      <c r="AC27" s="335"/>
+      <c r="AD27" s="335"/>
+      <c r="AE27" s="335"/>
+      <c r="AF27" s="335"/>
+      <c r="AG27" s="335"/>
+      <c r="AH27" s="335"/>
+      <c r="AI27" s="335"/>
+      <c r="AJ27" s="335"/>
+      <c r="AK27" s="335"/>
+      <c r="AL27" s="335"/>
+      <c r="AM27" s="335"/>
+      <c r="AN27" s="335"/>
+      <c r="AO27" s="335"/>
+      <c r="AP27" s="335"/>
+      <c r="AQ27" s="335"/>
+      <c r="AR27" s="335"/>
+      <c r="AS27" s="335"/>
+      <c r="AT27" s="335"/>
+      <c r="AU27" s="335"/>
+      <c r="AV27" s="335"/>
+      <c r="AW27" s="335"/>
+      <c r="AX27" s="335"/>
+      <c r="AY27" s="335"/>
+      <c r="AZ27" s="335"/>
+      <c r="BA27" s="335"/>
+      <c r="BB27" s="335"/>
+      <c r="BC27" s="335"/>
+      <c r="BD27" s="335"/>
+      <c r="BE27" s="335"/>
+      <c r="BF27" s="335"/>
+      <c r="BG27" s="335"/>
+      <c r="BH27" s="335"/>
+      <c r="BI27" s="335"/>
+      <c r="BJ27" s="335"/>
+      <c r="BK27" s="335"/>
+      <c r="BL27" s="335"/>
+      <c r="BM27" s="335"/>
+      <c r="BN27" s="335"/>
+      <c r="BO27" s="335"/>
+      <c r="BP27" s="339"/>
+    </row>
+    <row r="28" spans="1:68" s="337" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="477"/>
+      <c r="B28" s="450"/>
+      <c r="C28" s="451"/>
+      <c r="D28" s="451"/>
+      <c r="E28" s="451"/>
+      <c r="F28" s="452"/>
+      <c r="G28" s="450"/>
+      <c r="H28" s="453"/>
+      <c r="I28" s="335"/>
+      <c r="J28" s="335"/>
+      <c r="K28" s="335"/>
+      <c r="L28" s="336"/>
+      <c r="P28" s="338"/>
+      <c r="Q28" s="335"/>
+      <c r="R28" s="335"/>
+      <c r="S28" s="335"/>
+      <c r="T28" s="335"/>
+      <c r="U28" s="335"/>
+      <c r="V28" s="335"/>
+      <c r="W28" s="335"/>
+      <c r="X28" s="335"/>
+      <c r="Y28" s="335"/>
+      <c r="Z28" s="335"/>
+      <c r="AA28" s="335"/>
+      <c r="AB28" s="335"/>
+      <c r="AC28" s="335"/>
+      <c r="AD28" s="335"/>
+      <c r="AE28" s="335"/>
+      <c r="AF28" s="335"/>
+      <c r="AG28" s="335"/>
+      <c r="AH28" s="335"/>
+      <c r="AI28" s="335"/>
+      <c r="AJ28" s="335"/>
+      <c r="AK28" s="335"/>
+      <c r="AL28" s="335"/>
+      <c r="AM28" s="335"/>
+      <c r="AN28" s="335"/>
+      <c r="AO28" s="335"/>
+      <c r="AP28" s="335"/>
+      <c r="AQ28" s="335"/>
+      <c r="AR28" s="335"/>
+      <c r="AS28" s="335"/>
+      <c r="AT28" s="335"/>
+      <c r="AU28" s="335"/>
+      <c r="AV28" s="335"/>
+      <c r="AW28" s="335"/>
+      <c r="AX28" s="335"/>
+      <c r="AY28" s="335"/>
+      <c r="AZ28" s="335"/>
+      <c r="BA28" s="335"/>
+      <c r="BB28" s="335"/>
+      <c r="BC28" s="335"/>
+      <c r="BD28" s="335"/>
+      <c r="BE28" s="335"/>
+      <c r="BF28" s="335"/>
+      <c r="BG28" s="335"/>
+      <c r="BH28" s="335"/>
+      <c r="BI28" s="335"/>
+      <c r="BJ28" s="335"/>
+      <c r="BK28" s="335"/>
+      <c r="BL28" s="335"/>
+      <c r="BM28" s="335"/>
+      <c r="BN28" s="335"/>
+      <c r="BO28" s="335"/>
+      <c r="BP28" s="339"/>
+    </row>
+    <row r="29" spans="1:68" s="337" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="477"/>
+      <c r="B29" s="450"/>
+      <c r="C29" s="451"/>
+      <c r="D29" s="451"/>
+      <c r="E29" s="451"/>
+      <c r="F29" s="452"/>
+      <c r="G29" s="450"/>
+      <c r="H29" s="453"/>
+      <c r="I29" s="335"/>
+      <c r="J29" s="335"/>
+      <c r="K29" s="335"/>
+      <c r="L29" s="336"/>
+      <c r="P29" s="338"/>
+      <c r="Q29" s="335"/>
+      <c r="R29" s="335"/>
+      <c r="S29" s="335"/>
+      <c r="T29" s="335"/>
+      <c r="U29" s="335"/>
+      <c r="V29" s="335"/>
+      <c r="W29" s="335"/>
+      <c r="X29" s="335"/>
+      <c r="Y29" s="335"/>
+      <c r="Z29" s="335"/>
+      <c r="AA29" s="335"/>
+      <c r="AB29" s="335"/>
+      <c r="AC29" s="335"/>
+      <c r="AD29" s="335"/>
+      <c r="AE29" s="335"/>
+      <c r="AF29" s="335"/>
+      <c r="AG29" s="335"/>
+      <c r="AH29" s="335"/>
+      <c r="AI29" s="335"/>
+      <c r="AJ29" s="335"/>
+      <c r="AK29" s="335"/>
+      <c r="AL29" s="335"/>
+      <c r="AM29" s="335"/>
+      <c r="AN29" s="335"/>
+      <c r="AO29" s="335"/>
+      <c r="AP29" s="335"/>
+      <c r="AQ29" s="335"/>
+      <c r="AR29" s="335"/>
+      <c r="AS29" s="335"/>
+      <c r="AT29" s="335"/>
+      <c r="AU29" s="335"/>
+      <c r="AV29" s="335"/>
+      <c r="AW29" s="335"/>
+      <c r="AX29" s="335"/>
+      <c r="AY29" s="335"/>
+      <c r="AZ29" s="335"/>
+      <c r="BA29" s="335"/>
+      <c r="BB29" s="335"/>
+      <c r="BC29" s="335"/>
+      <c r="BD29" s="335"/>
+      <c r="BE29" s="335"/>
+      <c r="BF29" s="335"/>
+      <c r="BG29" s="335"/>
+      <c r="BH29" s="335"/>
+      <c r="BI29" s="335"/>
+      <c r="BJ29" s="335"/>
+      <c r="BK29" s="335"/>
+      <c r="BL29" s="335"/>
+      <c r="BM29" s="335"/>
+      <c r="BN29" s="335"/>
+      <c r="BO29" s="335"/>
+      <c r="BP29" s="339"/>
+    </row>
+    <row r="30" spans="1:68" s="337" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="477"/>
+      <c r="B30" s="450"/>
+      <c r="C30" s="451"/>
+      <c r="D30" s="451"/>
+      <c r="E30" s="451"/>
+      <c r="F30" s="452"/>
+      <c r="G30" s="450"/>
+      <c r="H30" s="453"/>
+      <c r="I30" s="335"/>
+      <c r="J30" s="335"/>
+      <c r="K30" s="335"/>
+      <c r="L30" s="336"/>
+      <c r="P30" s="338"/>
+      <c r="Q30" s="335"/>
+      <c r="R30" s="335"/>
+      <c r="S30" s="335"/>
+      <c r="T30" s="335"/>
+      <c r="U30" s="335"/>
+      <c r="V30" s="335"/>
+      <c r="W30" s="335"/>
+      <c r="X30" s="335"/>
+      <c r="Y30" s="335"/>
+      <c r="Z30" s="335"/>
+      <c r="AA30" s="335"/>
+      <c r="AB30" s="335"/>
+      <c r="AC30" s="335"/>
+      <c r="AD30" s="335"/>
+      <c r="AE30" s="335"/>
+      <c r="AF30" s="335"/>
+      <c r="AG30" s="335"/>
+      <c r="AH30" s="335"/>
+      <c r="AI30" s="335"/>
+      <c r="AJ30" s="335"/>
+      <c r="AK30" s="335"/>
+      <c r="AL30" s="335"/>
+      <c r="AM30" s="335"/>
+      <c r="AN30" s="335"/>
+      <c r="AO30" s="335"/>
+      <c r="AP30" s="335"/>
+      <c r="AQ30" s="335"/>
+      <c r="AR30" s="335"/>
+      <c r="AS30" s="335"/>
+      <c r="AT30" s="335"/>
+      <c r="AU30" s="335"/>
+      <c r="AV30" s="335"/>
+      <c r="AW30" s="335"/>
+      <c r="AX30" s="335"/>
+      <c r="AY30" s="335"/>
+      <c r="AZ30" s="335"/>
+      <c r="BA30" s="335"/>
+      <c r="BB30" s="335"/>
+      <c r="BC30" s="335"/>
+      <c r="BD30" s="335"/>
+      <c r="BE30" s="335"/>
+      <c r="BF30" s="335"/>
+      <c r="BG30" s="335"/>
+      <c r="BH30" s="335"/>
+      <c r="BI30" s="335"/>
+      <c r="BJ30" s="335"/>
+      <c r="BK30" s="335"/>
+      <c r="BL30" s="335"/>
+      <c r="BM30" s="335"/>
+      <c r="BN30" s="335"/>
+      <c r="BO30" s="335"/>
+      <c r="BP30" s="339"/>
+    </row>
+    <row r="31" spans="1:68" s="337" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="477"/>
+      <c r="B31" s="450"/>
+      <c r="C31" s="451"/>
+      <c r="D31" s="451"/>
+      <c r="E31" s="451"/>
+      <c r="F31" s="452"/>
+      <c r="G31" s="450"/>
+      <c r="H31" s="453"/>
+      <c r="I31" s="335"/>
+      <c r="J31" s="335"/>
+      <c r="K31" s="335"/>
+      <c r="L31" s="336"/>
+      <c r="P31" s="338"/>
+      <c r="Q31" s="335"/>
+      <c r="R31" s="335"/>
+      <c r="S31" s="335"/>
+      <c r="T31" s="335"/>
+      <c r="U31" s="335"/>
+      <c r="V31" s="335"/>
+      <c r="W31" s="335"/>
+      <c r="X31" s="335"/>
+      <c r="Y31" s="335"/>
+      <c r="Z31" s="335"/>
+      <c r="AA31" s="335"/>
+      <c r="AB31" s="335"/>
+      <c r="AC31" s="335"/>
+      <c r="AD31" s="335"/>
+      <c r="AE31" s="335"/>
+      <c r="AF31" s="335"/>
+      <c r="AG31" s="335"/>
+      <c r="AH31" s="335"/>
+      <c r="AI31" s="335"/>
+      <c r="AJ31" s="335"/>
+      <c r="AK31" s="335"/>
+      <c r="AL31" s="335"/>
+      <c r="AM31" s="335"/>
+      <c r="AN31" s="335"/>
+      <c r="AO31" s="335"/>
+      <c r="AP31" s="335"/>
+      <c r="AQ31" s="335"/>
+      <c r="AR31" s="335"/>
+      <c r="AS31" s="335"/>
+      <c r="AT31" s="335"/>
+      <c r="AU31" s="335"/>
+      <c r="AV31" s="335"/>
+      <c r="AW31" s="335"/>
+      <c r="AX31" s="335"/>
+      <c r="AY31" s="335"/>
+      <c r="AZ31" s="335"/>
+      <c r="BA31" s="335"/>
+      <c r="BB31" s="335"/>
+      <c r="BC31" s="335"/>
+      <c r="BD31" s="335"/>
+      <c r="BE31" s="335"/>
+      <c r="BF31" s="335"/>
+      <c r="BG31" s="335"/>
+      <c r="BH31" s="335"/>
+      <c r="BI31" s="335"/>
+      <c r="BJ31" s="335"/>
+      <c r="BK31" s="335"/>
+      <c r="BL31" s="335"/>
+      <c r="BM31" s="335"/>
+      <c r="BN31" s="335"/>
+      <c r="BO31" s="335"/>
+      <c r="BP31" s="339"/>
     </row>
     <row r="32" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="478"/>
-      <c r="B32" s="452"/>
-      <c r="C32" s="452"/>
-      <c r="D32" s="452"/>
-      <c r="E32" s="452"/>
-      <c r="F32" s="452"/>
-      <c r="G32" s="452"/>
-      <c r="H32" s="453"/>
+      <c r="A32" s="471"/>
+      <c r="B32" s="445"/>
+      <c r="C32" s="445"/>
+      <c r="D32" s="445"/>
+      <c r="E32" s="445"/>
+      <c r="F32" s="445"/>
+      <c r="G32" s="445"/>
+      <c r="H32" s="446"/>
       <c r="I32" s="25"/>
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
-      <c r="L32" s="340"/>
-      <c r="P32" s="341"/>
+      <c r="L32" s="333"/>
+      <c r="P32" s="334"/>
       <c r="Q32" s="25"/>
       <c r="R32" s="25"/>
       <c r="S32" s="25"/>
@@ -10420,19 +10499,19 @@
       <c r="BP32" s="26"/>
     </row>
     <row r="33" spans="1:68" s="124" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="485"/>
-      <c r="B33" s="471"/>
-      <c r="C33" s="471"/>
-      <c r="D33" s="468"/>
-      <c r="E33" s="468"/>
-      <c r="F33" s="473"/>
-      <c r="G33" s="473"/>
-      <c r="H33" s="472"/>
+      <c r="A33" s="478"/>
+      <c r="B33" s="464"/>
+      <c r="C33" s="464"/>
+      <c r="D33" s="461"/>
+      <c r="E33" s="461"/>
+      <c r="F33" s="466"/>
+      <c r="G33" s="466"/>
+      <c r="H33" s="465"/>
       <c r="I33" s="121"/>
       <c r="J33" s="121"/>
       <c r="K33" s="121"/>
-      <c r="L33" s="338"/>
-      <c r="P33" s="339"/>
+      <c r="L33" s="331"/>
+      <c r="P33" s="332"/>
       <c r="Q33" s="121"/>
       <c r="R33" s="121"/>
       <c r="S33" s="121"/>
@@ -10487,22 +10566,22 @@
       <c r="BP33" s="123"/>
     </row>
     <row r="34" spans="1:68" s="10" customFormat="1" ht="46.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="486"/>
-      <c r="B34" s="474"/>
-      <c r="C34" s="475"/>
-      <c r="D34" s="475"/>
-      <c r="E34" s="475"/>
-      <c r="F34" s="475"/>
-      <c r="G34" s="474"/>
-      <c r="H34" s="476"/>
+      <c r="A34" s="479"/>
+      <c r="B34" s="467"/>
+      <c r="C34" s="468"/>
+      <c r="D34" s="468"/>
+      <c r="E34" s="468"/>
+      <c r="F34" s="468"/>
+      <c r="G34" s="467"/>
+      <c r="H34" s="469"/>
       <c r="I34" s="25"/>
       <c r="J34" s="25"/>
       <c r="K34" s="25"/>
-      <c r="L34" s="347"/>
-      <c r="M34" s="348"/>
-      <c r="N34" s="348"/>
-      <c r="O34" s="348"/>
-      <c r="P34" s="349"/>
+      <c r="L34" s="340"/>
+      <c r="M34" s="341"/>
+      <c r="N34" s="341"/>
+      <c r="O34" s="341"/>
+      <c r="P34" s="342"/>
       <c r="Q34" s="25"/>
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
@@ -10558,19 +10637,19 @@
     </row>
     <row r="35" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="188"/>
-      <c r="B35" s="366"/>
+      <c r="B35" s="359"/>
       <c r="C35" s="188"/>
       <c r="D35" s="188"/>
       <c r="E35" s="188"/>
       <c r="F35" s="189"/>
-      <c r="G35" s="367"/>
-      <c r="H35" s="367"/>
+      <c r="G35" s="360"/>
+      <c r="H35" s="360"/>
     </row>
     <row r="36" spans="1:68" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="487" t="s">
+      <c r="A36" s="480" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="350">
+      <c r="B36" s="343">
         <f>COUNTA(B7:B34)</f>
         <v>0</v>
       </c>
@@ -10605,7 +10684,7 @@
   </sheetPr>
   <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -10645,14 +10724,14 @@
       <c r="N1" s="12"/>
     </row>
     <row r="2" spans="1:20" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="529"/>
-      <c r="B2" s="529"/>
-      <c r="C2" s="529"/>
-      <c r="D2" s="530"/>
-      <c r="E2" s="530"/>
-      <c r="F2" s="530"/>
-      <c r="G2" s="529"/>
-      <c r="H2" s="529"/>
+      <c r="A2" s="522"/>
+      <c r="B2" s="522"/>
+      <c r="C2" s="522"/>
+      <c r="D2" s="523"/>
+      <c r="E2" s="523"/>
+      <c r="F2" s="523"/>
+      <c r="G2" s="522"/>
+      <c r="H2" s="522"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
@@ -10667,16 +10746,16 @@
       <c r="T2" s="12"/>
     </row>
     <row r="3" spans="1:20" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="529"/>
-      <c r="B3" s="529"/>
-      <c r="C3" s="529"/>
-      <c r="D3" s="530" t="s">
+      <c r="A3" s="522"/>
+      <c r="B3" s="522"/>
+      <c r="C3" s="522"/>
+      <c r="D3" s="523" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="530"/>
-      <c r="F3" s="530"/>
-      <c r="G3" s="529"/>
-      <c r="H3" s="529"/>
+      <c r="E3" s="523"/>
+      <c r="F3" s="523"/>
+      <c r="G3" s="522"/>
+      <c r="H3" s="522"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
@@ -10691,14 +10770,14 @@
       <c r="T3" s="12"/>
     </row>
     <row r="4" spans="1:20" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="529"/>
-      <c r="B4" s="529"/>
-      <c r="C4" s="529"/>
-      <c r="D4" s="530"/>
-      <c r="E4" s="530"/>
-      <c r="F4" s="530"/>
-      <c r="G4" s="529"/>
-      <c r="H4" s="529"/>
+      <c r="A4" s="522"/>
+      <c r="B4" s="522"/>
+      <c r="C4" s="522"/>
+      <c r="D4" s="523"/>
+      <c r="E4" s="523"/>
+      <c r="F4" s="523"/>
+      <c r="G4" s="522"/>
+      <c r="H4" s="522"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
@@ -10735,28 +10814,28 @@
       <c r="T5" s="12"/>
     </row>
     <row r="6" spans="1:20" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="360" t="s">
+      <c r="A6" s="353" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="361" t="s">
+      <c r="B6" s="354" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="362" t="s">
+      <c r="C6" s="355" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="361" t="s">
+      <c r="D6" s="354" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="361" t="s">
+      <c r="E6" s="354" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="363" t="s">
+      <c r="F6" s="356" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="364" t="s">
+      <c r="G6" s="357" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="365" t="s">
+      <c r="H6" s="358" t="s">
         <v>22</v>
       </c>
       <c r="I6" s="20"/>
@@ -10783,14 +10862,14 @@
       <c r="T6" s="12"/>
     </row>
     <row r="7" spans="1:20" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="519"/>
+      <c r="A7" s="512"/>
       <c r="B7" s="109"/>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
-      <c r="H7" s="352"/>
+      <c r="H7" s="345"/>
       <c r="I7" s="20"/>
       <c r="J7" s="21"/>
       <c r="K7" s="13"/>
@@ -10805,14 +10884,14 @@
       <c r="T7" s="12"/>
     </row>
     <row r="8" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="520"/>
+      <c r="A8" s="513"/>
       <c r="B8" s="125"/>
       <c r="C8" s="49"/>
       <c r="D8" s="126"/>
       <c r="E8" s="126"/>
       <c r="F8" s="126"/>
       <c r="G8" s="126"/>
-      <c r="H8" s="351"/>
+      <c r="H8" s="344"/>
       <c r="I8" s="20"/>
       <c r="J8" s="21"/>
       <c r="K8" s="13"/>
@@ -10833,14 +10912,14 @@
       <c r="T8" s="12"/>
     </row>
     <row r="9" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="520"/>
+      <c r="A9" s="513"/>
       <c r="B9" s="27"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
-      <c r="H9" s="352"/>
+      <c r="H9" s="345"/>
       <c r="I9" s="20"/>
       <c r="J9" s="21"/>
       <c r="K9" s="13"/>
@@ -10855,14 +10934,14 @@
       <c r="T9" s="12"/>
     </row>
     <row r="10" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="520"/>
+      <c r="A10" s="513"/>
       <c r="B10" s="27"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
-      <c r="H10" s="352"/>
+      <c r="H10" s="345"/>
       <c r="I10" s="20"/>
       <c r="J10" s="132"/>
       <c r="K10" s="11"/>
@@ -10877,14 +10956,14 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="520"/>
+      <c r="A11" s="513"/>
       <c r="B11" s="27"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
-      <c r="H11" s="352"/>
+      <c r="H11" s="345"/>
       <c r="I11" s="20"/>
       <c r="J11" s="21"/>
       <c r="K11" s="13"/>
@@ -10899,7 +10978,7 @@
       <c r="T11" s="12"/>
     </row>
     <row r="12" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="520"/>
+      <c r="A12" s="513"/>
       <c r="B12" s="27"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
@@ -10908,7 +10987,7 @@
       <c r="G12" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="352"/>
+      <c r="H12" s="345"/>
       <c r="I12" s="20"/>
       <c r="J12" s="21"/>
       <c r="K12" s="13"/>
@@ -10923,14 +11002,14 @@
       <c r="T12" s="12"/>
     </row>
     <row r="13" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="520"/>
+      <c r="A13" s="513"/>
       <c r="B13" s="27"/>
       <c r="C13" s="28"/>
       <c r="D13" s="107"/>
       <c r="E13" s="9"/>
       <c r="F13" s="162"/>
       <c r="G13" s="125"/>
-      <c r="H13" s="352"/>
+      <c r="H13" s="345"/>
       <c r="I13" s="20"/>
       <c r="J13" s="21"/>
       <c r="K13" s="13"/>
@@ -10945,14 +11024,14 @@
       <c r="T13" s="12"/>
     </row>
     <row r="14" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="520"/>
+      <c r="A14" s="513"/>
       <c r="B14" s="27"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="107"/>
       <c r="F14" s="108"/>
       <c r="G14" s="28"/>
-      <c r="H14" s="352"/>
+      <c r="H14" s="345"/>
       <c r="I14" s="20"/>
       <c r="J14" s="21"/>
       <c r="K14" s="13"/>
@@ -10967,14 +11046,14 @@
       <c r="T14" s="12"/>
     </row>
     <row r="15" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="520"/>
+      <c r="A15" s="513"/>
       <c r="B15" s="27"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
-      <c r="H15" s="352"/>
+      <c r="H15" s="345"/>
       <c r="I15" s="20"/>
       <c r="J15" s="21"/>
       <c r="K15" s="13"/>
@@ -10989,14 +11068,14 @@
       <c r="T15" s="12"/>
     </row>
     <row r="16" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="520"/>
+      <c r="A16" s="513"/>
       <c r="B16" s="27"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
-      <c r="H16" s="352"/>
+      <c r="H16" s="345"/>
       <c r="J16" s="110"/>
       <c r="K16" s="110"/>
       <c r="L16" s="110"/>
@@ -11004,14 +11083,14 @@
       <c r="N16" s="110"/>
     </row>
     <row r="17" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="520"/>
+      <c r="A17" s="513"/>
       <c r="B17" s="27"/>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
-      <c r="H17" s="352"/>
+      <c r="H17" s="345"/>
       <c r="I17" s="20"/>
       <c r="J17" s="21"/>
       <c r="K17" s="13"/>
@@ -11026,14 +11105,14 @@
       <c r="T17" s="12"/>
     </row>
     <row r="18" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="520"/>
+      <c r="A18" s="513"/>
       <c r="B18" s="27"/>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
-      <c r="H18" s="352"/>
+      <c r="H18" s="345"/>
       <c r="J18" s="110"/>
       <c r="K18" s="110"/>
       <c r="L18" s="110"/>
@@ -11041,14 +11120,14 @@
       <c r="N18" s="110"/>
     </row>
     <row r="19" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="520"/>
+      <c r="A19" s="513"/>
       <c r="B19" s="27"/>
       <c r="C19" s="28"/>
       <c r="D19" s="111"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
-      <c r="H19" s="352"/>
+      <c r="H19" s="345"/>
       <c r="I19" s="20"/>
       <c r="J19" s="21"/>
       <c r="K19" s="13"/>
@@ -11063,14 +11142,14 @@
       <c r="T19" s="12"/>
     </row>
     <row r="20" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="520"/>
+      <c r="A20" s="513"/>
       <c r="B20" s="154"/>
       <c r="C20" s="155"/>
       <c r="D20" s="156"/>
       <c r="E20" s="132"/>
       <c r="F20" s="157"/>
       <c r="G20" s="158"/>
-      <c r="H20" s="354"/>
+      <c r="H20" s="347"/>
       <c r="I20" s="20"/>
       <c r="J20" s="21"/>
       <c r="K20" s="13"/>
@@ -11085,14 +11164,14 @@
       <c r="T20" s="12"/>
     </row>
     <row r="21" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="520"/>
+      <c r="A21" s="513"/>
       <c r="B21" s="27"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
-      <c r="H21" s="352"/>
+      <c r="H21" s="345"/>
       <c r="I21" s="20"/>
       <c r="J21" s="21"/>
       <c r="K21" s="13"/>
@@ -11107,14 +11186,14 @@
       <c r="T21" s="12"/>
     </row>
     <row r="22" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="520"/>
+      <c r="A22" s="513"/>
       <c r="B22" s="27"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
-      <c r="H22" s="352"/>
+      <c r="H22" s="345"/>
       <c r="I22" s="20"/>
       <c r="J22" s="21"/>
       <c r="K22" s="13"/>
@@ -11129,14 +11208,14 @@
       <c r="T22" s="12"/>
     </row>
     <row r="23" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="520"/>
+      <c r="A23" s="513"/>
       <c r="B23" s="27"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="352"/>
+      <c r="H23" s="345"/>
       <c r="I23" s="20"/>
       <c r="J23" s="21"/>
       <c r="K23" s="13"/>
@@ -11151,14 +11230,14 @@
       <c r="T23" s="12"/>
     </row>
     <row r="24" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="520"/>
+      <c r="A24" s="513"/>
       <c r="B24" s="27"/>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
-      <c r="H24" s="352"/>
+      <c r="H24" s="345"/>
       <c r="I24" s="20"/>
       <c r="J24" s="21"/>
       <c r="K24" s="13"/>
@@ -11173,14 +11252,14 @@
       <c r="T24" s="12"/>
     </row>
     <row r="25" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="520"/>
+      <c r="A25" s="513"/>
       <c r="B25" s="11"/>
       <c r="C25" s="14"/>
       <c r="D25" s="159"/>
       <c r="E25" s="11"/>
       <c r="F25" s="15"/>
       <c r="G25" s="24"/>
-      <c r="H25" s="355"/>
+      <c r="H25" s="348"/>
       <c r="I25" s="20"/>
       <c r="J25" s="21"/>
       <c r="K25" s="13"/>
@@ -11189,14 +11268,14 @@
       <c r="N25" s="13"/>
     </row>
     <row r="26" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="520"/>
+      <c r="A26" s="513"/>
       <c r="B26" s="27"/>
       <c r="C26" s="28"/>
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
-      <c r="H26" s="352"/>
+      <c r="H26" s="345"/>
       <c r="I26" s="20"/>
       <c r="J26" s="21"/>
       <c r="K26" s="13"/>
@@ -11211,14 +11290,14 @@
       <c r="T26" s="12"/>
     </row>
     <row r="27" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="520"/>
+      <c r="A27" s="513"/>
       <c r="B27" s="27"/>
       <c r="C27" s="28"/>
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
-      <c r="H27" s="352"/>
+      <c r="H27" s="345"/>
       <c r="I27" s="20"/>
       <c r="J27" s="21"/>
       <c r="K27" s="13"/>
@@ -11233,14 +11312,14 @@
       <c r="T27" s="12"/>
     </row>
     <row r="28" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="520"/>
+      <c r="A28" s="513"/>
       <c r="B28" s="27"/>
       <c r="C28" s="28"/>
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
-      <c r="H28" s="352"/>
+      <c r="H28" s="345"/>
       <c r="I28" s="20"/>
       <c r="J28" s="21"/>
       <c r="K28" s="13"/>
@@ -11255,14 +11334,14 @@
       <c r="T28" s="12"/>
     </row>
     <row r="29" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="520"/>
+      <c r="A29" s="513"/>
       <c r="B29" s="27"/>
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
-      <c r="H29" s="352"/>
+      <c r="H29" s="345"/>
       <c r="I29" s="20"/>
       <c r="J29" s="21"/>
       <c r="K29" s="13"/>
@@ -11277,14 +11356,14 @@
       <c r="T29" s="12"/>
     </row>
     <row r="30" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="520"/>
+      <c r="A30" s="513"/>
       <c r="B30" s="27"/>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
       <c r="G30" s="28"/>
-      <c r="H30" s="352"/>
+      <c r="H30" s="345"/>
       <c r="I30" s="20"/>
       <c r="J30" s="21"/>
       <c r="K30" s="13"/>
@@ -11299,14 +11378,14 @@
       <c r="T30" s="12"/>
     </row>
     <row r="31" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="520"/>
+      <c r="A31" s="513"/>
       <c r="B31" s="27"/>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
-      <c r="H31" s="352"/>
+      <c r="H31" s="345"/>
       <c r="I31" s="20"/>
       <c r="J31" s="21"/>
       <c r="K31" s="13"/>
@@ -11321,14 +11400,14 @@
       <c r="T31" s="12"/>
     </row>
     <row r="32" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="520"/>
+      <c r="A32" s="513"/>
       <c r="B32" s="27"/>
       <c r="C32" s="28"/>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
       <c r="F32" s="9"/>
       <c r="G32" s="28"/>
-      <c r="H32" s="352"/>
+      <c r="H32" s="345"/>
       <c r="I32" s="20"/>
       <c r="J32" s="21"/>
       <c r="K32" s="13"/>
@@ -11343,14 +11422,14 @@
       <c r="T32" s="12"/>
     </row>
     <row r="33" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="521"/>
+      <c r="A33" s="514"/>
       <c r="B33" s="130"/>
       <c r="C33" s="111"/>
       <c r="D33" s="111"/>
       <c r="E33" s="111"/>
       <c r="F33" s="111"/>
       <c r="G33" s="111"/>
-      <c r="H33" s="356"/>
+      <c r="H33" s="349"/>
       <c r="I33" s="20"/>
       <c r="J33" s="21"/>
       <c r="K33" s="13"/>
@@ -11365,14 +11444,14 @@
       <c r="T33" s="12"/>
     </row>
     <row r="34" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="520"/>
+      <c r="A34" s="513"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="353"/>
+      <c r="H34" s="346"/>
       <c r="I34" s="20"/>
       <c r="J34" s="21"/>
       <c r="K34" s="13"/>
@@ -11387,14 +11466,14 @@
       <c r="T34" s="12"/>
     </row>
     <row r="35" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="519"/>
+      <c r="A35" s="512"/>
       <c r="B35" s="131"/>
       <c r="C35" s="131"/>
       <c r="D35" s="131"/>
       <c r="E35" s="131"/>
       <c r="F35" s="131"/>
       <c r="G35" s="131"/>
-      <c r="H35" s="357"/>
+      <c r="H35" s="350"/>
       <c r="I35" s="20"/>
       <c r="J35" s="21"/>
       <c r="K35" s="13"/>
@@ -11409,14 +11488,14 @@
       <c r="T35" s="12"/>
     </row>
     <row r="36" spans="1:20" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="522"/>
-      <c r="B36" s="358"/>
-      <c r="C36" s="358"/>
-      <c r="D36" s="358"/>
-      <c r="E36" s="358"/>
-      <c r="F36" s="358"/>
-      <c r="G36" s="358"/>
-      <c r="H36" s="359"/>
+      <c r="A36" s="515"/>
+      <c r="B36" s="351"/>
+      <c r="C36" s="351"/>
+      <c r="D36" s="351"/>
+      <c r="E36" s="351"/>
+      <c r="F36" s="351"/>
+      <c r="G36" s="351"/>
+      <c r="H36" s="352"/>
       <c r="I36" s="20"/>
       <c r="J36" s="21"/>
       <c r="K36" s="13"/>
@@ -11511,6 +11590,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004E036A3F1E15E94A92324F6304EC7433" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f8e394c60fea3207393e1a1a2f77ce3d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c298f69c-7e32-4d69-8a4f-44b776bc75e5" xmlns:ns3="27d18e64-52d1-4030-b5cf-9c691bb829da" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a2c9b44cd906c8c5eef4b4317d39d060" ns2:_="" ns3:_="">
     <xsd:import namespace="c298f69c-7e32-4d69-8a4f-44b776bc75e5"/>
@@ -11753,15 +11841,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -11774,6 +11853,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18B17227-D4F1-4BA2-A533-34BDC1F9C7F0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5E7BAE2-04CC-4A41-8857-4BCE57D1DFAA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11792,14 +11879,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18B17227-D4F1-4BA2-A533-34BDC1F9C7F0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B37A3888-C326-48DF-AE4A-829BED1A658A}">
   <ds:schemaRefs>

--- a/templates/entry_list_template.xlsx
+++ b/templates/entry_list_template.xlsx
@@ -11599,8 +11599,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004E036A3F1E15E94A92324F6304EC7433" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f8e394c60fea3207393e1a1a2f77ce3d">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c298f69c-7e32-4d69-8a4f-44b776bc75e5" xmlns:ns3="27d18e64-52d1-4030-b5cf-9c691bb829da" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a2c9b44cd906c8c5eef4b4317d39d060" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004E036A3F1E15E94A92324F6304EC7433" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fc0835945ef966e9db09458230e2a2f9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c298f69c-7e32-4d69-8a4f-44b776bc75e5" xmlns:ns3="27d18e64-52d1-4030-b5cf-9c691bb829da" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6d705bd76fb4197055f25945441ea0bc" ns2:_="" ns3:_="">
     <xsd:import namespace="c298f69c-7e32-4d69-8a4f-44b776bc75e5"/>
     <xsd:import namespace="27d18e64-52d1-4030-b5cf-9c691bb829da"/>
     <xsd:element name="properties">
@@ -11624,6 +11624,7 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -11698,6 +11699,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="24" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -11861,22 +11867,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5E7BAE2-04CC-4A41-8857-4BCE57D1DFAA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c298f69c-7e32-4d69-8a4f-44b776bc75e5"/>
-    <ds:schemaRef ds:uri="27d18e64-52d1-4030-b5cf-9c691bb829da"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F67E05-8B9D-4F9E-85C0-9D990CDBE63F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
